--- a/data/input_data_brazil.xlsx
+++ b/data/input_data_brazil.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\farah.houdroge\Documents\Covid\covasim-australia-feature-international\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E7BA146E-4208-4323-8A9C-B4216CF026D7}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{680A7ED4-5946-4ABB-A47F-50DF4DA322E9}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="839" activeTab="8" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="839" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="age_sex" sheetId="1" r:id="rId1"/>
@@ -284,9 +284,6 @@
     <t>random</t>
   </si>
   <si>
-    <t>São Paulo</t>
-  </si>
-  <si>
     <t>Rio de Janerio</t>
   </si>
   <si>
@@ -339,6 +336,9 @@
   </si>
   <si>
     <t>Lockdown measures relaxed  more</t>
+  </si>
+  <si>
+    <t>SP</t>
   </si>
 </sst>
 </file>
@@ -679,7 +679,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="82">
+  <cellXfs count="84">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
@@ -771,11 +771,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="13" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="22" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="23" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
@@ -799,13 +794,25 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="22" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="2" borderId="12" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="2" borderId="22" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="2" borderId="23" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -826,18 +833,15 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="22" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1193,7 +1197,7 @@
   <dimension ref="A1:S41"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E43" sqref="E43"/>
+      <selection activeCell="W11" sqref="W11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1258,8 +1262,8 @@
       </c>
     </row>
     <row r="2" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A2" s="67" t="s">
-        <v>74</v>
+      <c r="A2" s="73" t="s">
+        <v>92</v>
       </c>
       <c r="B2" s="45" t="s">
         <v>19</v>
@@ -1317,7 +1321,7 @@
       </c>
     </row>
     <row r="3" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A3" s="67"/>
+      <c r="A3" s="73"/>
       <c r="B3" s="45" t="s">
         <v>20</v>
       </c>
@@ -1374,8 +1378,8 @@
       </c>
     </row>
     <row r="4" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A4" s="67" t="s">
-        <v>75</v>
+      <c r="A4" s="73" t="s">
+        <v>74</v>
       </c>
       <c r="B4" s="45" t="s">
         <v>19</v>
@@ -1433,7 +1437,7 @@
       </c>
     </row>
     <row r="5" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A5" s="67"/>
+      <c r="A5" s="73"/>
       <c r="B5" s="45" t="s">
         <v>20</v>
       </c>
@@ -1490,8 +1494,8 @@
       </c>
     </row>
     <row r="6" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A6" s="67" t="s">
-        <v>76</v>
+      <c r="A6" s="73" t="s">
+        <v>75</v>
       </c>
       <c r="B6" s="45" t="s">
         <v>19</v>
@@ -1549,7 +1553,7 @@
       </c>
     </row>
     <row r="7" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A7" s="67"/>
+      <c r="A7" s="73"/>
       <c r="B7" s="45" t="s">
         <v>20</v>
       </c>
@@ -1606,8 +1610,8 @@
       </c>
     </row>
     <row r="8" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A8" s="67" t="s">
-        <v>77</v>
+      <c r="A8" s="73" t="s">
+        <v>76</v>
       </c>
       <c r="B8" s="45" t="s">
         <v>19</v>
@@ -1665,7 +1669,7 @@
       </c>
     </row>
     <row r="9" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A9" s="67"/>
+      <c r="A9" s="73"/>
       <c r="B9" s="45" t="s">
         <v>20</v>
       </c>
@@ -1722,8 +1726,8 @@
       </c>
     </row>
     <row r="10" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A10" s="67" t="s">
-        <v>78</v>
+      <c r="A10" s="73" t="s">
+        <v>77</v>
       </c>
       <c r="B10" s="45" t="s">
         <v>19</v>
@@ -1781,7 +1785,7 @@
       </c>
     </row>
     <row r="11" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A11" s="67"/>
+      <c r="A11" s="73"/>
       <c r="B11" s="45" t="s">
         <v>20</v>
       </c>
@@ -1838,8 +1842,8 @@
       </c>
     </row>
     <row r="12" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A12" s="67" t="s">
-        <v>79</v>
+      <c r="A12" s="73" t="s">
+        <v>78</v>
       </c>
       <c r="B12" s="45" t="s">
         <v>19</v>
@@ -1897,7 +1901,7 @@
       </c>
     </row>
     <row r="13" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A13" s="67"/>
+      <c r="A13" s="73"/>
       <c r="B13" s="45" t="s">
         <v>20</v>
       </c>
@@ -1954,8 +1958,8 @@
       </c>
     </row>
     <row r="14" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A14" s="67" t="s">
-        <v>80</v>
+      <c r="A14" s="73" t="s">
+        <v>79</v>
       </c>
       <c r="B14" s="45" t="s">
         <v>19</v>
@@ -2013,7 +2017,7 @@
       </c>
     </row>
     <row r="15" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A15" s="67"/>
+      <c r="A15" s="73"/>
       <c r="B15" s="45" t="s">
         <v>20</v>
       </c>
@@ -2070,8 +2074,8 @@
       </c>
     </row>
     <row r="16" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A16" s="67" t="s">
-        <v>81</v>
+      <c r="A16" s="73" t="s">
+        <v>80</v>
       </c>
       <c r="B16" s="45" t="s">
         <v>19</v>
@@ -2129,7 +2133,7 @@
       </c>
     </row>
     <row r="17" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A17" s="67"/>
+      <c r="A17" s="73"/>
       <c r="B17" s="45" t="s">
         <v>20</v>
       </c>
@@ -2186,8 +2190,8 @@
       </c>
     </row>
     <row r="18" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A18" s="67" t="s">
-        <v>82</v>
+      <c r="A18" s="73" t="s">
+        <v>81</v>
       </c>
       <c r="B18" s="45" t="s">
         <v>19</v>
@@ -2245,7 +2249,7 @@
       </c>
     </row>
     <row r="19" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A19" s="67"/>
+      <c r="A19" s="73"/>
       <c r="B19" s="45" t="s">
         <v>20</v>
       </c>
@@ -2302,8 +2306,8 @@
       </c>
     </row>
     <row r="20" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A20" s="67" t="s">
-        <v>83</v>
+      <c r="A20" s="73" t="s">
+        <v>82</v>
       </c>
       <c r="B20" s="45" t="s">
         <v>19</v>
@@ -2361,7 +2365,7 @@
       </c>
     </row>
     <row r="21" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A21" s="67"/>
+      <c r="A21" s="73"/>
       <c r="B21" s="45" t="s">
         <v>20</v>
       </c>
@@ -2418,8 +2422,8 @@
       </c>
     </row>
     <row r="22" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A22" s="67" t="s">
-        <v>74</v>
+      <c r="A22" s="73" t="s">
+        <v>92</v>
       </c>
       <c r="B22" s="45" t="s">
         <v>16</v>
@@ -2477,7 +2481,7 @@
       </c>
     </row>
     <row r="23" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A23" s="67"/>
+      <c r="A23" s="73"/>
       <c r="B23" s="45" t="s">
         <v>21</v>
       </c>
@@ -2534,8 +2538,8 @@
       </c>
     </row>
     <row r="24" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A24" s="67" t="s">
-        <v>75</v>
+      <c r="A24" s="73" t="s">
+        <v>74</v>
       </c>
       <c r="B24" s="45" t="s">
         <v>16</v>
@@ -2593,7 +2597,7 @@
       </c>
     </row>
     <row r="25" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A25" s="67"/>
+      <c r="A25" s="73"/>
       <c r="B25" s="45" t="s">
         <v>21</v>
       </c>
@@ -2650,8 +2654,8 @@
       </c>
     </row>
     <row r="26" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A26" s="67" t="s">
-        <v>76</v>
+      <c r="A26" s="73" t="s">
+        <v>75</v>
       </c>
       <c r="B26" s="45" t="s">
         <v>16</v>
@@ -2709,7 +2713,7 @@
       </c>
     </row>
     <row r="27" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A27" s="67"/>
+      <c r="A27" s="73"/>
       <c r="B27" s="45" t="s">
         <v>21</v>
       </c>
@@ -2766,8 +2770,8 @@
       </c>
     </row>
     <row r="28" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A28" s="67" t="s">
-        <v>77</v>
+      <c r="A28" s="73" t="s">
+        <v>76</v>
       </c>
       <c r="B28" s="45" t="s">
         <v>16</v>
@@ -2825,7 +2829,7 @@
       </c>
     </row>
     <row r="29" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A29" s="67"/>
+      <c r="A29" s="73"/>
       <c r="B29" s="45" t="s">
         <v>21</v>
       </c>
@@ -2882,8 +2886,8 @@
       </c>
     </row>
     <row r="30" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A30" s="67" t="s">
-        <v>78</v>
+      <c r="A30" s="73" t="s">
+        <v>77</v>
       </c>
       <c r="B30" s="45" t="s">
         <v>16</v>
@@ -2941,7 +2945,7 @@
       </c>
     </row>
     <row r="31" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A31" s="67"/>
+      <c r="A31" s="73"/>
       <c r="B31" s="45" t="s">
         <v>21</v>
       </c>
@@ -2998,8 +3002,8 @@
       </c>
     </row>
     <row r="32" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A32" s="67" t="s">
-        <v>79</v>
+      <c r="A32" s="73" t="s">
+        <v>78</v>
       </c>
       <c r="B32" s="45" t="s">
         <v>16</v>
@@ -3057,7 +3061,7 @@
       </c>
     </row>
     <row r="33" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A33" s="67"/>
+      <c r="A33" s="73"/>
       <c r="B33" s="45" t="s">
         <v>21</v>
       </c>
@@ -3114,8 +3118,8 @@
       </c>
     </row>
     <row r="34" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A34" s="67" t="s">
-        <v>80</v>
+      <c r="A34" s="73" t="s">
+        <v>79</v>
       </c>
       <c r="B34" s="45" t="s">
         <v>16</v>
@@ -3173,7 +3177,7 @@
       </c>
     </row>
     <row r="35" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A35" s="67"/>
+      <c r="A35" s="73"/>
       <c r="B35" s="45" t="s">
         <v>21</v>
       </c>
@@ -3230,8 +3234,8 @@
       </c>
     </row>
     <row r="36" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A36" s="67" t="s">
-        <v>81</v>
+      <c r="A36" s="73" t="s">
+        <v>80</v>
       </c>
       <c r="B36" s="45" t="s">
         <v>16</v>
@@ -3289,7 +3293,7 @@
       </c>
     </row>
     <row r="37" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A37" s="67"/>
+      <c r="A37" s="73"/>
       <c r="B37" s="45" t="s">
         <v>21</v>
       </c>
@@ -3346,8 +3350,8 @@
       </c>
     </row>
     <row r="38" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A38" s="67" t="s">
-        <v>82</v>
+      <c r="A38" s="73" t="s">
+        <v>81</v>
       </c>
       <c r="B38" s="45" t="s">
         <v>16</v>
@@ -3405,7 +3409,7 @@
       </c>
     </row>
     <row r="39" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A39" s="67"/>
+      <c r="A39" s="73"/>
       <c r="B39" s="45" t="s">
         <v>21</v>
       </c>
@@ -3462,8 +3466,8 @@
       </c>
     </row>
     <row r="40" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A40" s="67" t="s">
-        <v>83</v>
+      <c r="A40" s="73" t="s">
+        <v>82</v>
       </c>
       <c r="B40" s="45" t="s">
         <v>16</v>
@@ -3521,7 +3525,7 @@
       </c>
     </row>
     <row r="41" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A41" s="67"/>
+      <c r="A41" s="73"/>
       <c r="B41" s="45" t="s">
         <v>21</v>
       </c>
@@ -3579,26 +3583,26 @@
     </row>
   </sheetData>
   <mergeCells count="20">
+    <mergeCell ref="A32:A33"/>
+    <mergeCell ref="A34:A35"/>
+    <mergeCell ref="A36:A37"/>
+    <mergeCell ref="A38:A39"/>
+    <mergeCell ref="A40:A41"/>
+    <mergeCell ref="A22:A23"/>
+    <mergeCell ref="A24:A25"/>
+    <mergeCell ref="A26:A27"/>
+    <mergeCell ref="A28:A29"/>
+    <mergeCell ref="A30:A31"/>
+    <mergeCell ref="A12:A13"/>
+    <mergeCell ref="A14:A15"/>
+    <mergeCell ref="A16:A17"/>
+    <mergeCell ref="A18:A19"/>
+    <mergeCell ref="A20:A21"/>
     <mergeCell ref="A2:A3"/>
     <mergeCell ref="A4:A5"/>
     <mergeCell ref="A6:A7"/>
     <mergeCell ref="A8:A9"/>
     <mergeCell ref="A10:A11"/>
-    <mergeCell ref="A12:A13"/>
-    <mergeCell ref="A14:A15"/>
-    <mergeCell ref="A16:A17"/>
-    <mergeCell ref="A18:A19"/>
-    <mergeCell ref="A20:A21"/>
-    <mergeCell ref="A22:A23"/>
-    <mergeCell ref="A24:A25"/>
-    <mergeCell ref="A26:A27"/>
-    <mergeCell ref="A28:A29"/>
-    <mergeCell ref="A30:A31"/>
-    <mergeCell ref="A32:A33"/>
-    <mergeCell ref="A34:A35"/>
-    <mergeCell ref="A36:A37"/>
-    <mergeCell ref="A38:A39"/>
-    <mergeCell ref="A40:A41"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -3674,8 +3678,8 @@
       </c>
     </row>
     <row r="2" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A2" s="67" t="s">
-        <v>74</v>
+      <c r="A2" s="73" t="s">
+        <v>92</v>
       </c>
       <c r="B2" s="45" t="s">
         <v>0</v>
@@ -3733,7 +3737,7 @@
       </c>
     </row>
     <row r="3" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A3" s="67"/>
+      <c r="A3" s="73"/>
       <c r="B3" s="45" t="s">
         <v>1</v>
       </c>
@@ -3790,7 +3794,7 @@
       </c>
     </row>
     <row r="4" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A4" s="67"/>
+      <c r="A4" s="73"/>
       <c r="B4" s="45" t="s">
         <v>2</v>
       </c>
@@ -3847,7 +3851,7 @@
       </c>
     </row>
     <row r="5" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A5" s="67"/>
+      <c r="A5" s="73"/>
       <c r="B5" s="45" t="s">
         <v>3</v>
       </c>
@@ -3904,7 +3908,7 @@
       </c>
     </row>
     <row r="6" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A6" s="67"/>
+      <c r="A6" s="73"/>
       <c r="B6" s="45" t="s">
         <v>4</v>
       </c>
@@ -3961,7 +3965,7 @@
       </c>
     </row>
     <row r="7" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A7" s="67"/>
+      <c r="A7" s="73"/>
       <c r="B7" s="45" t="s">
         <v>5</v>
       </c>
@@ -4018,7 +4022,7 @@
       </c>
     </row>
     <row r="8" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A8" s="67"/>
+      <c r="A8" s="73"/>
       <c r="B8" s="45" t="s">
         <v>6</v>
       </c>
@@ -4075,7 +4079,7 @@
       </c>
     </row>
     <row r="9" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A9" s="67"/>
+      <c r="A9" s="73"/>
       <c r="B9" s="45" t="s">
         <v>7</v>
       </c>
@@ -4132,7 +4136,7 @@
       </c>
     </row>
     <row r="10" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A10" s="67"/>
+      <c r="A10" s="73"/>
       <c r="B10" s="45" t="s">
         <v>8</v>
       </c>
@@ -4189,7 +4193,7 @@
       </c>
     </row>
     <row r="11" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A11" s="67"/>
+      <c r="A11" s="73"/>
       <c r="B11" s="45" t="s">
         <v>9</v>
       </c>
@@ -4246,7 +4250,7 @@
       </c>
     </row>
     <row r="12" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A12" s="67"/>
+      <c r="A12" s="73"/>
       <c r="B12" s="45" t="s">
         <v>10</v>
       </c>
@@ -4303,7 +4307,7 @@
       </c>
     </row>
     <row r="13" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A13" s="67"/>
+      <c r="A13" s="73"/>
       <c r="B13" s="45" t="s">
         <v>11</v>
       </c>
@@ -4360,7 +4364,7 @@
       </c>
     </row>
     <row r="14" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A14" s="67"/>
+      <c r="A14" s="73"/>
       <c r="B14" s="45" t="s">
         <v>12</v>
       </c>
@@ -4417,7 +4421,7 @@
       </c>
     </row>
     <row r="15" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A15" s="67"/>
+      <c r="A15" s="73"/>
       <c r="B15" s="45" t="s">
         <v>13</v>
       </c>
@@ -4474,7 +4478,7 @@
       </c>
     </row>
     <row r="16" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A16" s="67"/>
+      <c r="A16" s="73"/>
       <c r="B16" s="45" t="s">
         <v>14</v>
       </c>
@@ -4531,7 +4535,7 @@
       </c>
     </row>
     <row r="17" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A17" s="67"/>
+      <c r="A17" s="73"/>
       <c r="B17" s="45" t="s">
         <v>15</v>
       </c>
@@ -4588,8 +4592,8 @@
       </c>
     </row>
     <row r="18" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A18" s="67" t="s">
-        <v>75</v>
+      <c r="A18" s="73" t="s">
+        <v>74</v>
       </c>
       <c r="B18" s="45" t="s">
         <v>0</v>
@@ -4647,7 +4651,7 @@
       </c>
     </row>
     <row r="19" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A19" s="67"/>
+      <c r="A19" s="73"/>
       <c r="B19" s="45" t="s">
         <v>1</v>
       </c>
@@ -4704,7 +4708,7 @@
       </c>
     </row>
     <row r="20" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A20" s="67"/>
+      <c r="A20" s="73"/>
       <c r="B20" s="45" t="s">
         <v>2</v>
       </c>
@@ -4761,7 +4765,7 @@
       </c>
     </row>
     <row r="21" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A21" s="67"/>
+      <c r="A21" s="73"/>
       <c r="B21" s="45" t="s">
         <v>3</v>
       </c>
@@ -4818,7 +4822,7 @@
       </c>
     </row>
     <row r="22" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A22" s="67"/>
+      <c r="A22" s="73"/>
       <c r="B22" s="45" t="s">
         <v>4</v>
       </c>
@@ -4875,7 +4879,7 @@
       </c>
     </row>
     <row r="23" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A23" s="67"/>
+      <c r="A23" s="73"/>
       <c r="B23" s="45" t="s">
         <v>5</v>
       </c>
@@ -4932,7 +4936,7 @@
       </c>
     </row>
     <row r="24" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A24" s="67"/>
+      <c r="A24" s="73"/>
       <c r="B24" s="45" t="s">
         <v>6</v>
       </c>
@@ -4989,7 +4993,7 @@
       </c>
     </row>
     <row r="25" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A25" s="67"/>
+      <c r="A25" s="73"/>
       <c r="B25" s="45" t="s">
         <v>7</v>
       </c>
@@ -5046,7 +5050,7 @@
       </c>
     </row>
     <row r="26" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A26" s="67"/>
+      <c r="A26" s="73"/>
       <c r="B26" s="45" t="s">
         <v>8</v>
       </c>
@@ -5103,7 +5107,7 @@
       </c>
     </row>
     <row r="27" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A27" s="67"/>
+      <c r="A27" s="73"/>
       <c r="B27" s="45" t="s">
         <v>9</v>
       </c>
@@ -5160,7 +5164,7 @@
       </c>
     </row>
     <row r="28" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A28" s="67"/>
+      <c r="A28" s="73"/>
       <c r="B28" s="45" t="s">
         <v>10</v>
       </c>
@@ -5217,7 +5221,7 @@
       </c>
     </row>
     <row r="29" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A29" s="67"/>
+      <c r="A29" s="73"/>
       <c r="B29" s="45" t="s">
         <v>11</v>
       </c>
@@ -5274,7 +5278,7 @@
       </c>
     </row>
     <row r="30" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A30" s="67"/>
+      <c r="A30" s="73"/>
       <c r="B30" s="45" t="s">
         <v>12</v>
       </c>
@@ -5331,7 +5335,7 @@
       </c>
     </row>
     <row r="31" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A31" s="67"/>
+      <c r="A31" s="73"/>
       <c r="B31" s="45" t="s">
         <v>13</v>
       </c>
@@ -5388,7 +5392,7 @@
       </c>
     </row>
     <row r="32" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A32" s="67"/>
+      <c r="A32" s="73"/>
       <c r="B32" s="45" t="s">
         <v>14</v>
       </c>
@@ -5445,7 +5449,7 @@
       </c>
     </row>
     <row r="33" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A33" s="67"/>
+      <c r="A33" s="73"/>
       <c r="B33" s="45" t="s">
         <v>15</v>
       </c>
@@ -5502,8 +5506,8 @@
       </c>
     </row>
     <row r="34" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A34" s="67" t="s">
-        <v>76</v>
+      <c r="A34" s="73" t="s">
+        <v>75</v>
       </c>
       <c r="B34" s="45" t="s">
         <v>0</v>
@@ -5561,7 +5565,7 @@
       </c>
     </row>
     <row r="35" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A35" s="67"/>
+      <c r="A35" s="73"/>
       <c r="B35" s="45" t="s">
         <v>1</v>
       </c>
@@ -5618,7 +5622,7 @@
       </c>
     </row>
     <row r="36" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A36" s="67"/>
+      <c r="A36" s="73"/>
       <c r="B36" s="45" t="s">
         <v>2</v>
       </c>
@@ -5675,7 +5679,7 @@
       </c>
     </row>
     <row r="37" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A37" s="67"/>
+      <c r="A37" s="73"/>
       <c r="B37" s="45" t="s">
         <v>3</v>
       </c>
@@ -5732,7 +5736,7 @@
       </c>
     </row>
     <row r="38" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A38" s="67"/>
+      <c r="A38" s="73"/>
       <c r="B38" s="45" t="s">
         <v>4</v>
       </c>
@@ -5789,7 +5793,7 @@
       </c>
     </row>
     <row r="39" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A39" s="67"/>
+      <c r="A39" s="73"/>
       <c r="B39" s="45" t="s">
         <v>5</v>
       </c>
@@ -5846,7 +5850,7 @@
       </c>
     </row>
     <row r="40" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A40" s="67"/>
+      <c r="A40" s="73"/>
       <c r="B40" s="45" t="s">
         <v>6</v>
       </c>
@@ -5903,7 +5907,7 @@
       </c>
     </row>
     <row r="41" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A41" s="67"/>
+      <c r="A41" s="73"/>
       <c r="B41" s="45" t="s">
         <v>7</v>
       </c>
@@ -5960,7 +5964,7 @@
       </c>
     </row>
     <row r="42" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A42" s="67"/>
+      <c r="A42" s="73"/>
       <c r="B42" s="45" t="s">
         <v>8</v>
       </c>
@@ -6017,7 +6021,7 @@
       </c>
     </row>
     <row r="43" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A43" s="67"/>
+      <c r="A43" s="73"/>
       <c r="B43" s="45" t="s">
         <v>9</v>
       </c>
@@ -6074,7 +6078,7 @@
       </c>
     </row>
     <row r="44" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A44" s="67"/>
+      <c r="A44" s="73"/>
       <c r="B44" s="45" t="s">
         <v>10</v>
       </c>
@@ -6131,7 +6135,7 @@
       </c>
     </row>
     <row r="45" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A45" s="67"/>
+      <c r="A45" s="73"/>
       <c r="B45" s="45" t="s">
         <v>11</v>
       </c>
@@ -6188,7 +6192,7 @@
       </c>
     </row>
     <row r="46" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A46" s="67"/>
+      <c r="A46" s="73"/>
       <c r="B46" s="45" t="s">
         <v>12</v>
       </c>
@@ -6245,7 +6249,7 @@
       </c>
     </row>
     <row r="47" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A47" s="67"/>
+      <c r="A47" s="73"/>
       <c r="B47" s="45" t="s">
         <v>13</v>
       </c>
@@ -6302,7 +6306,7 @@
       </c>
     </row>
     <row r="48" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A48" s="67"/>
+      <c r="A48" s="73"/>
       <c r="B48" s="45" t="s">
         <v>14</v>
       </c>
@@ -6359,7 +6363,7 @@
       </c>
     </row>
     <row r="49" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A49" s="67"/>
+      <c r="A49" s="73"/>
       <c r="B49" s="45" t="s">
         <v>15</v>
       </c>
@@ -6416,8 +6420,8 @@
       </c>
     </row>
     <row r="50" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A50" s="67" t="s">
-        <v>77</v>
+      <c r="A50" s="73" t="s">
+        <v>76</v>
       </c>
       <c r="B50" s="45" t="s">
         <v>0</v>
@@ -6475,7 +6479,7 @@
       </c>
     </row>
     <row r="51" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A51" s="67"/>
+      <c r="A51" s="73"/>
       <c r="B51" s="45" t="s">
         <v>1</v>
       </c>
@@ -6532,7 +6536,7 @@
       </c>
     </row>
     <row r="52" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A52" s="67"/>
+      <c r="A52" s="73"/>
       <c r="B52" s="45" t="s">
         <v>2</v>
       </c>
@@ -6589,7 +6593,7 @@
       </c>
     </row>
     <row r="53" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A53" s="67"/>
+      <c r="A53" s="73"/>
       <c r="B53" s="45" t="s">
         <v>3</v>
       </c>
@@ -6646,7 +6650,7 @@
       </c>
     </row>
     <row r="54" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A54" s="67"/>
+      <c r="A54" s="73"/>
       <c r="B54" s="45" t="s">
         <v>4</v>
       </c>
@@ -6703,7 +6707,7 @@
       </c>
     </row>
     <row r="55" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A55" s="67"/>
+      <c r="A55" s="73"/>
       <c r="B55" s="45" t="s">
         <v>5</v>
       </c>
@@ -6760,7 +6764,7 @@
       </c>
     </row>
     <row r="56" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A56" s="67"/>
+      <c r="A56" s="73"/>
       <c r="B56" s="45" t="s">
         <v>6</v>
       </c>
@@ -6817,7 +6821,7 @@
       </c>
     </row>
     <row r="57" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A57" s="67"/>
+      <c r="A57" s="73"/>
       <c r="B57" s="45" t="s">
         <v>7</v>
       </c>
@@ -6874,7 +6878,7 @@
       </c>
     </row>
     <row r="58" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A58" s="67"/>
+      <c r="A58" s="73"/>
       <c r="B58" s="45" t="s">
         <v>8</v>
       </c>
@@ -6931,7 +6935,7 @@
       </c>
     </row>
     <row r="59" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A59" s="67"/>
+      <c r="A59" s="73"/>
       <c r="B59" s="45" t="s">
         <v>9</v>
       </c>
@@ -6988,7 +6992,7 @@
       </c>
     </row>
     <row r="60" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A60" s="67"/>
+      <c r="A60" s="73"/>
       <c r="B60" s="45" t="s">
         <v>10</v>
       </c>
@@ -7045,7 +7049,7 @@
       </c>
     </row>
     <row r="61" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A61" s="67"/>
+      <c r="A61" s="73"/>
       <c r="B61" s="45" t="s">
         <v>11</v>
       </c>
@@ -7102,7 +7106,7 @@
       </c>
     </row>
     <row r="62" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A62" s="67"/>
+      <c r="A62" s="73"/>
       <c r="B62" s="45" t="s">
         <v>12</v>
       </c>
@@ -7159,7 +7163,7 @@
       </c>
     </row>
     <row r="63" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A63" s="67"/>
+      <c r="A63" s="73"/>
       <c r="B63" s="45" t="s">
         <v>13</v>
       </c>
@@ -7216,7 +7220,7 @@
       </c>
     </row>
     <row r="64" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A64" s="67"/>
+      <c r="A64" s="73"/>
       <c r="B64" s="45" t="s">
         <v>14</v>
       </c>
@@ -7273,7 +7277,7 @@
       </c>
     </row>
     <row r="65" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A65" s="67"/>
+      <c r="A65" s="73"/>
       <c r="B65" s="45" t="s">
         <v>15</v>
       </c>
@@ -7330,8 +7334,8 @@
       </c>
     </row>
     <row r="66" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A66" s="67" t="s">
-        <v>78</v>
+      <c r="A66" s="73" t="s">
+        <v>77</v>
       </c>
       <c r="B66" s="45" t="s">
         <v>0</v>
@@ -7389,7 +7393,7 @@
       </c>
     </row>
     <row r="67" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A67" s="67"/>
+      <c r="A67" s="73"/>
       <c r="B67" s="45" t="s">
         <v>1</v>
       </c>
@@ -7446,7 +7450,7 @@
       </c>
     </row>
     <row r="68" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A68" s="67"/>
+      <c r="A68" s="73"/>
       <c r="B68" s="45" t="s">
         <v>2</v>
       </c>
@@ -7503,7 +7507,7 @@
       </c>
     </row>
     <row r="69" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A69" s="67"/>
+      <c r="A69" s="73"/>
       <c r="B69" s="45" t="s">
         <v>3</v>
       </c>
@@ -7560,7 +7564,7 @@
       </c>
     </row>
     <row r="70" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A70" s="67"/>
+      <c r="A70" s="73"/>
       <c r="B70" s="45" t="s">
         <v>4</v>
       </c>
@@ -7617,7 +7621,7 @@
       </c>
     </row>
     <row r="71" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A71" s="67"/>
+      <c r="A71" s="73"/>
       <c r="B71" s="45" t="s">
         <v>5</v>
       </c>
@@ -7674,7 +7678,7 @@
       </c>
     </row>
     <row r="72" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A72" s="67"/>
+      <c r="A72" s="73"/>
       <c r="B72" s="45" t="s">
         <v>6</v>
       </c>
@@ -7731,7 +7735,7 @@
       </c>
     </row>
     <row r="73" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A73" s="67"/>
+      <c r="A73" s="73"/>
       <c r="B73" s="45" t="s">
         <v>7</v>
       </c>
@@ -7788,7 +7792,7 @@
       </c>
     </row>
     <row r="74" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A74" s="67"/>
+      <c r="A74" s="73"/>
       <c r="B74" s="45" t="s">
         <v>8</v>
       </c>
@@ -7845,7 +7849,7 @@
       </c>
     </row>
     <row r="75" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A75" s="67"/>
+      <c r="A75" s="73"/>
       <c r="B75" s="45" t="s">
         <v>9</v>
       </c>
@@ -7902,7 +7906,7 @@
       </c>
     </row>
     <row r="76" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A76" s="67"/>
+      <c r="A76" s="73"/>
       <c r="B76" s="45" t="s">
         <v>10</v>
       </c>
@@ -7959,7 +7963,7 @@
       </c>
     </row>
     <row r="77" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A77" s="67"/>
+      <c r="A77" s="73"/>
       <c r="B77" s="45" t="s">
         <v>11</v>
       </c>
@@ -8016,7 +8020,7 @@
       </c>
     </row>
     <row r="78" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A78" s="67"/>
+      <c r="A78" s="73"/>
       <c r="B78" s="45" t="s">
         <v>12</v>
       </c>
@@ -8073,7 +8077,7 @@
       </c>
     </row>
     <row r="79" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A79" s="67"/>
+      <c r="A79" s="73"/>
       <c r="B79" s="45" t="s">
         <v>13</v>
       </c>
@@ -8130,7 +8134,7 @@
       </c>
     </row>
     <row r="80" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A80" s="67"/>
+      <c r="A80" s="73"/>
       <c r="B80" s="45" t="s">
         <v>14</v>
       </c>
@@ -8187,7 +8191,7 @@
       </c>
     </row>
     <row r="81" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A81" s="67"/>
+      <c r="A81" s="73"/>
       <c r="B81" s="45" t="s">
         <v>15</v>
       </c>
@@ -8244,8 +8248,8 @@
       </c>
     </row>
     <row r="82" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A82" s="67" t="s">
-        <v>79</v>
+      <c r="A82" s="73" t="s">
+        <v>78</v>
       </c>
       <c r="B82" s="45" t="s">
         <v>0</v>
@@ -8303,7 +8307,7 @@
       </c>
     </row>
     <row r="83" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A83" s="67"/>
+      <c r="A83" s="73"/>
       <c r="B83" s="45" t="s">
         <v>1</v>
       </c>
@@ -8360,7 +8364,7 @@
       </c>
     </row>
     <row r="84" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A84" s="67"/>
+      <c r="A84" s="73"/>
       <c r="B84" s="45" t="s">
         <v>2</v>
       </c>
@@ -8417,7 +8421,7 @@
       </c>
     </row>
     <row r="85" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A85" s="67"/>
+      <c r="A85" s="73"/>
       <c r="B85" s="45" t="s">
         <v>3</v>
       </c>
@@ -8474,7 +8478,7 @@
       </c>
     </row>
     <row r="86" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A86" s="67"/>
+      <c r="A86" s="73"/>
       <c r="B86" s="45" t="s">
         <v>4</v>
       </c>
@@ -8531,7 +8535,7 @@
       </c>
     </row>
     <row r="87" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A87" s="67"/>
+      <c r="A87" s="73"/>
       <c r="B87" s="45" t="s">
         <v>5</v>
       </c>
@@ -8588,7 +8592,7 @@
       </c>
     </row>
     <row r="88" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A88" s="67"/>
+      <c r="A88" s="73"/>
       <c r="B88" s="45" t="s">
         <v>6</v>
       </c>
@@ -8645,7 +8649,7 @@
       </c>
     </row>
     <row r="89" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A89" s="67"/>
+      <c r="A89" s="73"/>
       <c r="B89" s="45" t="s">
         <v>7</v>
       </c>
@@ -8702,7 +8706,7 @@
       </c>
     </row>
     <row r="90" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A90" s="67"/>
+      <c r="A90" s="73"/>
       <c r="B90" s="45" t="s">
         <v>8</v>
       </c>
@@ -8759,7 +8763,7 @@
       </c>
     </row>
     <row r="91" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A91" s="67"/>
+      <c r="A91" s="73"/>
       <c r="B91" s="45" t="s">
         <v>9</v>
       </c>
@@ -8816,7 +8820,7 @@
       </c>
     </row>
     <row r="92" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A92" s="67"/>
+      <c r="A92" s="73"/>
       <c r="B92" s="45" t="s">
         <v>10</v>
       </c>
@@ -8873,7 +8877,7 @@
       </c>
     </row>
     <row r="93" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A93" s="67"/>
+      <c r="A93" s="73"/>
       <c r="B93" s="45" t="s">
         <v>11</v>
       </c>
@@ -8930,7 +8934,7 @@
       </c>
     </row>
     <row r="94" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A94" s="67"/>
+      <c r="A94" s="73"/>
       <c r="B94" s="45" t="s">
         <v>12</v>
       </c>
@@ -8987,7 +8991,7 @@
       </c>
     </row>
     <row r="95" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A95" s="67"/>
+      <c r="A95" s="73"/>
       <c r="B95" s="45" t="s">
         <v>13</v>
       </c>
@@ -9044,7 +9048,7 @@
       </c>
     </row>
     <row r="96" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A96" s="67"/>
+      <c r="A96" s="73"/>
       <c r="B96" s="45" t="s">
         <v>14</v>
       </c>
@@ -9101,7 +9105,7 @@
       </c>
     </row>
     <row r="97" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A97" s="67"/>
+      <c r="A97" s="73"/>
       <c r="B97" s="45" t="s">
         <v>15</v>
       </c>
@@ -9158,8 +9162,8 @@
       </c>
     </row>
     <row r="98" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A98" s="67" t="s">
-        <v>80</v>
+      <c r="A98" s="73" t="s">
+        <v>79</v>
       </c>
       <c r="B98" s="45" t="s">
         <v>0</v>
@@ -9217,7 +9221,7 @@
       </c>
     </row>
     <row r="99" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A99" s="67"/>
+      <c r="A99" s="73"/>
       <c r="B99" s="45" t="s">
         <v>1</v>
       </c>
@@ -9274,7 +9278,7 @@
       </c>
     </row>
     <row r="100" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A100" s="67"/>
+      <c r="A100" s="73"/>
       <c r="B100" s="45" t="s">
         <v>2</v>
       </c>
@@ -9331,7 +9335,7 @@
       </c>
     </row>
     <row r="101" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A101" s="67"/>
+      <c r="A101" s="73"/>
       <c r="B101" s="45" t="s">
         <v>3</v>
       </c>
@@ -9388,7 +9392,7 @@
       </c>
     </row>
     <row r="102" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A102" s="67"/>
+      <c r="A102" s="73"/>
       <c r="B102" s="45" t="s">
         <v>4</v>
       </c>
@@ -9445,7 +9449,7 @@
       </c>
     </row>
     <row r="103" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A103" s="67"/>
+      <c r="A103" s="73"/>
       <c r="B103" s="45" t="s">
         <v>5</v>
       </c>
@@ -9502,7 +9506,7 @@
       </c>
     </row>
     <row r="104" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A104" s="67"/>
+      <c r="A104" s="73"/>
       <c r="B104" s="45" t="s">
         <v>6</v>
       </c>
@@ -9559,7 +9563,7 @@
       </c>
     </row>
     <row r="105" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A105" s="67"/>
+      <c r="A105" s="73"/>
       <c r="B105" s="45" t="s">
         <v>7</v>
       </c>
@@ -9616,7 +9620,7 @@
       </c>
     </row>
     <row r="106" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A106" s="67"/>
+      <c r="A106" s="73"/>
       <c r="B106" s="45" t="s">
         <v>8</v>
       </c>
@@ -9673,7 +9677,7 @@
       </c>
     </row>
     <row r="107" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A107" s="67"/>
+      <c r="A107" s="73"/>
       <c r="B107" s="45" t="s">
         <v>9</v>
       </c>
@@ -9730,7 +9734,7 @@
       </c>
     </row>
     <row r="108" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A108" s="67"/>
+      <c r="A108" s="73"/>
       <c r="B108" s="45" t="s">
         <v>10</v>
       </c>
@@ -9787,7 +9791,7 @@
       </c>
     </row>
     <row r="109" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A109" s="67"/>
+      <c r="A109" s="73"/>
       <c r="B109" s="45" t="s">
         <v>11</v>
       </c>
@@ -9844,7 +9848,7 @@
       </c>
     </row>
     <row r="110" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A110" s="67"/>
+      <c r="A110" s="73"/>
       <c r="B110" s="45" t="s">
         <v>12</v>
       </c>
@@ -9901,7 +9905,7 @@
       </c>
     </row>
     <row r="111" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A111" s="67"/>
+      <c r="A111" s="73"/>
       <c r="B111" s="45" t="s">
         <v>13</v>
       </c>
@@ -9958,7 +9962,7 @@
       </c>
     </row>
     <row r="112" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A112" s="67"/>
+      <c r="A112" s="73"/>
       <c r="B112" s="45" t="s">
         <v>14</v>
       </c>
@@ -10015,7 +10019,7 @@
       </c>
     </row>
     <row r="113" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A113" s="67"/>
+      <c r="A113" s="73"/>
       <c r="B113" s="45" t="s">
         <v>15</v>
       </c>
@@ -10072,8 +10076,8 @@
       </c>
     </row>
     <row r="114" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A114" s="67" t="s">
-        <v>81</v>
+      <c r="A114" s="73" t="s">
+        <v>80</v>
       </c>
       <c r="B114" s="45" t="s">
         <v>0</v>
@@ -10131,7 +10135,7 @@
       </c>
     </row>
     <row r="115" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A115" s="67"/>
+      <c r="A115" s="73"/>
       <c r="B115" s="45" t="s">
         <v>1</v>
       </c>
@@ -10188,7 +10192,7 @@
       </c>
     </row>
     <row r="116" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A116" s="67"/>
+      <c r="A116" s="73"/>
       <c r="B116" s="45" t="s">
         <v>2</v>
       </c>
@@ -10245,7 +10249,7 @@
       </c>
     </row>
     <row r="117" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A117" s="67"/>
+      <c r="A117" s="73"/>
       <c r="B117" s="45" t="s">
         <v>3</v>
       </c>
@@ -10302,7 +10306,7 @@
       </c>
     </row>
     <row r="118" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A118" s="67"/>
+      <c r="A118" s="73"/>
       <c r="B118" s="45" t="s">
         <v>4</v>
       </c>
@@ -10359,7 +10363,7 @@
       </c>
     </row>
     <row r="119" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A119" s="67"/>
+      <c r="A119" s="73"/>
       <c r="B119" s="45" t="s">
         <v>5</v>
       </c>
@@ -10416,7 +10420,7 @@
       </c>
     </row>
     <row r="120" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A120" s="67"/>
+      <c r="A120" s="73"/>
       <c r="B120" s="45" t="s">
         <v>6</v>
       </c>
@@ -10473,7 +10477,7 @@
       </c>
     </row>
     <row r="121" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A121" s="67"/>
+      <c r="A121" s="73"/>
       <c r="B121" s="45" t="s">
         <v>7</v>
       </c>
@@ -10530,7 +10534,7 @@
       </c>
     </row>
     <row r="122" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A122" s="67"/>
+      <c r="A122" s="73"/>
       <c r="B122" s="45" t="s">
         <v>8</v>
       </c>
@@ -10587,7 +10591,7 @@
       </c>
     </row>
     <row r="123" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A123" s="67"/>
+      <c r="A123" s="73"/>
       <c r="B123" s="45" t="s">
         <v>9</v>
       </c>
@@ -10644,7 +10648,7 @@
       </c>
     </row>
     <row r="124" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A124" s="67"/>
+      <c r="A124" s="73"/>
       <c r="B124" s="45" t="s">
         <v>10</v>
       </c>
@@ -10701,7 +10705,7 @@
       </c>
     </row>
     <row r="125" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A125" s="67"/>
+      <c r="A125" s="73"/>
       <c r="B125" s="45" t="s">
         <v>11</v>
       </c>
@@ -10758,7 +10762,7 @@
       </c>
     </row>
     <row r="126" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A126" s="67"/>
+      <c r="A126" s="73"/>
       <c r="B126" s="45" t="s">
         <v>12</v>
       </c>
@@ -10815,7 +10819,7 @@
       </c>
     </row>
     <row r="127" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A127" s="67"/>
+      <c r="A127" s="73"/>
       <c r="B127" s="45" t="s">
         <v>13</v>
       </c>
@@ -10872,7 +10876,7 @@
       </c>
     </row>
     <row r="128" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A128" s="67"/>
+      <c r="A128" s="73"/>
       <c r="B128" s="45" t="s">
         <v>14</v>
       </c>
@@ -10929,7 +10933,7 @@
       </c>
     </row>
     <row r="129" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A129" s="67"/>
+      <c r="A129" s="73"/>
       <c r="B129" s="45" t="s">
         <v>15</v>
       </c>
@@ -10986,8 +10990,8 @@
       </c>
     </row>
     <row r="130" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A130" s="67" t="s">
-        <v>82</v>
+      <c r="A130" s="73" t="s">
+        <v>81</v>
       </c>
       <c r="B130" s="45" t="s">
         <v>0</v>
@@ -11045,7 +11049,7 @@
       </c>
     </row>
     <row r="131" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A131" s="67"/>
+      <c r="A131" s="73"/>
       <c r="B131" s="45" t="s">
         <v>1</v>
       </c>
@@ -11102,7 +11106,7 @@
       </c>
     </row>
     <row r="132" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A132" s="67"/>
+      <c r="A132" s="73"/>
       <c r="B132" s="45" t="s">
         <v>2</v>
       </c>
@@ -11159,7 +11163,7 @@
       </c>
     </row>
     <row r="133" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A133" s="67"/>
+      <c r="A133" s="73"/>
       <c r="B133" s="45" t="s">
         <v>3</v>
       </c>
@@ -11216,7 +11220,7 @@
       </c>
     </row>
     <row r="134" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A134" s="67"/>
+      <c r="A134" s="73"/>
       <c r="B134" s="45" t="s">
         <v>4</v>
       </c>
@@ -11273,7 +11277,7 @@
       </c>
     </row>
     <row r="135" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A135" s="67"/>
+      <c r="A135" s="73"/>
       <c r="B135" s="45" t="s">
         <v>5</v>
       </c>
@@ -11330,7 +11334,7 @@
       </c>
     </row>
     <row r="136" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A136" s="67"/>
+      <c r="A136" s="73"/>
       <c r="B136" s="45" t="s">
         <v>6</v>
       </c>
@@ -11387,7 +11391,7 @@
       </c>
     </row>
     <row r="137" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A137" s="67"/>
+      <c r="A137" s="73"/>
       <c r="B137" s="45" t="s">
         <v>7</v>
       </c>
@@ -11444,7 +11448,7 @@
       </c>
     </row>
     <row r="138" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A138" s="67"/>
+      <c r="A138" s="73"/>
       <c r="B138" s="45" t="s">
         <v>8</v>
       </c>
@@ -11501,7 +11505,7 @@
       </c>
     </row>
     <row r="139" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A139" s="67"/>
+      <c r="A139" s="73"/>
       <c r="B139" s="45" t="s">
         <v>9</v>
       </c>
@@ -11558,7 +11562,7 @@
       </c>
     </row>
     <row r="140" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A140" s="67"/>
+      <c r="A140" s="73"/>
       <c r="B140" s="45" t="s">
         <v>10</v>
       </c>
@@ -11615,7 +11619,7 @@
       </c>
     </row>
     <row r="141" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A141" s="67"/>
+      <c r="A141" s="73"/>
       <c r="B141" s="45" t="s">
         <v>11</v>
       </c>
@@ -11672,7 +11676,7 @@
       </c>
     </row>
     <row r="142" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A142" s="67"/>
+      <c r="A142" s="73"/>
       <c r="B142" s="45" t="s">
         <v>12</v>
       </c>
@@ -11729,7 +11733,7 @@
       </c>
     </row>
     <row r="143" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A143" s="67"/>
+      <c r="A143" s="73"/>
       <c r="B143" s="45" t="s">
         <v>13</v>
       </c>
@@ -11786,7 +11790,7 @@
       </c>
     </row>
     <row r="144" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A144" s="67"/>
+      <c r="A144" s="73"/>
       <c r="B144" s="45" t="s">
         <v>14</v>
       </c>
@@ -11843,7 +11847,7 @@
       </c>
     </row>
     <row r="145" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A145" s="67"/>
+      <c r="A145" s="73"/>
       <c r="B145" s="45" t="s">
         <v>15</v>
       </c>
@@ -11900,8 +11904,8 @@
       </c>
     </row>
     <row r="146" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A146" s="67" t="s">
-        <v>83</v>
+      <c r="A146" s="73" t="s">
+        <v>82</v>
       </c>
       <c r="B146" s="45" t="s">
         <v>0</v>
@@ -11959,7 +11963,7 @@
       </c>
     </row>
     <row r="147" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A147" s="67"/>
+      <c r="A147" s="73"/>
       <c r="B147" s="45" t="s">
         <v>1</v>
       </c>
@@ -12016,7 +12020,7 @@
       </c>
     </row>
     <row r="148" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A148" s="67"/>
+      <c r="A148" s="73"/>
       <c r="B148" s="45" t="s">
         <v>2</v>
       </c>
@@ -12073,7 +12077,7 @@
       </c>
     </row>
     <row r="149" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A149" s="67"/>
+      <c r="A149" s="73"/>
       <c r="B149" s="45" t="s">
         <v>3</v>
       </c>
@@ -12130,7 +12134,7 @@
       </c>
     </row>
     <row r="150" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A150" s="67"/>
+      <c r="A150" s="73"/>
       <c r="B150" s="45" t="s">
         <v>4</v>
       </c>
@@ -12187,7 +12191,7 @@
       </c>
     </row>
     <row r="151" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A151" s="67"/>
+      <c r="A151" s="73"/>
       <c r="B151" s="45" t="s">
         <v>5</v>
       </c>
@@ -12244,7 +12248,7 @@
       </c>
     </row>
     <row r="152" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A152" s="67"/>
+      <c r="A152" s="73"/>
       <c r="B152" s="45" t="s">
         <v>6</v>
       </c>
@@ -12301,7 +12305,7 @@
       </c>
     </row>
     <row r="153" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A153" s="67"/>
+      <c r="A153" s="73"/>
       <c r="B153" s="45" t="s">
         <v>7</v>
       </c>
@@ -12358,7 +12362,7 @@
       </c>
     </row>
     <row r="154" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A154" s="67"/>
+      <c r="A154" s="73"/>
       <c r="B154" s="45" t="s">
         <v>8</v>
       </c>
@@ -12415,7 +12419,7 @@
       </c>
     </row>
     <row r="155" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A155" s="67"/>
+      <c r="A155" s="73"/>
       <c r="B155" s="45" t="s">
         <v>9</v>
       </c>
@@ -12472,7 +12476,7 @@
       </c>
     </row>
     <row r="156" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A156" s="67"/>
+      <c r="A156" s="73"/>
       <c r="B156" s="45" t="s">
         <v>10</v>
       </c>
@@ -12529,7 +12533,7 @@
       </c>
     </row>
     <row r="157" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A157" s="67"/>
+      <c r="A157" s="73"/>
       <c r="B157" s="45" t="s">
         <v>11</v>
       </c>
@@ -12586,7 +12590,7 @@
       </c>
     </row>
     <row r="158" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A158" s="67"/>
+      <c r="A158" s="73"/>
       <c r="B158" s="45" t="s">
         <v>12</v>
       </c>
@@ -12643,7 +12647,7 @@
       </c>
     </row>
     <row r="159" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A159" s="67"/>
+      <c r="A159" s="73"/>
       <c r="B159" s="45" t="s">
         <v>13</v>
       </c>
@@ -12700,7 +12704,7 @@
       </c>
     </row>
     <row r="160" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A160" s="67"/>
+      <c r="A160" s="73"/>
       <c r="B160" s="45" t="s">
         <v>14</v>
       </c>
@@ -12757,7 +12761,7 @@
       </c>
     </row>
     <row r="161" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A161" s="67"/>
+      <c r="A161" s="73"/>
       <c r="B161" s="45" t="s">
         <v>15</v>
       </c>
@@ -12815,16 +12819,16 @@
     </row>
   </sheetData>
   <mergeCells count="10">
+    <mergeCell ref="A82:A97"/>
+    <mergeCell ref="A98:A113"/>
+    <mergeCell ref="A114:A129"/>
+    <mergeCell ref="A130:A145"/>
+    <mergeCell ref="A146:A161"/>
     <mergeCell ref="A2:A17"/>
     <mergeCell ref="A18:A33"/>
     <mergeCell ref="A34:A49"/>
     <mergeCell ref="A50:A65"/>
     <mergeCell ref="A66:A81"/>
-    <mergeCell ref="A82:A97"/>
-    <mergeCell ref="A98:A113"/>
-    <mergeCell ref="A114:A129"/>
-    <mergeCell ref="A130:A145"/>
-    <mergeCell ref="A146:A161"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -12900,8 +12904,8 @@
       </c>
     </row>
     <row r="2" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A2" s="67" t="s">
-        <v>74</v>
+      <c r="A2" s="73" t="s">
+        <v>92</v>
       </c>
       <c r="B2" s="45" t="s">
         <v>0</v>
@@ -12959,7 +12963,7 @@
       </c>
     </row>
     <row r="3" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A3" s="67"/>
+      <c r="A3" s="73"/>
       <c r="B3" s="45" t="s">
         <v>1</v>
       </c>
@@ -13016,7 +13020,7 @@
       </c>
     </row>
     <row r="4" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A4" s="67"/>
+      <c r="A4" s="73"/>
       <c r="B4" s="45" t="s">
         <v>2</v>
       </c>
@@ -13073,7 +13077,7 @@
       </c>
     </row>
     <row r="5" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A5" s="67"/>
+      <c r="A5" s="73"/>
       <c r="B5" s="45" t="s">
         <v>3</v>
       </c>
@@ -13130,7 +13134,7 @@
       </c>
     </row>
     <row r="6" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A6" s="67"/>
+      <c r="A6" s="73"/>
       <c r="B6" s="45" t="s">
         <v>4</v>
       </c>
@@ -13187,7 +13191,7 @@
       </c>
     </row>
     <row r="7" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A7" s="67"/>
+      <c r="A7" s="73"/>
       <c r="B7" s="45" t="s">
         <v>5</v>
       </c>
@@ -13244,7 +13248,7 @@
       </c>
     </row>
     <row r="8" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A8" s="67"/>
+      <c r="A8" s="73"/>
       <c r="B8" s="45" t="s">
         <v>6</v>
       </c>
@@ -13301,7 +13305,7 @@
       </c>
     </row>
     <row r="9" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A9" s="67"/>
+      <c r="A9" s="73"/>
       <c r="B9" s="45" t="s">
         <v>7</v>
       </c>
@@ -13358,7 +13362,7 @@
       </c>
     </row>
     <row r="10" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A10" s="67"/>
+      <c r="A10" s="73"/>
       <c r="B10" s="45" t="s">
         <v>8</v>
       </c>
@@ -13415,7 +13419,7 @@
       </c>
     </row>
     <row r="11" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A11" s="67"/>
+      <c r="A11" s="73"/>
       <c r="B11" s="45" t="s">
         <v>9</v>
       </c>
@@ -13472,7 +13476,7 @@
       </c>
     </row>
     <row r="12" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A12" s="67"/>
+      <c r="A12" s="73"/>
       <c r="B12" s="45" t="s">
         <v>10</v>
       </c>
@@ -13529,7 +13533,7 @@
       </c>
     </row>
     <row r="13" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A13" s="67"/>
+      <c r="A13" s="73"/>
       <c r="B13" s="45" t="s">
         <v>11</v>
       </c>
@@ -13586,7 +13590,7 @@
       </c>
     </row>
     <row r="14" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A14" s="67"/>
+      <c r="A14" s="73"/>
       <c r="B14" s="45" t="s">
         <v>12</v>
       </c>
@@ -13643,7 +13647,7 @@
       </c>
     </row>
     <row r="15" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A15" s="67"/>
+      <c r="A15" s="73"/>
       <c r="B15" s="45" t="s">
         <v>13</v>
       </c>
@@ -13700,7 +13704,7 @@
       </c>
     </row>
     <row r="16" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A16" s="67"/>
+      <c r="A16" s="73"/>
       <c r="B16" s="45" t="s">
         <v>14</v>
       </c>
@@ -13757,7 +13761,7 @@
       </c>
     </row>
     <row r="17" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A17" s="67"/>
+      <c r="A17" s="73"/>
       <c r="B17" s="45" t="s">
         <v>15</v>
       </c>
@@ -13814,8 +13818,8 @@
       </c>
     </row>
     <row r="18" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A18" s="67" t="s">
-        <v>75</v>
+      <c r="A18" s="73" t="s">
+        <v>74</v>
       </c>
       <c r="B18" s="45" t="s">
         <v>0</v>
@@ -13873,7 +13877,7 @@
       </c>
     </row>
     <row r="19" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A19" s="67"/>
+      <c r="A19" s="73"/>
       <c r="B19" s="45" t="s">
         <v>1</v>
       </c>
@@ -13930,7 +13934,7 @@
       </c>
     </row>
     <row r="20" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A20" s="67"/>
+      <c r="A20" s="73"/>
       <c r="B20" s="45" t="s">
         <v>2</v>
       </c>
@@ -13987,7 +13991,7 @@
       </c>
     </row>
     <row r="21" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A21" s="67"/>
+      <c r="A21" s="73"/>
       <c r="B21" s="45" t="s">
         <v>3</v>
       </c>
@@ -14044,7 +14048,7 @@
       </c>
     </row>
     <row r="22" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A22" s="67"/>
+      <c r="A22" s="73"/>
       <c r="B22" s="45" t="s">
         <v>4</v>
       </c>
@@ -14101,7 +14105,7 @@
       </c>
     </row>
     <row r="23" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A23" s="67"/>
+      <c r="A23" s="73"/>
       <c r="B23" s="45" t="s">
         <v>5</v>
       </c>
@@ -14158,7 +14162,7 @@
       </c>
     </row>
     <row r="24" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A24" s="67"/>
+      <c r="A24" s="73"/>
       <c r="B24" s="45" t="s">
         <v>6</v>
       </c>
@@ -14215,7 +14219,7 @@
       </c>
     </row>
     <row r="25" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A25" s="67"/>
+      <c r="A25" s="73"/>
       <c r="B25" s="45" t="s">
         <v>7</v>
       </c>
@@ -14272,7 +14276,7 @@
       </c>
     </row>
     <row r="26" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A26" s="67"/>
+      <c r="A26" s="73"/>
       <c r="B26" s="45" t="s">
         <v>8</v>
       </c>
@@ -14329,7 +14333,7 @@
       </c>
     </row>
     <row r="27" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A27" s="67"/>
+      <c r="A27" s="73"/>
       <c r="B27" s="45" t="s">
         <v>9</v>
       </c>
@@ -14386,7 +14390,7 @@
       </c>
     </row>
     <row r="28" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A28" s="67"/>
+      <c r="A28" s="73"/>
       <c r="B28" s="45" t="s">
         <v>10</v>
       </c>
@@ -14443,7 +14447,7 @@
       </c>
     </row>
     <row r="29" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A29" s="67"/>
+      <c r="A29" s="73"/>
       <c r="B29" s="45" t="s">
         <v>11</v>
       </c>
@@ -14500,7 +14504,7 @@
       </c>
     </row>
     <row r="30" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A30" s="67"/>
+      <c r="A30" s="73"/>
       <c r="B30" s="45" t="s">
         <v>12</v>
       </c>
@@ -14557,7 +14561,7 @@
       </c>
     </row>
     <row r="31" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A31" s="67"/>
+      <c r="A31" s="73"/>
       <c r="B31" s="45" t="s">
         <v>13</v>
       </c>
@@ -14614,7 +14618,7 @@
       </c>
     </row>
     <row r="32" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A32" s="67"/>
+      <c r="A32" s="73"/>
       <c r="B32" s="45" t="s">
         <v>14</v>
       </c>
@@ -14671,7 +14675,7 @@
       </c>
     </row>
     <row r="33" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A33" s="67"/>
+      <c r="A33" s="73"/>
       <c r="B33" s="45" t="s">
         <v>15</v>
       </c>
@@ -14728,8 +14732,8 @@
       </c>
     </row>
     <row r="34" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A34" s="67" t="s">
-        <v>76</v>
+      <c r="A34" s="73" t="s">
+        <v>75</v>
       </c>
       <c r="B34" s="45" t="s">
         <v>0</v>
@@ -14787,7 +14791,7 @@
       </c>
     </row>
     <row r="35" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A35" s="67"/>
+      <c r="A35" s="73"/>
       <c r="B35" s="45" t="s">
         <v>1</v>
       </c>
@@ -14844,7 +14848,7 @@
       </c>
     </row>
     <row r="36" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A36" s="67"/>
+      <c r="A36" s="73"/>
       <c r="B36" s="45" t="s">
         <v>2</v>
       </c>
@@ -14901,7 +14905,7 @@
       </c>
     </row>
     <row r="37" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A37" s="67"/>
+      <c r="A37" s="73"/>
       <c r="B37" s="45" t="s">
         <v>3</v>
       </c>
@@ -14958,7 +14962,7 @@
       </c>
     </row>
     <row r="38" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A38" s="67"/>
+      <c r="A38" s="73"/>
       <c r="B38" s="45" t="s">
         <v>4</v>
       </c>
@@ -15015,7 +15019,7 @@
       </c>
     </row>
     <row r="39" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A39" s="67"/>
+      <c r="A39" s="73"/>
       <c r="B39" s="45" t="s">
         <v>5</v>
       </c>
@@ -15072,7 +15076,7 @@
       </c>
     </row>
     <row r="40" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A40" s="67"/>
+      <c r="A40" s="73"/>
       <c r="B40" s="45" t="s">
         <v>6</v>
       </c>
@@ -15129,7 +15133,7 @@
       </c>
     </row>
     <row r="41" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A41" s="67"/>
+      <c r="A41" s="73"/>
       <c r="B41" s="45" t="s">
         <v>7</v>
       </c>
@@ -15186,7 +15190,7 @@
       </c>
     </row>
     <row r="42" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A42" s="67"/>
+      <c r="A42" s="73"/>
       <c r="B42" s="45" t="s">
         <v>8</v>
       </c>
@@ -15243,7 +15247,7 @@
       </c>
     </row>
     <row r="43" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A43" s="67"/>
+      <c r="A43" s="73"/>
       <c r="B43" s="45" t="s">
         <v>9</v>
       </c>
@@ -15300,7 +15304,7 @@
       </c>
     </row>
     <row r="44" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A44" s="67"/>
+      <c r="A44" s="73"/>
       <c r="B44" s="45" t="s">
         <v>10</v>
       </c>
@@ -15357,7 +15361,7 @@
       </c>
     </row>
     <row r="45" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A45" s="67"/>
+      <c r="A45" s="73"/>
       <c r="B45" s="45" t="s">
         <v>11</v>
       </c>
@@ -15414,7 +15418,7 @@
       </c>
     </row>
     <row r="46" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A46" s="67"/>
+      <c r="A46" s="73"/>
       <c r="B46" s="45" t="s">
         <v>12</v>
       </c>
@@ -15471,7 +15475,7 @@
       </c>
     </row>
     <row r="47" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A47" s="67"/>
+      <c r="A47" s="73"/>
       <c r="B47" s="45" t="s">
         <v>13</v>
       </c>
@@ -15528,7 +15532,7 @@
       </c>
     </row>
     <row r="48" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A48" s="67"/>
+      <c r="A48" s="73"/>
       <c r="B48" s="45" t="s">
         <v>14</v>
       </c>
@@ -15585,7 +15589,7 @@
       </c>
     </row>
     <row r="49" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A49" s="67"/>
+      <c r="A49" s="73"/>
       <c r="B49" s="45" t="s">
         <v>15</v>
       </c>
@@ -15642,8 +15646,8 @@
       </c>
     </row>
     <row r="50" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A50" s="67" t="s">
-        <v>77</v>
+      <c r="A50" s="73" t="s">
+        <v>76</v>
       </c>
       <c r="B50" s="45" t="s">
         <v>0</v>
@@ -15701,7 +15705,7 @@
       </c>
     </row>
     <row r="51" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A51" s="67"/>
+      <c r="A51" s="73"/>
       <c r="B51" s="45" t="s">
         <v>1</v>
       </c>
@@ -15758,7 +15762,7 @@
       </c>
     </row>
     <row r="52" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A52" s="67"/>
+      <c r="A52" s="73"/>
       <c r="B52" s="45" t="s">
         <v>2</v>
       </c>
@@ -15815,7 +15819,7 @@
       </c>
     </row>
     <row r="53" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A53" s="67"/>
+      <c r="A53" s="73"/>
       <c r="B53" s="45" t="s">
         <v>3</v>
       </c>
@@ -15872,7 +15876,7 @@
       </c>
     </row>
     <row r="54" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A54" s="67"/>
+      <c r="A54" s="73"/>
       <c r="B54" s="45" t="s">
         <v>4</v>
       </c>
@@ -15929,7 +15933,7 @@
       </c>
     </row>
     <row r="55" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A55" s="67"/>
+      <c r="A55" s="73"/>
       <c r="B55" s="45" t="s">
         <v>5</v>
       </c>
@@ -15986,7 +15990,7 @@
       </c>
     </row>
     <row r="56" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A56" s="67"/>
+      <c r="A56" s="73"/>
       <c r="B56" s="45" t="s">
         <v>6</v>
       </c>
@@ -16043,7 +16047,7 @@
       </c>
     </row>
     <row r="57" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A57" s="67"/>
+      <c r="A57" s="73"/>
       <c r="B57" s="45" t="s">
         <v>7</v>
       </c>
@@ -16100,7 +16104,7 @@
       </c>
     </row>
     <row r="58" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A58" s="67"/>
+      <c r="A58" s="73"/>
       <c r="B58" s="45" t="s">
         <v>8</v>
       </c>
@@ -16157,7 +16161,7 @@
       </c>
     </row>
     <row r="59" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A59" s="67"/>
+      <c r="A59" s="73"/>
       <c r="B59" s="45" t="s">
         <v>9</v>
       </c>
@@ -16214,7 +16218,7 @@
       </c>
     </row>
     <row r="60" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A60" s="67"/>
+      <c r="A60" s="73"/>
       <c r="B60" s="45" t="s">
         <v>10</v>
       </c>
@@ -16271,7 +16275,7 @@
       </c>
     </row>
     <row r="61" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A61" s="67"/>
+      <c r="A61" s="73"/>
       <c r="B61" s="45" t="s">
         <v>11</v>
       </c>
@@ -16328,7 +16332,7 @@
       </c>
     </row>
     <row r="62" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A62" s="67"/>
+      <c r="A62" s="73"/>
       <c r="B62" s="45" t="s">
         <v>12</v>
       </c>
@@ -16385,7 +16389,7 @@
       </c>
     </row>
     <row r="63" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A63" s="67"/>
+      <c r="A63" s="73"/>
       <c r="B63" s="45" t="s">
         <v>13</v>
       </c>
@@ -16442,7 +16446,7 @@
       </c>
     </row>
     <row r="64" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A64" s="67"/>
+      <c r="A64" s="73"/>
       <c r="B64" s="45" t="s">
         <v>14</v>
       </c>
@@ -16499,7 +16503,7 @@
       </c>
     </row>
     <row r="65" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A65" s="67"/>
+      <c r="A65" s="73"/>
       <c r="B65" s="45" t="s">
         <v>15</v>
       </c>
@@ -16556,8 +16560,8 @@
       </c>
     </row>
     <row r="66" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A66" s="67" t="s">
-        <v>78</v>
+      <c r="A66" s="73" t="s">
+        <v>77</v>
       </c>
       <c r="B66" s="45" t="s">
         <v>0</v>
@@ -16615,7 +16619,7 @@
       </c>
     </row>
     <row r="67" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A67" s="67"/>
+      <c r="A67" s="73"/>
       <c r="B67" s="45" t="s">
         <v>1</v>
       </c>
@@ -16672,7 +16676,7 @@
       </c>
     </row>
     <row r="68" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A68" s="67"/>
+      <c r="A68" s="73"/>
       <c r="B68" s="45" t="s">
         <v>2</v>
       </c>
@@ -16729,7 +16733,7 @@
       </c>
     </row>
     <row r="69" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A69" s="67"/>
+      <c r="A69" s="73"/>
       <c r="B69" s="45" t="s">
         <v>3</v>
       </c>
@@ -16786,7 +16790,7 @@
       </c>
     </row>
     <row r="70" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A70" s="67"/>
+      <c r="A70" s="73"/>
       <c r="B70" s="45" t="s">
         <v>4</v>
       </c>
@@ -16843,7 +16847,7 @@
       </c>
     </row>
     <row r="71" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A71" s="67"/>
+      <c r="A71" s="73"/>
       <c r="B71" s="45" t="s">
         <v>5</v>
       </c>
@@ -16900,7 +16904,7 @@
       </c>
     </row>
     <row r="72" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A72" s="67"/>
+      <c r="A72" s="73"/>
       <c r="B72" s="45" t="s">
         <v>6</v>
       </c>
@@ -16957,7 +16961,7 @@
       </c>
     </row>
     <row r="73" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A73" s="67"/>
+      <c r="A73" s="73"/>
       <c r="B73" s="45" t="s">
         <v>7</v>
       </c>
@@ -17014,7 +17018,7 @@
       </c>
     </row>
     <row r="74" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A74" s="67"/>
+      <c r="A74" s="73"/>
       <c r="B74" s="45" t="s">
         <v>8</v>
       </c>
@@ -17071,7 +17075,7 @@
       </c>
     </row>
     <row r="75" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A75" s="67"/>
+      <c r="A75" s="73"/>
       <c r="B75" s="45" t="s">
         <v>9</v>
       </c>
@@ -17128,7 +17132,7 @@
       </c>
     </row>
     <row r="76" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A76" s="67"/>
+      <c r="A76" s="73"/>
       <c r="B76" s="45" t="s">
         <v>10</v>
       </c>
@@ -17185,7 +17189,7 @@
       </c>
     </row>
     <row r="77" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A77" s="67"/>
+      <c r="A77" s="73"/>
       <c r="B77" s="45" t="s">
         <v>11</v>
       </c>
@@ -17242,7 +17246,7 @@
       </c>
     </row>
     <row r="78" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A78" s="67"/>
+      <c r="A78" s="73"/>
       <c r="B78" s="45" t="s">
         <v>12</v>
       </c>
@@ -17299,7 +17303,7 @@
       </c>
     </row>
     <row r="79" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A79" s="67"/>
+      <c r="A79" s="73"/>
       <c r="B79" s="45" t="s">
         <v>13</v>
       </c>
@@ -17356,7 +17360,7 @@
       </c>
     </row>
     <row r="80" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A80" s="67"/>
+      <c r="A80" s="73"/>
       <c r="B80" s="45" t="s">
         <v>14</v>
       </c>
@@ -17413,7 +17417,7 @@
       </c>
     </row>
     <row r="81" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A81" s="67"/>
+      <c r="A81" s="73"/>
       <c r="B81" s="45" t="s">
         <v>15</v>
       </c>
@@ -17470,8 +17474,8 @@
       </c>
     </row>
     <row r="82" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A82" s="67" t="s">
-        <v>79</v>
+      <c r="A82" s="73" t="s">
+        <v>78</v>
       </c>
       <c r="B82" s="45" t="s">
         <v>0</v>
@@ -17529,7 +17533,7 @@
       </c>
     </row>
     <row r="83" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A83" s="67"/>
+      <c r="A83" s="73"/>
       <c r="B83" s="45" t="s">
         <v>1</v>
       </c>
@@ -17586,7 +17590,7 @@
       </c>
     </row>
     <row r="84" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A84" s="67"/>
+      <c r="A84" s="73"/>
       <c r="B84" s="45" t="s">
         <v>2</v>
       </c>
@@ -17643,7 +17647,7 @@
       </c>
     </row>
     <row r="85" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A85" s="67"/>
+      <c r="A85" s="73"/>
       <c r="B85" s="45" t="s">
         <v>3</v>
       </c>
@@ -17700,7 +17704,7 @@
       </c>
     </row>
     <row r="86" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A86" s="67"/>
+      <c r="A86" s="73"/>
       <c r="B86" s="45" t="s">
         <v>4</v>
       </c>
@@ -17757,7 +17761,7 @@
       </c>
     </row>
     <row r="87" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A87" s="67"/>
+      <c r="A87" s="73"/>
       <c r="B87" s="45" t="s">
         <v>5</v>
       </c>
@@ -17814,7 +17818,7 @@
       </c>
     </row>
     <row r="88" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A88" s="67"/>
+      <c r="A88" s="73"/>
       <c r="B88" s="45" t="s">
         <v>6</v>
       </c>
@@ -17871,7 +17875,7 @@
       </c>
     </row>
     <row r="89" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A89" s="67"/>
+      <c r="A89" s="73"/>
       <c r="B89" s="45" t="s">
         <v>7</v>
       </c>
@@ -17928,7 +17932,7 @@
       </c>
     </row>
     <row r="90" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A90" s="67"/>
+      <c r="A90" s="73"/>
       <c r="B90" s="45" t="s">
         <v>8</v>
       </c>
@@ -17985,7 +17989,7 @@
       </c>
     </row>
     <row r="91" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A91" s="67"/>
+      <c r="A91" s="73"/>
       <c r="B91" s="45" t="s">
         <v>9</v>
       </c>
@@ -18042,7 +18046,7 @@
       </c>
     </row>
     <row r="92" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A92" s="67"/>
+      <c r="A92" s="73"/>
       <c r="B92" s="45" t="s">
         <v>10</v>
       </c>
@@ -18099,7 +18103,7 @@
       </c>
     </row>
     <row r="93" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A93" s="67"/>
+      <c r="A93" s="73"/>
       <c r="B93" s="45" t="s">
         <v>11</v>
       </c>
@@ -18156,7 +18160,7 @@
       </c>
     </row>
     <row r="94" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A94" s="67"/>
+      <c r="A94" s="73"/>
       <c r="B94" s="45" t="s">
         <v>12</v>
       </c>
@@ -18213,7 +18217,7 @@
       </c>
     </row>
     <row r="95" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A95" s="67"/>
+      <c r="A95" s="73"/>
       <c r="B95" s="45" t="s">
         <v>13</v>
       </c>
@@ -18270,7 +18274,7 @@
       </c>
     </row>
     <row r="96" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A96" s="67"/>
+      <c r="A96" s="73"/>
       <c r="B96" s="45" t="s">
         <v>14</v>
       </c>
@@ -18327,7 +18331,7 @@
       </c>
     </row>
     <row r="97" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A97" s="67"/>
+      <c r="A97" s="73"/>
       <c r="B97" s="45" t="s">
         <v>15</v>
       </c>
@@ -18384,8 +18388,8 @@
       </c>
     </row>
     <row r="98" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A98" s="67" t="s">
-        <v>80</v>
+      <c r="A98" s="73" t="s">
+        <v>79</v>
       </c>
       <c r="B98" s="45" t="s">
         <v>0</v>
@@ -18443,7 +18447,7 @@
       </c>
     </row>
     <row r="99" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A99" s="67"/>
+      <c r="A99" s="73"/>
       <c r="B99" s="45" t="s">
         <v>1</v>
       </c>
@@ -18500,7 +18504,7 @@
       </c>
     </row>
     <row r="100" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A100" s="67"/>
+      <c r="A100" s="73"/>
       <c r="B100" s="45" t="s">
         <v>2</v>
       </c>
@@ -18557,7 +18561,7 @@
       </c>
     </row>
     <row r="101" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A101" s="67"/>
+      <c r="A101" s="73"/>
       <c r="B101" s="45" t="s">
         <v>3</v>
       </c>
@@ -18614,7 +18618,7 @@
       </c>
     </row>
     <row r="102" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A102" s="67"/>
+      <c r="A102" s="73"/>
       <c r="B102" s="45" t="s">
         <v>4</v>
       </c>
@@ -18671,7 +18675,7 @@
       </c>
     </row>
     <row r="103" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A103" s="67"/>
+      <c r="A103" s="73"/>
       <c r="B103" s="45" t="s">
         <v>5</v>
       </c>
@@ -18728,7 +18732,7 @@
       </c>
     </row>
     <row r="104" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A104" s="67"/>
+      <c r="A104" s="73"/>
       <c r="B104" s="45" t="s">
         <v>6</v>
       </c>
@@ -18785,7 +18789,7 @@
       </c>
     </row>
     <row r="105" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A105" s="67"/>
+      <c r="A105" s="73"/>
       <c r="B105" s="45" t="s">
         <v>7</v>
       </c>
@@ -18842,7 +18846,7 @@
       </c>
     </row>
     <row r="106" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A106" s="67"/>
+      <c r="A106" s="73"/>
       <c r="B106" s="45" t="s">
         <v>8</v>
       </c>
@@ -18899,7 +18903,7 @@
       </c>
     </row>
     <row r="107" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A107" s="67"/>
+      <c r="A107" s="73"/>
       <c r="B107" s="45" t="s">
         <v>9</v>
       </c>
@@ -18956,7 +18960,7 @@
       </c>
     </row>
     <row r="108" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A108" s="67"/>
+      <c r="A108" s="73"/>
       <c r="B108" s="45" t="s">
         <v>10</v>
       </c>
@@ -19013,7 +19017,7 @@
       </c>
     </row>
     <row r="109" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A109" s="67"/>
+      <c r="A109" s="73"/>
       <c r="B109" s="45" t="s">
         <v>11</v>
       </c>
@@ -19070,7 +19074,7 @@
       </c>
     </row>
     <row r="110" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A110" s="67"/>
+      <c r="A110" s="73"/>
       <c r="B110" s="45" t="s">
         <v>12</v>
       </c>
@@ -19127,7 +19131,7 @@
       </c>
     </row>
     <row r="111" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A111" s="67"/>
+      <c r="A111" s="73"/>
       <c r="B111" s="45" t="s">
         <v>13</v>
       </c>
@@ -19184,7 +19188,7 @@
       </c>
     </row>
     <row r="112" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A112" s="67"/>
+      <c r="A112" s="73"/>
       <c r="B112" s="45" t="s">
         <v>14</v>
       </c>
@@ -19241,7 +19245,7 @@
       </c>
     </row>
     <row r="113" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A113" s="67"/>
+      <c r="A113" s="73"/>
       <c r="B113" s="45" t="s">
         <v>15</v>
       </c>
@@ -19298,8 +19302,8 @@
       </c>
     </row>
     <row r="114" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A114" s="67" t="s">
-        <v>81</v>
+      <c r="A114" s="73" t="s">
+        <v>80</v>
       </c>
       <c r="B114" s="45" t="s">
         <v>0</v>
@@ -19357,7 +19361,7 @@
       </c>
     </row>
     <row r="115" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A115" s="67"/>
+      <c r="A115" s="73"/>
       <c r="B115" s="45" t="s">
         <v>1</v>
       </c>
@@ -19414,7 +19418,7 @@
       </c>
     </row>
     <row r="116" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A116" s="67"/>
+      <c r="A116" s="73"/>
       <c r="B116" s="45" t="s">
         <v>2</v>
       </c>
@@ -19471,7 +19475,7 @@
       </c>
     </row>
     <row r="117" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A117" s="67"/>
+      <c r="A117" s="73"/>
       <c r="B117" s="45" t="s">
         <v>3</v>
       </c>
@@ -19528,7 +19532,7 @@
       </c>
     </row>
     <row r="118" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A118" s="67"/>
+      <c r="A118" s="73"/>
       <c r="B118" s="45" t="s">
         <v>4</v>
       </c>
@@ -19585,7 +19589,7 @@
       </c>
     </row>
     <row r="119" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A119" s="67"/>
+      <c r="A119" s="73"/>
       <c r="B119" s="45" t="s">
         <v>5</v>
       </c>
@@ -19642,7 +19646,7 @@
       </c>
     </row>
     <row r="120" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A120" s="67"/>
+      <c r="A120" s="73"/>
       <c r="B120" s="45" t="s">
         <v>6</v>
       </c>
@@ -19699,7 +19703,7 @@
       </c>
     </row>
     <row r="121" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A121" s="67"/>
+      <c r="A121" s="73"/>
       <c r="B121" s="45" t="s">
         <v>7</v>
       </c>
@@ -19756,7 +19760,7 @@
       </c>
     </row>
     <row r="122" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A122" s="67"/>
+      <c r="A122" s="73"/>
       <c r="B122" s="45" t="s">
         <v>8</v>
       </c>
@@ -19813,7 +19817,7 @@
       </c>
     </row>
     <row r="123" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A123" s="67"/>
+      <c r="A123" s="73"/>
       <c r="B123" s="45" t="s">
         <v>9</v>
       </c>
@@ -19870,7 +19874,7 @@
       </c>
     </row>
     <row r="124" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A124" s="67"/>
+      <c r="A124" s="73"/>
       <c r="B124" s="45" t="s">
         <v>10</v>
       </c>
@@ -19927,7 +19931,7 @@
       </c>
     </row>
     <row r="125" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A125" s="67"/>
+      <c r="A125" s="73"/>
       <c r="B125" s="45" t="s">
         <v>11</v>
       </c>
@@ -19984,7 +19988,7 @@
       </c>
     </row>
     <row r="126" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A126" s="67"/>
+      <c r="A126" s="73"/>
       <c r="B126" s="45" t="s">
         <v>12</v>
       </c>
@@ -20041,7 +20045,7 @@
       </c>
     </row>
     <row r="127" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A127" s="67"/>
+      <c r="A127" s="73"/>
       <c r="B127" s="45" t="s">
         <v>13</v>
       </c>
@@ -20098,7 +20102,7 @@
       </c>
     </row>
     <row r="128" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A128" s="67"/>
+      <c r="A128" s="73"/>
       <c r="B128" s="45" t="s">
         <v>14</v>
       </c>
@@ -20155,7 +20159,7 @@
       </c>
     </row>
     <row r="129" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A129" s="67"/>
+      <c r="A129" s="73"/>
       <c r="B129" s="45" t="s">
         <v>15</v>
       </c>
@@ -20212,8 +20216,8 @@
       </c>
     </row>
     <row r="130" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A130" s="67" t="s">
-        <v>82</v>
+      <c r="A130" s="73" t="s">
+        <v>81</v>
       </c>
       <c r="B130" s="45" t="s">
         <v>0</v>
@@ -20271,7 +20275,7 @@
       </c>
     </row>
     <row r="131" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A131" s="67"/>
+      <c r="A131" s="73"/>
       <c r="B131" s="45" t="s">
         <v>1</v>
       </c>
@@ -20328,7 +20332,7 @@
       </c>
     </row>
     <row r="132" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A132" s="67"/>
+      <c r="A132" s="73"/>
       <c r="B132" s="45" t="s">
         <v>2</v>
       </c>
@@ -20385,7 +20389,7 @@
       </c>
     </row>
     <row r="133" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A133" s="67"/>
+      <c r="A133" s="73"/>
       <c r="B133" s="45" t="s">
         <v>3</v>
       </c>
@@ -20442,7 +20446,7 @@
       </c>
     </row>
     <row r="134" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A134" s="67"/>
+      <c r="A134" s="73"/>
       <c r="B134" s="45" t="s">
         <v>4</v>
       </c>
@@ -20499,7 +20503,7 @@
       </c>
     </row>
     <row r="135" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A135" s="67"/>
+      <c r="A135" s="73"/>
       <c r="B135" s="45" t="s">
         <v>5</v>
       </c>
@@ -20556,7 +20560,7 @@
       </c>
     </row>
     <row r="136" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A136" s="67"/>
+      <c r="A136" s="73"/>
       <c r="B136" s="45" t="s">
         <v>6</v>
       </c>
@@ -20613,7 +20617,7 @@
       </c>
     </row>
     <row r="137" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A137" s="67"/>
+      <c r="A137" s="73"/>
       <c r="B137" s="45" t="s">
         <v>7</v>
       </c>
@@ -20670,7 +20674,7 @@
       </c>
     </row>
     <row r="138" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A138" s="67"/>
+      <c r="A138" s="73"/>
       <c r="B138" s="45" t="s">
         <v>8</v>
       </c>
@@ -20727,7 +20731,7 @@
       </c>
     </row>
     <row r="139" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A139" s="67"/>
+      <c r="A139" s="73"/>
       <c r="B139" s="45" t="s">
         <v>9</v>
       </c>
@@ -20784,7 +20788,7 @@
       </c>
     </row>
     <row r="140" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A140" s="67"/>
+      <c r="A140" s="73"/>
       <c r="B140" s="45" t="s">
         <v>10</v>
       </c>
@@ -20841,7 +20845,7 @@
       </c>
     </row>
     <row r="141" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A141" s="67"/>
+      <c r="A141" s="73"/>
       <c r="B141" s="45" t="s">
         <v>11</v>
       </c>
@@ -20898,7 +20902,7 @@
       </c>
     </row>
     <row r="142" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A142" s="67"/>
+      <c r="A142" s="73"/>
       <c r="B142" s="45" t="s">
         <v>12</v>
       </c>
@@ -20955,7 +20959,7 @@
       </c>
     </row>
     <row r="143" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A143" s="67"/>
+      <c r="A143" s="73"/>
       <c r="B143" s="45" t="s">
         <v>13</v>
       </c>
@@ -21012,7 +21016,7 @@
       </c>
     </row>
     <row r="144" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A144" s="67"/>
+      <c r="A144" s="73"/>
       <c r="B144" s="45" t="s">
         <v>14</v>
       </c>
@@ -21069,7 +21073,7 @@
       </c>
     </row>
     <row r="145" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A145" s="67"/>
+      <c r="A145" s="73"/>
       <c r="B145" s="45" t="s">
         <v>15</v>
       </c>
@@ -21126,8 +21130,8 @@
       </c>
     </row>
     <row r="146" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A146" s="67" t="s">
-        <v>83</v>
+      <c r="A146" s="73" t="s">
+        <v>82</v>
       </c>
       <c r="B146" s="45" t="s">
         <v>0</v>
@@ -21185,7 +21189,7 @@
       </c>
     </row>
     <row r="147" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A147" s="67"/>
+      <c r="A147" s="73"/>
       <c r="B147" s="45" t="s">
         <v>1</v>
       </c>
@@ -21242,7 +21246,7 @@
       </c>
     </row>
     <row r="148" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A148" s="67"/>
+      <c r="A148" s="73"/>
       <c r="B148" s="45" t="s">
         <v>2</v>
       </c>
@@ -21299,7 +21303,7 @@
       </c>
     </row>
     <row r="149" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A149" s="67"/>
+      <c r="A149" s="73"/>
       <c r="B149" s="45" t="s">
         <v>3</v>
       </c>
@@ -21356,7 +21360,7 @@
       </c>
     </row>
     <row r="150" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A150" s="67"/>
+      <c r="A150" s="73"/>
       <c r="B150" s="45" t="s">
         <v>4</v>
       </c>
@@ -21413,7 +21417,7 @@
       </c>
     </row>
     <row r="151" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A151" s="67"/>
+      <c r="A151" s="73"/>
       <c r="B151" s="45" t="s">
         <v>5</v>
       </c>
@@ -21470,7 +21474,7 @@
       </c>
     </row>
     <row r="152" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A152" s="67"/>
+      <c r="A152" s="73"/>
       <c r="B152" s="45" t="s">
         <v>6</v>
       </c>
@@ -21527,7 +21531,7 @@
       </c>
     </row>
     <row r="153" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A153" s="67"/>
+      <c r="A153" s="73"/>
       <c r="B153" s="45" t="s">
         <v>7</v>
       </c>
@@ -21584,7 +21588,7 @@
       </c>
     </row>
     <row r="154" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A154" s="67"/>
+      <c r="A154" s="73"/>
       <c r="B154" s="45" t="s">
         <v>8</v>
       </c>
@@ -21641,7 +21645,7 @@
       </c>
     </row>
     <row r="155" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A155" s="67"/>
+      <c r="A155" s="73"/>
       <c r="B155" s="45" t="s">
         <v>9</v>
       </c>
@@ -21698,7 +21702,7 @@
       </c>
     </row>
     <row r="156" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A156" s="67"/>
+      <c r="A156" s="73"/>
       <c r="B156" s="45" t="s">
         <v>10</v>
       </c>
@@ -21755,7 +21759,7 @@
       </c>
     </row>
     <row r="157" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A157" s="67"/>
+      <c r="A157" s="73"/>
       <c r="B157" s="45" t="s">
         <v>11</v>
       </c>
@@ -21812,7 +21816,7 @@
       </c>
     </row>
     <row r="158" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A158" s="67"/>
+      <c r="A158" s="73"/>
       <c r="B158" s="45" t="s">
         <v>12</v>
       </c>
@@ -21869,7 +21873,7 @@
       </c>
     </row>
     <row r="159" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A159" s="67"/>
+      <c r="A159" s="73"/>
       <c r="B159" s="45" t="s">
         <v>13</v>
       </c>
@@ -21926,7 +21930,7 @@
       </c>
     </row>
     <row r="160" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A160" s="67"/>
+      <c r="A160" s="73"/>
       <c r="B160" s="45" t="s">
         <v>14</v>
       </c>
@@ -21983,7 +21987,7 @@
       </c>
     </row>
     <row r="161" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A161" s="67"/>
+      <c r="A161" s="73"/>
       <c r="B161" s="45" t="s">
         <v>15</v>
       </c>
@@ -22041,16 +22045,16 @@
     </row>
   </sheetData>
   <mergeCells count="10">
+    <mergeCell ref="A82:A97"/>
+    <mergeCell ref="A98:A113"/>
+    <mergeCell ref="A114:A129"/>
+    <mergeCell ref="A130:A145"/>
+    <mergeCell ref="A146:A161"/>
     <mergeCell ref="A2:A17"/>
     <mergeCell ref="A18:A33"/>
     <mergeCell ref="A34:A49"/>
     <mergeCell ref="A50:A65"/>
     <mergeCell ref="A66:A81"/>
-    <mergeCell ref="A82:A97"/>
-    <mergeCell ref="A98:A113"/>
-    <mergeCell ref="A114:A129"/>
-    <mergeCell ref="A130:A145"/>
-    <mergeCell ref="A146:A161"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -22126,8 +22130,8 @@
       </c>
     </row>
     <row r="2" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A2" s="67" t="s">
-        <v>74</v>
+      <c r="A2" s="73" t="s">
+        <v>92</v>
       </c>
       <c r="B2" s="45" t="s">
         <v>0</v>
@@ -22185,7 +22189,7 @@
       </c>
     </row>
     <row r="3" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A3" s="67"/>
+      <c r="A3" s="73"/>
       <c r="B3" s="45" t="s">
         <v>1</v>
       </c>
@@ -22242,7 +22246,7 @@
       </c>
     </row>
     <row r="4" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A4" s="67"/>
+      <c r="A4" s="73"/>
       <c r="B4" s="45" t="s">
         <v>2</v>
       </c>
@@ -22299,7 +22303,7 @@
       </c>
     </row>
     <row r="5" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A5" s="67"/>
+      <c r="A5" s="73"/>
       <c r="B5" s="45" t="s">
         <v>3</v>
       </c>
@@ -22356,7 +22360,7 @@
       </c>
     </row>
     <row r="6" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A6" s="67"/>
+      <c r="A6" s="73"/>
       <c r="B6" s="45" t="s">
         <v>4</v>
       </c>
@@ -22413,7 +22417,7 @@
       </c>
     </row>
     <row r="7" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A7" s="67"/>
+      <c r="A7" s="73"/>
       <c r="B7" s="45" t="s">
         <v>5</v>
       </c>
@@ -22470,7 +22474,7 @@
       </c>
     </row>
     <row r="8" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A8" s="67"/>
+      <c r="A8" s="73"/>
       <c r="B8" s="45" t="s">
         <v>6</v>
       </c>
@@ -22527,7 +22531,7 @@
       </c>
     </row>
     <row r="9" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A9" s="67"/>
+      <c r="A9" s="73"/>
       <c r="B9" s="45" t="s">
         <v>7</v>
       </c>
@@ -22584,7 +22588,7 @@
       </c>
     </row>
     <row r="10" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A10" s="67"/>
+      <c r="A10" s="73"/>
       <c r="B10" s="45" t="s">
         <v>8</v>
       </c>
@@ -22641,7 +22645,7 @@
       </c>
     </row>
     <row r="11" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A11" s="67"/>
+      <c r="A11" s="73"/>
       <c r="B11" s="45" t="s">
         <v>9</v>
       </c>
@@ -22698,7 +22702,7 @@
       </c>
     </row>
     <row r="12" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A12" s="67"/>
+      <c r="A12" s="73"/>
       <c r="B12" s="45" t="s">
         <v>10</v>
       </c>
@@ -22755,7 +22759,7 @@
       </c>
     </row>
     <row r="13" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A13" s="67"/>
+      <c r="A13" s="73"/>
       <c r="B13" s="45" t="s">
         <v>11</v>
       </c>
@@ -22812,7 +22816,7 @@
       </c>
     </row>
     <row r="14" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A14" s="67"/>
+      <c r="A14" s="73"/>
       <c r="B14" s="45" t="s">
         <v>12</v>
       </c>
@@ -22869,7 +22873,7 @@
       </c>
     </row>
     <row r="15" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A15" s="67"/>
+      <c r="A15" s="73"/>
       <c r="B15" s="45" t="s">
         <v>13</v>
       </c>
@@ -22926,7 +22930,7 @@
       </c>
     </row>
     <row r="16" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A16" s="67"/>
+      <c r="A16" s="73"/>
       <c r="B16" s="45" t="s">
         <v>14</v>
       </c>
@@ -22983,7 +22987,7 @@
       </c>
     </row>
     <row r="17" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A17" s="67"/>
+      <c r="A17" s="73"/>
       <c r="B17" s="45" t="s">
         <v>15</v>
       </c>
@@ -23040,8 +23044,8 @@
       </c>
     </row>
     <row r="18" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A18" s="67" t="s">
-        <v>75</v>
+      <c r="A18" s="73" t="s">
+        <v>74</v>
       </c>
       <c r="B18" s="45" t="s">
         <v>0</v>
@@ -23099,7 +23103,7 @@
       </c>
     </row>
     <row r="19" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A19" s="67"/>
+      <c r="A19" s="73"/>
       <c r="B19" s="45" t="s">
         <v>1</v>
       </c>
@@ -23156,7 +23160,7 @@
       </c>
     </row>
     <row r="20" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A20" s="67"/>
+      <c r="A20" s="73"/>
       <c r="B20" s="45" t="s">
         <v>2</v>
       </c>
@@ -23213,7 +23217,7 @@
       </c>
     </row>
     <row r="21" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A21" s="67"/>
+      <c r="A21" s="73"/>
       <c r="B21" s="45" t="s">
         <v>3</v>
       </c>
@@ -23270,7 +23274,7 @@
       </c>
     </row>
     <row r="22" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A22" s="67"/>
+      <c r="A22" s="73"/>
       <c r="B22" s="45" t="s">
         <v>4</v>
       </c>
@@ -23327,7 +23331,7 @@
       </c>
     </row>
     <row r="23" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A23" s="67"/>
+      <c r="A23" s="73"/>
       <c r="B23" s="45" t="s">
         <v>5</v>
       </c>
@@ -23384,7 +23388,7 @@
       </c>
     </row>
     <row r="24" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A24" s="67"/>
+      <c r="A24" s="73"/>
       <c r="B24" s="45" t="s">
         <v>6</v>
       </c>
@@ -23441,7 +23445,7 @@
       </c>
     </row>
     <row r="25" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A25" s="67"/>
+      <c r="A25" s="73"/>
       <c r="B25" s="45" t="s">
         <v>7</v>
       </c>
@@ -23498,7 +23502,7 @@
       </c>
     </row>
     <row r="26" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A26" s="67"/>
+      <c r="A26" s="73"/>
       <c r="B26" s="45" t="s">
         <v>8</v>
       </c>
@@ -23555,7 +23559,7 @@
       </c>
     </row>
     <row r="27" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A27" s="67"/>
+      <c r="A27" s="73"/>
       <c r="B27" s="45" t="s">
         <v>9</v>
       </c>
@@ -23612,7 +23616,7 @@
       </c>
     </row>
     <row r="28" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A28" s="67"/>
+      <c r="A28" s="73"/>
       <c r="B28" s="45" t="s">
         <v>10</v>
       </c>
@@ -23669,7 +23673,7 @@
       </c>
     </row>
     <row r="29" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A29" s="67"/>
+      <c r="A29" s="73"/>
       <c r="B29" s="45" t="s">
         <v>11</v>
       </c>
@@ -23726,7 +23730,7 @@
       </c>
     </row>
     <row r="30" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A30" s="67"/>
+      <c r="A30" s="73"/>
       <c r="B30" s="45" t="s">
         <v>12</v>
       </c>
@@ -23783,7 +23787,7 @@
       </c>
     </row>
     <row r="31" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A31" s="67"/>
+      <c r="A31" s="73"/>
       <c r="B31" s="45" t="s">
         <v>13</v>
       </c>
@@ -23840,7 +23844,7 @@
       </c>
     </row>
     <row r="32" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A32" s="67"/>
+      <c r="A32" s="73"/>
       <c r="B32" s="45" t="s">
         <v>14</v>
       </c>
@@ -23897,7 +23901,7 @@
       </c>
     </row>
     <row r="33" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A33" s="67"/>
+      <c r="A33" s="73"/>
       <c r="B33" s="45" t="s">
         <v>15</v>
       </c>
@@ -23954,8 +23958,8 @@
       </c>
     </row>
     <row r="34" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A34" s="67" t="s">
-        <v>76</v>
+      <c r="A34" s="73" t="s">
+        <v>75</v>
       </c>
       <c r="B34" s="45" t="s">
         <v>0</v>
@@ -24013,7 +24017,7 @@
       </c>
     </row>
     <row r="35" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A35" s="67"/>
+      <c r="A35" s="73"/>
       <c r="B35" s="45" t="s">
         <v>1</v>
       </c>
@@ -24070,7 +24074,7 @@
       </c>
     </row>
     <row r="36" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A36" s="67"/>
+      <c r="A36" s="73"/>
       <c r="B36" s="45" t="s">
         <v>2</v>
       </c>
@@ -24127,7 +24131,7 @@
       </c>
     </row>
     <row r="37" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A37" s="67"/>
+      <c r="A37" s="73"/>
       <c r="B37" s="45" t="s">
         <v>3</v>
       </c>
@@ -24184,7 +24188,7 @@
       </c>
     </row>
     <row r="38" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A38" s="67"/>
+      <c r="A38" s="73"/>
       <c r="B38" s="45" t="s">
         <v>4</v>
       </c>
@@ -24241,7 +24245,7 @@
       </c>
     </row>
     <row r="39" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A39" s="67"/>
+      <c r="A39" s="73"/>
       <c r="B39" s="45" t="s">
         <v>5</v>
       </c>
@@ -24298,7 +24302,7 @@
       </c>
     </row>
     <row r="40" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A40" s="67"/>
+      <c r="A40" s="73"/>
       <c r="B40" s="45" t="s">
         <v>6</v>
       </c>
@@ -24355,7 +24359,7 @@
       </c>
     </row>
     <row r="41" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A41" s="67"/>
+      <c r="A41" s="73"/>
       <c r="B41" s="45" t="s">
         <v>7</v>
       </c>
@@ -24412,7 +24416,7 @@
       </c>
     </row>
     <row r="42" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A42" s="67"/>
+      <c r="A42" s="73"/>
       <c r="B42" s="45" t="s">
         <v>8</v>
       </c>
@@ -24469,7 +24473,7 @@
       </c>
     </row>
     <row r="43" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A43" s="67"/>
+      <c r="A43" s="73"/>
       <c r="B43" s="45" t="s">
         <v>9</v>
       </c>
@@ -24526,7 +24530,7 @@
       </c>
     </row>
     <row r="44" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A44" s="67"/>
+      <c r="A44" s="73"/>
       <c r="B44" s="45" t="s">
         <v>10</v>
       </c>
@@ -24583,7 +24587,7 @@
       </c>
     </row>
     <row r="45" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A45" s="67"/>
+      <c r="A45" s="73"/>
       <c r="B45" s="45" t="s">
         <v>11</v>
       </c>
@@ -24640,7 +24644,7 @@
       </c>
     </row>
     <row r="46" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A46" s="67"/>
+      <c r="A46" s="73"/>
       <c r="B46" s="45" t="s">
         <v>12</v>
       </c>
@@ -24697,7 +24701,7 @@
       </c>
     </row>
     <row r="47" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A47" s="67"/>
+      <c r="A47" s="73"/>
       <c r="B47" s="45" t="s">
         <v>13</v>
       </c>
@@ -24754,7 +24758,7 @@
       </c>
     </row>
     <row r="48" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A48" s="67"/>
+      <c r="A48" s="73"/>
       <c r="B48" s="45" t="s">
         <v>14</v>
       </c>
@@ -24811,7 +24815,7 @@
       </c>
     </row>
     <row r="49" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A49" s="67"/>
+      <c r="A49" s="73"/>
       <c r="B49" s="45" t="s">
         <v>15</v>
       </c>
@@ -24868,8 +24872,8 @@
       </c>
     </row>
     <row r="50" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A50" s="67" t="s">
-        <v>77</v>
+      <c r="A50" s="73" t="s">
+        <v>76</v>
       </c>
       <c r="B50" s="45" t="s">
         <v>0</v>
@@ -24927,7 +24931,7 @@
       </c>
     </row>
     <row r="51" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A51" s="67"/>
+      <c r="A51" s="73"/>
       <c r="B51" s="45" t="s">
         <v>1</v>
       </c>
@@ -24984,7 +24988,7 @@
       </c>
     </row>
     <row r="52" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A52" s="67"/>
+      <c r="A52" s="73"/>
       <c r="B52" s="45" t="s">
         <v>2</v>
       </c>
@@ -25041,7 +25045,7 @@
       </c>
     </row>
     <row r="53" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A53" s="67"/>
+      <c r="A53" s="73"/>
       <c r="B53" s="45" t="s">
         <v>3</v>
       </c>
@@ -25098,7 +25102,7 @@
       </c>
     </row>
     <row r="54" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A54" s="67"/>
+      <c r="A54" s="73"/>
       <c r="B54" s="45" t="s">
         <v>4</v>
       </c>
@@ -25155,7 +25159,7 @@
       </c>
     </row>
     <row r="55" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A55" s="67"/>
+      <c r="A55" s="73"/>
       <c r="B55" s="45" t="s">
         <v>5</v>
       </c>
@@ -25212,7 +25216,7 @@
       </c>
     </row>
     <row r="56" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A56" s="67"/>
+      <c r="A56" s="73"/>
       <c r="B56" s="45" t="s">
         <v>6</v>
       </c>
@@ -25269,7 +25273,7 @@
       </c>
     </row>
     <row r="57" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A57" s="67"/>
+      <c r="A57" s="73"/>
       <c r="B57" s="45" t="s">
         <v>7</v>
       </c>
@@ -25326,7 +25330,7 @@
       </c>
     </row>
     <row r="58" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A58" s="67"/>
+      <c r="A58" s="73"/>
       <c r="B58" s="45" t="s">
         <v>8</v>
       </c>
@@ -25383,7 +25387,7 @@
       </c>
     </row>
     <row r="59" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A59" s="67"/>
+      <c r="A59" s="73"/>
       <c r="B59" s="45" t="s">
         <v>9</v>
       </c>
@@ -25440,7 +25444,7 @@
       </c>
     </row>
     <row r="60" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A60" s="67"/>
+      <c r="A60" s="73"/>
       <c r="B60" s="45" t="s">
         <v>10</v>
       </c>
@@ -25497,7 +25501,7 @@
       </c>
     </row>
     <row r="61" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A61" s="67"/>
+      <c r="A61" s="73"/>
       <c r="B61" s="45" t="s">
         <v>11</v>
       </c>
@@ -25554,7 +25558,7 @@
       </c>
     </row>
     <row r="62" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A62" s="67"/>
+      <c r="A62" s="73"/>
       <c r="B62" s="45" t="s">
         <v>12</v>
       </c>
@@ -25611,7 +25615,7 @@
       </c>
     </row>
     <row r="63" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A63" s="67"/>
+      <c r="A63" s="73"/>
       <c r="B63" s="45" t="s">
         <v>13</v>
       </c>
@@ -25668,7 +25672,7 @@
       </c>
     </row>
     <row r="64" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A64" s="67"/>
+      <c r="A64" s="73"/>
       <c r="B64" s="45" t="s">
         <v>14</v>
       </c>
@@ -25725,7 +25729,7 @@
       </c>
     </row>
     <row r="65" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A65" s="67"/>
+      <c r="A65" s="73"/>
       <c r="B65" s="45" t="s">
         <v>15</v>
       </c>
@@ -25782,8 +25786,8 @@
       </c>
     </row>
     <row r="66" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A66" s="67" t="s">
-        <v>78</v>
+      <c r="A66" s="73" t="s">
+        <v>77</v>
       </c>
       <c r="B66" s="45" t="s">
         <v>0</v>
@@ -25841,7 +25845,7 @@
       </c>
     </row>
     <row r="67" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A67" s="67"/>
+      <c r="A67" s="73"/>
       <c r="B67" s="45" t="s">
         <v>1</v>
       </c>
@@ -25898,7 +25902,7 @@
       </c>
     </row>
     <row r="68" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A68" s="67"/>
+      <c r="A68" s="73"/>
       <c r="B68" s="45" t="s">
         <v>2</v>
       </c>
@@ -25955,7 +25959,7 @@
       </c>
     </row>
     <row r="69" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A69" s="67"/>
+      <c r="A69" s="73"/>
       <c r="B69" s="45" t="s">
         <v>3</v>
       </c>
@@ -26012,7 +26016,7 @@
       </c>
     </row>
     <row r="70" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A70" s="67"/>
+      <c r="A70" s="73"/>
       <c r="B70" s="45" t="s">
         <v>4</v>
       </c>
@@ -26069,7 +26073,7 @@
       </c>
     </row>
     <row r="71" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A71" s="67"/>
+      <c r="A71" s="73"/>
       <c r="B71" s="45" t="s">
         <v>5</v>
       </c>
@@ -26126,7 +26130,7 @@
       </c>
     </row>
     <row r="72" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A72" s="67"/>
+      <c r="A72" s="73"/>
       <c r="B72" s="45" t="s">
         <v>6</v>
       </c>
@@ -26183,7 +26187,7 @@
       </c>
     </row>
     <row r="73" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A73" s="67"/>
+      <c r="A73" s="73"/>
       <c r="B73" s="45" t="s">
         <v>7</v>
       </c>
@@ -26240,7 +26244,7 @@
       </c>
     </row>
     <row r="74" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A74" s="67"/>
+      <c r="A74" s="73"/>
       <c r="B74" s="45" t="s">
         <v>8</v>
       </c>
@@ -26297,7 +26301,7 @@
       </c>
     </row>
     <row r="75" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A75" s="67"/>
+      <c r="A75" s="73"/>
       <c r="B75" s="45" t="s">
         <v>9</v>
       </c>
@@ -26354,7 +26358,7 @@
       </c>
     </row>
     <row r="76" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A76" s="67"/>
+      <c r="A76" s="73"/>
       <c r="B76" s="45" t="s">
         <v>10</v>
       </c>
@@ -26411,7 +26415,7 @@
       </c>
     </row>
     <row r="77" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A77" s="67"/>
+      <c r="A77" s="73"/>
       <c r="B77" s="45" t="s">
         <v>11</v>
       </c>
@@ -26468,7 +26472,7 @@
       </c>
     </row>
     <row r="78" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A78" s="67"/>
+      <c r="A78" s="73"/>
       <c r="B78" s="45" t="s">
         <v>12</v>
       </c>
@@ -26525,7 +26529,7 @@
       </c>
     </row>
     <row r="79" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A79" s="67"/>
+      <c r="A79" s="73"/>
       <c r="B79" s="45" t="s">
         <v>13</v>
       </c>
@@ -26582,7 +26586,7 @@
       </c>
     </row>
     <row r="80" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A80" s="67"/>
+      <c r="A80" s="73"/>
       <c r="B80" s="45" t="s">
         <v>14</v>
       </c>
@@ -26639,7 +26643,7 @@
       </c>
     </row>
     <row r="81" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A81" s="67"/>
+      <c r="A81" s="73"/>
       <c r="B81" s="45" t="s">
         <v>15</v>
       </c>
@@ -26696,8 +26700,8 @@
       </c>
     </row>
     <row r="82" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A82" s="67" t="s">
-        <v>79</v>
+      <c r="A82" s="73" t="s">
+        <v>78</v>
       </c>
       <c r="B82" s="45" t="s">
         <v>0</v>
@@ -26755,7 +26759,7 @@
       </c>
     </row>
     <row r="83" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A83" s="67"/>
+      <c r="A83" s="73"/>
       <c r="B83" s="45" t="s">
         <v>1</v>
       </c>
@@ -26812,7 +26816,7 @@
       </c>
     </row>
     <row r="84" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A84" s="67"/>
+      <c r="A84" s="73"/>
       <c r="B84" s="45" t="s">
         <v>2</v>
       </c>
@@ -26869,7 +26873,7 @@
       </c>
     </row>
     <row r="85" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A85" s="67"/>
+      <c r="A85" s="73"/>
       <c r="B85" s="45" t="s">
         <v>3</v>
       </c>
@@ -26926,7 +26930,7 @@
       </c>
     </row>
     <row r="86" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A86" s="67"/>
+      <c r="A86" s="73"/>
       <c r="B86" s="45" t="s">
         <v>4</v>
       </c>
@@ -26983,7 +26987,7 @@
       </c>
     </row>
     <row r="87" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A87" s="67"/>
+      <c r="A87" s="73"/>
       <c r="B87" s="45" t="s">
         <v>5</v>
       </c>
@@ -27040,7 +27044,7 @@
       </c>
     </row>
     <row r="88" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A88" s="67"/>
+      <c r="A88" s="73"/>
       <c r="B88" s="45" t="s">
         <v>6</v>
       </c>
@@ -27097,7 +27101,7 @@
       </c>
     </row>
     <row r="89" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A89" s="67"/>
+      <c r="A89" s="73"/>
       <c r="B89" s="45" t="s">
         <v>7</v>
       </c>
@@ -27154,7 +27158,7 @@
       </c>
     </row>
     <row r="90" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A90" s="67"/>
+      <c r="A90" s="73"/>
       <c r="B90" s="45" t="s">
         <v>8</v>
       </c>
@@ -27211,7 +27215,7 @@
       </c>
     </row>
     <row r="91" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A91" s="67"/>
+      <c r="A91" s="73"/>
       <c r="B91" s="45" t="s">
         <v>9</v>
       </c>
@@ -27268,7 +27272,7 @@
       </c>
     </row>
     <row r="92" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A92" s="67"/>
+      <c r="A92" s="73"/>
       <c r="B92" s="45" t="s">
         <v>10</v>
       </c>
@@ -27325,7 +27329,7 @@
       </c>
     </row>
     <row r="93" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A93" s="67"/>
+      <c r="A93" s="73"/>
       <c r="B93" s="45" t="s">
         <v>11</v>
       </c>
@@ -27382,7 +27386,7 @@
       </c>
     </row>
     <row r="94" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A94" s="67"/>
+      <c r="A94" s="73"/>
       <c r="B94" s="45" t="s">
         <v>12</v>
       </c>
@@ -27439,7 +27443,7 @@
       </c>
     </row>
     <row r="95" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A95" s="67"/>
+      <c r="A95" s="73"/>
       <c r="B95" s="45" t="s">
         <v>13</v>
       </c>
@@ -27496,7 +27500,7 @@
       </c>
     </row>
     <row r="96" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A96" s="67"/>
+      <c r="A96" s="73"/>
       <c r="B96" s="45" t="s">
         <v>14</v>
       </c>
@@ -27553,7 +27557,7 @@
       </c>
     </row>
     <row r="97" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A97" s="67"/>
+      <c r="A97" s="73"/>
       <c r="B97" s="45" t="s">
         <v>15</v>
       </c>
@@ -27610,8 +27614,8 @@
       </c>
     </row>
     <row r="98" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A98" s="67" t="s">
-        <v>80</v>
+      <c r="A98" s="73" t="s">
+        <v>79</v>
       </c>
       <c r="B98" s="45" t="s">
         <v>0</v>
@@ -27669,7 +27673,7 @@
       </c>
     </row>
     <row r="99" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A99" s="67"/>
+      <c r="A99" s="73"/>
       <c r="B99" s="45" t="s">
         <v>1</v>
       </c>
@@ -27726,7 +27730,7 @@
       </c>
     </row>
     <row r="100" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A100" s="67"/>
+      <c r="A100" s="73"/>
       <c r="B100" s="45" t="s">
         <v>2</v>
       </c>
@@ -27783,7 +27787,7 @@
       </c>
     </row>
     <row r="101" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A101" s="67"/>
+      <c r="A101" s="73"/>
       <c r="B101" s="45" t="s">
         <v>3</v>
       </c>
@@ -27840,7 +27844,7 @@
       </c>
     </row>
     <row r="102" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A102" s="67"/>
+      <c r="A102" s="73"/>
       <c r="B102" s="45" t="s">
         <v>4</v>
       </c>
@@ -27897,7 +27901,7 @@
       </c>
     </row>
     <row r="103" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A103" s="67"/>
+      <c r="A103" s="73"/>
       <c r="B103" s="45" t="s">
         <v>5</v>
       </c>
@@ -27954,7 +27958,7 @@
       </c>
     </row>
     <row r="104" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A104" s="67"/>
+      <c r="A104" s="73"/>
       <c r="B104" s="45" t="s">
         <v>6</v>
       </c>
@@ -28011,7 +28015,7 @@
       </c>
     </row>
     <row r="105" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A105" s="67"/>
+      <c r="A105" s="73"/>
       <c r="B105" s="45" t="s">
         <v>7</v>
       </c>
@@ -28068,7 +28072,7 @@
       </c>
     </row>
     <row r="106" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A106" s="67"/>
+      <c r="A106" s="73"/>
       <c r="B106" s="45" t="s">
         <v>8</v>
       </c>
@@ -28125,7 +28129,7 @@
       </c>
     </row>
     <row r="107" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A107" s="67"/>
+      <c r="A107" s="73"/>
       <c r="B107" s="45" t="s">
         <v>9</v>
       </c>
@@ -28182,7 +28186,7 @@
       </c>
     </row>
     <row r="108" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A108" s="67"/>
+      <c r="A108" s="73"/>
       <c r="B108" s="45" t="s">
         <v>10</v>
       </c>
@@ -28239,7 +28243,7 @@
       </c>
     </row>
     <row r="109" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A109" s="67"/>
+      <c r="A109" s="73"/>
       <c r="B109" s="45" t="s">
         <v>11</v>
       </c>
@@ -28296,7 +28300,7 @@
       </c>
     </row>
     <row r="110" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A110" s="67"/>
+      <c r="A110" s="73"/>
       <c r="B110" s="45" t="s">
         <v>12</v>
       </c>
@@ -28353,7 +28357,7 @@
       </c>
     </row>
     <row r="111" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A111" s="67"/>
+      <c r="A111" s="73"/>
       <c r="B111" s="45" t="s">
         <v>13</v>
       </c>
@@ -28410,7 +28414,7 @@
       </c>
     </row>
     <row r="112" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A112" s="67"/>
+      <c r="A112" s="73"/>
       <c r="B112" s="45" t="s">
         <v>14</v>
       </c>
@@ -28467,7 +28471,7 @@
       </c>
     </row>
     <row r="113" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A113" s="67"/>
+      <c r="A113" s="73"/>
       <c r="B113" s="45" t="s">
         <v>15</v>
       </c>
@@ -28524,8 +28528,8 @@
       </c>
     </row>
     <row r="114" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A114" s="67" t="s">
-        <v>81</v>
+      <c r="A114" s="73" t="s">
+        <v>80</v>
       </c>
       <c r="B114" s="45" t="s">
         <v>0</v>
@@ -28583,7 +28587,7 @@
       </c>
     </row>
     <row r="115" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A115" s="67"/>
+      <c r="A115" s="73"/>
       <c r="B115" s="45" t="s">
         <v>1</v>
       </c>
@@ -28640,7 +28644,7 @@
       </c>
     </row>
     <row r="116" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A116" s="67"/>
+      <c r="A116" s="73"/>
       <c r="B116" s="45" t="s">
         <v>2</v>
       </c>
@@ -28697,7 +28701,7 @@
       </c>
     </row>
     <row r="117" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A117" s="67"/>
+      <c r="A117" s="73"/>
       <c r="B117" s="45" t="s">
         <v>3</v>
       </c>
@@ -28754,7 +28758,7 @@
       </c>
     </row>
     <row r="118" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A118" s="67"/>
+      <c r="A118" s="73"/>
       <c r="B118" s="45" t="s">
         <v>4</v>
       </c>
@@ -28811,7 +28815,7 @@
       </c>
     </row>
     <row r="119" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A119" s="67"/>
+      <c r="A119" s="73"/>
       <c r="B119" s="45" t="s">
         <v>5</v>
       </c>
@@ -28868,7 +28872,7 @@
       </c>
     </row>
     <row r="120" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A120" s="67"/>
+      <c r="A120" s="73"/>
       <c r="B120" s="45" t="s">
         <v>6</v>
       </c>
@@ -28925,7 +28929,7 @@
       </c>
     </row>
     <row r="121" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A121" s="67"/>
+      <c r="A121" s="73"/>
       <c r="B121" s="45" t="s">
         <v>7</v>
       </c>
@@ -28982,7 +28986,7 @@
       </c>
     </row>
     <row r="122" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A122" s="67"/>
+      <c r="A122" s="73"/>
       <c r="B122" s="45" t="s">
         <v>8</v>
       </c>
@@ -29039,7 +29043,7 @@
       </c>
     </row>
     <row r="123" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A123" s="67"/>
+      <c r="A123" s="73"/>
       <c r="B123" s="45" t="s">
         <v>9</v>
       </c>
@@ -29096,7 +29100,7 @@
       </c>
     </row>
     <row r="124" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A124" s="67"/>
+      <c r="A124" s="73"/>
       <c r="B124" s="45" t="s">
         <v>10</v>
       </c>
@@ -29153,7 +29157,7 @@
       </c>
     </row>
     <row r="125" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A125" s="67"/>
+      <c r="A125" s="73"/>
       <c r="B125" s="45" t="s">
         <v>11</v>
       </c>
@@ -29210,7 +29214,7 @@
       </c>
     </row>
     <row r="126" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A126" s="67"/>
+      <c r="A126" s="73"/>
       <c r="B126" s="45" t="s">
         <v>12</v>
       </c>
@@ -29267,7 +29271,7 @@
       </c>
     </row>
     <row r="127" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A127" s="67"/>
+      <c r="A127" s="73"/>
       <c r="B127" s="45" t="s">
         <v>13</v>
       </c>
@@ -29324,7 +29328,7 @@
       </c>
     </row>
     <row r="128" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A128" s="67"/>
+      <c r="A128" s="73"/>
       <c r="B128" s="45" t="s">
         <v>14</v>
       </c>
@@ -29381,7 +29385,7 @@
       </c>
     </row>
     <row r="129" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A129" s="67"/>
+      <c r="A129" s="73"/>
       <c r="B129" s="45" t="s">
         <v>15</v>
       </c>
@@ -29438,8 +29442,8 @@
       </c>
     </row>
     <row r="130" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A130" s="67" t="s">
-        <v>82</v>
+      <c r="A130" s="73" t="s">
+        <v>81</v>
       </c>
       <c r="B130" s="45" t="s">
         <v>0</v>
@@ -29497,7 +29501,7 @@
       </c>
     </row>
     <row r="131" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A131" s="67"/>
+      <c r="A131" s="73"/>
       <c r="B131" s="45" t="s">
         <v>1</v>
       </c>
@@ -29554,7 +29558,7 @@
       </c>
     </row>
     <row r="132" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A132" s="67"/>
+      <c r="A132" s="73"/>
       <c r="B132" s="45" t="s">
         <v>2</v>
       </c>
@@ -29611,7 +29615,7 @@
       </c>
     </row>
     <row r="133" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A133" s="67"/>
+      <c r="A133" s="73"/>
       <c r="B133" s="45" t="s">
         <v>3</v>
       </c>
@@ -29668,7 +29672,7 @@
       </c>
     </row>
     <row r="134" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A134" s="67"/>
+      <c r="A134" s="73"/>
       <c r="B134" s="45" t="s">
         <v>4</v>
       </c>
@@ -29725,7 +29729,7 @@
       </c>
     </row>
     <row r="135" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A135" s="67"/>
+      <c r="A135" s="73"/>
       <c r="B135" s="45" t="s">
         <v>5</v>
       </c>
@@ -29782,7 +29786,7 @@
       </c>
     </row>
     <row r="136" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A136" s="67"/>
+      <c r="A136" s="73"/>
       <c r="B136" s="45" t="s">
         <v>6</v>
       </c>
@@ -29839,7 +29843,7 @@
       </c>
     </row>
     <row r="137" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A137" s="67"/>
+      <c r="A137" s="73"/>
       <c r="B137" s="45" t="s">
         <v>7</v>
       </c>
@@ -29896,7 +29900,7 @@
       </c>
     </row>
     <row r="138" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A138" s="67"/>
+      <c r="A138" s="73"/>
       <c r="B138" s="45" t="s">
         <v>8</v>
       </c>
@@ -29953,7 +29957,7 @@
       </c>
     </row>
     <row r="139" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A139" s="67"/>
+      <c r="A139" s="73"/>
       <c r="B139" s="45" t="s">
         <v>9</v>
       </c>
@@ -30010,7 +30014,7 @@
       </c>
     </row>
     <row r="140" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A140" s="67"/>
+      <c r="A140" s="73"/>
       <c r="B140" s="45" t="s">
         <v>10</v>
       </c>
@@ -30067,7 +30071,7 @@
       </c>
     </row>
     <row r="141" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A141" s="67"/>
+      <c r="A141" s="73"/>
       <c r="B141" s="45" t="s">
         <v>11</v>
       </c>
@@ -30124,7 +30128,7 @@
       </c>
     </row>
     <row r="142" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A142" s="67"/>
+      <c r="A142" s="73"/>
       <c r="B142" s="45" t="s">
         <v>12</v>
       </c>
@@ -30181,7 +30185,7 @@
       </c>
     </row>
     <row r="143" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A143" s="67"/>
+      <c r="A143" s="73"/>
       <c r="B143" s="45" t="s">
         <v>13</v>
       </c>
@@ -30238,7 +30242,7 @@
       </c>
     </row>
     <row r="144" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A144" s="67"/>
+      <c r="A144" s="73"/>
       <c r="B144" s="45" t="s">
         <v>14</v>
       </c>
@@ -30295,7 +30299,7 @@
       </c>
     </row>
     <row r="145" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A145" s="67"/>
+      <c r="A145" s="73"/>
       <c r="B145" s="45" t="s">
         <v>15</v>
       </c>
@@ -30352,8 +30356,8 @@
       </c>
     </row>
     <row r="146" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A146" s="67" t="s">
-        <v>83</v>
+      <c r="A146" s="73" t="s">
+        <v>82</v>
       </c>
       <c r="B146" s="45" t="s">
         <v>0</v>
@@ -30411,7 +30415,7 @@
       </c>
     </row>
     <row r="147" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A147" s="67"/>
+      <c r="A147" s="73"/>
       <c r="B147" s="45" t="s">
         <v>1</v>
       </c>
@@ -30468,7 +30472,7 @@
       </c>
     </row>
     <row r="148" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A148" s="67"/>
+      <c r="A148" s="73"/>
       <c r="B148" s="45" t="s">
         <v>2</v>
       </c>
@@ -30525,7 +30529,7 @@
       </c>
     </row>
     <row r="149" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A149" s="67"/>
+      <c r="A149" s="73"/>
       <c r="B149" s="45" t="s">
         <v>3</v>
       </c>
@@ -30582,7 +30586,7 @@
       </c>
     </row>
     <row r="150" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A150" s="67"/>
+      <c r="A150" s="73"/>
       <c r="B150" s="45" t="s">
         <v>4</v>
       </c>
@@ -30639,7 +30643,7 @@
       </c>
     </row>
     <row r="151" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A151" s="67"/>
+      <c r="A151" s="73"/>
       <c r="B151" s="45" t="s">
         <v>5</v>
       </c>
@@ -30696,7 +30700,7 @@
       </c>
     </row>
     <row r="152" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A152" s="67"/>
+      <c r="A152" s="73"/>
       <c r="B152" s="45" t="s">
         <v>6</v>
       </c>
@@ -30753,7 +30757,7 @@
       </c>
     </row>
     <row r="153" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A153" s="67"/>
+      <c r="A153" s="73"/>
       <c r="B153" s="45" t="s">
         <v>7</v>
       </c>
@@ -30810,7 +30814,7 @@
       </c>
     </row>
     <row r="154" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A154" s="67"/>
+      <c r="A154" s="73"/>
       <c r="B154" s="45" t="s">
         <v>8</v>
       </c>
@@ -30867,7 +30871,7 @@
       </c>
     </row>
     <row r="155" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A155" s="67"/>
+      <c r="A155" s="73"/>
       <c r="B155" s="45" t="s">
         <v>9</v>
       </c>
@@ -30924,7 +30928,7 @@
       </c>
     </row>
     <row r="156" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A156" s="67"/>
+      <c r="A156" s="73"/>
       <c r="B156" s="45" t="s">
         <v>10</v>
       </c>
@@ -30981,7 +30985,7 @@
       </c>
     </row>
     <row r="157" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A157" s="67"/>
+      <c r="A157" s="73"/>
       <c r="B157" s="45" t="s">
         <v>11</v>
       </c>
@@ -31038,7 +31042,7 @@
       </c>
     </row>
     <row r="158" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A158" s="67"/>
+      <c r="A158" s="73"/>
       <c r="B158" s="45" t="s">
         <v>12</v>
       </c>
@@ -31095,7 +31099,7 @@
       </c>
     </row>
     <row r="159" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A159" s="67"/>
+      <c r="A159" s="73"/>
       <c r="B159" s="45" t="s">
         <v>13</v>
       </c>
@@ -31152,7 +31156,7 @@
       </c>
     </row>
     <row r="160" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A160" s="67"/>
+      <c r="A160" s="73"/>
       <c r="B160" s="45" t="s">
         <v>14</v>
       </c>
@@ -31209,7 +31213,7 @@
       </c>
     </row>
     <row r="161" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A161" s="67"/>
+      <c r="A161" s="73"/>
       <c r="B161" s="45" t="s">
         <v>15</v>
       </c>
@@ -31267,16 +31271,16 @@
     </row>
   </sheetData>
   <mergeCells count="10">
+    <mergeCell ref="A82:A97"/>
+    <mergeCell ref="A98:A113"/>
+    <mergeCell ref="A114:A129"/>
+    <mergeCell ref="A130:A145"/>
+    <mergeCell ref="A146:A161"/>
     <mergeCell ref="A2:A17"/>
     <mergeCell ref="A18:A33"/>
     <mergeCell ref="A34:A49"/>
     <mergeCell ref="A50:A65"/>
     <mergeCell ref="A66:A81"/>
-    <mergeCell ref="A82:A97"/>
-    <mergeCell ref="A98:A113"/>
-    <mergeCell ref="A114:A129"/>
-    <mergeCell ref="A130:A145"/>
-    <mergeCell ref="A146:A161"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -31352,8 +31356,8 @@
       </c>
     </row>
     <row r="2" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A2" s="67" t="s">
-        <v>74</v>
+      <c r="A2" s="73" t="s">
+        <v>92</v>
       </c>
       <c r="B2" s="45" t="s">
         <v>0</v>
@@ -31411,7 +31415,7 @@
       </c>
     </row>
     <row r="3" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A3" s="67"/>
+      <c r="A3" s="73"/>
       <c r="B3" s="45" t="s">
         <v>1</v>
       </c>
@@ -31468,7 +31472,7 @@
       </c>
     </row>
     <row r="4" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A4" s="67"/>
+      <c r="A4" s="73"/>
       <c r="B4" s="45" t="s">
         <v>2</v>
       </c>
@@ -31525,7 +31529,7 @@
       </c>
     </row>
     <row r="5" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A5" s="67"/>
+      <c r="A5" s="73"/>
       <c r="B5" s="45" t="s">
         <v>3</v>
       </c>
@@ -31582,7 +31586,7 @@
       </c>
     </row>
     <row r="6" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A6" s="67"/>
+      <c r="A6" s="73"/>
       <c r="B6" s="45" t="s">
         <v>4</v>
       </c>
@@ -31639,7 +31643,7 @@
       </c>
     </row>
     <row r="7" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A7" s="67"/>
+      <c r="A7" s="73"/>
       <c r="B7" s="45" t="s">
         <v>5</v>
       </c>
@@ -31696,7 +31700,7 @@
       </c>
     </row>
     <row r="8" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A8" s="67"/>
+      <c r="A8" s="73"/>
       <c r="B8" s="45" t="s">
         <v>6</v>
       </c>
@@ -31753,7 +31757,7 @@
       </c>
     </row>
     <row r="9" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A9" s="67"/>
+      <c r="A9" s="73"/>
       <c r="B9" s="45" t="s">
         <v>7</v>
       </c>
@@ -31810,7 +31814,7 @@
       </c>
     </row>
     <row r="10" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A10" s="67"/>
+      <c r="A10" s="73"/>
       <c r="B10" s="45" t="s">
         <v>8</v>
       </c>
@@ -31867,7 +31871,7 @@
       </c>
     </row>
     <row r="11" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A11" s="67"/>
+      <c r="A11" s="73"/>
       <c r="B11" s="45" t="s">
         <v>9</v>
       </c>
@@ -31924,7 +31928,7 @@
       </c>
     </row>
     <row r="12" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A12" s="67"/>
+      <c r="A12" s="73"/>
       <c r="B12" s="45" t="s">
         <v>10</v>
       </c>
@@ -31981,7 +31985,7 @@
       </c>
     </row>
     <row r="13" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A13" s="67"/>
+      <c r="A13" s="73"/>
       <c r="B13" s="45" t="s">
         <v>11</v>
       </c>
@@ -32038,7 +32042,7 @@
       </c>
     </row>
     <row r="14" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A14" s="67"/>
+      <c r="A14" s="73"/>
       <c r="B14" s="45" t="s">
         <v>12</v>
       </c>
@@ -32095,7 +32099,7 @@
       </c>
     </row>
     <row r="15" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A15" s="67"/>
+      <c r="A15" s="73"/>
       <c r="B15" s="45" t="s">
         <v>13</v>
       </c>
@@ -32152,7 +32156,7 @@
       </c>
     </row>
     <row r="16" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A16" s="67"/>
+      <c r="A16" s="73"/>
       <c r="B16" s="45" t="s">
         <v>14</v>
       </c>
@@ -32209,7 +32213,7 @@
       </c>
     </row>
     <row r="17" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A17" s="67"/>
+      <c r="A17" s="73"/>
       <c r="B17" s="45" t="s">
         <v>15</v>
       </c>
@@ -32266,8 +32270,8 @@
       </c>
     </row>
     <row r="18" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A18" s="67" t="s">
-        <v>75</v>
+      <c r="A18" s="73" t="s">
+        <v>74</v>
       </c>
       <c r="B18" s="45" t="s">
         <v>0</v>
@@ -32325,7 +32329,7 @@
       </c>
     </row>
     <row r="19" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A19" s="67"/>
+      <c r="A19" s="73"/>
       <c r="B19" s="45" t="s">
         <v>1</v>
       </c>
@@ -32382,7 +32386,7 @@
       </c>
     </row>
     <row r="20" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A20" s="67"/>
+      <c r="A20" s="73"/>
       <c r="B20" s="45" t="s">
         <v>2</v>
       </c>
@@ -32439,7 +32443,7 @@
       </c>
     </row>
     <row r="21" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A21" s="67"/>
+      <c r="A21" s="73"/>
       <c r="B21" s="45" t="s">
         <v>3</v>
       </c>
@@ -32496,7 +32500,7 @@
       </c>
     </row>
     <row r="22" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A22" s="67"/>
+      <c r="A22" s="73"/>
       <c r="B22" s="45" t="s">
         <v>4</v>
       </c>
@@ -32553,7 +32557,7 @@
       </c>
     </row>
     <row r="23" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A23" s="67"/>
+      <c r="A23" s="73"/>
       <c r="B23" s="45" t="s">
         <v>5</v>
       </c>
@@ -32610,7 +32614,7 @@
       </c>
     </row>
     <row r="24" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A24" s="67"/>
+      <c r="A24" s="73"/>
       <c r="B24" s="45" t="s">
         <v>6</v>
       </c>
@@ -32667,7 +32671,7 @@
       </c>
     </row>
     <row r="25" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A25" s="67"/>
+      <c r="A25" s="73"/>
       <c r="B25" s="45" t="s">
         <v>7</v>
       </c>
@@ -32724,7 +32728,7 @@
       </c>
     </row>
     <row r="26" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A26" s="67"/>
+      <c r="A26" s="73"/>
       <c r="B26" s="45" t="s">
         <v>8</v>
       </c>
@@ -32781,7 +32785,7 @@
       </c>
     </row>
     <row r="27" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A27" s="67"/>
+      <c r="A27" s="73"/>
       <c r="B27" s="45" t="s">
         <v>9</v>
       </c>
@@ -32838,7 +32842,7 @@
       </c>
     </row>
     <row r="28" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A28" s="67"/>
+      <c r="A28" s="73"/>
       <c r="B28" s="45" t="s">
         <v>10</v>
       </c>
@@ -32895,7 +32899,7 @@
       </c>
     </row>
     <row r="29" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A29" s="67"/>
+      <c r="A29" s="73"/>
       <c r="B29" s="45" t="s">
         <v>11</v>
       </c>
@@ -32952,7 +32956,7 @@
       </c>
     </row>
     <row r="30" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A30" s="67"/>
+      <c r="A30" s="73"/>
       <c r="B30" s="45" t="s">
         <v>12</v>
       </c>
@@ -33009,7 +33013,7 @@
       </c>
     </row>
     <row r="31" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A31" s="67"/>
+      <c r="A31" s="73"/>
       <c r="B31" s="45" t="s">
         <v>13</v>
       </c>
@@ -33066,7 +33070,7 @@
       </c>
     </row>
     <row r="32" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A32" s="67"/>
+      <c r="A32" s="73"/>
       <c r="B32" s="45" t="s">
         <v>14</v>
       </c>
@@ -33123,7 +33127,7 @@
       </c>
     </row>
     <row r="33" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A33" s="67"/>
+      <c r="A33" s="73"/>
       <c r="B33" s="45" t="s">
         <v>15</v>
       </c>
@@ -33180,8 +33184,8 @@
       </c>
     </row>
     <row r="34" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A34" s="67" t="s">
-        <v>76</v>
+      <c r="A34" s="73" t="s">
+        <v>75</v>
       </c>
       <c r="B34" s="45" t="s">
         <v>0</v>
@@ -33239,7 +33243,7 @@
       </c>
     </row>
     <row r="35" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A35" s="67"/>
+      <c r="A35" s="73"/>
       <c r="B35" s="45" t="s">
         <v>1</v>
       </c>
@@ -33296,7 +33300,7 @@
       </c>
     </row>
     <row r="36" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A36" s="67"/>
+      <c r="A36" s="73"/>
       <c r="B36" s="45" t="s">
         <v>2</v>
       </c>
@@ -33353,7 +33357,7 @@
       </c>
     </row>
     <row r="37" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A37" s="67"/>
+      <c r="A37" s="73"/>
       <c r="B37" s="45" t="s">
         <v>3</v>
       </c>
@@ -33410,7 +33414,7 @@
       </c>
     </row>
     <row r="38" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A38" s="67"/>
+      <c r="A38" s="73"/>
       <c r="B38" s="45" t="s">
         <v>4</v>
       </c>
@@ -33467,7 +33471,7 @@
       </c>
     </row>
     <row r="39" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A39" s="67"/>
+      <c r="A39" s="73"/>
       <c r="B39" s="45" t="s">
         <v>5</v>
       </c>
@@ -33524,7 +33528,7 @@
       </c>
     </row>
     <row r="40" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A40" s="67"/>
+      <c r="A40" s="73"/>
       <c r="B40" s="45" t="s">
         <v>6</v>
       </c>
@@ -33581,7 +33585,7 @@
       </c>
     </row>
     <row r="41" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A41" s="67"/>
+      <c r="A41" s="73"/>
       <c r="B41" s="45" t="s">
         <v>7</v>
       </c>
@@ -33638,7 +33642,7 @@
       </c>
     </row>
     <row r="42" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A42" s="67"/>
+      <c r="A42" s="73"/>
       <c r="B42" s="45" t="s">
         <v>8</v>
       </c>
@@ -33695,7 +33699,7 @@
       </c>
     </row>
     <row r="43" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A43" s="67"/>
+      <c r="A43" s="73"/>
       <c r="B43" s="45" t="s">
         <v>9</v>
       </c>
@@ -33752,7 +33756,7 @@
       </c>
     </row>
     <row r="44" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A44" s="67"/>
+      <c r="A44" s="73"/>
       <c r="B44" s="45" t="s">
         <v>10</v>
       </c>
@@ -33809,7 +33813,7 @@
       </c>
     </row>
     <row r="45" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A45" s="67"/>
+      <c r="A45" s="73"/>
       <c r="B45" s="45" t="s">
         <v>11</v>
       </c>
@@ -33866,7 +33870,7 @@
       </c>
     </row>
     <row r="46" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A46" s="67"/>
+      <c r="A46" s="73"/>
       <c r="B46" s="45" t="s">
         <v>12</v>
       </c>
@@ -33923,7 +33927,7 @@
       </c>
     </row>
     <row r="47" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A47" s="67"/>
+      <c r="A47" s="73"/>
       <c r="B47" s="45" t="s">
         <v>13</v>
       </c>
@@ -33980,7 +33984,7 @@
       </c>
     </row>
     <row r="48" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A48" s="67"/>
+      <c r="A48" s="73"/>
       <c r="B48" s="45" t="s">
         <v>14</v>
       </c>
@@ -34037,7 +34041,7 @@
       </c>
     </row>
     <row r="49" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A49" s="67"/>
+      <c r="A49" s="73"/>
       <c r="B49" s="45" t="s">
         <v>15</v>
       </c>
@@ -34094,8 +34098,8 @@
       </c>
     </row>
     <row r="50" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A50" s="67" t="s">
-        <v>77</v>
+      <c r="A50" s="73" t="s">
+        <v>76</v>
       </c>
       <c r="B50" s="45" t="s">
         <v>0</v>
@@ -34153,7 +34157,7 @@
       </c>
     </row>
     <row r="51" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A51" s="67"/>
+      <c r="A51" s="73"/>
       <c r="B51" s="45" t="s">
         <v>1</v>
       </c>
@@ -34210,7 +34214,7 @@
       </c>
     </row>
     <row r="52" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A52" s="67"/>
+      <c r="A52" s="73"/>
       <c r="B52" s="45" t="s">
         <v>2</v>
       </c>
@@ -34267,7 +34271,7 @@
       </c>
     </row>
     <row r="53" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A53" s="67"/>
+      <c r="A53" s="73"/>
       <c r="B53" s="45" t="s">
         <v>3</v>
       </c>
@@ -34324,7 +34328,7 @@
       </c>
     </row>
     <row r="54" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A54" s="67"/>
+      <c r="A54" s="73"/>
       <c r="B54" s="45" t="s">
         <v>4</v>
       </c>
@@ -34381,7 +34385,7 @@
       </c>
     </row>
     <row r="55" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A55" s="67"/>
+      <c r="A55" s="73"/>
       <c r="B55" s="45" t="s">
         <v>5</v>
       </c>
@@ -34438,7 +34442,7 @@
       </c>
     </row>
     <row r="56" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A56" s="67"/>
+      <c r="A56" s="73"/>
       <c r="B56" s="45" t="s">
         <v>6</v>
       </c>
@@ -34495,7 +34499,7 @@
       </c>
     </row>
     <row r="57" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A57" s="67"/>
+      <c r="A57" s="73"/>
       <c r="B57" s="45" t="s">
         <v>7</v>
       </c>
@@ -34552,7 +34556,7 @@
       </c>
     </row>
     <row r="58" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A58" s="67"/>
+      <c r="A58" s="73"/>
       <c r="B58" s="45" t="s">
         <v>8</v>
       </c>
@@ -34609,7 +34613,7 @@
       </c>
     </row>
     <row r="59" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A59" s="67"/>
+      <c r="A59" s="73"/>
       <c r="B59" s="45" t="s">
         <v>9</v>
       </c>
@@ -34666,7 +34670,7 @@
       </c>
     </row>
     <row r="60" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A60" s="67"/>
+      <c r="A60" s="73"/>
       <c r="B60" s="45" t="s">
         <v>10</v>
       </c>
@@ -34723,7 +34727,7 @@
       </c>
     </row>
     <row r="61" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A61" s="67"/>
+      <c r="A61" s="73"/>
       <c r="B61" s="45" t="s">
         <v>11</v>
       </c>
@@ -34780,7 +34784,7 @@
       </c>
     </row>
     <row r="62" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A62" s="67"/>
+      <c r="A62" s="73"/>
       <c r="B62" s="45" t="s">
         <v>12</v>
       </c>
@@ -34837,7 +34841,7 @@
       </c>
     </row>
     <row r="63" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A63" s="67"/>
+      <c r="A63" s="73"/>
       <c r="B63" s="45" t="s">
         <v>13</v>
       </c>
@@ -34894,7 +34898,7 @@
       </c>
     </row>
     <row r="64" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A64" s="67"/>
+      <c r="A64" s="73"/>
       <c r="B64" s="45" t="s">
         <v>14</v>
       </c>
@@ -34951,7 +34955,7 @@
       </c>
     </row>
     <row r="65" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A65" s="67"/>
+      <c r="A65" s="73"/>
       <c r="B65" s="45" t="s">
         <v>15</v>
       </c>
@@ -35008,8 +35012,8 @@
       </c>
     </row>
     <row r="66" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A66" s="67" t="s">
-        <v>78</v>
+      <c r="A66" s="73" t="s">
+        <v>77</v>
       </c>
       <c r="B66" s="45" t="s">
         <v>0</v>
@@ -35067,7 +35071,7 @@
       </c>
     </row>
     <row r="67" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A67" s="67"/>
+      <c r="A67" s="73"/>
       <c r="B67" s="45" t="s">
         <v>1</v>
       </c>
@@ -35124,7 +35128,7 @@
       </c>
     </row>
     <row r="68" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A68" s="67"/>
+      <c r="A68" s="73"/>
       <c r="B68" s="45" t="s">
         <v>2</v>
       </c>
@@ -35181,7 +35185,7 @@
       </c>
     </row>
     <row r="69" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A69" s="67"/>
+      <c r="A69" s="73"/>
       <c r="B69" s="45" t="s">
         <v>3</v>
       </c>
@@ -35238,7 +35242,7 @@
       </c>
     </row>
     <row r="70" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A70" s="67"/>
+      <c r="A70" s="73"/>
       <c r="B70" s="45" t="s">
         <v>4</v>
       </c>
@@ -35295,7 +35299,7 @@
       </c>
     </row>
     <row r="71" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A71" s="67"/>
+      <c r="A71" s="73"/>
       <c r="B71" s="45" t="s">
         <v>5</v>
       </c>
@@ -35352,7 +35356,7 @@
       </c>
     </row>
     <row r="72" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A72" s="67"/>
+      <c r="A72" s="73"/>
       <c r="B72" s="45" t="s">
         <v>6</v>
       </c>
@@ -35409,7 +35413,7 @@
       </c>
     </row>
     <row r="73" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A73" s="67"/>
+      <c r="A73" s="73"/>
       <c r="B73" s="45" t="s">
         <v>7</v>
       </c>
@@ -35466,7 +35470,7 @@
       </c>
     </row>
     <row r="74" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A74" s="67"/>
+      <c r="A74" s="73"/>
       <c r="B74" s="45" t="s">
         <v>8</v>
       </c>
@@ -35523,7 +35527,7 @@
       </c>
     </row>
     <row r="75" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A75" s="67"/>
+      <c r="A75" s="73"/>
       <c r="B75" s="45" t="s">
         <v>9</v>
       </c>
@@ -35580,7 +35584,7 @@
       </c>
     </row>
     <row r="76" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A76" s="67"/>
+      <c r="A76" s="73"/>
       <c r="B76" s="45" t="s">
         <v>10</v>
       </c>
@@ -35637,7 +35641,7 @@
       </c>
     </row>
     <row r="77" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A77" s="67"/>
+      <c r="A77" s="73"/>
       <c r="B77" s="45" t="s">
         <v>11</v>
       </c>
@@ -35694,7 +35698,7 @@
       </c>
     </row>
     <row r="78" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A78" s="67"/>
+      <c r="A78" s="73"/>
       <c r="B78" s="45" t="s">
         <v>12</v>
       </c>
@@ -35751,7 +35755,7 @@
       </c>
     </row>
     <row r="79" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A79" s="67"/>
+      <c r="A79" s="73"/>
       <c r="B79" s="45" t="s">
         <v>13</v>
       </c>
@@ -35808,7 +35812,7 @@
       </c>
     </row>
     <row r="80" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A80" s="67"/>
+      <c r="A80" s="73"/>
       <c r="B80" s="45" t="s">
         <v>14</v>
       </c>
@@ -35865,7 +35869,7 @@
       </c>
     </row>
     <row r="81" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A81" s="67"/>
+      <c r="A81" s="73"/>
       <c r="B81" s="45" t="s">
         <v>15</v>
       </c>
@@ -35922,8 +35926,8 @@
       </c>
     </row>
     <row r="82" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A82" s="67" t="s">
-        <v>79</v>
+      <c r="A82" s="73" t="s">
+        <v>78</v>
       </c>
       <c r="B82" s="45" t="s">
         <v>0</v>
@@ -35981,7 +35985,7 @@
       </c>
     </row>
     <row r="83" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A83" s="67"/>
+      <c r="A83" s="73"/>
       <c r="B83" s="45" t="s">
         <v>1</v>
       </c>
@@ -36038,7 +36042,7 @@
       </c>
     </row>
     <row r="84" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A84" s="67"/>
+      <c r="A84" s="73"/>
       <c r="B84" s="45" t="s">
         <v>2</v>
       </c>
@@ -36095,7 +36099,7 @@
       </c>
     </row>
     <row r="85" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A85" s="67"/>
+      <c r="A85" s="73"/>
       <c r="B85" s="45" t="s">
         <v>3</v>
       </c>
@@ -36152,7 +36156,7 @@
       </c>
     </row>
     <row r="86" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A86" s="67"/>
+      <c r="A86" s="73"/>
       <c r="B86" s="45" t="s">
         <v>4</v>
       </c>
@@ -36209,7 +36213,7 @@
       </c>
     </row>
     <row r="87" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A87" s="67"/>
+      <c r="A87" s="73"/>
       <c r="B87" s="45" t="s">
         <v>5</v>
       </c>
@@ -36266,7 +36270,7 @@
       </c>
     </row>
     <row r="88" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A88" s="67"/>
+      <c r="A88" s="73"/>
       <c r="B88" s="45" t="s">
         <v>6</v>
       </c>
@@ -36323,7 +36327,7 @@
       </c>
     </row>
     <row r="89" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A89" s="67"/>
+      <c r="A89" s="73"/>
       <c r="B89" s="45" t="s">
         <v>7</v>
       </c>
@@ -36380,7 +36384,7 @@
       </c>
     </row>
     <row r="90" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A90" s="67"/>
+      <c r="A90" s="73"/>
       <c r="B90" s="45" t="s">
         <v>8</v>
       </c>
@@ -36437,7 +36441,7 @@
       </c>
     </row>
     <row r="91" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A91" s="67"/>
+      <c r="A91" s="73"/>
       <c r="B91" s="45" t="s">
         <v>9</v>
       </c>
@@ -36494,7 +36498,7 @@
       </c>
     </row>
     <row r="92" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A92" s="67"/>
+      <c r="A92" s="73"/>
       <c r="B92" s="45" t="s">
         <v>10</v>
       </c>
@@ -36551,7 +36555,7 @@
       </c>
     </row>
     <row r="93" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A93" s="67"/>
+      <c r="A93" s="73"/>
       <c r="B93" s="45" t="s">
         <v>11</v>
       </c>
@@ -36608,7 +36612,7 @@
       </c>
     </row>
     <row r="94" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A94" s="67"/>
+      <c r="A94" s="73"/>
       <c r="B94" s="45" t="s">
         <v>12</v>
       </c>
@@ -36665,7 +36669,7 @@
       </c>
     </row>
     <row r="95" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A95" s="67"/>
+      <c r="A95" s="73"/>
       <c r="B95" s="45" t="s">
         <v>13</v>
       </c>
@@ -36722,7 +36726,7 @@
       </c>
     </row>
     <row r="96" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A96" s="67"/>
+      <c r="A96" s="73"/>
       <c r="B96" s="45" t="s">
         <v>14</v>
       </c>
@@ -36779,7 +36783,7 @@
       </c>
     </row>
     <row r="97" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A97" s="67"/>
+      <c r="A97" s="73"/>
       <c r="B97" s="45" t="s">
         <v>15</v>
       </c>
@@ -36836,8 +36840,8 @@
       </c>
     </row>
     <row r="98" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A98" s="67" t="s">
-        <v>80</v>
+      <c r="A98" s="73" t="s">
+        <v>79</v>
       </c>
       <c r="B98" s="45" t="s">
         <v>0</v>
@@ -36895,7 +36899,7 @@
       </c>
     </row>
     <row r="99" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A99" s="67"/>
+      <c r="A99" s="73"/>
       <c r="B99" s="45" t="s">
         <v>1</v>
       </c>
@@ -36952,7 +36956,7 @@
       </c>
     </row>
     <row r="100" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A100" s="67"/>
+      <c r="A100" s="73"/>
       <c r="B100" s="45" t="s">
         <v>2</v>
       </c>
@@ -37009,7 +37013,7 @@
       </c>
     </row>
     <row r="101" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A101" s="67"/>
+      <c r="A101" s="73"/>
       <c r="B101" s="45" t="s">
         <v>3</v>
       </c>
@@ -37066,7 +37070,7 @@
       </c>
     </row>
     <row r="102" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A102" s="67"/>
+      <c r="A102" s="73"/>
       <c r="B102" s="45" t="s">
         <v>4</v>
       </c>
@@ -37123,7 +37127,7 @@
       </c>
     </row>
     <row r="103" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A103" s="67"/>
+      <c r="A103" s="73"/>
       <c r="B103" s="45" t="s">
         <v>5</v>
       </c>
@@ -37180,7 +37184,7 @@
       </c>
     </row>
     <row r="104" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A104" s="67"/>
+      <c r="A104" s="73"/>
       <c r="B104" s="45" t="s">
         <v>6</v>
       </c>
@@ -37237,7 +37241,7 @@
       </c>
     </row>
     <row r="105" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A105" s="67"/>
+      <c r="A105" s="73"/>
       <c r="B105" s="45" t="s">
         <v>7</v>
       </c>
@@ -37294,7 +37298,7 @@
       </c>
     </row>
     <row r="106" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A106" s="67"/>
+      <c r="A106" s="73"/>
       <c r="B106" s="45" t="s">
         <v>8</v>
       </c>
@@ -37351,7 +37355,7 @@
       </c>
     </row>
     <row r="107" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A107" s="67"/>
+      <c r="A107" s="73"/>
       <c r="B107" s="45" t="s">
         <v>9</v>
       </c>
@@ -37408,7 +37412,7 @@
       </c>
     </row>
     <row r="108" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A108" s="67"/>
+      <c r="A108" s="73"/>
       <c r="B108" s="45" t="s">
         <v>10</v>
       </c>
@@ -37465,7 +37469,7 @@
       </c>
     </row>
     <row r="109" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A109" s="67"/>
+      <c r="A109" s="73"/>
       <c r="B109" s="45" t="s">
         <v>11</v>
       </c>
@@ -37522,7 +37526,7 @@
       </c>
     </row>
     <row r="110" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A110" s="67"/>
+      <c r="A110" s="73"/>
       <c r="B110" s="45" t="s">
         <v>12</v>
       </c>
@@ -37579,7 +37583,7 @@
       </c>
     </row>
     <row r="111" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A111" s="67"/>
+      <c r="A111" s="73"/>
       <c r="B111" s="45" t="s">
         <v>13</v>
       </c>
@@ -37636,7 +37640,7 @@
       </c>
     </row>
     <row r="112" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A112" s="67"/>
+      <c r="A112" s="73"/>
       <c r="B112" s="45" t="s">
         <v>14</v>
       </c>
@@ -37693,7 +37697,7 @@
       </c>
     </row>
     <row r="113" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A113" s="67"/>
+      <c r="A113" s="73"/>
       <c r="B113" s="45" t="s">
         <v>15</v>
       </c>
@@ -37750,8 +37754,8 @@
       </c>
     </row>
     <row r="114" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A114" s="67" t="s">
-        <v>81</v>
+      <c r="A114" s="73" t="s">
+        <v>80</v>
       </c>
       <c r="B114" s="45" t="s">
         <v>0</v>
@@ -37809,7 +37813,7 @@
       </c>
     </row>
     <row r="115" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A115" s="67"/>
+      <c r="A115" s="73"/>
       <c r="B115" s="45" t="s">
         <v>1</v>
       </c>
@@ -37866,7 +37870,7 @@
       </c>
     </row>
     <row r="116" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A116" s="67"/>
+      <c r="A116" s="73"/>
       <c r="B116" s="45" t="s">
         <v>2</v>
       </c>
@@ -37923,7 +37927,7 @@
       </c>
     </row>
     <row r="117" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A117" s="67"/>
+      <c r="A117" s="73"/>
       <c r="B117" s="45" t="s">
         <v>3</v>
       </c>
@@ -37980,7 +37984,7 @@
       </c>
     </row>
     <row r="118" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A118" s="67"/>
+      <c r="A118" s="73"/>
       <c r="B118" s="45" t="s">
         <v>4</v>
       </c>
@@ -38037,7 +38041,7 @@
       </c>
     </row>
     <row r="119" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A119" s="67"/>
+      <c r="A119" s="73"/>
       <c r="B119" s="45" t="s">
         <v>5</v>
       </c>
@@ -38094,7 +38098,7 @@
       </c>
     </row>
     <row r="120" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A120" s="67"/>
+      <c r="A120" s="73"/>
       <c r="B120" s="45" t="s">
         <v>6</v>
       </c>
@@ -38151,7 +38155,7 @@
       </c>
     </row>
     <row r="121" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A121" s="67"/>
+      <c r="A121" s="73"/>
       <c r="B121" s="45" t="s">
         <v>7</v>
       </c>
@@ -38208,7 +38212,7 @@
       </c>
     </row>
     <row r="122" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A122" s="67"/>
+      <c r="A122" s="73"/>
       <c r="B122" s="45" t="s">
         <v>8</v>
       </c>
@@ -38265,7 +38269,7 @@
       </c>
     </row>
     <row r="123" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A123" s="67"/>
+      <c r="A123" s="73"/>
       <c r="B123" s="45" t="s">
         <v>9</v>
       </c>
@@ -38322,7 +38326,7 @@
       </c>
     </row>
     <row r="124" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A124" s="67"/>
+      <c r="A124" s="73"/>
       <c r="B124" s="45" t="s">
         <v>10</v>
       </c>
@@ -38379,7 +38383,7 @@
       </c>
     </row>
     <row r="125" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A125" s="67"/>
+      <c r="A125" s="73"/>
       <c r="B125" s="45" t="s">
         <v>11</v>
       </c>
@@ -38436,7 +38440,7 @@
       </c>
     </row>
     <row r="126" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A126" s="67"/>
+      <c r="A126" s="73"/>
       <c r="B126" s="45" t="s">
         <v>12</v>
       </c>
@@ -38493,7 +38497,7 @@
       </c>
     </row>
     <row r="127" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A127" s="67"/>
+      <c r="A127" s="73"/>
       <c r="B127" s="45" t="s">
         <v>13</v>
       </c>
@@ -38550,7 +38554,7 @@
       </c>
     </row>
     <row r="128" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A128" s="67"/>
+      <c r="A128" s="73"/>
       <c r="B128" s="45" t="s">
         <v>14</v>
       </c>
@@ -38607,7 +38611,7 @@
       </c>
     </row>
     <row r="129" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A129" s="67"/>
+      <c r="A129" s="73"/>
       <c r="B129" s="45" t="s">
         <v>15</v>
       </c>
@@ -38664,8 +38668,8 @@
       </c>
     </row>
     <row r="130" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A130" s="67" t="s">
-        <v>82</v>
+      <c r="A130" s="73" t="s">
+        <v>81</v>
       </c>
       <c r="B130" s="45" t="s">
         <v>0</v>
@@ -38723,7 +38727,7 @@
       </c>
     </row>
     <row r="131" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A131" s="67"/>
+      <c r="A131" s="73"/>
       <c r="B131" s="45" t="s">
         <v>1</v>
       </c>
@@ -38780,7 +38784,7 @@
       </c>
     </row>
     <row r="132" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A132" s="67"/>
+      <c r="A132" s="73"/>
       <c r="B132" s="45" t="s">
         <v>2</v>
       </c>
@@ -38837,7 +38841,7 @@
       </c>
     </row>
     <row r="133" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A133" s="67"/>
+      <c r="A133" s="73"/>
       <c r="B133" s="45" t="s">
         <v>3</v>
       </c>
@@ -38894,7 +38898,7 @@
       </c>
     </row>
     <row r="134" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A134" s="67"/>
+      <c r="A134" s="73"/>
       <c r="B134" s="45" t="s">
         <v>4</v>
       </c>
@@ -38951,7 +38955,7 @@
       </c>
     </row>
     <row r="135" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A135" s="67"/>
+      <c r="A135" s="73"/>
       <c r="B135" s="45" t="s">
         <v>5</v>
       </c>
@@ -39008,7 +39012,7 @@
       </c>
     </row>
     <row r="136" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A136" s="67"/>
+      <c r="A136" s="73"/>
       <c r="B136" s="45" t="s">
         <v>6</v>
       </c>
@@ -39065,7 +39069,7 @@
       </c>
     </row>
     <row r="137" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A137" s="67"/>
+      <c r="A137" s="73"/>
       <c r="B137" s="45" t="s">
         <v>7</v>
       </c>
@@ -39122,7 +39126,7 @@
       </c>
     </row>
     <row r="138" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A138" s="67"/>
+      <c r="A138" s="73"/>
       <c r="B138" s="45" t="s">
         <v>8</v>
       </c>
@@ -39179,7 +39183,7 @@
       </c>
     </row>
     <row r="139" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A139" s="67"/>
+      <c r="A139" s="73"/>
       <c r="B139" s="45" t="s">
         <v>9</v>
       </c>
@@ -39236,7 +39240,7 @@
       </c>
     </row>
     <row r="140" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A140" s="67"/>
+      <c r="A140" s="73"/>
       <c r="B140" s="45" t="s">
         <v>10</v>
       </c>
@@ -39293,7 +39297,7 @@
       </c>
     </row>
     <row r="141" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A141" s="67"/>
+      <c r="A141" s="73"/>
       <c r="B141" s="45" t="s">
         <v>11</v>
       </c>
@@ -39350,7 +39354,7 @@
       </c>
     </row>
     <row r="142" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A142" s="67"/>
+      <c r="A142" s="73"/>
       <c r="B142" s="45" t="s">
         <v>12</v>
       </c>
@@ -39407,7 +39411,7 @@
       </c>
     </row>
     <row r="143" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A143" s="67"/>
+      <c r="A143" s="73"/>
       <c r="B143" s="45" t="s">
         <v>13</v>
       </c>
@@ -39464,7 +39468,7 @@
       </c>
     </row>
     <row r="144" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A144" s="67"/>
+      <c r="A144" s="73"/>
       <c r="B144" s="45" t="s">
         <v>14</v>
       </c>
@@ -39521,7 +39525,7 @@
       </c>
     </row>
     <row r="145" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A145" s="67"/>
+      <c r="A145" s="73"/>
       <c r="B145" s="45" t="s">
         <v>15</v>
       </c>
@@ -39578,8 +39582,8 @@
       </c>
     </row>
     <row r="146" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A146" s="67" t="s">
-        <v>83</v>
+      <c r="A146" s="73" t="s">
+        <v>82</v>
       </c>
       <c r="B146" s="45" t="s">
         <v>0</v>
@@ -39637,7 +39641,7 @@
       </c>
     </row>
     <row r="147" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A147" s="67"/>
+      <c r="A147" s="73"/>
       <c r="B147" s="45" t="s">
         <v>1</v>
       </c>
@@ -39694,7 +39698,7 @@
       </c>
     </row>
     <row r="148" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A148" s="67"/>
+      <c r="A148" s="73"/>
       <c r="B148" s="45" t="s">
         <v>2</v>
       </c>
@@ -39751,7 +39755,7 @@
       </c>
     </row>
     <row r="149" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A149" s="67"/>
+      <c r="A149" s="73"/>
       <c r="B149" s="45" t="s">
         <v>3</v>
       </c>
@@ -39808,7 +39812,7 @@
       </c>
     </row>
     <row r="150" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A150" s="67"/>
+      <c r="A150" s="73"/>
       <c r="B150" s="45" t="s">
         <v>4</v>
       </c>
@@ -39865,7 +39869,7 @@
       </c>
     </row>
     <row r="151" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A151" s="67"/>
+      <c r="A151" s="73"/>
       <c r="B151" s="45" t="s">
         <v>5</v>
       </c>
@@ -39922,7 +39926,7 @@
       </c>
     </row>
     <row r="152" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A152" s="67"/>
+      <c r="A152" s="73"/>
       <c r="B152" s="45" t="s">
         <v>6</v>
       </c>
@@ -39979,7 +39983,7 @@
       </c>
     </row>
     <row r="153" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A153" s="67"/>
+      <c r="A153" s="73"/>
       <c r="B153" s="45" t="s">
         <v>7</v>
       </c>
@@ -40036,7 +40040,7 @@
       </c>
     </row>
     <row r="154" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A154" s="67"/>
+      <c r="A154" s="73"/>
       <c r="B154" s="45" t="s">
         <v>8</v>
       </c>
@@ -40093,7 +40097,7 @@
       </c>
     </row>
     <row r="155" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A155" s="67"/>
+      <c r="A155" s="73"/>
       <c r="B155" s="45" t="s">
         <v>9</v>
       </c>
@@ -40150,7 +40154,7 @@
       </c>
     </row>
     <row r="156" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A156" s="67"/>
+      <c r="A156" s="73"/>
       <c r="B156" s="45" t="s">
         <v>10</v>
       </c>
@@ -40207,7 +40211,7 @@
       </c>
     </row>
     <row r="157" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A157" s="67"/>
+      <c r="A157" s="73"/>
       <c r="B157" s="45" t="s">
         <v>11</v>
       </c>
@@ -40264,7 +40268,7 @@
       </c>
     </row>
     <row r="158" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A158" s="67"/>
+      <c r="A158" s="73"/>
       <c r="B158" s="45" t="s">
         <v>12</v>
       </c>
@@ -40321,7 +40325,7 @@
       </c>
     </row>
     <row r="159" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A159" s="67"/>
+      <c r="A159" s="73"/>
       <c r="B159" s="45" t="s">
         <v>13</v>
       </c>
@@ -40378,7 +40382,7 @@
       </c>
     </row>
     <row r="160" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A160" s="67"/>
+      <c r="A160" s="73"/>
       <c r="B160" s="45" t="s">
         <v>14</v>
       </c>
@@ -40435,7 +40439,7 @@
       </c>
     </row>
     <row r="161" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A161" s="67"/>
+      <c r="A161" s="73"/>
       <c r="B161" s="45" t="s">
         <v>15</v>
       </c>
@@ -40493,16 +40497,16 @@
     </row>
   </sheetData>
   <mergeCells count="10">
+    <mergeCell ref="A82:A97"/>
+    <mergeCell ref="A98:A113"/>
+    <mergeCell ref="A114:A129"/>
+    <mergeCell ref="A130:A145"/>
+    <mergeCell ref="A146:A161"/>
     <mergeCell ref="A2:A17"/>
     <mergeCell ref="A18:A33"/>
     <mergeCell ref="A34:A49"/>
     <mergeCell ref="A50:A65"/>
     <mergeCell ref="A66:A81"/>
-    <mergeCell ref="A82:A97"/>
-    <mergeCell ref="A98:A113"/>
-    <mergeCell ref="A114:A129"/>
-    <mergeCell ref="A130:A145"/>
-    <mergeCell ref="A146:A161"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -40543,7 +40547,7 @@
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" s="45" t="s">
-        <v>74</v>
+        <v>92</v>
       </c>
       <c r="B2">
         <v>11.8</v>
@@ -40566,7 +40570,7 @@
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" s="45" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B3">
         <v>11.8</v>
@@ -40589,7 +40593,7 @@
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" s="45" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B4">
         <v>11.7</v>
@@ -40612,7 +40616,7 @@
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" s="45" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B5">
         <v>10.199999999999999</v>
@@ -40635,7 +40639,7 @@
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" s="45" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B6">
         <v>10.199999999999999</v>
@@ -40658,7 +40662,7 @@
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" s="45" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B7">
         <v>10.199999999999999</v>
@@ -40681,7 +40685,7 @@
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8" s="45" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B8">
         <v>8.8000000000000007</v>
@@ -40704,7 +40708,7 @@
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9" s="45" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B9">
         <v>8.8000000000000007</v>
@@ -40727,7 +40731,7 @@
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10" s="45" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B10">
         <v>10.199999999999999</v>
@@ -40750,7 +40754,7 @@
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A11" s="45" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B11">
         <v>8.8000000000000007</v>
@@ -40832,7 +40836,7 @@
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A2" s="45" t="s">
-        <v>74</v>
+        <v>92</v>
       </c>
       <c r="B2">
         <v>4</v>
@@ -40864,7 +40868,7 @@
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A3" s="45" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B3">
         <v>4</v>
@@ -40896,7 +40900,7 @@
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A4" s="45" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B4">
         <v>4</v>
@@ -40928,7 +40932,7 @@
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A5" s="45" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B5">
         <v>4</v>
@@ -40960,7 +40964,7 @@
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A6" s="45" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B6">
         <v>4</v>
@@ -40992,7 +40996,7 @@
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A7" s="45" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B7">
         <v>4</v>
@@ -41024,7 +41028,7 @@
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A8" s="45" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B8">
         <v>4</v>
@@ -41056,7 +41060,7 @@
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A9" s="45" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B9">
         <v>4</v>
@@ -41088,7 +41092,7 @@
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A10" s="45" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B10">
         <v>4</v>
@@ -41120,7 +41124,7 @@
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A11" s="45" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B11">
         <v>4</v>
@@ -41211,7 +41215,7 @@
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A2" s="45" t="s">
-        <v>74</v>
+        <v>92</v>
       </c>
       <c r="B2">
         <v>6</v>
@@ -41243,7 +41247,7 @@
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A3" s="45" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B3">
         <v>6</v>
@@ -41275,7 +41279,7 @@
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A4" s="45" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B4">
         <v>6</v>
@@ -41307,7 +41311,7 @@
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A5" s="45" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B5">
         <v>6</v>
@@ -41339,7 +41343,7 @@
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A6" s="45" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B6">
         <v>6</v>
@@ -41371,7 +41375,7 @@
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A7" s="45" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B7">
         <v>6</v>
@@ -41403,7 +41407,7 @@
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A8" s="45" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B8">
         <v>6</v>
@@ -41435,7 +41439,7 @@
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A9" s="45" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B9">
         <v>6</v>
@@ -41467,7 +41471,7 @@
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A10" s="45" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B10">
         <v>6</v>
@@ -41499,7 +41503,7 @@
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A11" s="45" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B11">
         <v>7</v>
@@ -41589,7 +41593,7 @@
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A2" s="45" t="s">
-        <v>74</v>
+        <v>92</v>
       </c>
       <c r="B2">
         <v>4</v>
@@ -41621,7 +41625,7 @@
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A3" s="45" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B3">
         <v>3</v>
@@ -41653,7 +41657,7 @@
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A4" s="45" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B4">
         <v>4</v>
@@ -41685,7 +41689,7 @@
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A5" s="45" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B5">
         <v>4</v>
@@ -41717,7 +41721,7 @@
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A6" s="45" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B6">
         <v>4</v>
@@ -41749,7 +41753,7 @@
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A7" s="45" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B7">
         <v>4</v>
@@ -41781,7 +41785,7 @@
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A8" s="45" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B8">
         <v>4</v>
@@ -41813,7 +41817,7 @@
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A9" s="45" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B9">
         <v>3</v>
@@ -41845,7 +41849,7 @@
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A10" s="45" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B10">
         <v>4</v>
@@ -41877,7 +41881,7 @@
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A11" s="45" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B11">
         <v>3</v>
@@ -41917,7 +41921,7 @@
   <dimension ref="A1:J11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A12" sqref="A12:XFD127"/>
+      <selection activeCell="N10" sqref="N10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -41968,7 +41972,7 @@
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A2" s="45" t="s">
-        <v>74</v>
+        <v>92</v>
       </c>
       <c r="B2">
         <v>23</v>
@@ -42000,7 +42004,7 @@
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A3" s="45" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B3">
         <v>23</v>
@@ -42032,7 +42036,7 @@
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A4" s="45" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B4">
         <v>23</v>
@@ -42064,7 +42068,7 @@
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A5" s="45" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B5">
         <v>23</v>
@@ -42096,7 +42100,7 @@
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A6" s="45" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B6">
         <v>23</v>
@@ -42128,7 +42132,7 @@
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A7" s="45" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B7">
         <v>23</v>
@@ -42160,7 +42164,7 @@
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A8" s="45" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B8">
         <v>23</v>
@@ -42192,7 +42196,7 @@
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A9" s="45" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B9">
         <v>23</v>
@@ -42224,7 +42228,7 @@
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A10" s="45" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B10">
         <v>23</v>
@@ -42256,7 +42260,7 @@
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A11" s="45" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B11">
         <v>23</v>
@@ -42315,17 +42319,17 @@
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1" s="1"/>
-      <c r="B1" s="67" t="s">
+      <c r="B1" s="73" t="s">
         <v>41</v>
       </c>
-      <c r="C1" s="67"/>
-      <c r="D1" s="67"/>
-      <c r="E1" s="67"/>
-      <c r="F1" s="67"/>
-      <c r="G1" s="67"/>
-      <c r="H1" s="67"/>
-      <c r="I1" s="67"/>
-      <c r="J1" s="67"/>
+      <c r="C1" s="73"/>
+      <c r="D1" s="73"/>
+      <c r="E1" s="73"/>
+      <c r="F1" s="73"/>
+      <c r="G1" s="73"/>
+      <c r="H1" s="73"/>
+      <c r="I1" s="73"/>
+      <c r="J1" s="73"/>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
@@ -42361,7 +42365,7 @@
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A3" s="45" t="s">
-        <v>74</v>
+        <v>92</v>
       </c>
       <c r="B3">
         <v>10</v>
@@ -42393,7 +42397,7 @@
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A4" s="45" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B4">
         <v>10</v>
@@ -42425,7 +42429,7 @@
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A5" s="45" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B5">
         <v>10</v>
@@ -42457,7 +42461,7 @@
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A6" s="45" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B6">
         <v>10</v>
@@ -42489,7 +42493,7 @@
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A7" s="45" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B7">
         <v>10</v>
@@ -42521,7 +42525,7 @@
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A8" s="45" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B8">
         <v>10</v>
@@ -42553,7 +42557,7 @@
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A9" s="45" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B9">
         <v>10</v>
@@ -42585,7 +42589,7 @@
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A10" s="45" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B10">
         <v>10</v>
@@ -42617,7 +42621,7 @@
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A11" s="45" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B11">
         <v>10</v>
@@ -42649,7 +42653,7 @@
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A12" s="45" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B12">
         <v>10</v>
@@ -42691,8 +42695,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:N27"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B20" sqref="B20:N23"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D23" sqref="D23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -42758,17 +42762,17 @@
       </c>
     </row>
     <row r="2" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A2" s="68" t="s">
-        <v>74</v>
+      <c r="A2" s="81" t="s">
+        <v>92</v>
       </c>
       <c r="B2" s="33" t="s">
-        <v>67</v>
+        <v>85</v>
       </c>
       <c r="C2" s="24" t="s">
         <v>49</v>
       </c>
       <c r="D2" s="41">
-        <v>0.14000000000000001</v>
+        <v>0.2</v>
       </c>
       <c r="E2" s="24">
         <v>1</v>
@@ -42791,20 +42795,22 @@
       <c r="K2" s="24"/>
       <c r="L2" s="24"/>
       <c r="M2" s="25">
-        <v>43936</v>
-      </c>
-      <c r="N2" s="26"/>
+        <v>43931</v>
+      </c>
+      <c r="N2" s="70">
+        <v>43952</v>
+      </c>
     </row>
     <row r="3" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A3" s="69"/>
+      <c r="A3" s="82"/>
       <c r="B3" s="46" t="s">
-        <v>68</v>
+        <v>86</v>
       </c>
       <c r="C3" s="47" t="s">
         <v>69</v>
       </c>
       <c r="D3" s="48">
-        <v>0.6</v>
+        <v>0.3</v>
       </c>
       <c r="E3" s="47">
         <v>1</v>
@@ -42826,19 +42832,23 @@
       </c>
       <c r="K3" s="47"/>
       <c r="L3" s="47"/>
-      <c r="M3" s="49"/>
-      <c r="N3" s="50"/>
+      <c r="M3" s="71">
+        <v>43952</v>
+      </c>
+      <c r="N3" s="72">
+        <v>44006</v>
+      </c>
     </row>
     <row r="4" spans="1:14" s="5" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="51"/>
+      <c r="A4" s="82"/>
       <c r="B4" s="46" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="C4" s="47" t="s">
         <v>69</v>
       </c>
       <c r="D4" s="48">
-        <v>0.7</v>
+        <v>0.4</v>
       </c>
       <c r="E4" s="47">
         <v>1</v>
@@ -42860,19 +42870,21 @@
       </c>
       <c r="K4" s="47"/>
       <c r="L4" s="47"/>
-      <c r="M4" s="49"/>
-      <c r="N4" s="50"/>
+      <c r="M4" s="71">
+        <v>44006</v>
+      </c>
+      <c r="N4" s="72"/>
     </row>
     <row r="5" spans="1:14" s="5" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="51"/>
+      <c r="A5" s="83"/>
       <c r="B5" s="46" t="s">
-        <v>85</v>
+        <v>90</v>
       </c>
       <c r="C5" s="47" t="s">
         <v>69</v>
       </c>
       <c r="D5" s="48">
-        <v>0.8</v>
+        <v>0.3</v>
       </c>
       <c r="E5" s="47">
         <v>1</v>
@@ -42894,148 +42906,148 @@
       </c>
       <c r="K5" s="47"/>
       <c r="L5" s="47"/>
-      <c r="M5" s="49"/>
-      <c r="N5" s="50"/>
-    </row>
-    <row r="6" spans="1:14" s="57" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="73" t="s">
+      <c r="M5" s="71"/>
+      <c r="N5" s="72"/>
+    </row>
+    <row r="6" spans="1:14" s="54" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="78" t="s">
+        <v>74</v>
+      </c>
+      <c r="B6" s="49" t="s">
+        <v>67</v>
+      </c>
+      <c r="C6" s="50" t="s">
+        <v>49</v>
+      </c>
+      <c r="D6" s="51">
+        <v>0.14000000000000001</v>
+      </c>
+      <c r="E6" s="50">
+        <v>1</v>
+      </c>
+      <c r="F6" s="50">
+        <v>1</v>
+      </c>
+      <c r="G6" s="50">
+        <v>1</v>
+      </c>
+      <c r="H6" s="50">
+        <v>1</v>
+      </c>
+      <c r="I6" s="50">
+        <v>1</v>
+      </c>
+      <c r="J6" s="50">
+        <v>0</v>
+      </c>
+      <c r="K6" s="50"/>
+      <c r="L6" s="50"/>
+      <c r="M6" s="52">
+        <v>43936</v>
+      </c>
+      <c r="N6" s="53"/>
+    </row>
+    <row r="7" spans="1:14" s="54" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="79"/>
+      <c r="B7" s="55" t="s">
+        <v>68</v>
+      </c>
+      <c r="C7" s="56" t="s">
+        <v>69</v>
+      </c>
+      <c r="D7" s="57">
+        <v>0.7</v>
+      </c>
+      <c r="E7" s="56">
+        <v>1</v>
+      </c>
+      <c r="F7" s="56">
+        <v>1</v>
+      </c>
+      <c r="G7" s="56">
+        <v>1</v>
+      </c>
+      <c r="H7" s="56">
+        <v>1</v>
+      </c>
+      <c r="I7" s="56">
+        <v>1</v>
+      </c>
+      <c r="J7" s="56">
+        <v>0</v>
+      </c>
+      <c r="K7" s="56"/>
+      <c r="L7" s="56"/>
+      <c r="M7" s="58"/>
+      <c r="N7" s="59"/>
+    </row>
+    <row r="8" spans="1:14" s="56" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="79"/>
+      <c r="B8" s="55" t="s">
+        <v>83</v>
+      </c>
+      <c r="C8" s="56" t="s">
+        <v>69</v>
+      </c>
+      <c r="D8" s="57">
+        <v>0.6</v>
+      </c>
+      <c r="E8" s="56">
+        <v>1</v>
+      </c>
+      <c r="F8" s="56">
+        <v>1</v>
+      </c>
+      <c r="G8" s="56">
+        <v>1</v>
+      </c>
+      <c r="H8" s="56">
+        <v>1</v>
+      </c>
+      <c r="I8" s="56">
+        <v>1</v>
+      </c>
+      <c r="J8" s="56">
+        <v>0</v>
+      </c>
+      <c r="M8" s="58"/>
+      <c r="N8" s="59"/>
+    </row>
+    <row r="9" spans="1:14" s="56" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="80"/>
+      <c r="B9" s="60" t="s">
+        <v>84</v>
+      </c>
+      <c r="C9" s="61" t="s">
+        <v>69</v>
+      </c>
+      <c r="D9" s="57">
+        <v>0.7</v>
+      </c>
+      <c r="E9" s="56">
+        <v>1</v>
+      </c>
+      <c r="F9" s="56">
+        <v>1</v>
+      </c>
+      <c r="G9" s="56">
+        <v>1</v>
+      </c>
+      <c r="H9" s="56">
+        <v>1</v>
+      </c>
+      <c r="I9" s="56">
+        <v>1</v>
+      </c>
+      <c r="J9" s="56">
+        <v>0</v>
+      </c>
+      <c r="M9" s="58"/>
+      <c r="N9" s="59"/>
+    </row>
+    <row r="10" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A10" s="74" t="s">
         <v>75</v>
-      </c>
-      <c r="B6" s="52" t="s">
-        <v>67</v>
-      </c>
-      <c r="C6" s="53" t="s">
-        <v>49</v>
-      </c>
-      <c r="D6" s="54">
-        <v>0.14000000000000001</v>
-      </c>
-      <c r="E6" s="53">
-        <v>1</v>
-      </c>
-      <c r="F6" s="53">
-        <v>1</v>
-      </c>
-      <c r="G6" s="53">
-        <v>1</v>
-      </c>
-      <c r="H6" s="53">
-        <v>1</v>
-      </c>
-      <c r="I6" s="53">
-        <v>1</v>
-      </c>
-      <c r="J6" s="53">
-        <v>0</v>
-      </c>
-      <c r="K6" s="53"/>
-      <c r="L6" s="53"/>
-      <c r="M6" s="55">
-        <v>43936</v>
-      </c>
-      <c r="N6" s="56"/>
-    </row>
-    <row r="7" spans="1:14" s="57" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="74"/>
-      <c r="B7" s="58" t="s">
-        <v>68</v>
-      </c>
-      <c r="C7" s="59" t="s">
-        <v>69</v>
-      </c>
-      <c r="D7" s="60">
-        <v>0.7</v>
-      </c>
-      <c r="E7" s="59">
-        <v>1</v>
-      </c>
-      <c r="F7" s="59">
-        <v>1</v>
-      </c>
-      <c r="G7" s="59">
-        <v>1</v>
-      </c>
-      <c r="H7" s="59">
-        <v>1</v>
-      </c>
-      <c r="I7" s="59">
-        <v>1</v>
-      </c>
-      <c r="J7" s="59">
-        <v>0</v>
-      </c>
-      <c r="K7" s="59"/>
-      <c r="L7" s="59"/>
-      <c r="M7" s="61"/>
-      <c r="N7" s="62"/>
-    </row>
-    <row r="8" spans="1:14" s="59" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="74"/>
-      <c r="B8" s="58" t="s">
-        <v>84</v>
-      </c>
-      <c r="C8" s="59" t="s">
-        <v>69</v>
-      </c>
-      <c r="D8" s="60">
-        <v>0.6</v>
-      </c>
-      <c r="E8" s="59">
-        <v>1</v>
-      </c>
-      <c r="F8" s="59">
-        <v>1</v>
-      </c>
-      <c r="G8" s="59">
-        <v>1</v>
-      </c>
-      <c r="H8" s="59">
-        <v>1</v>
-      </c>
-      <c r="I8" s="59">
-        <v>1</v>
-      </c>
-      <c r="J8" s="59">
-        <v>0</v>
-      </c>
-      <c r="M8" s="61"/>
-      <c r="N8" s="62"/>
-    </row>
-    <row r="9" spans="1:14" s="59" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="75"/>
-      <c r="B9" s="63" t="s">
-        <v>85</v>
-      </c>
-      <c r="C9" s="64" t="s">
-        <v>69</v>
-      </c>
-      <c r="D9" s="60">
-        <v>0.7</v>
-      </c>
-      <c r="E9" s="59">
-        <v>1</v>
-      </c>
-      <c r="F9" s="59">
-        <v>1</v>
-      </c>
-      <c r="G9" s="59">
-        <v>1</v>
-      </c>
-      <c r="H9" s="59">
-        <v>1</v>
-      </c>
-      <c r="I9" s="59">
-        <v>1</v>
-      </c>
-      <c r="J9" s="59">
-        <v>0</v>
-      </c>
-      <c r="M9" s="61"/>
-      <c r="N9" s="62"/>
-    </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A10" s="68" t="s">
-        <v>76</v>
       </c>
       <c r="B10" s="46" t="s">
         <v>67</v>
@@ -43072,7 +43084,7 @@
       <c r="N10" s="26"/>
     </row>
     <row r="11" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A11" s="70"/>
+      <c r="A11" s="75"/>
       <c r="B11" s="34" t="s">
         <v>68</v>
       </c>
@@ -43106,8 +43118,8 @@
       <c r="N11" s="29"/>
     </row>
     <row r="12" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A12" s="71" t="s">
-        <v>77</v>
+      <c r="A12" s="76" t="s">
+        <v>76</v>
       </c>
       <c r="B12" s="35" t="s">
         <v>67</v>
@@ -43144,7 +43156,7 @@
       <c r="N12" s="22"/>
     </row>
     <row r="13" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A13" s="72"/>
+      <c r="A13" s="77"/>
       <c r="B13" s="36" t="s">
         <v>68</v>
       </c>
@@ -43178,8 +43190,8 @@
       <c r="N13" s="23"/>
     </row>
     <row r="14" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A14" s="68" t="s">
-        <v>78</v>
+      <c r="A14" s="74" t="s">
+        <v>77</v>
       </c>
       <c r="B14" s="33" t="s">
         <v>67</v>
@@ -43216,7 +43228,7 @@
       <c r="N14" s="26"/>
     </row>
     <row r="15" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A15" s="70"/>
+      <c r="A15" s="75"/>
       <c r="B15" s="34" t="s">
         <v>68</v>
       </c>
@@ -43250,8 +43262,8 @@
       <c r="N15" s="29"/>
     </row>
     <row r="16" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A16" s="71" t="s">
-        <v>79</v>
+      <c r="A16" s="76" t="s">
+        <v>78</v>
       </c>
       <c r="B16" s="35" t="s">
         <v>67</v>
@@ -43288,7 +43300,7 @@
       <c r="N16" s="22"/>
     </row>
     <row r="17" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A17" s="72"/>
+      <c r="A17" s="77"/>
       <c r="B17" s="36" t="s">
         <v>68</v>
       </c>
@@ -43322,8 +43334,8 @@
       <c r="N17" s="23"/>
     </row>
     <row r="18" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A18" s="68" t="s">
-        <v>80</v>
+      <c r="A18" s="74" t="s">
+        <v>79</v>
       </c>
       <c r="B18" s="33" t="s">
         <v>67</v>
@@ -43360,14 +43372,14 @@
       <c r="N18" s="26"/>
     </row>
     <row r="19" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A19" s="70"/>
+      <c r="A19" s="75"/>
       <c r="B19" s="34" t="s">
         <v>68</v>
       </c>
-      <c r="C19" s="65" t="s">
+      <c r="C19" s="62" t="s">
         <v>69</v>
       </c>
-      <c r="D19" s="65">
+      <c r="D19" s="62">
         <v>0.8</v>
       </c>
       <c r="E19" s="27">
@@ -43393,18 +43405,18 @@
       <c r="M19" s="28"/>
       <c r="N19" s="29"/>
     </row>
-    <row r="20" spans="1:14" s="57" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="73" t="s">
-        <v>81</v>
-      </c>
-      <c r="B20" s="76" t="s">
-        <v>86</v>
+    <row r="20" spans="1:14" s="54" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="78" t="s">
+        <v>80</v>
+      </c>
+      <c r="B20" s="64" t="s">
+        <v>85</v>
       </c>
       <c r="C20" s="19" t="s">
         <v>49</v>
       </c>
       <c r="D20" s="43">
-        <v>0.06</v>
+        <v>0.2</v>
       </c>
       <c r="E20" s="19">
         <v>1</v>
@@ -43429,20 +43441,20 @@
       <c r="M20" s="2">
         <v>43931</v>
       </c>
-      <c r="N20" s="77">
+      <c r="N20" s="65">
         <v>43952</v>
       </c>
     </row>
-    <row r="21" spans="1:14" s="59" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="74"/>
-      <c r="B21" s="78" t="s">
-        <v>87</v>
+    <row r="21" spans="1:14" s="56" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="79"/>
+      <c r="B21" s="66" t="s">
+        <v>86</v>
       </c>
       <c r="C21" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="D21" s="18">
-        <v>0.09</v>
+        <v>0.1</v>
       </c>
       <c r="E21">
         <v>1</v>
@@ -43464,20 +43476,20 @@
       </c>
       <c r="K21"/>
       <c r="L21"/>
-      <c r="M21" s="79">
+      <c r="M21" s="67">
         <v>43952</v>
       </c>
-      <c r="N21" s="79">
+      <c r="N21" s="67">
         <v>44006</v>
       </c>
     </row>
-    <row r="22" spans="1:14" s="59" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="74"/>
-      <c r="B22" s="78" t="s">
-        <v>88</v>
+    <row r="22" spans="1:14" s="56" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A22" s="79"/>
+      <c r="B22" s="66" t="s">
+        <v>87</v>
       </c>
       <c r="C22" s="10" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="D22" s="18">
         <v>0.1</v>
@@ -43502,18 +43514,18 @@
       </c>
       <c r="K22"/>
       <c r="L22"/>
-      <c r="M22" s="79">
+      <c r="M22" s="67">
         <v>44006</v>
       </c>
-      <c r="N22" s="79"/>
-    </row>
-    <row r="23" spans="1:14" s="59" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="74"/>
-      <c r="B23" s="80" t="s">
+      <c r="N22" s="67"/>
+    </row>
+    <row r="23" spans="1:14" s="56" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A23" s="79"/>
+      <c r="B23" s="68" t="s">
+        <v>90</v>
+      </c>
+      <c r="C23" s="17" t="s">
         <v>91</v>
-      </c>
-      <c r="C23" s="17" t="s">
-        <v>92</v>
       </c>
       <c r="D23" s="44">
         <v>0.3</v>
@@ -43538,12 +43550,12 @@
       </c>
       <c r="K23" s="17"/>
       <c r="L23" s="17"/>
-      <c r="M23" s="79"/>
-      <c r="N23" s="81"/>
+      <c r="M23" s="67"/>
+      <c r="N23" s="69"/>
     </row>
     <row r="24" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A24" s="68" t="s">
-        <v>82</v>
+      <c r="A24" s="74" t="s">
+        <v>81</v>
       </c>
       <c r="B24" s="33" t="s">
         <v>67</v>
@@ -43580,7 +43592,7 @@
       <c r="N24" s="26"/>
     </row>
     <row r="25" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A25" s="70"/>
+      <c r="A25" s="75"/>
       <c r="B25" s="34" t="s">
         <v>68</v>
       </c>
@@ -43614,8 +43626,8 @@
       <c r="N25" s="29"/>
     </row>
     <row r="26" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A26" s="71" t="s">
-        <v>83</v>
+      <c r="A26" s="76" t="s">
+        <v>82</v>
       </c>
       <c r="B26" s="35" t="s">
         <v>67</v>
@@ -43652,7 +43664,7 @@
       <c r="N26" s="22"/>
     </row>
     <row r="27" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A27" s="72"/>
+      <c r="A27" s="77"/>
       <c r="B27" s="36" t="s">
         <v>68</v>
       </c>
@@ -43687,7 +43699,6 @@
     </row>
   </sheetData>
   <mergeCells count="10">
-    <mergeCell ref="A2:A3"/>
     <mergeCell ref="A24:A25"/>
     <mergeCell ref="A26:A27"/>
     <mergeCell ref="A10:A11"/>
@@ -43697,6 +43708,7 @@
     <mergeCell ref="A18:A19"/>
     <mergeCell ref="A6:A9"/>
     <mergeCell ref="A20:A23"/>
+    <mergeCell ref="A2:A5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
@@ -43707,8 +43719,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:R11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H20" sqref="H20"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E20" sqref="E20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -43782,10 +43794,10 @@
     </row>
     <row r="2" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A2" s="45" t="s">
-        <v>74</v>
+        <v>92</v>
       </c>
       <c r="B2" s="2">
-        <v>43918</v>
+        <v>43903</v>
       </c>
       <c r="C2" s="2">
         <v>44283</v>
@@ -43794,10 +43806,11 @@
         <v>3</v>
       </c>
       <c r="E2">
-        <v>20000</v>
+        <v>100000</v>
       </c>
       <c r="F2">
-        <v>1</v>
+        <f>ROUND(12252023/E2,0)</f>
+        <v>123</v>
       </c>
       <c r="G2">
         <v>1</v>
@@ -43838,7 +43851,7 @@
     </row>
     <row r="3" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A3" s="45" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B3" s="2">
         <v>43918</v>
@@ -43894,7 +43907,7 @@
     </row>
     <row r="4" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A4" s="45" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B4" s="2">
         <v>43918</v>
@@ -43950,7 +43963,7 @@
     </row>
     <row r="5" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A5" s="45" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B5" s="2">
         <v>43918</v>
@@ -44006,7 +44019,7 @@
     </row>
     <row r="6" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A6" s="45" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B6" s="2">
         <v>43918</v>
@@ -44062,7 +44075,7 @@
     </row>
     <row r="7" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A7" s="45" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B7" s="2">
         <v>43918</v>
@@ -44118,7 +44131,7 @@
     </row>
     <row r="8" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A8" s="45" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B8" s="2">
         <v>43918</v>
@@ -44173,8 +44186,8 @@
       </c>
     </row>
     <row r="9" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A9" s="66" t="s">
-        <v>81</v>
+      <c r="A9" s="63" t="s">
+        <v>80</v>
       </c>
       <c r="B9" s="2">
         <v>43903</v>
@@ -44230,7 +44243,7 @@
     </row>
     <row r="10" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A10" s="45" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B10" s="2">
         <v>43918</v>
@@ -44286,7 +44299,7 @@
     </row>
     <row r="11" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A11" s="45" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B11" s="2">
         <v>43918</v>

--- a/data/input_data_brazil.xlsx
+++ b/data/input_data_brazil.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\farah.houdroge\Documents\Covid\covasim-australia-feature-international\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F67ED6A9-B7D1-4837-B20F-E72FB1DAA766}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0911EA25-49FD-4DBF-9D3C-656151DE2443}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="839" activeTab="8" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -60,7 +60,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1075" uniqueCount="89">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1075" uniqueCount="90">
   <si>
     <t>0-4</t>
   </si>
@@ -327,6 +327,9 @@
   </si>
   <si>
     <t>SP</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Lockdown measures relaxed  </t>
   </si>
 </sst>
 </file>
@@ -678,7 +681,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="65">
+  <cellXfs count="66">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
@@ -778,6 +781,9 @@
     <xf numFmtId="164" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="24" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
@@ -1231,7 +1237,7 @@
       </c>
     </row>
     <row r="2" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A2" s="55" t="s">
+      <c r="A2" s="56" t="s">
         <v>88</v>
       </c>
       <c r="B2" s="35" t="s">
@@ -1290,7 +1296,7 @@
       </c>
     </row>
     <row r="3" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A3" s="55"/>
+      <c r="A3" s="56"/>
       <c r="B3" s="35" t="s">
         <v>20</v>
       </c>
@@ -1347,7 +1353,7 @@
       </c>
     </row>
     <row r="4" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A4" s="55" t="s">
+      <c r="A4" s="56" t="s">
         <v>72</v>
       </c>
       <c r="B4" s="35" t="s">
@@ -1406,7 +1412,7 @@
       </c>
     </row>
     <row r="5" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A5" s="55"/>
+      <c r="A5" s="56"/>
       <c r="B5" s="35" t="s">
         <v>20</v>
       </c>
@@ -1463,7 +1469,7 @@
       </c>
     </row>
     <row r="6" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A6" s="55" t="s">
+      <c r="A6" s="56" t="s">
         <v>73</v>
       </c>
       <c r="B6" s="35" t="s">
@@ -1522,7 +1528,7 @@
       </c>
     </row>
     <row r="7" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A7" s="55"/>
+      <c r="A7" s="56"/>
       <c r="B7" s="35" t="s">
         <v>20</v>
       </c>
@@ -1579,7 +1585,7 @@
       </c>
     </row>
     <row r="8" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A8" s="55" t="s">
+      <c r="A8" s="56" t="s">
         <v>74</v>
       </c>
       <c r="B8" s="35" t="s">
@@ -1638,7 +1644,7 @@
       </c>
     </row>
     <row r="9" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A9" s="55"/>
+      <c r="A9" s="56"/>
       <c r="B9" s="35" t="s">
         <v>20</v>
       </c>
@@ -1695,7 +1701,7 @@
       </c>
     </row>
     <row r="10" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A10" s="55" t="s">
+      <c r="A10" s="56" t="s">
         <v>75</v>
       </c>
       <c r="B10" s="35" t="s">
@@ -1754,7 +1760,7 @@
       </c>
     </row>
     <row r="11" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A11" s="55"/>
+      <c r="A11" s="56"/>
       <c r="B11" s="35" t="s">
         <v>20</v>
       </c>
@@ -1811,7 +1817,7 @@
       </c>
     </row>
     <row r="12" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A12" s="55" t="s">
+      <c r="A12" s="56" t="s">
         <v>76</v>
       </c>
       <c r="B12" s="35" t="s">
@@ -1870,7 +1876,7 @@
       </c>
     </row>
     <row r="13" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A13" s="55"/>
+      <c r="A13" s="56"/>
       <c r="B13" s="35" t="s">
         <v>20</v>
       </c>
@@ -1927,7 +1933,7 @@
       </c>
     </row>
     <row r="14" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A14" s="55" t="s">
+      <c r="A14" s="56" t="s">
         <v>77</v>
       </c>
       <c r="B14" s="35" t="s">
@@ -1986,7 +1992,7 @@
       </c>
     </row>
     <row r="15" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A15" s="55"/>
+      <c r="A15" s="56"/>
       <c r="B15" s="35" t="s">
         <v>20</v>
       </c>
@@ -2043,7 +2049,7 @@
       </c>
     </row>
     <row r="16" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A16" s="55" t="s">
+      <c r="A16" s="56" t="s">
         <v>78</v>
       </c>
       <c r="B16" s="35" t="s">
@@ -2102,7 +2108,7 @@
       </c>
     </row>
     <row r="17" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A17" s="55"/>
+      <c r="A17" s="56"/>
       <c r="B17" s="35" t="s">
         <v>20</v>
       </c>
@@ -2159,7 +2165,7 @@
       </c>
     </row>
     <row r="18" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A18" s="55" t="s">
+      <c r="A18" s="56" t="s">
         <v>79</v>
       </c>
       <c r="B18" s="35" t="s">
@@ -2218,7 +2224,7 @@
       </c>
     </row>
     <row r="19" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A19" s="55"/>
+      <c r="A19" s="56"/>
       <c r="B19" s="35" t="s">
         <v>20</v>
       </c>
@@ -2275,7 +2281,7 @@
       </c>
     </row>
     <row r="20" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A20" s="55" t="s">
+      <c r="A20" s="56" t="s">
         <v>80</v>
       </c>
       <c r="B20" s="35" t="s">
@@ -2334,7 +2340,7 @@
       </c>
     </row>
     <row r="21" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A21" s="55"/>
+      <c r="A21" s="56"/>
       <c r="B21" s="35" t="s">
         <v>20</v>
       </c>
@@ -2391,7 +2397,7 @@
       </c>
     </row>
     <row r="22" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A22" s="55" t="s">
+      <c r="A22" s="56" t="s">
         <v>88</v>
       </c>
       <c r="B22" s="35" t="s">
@@ -2450,7 +2456,7 @@
       </c>
     </row>
     <row r="23" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A23" s="55"/>
+      <c r="A23" s="56"/>
       <c r="B23" s="35" t="s">
         <v>21</v>
       </c>
@@ -2507,7 +2513,7 @@
       </c>
     </row>
     <row r="24" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A24" s="55" t="s">
+      <c r="A24" s="56" t="s">
         <v>72</v>
       </c>
       <c r="B24" s="35" t="s">
@@ -2566,7 +2572,7 @@
       </c>
     </row>
     <row r="25" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A25" s="55"/>
+      <c r="A25" s="56"/>
       <c r="B25" s="35" t="s">
         <v>21</v>
       </c>
@@ -2623,7 +2629,7 @@
       </c>
     </row>
     <row r="26" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A26" s="55" t="s">
+      <c r="A26" s="56" t="s">
         <v>73</v>
       </c>
       <c r="B26" s="35" t="s">
@@ -2682,7 +2688,7 @@
       </c>
     </row>
     <row r="27" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A27" s="55"/>
+      <c r="A27" s="56"/>
       <c r="B27" s="35" t="s">
         <v>21</v>
       </c>
@@ -2739,7 +2745,7 @@
       </c>
     </row>
     <row r="28" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A28" s="55" t="s">
+      <c r="A28" s="56" t="s">
         <v>74</v>
       </c>
       <c r="B28" s="35" t="s">
@@ -2798,7 +2804,7 @@
       </c>
     </row>
     <row r="29" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A29" s="55"/>
+      <c r="A29" s="56"/>
       <c r="B29" s="35" t="s">
         <v>21</v>
       </c>
@@ -2855,7 +2861,7 @@
       </c>
     </row>
     <row r="30" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A30" s="55" t="s">
+      <c r="A30" s="56" t="s">
         <v>75</v>
       </c>
       <c r="B30" s="35" t="s">
@@ -2914,7 +2920,7 @@
       </c>
     </row>
     <row r="31" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A31" s="55"/>
+      <c r="A31" s="56"/>
       <c r="B31" s="35" t="s">
         <v>21</v>
       </c>
@@ -2971,7 +2977,7 @@
       </c>
     </row>
     <row r="32" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A32" s="55" t="s">
+      <c r="A32" s="56" t="s">
         <v>76</v>
       </c>
       <c r="B32" s="35" t="s">
@@ -3030,7 +3036,7 @@
       </c>
     </row>
     <row r="33" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A33" s="55"/>
+      <c r="A33" s="56"/>
       <c r="B33" s="35" t="s">
         <v>21</v>
       </c>
@@ -3087,7 +3093,7 @@
       </c>
     </row>
     <row r="34" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A34" s="55" t="s">
+      <c r="A34" s="56" t="s">
         <v>77</v>
       </c>
       <c r="B34" s="35" t="s">
@@ -3146,7 +3152,7 @@
       </c>
     </row>
     <row r="35" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A35" s="55"/>
+      <c r="A35" s="56"/>
       <c r="B35" s="35" t="s">
         <v>21</v>
       </c>
@@ -3203,7 +3209,7 @@
       </c>
     </row>
     <row r="36" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A36" s="55" t="s">
+      <c r="A36" s="56" t="s">
         <v>78</v>
       </c>
       <c r="B36" s="35" t="s">
@@ -3262,7 +3268,7 @@
       </c>
     </row>
     <row r="37" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A37" s="55"/>
+      <c r="A37" s="56"/>
       <c r="B37" s="35" t="s">
         <v>21</v>
       </c>
@@ -3319,7 +3325,7 @@
       </c>
     </row>
     <row r="38" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A38" s="55" t="s">
+      <c r="A38" s="56" t="s">
         <v>79</v>
       </c>
       <c r="B38" s="35" t="s">
@@ -3378,7 +3384,7 @@
       </c>
     </row>
     <row r="39" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A39" s="55"/>
+      <c r="A39" s="56"/>
       <c r="B39" s="35" t="s">
         <v>21</v>
       </c>
@@ -3435,7 +3441,7 @@
       </c>
     </row>
     <row r="40" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A40" s="55" t="s">
+      <c r="A40" s="56" t="s">
         <v>80</v>
       </c>
       <c r="B40" s="35" t="s">
@@ -3494,7 +3500,7 @@
       </c>
     </row>
     <row r="41" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A41" s="55"/>
+      <c r="A41" s="56"/>
       <c r="B41" s="35" t="s">
         <v>21</v>
       </c>
@@ -3552,26 +3558,26 @@
     </row>
   </sheetData>
   <mergeCells count="20">
+    <mergeCell ref="A32:A33"/>
+    <mergeCell ref="A34:A35"/>
+    <mergeCell ref="A36:A37"/>
+    <mergeCell ref="A38:A39"/>
+    <mergeCell ref="A40:A41"/>
+    <mergeCell ref="A22:A23"/>
+    <mergeCell ref="A24:A25"/>
+    <mergeCell ref="A26:A27"/>
+    <mergeCell ref="A28:A29"/>
+    <mergeCell ref="A30:A31"/>
+    <mergeCell ref="A12:A13"/>
+    <mergeCell ref="A14:A15"/>
+    <mergeCell ref="A16:A17"/>
+    <mergeCell ref="A18:A19"/>
+    <mergeCell ref="A20:A21"/>
     <mergeCell ref="A2:A3"/>
     <mergeCell ref="A4:A5"/>
     <mergeCell ref="A6:A7"/>
     <mergeCell ref="A8:A9"/>
     <mergeCell ref="A10:A11"/>
-    <mergeCell ref="A12:A13"/>
-    <mergeCell ref="A14:A15"/>
-    <mergeCell ref="A16:A17"/>
-    <mergeCell ref="A18:A19"/>
-    <mergeCell ref="A20:A21"/>
-    <mergeCell ref="A22:A23"/>
-    <mergeCell ref="A24:A25"/>
-    <mergeCell ref="A26:A27"/>
-    <mergeCell ref="A28:A29"/>
-    <mergeCell ref="A30:A31"/>
-    <mergeCell ref="A32:A33"/>
-    <mergeCell ref="A34:A35"/>
-    <mergeCell ref="A36:A37"/>
-    <mergeCell ref="A38:A39"/>
-    <mergeCell ref="A40:A41"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -3647,7 +3653,7 @@
       </c>
     </row>
     <row r="2" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A2" s="55" t="s">
+      <c r="A2" s="56" t="s">
         <v>88</v>
       </c>
       <c r="B2" s="35" t="s">
@@ -3706,7 +3712,7 @@
       </c>
     </row>
     <row r="3" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A3" s="55"/>
+      <c r="A3" s="56"/>
       <c r="B3" s="35" t="s">
         <v>1</v>
       </c>
@@ -3763,7 +3769,7 @@
       </c>
     </row>
     <row r="4" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A4" s="55"/>
+      <c r="A4" s="56"/>
       <c r="B4" s="35" t="s">
         <v>2</v>
       </c>
@@ -3820,7 +3826,7 @@
       </c>
     </row>
     <row r="5" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A5" s="55"/>
+      <c r="A5" s="56"/>
       <c r="B5" s="35" t="s">
         <v>3</v>
       </c>
@@ -3877,7 +3883,7 @@
       </c>
     </row>
     <row r="6" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A6" s="55"/>
+      <c r="A6" s="56"/>
       <c r="B6" s="35" t="s">
         <v>4</v>
       </c>
@@ -3934,7 +3940,7 @@
       </c>
     </row>
     <row r="7" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A7" s="55"/>
+      <c r="A7" s="56"/>
       <c r="B7" s="35" t="s">
         <v>5</v>
       </c>
@@ -3991,7 +3997,7 @@
       </c>
     </row>
     <row r="8" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A8" s="55"/>
+      <c r="A8" s="56"/>
       <c r="B8" s="35" t="s">
         <v>6</v>
       </c>
@@ -4048,7 +4054,7 @@
       </c>
     </row>
     <row r="9" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A9" s="55"/>
+      <c r="A9" s="56"/>
       <c r="B9" s="35" t="s">
         <v>7</v>
       </c>
@@ -4105,7 +4111,7 @@
       </c>
     </row>
     <row r="10" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A10" s="55"/>
+      <c r="A10" s="56"/>
       <c r="B10" s="35" t="s">
         <v>8</v>
       </c>
@@ -4162,7 +4168,7 @@
       </c>
     </row>
     <row r="11" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A11" s="55"/>
+      <c r="A11" s="56"/>
       <c r="B11" s="35" t="s">
         <v>9</v>
       </c>
@@ -4219,7 +4225,7 @@
       </c>
     </row>
     <row r="12" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A12" s="55"/>
+      <c r="A12" s="56"/>
       <c r="B12" s="35" t="s">
         <v>10</v>
       </c>
@@ -4276,7 +4282,7 @@
       </c>
     </row>
     <row r="13" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A13" s="55"/>
+      <c r="A13" s="56"/>
       <c r="B13" s="35" t="s">
         <v>11</v>
       </c>
@@ -4333,7 +4339,7 @@
       </c>
     </row>
     <row r="14" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A14" s="55"/>
+      <c r="A14" s="56"/>
       <c r="B14" s="35" t="s">
         <v>12</v>
       </c>
@@ -4390,7 +4396,7 @@
       </c>
     </row>
     <row r="15" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A15" s="55"/>
+      <c r="A15" s="56"/>
       <c r="B15" s="35" t="s">
         <v>13</v>
       </c>
@@ -4447,7 +4453,7 @@
       </c>
     </row>
     <row r="16" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A16" s="55"/>
+      <c r="A16" s="56"/>
       <c r="B16" s="35" t="s">
         <v>14</v>
       </c>
@@ -4504,7 +4510,7 @@
       </c>
     </row>
     <row r="17" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A17" s="55"/>
+      <c r="A17" s="56"/>
       <c r="B17" s="35" t="s">
         <v>15</v>
       </c>
@@ -4561,7 +4567,7 @@
       </c>
     </row>
     <row r="18" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A18" s="55" t="s">
+      <c r="A18" s="56" t="s">
         <v>72</v>
       </c>
       <c r="B18" s="35" t="s">
@@ -4620,7 +4626,7 @@
       </c>
     </row>
     <row r="19" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A19" s="55"/>
+      <c r="A19" s="56"/>
       <c r="B19" s="35" t="s">
         <v>1</v>
       </c>
@@ -4677,7 +4683,7 @@
       </c>
     </row>
     <row r="20" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A20" s="55"/>
+      <c r="A20" s="56"/>
       <c r="B20" s="35" t="s">
         <v>2</v>
       </c>
@@ -4734,7 +4740,7 @@
       </c>
     </row>
     <row r="21" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A21" s="55"/>
+      <c r="A21" s="56"/>
       <c r="B21" s="35" t="s">
         <v>3</v>
       </c>
@@ -4791,7 +4797,7 @@
       </c>
     </row>
     <row r="22" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A22" s="55"/>
+      <c r="A22" s="56"/>
       <c r="B22" s="35" t="s">
         <v>4</v>
       </c>
@@ -4848,7 +4854,7 @@
       </c>
     </row>
     <row r="23" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A23" s="55"/>
+      <c r="A23" s="56"/>
       <c r="B23" s="35" t="s">
         <v>5</v>
       </c>
@@ -4905,7 +4911,7 @@
       </c>
     </row>
     <row r="24" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A24" s="55"/>
+      <c r="A24" s="56"/>
       <c r="B24" s="35" t="s">
         <v>6</v>
       </c>
@@ -4962,7 +4968,7 @@
       </c>
     </row>
     <row r="25" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A25" s="55"/>
+      <c r="A25" s="56"/>
       <c r="B25" s="35" t="s">
         <v>7</v>
       </c>
@@ -5019,7 +5025,7 @@
       </c>
     </row>
     <row r="26" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A26" s="55"/>
+      <c r="A26" s="56"/>
       <c r="B26" s="35" t="s">
         <v>8</v>
       </c>
@@ -5076,7 +5082,7 @@
       </c>
     </row>
     <row r="27" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A27" s="55"/>
+      <c r="A27" s="56"/>
       <c r="B27" s="35" t="s">
         <v>9</v>
       </c>
@@ -5133,7 +5139,7 @@
       </c>
     </row>
     <row r="28" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A28" s="55"/>
+      <c r="A28" s="56"/>
       <c r="B28" s="35" t="s">
         <v>10</v>
       </c>
@@ -5190,7 +5196,7 @@
       </c>
     </row>
     <row r="29" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A29" s="55"/>
+      <c r="A29" s="56"/>
       <c r="B29" s="35" t="s">
         <v>11</v>
       </c>
@@ -5247,7 +5253,7 @@
       </c>
     </row>
     <row r="30" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A30" s="55"/>
+      <c r="A30" s="56"/>
       <c r="B30" s="35" t="s">
         <v>12</v>
       </c>
@@ -5304,7 +5310,7 @@
       </c>
     </row>
     <row r="31" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A31" s="55"/>
+      <c r="A31" s="56"/>
       <c r="B31" s="35" t="s">
         <v>13</v>
       </c>
@@ -5361,7 +5367,7 @@
       </c>
     </row>
     <row r="32" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A32" s="55"/>
+      <c r="A32" s="56"/>
       <c r="B32" s="35" t="s">
         <v>14</v>
       </c>
@@ -5418,7 +5424,7 @@
       </c>
     </row>
     <row r="33" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A33" s="55"/>
+      <c r="A33" s="56"/>
       <c r="B33" s="35" t="s">
         <v>15</v>
       </c>
@@ -5475,7 +5481,7 @@
       </c>
     </row>
     <row r="34" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A34" s="55" t="s">
+      <c r="A34" s="56" t="s">
         <v>73</v>
       </c>
       <c r="B34" s="35" t="s">
@@ -5534,7 +5540,7 @@
       </c>
     </row>
     <row r="35" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A35" s="55"/>
+      <c r="A35" s="56"/>
       <c r="B35" s="35" t="s">
         <v>1</v>
       </c>
@@ -5591,7 +5597,7 @@
       </c>
     </row>
     <row r="36" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A36" s="55"/>
+      <c r="A36" s="56"/>
       <c r="B36" s="35" t="s">
         <v>2</v>
       </c>
@@ -5648,7 +5654,7 @@
       </c>
     </row>
     <row r="37" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A37" s="55"/>
+      <c r="A37" s="56"/>
       <c r="B37" s="35" t="s">
         <v>3</v>
       </c>
@@ -5705,7 +5711,7 @@
       </c>
     </row>
     <row r="38" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A38" s="55"/>
+      <c r="A38" s="56"/>
       <c r="B38" s="35" t="s">
         <v>4</v>
       </c>
@@ -5762,7 +5768,7 @@
       </c>
     </row>
     <row r="39" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A39" s="55"/>
+      <c r="A39" s="56"/>
       <c r="B39" s="35" t="s">
         <v>5</v>
       </c>
@@ -5819,7 +5825,7 @@
       </c>
     </row>
     <row r="40" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A40" s="55"/>
+      <c r="A40" s="56"/>
       <c r="B40" s="35" t="s">
         <v>6</v>
       </c>
@@ -5876,7 +5882,7 @@
       </c>
     </row>
     <row r="41" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A41" s="55"/>
+      <c r="A41" s="56"/>
       <c r="B41" s="35" t="s">
         <v>7</v>
       </c>
@@ -5933,7 +5939,7 @@
       </c>
     </row>
     <row r="42" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A42" s="55"/>
+      <c r="A42" s="56"/>
       <c r="B42" s="35" t="s">
         <v>8</v>
       </c>
@@ -5990,7 +5996,7 @@
       </c>
     </row>
     <row r="43" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A43" s="55"/>
+      <c r="A43" s="56"/>
       <c r="B43" s="35" t="s">
         <v>9</v>
       </c>
@@ -6047,7 +6053,7 @@
       </c>
     </row>
     <row r="44" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A44" s="55"/>
+      <c r="A44" s="56"/>
       <c r="B44" s="35" t="s">
         <v>10</v>
       </c>
@@ -6104,7 +6110,7 @@
       </c>
     </row>
     <row r="45" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A45" s="55"/>
+      <c r="A45" s="56"/>
       <c r="B45" s="35" t="s">
         <v>11</v>
       </c>
@@ -6161,7 +6167,7 @@
       </c>
     </row>
     <row r="46" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A46" s="55"/>
+      <c r="A46" s="56"/>
       <c r="B46" s="35" t="s">
         <v>12</v>
       </c>
@@ -6218,7 +6224,7 @@
       </c>
     </row>
     <row r="47" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A47" s="55"/>
+      <c r="A47" s="56"/>
       <c r="B47" s="35" t="s">
         <v>13</v>
       </c>
@@ -6275,7 +6281,7 @@
       </c>
     </row>
     <row r="48" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A48" s="55"/>
+      <c r="A48" s="56"/>
       <c r="B48" s="35" t="s">
         <v>14</v>
       </c>
@@ -6332,7 +6338,7 @@
       </c>
     </row>
     <row r="49" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A49" s="55"/>
+      <c r="A49" s="56"/>
       <c r="B49" s="35" t="s">
         <v>15</v>
       </c>
@@ -6389,7 +6395,7 @@
       </c>
     </row>
     <row r="50" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A50" s="55" t="s">
+      <c r="A50" s="56" t="s">
         <v>74</v>
       </c>
       <c r="B50" s="35" t="s">
@@ -6448,7 +6454,7 @@
       </c>
     </row>
     <row r="51" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A51" s="55"/>
+      <c r="A51" s="56"/>
       <c r="B51" s="35" t="s">
         <v>1</v>
       </c>
@@ -6505,7 +6511,7 @@
       </c>
     </row>
     <row r="52" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A52" s="55"/>
+      <c r="A52" s="56"/>
       <c r="B52" s="35" t="s">
         <v>2</v>
       </c>
@@ -6562,7 +6568,7 @@
       </c>
     </row>
     <row r="53" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A53" s="55"/>
+      <c r="A53" s="56"/>
       <c r="B53" s="35" t="s">
         <v>3</v>
       </c>
@@ -6619,7 +6625,7 @@
       </c>
     </row>
     <row r="54" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A54" s="55"/>
+      <c r="A54" s="56"/>
       <c r="B54" s="35" t="s">
         <v>4</v>
       </c>
@@ -6676,7 +6682,7 @@
       </c>
     </row>
     <row r="55" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A55" s="55"/>
+      <c r="A55" s="56"/>
       <c r="B55" s="35" t="s">
         <v>5</v>
       </c>
@@ -6733,7 +6739,7 @@
       </c>
     </row>
     <row r="56" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A56" s="55"/>
+      <c r="A56" s="56"/>
       <c r="B56" s="35" t="s">
         <v>6</v>
       </c>
@@ -6790,7 +6796,7 @@
       </c>
     </row>
     <row r="57" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A57" s="55"/>
+      <c r="A57" s="56"/>
       <c r="B57" s="35" t="s">
         <v>7</v>
       </c>
@@ -6847,7 +6853,7 @@
       </c>
     </row>
     <row r="58" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A58" s="55"/>
+      <c r="A58" s="56"/>
       <c r="B58" s="35" t="s">
         <v>8</v>
       </c>
@@ -6904,7 +6910,7 @@
       </c>
     </row>
     <row r="59" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A59" s="55"/>
+      <c r="A59" s="56"/>
       <c r="B59" s="35" t="s">
         <v>9</v>
       </c>
@@ -6961,7 +6967,7 @@
       </c>
     </row>
     <row r="60" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A60" s="55"/>
+      <c r="A60" s="56"/>
       <c r="B60" s="35" t="s">
         <v>10</v>
       </c>
@@ -7018,7 +7024,7 @@
       </c>
     </row>
     <row r="61" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A61" s="55"/>
+      <c r="A61" s="56"/>
       <c r="B61" s="35" t="s">
         <v>11</v>
       </c>
@@ -7075,7 +7081,7 @@
       </c>
     </row>
     <row r="62" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A62" s="55"/>
+      <c r="A62" s="56"/>
       <c r="B62" s="35" t="s">
         <v>12</v>
       </c>
@@ -7132,7 +7138,7 @@
       </c>
     </row>
     <row r="63" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A63" s="55"/>
+      <c r="A63" s="56"/>
       <c r="B63" s="35" t="s">
         <v>13</v>
       </c>
@@ -7189,7 +7195,7 @@
       </c>
     </row>
     <row r="64" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A64" s="55"/>
+      <c r="A64" s="56"/>
       <c r="B64" s="35" t="s">
         <v>14</v>
       </c>
@@ -7246,7 +7252,7 @@
       </c>
     </row>
     <row r="65" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A65" s="55"/>
+      <c r="A65" s="56"/>
       <c r="B65" s="35" t="s">
         <v>15</v>
       </c>
@@ -7303,7 +7309,7 @@
       </c>
     </row>
     <row r="66" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A66" s="55" t="s">
+      <c r="A66" s="56" t="s">
         <v>75</v>
       </c>
       <c r="B66" s="35" t="s">
@@ -7362,7 +7368,7 @@
       </c>
     </row>
     <row r="67" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A67" s="55"/>
+      <c r="A67" s="56"/>
       <c r="B67" s="35" t="s">
         <v>1</v>
       </c>
@@ -7419,7 +7425,7 @@
       </c>
     </row>
     <row r="68" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A68" s="55"/>
+      <c r="A68" s="56"/>
       <c r="B68" s="35" t="s">
         <v>2</v>
       </c>
@@ -7476,7 +7482,7 @@
       </c>
     </row>
     <row r="69" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A69" s="55"/>
+      <c r="A69" s="56"/>
       <c r="B69" s="35" t="s">
         <v>3</v>
       </c>
@@ -7533,7 +7539,7 @@
       </c>
     </row>
     <row r="70" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A70" s="55"/>
+      <c r="A70" s="56"/>
       <c r="B70" s="35" t="s">
         <v>4</v>
       </c>
@@ -7590,7 +7596,7 @@
       </c>
     </row>
     <row r="71" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A71" s="55"/>
+      <c r="A71" s="56"/>
       <c r="B71" s="35" t="s">
         <v>5</v>
       </c>
@@ -7647,7 +7653,7 @@
       </c>
     </row>
     <row r="72" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A72" s="55"/>
+      <c r="A72" s="56"/>
       <c r="B72" s="35" t="s">
         <v>6</v>
       </c>
@@ -7704,7 +7710,7 @@
       </c>
     </row>
     <row r="73" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A73" s="55"/>
+      <c r="A73" s="56"/>
       <c r="B73" s="35" t="s">
         <v>7</v>
       </c>
@@ -7761,7 +7767,7 @@
       </c>
     </row>
     <row r="74" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A74" s="55"/>
+      <c r="A74" s="56"/>
       <c r="B74" s="35" t="s">
         <v>8</v>
       </c>
@@ -7818,7 +7824,7 @@
       </c>
     </row>
     <row r="75" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A75" s="55"/>
+      <c r="A75" s="56"/>
       <c r="B75" s="35" t="s">
         <v>9</v>
       </c>
@@ -7875,7 +7881,7 @@
       </c>
     </row>
     <row r="76" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A76" s="55"/>
+      <c r="A76" s="56"/>
       <c r="B76" s="35" t="s">
         <v>10</v>
       </c>
@@ -7932,7 +7938,7 @@
       </c>
     </row>
     <row r="77" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A77" s="55"/>
+      <c r="A77" s="56"/>
       <c r="B77" s="35" t="s">
         <v>11</v>
       </c>
@@ -7989,7 +7995,7 @@
       </c>
     </row>
     <row r="78" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A78" s="55"/>
+      <c r="A78" s="56"/>
       <c r="B78" s="35" t="s">
         <v>12</v>
       </c>
@@ -8046,7 +8052,7 @@
       </c>
     </row>
     <row r="79" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A79" s="55"/>
+      <c r="A79" s="56"/>
       <c r="B79" s="35" t="s">
         <v>13</v>
       </c>
@@ -8103,7 +8109,7 @@
       </c>
     </row>
     <row r="80" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A80" s="55"/>
+      <c r="A80" s="56"/>
       <c r="B80" s="35" t="s">
         <v>14</v>
       </c>
@@ -8160,7 +8166,7 @@
       </c>
     </row>
     <row r="81" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A81" s="55"/>
+      <c r="A81" s="56"/>
       <c r="B81" s="35" t="s">
         <v>15</v>
       </c>
@@ -8217,7 +8223,7 @@
       </c>
     </row>
     <row r="82" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A82" s="55" t="s">
+      <c r="A82" s="56" t="s">
         <v>76</v>
       </c>
       <c r="B82" s="35" t="s">
@@ -8276,7 +8282,7 @@
       </c>
     </row>
     <row r="83" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A83" s="55"/>
+      <c r="A83" s="56"/>
       <c r="B83" s="35" t="s">
         <v>1</v>
       </c>
@@ -8333,7 +8339,7 @@
       </c>
     </row>
     <row r="84" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A84" s="55"/>
+      <c r="A84" s="56"/>
       <c r="B84" s="35" t="s">
         <v>2</v>
       </c>
@@ -8390,7 +8396,7 @@
       </c>
     </row>
     <row r="85" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A85" s="55"/>
+      <c r="A85" s="56"/>
       <c r="B85" s="35" t="s">
         <v>3</v>
       </c>
@@ -8447,7 +8453,7 @@
       </c>
     </row>
     <row r="86" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A86" s="55"/>
+      <c r="A86" s="56"/>
       <c r="B86" s="35" t="s">
         <v>4</v>
       </c>
@@ -8504,7 +8510,7 @@
       </c>
     </row>
     <row r="87" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A87" s="55"/>
+      <c r="A87" s="56"/>
       <c r="B87" s="35" t="s">
         <v>5</v>
       </c>
@@ -8561,7 +8567,7 @@
       </c>
     </row>
     <row r="88" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A88" s="55"/>
+      <c r="A88" s="56"/>
       <c r="B88" s="35" t="s">
         <v>6</v>
       </c>
@@ -8618,7 +8624,7 @@
       </c>
     </row>
     <row r="89" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A89" s="55"/>
+      <c r="A89" s="56"/>
       <c r="B89" s="35" t="s">
         <v>7</v>
       </c>
@@ -8675,7 +8681,7 @@
       </c>
     </row>
     <row r="90" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A90" s="55"/>
+      <c r="A90" s="56"/>
       <c r="B90" s="35" t="s">
         <v>8</v>
       </c>
@@ -8732,7 +8738,7 @@
       </c>
     </row>
     <row r="91" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A91" s="55"/>
+      <c r="A91" s="56"/>
       <c r="B91" s="35" t="s">
         <v>9</v>
       </c>
@@ -8789,7 +8795,7 @@
       </c>
     </row>
     <row r="92" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A92" s="55"/>
+      <c r="A92" s="56"/>
       <c r="B92" s="35" t="s">
         <v>10</v>
       </c>
@@ -8846,7 +8852,7 @@
       </c>
     </row>
     <row r="93" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A93" s="55"/>
+      <c r="A93" s="56"/>
       <c r="B93" s="35" t="s">
         <v>11</v>
       </c>
@@ -8903,7 +8909,7 @@
       </c>
     </row>
     <row r="94" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A94" s="55"/>
+      <c r="A94" s="56"/>
       <c r="B94" s="35" t="s">
         <v>12</v>
       </c>
@@ -8960,7 +8966,7 @@
       </c>
     </row>
     <row r="95" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A95" s="55"/>
+      <c r="A95" s="56"/>
       <c r="B95" s="35" t="s">
         <v>13</v>
       </c>
@@ -9017,7 +9023,7 @@
       </c>
     </row>
     <row r="96" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A96" s="55"/>
+      <c r="A96" s="56"/>
       <c r="B96" s="35" t="s">
         <v>14</v>
       </c>
@@ -9074,7 +9080,7 @@
       </c>
     </row>
     <row r="97" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A97" s="55"/>
+      <c r="A97" s="56"/>
       <c r="B97" s="35" t="s">
         <v>15</v>
       </c>
@@ -9131,7 +9137,7 @@
       </c>
     </row>
     <row r="98" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A98" s="55" t="s">
+      <c r="A98" s="56" t="s">
         <v>77</v>
       </c>
       <c r="B98" s="35" t="s">
@@ -9190,7 +9196,7 @@
       </c>
     </row>
     <row r="99" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A99" s="55"/>
+      <c r="A99" s="56"/>
       <c r="B99" s="35" t="s">
         <v>1</v>
       </c>
@@ -9247,7 +9253,7 @@
       </c>
     </row>
     <row r="100" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A100" s="55"/>
+      <c r="A100" s="56"/>
       <c r="B100" s="35" t="s">
         <v>2</v>
       </c>
@@ -9304,7 +9310,7 @@
       </c>
     </row>
     <row r="101" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A101" s="55"/>
+      <c r="A101" s="56"/>
       <c r="B101" s="35" t="s">
         <v>3</v>
       </c>
@@ -9361,7 +9367,7 @@
       </c>
     </row>
     <row r="102" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A102" s="55"/>
+      <c r="A102" s="56"/>
       <c r="B102" s="35" t="s">
         <v>4</v>
       </c>
@@ -9418,7 +9424,7 @@
       </c>
     </row>
     <row r="103" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A103" s="55"/>
+      <c r="A103" s="56"/>
       <c r="B103" s="35" t="s">
         <v>5</v>
       </c>
@@ -9475,7 +9481,7 @@
       </c>
     </row>
     <row r="104" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A104" s="55"/>
+      <c r="A104" s="56"/>
       <c r="B104" s="35" t="s">
         <v>6</v>
       </c>
@@ -9532,7 +9538,7 @@
       </c>
     </row>
     <row r="105" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A105" s="55"/>
+      <c r="A105" s="56"/>
       <c r="B105" s="35" t="s">
         <v>7</v>
       </c>
@@ -9589,7 +9595,7 @@
       </c>
     </row>
     <row r="106" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A106" s="55"/>
+      <c r="A106" s="56"/>
       <c r="B106" s="35" t="s">
         <v>8</v>
       </c>
@@ -9646,7 +9652,7 @@
       </c>
     </row>
     <row r="107" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A107" s="55"/>
+      <c r="A107" s="56"/>
       <c r="B107" s="35" t="s">
         <v>9</v>
       </c>
@@ -9703,7 +9709,7 @@
       </c>
     </row>
     <row r="108" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A108" s="55"/>
+      <c r="A108" s="56"/>
       <c r="B108" s="35" t="s">
         <v>10</v>
       </c>
@@ -9760,7 +9766,7 @@
       </c>
     </row>
     <row r="109" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A109" s="55"/>
+      <c r="A109" s="56"/>
       <c r="B109" s="35" t="s">
         <v>11</v>
       </c>
@@ -9817,7 +9823,7 @@
       </c>
     </row>
     <row r="110" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A110" s="55"/>
+      <c r="A110" s="56"/>
       <c r="B110" s="35" t="s">
         <v>12</v>
       </c>
@@ -9874,7 +9880,7 @@
       </c>
     </row>
     <row r="111" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A111" s="55"/>
+      <c r="A111" s="56"/>
       <c r="B111" s="35" t="s">
         <v>13</v>
       </c>
@@ -9931,7 +9937,7 @@
       </c>
     </row>
     <row r="112" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A112" s="55"/>
+      <c r="A112" s="56"/>
       <c r="B112" s="35" t="s">
         <v>14</v>
       </c>
@@ -9988,7 +9994,7 @@
       </c>
     </row>
     <row r="113" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A113" s="55"/>
+      <c r="A113" s="56"/>
       <c r="B113" s="35" t="s">
         <v>15</v>
       </c>
@@ -10045,7 +10051,7 @@
       </c>
     </row>
     <row r="114" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A114" s="55" t="s">
+      <c r="A114" s="56" t="s">
         <v>78</v>
       </c>
       <c r="B114" s="35" t="s">
@@ -10104,7 +10110,7 @@
       </c>
     </row>
     <row r="115" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A115" s="55"/>
+      <c r="A115" s="56"/>
       <c r="B115" s="35" t="s">
         <v>1</v>
       </c>
@@ -10161,7 +10167,7 @@
       </c>
     </row>
     <row r="116" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A116" s="55"/>
+      <c r="A116" s="56"/>
       <c r="B116" s="35" t="s">
         <v>2</v>
       </c>
@@ -10218,7 +10224,7 @@
       </c>
     </row>
     <row r="117" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A117" s="55"/>
+      <c r="A117" s="56"/>
       <c r="B117" s="35" t="s">
         <v>3</v>
       </c>
@@ -10275,7 +10281,7 @@
       </c>
     </row>
     <row r="118" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A118" s="55"/>
+      <c r="A118" s="56"/>
       <c r="B118" s="35" t="s">
         <v>4</v>
       </c>
@@ -10332,7 +10338,7 @@
       </c>
     </row>
     <row r="119" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A119" s="55"/>
+      <c r="A119" s="56"/>
       <c r="B119" s="35" t="s">
         <v>5</v>
       </c>
@@ -10389,7 +10395,7 @@
       </c>
     </row>
     <row r="120" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A120" s="55"/>
+      <c r="A120" s="56"/>
       <c r="B120" s="35" t="s">
         <v>6</v>
       </c>
@@ -10446,7 +10452,7 @@
       </c>
     </row>
     <row r="121" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A121" s="55"/>
+      <c r="A121" s="56"/>
       <c r="B121" s="35" t="s">
         <v>7</v>
       </c>
@@ -10503,7 +10509,7 @@
       </c>
     </row>
     <row r="122" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A122" s="55"/>
+      <c r="A122" s="56"/>
       <c r="B122" s="35" t="s">
         <v>8</v>
       </c>
@@ -10560,7 +10566,7 @@
       </c>
     </row>
     <row r="123" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A123" s="55"/>
+      <c r="A123" s="56"/>
       <c r="B123" s="35" t="s">
         <v>9</v>
       </c>
@@ -10617,7 +10623,7 @@
       </c>
     </row>
     <row r="124" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A124" s="55"/>
+      <c r="A124" s="56"/>
       <c r="B124" s="35" t="s">
         <v>10</v>
       </c>
@@ -10674,7 +10680,7 @@
       </c>
     </row>
     <row r="125" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A125" s="55"/>
+      <c r="A125" s="56"/>
       <c r="B125" s="35" t="s">
         <v>11</v>
       </c>
@@ -10731,7 +10737,7 @@
       </c>
     </row>
     <row r="126" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A126" s="55"/>
+      <c r="A126" s="56"/>
       <c r="B126" s="35" t="s">
         <v>12</v>
       </c>
@@ -10788,7 +10794,7 @@
       </c>
     </row>
     <row r="127" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A127" s="55"/>
+      <c r="A127" s="56"/>
       <c r="B127" s="35" t="s">
         <v>13</v>
       </c>
@@ -10845,7 +10851,7 @@
       </c>
     </row>
     <row r="128" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A128" s="55"/>
+      <c r="A128" s="56"/>
       <c r="B128" s="35" t="s">
         <v>14</v>
       </c>
@@ -10902,7 +10908,7 @@
       </c>
     </row>
     <row r="129" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A129" s="55"/>
+      <c r="A129" s="56"/>
       <c r="B129" s="35" t="s">
         <v>15</v>
       </c>
@@ -10959,7 +10965,7 @@
       </c>
     </row>
     <row r="130" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A130" s="55" t="s">
+      <c r="A130" s="56" t="s">
         <v>79</v>
       </c>
       <c r="B130" s="35" t="s">
@@ -11018,7 +11024,7 @@
       </c>
     </row>
     <row r="131" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A131" s="55"/>
+      <c r="A131" s="56"/>
       <c r="B131" s="35" t="s">
         <v>1</v>
       </c>
@@ -11075,7 +11081,7 @@
       </c>
     </row>
     <row r="132" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A132" s="55"/>
+      <c r="A132" s="56"/>
       <c r="B132" s="35" t="s">
         <v>2</v>
       </c>
@@ -11132,7 +11138,7 @@
       </c>
     </row>
     <row r="133" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A133" s="55"/>
+      <c r="A133" s="56"/>
       <c r="B133" s="35" t="s">
         <v>3</v>
       </c>
@@ -11189,7 +11195,7 @@
       </c>
     </row>
     <row r="134" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A134" s="55"/>
+      <c r="A134" s="56"/>
       <c r="B134" s="35" t="s">
         <v>4</v>
       </c>
@@ -11246,7 +11252,7 @@
       </c>
     </row>
     <row r="135" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A135" s="55"/>
+      <c r="A135" s="56"/>
       <c r="B135" s="35" t="s">
         <v>5</v>
       </c>
@@ -11303,7 +11309,7 @@
       </c>
     </row>
     <row r="136" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A136" s="55"/>
+      <c r="A136" s="56"/>
       <c r="B136" s="35" t="s">
         <v>6</v>
       </c>
@@ -11360,7 +11366,7 @@
       </c>
     </row>
     <row r="137" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A137" s="55"/>
+      <c r="A137" s="56"/>
       <c r="B137" s="35" t="s">
         <v>7</v>
       </c>
@@ -11417,7 +11423,7 @@
       </c>
     </row>
     <row r="138" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A138" s="55"/>
+      <c r="A138" s="56"/>
       <c r="B138" s="35" t="s">
         <v>8</v>
       </c>
@@ -11474,7 +11480,7 @@
       </c>
     </row>
     <row r="139" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A139" s="55"/>
+      <c r="A139" s="56"/>
       <c r="B139" s="35" t="s">
         <v>9</v>
       </c>
@@ -11531,7 +11537,7 @@
       </c>
     </row>
     <row r="140" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A140" s="55"/>
+      <c r="A140" s="56"/>
       <c r="B140" s="35" t="s">
         <v>10</v>
       </c>
@@ -11588,7 +11594,7 @@
       </c>
     </row>
     <row r="141" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A141" s="55"/>
+      <c r="A141" s="56"/>
       <c r="B141" s="35" t="s">
         <v>11</v>
       </c>
@@ -11645,7 +11651,7 @@
       </c>
     </row>
     <row r="142" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A142" s="55"/>
+      <c r="A142" s="56"/>
       <c r="B142" s="35" t="s">
         <v>12</v>
       </c>
@@ -11702,7 +11708,7 @@
       </c>
     </row>
     <row r="143" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A143" s="55"/>
+      <c r="A143" s="56"/>
       <c r="B143" s="35" t="s">
         <v>13</v>
       </c>
@@ -11759,7 +11765,7 @@
       </c>
     </row>
     <row r="144" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A144" s="55"/>
+      <c r="A144" s="56"/>
       <c r="B144" s="35" t="s">
         <v>14</v>
       </c>
@@ -11816,7 +11822,7 @@
       </c>
     </row>
     <row r="145" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A145" s="55"/>
+      <c r="A145" s="56"/>
       <c r="B145" s="35" t="s">
         <v>15</v>
       </c>
@@ -11873,7 +11879,7 @@
       </c>
     </row>
     <row r="146" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A146" s="55" t="s">
+      <c r="A146" s="56" t="s">
         <v>80</v>
       </c>
       <c r="B146" s="35" t="s">
@@ -11932,7 +11938,7 @@
       </c>
     </row>
     <row r="147" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A147" s="55"/>
+      <c r="A147" s="56"/>
       <c r="B147" s="35" t="s">
         <v>1</v>
       </c>
@@ -11989,7 +11995,7 @@
       </c>
     </row>
     <row r="148" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A148" s="55"/>
+      <c r="A148" s="56"/>
       <c r="B148" s="35" t="s">
         <v>2</v>
       </c>
@@ -12046,7 +12052,7 @@
       </c>
     </row>
     <row r="149" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A149" s="55"/>
+      <c r="A149" s="56"/>
       <c r="B149" s="35" t="s">
         <v>3</v>
       </c>
@@ -12103,7 +12109,7 @@
       </c>
     </row>
     <row r="150" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A150" s="55"/>
+      <c r="A150" s="56"/>
       <c r="B150" s="35" t="s">
         <v>4</v>
       </c>
@@ -12160,7 +12166,7 @@
       </c>
     </row>
     <row r="151" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A151" s="55"/>
+      <c r="A151" s="56"/>
       <c r="B151" s="35" t="s">
         <v>5</v>
       </c>
@@ -12217,7 +12223,7 @@
       </c>
     </row>
     <row r="152" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A152" s="55"/>
+      <c r="A152" s="56"/>
       <c r="B152" s="35" t="s">
         <v>6</v>
       </c>
@@ -12274,7 +12280,7 @@
       </c>
     </row>
     <row r="153" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A153" s="55"/>
+      <c r="A153" s="56"/>
       <c r="B153" s="35" t="s">
         <v>7</v>
       </c>
@@ -12331,7 +12337,7 @@
       </c>
     </row>
     <row r="154" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A154" s="55"/>
+      <c r="A154" s="56"/>
       <c r="B154" s="35" t="s">
         <v>8</v>
       </c>
@@ -12388,7 +12394,7 @@
       </c>
     </row>
     <row r="155" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A155" s="55"/>
+      <c r="A155" s="56"/>
       <c r="B155" s="35" t="s">
         <v>9</v>
       </c>
@@ -12445,7 +12451,7 @@
       </c>
     </row>
     <row r="156" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A156" s="55"/>
+      <c r="A156" s="56"/>
       <c r="B156" s="35" t="s">
         <v>10</v>
       </c>
@@ -12502,7 +12508,7 @@
       </c>
     </row>
     <row r="157" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A157" s="55"/>
+      <c r="A157" s="56"/>
       <c r="B157" s="35" t="s">
         <v>11</v>
       </c>
@@ -12559,7 +12565,7 @@
       </c>
     </row>
     <row r="158" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A158" s="55"/>
+      <c r="A158" s="56"/>
       <c r="B158" s="35" t="s">
         <v>12</v>
       </c>
@@ -12616,7 +12622,7 @@
       </c>
     </row>
     <row r="159" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A159" s="55"/>
+      <c r="A159" s="56"/>
       <c r="B159" s="35" t="s">
         <v>13</v>
       </c>
@@ -12673,7 +12679,7 @@
       </c>
     </row>
     <row r="160" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A160" s="55"/>
+      <c r="A160" s="56"/>
       <c r="B160" s="35" t="s">
         <v>14</v>
       </c>
@@ -12730,7 +12736,7 @@
       </c>
     </row>
     <row r="161" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A161" s="55"/>
+      <c r="A161" s="56"/>
       <c r="B161" s="35" t="s">
         <v>15</v>
       </c>
@@ -12788,16 +12794,16 @@
     </row>
   </sheetData>
   <mergeCells count="10">
+    <mergeCell ref="A82:A97"/>
+    <mergeCell ref="A98:A113"/>
+    <mergeCell ref="A114:A129"/>
+    <mergeCell ref="A130:A145"/>
+    <mergeCell ref="A146:A161"/>
     <mergeCell ref="A2:A17"/>
     <mergeCell ref="A18:A33"/>
     <mergeCell ref="A34:A49"/>
     <mergeCell ref="A50:A65"/>
     <mergeCell ref="A66:A81"/>
-    <mergeCell ref="A82:A97"/>
-    <mergeCell ref="A98:A113"/>
-    <mergeCell ref="A114:A129"/>
-    <mergeCell ref="A130:A145"/>
-    <mergeCell ref="A146:A161"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -12873,7 +12879,7 @@
       </c>
     </row>
     <row r="2" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A2" s="55" t="s">
+      <c r="A2" s="56" t="s">
         <v>88</v>
       </c>
       <c r="B2" s="35" t="s">
@@ -12932,7 +12938,7 @@
       </c>
     </row>
     <row r="3" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A3" s="55"/>
+      <c r="A3" s="56"/>
       <c r="B3" s="35" t="s">
         <v>1</v>
       </c>
@@ -12989,7 +12995,7 @@
       </c>
     </row>
     <row r="4" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A4" s="55"/>
+      <c r="A4" s="56"/>
       <c r="B4" s="35" t="s">
         <v>2</v>
       </c>
@@ -13046,7 +13052,7 @@
       </c>
     </row>
     <row r="5" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A5" s="55"/>
+      <c r="A5" s="56"/>
       <c r="B5" s="35" t="s">
         <v>3</v>
       </c>
@@ -13103,7 +13109,7 @@
       </c>
     </row>
     <row r="6" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A6" s="55"/>
+      <c r="A6" s="56"/>
       <c r="B6" s="35" t="s">
         <v>4</v>
       </c>
@@ -13160,7 +13166,7 @@
       </c>
     </row>
     <row r="7" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A7" s="55"/>
+      <c r="A7" s="56"/>
       <c r="B7" s="35" t="s">
         <v>5</v>
       </c>
@@ -13217,7 +13223,7 @@
       </c>
     </row>
     <row r="8" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A8" s="55"/>
+      <c r="A8" s="56"/>
       <c r="B8" s="35" t="s">
         <v>6</v>
       </c>
@@ -13274,7 +13280,7 @@
       </c>
     </row>
     <row r="9" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A9" s="55"/>
+      <c r="A9" s="56"/>
       <c r="B9" s="35" t="s">
         <v>7</v>
       </c>
@@ -13331,7 +13337,7 @@
       </c>
     </row>
     <row r="10" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A10" s="55"/>
+      <c r="A10" s="56"/>
       <c r="B10" s="35" t="s">
         <v>8</v>
       </c>
@@ -13388,7 +13394,7 @@
       </c>
     </row>
     <row r="11" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A11" s="55"/>
+      <c r="A11" s="56"/>
       <c r="B11" s="35" t="s">
         <v>9</v>
       </c>
@@ -13445,7 +13451,7 @@
       </c>
     </row>
     <row r="12" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A12" s="55"/>
+      <c r="A12" s="56"/>
       <c r="B12" s="35" t="s">
         <v>10</v>
       </c>
@@ -13502,7 +13508,7 @@
       </c>
     </row>
     <row r="13" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A13" s="55"/>
+      <c r="A13" s="56"/>
       <c r="B13" s="35" t="s">
         <v>11</v>
       </c>
@@ -13559,7 +13565,7 @@
       </c>
     </row>
     <row r="14" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A14" s="55"/>
+      <c r="A14" s="56"/>
       <c r="B14" s="35" t="s">
         <v>12</v>
       </c>
@@ -13616,7 +13622,7 @@
       </c>
     </row>
     <row r="15" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A15" s="55"/>
+      <c r="A15" s="56"/>
       <c r="B15" s="35" t="s">
         <v>13</v>
       </c>
@@ -13673,7 +13679,7 @@
       </c>
     </row>
     <row r="16" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A16" s="55"/>
+      <c r="A16" s="56"/>
       <c r="B16" s="35" t="s">
         <v>14</v>
       </c>
@@ -13730,7 +13736,7 @@
       </c>
     </row>
     <row r="17" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A17" s="55"/>
+      <c r="A17" s="56"/>
       <c r="B17" s="35" t="s">
         <v>15</v>
       </c>
@@ -13787,7 +13793,7 @@
       </c>
     </row>
     <row r="18" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A18" s="55" t="s">
+      <c r="A18" s="56" t="s">
         <v>72</v>
       </c>
       <c r="B18" s="35" t="s">
@@ -13846,7 +13852,7 @@
       </c>
     </row>
     <row r="19" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A19" s="55"/>
+      <c r="A19" s="56"/>
       <c r="B19" s="35" t="s">
         <v>1</v>
       </c>
@@ -13903,7 +13909,7 @@
       </c>
     </row>
     <row r="20" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A20" s="55"/>
+      <c r="A20" s="56"/>
       <c r="B20" s="35" t="s">
         <v>2</v>
       </c>
@@ -13960,7 +13966,7 @@
       </c>
     </row>
     <row r="21" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A21" s="55"/>
+      <c r="A21" s="56"/>
       <c r="B21" s="35" t="s">
         <v>3</v>
       </c>
@@ -14017,7 +14023,7 @@
       </c>
     </row>
     <row r="22" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A22" s="55"/>
+      <c r="A22" s="56"/>
       <c r="B22" s="35" t="s">
         <v>4</v>
       </c>
@@ -14074,7 +14080,7 @@
       </c>
     </row>
     <row r="23" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A23" s="55"/>
+      <c r="A23" s="56"/>
       <c r="B23" s="35" t="s">
         <v>5</v>
       </c>
@@ -14131,7 +14137,7 @@
       </c>
     </row>
     <row r="24" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A24" s="55"/>
+      <c r="A24" s="56"/>
       <c r="B24" s="35" t="s">
         <v>6</v>
       </c>
@@ -14188,7 +14194,7 @@
       </c>
     </row>
     <row r="25" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A25" s="55"/>
+      <c r="A25" s="56"/>
       <c r="B25" s="35" t="s">
         <v>7</v>
       </c>
@@ -14245,7 +14251,7 @@
       </c>
     </row>
     <row r="26" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A26" s="55"/>
+      <c r="A26" s="56"/>
       <c r="B26" s="35" t="s">
         <v>8</v>
       </c>
@@ -14302,7 +14308,7 @@
       </c>
     </row>
     <row r="27" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A27" s="55"/>
+      <c r="A27" s="56"/>
       <c r="B27" s="35" t="s">
         <v>9</v>
       </c>
@@ -14359,7 +14365,7 @@
       </c>
     </row>
     <row r="28" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A28" s="55"/>
+      <c r="A28" s="56"/>
       <c r="B28" s="35" t="s">
         <v>10</v>
       </c>
@@ -14416,7 +14422,7 @@
       </c>
     </row>
     <row r="29" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A29" s="55"/>
+      <c r="A29" s="56"/>
       <c r="B29" s="35" t="s">
         <v>11</v>
       </c>
@@ -14473,7 +14479,7 @@
       </c>
     </row>
     <row r="30" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A30" s="55"/>
+      <c r="A30" s="56"/>
       <c r="B30" s="35" t="s">
         <v>12</v>
       </c>
@@ -14530,7 +14536,7 @@
       </c>
     </row>
     <row r="31" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A31" s="55"/>
+      <c r="A31" s="56"/>
       <c r="B31" s="35" t="s">
         <v>13</v>
       </c>
@@ -14587,7 +14593,7 @@
       </c>
     </row>
     <row r="32" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A32" s="55"/>
+      <c r="A32" s="56"/>
       <c r="B32" s="35" t="s">
         <v>14</v>
       </c>
@@ -14644,7 +14650,7 @@
       </c>
     </row>
     <row r="33" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A33" s="55"/>
+      <c r="A33" s="56"/>
       <c r="B33" s="35" t="s">
         <v>15</v>
       </c>
@@ -14701,7 +14707,7 @@
       </c>
     </row>
     <row r="34" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A34" s="55" t="s">
+      <c r="A34" s="56" t="s">
         <v>73</v>
       </c>
       <c r="B34" s="35" t="s">
@@ -14760,7 +14766,7 @@
       </c>
     </row>
     <row r="35" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A35" s="55"/>
+      <c r="A35" s="56"/>
       <c r="B35" s="35" t="s">
         <v>1</v>
       </c>
@@ -14817,7 +14823,7 @@
       </c>
     </row>
     <row r="36" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A36" s="55"/>
+      <c r="A36" s="56"/>
       <c r="B36" s="35" t="s">
         <v>2</v>
       </c>
@@ -14874,7 +14880,7 @@
       </c>
     </row>
     <row r="37" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A37" s="55"/>
+      <c r="A37" s="56"/>
       <c r="B37" s="35" t="s">
         <v>3</v>
       </c>
@@ -14931,7 +14937,7 @@
       </c>
     </row>
     <row r="38" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A38" s="55"/>
+      <c r="A38" s="56"/>
       <c r="B38" s="35" t="s">
         <v>4</v>
       </c>
@@ -14988,7 +14994,7 @@
       </c>
     </row>
     <row r="39" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A39" s="55"/>
+      <c r="A39" s="56"/>
       <c r="B39" s="35" t="s">
         <v>5</v>
       </c>
@@ -15045,7 +15051,7 @@
       </c>
     </row>
     <row r="40" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A40" s="55"/>
+      <c r="A40" s="56"/>
       <c r="B40" s="35" t="s">
         <v>6</v>
       </c>
@@ -15102,7 +15108,7 @@
       </c>
     </row>
     <row r="41" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A41" s="55"/>
+      <c r="A41" s="56"/>
       <c r="B41" s="35" t="s">
         <v>7</v>
       </c>
@@ -15159,7 +15165,7 @@
       </c>
     </row>
     <row r="42" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A42" s="55"/>
+      <c r="A42" s="56"/>
       <c r="B42" s="35" t="s">
         <v>8</v>
       </c>
@@ -15216,7 +15222,7 @@
       </c>
     </row>
     <row r="43" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A43" s="55"/>
+      <c r="A43" s="56"/>
       <c r="B43" s="35" t="s">
         <v>9</v>
       </c>
@@ -15273,7 +15279,7 @@
       </c>
     </row>
     <row r="44" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A44" s="55"/>
+      <c r="A44" s="56"/>
       <c r="B44" s="35" t="s">
         <v>10</v>
       </c>
@@ -15330,7 +15336,7 @@
       </c>
     </row>
     <row r="45" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A45" s="55"/>
+      <c r="A45" s="56"/>
       <c r="B45" s="35" t="s">
         <v>11</v>
       </c>
@@ -15387,7 +15393,7 @@
       </c>
     </row>
     <row r="46" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A46" s="55"/>
+      <c r="A46" s="56"/>
       <c r="B46" s="35" t="s">
         <v>12</v>
       </c>
@@ -15444,7 +15450,7 @@
       </c>
     </row>
     <row r="47" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A47" s="55"/>
+      <c r="A47" s="56"/>
       <c r="B47" s="35" t="s">
         <v>13</v>
       </c>
@@ -15501,7 +15507,7 @@
       </c>
     </row>
     <row r="48" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A48" s="55"/>
+      <c r="A48" s="56"/>
       <c r="B48" s="35" t="s">
         <v>14</v>
       </c>
@@ -15558,7 +15564,7 @@
       </c>
     </row>
     <row r="49" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A49" s="55"/>
+      <c r="A49" s="56"/>
       <c r="B49" s="35" t="s">
         <v>15</v>
       </c>
@@ -15615,7 +15621,7 @@
       </c>
     </row>
     <row r="50" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A50" s="55" t="s">
+      <c r="A50" s="56" t="s">
         <v>74</v>
       </c>
       <c r="B50" s="35" t="s">
@@ -15674,7 +15680,7 @@
       </c>
     </row>
     <row r="51" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A51" s="55"/>
+      <c r="A51" s="56"/>
       <c r="B51" s="35" t="s">
         <v>1</v>
       </c>
@@ -15731,7 +15737,7 @@
       </c>
     </row>
     <row r="52" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A52" s="55"/>
+      <c r="A52" s="56"/>
       <c r="B52" s="35" t="s">
         <v>2</v>
       </c>
@@ -15788,7 +15794,7 @@
       </c>
     </row>
     <row r="53" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A53" s="55"/>
+      <c r="A53" s="56"/>
       <c r="B53" s="35" t="s">
         <v>3</v>
       </c>
@@ -15845,7 +15851,7 @@
       </c>
     </row>
     <row r="54" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A54" s="55"/>
+      <c r="A54" s="56"/>
       <c r="B54" s="35" t="s">
         <v>4</v>
       </c>
@@ -15902,7 +15908,7 @@
       </c>
     </row>
     <row r="55" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A55" s="55"/>
+      <c r="A55" s="56"/>
       <c r="B55" s="35" t="s">
         <v>5</v>
       </c>
@@ -15959,7 +15965,7 @@
       </c>
     </row>
     <row r="56" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A56" s="55"/>
+      <c r="A56" s="56"/>
       <c r="B56" s="35" t="s">
         <v>6</v>
       </c>
@@ -16016,7 +16022,7 @@
       </c>
     </row>
     <row r="57" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A57" s="55"/>
+      <c r="A57" s="56"/>
       <c r="B57" s="35" t="s">
         <v>7</v>
       </c>
@@ -16073,7 +16079,7 @@
       </c>
     </row>
     <row r="58" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A58" s="55"/>
+      <c r="A58" s="56"/>
       <c r="B58" s="35" t="s">
         <v>8</v>
       </c>
@@ -16130,7 +16136,7 @@
       </c>
     </row>
     <row r="59" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A59" s="55"/>
+      <c r="A59" s="56"/>
       <c r="B59" s="35" t="s">
         <v>9</v>
       </c>
@@ -16187,7 +16193,7 @@
       </c>
     </row>
     <row r="60" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A60" s="55"/>
+      <c r="A60" s="56"/>
       <c r="B60" s="35" t="s">
         <v>10</v>
       </c>
@@ -16244,7 +16250,7 @@
       </c>
     </row>
     <row r="61" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A61" s="55"/>
+      <c r="A61" s="56"/>
       <c r="B61" s="35" t="s">
         <v>11</v>
       </c>
@@ -16301,7 +16307,7 @@
       </c>
     </row>
     <row r="62" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A62" s="55"/>
+      <c r="A62" s="56"/>
       <c r="B62" s="35" t="s">
         <v>12</v>
       </c>
@@ -16358,7 +16364,7 @@
       </c>
     </row>
     <row r="63" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A63" s="55"/>
+      <c r="A63" s="56"/>
       <c r="B63" s="35" t="s">
         <v>13</v>
       </c>
@@ -16415,7 +16421,7 @@
       </c>
     </row>
     <row r="64" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A64" s="55"/>
+      <c r="A64" s="56"/>
       <c r="B64" s="35" t="s">
         <v>14</v>
       </c>
@@ -16472,7 +16478,7 @@
       </c>
     </row>
     <row r="65" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A65" s="55"/>
+      <c r="A65" s="56"/>
       <c r="B65" s="35" t="s">
         <v>15</v>
       </c>
@@ -16529,7 +16535,7 @@
       </c>
     </row>
     <row r="66" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A66" s="55" t="s">
+      <c r="A66" s="56" t="s">
         <v>75</v>
       </c>
       <c r="B66" s="35" t="s">
@@ -16588,7 +16594,7 @@
       </c>
     </row>
     <row r="67" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A67" s="55"/>
+      <c r="A67" s="56"/>
       <c r="B67" s="35" t="s">
         <v>1</v>
       </c>
@@ -16645,7 +16651,7 @@
       </c>
     </row>
     <row r="68" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A68" s="55"/>
+      <c r="A68" s="56"/>
       <c r="B68" s="35" t="s">
         <v>2</v>
       </c>
@@ -16702,7 +16708,7 @@
       </c>
     </row>
     <row r="69" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A69" s="55"/>
+      <c r="A69" s="56"/>
       <c r="B69" s="35" t="s">
         <v>3</v>
       </c>
@@ -16759,7 +16765,7 @@
       </c>
     </row>
     <row r="70" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A70" s="55"/>
+      <c r="A70" s="56"/>
       <c r="B70" s="35" t="s">
         <v>4</v>
       </c>
@@ -16816,7 +16822,7 @@
       </c>
     </row>
     <row r="71" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A71" s="55"/>
+      <c r="A71" s="56"/>
       <c r="B71" s="35" t="s">
         <v>5</v>
       </c>
@@ -16873,7 +16879,7 @@
       </c>
     </row>
     <row r="72" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A72" s="55"/>
+      <c r="A72" s="56"/>
       <c r="B72" s="35" t="s">
         <v>6</v>
       </c>
@@ -16930,7 +16936,7 @@
       </c>
     </row>
     <row r="73" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A73" s="55"/>
+      <c r="A73" s="56"/>
       <c r="B73" s="35" t="s">
         <v>7</v>
       </c>
@@ -16987,7 +16993,7 @@
       </c>
     </row>
     <row r="74" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A74" s="55"/>
+      <c r="A74" s="56"/>
       <c r="B74" s="35" t="s">
         <v>8</v>
       </c>
@@ -17044,7 +17050,7 @@
       </c>
     </row>
     <row r="75" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A75" s="55"/>
+      <c r="A75" s="56"/>
       <c r="B75" s="35" t="s">
         <v>9</v>
       </c>
@@ -17101,7 +17107,7 @@
       </c>
     </row>
     <row r="76" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A76" s="55"/>
+      <c r="A76" s="56"/>
       <c r="B76" s="35" t="s">
         <v>10</v>
       </c>
@@ -17158,7 +17164,7 @@
       </c>
     </row>
     <row r="77" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A77" s="55"/>
+      <c r="A77" s="56"/>
       <c r="B77" s="35" t="s">
         <v>11</v>
       </c>
@@ -17215,7 +17221,7 @@
       </c>
     </row>
     <row r="78" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A78" s="55"/>
+      <c r="A78" s="56"/>
       <c r="B78" s="35" t="s">
         <v>12</v>
       </c>
@@ -17272,7 +17278,7 @@
       </c>
     </row>
     <row r="79" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A79" s="55"/>
+      <c r="A79" s="56"/>
       <c r="B79" s="35" t="s">
         <v>13</v>
       </c>
@@ -17329,7 +17335,7 @@
       </c>
     </row>
     <row r="80" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A80" s="55"/>
+      <c r="A80" s="56"/>
       <c r="B80" s="35" t="s">
         <v>14</v>
       </c>
@@ -17386,7 +17392,7 @@
       </c>
     </row>
     <row r="81" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A81" s="55"/>
+      <c r="A81" s="56"/>
       <c r="B81" s="35" t="s">
         <v>15</v>
       </c>
@@ -17443,7 +17449,7 @@
       </c>
     </row>
     <row r="82" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A82" s="55" t="s">
+      <c r="A82" s="56" t="s">
         <v>76</v>
       </c>
       <c r="B82" s="35" t="s">
@@ -17502,7 +17508,7 @@
       </c>
     </row>
     <row r="83" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A83" s="55"/>
+      <c r="A83" s="56"/>
       <c r="B83" s="35" t="s">
         <v>1</v>
       </c>
@@ -17559,7 +17565,7 @@
       </c>
     </row>
     <row r="84" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A84" s="55"/>
+      <c r="A84" s="56"/>
       <c r="B84" s="35" t="s">
         <v>2</v>
       </c>
@@ -17616,7 +17622,7 @@
       </c>
     </row>
     <row r="85" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A85" s="55"/>
+      <c r="A85" s="56"/>
       <c r="B85" s="35" t="s">
         <v>3</v>
       </c>
@@ -17673,7 +17679,7 @@
       </c>
     </row>
     <row r="86" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A86" s="55"/>
+      <c r="A86" s="56"/>
       <c r="B86" s="35" t="s">
         <v>4</v>
       </c>
@@ -17730,7 +17736,7 @@
       </c>
     </row>
     <row r="87" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A87" s="55"/>
+      <c r="A87" s="56"/>
       <c r="B87" s="35" t="s">
         <v>5</v>
       </c>
@@ -17787,7 +17793,7 @@
       </c>
     </row>
     <row r="88" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A88" s="55"/>
+      <c r="A88" s="56"/>
       <c r="B88" s="35" t="s">
         <v>6</v>
       </c>
@@ -17844,7 +17850,7 @@
       </c>
     </row>
     <row r="89" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A89" s="55"/>
+      <c r="A89" s="56"/>
       <c r="B89" s="35" t="s">
         <v>7</v>
       </c>
@@ -17901,7 +17907,7 @@
       </c>
     </row>
     <row r="90" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A90" s="55"/>
+      <c r="A90" s="56"/>
       <c r="B90" s="35" t="s">
         <v>8</v>
       </c>
@@ -17958,7 +17964,7 @@
       </c>
     </row>
     <row r="91" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A91" s="55"/>
+      <c r="A91" s="56"/>
       <c r="B91" s="35" t="s">
         <v>9</v>
       </c>
@@ -18015,7 +18021,7 @@
       </c>
     </row>
     <row r="92" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A92" s="55"/>
+      <c r="A92" s="56"/>
       <c r="B92" s="35" t="s">
         <v>10</v>
       </c>
@@ -18072,7 +18078,7 @@
       </c>
     </row>
     <row r="93" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A93" s="55"/>
+      <c r="A93" s="56"/>
       <c r="B93" s="35" t="s">
         <v>11</v>
       </c>
@@ -18129,7 +18135,7 @@
       </c>
     </row>
     <row r="94" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A94" s="55"/>
+      <c r="A94" s="56"/>
       <c r="B94" s="35" t="s">
         <v>12</v>
       </c>
@@ -18186,7 +18192,7 @@
       </c>
     </row>
     <row r="95" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A95" s="55"/>
+      <c r="A95" s="56"/>
       <c r="B95" s="35" t="s">
         <v>13</v>
       </c>
@@ -18243,7 +18249,7 @@
       </c>
     </row>
     <row r="96" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A96" s="55"/>
+      <c r="A96" s="56"/>
       <c r="B96" s="35" t="s">
         <v>14</v>
       </c>
@@ -18300,7 +18306,7 @@
       </c>
     </row>
     <row r="97" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A97" s="55"/>
+      <c r="A97" s="56"/>
       <c r="B97" s="35" t="s">
         <v>15</v>
       </c>
@@ -18357,7 +18363,7 @@
       </c>
     </row>
     <row r="98" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A98" s="55" t="s">
+      <c r="A98" s="56" t="s">
         <v>77</v>
       </c>
       <c r="B98" s="35" t="s">
@@ -18416,7 +18422,7 @@
       </c>
     </row>
     <row r="99" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A99" s="55"/>
+      <c r="A99" s="56"/>
       <c r="B99" s="35" t="s">
         <v>1</v>
       </c>
@@ -18473,7 +18479,7 @@
       </c>
     </row>
     <row r="100" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A100" s="55"/>
+      <c r="A100" s="56"/>
       <c r="B100" s="35" t="s">
         <v>2</v>
       </c>
@@ -18530,7 +18536,7 @@
       </c>
     </row>
     <row r="101" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A101" s="55"/>
+      <c r="A101" s="56"/>
       <c r="B101" s="35" t="s">
         <v>3</v>
       </c>
@@ -18587,7 +18593,7 @@
       </c>
     </row>
     <row r="102" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A102" s="55"/>
+      <c r="A102" s="56"/>
       <c r="B102" s="35" t="s">
         <v>4</v>
       </c>
@@ -18644,7 +18650,7 @@
       </c>
     </row>
     <row r="103" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A103" s="55"/>
+      <c r="A103" s="56"/>
       <c r="B103" s="35" t="s">
         <v>5</v>
       </c>
@@ -18701,7 +18707,7 @@
       </c>
     </row>
     <row r="104" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A104" s="55"/>
+      <c r="A104" s="56"/>
       <c r="B104" s="35" t="s">
         <v>6</v>
       </c>
@@ -18758,7 +18764,7 @@
       </c>
     </row>
     <row r="105" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A105" s="55"/>
+      <c r="A105" s="56"/>
       <c r="B105" s="35" t="s">
         <v>7</v>
       </c>
@@ -18815,7 +18821,7 @@
       </c>
     </row>
     <row r="106" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A106" s="55"/>
+      <c r="A106" s="56"/>
       <c r="B106" s="35" t="s">
         <v>8</v>
       </c>
@@ -18872,7 +18878,7 @@
       </c>
     </row>
     <row r="107" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A107" s="55"/>
+      <c r="A107" s="56"/>
       <c r="B107" s="35" t="s">
         <v>9</v>
       </c>
@@ -18929,7 +18935,7 @@
       </c>
     </row>
     <row r="108" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A108" s="55"/>
+      <c r="A108" s="56"/>
       <c r="B108" s="35" t="s">
         <v>10</v>
       </c>
@@ -18986,7 +18992,7 @@
       </c>
     </row>
     <row r="109" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A109" s="55"/>
+      <c r="A109" s="56"/>
       <c r="B109" s="35" t="s">
         <v>11</v>
       </c>
@@ -19043,7 +19049,7 @@
       </c>
     </row>
     <row r="110" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A110" s="55"/>
+      <c r="A110" s="56"/>
       <c r="B110" s="35" t="s">
         <v>12</v>
       </c>
@@ -19100,7 +19106,7 @@
       </c>
     </row>
     <row r="111" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A111" s="55"/>
+      <c r="A111" s="56"/>
       <c r="B111" s="35" t="s">
         <v>13</v>
       </c>
@@ -19157,7 +19163,7 @@
       </c>
     </row>
     <row r="112" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A112" s="55"/>
+      <c r="A112" s="56"/>
       <c r="B112" s="35" t="s">
         <v>14</v>
       </c>
@@ -19214,7 +19220,7 @@
       </c>
     </row>
     <row r="113" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A113" s="55"/>
+      <c r="A113" s="56"/>
       <c r="B113" s="35" t="s">
         <v>15</v>
       </c>
@@ -19271,7 +19277,7 @@
       </c>
     </row>
     <row r="114" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A114" s="55" t="s">
+      <c r="A114" s="56" t="s">
         <v>78</v>
       </c>
       <c r="B114" s="35" t="s">
@@ -19330,7 +19336,7 @@
       </c>
     </row>
     <row r="115" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A115" s="55"/>
+      <c r="A115" s="56"/>
       <c r="B115" s="35" t="s">
         <v>1</v>
       </c>
@@ -19387,7 +19393,7 @@
       </c>
     </row>
     <row r="116" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A116" s="55"/>
+      <c r="A116" s="56"/>
       <c r="B116" s="35" t="s">
         <v>2</v>
       </c>
@@ -19444,7 +19450,7 @@
       </c>
     </row>
     <row r="117" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A117" s="55"/>
+      <c r="A117" s="56"/>
       <c r="B117" s="35" t="s">
         <v>3</v>
       </c>
@@ -19501,7 +19507,7 @@
       </c>
     </row>
     <row r="118" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A118" s="55"/>
+      <c r="A118" s="56"/>
       <c r="B118" s="35" t="s">
         <v>4</v>
       </c>
@@ -19558,7 +19564,7 @@
       </c>
     </row>
     <row r="119" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A119" s="55"/>
+      <c r="A119" s="56"/>
       <c r="B119" s="35" t="s">
         <v>5</v>
       </c>
@@ -19615,7 +19621,7 @@
       </c>
     </row>
     <row r="120" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A120" s="55"/>
+      <c r="A120" s="56"/>
       <c r="B120" s="35" t="s">
         <v>6</v>
       </c>
@@ -19672,7 +19678,7 @@
       </c>
     </row>
     <row r="121" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A121" s="55"/>
+      <c r="A121" s="56"/>
       <c r="B121" s="35" t="s">
         <v>7</v>
       </c>
@@ -19729,7 +19735,7 @@
       </c>
     </row>
     <row r="122" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A122" s="55"/>
+      <c r="A122" s="56"/>
       <c r="B122" s="35" t="s">
         <v>8</v>
       </c>
@@ -19786,7 +19792,7 @@
       </c>
     </row>
     <row r="123" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A123" s="55"/>
+      <c r="A123" s="56"/>
       <c r="B123" s="35" t="s">
         <v>9</v>
       </c>
@@ -19843,7 +19849,7 @@
       </c>
     </row>
     <row r="124" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A124" s="55"/>
+      <c r="A124" s="56"/>
       <c r="B124" s="35" t="s">
         <v>10</v>
       </c>
@@ -19900,7 +19906,7 @@
       </c>
     </row>
     <row r="125" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A125" s="55"/>
+      <c r="A125" s="56"/>
       <c r="B125" s="35" t="s">
         <v>11</v>
       </c>
@@ -19957,7 +19963,7 @@
       </c>
     </row>
     <row r="126" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A126" s="55"/>
+      <c r="A126" s="56"/>
       <c r="B126" s="35" t="s">
         <v>12</v>
       </c>
@@ -20014,7 +20020,7 @@
       </c>
     </row>
     <row r="127" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A127" s="55"/>
+      <c r="A127" s="56"/>
       <c r="B127" s="35" t="s">
         <v>13</v>
       </c>
@@ -20071,7 +20077,7 @@
       </c>
     </row>
     <row r="128" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A128" s="55"/>
+      <c r="A128" s="56"/>
       <c r="B128" s="35" t="s">
         <v>14</v>
       </c>
@@ -20128,7 +20134,7 @@
       </c>
     </row>
     <row r="129" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A129" s="55"/>
+      <c r="A129" s="56"/>
       <c r="B129" s="35" t="s">
         <v>15</v>
       </c>
@@ -20185,7 +20191,7 @@
       </c>
     </row>
     <row r="130" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A130" s="55" t="s">
+      <c r="A130" s="56" t="s">
         <v>79</v>
       </c>
       <c r="B130" s="35" t="s">
@@ -20244,7 +20250,7 @@
       </c>
     </row>
     <row r="131" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A131" s="55"/>
+      <c r="A131" s="56"/>
       <c r="B131" s="35" t="s">
         <v>1</v>
       </c>
@@ -20301,7 +20307,7 @@
       </c>
     </row>
     <row r="132" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A132" s="55"/>
+      <c r="A132" s="56"/>
       <c r="B132" s="35" t="s">
         <v>2</v>
       </c>
@@ -20358,7 +20364,7 @@
       </c>
     </row>
     <row r="133" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A133" s="55"/>
+      <c r="A133" s="56"/>
       <c r="B133" s="35" t="s">
         <v>3</v>
       </c>
@@ -20415,7 +20421,7 @@
       </c>
     </row>
     <row r="134" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A134" s="55"/>
+      <c r="A134" s="56"/>
       <c r="B134" s="35" t="s">
         <v>4</v>
       </c>
@@ -20472,7 +20478,7 @@
       </c>
     </row>
     <row r="135" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A135" s="55"/>
+      <c r="A135" s="56"/>
       <c r="B135" s="35" t="s">
         <v>5</v>
       </c>
@@ -20529,7 +20535,7 @@
       </c>
     </row>
     <row r="136" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A136" s="55"/>
+      <c r="A136" s="56"/>
       <c r="B136" s="35" t="s">
         <v>6</v>
       </c>
@@ -20586,7 +20592,7 @@
       </c>
     </row>
     <row r="137" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A137" s="55"/>
+      <c r="A137" s="56"/>
       <c r="B137" s="35" t="s">
         <v>7</v>
       </c>
@@ -20643,7 +20649,7 @@
       </c>
     </row>
     <row r="138" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A138" s="55"/>
+      <c r="A138" s="56"/>
       <c r="B138" s="35" t="s">
         <v>8</v>
       </c>
@@ -20700,7 +20706,7 @@
       </c>
     </row>
     <row r="139" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A139" s="55"/>
+      <c r="A139" s="56"/>
       <c r="B139" s="35" t="s">
         <v>9</v>
       </c>
@@ -20757,7 +20763,7 @@
       </c>
     </row>
     <row r="140" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A140" s="55"/>
+      <c r="A140" s="56"/>
       <c r="B140" s="35" t="s">
         <v>10</v>
       </c>
@@ -20814,7 +20820,7 @@
       </c>
     </row>
     <row r="141" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A141" s="55"/>
+      <c r="A141" s="56"/>
       <c r="B141" s="35" t="s">
         <v>11</v>
       </c>
@@ -20871,7 +20877,7 @@
       </c>
     </row>
     <row r="142" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A142" s="55"/>
+      <c r="A142" s="56"/>
       <c r="B142" s="35" t="s">
         <v>12</v>
       </c>
@@ -20928,7 +20934,7 @@
       </c>
     </row>
     <row r="143" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A143" s="55"/>
+      <c r="A143" s="56"/>
       <c r="B143" s="35" t="s">
         <v>13</v>
       </c>
@@ -20985,7 +20991,7 @@
       </c>
     </row>
     <row r="144" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A144" s="55"/>
+      <c r="A144" s="56"/>
       <c r="B144" s="35" t="s">
         <v>14</v>
       </c>
@@ -21042,7 +21048,7 @@
       </c>
     </row>
     <row r="145" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A145" s="55"/>
+      <c r="A145" s="56"/>
       <c r="B145" s="35" t="s">
         <v>15</v>
       </c>
@@ -21099,7 +21105,7 @@
       </c>
     </row>
     <row r="146" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A146" s="55" t="s">
+      <c r="A146" s="56" t="s">
         <v>80</v>
       </c>
       <c r="B146" s="35" t="s">
@@ -21158,7 +21164,7 @@
       </c>
     </row>
     <row r="147" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A147" s="55"/>
+      <c r="A147" s="56"/>
       <c r="B147" s="35" t="s">
         <v>1</v>
       </c>
@@ -21215,7 +21221,7 @@
       </c>
     </row>
     <row r="148" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A148" s="55"/>
+      <c r="A148" s="56"/>
       <c r="B148" s="35" t="s">
         <v>2</v>
       </c>
@@ -21272,7 +21278,7 @@
       </c>
     </row>
     <row r="149" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A149" s="55"/>
+      <c r="A149" s="56"/>
       <c r="B149" s="35" t="s">
         <v>3</v>
       </c>
@@ -21329,7 +21335,7 @@
       </c>
     </row>
     <row r="150" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A150" s="55"/>
+      <c r="A150" s="56"/>
       <c r="B150" s="35" t="s">
         <v>4</v>
       </c>
@@ -21386,7 +21392,7 @@
       </c>
     </row>
     <row r="151" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A151" s="55"/>
+      <c r="A151" s="56"/>
       <c r="B151" s="35" t="s">
         <v>5</v>
       </c>
@@ -21443,7 +21449,7 @@
       </c>
     </row>
     <row r="152" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A152" s="55"/>
+      <c r="A152" s="56"/>
       <c r="B152" s="35" t="s">
         <v>6</v>
       </c>
@@ -21500,7 +21506,7 @@
       </c>
     </row>
     <row r="153" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A153" s="55"/>
+      <c r="A153" s="56"/>
       <c r="B153" s="35" t="s">
         <v>7</v>
       </c>
@@ -21557,7 +21563,7 @@
       </c>
     </row>
     <row r="154" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A154" s="55"/>
+      <c r="A154" s="56"/>
       <c r="B154" s="35" t="s">
         <v>8</v>
       </c>
@@ -21614,7 +21620,7 @@
       </c>
     </row>
     <row r="155" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A155" s="55"/>
+      <c r="A155" s="56"/>
       <c r="B155" s="35" t="s">
         <v>9</v>
       </c>
@@ -21671,7 +21677,7 @@
       </c>
     </row>
     <row r="156" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A156" s="55"/>
+      <c r="A156" s="56"/>
       <c r="B156" s="35" t="s">
         <v>10</v>
       </c>
@@ -21728,7 +21734,7 @@
       </c>
     </row>
     <row r="157" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A157" s="55"/>
+      <c r="A157" s="56"/>
       <c r="B157" s="35" t="s">
         <v>11</v>
       </c>
@@ -21785,7 +21791,7 @@
       </c>
     </row>
     <row r="158" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A158" s="55"/>
+      <c r="A158" s="56"/>
       <c r="B158" s="35" t="s">
         <v>12</v>
       </c>
@@ -21842,7 +21848,7 @@
       </c>
     </row>
     <row r="159" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A159" s="55"/>
+      <c r="A159" s="56"/>
       <c r="B159" s="35" t="s">
         <v>13</v>
       </c>
@@ -21899,7 +21905,7 @@
       </c>
     </row>
     <row r="160" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A160" s="55"/>
+      <c r="A160" s="56"/>
       <c r="B160" s="35" t="s">
         <v>14</v>
       </c>
@@ -21956,7 +21962,7 @@
       </c>
     </row>
     <row r="161" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A161" s="55"/>
+      <c r="A161" s="56"/>
       <c r="B161" s="35" t="s">
         <v>15</v>
       </c>
@@ -22014,16 +22020,16 @@
     </row>
   </sheetData>
   <mergeCells count="10">
+    <mergeCell ref="A82:A97"/>
+    <mergeCell ref="A98:A113"/>
+    <mergeCell ref="A114:A129"/>
+    <mergeCell ref="A130:A145"/>
+    <mergeCell ref="A146:A161"/>
     <mergeCell ref="A2:A17"/>
     <mergeCell ref="A18:A33"/>
     <mergeCell ref="A34:A49"/>
     <mergeCell ref="A50:A65"/>
     <mergeCell ref="A66:A81"/>
-    <mergeCell ref="A82:A97"/>
-    <mergeCell ref="A98:A113"/>
-    <mergeCell ref="A114:A129"/>
-    <mergeCell ref="A130:A145"/>
-    <mergeCell ref="A146:A161"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -22099,7 +22105,7 @@
       </c>
     </row>
     <row r="2" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A2" s="55" t="s">
+      <c r="A2" s="56" t="s">
         <v>88</v>
       </c>
       <c r="B2" s="35" t="s">
@@ -22158,7 +22164,7 @@
       </c>
     </row>
     <row r="3" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A3" s="55"/>
+      <c r="A3" s="56"/>
       <c r="B3" s="35" t="s">
         <v>1</v>
       </c>
@@ -22215,7 +22221,7 @@
       </c>
     </row>
     <row r="4" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A4" s="55"/>
+      <c r="A4" s="56"/>
       <c r="B4" s="35" t="s">
         <v>2</v>
       </c>
@@ -22272,7 +22278,7 @@
       </c>
     </row>
     <row r="5" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A5" s="55"/>
+      <c r="A5" s="56"/>
       <c r="B5" s="35" t="s">
         <v>3</v>
       </c>
@@ -22329,7 +22335,7 @@
       </c>
     </row>
     <row r="6" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A6" s="55"/>
+      <c r="A6" s="56"/>
       <c r="B6" s="35" t="s">
         <v>4</v>
       </c>
@@ -22386,7 +22392,7 @@
       </c>
     </row>
     <row r="7" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A7" s="55"/>
+      <c r="A7" s="56"/>
       <c r="B7" s="35" t="s">
         <v>5</v>
       </c>
@@ -22443,7 +22449,7 @@
       </c>
     </row>
     <row r="8" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A8" s="55"/>
+      <c r="A8" s="56"/>
       <c r="B8" s="35" t="s">
         <v>6</v>
       </c>
@@ -22500,7 +22506,7 @@
       </c>
     </row>
     <row r="9" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A9" s="55"/>
+      <c r="A9" s="56"/>
       <c r="B9" s="35" t="s">
         <v>7</v>
       </c>
@@ -22557,7 +22563,7 @@
       </c>
     </row>
     <row r="10" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A10" s="55"/>
+      <c r="A10" s="56"/>
       <c r="B10" s="35" t="s">
         <v>8</v>
       </c>
@@ -22614,7 +22620,7 @@
       </c>
     </row>
     <row r="11" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A11" s="55"/>
+      <c r="A11" s="56"/>
       <c r="B11" s="35" t="s">
         <v>9</v>
       </c>
@@ -22671,7 +22677,7 @@
       </c>
     </row>
     <row r="12" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A12" s="55"/>
+      <c r="A12" s="56"/>
       <c r="B12" s="35" t="s">
         <v>10</v>
       </c>
@@ -22728,7 +22734,7 @@
       </c>
     </row>
     <row r="13" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A13" s="55"/>
+      <c r="A13" s="56"/>
       <c r="B13" s="35" t="s">
         <v>11</v>
       </c>
@@ -22785,7 +22791,7 @@
       </c>
     </row>
     <row r="14" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A14" s="55"/>
+      <c r="A14" s="56"/>
       <c r="B14" s="35" t="s">
         <v>12</v>
       </c>
@@ -22842,7 +22848,7 @@
       </c>
     </row>
     <row r="15" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A15" s="55"/>
+      <c r="A15" s="56"/>
       <c r="B15" s="35" t="s">
         <v>13</v>
       </c>
@@ -22899,7 +22905,7 @@
       </c>
     </row>
     <row r="16" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A16" s="55"/>
+      <c r="A16" s="56"/>
       <c r="B16" s="35" t="s">
         <v>14</v>
       </c>
@@ -22956,7 +22962,7 @@
       </c>
     </row>
     <row r="17" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A17" s="55"/>
+      <c r="A17" s="56"/>
       <c r="B17" s="35" t="s">
         <v>15</v>
       </c>
@@ -23013,7 +23019,7 @@
       </c>
     </row>
     <row r="18" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A18" s="55" t="s">
+      <c r="A18" s="56" t="s">
         <v>72</v>
       </c>
       <c r="B18" s="35" t="s">
@@ -23072,7 +23078,7 @@
       </c>
     </row>
     <row r="19" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A19" s="55"/>
+      <c r="A19" s="56"/>
       <c r="B19" s="35" t="s">
         <v>1</v>
       </c>
@@ -23129,7 +23135,7 @@
       </c>
     </row>
     <row r="20" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A20" s="55"/>
+      <c r="A20" s="56"/>
       <c r="B20" s="35" t="s">
         <v>2</v>
       </c>
@@ -23186,7 +23192,7 @@
       </c>
     </row>
     <row r="21" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A21" s="55"/>
+      <c r="A21" s="56"/>
       <c r="B21" s="35" t="s">
         <v>3</v>
       </c>
@@ -23243,7 +23249,7 @@
       </c>
     </row>
     <row r="22" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A22" s="55"/>
+      <c r="A22" s="56"/>
       <c r="B22" s="35" t="s">
         <v>4</v>
       </c>
@@ -23300,7 +23306,7 @@
       </c>
     </row>
     <row r="23" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A23" s="55"/>
+      <c r="A23" s="56"/>
       <c r="B23" s="35" t="s">
         <v>5</v>
       </c>
@@ -23357,7 +23363,7 @@
       </c>
     </row>
     <row r="24" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A24" s="55"/>
+      <c r="A24" s="56"/>
       <c r="B24" s="35" t="s">
         <v>6</v>
       </c>
@@ -23414,7 +23420,7 @@
       </c>
     </row>
     <row r="25" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A25" s="55"/>
+      <c r="A25" s="56"/>
       <c r="B25" s="35" t="s">
         <v>7</v>
       </c>
@@ -23471,7 +23477,7 @@
       </c>
     </row>
     <row r="26" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A26" s="55"/>
+      <c r="A26" s="56"/>
       <c r="B26" s="35" t="s">
         <v>8</v>
       </c>
@@ -23528,7 +23534,7 @@
       </c>
     </row>
     <row r="27" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A27" s="55"/>
+      <c r="A27" s="56"/>
       <c r="B27" s="35" t="s">
         <v>9</v>
       </c>
@@ -23585,7 +23591,7 @@
       </c>
     </row>
     <row r="28" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A28" s="55"/>
+      <c r="A28" s="56"/>
       <c r="B28" s="35" t="s">
         <v>10</v>
       </c>
@@ -23642,7 +23648,7 @@
       </c>
     </row>
     <row r="29" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A29" s="55"/>
+      <c r="A29" s="56"/>
       <c r="B29" s="35" t="s">
         <v>11</v>
       </c>
@@ -23699,7 +23705,7 @@
       </c>
     </row>
     <row r="30" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A30" s="55"/>
+      <c r="A30" s="56"/>
       <c r="B30" s="35" t="s">
         <v>12</v>
       </c>
@@ -23756,7 +23762,7 @@
       </c>
     </row>
     <row r="31" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A31" s="55"/>
+      <c r="A31" s="56"/>
       <c r="B31" s="35" t="s">
         <v>13</v>
       </c>
@@ -23813,7 +23819,7 @@
       </c>
     </row>
     <row r="32" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A32" s="55"/>
+      <c r="A32" s="56"/>
       <c r="B32" s="35" t="s">
         <v>14</v>
       </c>
@@ -23870,7 +23876,7 @@
       </c>
     </row>
     <row r="33" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A33" s="55"/>
+      <c r="A33" s="56"/>
       <c r="B33" s="35" t="s">
         <v>15</v>
       </c>
@@ -23927,7 +23933,7 @@
       </c>
     </row>
     <row r="34" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A34" s="55" t="s">
+      <c r="A34" s="56" t="s">
         <v>73</v>
       </c>
       <c r="B34" s="35" t="s">
@@ -23986,7 +23992,7 @@
       </c>
     </row>
     <row r="35" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A35" s="55"/>
+      <c r="A35" s="56"/>
       <c r="B35" s="35" t="s">
         <v>1</v>
       </c>
@@ -24043,7 +24049,7 @@
       </c>
     </row>
     <row r="36" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A36" s="55"/>
+      <c r="A36" s="56"/>
       <c r="B36" s="35" t="s">
         <v>2</v>
       </c>
@@ -24100,7 +24106,7 @@
       </c>
     </row>
     <row r="37" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A37" s="55"/>
+      <c r="A37" s="56"/>
       <c r="B37" s="35" t="s">
         <v>3</v>
       </c>
@@ -24157,7 +24163,7 @@
       </c>
     </row>
     <row r="38" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A38" s="55"/>
+      <c r="A38" s="56"/>
       <c r="B38" s="35" t="s">
         <v>4</v>
       </c>
@@ -24214,7 +24220,7 @@
       </c>
     </row>
     <row r="39" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A39" s="55"/>
+      <c r="A39" s="56"/>
       <c r="B39" s="35" t="s">
         <v>5</v>
       </c>
@@ -24271,7 +24277,7 @@
       </c>
     </row>
     <row r="40" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A40" s="55"/>
+      <c r="A40" s="56"/>
       <c r="B40" s="35" t="s">
         <v>6</v>
       </c>
@@ -24328,7 +24334,7 @@
       </c>
     </row>
     <row r="41" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A41" s="55"/>
+      <c r="A41" s="56"/>
       <c r="B41" s="35" t="s">
         <v>7</v>
       </c>
@@ -24385,7 +24391,7 @@
       </c>
     </row>
     <row r="42" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A42" s="55"/>
+      <c r="A42" s="56"/>
       <c r="B42" s="35" t="s">
         <v>8</v>
       </c>
@@ -24442,7 +24448,7 @@
       </c>
     </row>
     <row r="43" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A43" s="55"/>
+      <c r="A43" s="56"/>
       <c r="B43" s="35" t="s">
         <v>9</v>
       </c>
@@ -24499,7 +24505,7 @@
       </c>
     </row>
     <row r="44" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A44" s="55"/>
+      <c r="A44" s="56"/>
       <c r="B44" s="35" t="s">
         <v>10</v>
       </c>
@@ -24556,7 +24562,7 @@
       </c>
     </row>
     <row r="45" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A45" s="55"/>
+      <c r="A45" s="56"/>
       <c r="B45" s="35" t="s">
         <v>11</v>
       </c>
@@ -24613,7 +24619,7 @@
       </c>
     </row>
     <row r="46" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A46" s="55"/>
+      <c r="A46" s="56"/>
       <c r="B46" s="35" t="s">
         <v>12</v>
       </c>
@@ -24670,7 +24676,7 @@
       </c>
     </row>
     <row r="47" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A47" s="55"/>
+      <c r="A47" s="56"/>
       <c r="B47" s="35" t="s">
         <v>13</v>
       </c>
@@ -24727,7 +24733,7 @@
       </c>
     </row>
     <row r="48" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A48" s="55"/>
+      <c r="A48" s="56"/>
       <c r="B48" s="35" t="s">
         <v>14</v>
       </c>
@@ -24784,7 +24790,7 @@
       </c>
     </row>
     <row r="49" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A49" s="55"/>
+      <c r="A49" s="56"/>
       <c r="B49" s="35" t="s">
         <v>15</v>
       </c>
@@ -24841,7 +24847,7 @@
       </c>
     </row>
     <row r="50" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A50" s="55" t="s">
+      <c r="A50" s="56" t="s">
         <v>74</v>
       </c>
       <c r="B50" s="35" t="s">
@@ -24900,7 +24906,7 @@
       </c>
     </row>
     <row r="51" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A51" s="55"/>
+      <c r="A51" s="56"/>
       <c r="B51" s="35" t="s">
         <v>1</v>
       </c>
@@ -24957,7 +24963,7 @@
       </c>
     </row>
     <row r="52" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A52" s="55"/>
+      <c r="A52" s="56"/>
       <c r="B52" s="35" t="s">
         <v>2</v>
       </c>
@@ -25014,7 +25020,7 @@
       </c>
     </row>
     <row r="53" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A53" s="55"/>
+      <c r="A53" s="56"/>
       <c r="B53" s="35" t="s">
         <v>3</v>
       </c>
@@ -25071,7 +25077,7 @@
       </c>
     </row>
     <row r="54" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A54" s="55"/>
+      <c r="A54" s="56"/>
       <c r="B54" s="35" t="s">
         <v>4</v>
       </c>
@@ -25128,7 +25134,7 @@
       </c>
     </row>
     <row r="55" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A55" s="55"/>
+      <c r="A55" s="56"/>
       <c r="B55" s="35" t="s">
         <v>5</v>
       </c>
@@ -25185,7 +25191,7 @@
       </c>
     </row>
     <row r="56" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A56" s="55"/>
+      <c r="A56" s="56"/>
       <c r="B56" s="35" t="s">
         <v>6</v>
       </c>
@@ -25242,7 +25248,7 @@
       </c>
     </row>
     <row r="57" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A57" s="55"/>
+      <c r="A57" s="56"/>
       <c r="B57" s="35" t="s">
         <v>7</v>
       </c>
@@ -25299,7 +25305,7 @@
       </c>
     </row>
     <row r="58" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A58" s="55"/>
+      <c r="A58" s="56"/>
       <c r="B58" s="35" t="s">
         <v>8</v>
       </c>
@@ -25356,7 +25362,7 @@
       </c>
     </row>
     <row r="59" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A59" s="55"/>
+      <c r="A59" s="56"/>
       <c r="B59" s="35" t="s">
         <v>9</v>
       </c>
@@ -25413,7 +25419,7 @@
       </c>
     </row>
     <row r="60" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A60" s="55"/>
+      <c r="A60" s="56"/>
       <c r="B60" s="35" t="s">
         <v>10</v>
       </c>
@@ -25470,7 +25476,7 @@
       </c>
     </row>
     <row r="61" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A61" s="55"/>
+      <c r="A61" s="56"/>
       <c r="B61" s="35" t="s">
         <v>11</v>
       </c>
@@ -25527,7 +25533,7 @@
       </c>
     </row>
     <row r="62" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A62" s="55"/>
+      <c r="A62" s="56"/>
       <c r="B62" s="35" t="s">
         <v>12</v>
       </c>
@@ -25584,7 +25590,7 @@
       </c>
     </row>
     <row r="63" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A63" s="55"/>
+      <c r="A63" s="56"/>
       <c r="B63" s="35" t="s">
         <v>13</v>
       </c>
@@ -25641,7 +25647,7 @@
       </c>
     </row>
     <row r="64" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A64" s="55"/>
+      <c r="A64" s="56"/>
       <c r="B64" s="35" t="s">
         <v>14</v>
       </c>
@@ -25698,7 +25704,7 @@
       </c>
     </row>
     <row r="65" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A65" s="55"/>
+      <c r="A65" s="56"/>
       <c r="B65" s="35" t="s">
         <v>15</v>
       </c>
@@ -25755,7 +25761,7 @@
       </c>
     </row>
     <row r="66" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A66" s="55" t="s">
+      <c r="A66" s="56" t="s">
         <v>75</v>
       </c>
       <c r="B66" s="35" t="s">
@@ -25814,7 +25820,7 @@
       </c>
     </row>
     <row r="67" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A67" s="55"/>
+      <c r="A67" s="56"/>
       <c r="B67" s="35" t="s">
         <v>1</v>
       </c>
@@ -25871,7 +25877,7 @@
       </c>
     </row>
     <row r="68" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A68" s="55"/>
+      <c r="A68" s="56"/>
       <c r="B68" s="35" t="s">
         <v>2</v>
       </c>
@@ -25928,7 +25934,7 @@
       </c>
     </row>
     <row r="69" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A69" s="55"/>
+      <c r="A69" s="56"/>
       <c r="B69" s="35" t="s">
         <v>3</v>
       </c>
@@ -25985,7 +25991,7 @@
       </c>
     </row>
     <row r="70" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A70" s="55"/>
+      <c r="A70" s="56"/>
       <c r="B70" s="35" t="s">
         <v>4</v>
       </c>
@@ -26042,7 +26048,7 @@
       </c>
     </row>
     <row r="71" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A71" s="55"/>
+      <c r="A71" s="56"/>
       <c r="B71" s="35" t="s">
         <v>5</v>
       </c>
@@ -26099,7 +26105,7 @@
       </c>
     </row>
     <row r="72" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A72" s="55"/>
+      <c r="A72" s="56"/>
       <c r="B72" s="35" t="s">
         <v>6</v>
       </c>
@@ -26156,7 +26162,7 @@
       </c>
     </row>
     <row r="73" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A73" s="55"/>
+      <c r="A73" s="56"/>
       <c r="B73" s="35" t="s">
         <v>7</v>
       </c>
@@ -26213,7 +26219,7 @@
       </c>
     </row>
     <row r="74" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A74" s="55"/>
+      <c r="A74" s="56"/>
       <c r="B74" s="35" t="s">
         <v>8</v>
       </c>
@@ -26270,7 +26276,7 @@
       </c>
     </row>
     <row r="75" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A75" s="55"/>
+      <c r="A75" s="56"/>
       <c r="B75" s="35" t="s">
         <v>9</v>
       </c>
@@ -26327,7 +26333,7 @@
       </c>
     </row>
     <row r="76" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A76" s="55"/>
+      <c r="A76" s="56"/>
       <c r="B76" s="35" t="s">
         <v>10</v>
       </c>
@@ -26384,7 +26390,7 @@
       </c>
     </row>
     <row r="77" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A77" s="55"/>
+      <c r="A77" s="56"/>
       <c r="B77" s="35" t="s">
         <v>11</v>
       </c>
@@ -26441,7 +26447,7 @@
       </c>
     </row>
     <row r="78" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A78" s="55"/>
+      <c r="A78" s="56"/>
       <c r="B78" s="35" t="s">
         <v>12</v>
       </c>
@@ -26498,7 +26504,7 @@
       </c>
     </row>
     <row r="79" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A79" s="55"/>
+      <c r="A79" s="56"/>
       <c r="B79" s="35" t="s">
         <v>13</v>
       </c>
@@ -26555,7 +26561,7 @@
       </c>
     </row>
     <row r="80" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A80" s="55"/>
+      <c r="A80" s="56"/>
       <c r="B80" s="35" t="s">
         <v>14</v>
       </c>
@@ -26612,7 +26618,7 @@
       </c>
     </row>
     <row r="81" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A81" s="55"/>
+      <c r="A81" s="56"/>
       <c r="B81" s="35" t="s">
         <v>15</v>
       </c>
@@ -26669,7 +26675,7 @@
       </c>
     </row>
     <row r="82" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A82" s="55" t="s">
+      <c r="A82" s="56" t="s">
         <v>76</v>
       </c>
       <c r="B82" s="35" t="s">
@@ -26728,7 +26734,7 @@
       </c>
     </row>
     <row r="83" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A83" s="55"/>
+      <c r="A83" s="56"/>
       <c r="B83" s="35" t="s">
         <v>1</v>
       </c>
@@ -26785,7 +26791,7 @@
       </c>
     </row>
     <row r="84" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A84" s="55"/>
+      <c r="A84" s="56"/>
       <c r="B84" s="35" t="s">
         <v>2</v>
       </c>
@@ -26842,7 +26848,7 @@
       </c>
     </row>
     <row r="85" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A85" s="55"/>
+      <c r="A85" s="56"/>
       <c r="B85" s="35" t="s">
         <v>3</v>
       </c>
@@ -26899,7 +26905,7 @@
       </c>
     </row>
     <row r="86" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A86" s="55"/>
+      <c r="A86" s="56"/>
       <c r="B86" s="35" t="s">
         <v>4</v>
       </c>
@@ -26956,7 +26962,7 @@
       </c>
     </row>
     <row r="87" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A87" s="55"/>
+      <c r="A87" s="56"/>
       <c r="B87" s="35" t="s">
         <v>5</v>
       </c>
@@ -27013,7 +27019,7 @@
       </c>
     </row>
     <row r="88" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A88" s="55"/>
+      <c r="A88" s="56"/>
       <c r="B88" s="35" t="s">
         <v>6</v>
       </c>
@@ -27070,7 +27076,7 @@
       </c>
     </row>
     <row r="89" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A89" s="55"/>
+      <c r="A89" s="56"/>
       <c r="B89" s="35" t="s">
         <v>7</v>
       </c>
@@ -27127,7 +27133,7 @@
       </c>
     </row>
     <row r="90" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A90" s="55"/>
+      <c r="A90" s="56"/>
       <c r="B90" s="35" t="s">
         <v>8</v>
       </c>
@@ -27184,7 +27190,7 @@
       </c>
     </row>
     <row r="91" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A91" s="55"/>
+      <c r="A91" s="56"/>
       <c r="B91" s="35" t="s">
         <v>9</v>
       </c>
@@ -27241,7 +27247,7 @@
       </c>
     </row>
     <row r="92" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A92" s="55"/>
+      <c r="A92" s="56"/>
       <c r="B92" s="35" t="s">
         <v>10</v>
       </c>
@@ -27298,7 +27304,7 @@
       </c>
     </row>
     <row r="93" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A93" s="55"/>
+      <c r="A93" s="56"/>
       <c r="B93" s="35" t="s">
         <v>11</v>
       </c>
@@ -27355,7 +27361,7 @@
       </c>
     </row>
     <row r="94" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A94" s="55"/>
+      <c r="A94" s="56"/>
       <c r="B94" s="35" t="s">
         <v>12</v>
       </c>
@@ -27412,7 +27418,7 @@
       </c>
     </row>
     <row r="95" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A95" s="55"/>
+      <c r="A95" s="56"/>
       <c r="B95" s="35" t="s">
         <v>13</v>
       </c>
@@ -27469,7 +27475,7 @@
       </c>
     </row>
     <row r="96" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A96" s="55"/>
+      <c r="A96" s="56"/>
       <c r="B96" s="35" t="s">
         <v>14</v>
       </c>
@@ -27526,7 +27532,7 @@
       </c>
     </row>
     <row r="97" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A97" s="55"/>
+      <c r="A97" s="56"/>
       <c r="B97" s="35" t="s">
         <v>15</v>
       </c>
@@ -27583,7 +27589,7 @@
       </c>
     </row>
     <row r="98" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A98" s="55" t="s">
+      <c r="A98" s="56" t="s">
         <v>77</v>
       </c>
       <c r="B98" s="35" t="s">
@@ -27642,7 +27648,7 @@
       </c>
     </row>
     <row r="99" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A99" s="55"/>
+      <c r="A99" s="56"/>
       <c r="B99" s="35" t="s">
         <v>1</v>
       </c>
@@ -27699,7 +27705,7 @@
       </c>
     </row>
     <row r="100" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A100" s="55"/>
+      <c r="A100" s="56"/>
       <c r="B100" s="35" t="s">
         <v>2</v>
       </c>
@@ -27756,7 +27762,7 @@
       </c>
     </row>
     <row r="101" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A101" s="55"/>
+      <c r="A101" s="56"/>
       <c r="B101" s="35" t="s">
         <v>3</v>
       </c>
@@ -27813,7 +27819,7 @@
       </c>
     </row>
     <row r="102" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A102" s="55"/>
+      <c r="A102" s="56"/>
       <c r="B102" s="35" t="s">
         <v>4</v>
       </c>
@@ -27870,7 +27876,7 @@
       </c>
     </row>
     <row r="103" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A103" s="55"/>
+      <c r="A103" s="56"/>
       <c r="B103" s="35" t="s">
         <v>5</v>
       </c>
@@ -27927,7 +27933,7 @@
       </c>
     </row>
     <row r="104" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A104" s="55"/>
+      <c r="A104" s="56"/>
       <c r="B104" s="35" t="s">
         <v>6</v>
       </c>
@@ -27984,7 +27990,7 @@
       </c>
     </row>
     <row r="105" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A105" s="55"/>
+      <c r="A105" s="56"/>
       <c r="B105" s="35" t="s">
         <v>7</v>
       </c>
@@ -28041,7 +28047,7 @@
       </c>
     </row>
     <row r="106" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A106" s="55"/>
+      <c r="A106" s="56"/>
       <c r="B106" s="35" t="s">
         <v>8</v>
       </c>
@@ -28098,7 +28104,7 @@
       </c>
     </row>
     <row r="107" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A107" s="55"/>
+      <c r="A107" s="56"/>
       <c r="B107" s="35" t="s">
         <v>9</v>
       </c>
@@ -28155,7 +28161,7 @@
       </c>
     </row>
     <row r="108" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A108" s="55"/>
+      <c r="A108" s="56"/>
       <c r="B108" s="35" t="s">
         <v>10</v>
       </c>
@@ -28212,7 +28218,7 @@
       </c>
     </row>
     <row r="109" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A109" s="55"/>
+      <c r="A109" s="56"/>
       <c r="B109" s="35" t="s">
         <v>11</v>
       </c>
@@ -28269,7 +28275,7 @@
       </c>
     </row>
     <row r="110" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A110" s="55"/>
+      <c r="A110" s="56"/>
       <c r="B110" s="35" t="s">
         <v>12</v>
       </c>
@@ -28326,7 +28332,7 @@
       </c>
     </row>
     <row r="111" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A111" s="55"/>
+      <c r="A111" s="56"/>
       <c r="B111" s="35" t="s">
         <v>13</v>
       </c>
@@ -28383,7 +28389,7 @@
       </c>
     </row>
     <row r="112" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A112" s="55"/>
+      <c r="A112" s="56"/>
       <c r="B112" s="35" t="s">
         <v>14</v>
       </c>
@@ -28440,7 +28446,7 @@
       </c>
     </row>
     <row r="113" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A113" s="55"/>
+      <c r="A113" s="56"/>
       <c r="B113" s="35" t="s">
         <v>15</v>
       </c>
@@ -28497,7 +28503,7 @@
       </c>
     </row>
     <row r="114" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A114" s="55" t="s">
+      <c r="A114" s="56" t="s">
         <v>78</v>
       </c>
       <c r="B114" s="35" t="s">
@@ -28556,7 +28562,7 @@
       </c>
     </row>
     <row r="115" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A115" s="55"/>
+      <c r="A115" s="56"/>
       <c r="B115" s="35" t="s">
         <v>1</v>
       </c>
@@ -28613,7 +28619,7 @@
       </c>
     </row>
     <row r="116" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A116" s="55"/>
+      <c r="A116" s="56"/>
       <c r="B116" s="35" t="s">
         <v>2</v>
       </c>
@@ -28670,7 +28676,7 @@
       </c>
     </row>
     <row r="117" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A117" s="55"/>
+      <c r="A117" s="56"/>
       <c r="B117" s="35" t="s">
         <v>3</v>
       </c>
@@ -28727,7 +28733,7 @@
       </c>
     </row>
     <row r="118" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A118" s="55"/>
+      <c r="A118" s="56"/>
       <c r="B118" s="35" t="s">
         <v>4</v>
       </c>
@@ -28784,7 +28790,7 @@
       </c>
     </row>
     <row r="119" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A119" s="55"/>
+      <c r="A119" s="56"/>
       <c r="B119" s="35" t="s">
         <v>5</v>
       </c>
@@ -28841,7 +28847,7 @@
       </c>
     </row>
     <row r="120" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A120" s="55"/>
+      <c r="A120" s="56"/>
       <c r="B120" s="35" t="s">
         <v>6</v>
       </c>
@@ -28898,7 +28904,7 @@
       </c>
     </row>
     <row r="121" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A121" s="55"/>
+      <c r="A121" s="56"/>
       <c r="B121" s="35" t="s">
         <v>7</v>
       </c>
@@ -28955,7 +28961,7 @@
       </c>
     </row>
     <row r="122" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A122" s="55"/>
+      <c r="A122" s="56"/>
       <c r="B122" s="35" t="s">
         <v>8</v>
       </c>
@@ -29012,7 +29018,7 @@
       </c>
     </row>
     <row r="123" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A123" s="55"/>
+      <c r="A123" s="56"/>
       <c r="B123" s="35" t="s">
         <v>9</v>
       </c>
@@ -29069,7 +29075,7 @@
       </c>
     </row>
     <row r="124" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A124" s="55"/>
+      <c r="A124" s="56"/>
       <c r="B124" s="35" t="s">
         <v>10</v>
       </c>
@@ -29126,7 +29132,7 @@
       </c>
     </row>
     <row r="125" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A125" s="55"/>
+      <c r="A125" s="56"/>
       <c r="B125" s="35" t="s">
         <v>11</v>
       </c>
@@ -29183,7 +29189,7 @@
       </c>
     </row>
     <row r="126" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A126" s="55"/>
+      <c r="A126" s="56"/>
       <c r="B126" s="35" t="s">
         <v>12</v>
       </c>
@@ -29240,7 +29246,7 @@
       </c>
     </row>
     <row r="127" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A127" s="55"/>
+      <c r="A127" s="56"/>
       <c r="B127" s="35" t="s">
         <v>13</v>
       </c>
@@ -29297,7 +29303,7 @@
       </c>
     </row>
     <row r="128" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A128" s="55"/>
+      <c r="A128" s="56"/>
       <c r="B128" s="35" t="s">
         <v>14</v>
       </c>
@@ -29354,7 +29360,7 @@
       </c>
     </row>
     <row r="129" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A129" s="55"/>
+      <c r="A129" s="56"/>
       <c r="B129" s="35" t="s">
         <v>15</v>
       </c>
@@ -29411,7 +29417,7 @@
       </c>
     </row>
     <row r="130" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A130" s="55" t="s">
+      <c r="A130" s="56" t="s">
         <v>79</v>
       </c>
       <c r="B130" s="35" t="s">
@@ -29470,7 +29476,7 @@
       </c>
     </row>
     <row r="131" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A131" s="55"/>
+      <c r="A131" s="56"/>
       <c r="B131" s="35" t="s">
         <v>1</v>
       </c>
@@ -29527,7 +29533,7 @@
       </c>
     </row>
     <row r="132" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A132" s="55"/>
+      <c r="A132" s="56"/>
       <c r="B132" s="35" t="s">
         <v>2</v>
       </c>
@@ -29584,7 +29590,7 @@
       </c>
     </row>
     <row r="133" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A133" s="55"/>
+      <c r="A133" s="56"/>
       <c r="B133" s="35" t="s">
         <v>3</v>
       </c>
@@ -29641,7 +29647,7 @@
       </c>
     </row>
     <row r="134" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A134" s="55"/>
+      <c r="A134" s="56"/>
       <c r="B134" s="35" t="s">
         <v>4</v>
       </c>
@@ -29698,7 +29704,7 @@
       </c>
     </row>
     <row r="135" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A135" s="55"/>
+      <c r="A135" s="56"/>
       <c r="B135" s="35" t="s">
         <v>5</v>
       </c>
@@ -29755,7 +29761,7 @@
       </c>
     </row>
     <row r="136" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A136" s="55"/>
+      <c r="A136" s="56"/>
       <c r="B136" s="35" t="s">
         <v>6</v>
       </c>
@@ -29812,7 +29818,7 @@
       </c>
     </row>
     <row r="137" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A137" s="55"/>
+      <c r="A137" s="56"/>
       <c r="B137" s="35" t="s">
         <v>7</v>
       </c>
@@ -29869,7 +29875,7 @@
       </c>
     </row>
     <row r="138" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A138" s="55"/>
+      <c r="A138" s="56"/>
       <c r="B138" s="35" t="s">
         <v>8</v>
       </c>
@@ -29926,7 +29932,7 @@
       </c>
     </row>
     <row r="139" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A139" s="55"/>
+      <c r="A139" s="56"/>
       <c r="B139" s="35" t="s">
         <v>9</v>
       </c>
@@ -29983,7 +29989,7 @@
       </c>
     </row>
     <row r="140" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A140" s="55"/>
+      <c r="A140" s="56"/>
       <c r="B140" s="35" t="s">
         <v>10</v>
       </c>
@@ -30040,7 +30046,7 @@
       </c>
     </row>
     <row r="141" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A141" s="55"/>
+      <c r="A141" s="56"/>
       <c r="B141" s="35" t="s">
         <v>11</v>
       </c>
@@ -30097,7 +30103,7 @@
       </c>
     </row>
     <row r="142" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A142" s="55"/>
+      <c r="A142" s="56"/>
       <c r="B142" s="35" t="s">
         <v>12</v>
       </c>
@@ -30154,7 +30160,7 @@
       </c>
     </row>
     <row r="143" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A143" s="55"/>
+      <c r="A143" s="56"/>
       <c r="B143" s="35" t="s">
         <v>13</v>
       </c>
@@ -30211,7 +30217,7 @@
       </c>
     </row>
     <row r="144" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A144" s="55"/>
+      <c r="A144" s="56"/>
       <c r="B144" s="35" t="s">
         <v>14</v>
       </c>
@@ -30268,7 +30274,7 @@
       </c>
     </row>
     <row r="145" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A145" s="55"/>
+      <c r="A145" s="56"/>
       <c r="B145" s="35" t="s">
         <v>15</v>
       </c>
@@ -30325,7 +30331,7 @@
       </c>
     </row>
     <row r="146" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A146" s="55" t="s">
+      <c r="A146" s="56" t="s">
         <v>80</v>
       </c>
       <c r="B146" s="35" t="s">
@@ -30384,7 +30390,7 @@
       </c>
     </row>
     <row r="147" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A147" s="55"/>
+      <c r="A147" s="56"/>
       <c r="B147" s="35" t="s">
         <v>1</v>
       </c>
@@ -30441,7 +30447,7 @@
       </c>
     </row>
     <row r="148" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A148" s="55"/>
+      <c r="A148" s="56"/>
       <c r="B148" s="35" t="s">
         <v>2</v>
       </c>
@@ -30498,7 +30504,7 @@
       </c>
     </row>
     <row r="149" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A149" s="55"/>
+      <c r="A149" s="56"/>
       <c r="B149" s="35" t="s">
         <v>3</v>
       </c>
@@ -30555,7 +30561,7 @@
       </c>
     </row>
     <row r="150" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A150" s="55"/>
+      <c r="A150" s="56"/>
       <c r="B150" s="35" t="s">
         <v>4</v>
       </c>
@@ -30612,7 +30618,7 @@
       </c>
     </row>
     <row r="151" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A151" s="55"/>
+      <c r="A151" s="56"/>
       <c r="B151" s="35" t="s">
         <v>5</v>
       </c>
@@ -30669,7 +30675,7 @@
       </c>
     </row>
     <row r="152" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A152" s="55"/>
+      <c r="A152" s="56"/>
       <c r="B152" s="35" t="s">
         <v>6</v>
       </c>
@@ -30726,7 +30732,7 @@
       </c>
     </row>
     <row r="153" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A153" s="55"/>
+      <c r="A153" s="56"/>
       <c r="B153" s="35" t="s">
         <v>7</v>
       </c>
@@ -30783,7 +30789,7 @@
       </c>
     </row>
     <row r="154" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A154" s="55"/>
+      <c r="A154" s="56"/>
       <c r="B154" s="35" t="s">
         <v>8</v>
       </c>
@@ -30840,7 +30846,7 @@
       </c>
     </row>
     <row r="155" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A155" s="55"/>
+      <c r="A155" s="56"/>
       <c r="B155" s="35" t="s">
         <v>9</v>
       </c>
@@ -30897,7 +30903,7 @@
       </c>
     </row>
     <row r="156" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A156" s="55"/>
+      <c r="A156" s="56"/>
       <c r="B156" s="35" t="s">
         <v>10</v>
       </c>
@@ -30954,7 +30960,7 @@
       </c>
     </row>
     <row r="157" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A157" s="55"/>
+      <c r="A157" s="56"/>
       <c r="B157" s="35" t="s">
         <v>11</v>
       </c>
@@ -31011,7 +31017,7 @@
       </c>
     </row>
     <row r="158" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A158" s="55"/>
+      <c r="A158" s="56"/>
       <c r="B158" s="35" t="s">
         <v>12</v>
       </c>
@@ -31068,7 +31074,7 @@
       </c>
     </row>
     <row r="159" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A159" s="55"/>
+      <c r="A159" s="56"/>
       <c r="B159" s="35" t="s">
         <v>13</v>
       </c>
@@ -31125,7 +31131,7 @@
       </c>
     </row>
     <row r="160" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A160" s="55"/>
+      <c r="A160" s="56"/>
       <c r="B160" s="35" t="s">
         <v>14</v>
       </c>
@@ -31182,7 +31188,7 @@
       </c>
     </row>
     <row r="161" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A161" s="55"/>
+      <c r="A161" s="56"/>
       <c r="B161" s="35" t="s">
         <v>15</v>
       </c>
@@ -31240,16 +31246,16 @@
     </row>
   </sheetData>
   <mergeCells count="10">
+    <mergeCell ref="A82:A97"/>
+    <mergeCell ref="A98:A113"/>
+    <mergeCell ref="A114:A129"/>
+    <mergeCell ref="A130:A145"/>
+    <mergeCell ref="A146:A161"/>
     <mergeCell ref="A2:A17"/>
     <mergeCell ref="A18:A33"/>
     <mergeCell ref="A34:A49"/>
     <mergeCell ref="A50:A65"/>
     <mergeCell ref="A66:A81"/>
-    <mergeCell ref="A82:A97"/>
-    <mergeCell ref="A98:A113"/>
-    <mergeCell ref="A114:A129"/>
-    <mergeCell ref="A130:A145"/>
-    <mergeCell ref="A146:A161"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -31325,7 +31331,7 @@
       </c>
     </row>
     <row r="2" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A2" s="55" t="s">
+      <c r="A2" s="56" t="s">
         <v>88</v>
       </c>
       <c r="B2" s="35" t="s">
@@ -31384,7 +31390,7 @@
       </c>
     </row>
     <row r="3" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A3" s="55"/>
+      <c r="A3" s="56"/>
       <c r="B3" s="35" t="s">
         <v>1</v>
       </c>
@@ -31441,7 +31447,7 @@
       </c>
     </row>
     <row r="4" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A4" s="55"/>
+      <c r="A4" s="56"/>
       <c r="B4" s="35" t="s">
         <v>2</v>
       </c>
@@ -31498,7 +31504,7 @@
       </c>
     </row>
     <row r="5" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A5" s="55"/>
+      <c r="A5" s="56"/>
       <c r="B5" s="35" t="s">
         <v>3</v>
       </c>
@@ -31555,7 +31561,7 @@
       </c>
     </row>
     <row r="6" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A6" s="55"/>
+      <c r="A6" s="56"/>
       <c r="B6" s="35" t="s">
         <v>4</v>
       </c>
@@ -31612,7 +31618,7 @@
       </c>
     </row>
     <row r="7" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A7" s="55"/>
+      <c r="A7" s="56"/>
       <c r="B7" s="35" t="s">
         <v>5</v>
       </c>
@@ -31669,7 +31675,7 @@
       </c>
     </row>
     <row r="8" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A8" s="55"/>
+      <c r="A8" s="56"/>
       <c r="B8" s="35" t="s">
         <v>6</v>
       </c>
@@ -31726,7 +31732,7 @@
       </c>
     </row>
     <row r="9" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A9" s="55"/>
+      <c r="A9" s="56"/>
       <c r="B9" s="35" t="s">
         <v>7</v>
       </c>
@@ -31783,7 +31789,7 @@
       </c>
     </row>
     <row r="10" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A10" s="55"/>
+      <c r="A10" s="56"/>
       <c r="B10" s="35" t="s">
         <v>8</v>
       </c>
@@ -31840,7 +31846,7 @@
       </c>
     </row>
     <row r="11" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A11" s="55"/>
+      <c r="A11" s="56"/>
       <c r="B11" s="35" t="s">
         <v>9</v>
       </c>
@@ -31897,7 +31903,7 @@
       </c>
     </row>
     <row r="12" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A12" s="55"/>
+      <c r="A12" s="56"/>
       <c r="B12" s="35" t="s">
         <v>10</v>
       </c>
@@ -31954,7 +31960,7 @@
       </c>
     </row>
     <row r="13" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A13" s="55"/>
+      <c r="A13" s="56"/>
       <c r="B13" s="35" t="s">
         <v>11</v>
       </c>
@@ -32011,7 +32017,7 @@
       </c>
     </row>
     <row r="14" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A14" s="55"/>
+      <c r="A14" s="56"/>
       <c r="B14" s="35" t="s">
         <v>12</v>
       </c>
@@ -32068,7 +32074,7 @@
       </c>
     </row>
     <row r="15" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A15" s="55"/>
+      <c r="A15" s="56"/>
       <c r="B15" s="35" t="s">
         <v>13</v>
       </c>
@@ -32125,7 +32131,7 @@
       </c>
     </row>
     <row r="16" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A16" s="55"/>
+      <c r="A16" s="56"/>
       <c r="B16" s="35" t="s">
         <v>14</v>
       </c>
@@ -32182,7 +32188,7 @@
       </c>
     </row>
     <row r="17" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A17" s="55"/>
+      <c r="A17" s="56"/>
       <c r="B17" s="35" t="s">
         <v>15</v>
       </c>
@@ -32239,7 +32245,7 @@
       </c>
     </row>
     <row r="18" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A18" s="55" t="s">
+      <c r="A18" s="56" t="s">
         <v>72</v>
       </c>
       <c r="B18" s="35" t="s">
@@ -32298,7 +32304,7 @@
       </c>
     </row>
     <row r="19" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A19" s="55"/>
+      <c r="A19" s="56"/>
       <c r="B19" s="35" t="s">
         <v>1</v>
       </c>
@@ -32355,7 +32361,7 @@
       </c>
     </row>
     <row r="20" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A20" s="55"/>
+      <c r="A20" s="56"/>
       <c r="B20" s="35" t="s">
         <v>2</v>
       </c>
@@ -32412,7 +32418,7 @@
       </c>
     </row>
     <row r="21" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A21" s="55"/>
+      <c r="A21" s="56"/>
       <c r="B21" s="35" t="s">
         <v>3</v>
       </c>
@@ -32469,7 +32475,7 @@
       </c>
     </row>
     <row r="22" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A22" s="55"/>
+      <c r="A22" s="56"/>
       <c r="B22" s="35" t="s">
         <v>4</v>
       </c>
@@ -32526,7 +32532,7 @@
       </c>
     </row>
     <row r="23" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A23" s="55"/>
+      <c r="A23" s="56"/>
       <c r="B23" s="35" t="s">
         <v>5</v>
       </c>
@@ -32583,7 +32589,7 @@
       </c>
     </row>
     <row r="24" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A24" s="55"/>
+      <c r="A24" s="56"/>
       <c r="B24" s="35" t="s">
         <v>6</v>
       </c>
@@ -32640,7 +32646,7 @@
       </c>
     </row>
     <row r="25" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A25" s="55"/>
+      <c r="A25" s="56"/>
       <c r="B25" s="35" t="s">
         <v>7</v>
       </c>
@@ -32697,7 +32703,7 @@
       </c>
     </row>
     <row r="26" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A26" s="55"/>
+      <c r="A26" s="56"/>
       <c r="B26" s="35" t="s">
         <v>8</v>
       </c>
@@ -32754,7 +32760,7 @@
       </c>
     </row>
     <row r="27" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A27" s="55"/>
+      <c r="A27" s="56"/>
       <c r="B27" s="35" t="s">
         <v>9</v>
       </c>
@@ -32811,7 +32817,7 @@
       </c>
     </row>
     <row r="28" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A28" s="55"/>
+      <c r="A28" s="56"/>
       <c r="B28" s="35" t="s">
         <v>10</v>
       </c>
@@ -32868,7 +32874,7 @@
       </c>
     </row>
     <row r="29" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A29" s="55"/>
+      <c r="A29" s="56"/>
       <c r="B29" s="35" t="s">
         <v>11</v>
       </c>
@@ -32925,7 +32931,7 @@
       </c>
     </row>
     <row r="30" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A30" s="55"/>
+      <c r="A30" s="56"/>
       <c r="B30" s="35" t="s">
         <v>12</v>
       </c>
@@ -32982,7 +32988,7 @@
       </c>
     </row>
     <row r="31" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A31" s="55"/>
+      <c r="A31" s="56"/>
       <c r="B31" s="35" t="s">
         <v>13</v>
       </c>
@@ -33039,7 +33045,7 @@
       </c>
     </row>
     <row r="32" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A32" s="55"/>
+      <c r="A32" s="56"/>
       <c r="B32" s="35" t="s">
         <v>14</v>
       </c>
@@ -33096,7 +33102,7 @@
       </c>
     </row>
     <row r="33" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A33" s="55"/>
+      <c r="A33" s="56"/>
       <c r="B33" s="35" t="s">
         <v>15</v>
       </c>
@@ -33153,7 +33159,7 @@
       </c>
     </row>
     <row r="34" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A34" s="55" t="s">
+      <c r="A34" s="56" t="s">
         <v>73</v>
       </c>
       <c r="B34" s="35" t="s">
@@ -33212,7 +33218,7 @@
       </c>
     </row>
     <row r="35" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A35" s="55"/>
+      <c r="A35" s="56"/>
       <c r="B35" s="35" t="s">
         <v>1</v>
       </c>
@@ -33269,7 +33275,7 @@
       </c>
     </row>
     <row r="36" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A36" s="55"/>
+      <c r="A36" s="56"/>
       <c r="B36" s="35" t="s">
         <v>2</v>
       </c>
@@ -33326,7 +33332,7 @@
       </c>
     </row>
     <row r="37" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A37" s="55"/>
+      <c r="A37" s="56"/>
       <c r="B37" s="35" t="s">
         <v>3</v>
       </c>
@@ -33383,7 +33389,7 @@
       </c>
     </row>
     <row r="38" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A38" s="55"/>
+      <c r="A38" s="56"/>
       <c r="B38" s="35" t="s">
         <v>4</v>
       </c>
@@ -33440,7 +33446,7 @@
       </c>
     </row>
     <row r="39" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A39" s="55"/>
+      <c r="A39" s="56"/>
       <c r="B39" s="35" t="s">
         <v>5</v>
       </c>
@@ -33497,7 +33503,7 @@
       </c>
     </row>
     <row r="40" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A40" s="55"/>
+      <c r="A40" s="56"/>
       <c r="B40" s="35" t="s">
         <v>6</v>
       </c>
@@ -33554,7 +33560,7 @@
       </c>
     </row>
     <row r="41" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A41" s="55"/>
+      <c r="A41" s="56"/>
       <c r="B41" s="35" t="s">
         <v>7</v>
       </c>
@@ -33611,7 +33617,7 @@
       </c>
     </row>
     <row r="42" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A42" s="55"/>
+      <c r="A42" s="56"/>
       <c r="B42" s="35" t="s">
         <v>8</v>
       </c>
@@ -33668,7 +33674,7 @@
       </c>
     </row>
     <row r="43" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A43" s="55"/>
+      <c r="A43" s="56"/>
       <c r="B43" s="35" t="s">
         <v>9</v>
       </c>
@@ -33725,7 +33731,7 @@
       </c>
     </row>
     <row r="44" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A44" s="55"/>
+      <c r="A44" s="56"/>
       <c r="B44" s="35" t="s">
         <v>10</v>
       </c>
@@ -33782,7 +33788,7 @@
       </c>
     </row>
     <row r="45" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A45" s="55"/>
+      <c r="A45" s="56"/>
       <c r="B45" s="35" t="s">
         <v>11</v>
       </c>
@@ -33839,7 +33845,7 @@
       </c>
     </row>
     <row r="46" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A46" s="55"/>
+      <c r="A46" s="56"/>
       <c r="B46" s="35" t="s">
         <v>12</v>
       </c>
@@ -33896,7 +33902,7 @@
       </c>
     </row>
     <row r="47" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A47" s="55"/>
+      <c r="A47" s="56"/>
       <c r="B47" s="35" t="s">
         <v>13</v>
       </c>
@@ -33953,7 +33959,7 @@
       </c>
     </row>
     <row r="48" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A48" s="55"/>
+      <c r="A48" s="56"/>
       <c r="B48" s="35" t="s">
         <v>14</v>
       </c>
@@ -34010,7 +34016,7 @@
       </c>
     </row>
     <row r="49" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A49" s="55"/>
+      <c r="A49" s="56"/>
       <c r="B49" s="35" t="s">
         <v>15</v>
       </c>
@@ -34067,7 +34073,7 @@
       </c>
     </row>
     <row r="50" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A50" s="55" t="s">
+      <c r="A50" s="56" t="s">
         <v>74</v>
       </c>
       <c r="B50" s="35" t="s">
@@ -34126,7 +34132,7 @@
       </c>
     </row>
     <row r="51" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A51" s="55"/>
+      <c r="A51" s="56"/>
       <c r="B51" s="35" t="s">
         <v>1</v>
       </c>
@@ -34183,7 +34189,7 @@
       </c>
     </row>
     <row r="52" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A52" s="55"/>
+      <c r="A52" s="56"/>
       <c r="B52" s="35" t="s">
         <v>2</v>
       </c>
@@ -34240,7 +34246,7 @@
       </c>
     </row>
     <row r="53" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A53" s="55"/>
+      <c r="A53" s="56"/>
       <c r="B53" s="35" t="s">
         <v>3</v>
       </c>
@@ -34297,7 +34303,7 @@
       </c>
     </row>
     <row r="54" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A54" s="55"/>
+      <c r="A54" s="56"/>
       <c r="B54" s="35" t="s">
         <v>4</v>
       </c>
@@ -34354,7 +34360,7 @@
       </c>
     </row>
     <row r="55" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A55" s="55"/>
+      <c r="A55" s="56"/>
       <c r="B55" s="35" t="s">
         <v>5</v>
       </c>
@@ -34411,7 +34417,7 @@
       </c>
     </row>
     <row r="56" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A56" s="55"/>
+      <c r="A56" s="56"/>
       <c r="B56" s="35" t="s">
         <v>6</v>
       </c>
@@ -34468,7 +34474,7 @@
       </c>
     </row>
     <row r="57" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A57" s="55"/>
+      <c r="A57" s="56"/>
       <c r="B57" s="35" t="s">
         <v>7</v>
       </c>
@@ -34525,7 +34531,7 @@
       </c>
     </row>
     <row r="58" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A58" s="55"/>
+      <c r="A58" s="56"/>
       <c r="B58" s="35" t="s">
         <v>8</v>
       </c>
@@ -34582,7 +34588,7 @@
       </c>
     </row>
     <row r="59" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A59" s="55"/>
+      <c r="A59" s="56"/>
       <c r="B59" s="35" t="s">
         <v>9</v>
       </c>
@@ -34639,7 +34645,7 @@
       </c>
     </row>
     <row r="60" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A60" s="55"/>
+      <c r="A60" s="56"/>
       <c r="B60" s="35" t="s">
         <v>10</v>
       </c>
@@ -34696,7 +34702,7 @@
       </c>
     </row>
     <row r="61" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A61" s="55"/>
+      <c r="A61" s="56"/>
       <c r="B61" s="35" t="s">
         <v>11</v>
       </c>
@@ -34753,7 +34759,7 @@
       </c>
     </row>
     <row r="62" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A62" s="55"/>
+      <c r="A62" s="56"/>
       <c r="B62" s="35" t="s">
         <v>12</v>
       </c>
@@ -34810,7 +34816,7 @@
       </c>
     </row>
     <row r="63" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A63" s="55"/>
+      <c r="A63" s="56"/>
       <c r="B63" s="35" t="s">
         <v>13</v>
       </c>
@@ -34867,7 +34873,7 @@
       </c>
     </row>
     <row r="64" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A64" s="55"/>
+      <c r="A64" s="56"/>
       <c r="B64" s="35" t="s">
         <v>14</v>
       </c>
@@ -34924,7 +34930,7 @@
       </c>
     </row>
     <row r="65" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A65" s="55"/>
+      <c r="A65" s="56"/>
       <c r="B65" s="35" t="s">
         <v>15</v>
       </c>
@@ -34981,7 +34987,7 @@
       </c>
     </row>
     <row r="66" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A66" s="55" t="s">
+      <c r="A66" s="56" t="s">
         <v>75</v>
       </c>
       <c r="B66" s="35" t="s">
@@ -35040,7 +35046,7 @@
       </c>
     </row>
     <row r="67" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A67" s="55"/>
+      <c r="A67" s="56"/>
       <c r="B67" s="35" t="s">
         <v>1</v>
       </c>
@@ -35097,7 +35103,7 @@
       </c>
     </row>
     <row r="68" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A68" s="55"/>
+      <c r="A68" s="56"/>
       <c r="B68" s="35" t="s">
         <v>2</v>
       </c>
@@ -35154,7 +35160,7 @@
       </c>
     </row>
     <row r="69" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A69" s="55"/>
+      <c r="A69" s="56"/>
       <c r="B69" s="35" t="s">
         <v>3</v>
       </c>
@@ -35211,7 +35217,7 @@
       </c>
     </row>
     <row r="70" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A70" s="55"/>
+      <c r="A70" s="56"/>
       <c r="B70" s="35" t="s">
         <v>4</v>
       </c>
@@ -35268,7 +35274,7 @@
       </c>
     </row>
     <row r="71" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A71" s="55"/>
+      <c r="A71" s="56"/>
       <c r="B71" s="35" t="s">
         <v>5</v>
       </c>
@@ -35325,7 +35331,7 @@
       </c>
     </row>
     <row r="72" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A72" s="55"/>
+      <c r="A72" s="56"/>
       <c r="B72" s="35" t="s">
         <v>6</v>
       </c>
@@ -35382,7 +35388,7 @@
       </c>
     </row>
     <row r="73" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A73" s="55"/>
+      <c r="A73" s="56"/>
       <c r="B73" s="35" t="s">
         <v>7</v>
       </c>
@@ -35439,7 +35445,7 @@
       </c>
     </row>
     <row r="74" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A74" s="55"/>
+      <c r="A74" s="56"/>
       <c r="B74" s="35" t="s">
         <v>8</v>
       </c>
@@ -35496,7 +35502,7 @@
       </c>
     </row>
     <row r="75" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A75" s="55"/>
+      <c r="A75" s="56"/>
       <c r="B75" s="35" t="s">
         <v>9</v>
       </c>
@@ -35553,7 +35559,7 @@
       </c>
     </row>
     <row r="76" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A76" s="55"/>
+      <c r="A76" s="56"/>
       <c r="B76" s="35" t="s">
         <v>10</v>
       </c>
@@ -35610,7 +35616,7 @@
       </c>
     </row>
     <row r="77" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A77" s="55"/>
+      <c r="A77" s="56"/>
       <c r="B77" s="35" t="s">
         <v>11</v>
       </c>
@@ -35667,7 +35673,7 @@
       </c>
     </row>
     <row r="78" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A78" s="55"/>
+      <c r="A78" s="56"/>
       <c r="B78" s="35" t="s">
         <v>12</v>
       </c>
@@ -35724,7 +35730,7 @@
       </c>
     </row>
     <row r="79" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A79" s="55"/>
+      <c r="A79" s="56"/>
       <c r="B79" s="35" t="s">
         <v>13</v>
       </c>
@@ -35781,7 +35787,7 @@
       </c>
     </row>
     <row r="80" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A80" s="55"/>
+      <c r="A80" s="56"/>
       <c r="B80" s="35" t="s">
         <v>14</v>
       </c>
@@ -35838,7 +35844,7 @@
       </c>
     </row>
     <row r="81" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A81" s="55"/>
+      <c r="A81" s="56"/>
       <c r="B81" s="35" t="s">
         <v>15</v>
       </c>
@@ -35895,7 +35901,7 @@
       </c>
     </row>
     <row r="82" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A82" s="55" t="s">
+      <c r="A82" s="56" t="s">
         <v>76</v>
       </c>
       <c r="B82" s="35" t="s">
@@ -35954,7 +35960,7 @@
       </c>
     </row>
     <row r="83" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A83" s="55"/>
+      <c r="A83" s="56"/>
       <c r="B83" s="35" t="s">
         <v>1</v>
       </c>
@@ -36011,7 +36017,7 @@
       </c>
     </row>
     <row r="84" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A84" s="55"/>
+      <c r="A84" s="56"/>
       <c r="B84" s="35" t="s">
         <v>2</v>
       </c>
@@ -36068,7 +36074,7 @@
       </c>
     </row>
     <row r="85" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A85" s="55"/>
+      <c r="A85" s="56"/>
       <c r="B85" s="35" t="s">
         <v>3</v>
       </c>
@@ -36125,7 +36131,7 @@
       </c>
     </row>
     <row r="86" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A86" s="55"/>
+      <c r="A86" s="56"/>
       <c r="B86" s="35" t="s">
         <v>4</v>
       </c>
@@ -36182,7 +36188,7 @@
       </c>
     </row>
     <row r="87" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A87" s="55"/>
+      <c r="A87" s="56"/>
       <c r="B87" s="35" t="s">
         <v>5</v>
       </c>
@@ -36239,7 +36245,7 @@
       </c>
     </row>
     <row r="88" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A88" s="55"/>
+      <c r="A88" s="56"/>
       <c r="B88" s="35" t="s">
         <v>6</v>
       </c>
@@ -36296,7 +36302,7 @@
       </c>
     </row>
     <row r="89" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A89" s="55"/>
+      <c r="A89" s="56"/>
       <c r="B89" s="35" t="s">
         <v>7</v>
       </c>
@@ -36353,7 +36359,7 @@
       </c>
     </row>
     <row r="90" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A90" s="55"/>
+      <c r="A90" s="56"/>
       <c r="B90" s="35" t="s">
         <v>8</v>
       </c>
@@ -36410,7 +36416,7 @@
       </c>
     </row>
     <row r="91" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A91" s="55"/>
+      <c r="A91" s="56"/>
       <c r="B91" s="35" t="s">
         <v>9</v>
       </c>
@@ -36467,7 +36473,7 @@
       </c>
     </row>
     <row r="92" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A92" s="55"/>
+      <c r="A92" s="56"/>
       <c r="B92" s="35" t="s">
         <v>10</v>
       </c>
@@ -36524,7 +36530,7 @@
       </c>
     </row>
     <row r="93" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A93" s="55"/>
+      <c r="A93" s="56"/>
       <c r="B93" s="35" t="s">
         <v>11</v>
       </c>
@@ -36581,7 +36587,7 @@
       </c>
     </row>
     <row r="94" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A94" s="55"/>
+      <c r="A94" s="56"/>
       <c r="B94" s="35" t="s">
         <v>12</v>
       </c>
@@ -36638,7 +36644,7 @@
       </c>
     </row>
     <row r="95" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A95" s="55"/>
+      <c r="A95" s="56"/>
       <c r="B95" s="35" t="s">
         <v>13</v>
       </c>
@@ -36695,7 +36701,7 @@
       </c>
     </row>
     <row r="96" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A96" s="55"/>
+      <c r="A96" s="56"/>
       <c r="B96" s="35" t="s">
         <v>14</v>
       </c>
@@ -36752,7 +36758,7 @@
       </c>
     </row>
     <row r="97" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A97" s="55"/>
+      <c r="A97" s="56"/>
       <c r="B97" s="35" t="s">
         <v>15</v>
       </c>
@@ -36809,7 +36815,7 @@
       </c>
     </row>
     <row r="98" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A98" s="55" t="s">
+      <c r="A98" s="56" t="s">
         <v>77</v>
       </c>
       <c r="B98" s="35" t="s">
@@ -36868,7 +36874,7 @@
       </c>
     </row>
     <row r="99" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A99" s="55"/>
+      <c r="A99" s="56"/>
       <c r="B99" s="35" t="s">
         <v>1</v>
       </c>
@@ -36925,7 +36931,7 @@
       </c>
     </row>
     <row r="100" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A100" s="55"/>
+      <c r="A100" s="56"/>
       <c r="B100" s="35" t="s">
         <v>2</v>
       </c>
@@ -36982,7 +36988,7 @@
       </c>
     </row>
     <row r="101" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A101" s="55"/>
+      <c r="A101" s="56"/>
       <c r="B101" s="35" t="s">
         <v>3</v>
       </c>
@@ -37039,7 +37045,7 @@
       </c>
     </row>
     <row r="102" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A102" s="55"/>
+      <c r="A102" s="56"/>
       <c r="B102" s="35" t="s">
         <v>4</v>
       </c>
@@ -37096,7 +37102,7 @@
       </c>
     </row>
     <row r="103" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A103" s="55"/>
+      <c r="A103" s="56"/>
       <c r="B103" s="35" t="s">
         <v>5</v>
       </c>
@@ -37153,7 +37159,7 @@
       </c>
     </row>
     <row r="104" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A104" s="55"/>
+      <c r="A104" s="56"/>
       <c r="B104" s="35" t="s">
         <v>6</v>
       </c>
@@ -37210,7 +37216,7 @@
       </c>
     </row>
     <row r="105" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A105" s="55"/>
+      <c r="A105" s="56"/>
       <c r="B105" s="35" t="s">
         <v>7</v>
       </c>
@@ -37267,7 +37273,7 @@
       </c>
     </row>
     <row r="106" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A106" s="55"/>
+      <c r="A106" s="56"/>
       <c r="B106" s="35" t="s">
         <v>8</v>
       </c>
@@ -37324,7 +37330,7 @@
       </c>
     </row>
     <row r="107" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A107" s="55"/>
+      <c r="A107" s="56"/>
       <c r="B107" s="35" t="s">
         <v>9</v>
       </c>
@@ -37381,7 +37387,7 @@
       </c>
     </row>
     <row r="108" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A108" s="55"/>
+      <c r="A108" s="56"/>
       <c r="B108" s="35" t="s">
         <v>10</v>
       </c>
@@ -37438,7 +37444,7 @@
       </c>
     </row>
     <row r="109" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A109" s="55"/>
+      <c r="A109" s="56"/>
       <c r="B109" s="35" t="s">
         <v>11</v>
       </c>
@@ -37495,7 +37501,7 @@
       </c>
     </row>
     <row r="110" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A110" s="55"/>
+      <c r="A110" s="56"/>
       <c r="B110" s="35" t="s">
         <v>12</v>
       </c>
@@ -37552,7 +37558,7 @@
       </c>
     </row>
     <row r="111" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A111" s="55"/>
+      <c r="A111" s="56"/>
       <c r="B111" s="35" t="s">
         <v>13</v>
       </c>
@@ -37609,7 +37615,7 @@
       </c>
     </row>
     <row r="112" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A112" s="55"/>
+      <c r="A112" s="56"/>
       <c r="B112" s="35" t="s">
         <v>14</v>
       </c>
@@ -37666,7 +37672,7 @@
       </c>
     </row>
     <row r="113" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A113" s="55"/>
+      <c r="A113" s="56"/>
       <c r="B113" s="35" t="s">
         <v>15</v>
       </c>
@@ -37723,7 +37729,7 @@
       </c>
     </row>
     <row r="114" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A114" s="55" t="s">
+      <c r="A114" s="56" t="s">
         <v>78</v>
       </c>
       <c r="B114" s="35" t="s">
@@ -37782,7 +37788,7 @@
       </c>
     </row>
     <row r="115" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A115" s="55"/>
+      <c r="A115" s="56"/>
       <c r="B115" s="35" t="s">
         <v>1</v>
       </c>
@@ -37839,7 +37845,7 @@
       </c>
     </row>
     <row r="116" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A116" s="55"/>
+      <c r="A116" s="56"/>
       <c r="B116" s="35" t="s">
         <v>2</v>
       </c>
@@ -37896,7 +37902,7 @@
       </c>
     </row>
     <row r="117" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A117" s="55"/>
+      <c r="A117" s="56"/>
       <c r="B117" s="35" t="s">
         <v>3</v>
       </c>
@@ -37953,7 +37959,7 @@
       </c>
     </row>
     <row r="118" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A118" s="55"/>
+      <c r="A118" s="56"/>
       <c r="B118" s="35" t="s">
         <v>4</v>
       </c>
@@ -38010,7 +38016,7 @@
       </c>
     </row>
     <row r="119" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A119" s="55"/>
+      <c r="A119" s="56"/>
       <c r="B119" s="35" t="s">
         <v>5</v>
       </c>
@@ -38067,7 +38073,7 @@
       </c>
     </row>
     <row r="120" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A120" s="55"/>
+      <c r="A120" s="56"/>
       <c r="B120" s="35" t="s">
         <v>6</v>
       </c>
@@ -38124,7 +38130,7 @@
       </c>
     </row>
     <row r="121" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A121" s="55"/>
+      <c r="A121" s="56"/>
       <c r="B121" s="35" t="s">
         <v>7</v>
       </c>
@@ -38181,7 +38187,7 @@
       </c>
     </row>
     <row r="122" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A122" s="55"/>
+      <c r="A122" s="56"/>
       <c r="B122" s="35" t="s">
         <v>8</v>
       </c>
@@ -38238,7 +38244,7 @@
       </c>
     </row>
     <row r="123" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A123" s="55"/>
+      <c r="A123" s="56"/>
       <c r="B123" s="35" t="s">
         <v>9</v>
       </c>
@@ -38295,7 +38301,7 @@
       </c>
     </row>
     <row r="124" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A124" s="55"/>
+      <c r="A124" s="56"/>
       <c r="B124" s="35" t="s">
         <v>10</v>
       </c>
@@ -38352,7 +38358,7 @@
       </c>
     </row>
     <row r="125" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A125" s="55"/>
+      <c r="A125" s="56"/>
       <c r="B125" s="35" t="s">
         <v>11</v>
       </c>
@@ -38409,7 +38415,7 @@
       </c>
     </row>
     <row r="126" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A126" s="55"/>
+      <c r="A126" s="56"/>
       <c r="B126" s="35" t="s">
         <v>12</v>
       </c>
@@ -38466,7 +38472,7 @@
       </c>
     </row>
     <row r="127" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A127" s="55"/>
+      <c r="A127" s="56"/>
       <c r="B127" s="35" t="s">
         <v>13</v>
       </c>
@@ -38523,7 +38529,7 @@
       </c>
     </row>
     <row r="128" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A128" s="55"/>
+      <c r="A128" s="56"/>
       <c r="B128" s="35" t="s">
         <v>14</v>
       </c>
@@ -38580,7 +38586,7 @@
       </c>
     </row>
     <row r="129" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A129" s="55"/>
+      <c r="A129" s="56"/>
       <c r="B129" s="35" t="s">
         <v>15</v>
       </c>
@@ -38637,7 +38643,7 @@
       </c>
     </row>
     <row r="130" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A130" s="55" t="s">
+      <c r="A130" s="56" t="s">
         <v>79</v>
       </c>
       <c r="B130" s="35" t="s">
@@ -38696,7 +38702,7 @@
       </c>
     </row>
     <row r="131" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A131" s="55"/>
+      <c r="A131" s="56"/>
       <c r="B131" s="35" t="s">
         <v>1</v>
       </c>
@@ -38753,7 +38759,7 @@
       </c>
     </row>
     <row r="132" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A132" s="55"/>
+      <c r="A132" s="56"/>
       <c r="B132" s="35" t="s">
         <v>2</v>
       </c>
@@ -38810,7 +38816,7 @@
       </c>
     </row>
     <row r="133" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A133" s="55"/>
+      <c r="A133" s="56"/>
       <c r="B133" s="35" t="s">
         <v>3</v>
       </c>
@@ -38867,7 +38873,7 @@
       </c>
     </row>
     <row r="134" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A134" s="55"/>
+      <c r="A134" s="56"/>
       <c r="B134" s="35" t="s">
         <v>4</v>
       </c>
@@ -38924,7 +38930,7 @@
       </c>
     </row>
     <row r="135" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A135" s="55"/>
+      <c r="A135" s="56"/>
       <c r="B135" s="35" t="s">
         <v>5</v>
       </c>
@@ -38981,7 +38987,7 @@
       </c>
     </row>
     <row r="136" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A136" s="55"/>
+      <c r="A136" s="56"/>
       <c r="B136" s="35" t="s">
         <v>6</v>
       </c>
@@ -39038,7 +39044,7 @@
       </c>
     </row>
     <row r="137" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A137" s="55"/>
+      <c r="A137" s="56"/>
       <c r="B137" s="35" t="s">
         <v>7</v>
       </c>
@@ -39095,7 +39101,7 @@
       </c>
     </row>
     <row r="138" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A138" s="55"/>
+      <c r="A138" s="56"/>
       <c r="B138" s="35" t="s">
         <v>8</v>
       </c>
@@ -39152,7 +39158,7 @@
       </c>
     </row>
     <row r="139" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A139" s="55"/>
+      <c r="A139" s="56"/>
       <c r="B139" s="35" t="s">
         <v>9</v>
       </c>
@@ -39209,7 +39215,7 @@
       </c>
     </row>
     <row r="140" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A140" s="55"/>
+      <c r="A140" s="56"/>
       <c r="B140" s="35" t="s">
         <v>10</v>
       </c>
@@ -39266,7 +39272,7 @@
       </c>
     </row>
     <row r="141" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A141" s="55"/>
+      <c r="A141" s="56"/>
       <c r="B141" s="35" t="s">
         <v>11</v>
       </c>
@@ -39323,7 +39329,7 @@
       </c>
     </row>
     <row r="142" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A142" s="55"/>
+      <c r="A142" s="56"/>
       <c r="B142" s="35" t="s">
         <v>12</v>
       </c>
@@ -39380,7 +39386,7 @@
       </c>
     </row>
     <row r="143" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A143" s="55"/>
+      <c r="A143" s="56"/>
       <c r="B143" s="35" t="s">
         <v>13</v>
       </c>
@@ -39437,7 +39443,7 @@
       </c>
     </row>
     <row r="144" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A144" s="55"/>
+      <c r="A144" s="56"/>
       <c r="B144" s="35" t="s">
         <v>14</v>
       </c>
@@ -39494,7 +39500,7 @@
       </c>
     </row>
     <row r="145" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A145" s="55"/>
+      <c r="A145" s="56"/>
       <c r="B145" s="35" t="s">
         <v>15</v>
       </c>
@@ -39551,7 +39557,7 @@
       </c>
     </row>
     <row r="146" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A146" s="55" t="s">
+      <c r="A146" s="56" t="s">
         <v>80</v>
       </c>
       <c r="B146" s="35" t="s">
@@ -39610,7 +39616,7 @@
       </c>
     </row>
     <row r="147" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A147" s="55"/>
+      <c r="A147" s="56"/>
       <c r="B147" s="35" t="s">
         <v>1</v>
       </c>
@@ -39667,7 +39673,7 @@
       </c>
     </row>
     <row r="148" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A148" s="55"/>
+      <c r="A148" s="56"/>
       <c r="B148" s="35" t="s">
         <v>2</v>
       </c>
@@ -39724,7 +39730,7 @@
       </c>
     </row>
     <row r="149" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A149" s="55"/>
+      <c r="A149" s="56"/>
       <c r="B149" s="35" t="s">
         <v>3</v>
       </c>
@@ -39781,7 +39787,7 @@
       </c>
     </row>
     <row r="150" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A150" s="55"/>
+      <c r="A150" s="56"/>
       <c r="B150" s="35" t="s">
         <v>4</v>
       </c>
@@ -39838,7 +39844,7 @@
       </c>
     </row>
     <row r="151" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A151" s="55"/>
+      <c r="A151" s="56"/>
       <c r="B151" s="35" t="s">
         <v>5</v>
       </c>
@@ -39895,7 +39901,7 @@
       </c>
     </row>
     <row r="152" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A152" s="55"/>
+      <c r="A152" s="56"/>
       <c r="B152" s="35" t="s">
         <v>6</v>
       </c>
@@ -39952,7 +39958,7 @@
       </c>
     </row>
     <row r="153" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A153" s="55"/>
+      <c r="A153" s="56"/>
       <c r="B153" s="35" t="s">
         <v>7</v>
       </c>
@@ -40009,7 +40015,7 @@
       </c>
     </row>
     <row r="154" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A154" s="55"/>
+      <c r="A154" s="56"/>
       <c r="B154" s="35" t="s">
         <v>8</v>
       </c>
@@ -40066,7 +40072,7 @@
       </c>
     </row>
     <row r="155" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A155" s="55"/>
+      <c r="A155" s="56"/>
       <c r="B155" s="35" t="s">
         <v>9</v>
       </c>
@@ -40123,7 +40129,7 @@
       </c>
     </row>
     <row r="156" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A156" s="55"/>
+      <c r="A156" s="56"/>
       <c r="B156" s="35" t="s">
         <v>10</v>
       </c>
@@ -40180,7 +40186,7 @@
       </c>
     </row>
     <row r="157" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A157" s="55"/>
+      <c r="A157" s="56"/>
       <c r="B157" s="35" t="s">
         <v>11</v>
       </c>
@@ -40237,7 +40243,7 @@
       </c>
     </row>
     <row r="158" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A158" s="55"/>
+      <c r="A158" s="56"/>
       <c r="B158" s="35" t="s">
         <v>12</v>
       </c>
@@ -40294,7 +40300,7 @@
       </c>
     </row>
     <row r="159" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A159" s="55"/>
+      <c r="A159" s="56"/>
       <c r="B159" s="35" t="s">
         <v>13</v>
       </c>
@@ -40351,7 +40357,7 @@
       </c>
     </row>
     <row r="160" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A160" s="55"/>
+      <c r="A160" s="56"/>
       <c r="B160" s="35" t="s">
         <v>14</v>
       </c>
@@ -40408,7 +40414,7 @@
       </c>
     </row>
     <row r="161" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A161" s="55"/>
+      <c r="A161" s="56"/>
       <c r="B161" s="35" t="s">
         <v>15</v>
       </c>
@@ -40466,16 +40472,16 @@
     </row>
   </sheetData>
   <mergeCells count="10">
+    <mergeCell ref="A82:A97"/>
+    <mergeCell ref="A98:A113"/>
+    <mergeCell ref="A114:A129"/>
+    <mergeCell ref="A130:A145"/>
+    <mergeCell ref="A146:A161"/>
     <mergeCell ref="A2:A17"/>
     <mergeCell ref="A18:A33"/>
     <mergeCell ref="A34:A49"/>
     <mergeCell ref="A50:A65"/>
     <mergeCell ref="A66:A81"/>
-    <mergeCell ref="A82:A97"/>
-    <mergeCell ref="A98:A113"/>
-    <mergeCell ref="A114:A129"/>
-    <mergeCell ref="A130:A145"/>
-    <mergeCell ref="A146:A161"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -42288,17 +42294,17 @@
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1" s="1"/>
-      <c r="B1" s="55" t="s">
+      <c r="B1" s="56" t="s">
         <v>41</v>
       </c>
-      <c r="C1" s="55"/>
-      <c r="D1" s="55"/>
-      <c r="E1" s="55"/>
-      <c r="F1" s="55"/>
-      <c r="G1" s="55"/>
-      <c r="H1" s="55"/>
-      <c r="I1" s="55"/>
-      <c r="J1" s="55"/>
+      <c r="C1" s="56"/>
+      <c r="D1" s="56"/>
+      <c r="E1" s="56"/>
+      <c r="F1" s="56"/>
+      <c r="G1" s="56"/>
+      <c r="H1" s="56"/>
+      <c r="I1" s="56"/>
+      <c r="J1" s="56"/>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
@@ -42665,7 +42671,7 @@
   <dimension ref="A1:N18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="M16" sqref="M16"/>
+      <selection activeCell="M3" sqref="M3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -42731,7 +42737,7 @@
       </c>
     </row>
     <row r="2" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A2" s="62" t="s">
+      <c r="A2" s="63" t="s">
         <v>88</v>
       </c>
       <c r="B2" s="27" t="s">
@@ -42764,14 +42770,14 @@
       <c r="K2" s="21"/>
       <c r="L2" s="21"/>
       <c r="M2" s="22">
-        <v>43931</v>
+        <v>43922</v>
       </c>
       <c r="N2" s="49">
         <v>43952</v>
       </c>
     </row>
     <row r="3" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A3" s="63"/>
+      <c r="A3" s="64"/>
       <c r="B3" s="36" t="s">
         <v>82</v>
       </c>
@@ -42809,7 +42815,7 @@
       </c>
     </row>
     <row r="4" spans="1:14" s="5" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="63"/>
+      <c r="A4" s="64"/>
       <c r="B4" s="36" t="s">
         <v>83</v>
       </c>
@@ -42845,7 +42851,7 @@
       <c r="N4" s="51"/>
     </row>
     <row r="5" spans="1:14" s="5" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="64"/>
+      <c r="A5" s="65"/>
       <c r="B5" s="36" t="s">
         <v>86</v>
       </c>
@@ -42879,7 +42885,7 @@
       <c r="N5" s="51"/>
     </row>
     <row r="6" spans="1:14" s="40" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="59" t="s">
+      <c r="A6" s="60" t="s">
         <v>72</v>
       </c>
       <c r="B6" s="43" t="s">
@@ -42919,7 +42925,7 @@
       </c>
     </row>
     <row r="7" spans="1:14" s="40" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="60"/>
+      <c r="A7" s="61"/>
       <c r="B7" s="45" t="s">
         <v>82</v>
       </c>
@@ -42957,7 +42963,7 @@
       </c>
     </row>
     <row r="8" spans="1:14" s="41" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="60"/>
+      <c r="A8" s="61"/>
       <c r="B8" s="45" t="s">
         <v>83</v>
       </c>
@@ -42991,7 +42997,7 @@
       <c r="N8" s="46"/>
     </row>
     <row r="9" spans="1:14" s="41" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="61"/>
+      <c r="A9" s="62"/>
       <c r="B9" s="47" t="s">
         <v>86</v>
       </c>
@@ -43023,7 +43029,7 @@
       <c r="N9" s="48"/>
     </row>
     <row r="10" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A10" s="56" t="s">
+      <c r="A10" s="57" t="s">
         <v>75</v>
       </c>
       <c r="B10" s="27" t="s">
@@ -43063,7 +43069,7 @@
       </c>
     </row>
     <row r="11" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A11" s="57"/>
+      <c r="A11" s="58"/>
       <c r="B11" s="36" t="s">
         <v>82</v>
       </c>
@@ -43101,7 +43107,7 @@
       </c>
     </row>
     <row r="12" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A12" s="57"/>
+      <c r="A12" s="58"/>
       <c r="B12" s="36" t="s">
         <v>83</v>
       </c>
@@ -43137,7 +43143,7 @@
       <c r="N12" s="51"/>
     </row>
     <row r="13" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A13" s="58"/>
+      <c r="A13" s="59"/>
       <c r="B13" s="36" t="s">
         <v>86</v>
       </c>
@@ -43171,7 +43177,7 @@
       <c r="N13" s="51"/>
     </row>
     <row r="14" spans="1:14" s="40" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="59" t="s">
+      <c r="A14" s="60" t="s">
         <v>78</v>
       </c>
       <c r="B14" s="43" t="s">
@@ -43204,14 +43210,14 @@
       <c r="K14" s="19"/>
       <c r="L14" s="19"/>
       <c r="M14" s="20">
-        <v>43931</v>
+        <v>43922</v>
       </c>
       <c r="N14" s="44">
         <v>43952</v>
       </c>
     </row>
     <row r="15" spans="1:14" s="41" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="60"/>
+      <c r="A15" s="61"/>
       <c r="B15" s="45" t="s">
         <v>82</v>
       </c>
@@ -43249,12 +43255,12 @@
       </c>
     </row>
     <row r="16" spans="1:14" s="41" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="60"/>
+      <c r="A16" s="61"/>
       <c r="B16" s="45" t="s">
         <v>83</v>
       </c>
-      <c r="C16" s="10" t="s">
-        <v>85</v>
+      <c r="C16" t="s">
+        <v>84</v>
       </c>
       <c r="D16" s="18">
         <v>0.1</v>
@@ -43285,12 +43291,12 @@
       <c r="N16" s="46"/>
     </row>
     <row r="17" spans="1:14" s="41" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="60"/>
+      <c r="A17" s="61"/>
       <c r="B17" s="47" t="s">
         <v>86</v>
       </c>
       <c r="C17" s="17" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="D17" s="34">
         <v>0.3</v>
@@ -43338,7 +43344,7 @@
   <dimension ref="A1:R5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F4" sqref="F4"/>
+      <selection activeCell="D12" sqref="D12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -43414,7 +43420,7 @@
       </c>
     </row>
     <row r="2" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A2" s="35" t="s">
+      <c r="A2" s="55" t="s">
         <v>88</v>
       </c>
       <c r="B2" s="2">
@@ -43464,10 +43470,10 @@
         <v>60</v>
       </c>
       <c r="Q2">
-        <v>1000</v>
+        <v>8000</v>
       </c>
       <c r="R2">
-        <v>1000</v>
+        <v>8000</v>
       </c>
     </row>
     <row r="3" spans="1:18" x14ac:dyDescent="0.25">

--- a/data/input_data_brazil.xlsx
+++ b/data/input_data_brazil.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\farah.houdroge\Documents\GitHub\covasim-australia\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7FC9673A-DD66-4A67-8D81-293FD1B4256C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ACC9D647-957F-47C5-B593-2BA6CC009B18}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="839" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -87,7 +87,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="689" uniqueCount="99">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="703" uniqueCount="95">
   <si>
     <t>0-4</t>
   </si>
@@ -351,18 +351,6 @@
   </si>
   <si>
     <t>Salvador</t>
-  </si>
-  <si>
-    <t>Lockdown measures increased</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Lockdown measures relaxed </t>
-  </si>
-  <si>
-    <t>Lockdown measures relaxed  more</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Lockdown measures relaxed  </t>
   </si>
   <si>
     <t>Rio</t>
@@ -752,7 +740,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="87">
+  <cellXfs count="104">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
@@ -788,9 +776,7 @@
       <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1"/>
@@ -821,8 +807,6 @@
       <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="20" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="18" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1"/>
@@ -848,7 +832,6 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="2" borderId="12" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
@@ -856,41 +839,29 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="13" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="0" fillId="2" borderId="22" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="0" fillId="2" borderId="23" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="22" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="24" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="0" fillId="2" borderId="9" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="0" fillId="2" borderId="19" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="25" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="21" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="22" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -926,6 +897,42 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="20" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="13" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="17" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="20" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="2" borderId="12" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="13" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="2" borderId="22" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="2" borderId="23" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="2" borderId="19" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="25" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1295,7 +1302,7 @@
   <dimension ref="A1:S21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E26" sqref="E26"/>
+      <selection activeCell="B2" sqref="A2:XFD5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1364,10 +1371,10 @@
       </c>
     </row>
     <row r="2" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A2" s="71" t="s">
+      <c r="A2" s="67" t="s">
         <v>84</v>
       </c>
-      <c r="B2" s="49" t="s">
+      <c r="B2" s="45" t="s">
         <v>19</v>
       </c>
       <c r="C2">
@@ -1423,8 +1430,8 @@
       </c>
     </row>
     <row r="3" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A3" s="71"/>
-      <c r="B3" s="49" t="s">
+      <c r="A3" s="67"/>
+      <c r="B3" s="45" t="s">
         <v>20</v>
       </c>
       <c r="C3">
@@ -1480,10 +1487,10 @@
       </c>
     </row>
     <row r="4" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A4" s="71" t="s">
+      <c r="A4" s="67" t="s">
         <v>84</v>
       </c>
-      <c r="B4" s="49" t="s">
+      <c r="B4" s="45" t="s">
         <v>16</v>
       </c>
       <c r="C4">
@@ -1539,8 +1546,8 @@
       </c>
     </row>
     <row r="5" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A5" s="71"/>
-      <c r="B5" s="49" t="s">
+      <c r="A5" s="67"/>
+      <c r="B5" s="45" t="s">
         <v>21</v>
       </c>
       <c r="C5">
@@ -1596,10 +1603,10 @@
       </c>
     </row>
     <row r="6" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A6" s="72" t="s">
-        <v>92</v>
-      </c>
-      <c r="B6" s="49" t="s">
+      <c r="A6" s="65" t="s">
+        <v>88</v>
+      </c>
+      <c r="B6" s="45" t="s">
         <v>19</v>
       </c>
       <c r="C6">
@@ -1655,8 +1662,8 @@
       </c>
     </row>
     <row r="7" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A7" s="73"/>
-      <c r="B7" s="49" t="s">
+      <c r="A7" s="66"/>
+      <c r="B7" s="45" t="s">
         <v>20</v>
       </c>
       <c r="C7">
@@ -1712,10 +1719,10 @@
       </c>
     </row>
     <row r="8" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A8" s="72" t="s">
-        <v>92</v>
-      </c>
-      <c r="B8" s="49" t="s">
+      <c r="A8" s="65" t="s">
+        <v>88</v>
+      </c>
+      <c r="B8" s="45" t="s">
         <v>16</v>
       </c>
       <c r="C8">
@@ -1771,8 +1778,8 @@
       </c>
     </row>
     <row r="9" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A9" s="73"/>
-      <c r="B9" s="49" t="s">
+      <c r="A9" s="66"/>
+      <c r="B9" s="45" t="s">
         <v>21</v>
       </c>
       <c r="C9">
@@ -1828,10 +1835,10 @@
       </c>
     </row>
     <row r="10" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A10" s="72" t="s">
+      <c r="A10" s="65" t="s">
         <v>85</v>
       </c>
-      <c r="B10" s="49" t="s">
+      <c r="B10" s="45" t="s">
         <v>19</v>
       </c>
       <c r="C10">
@@ -1887,8 +1894,8 @@
       </c>
     </row>
     <row r="11" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A11" s="73"/>
-      <c r="B11" s="49" t="s">
+      <c r="A11" s="66"/>
+      <c r="B11" s="45" t="s">
         <v>20</v>
       </c>
       <c r="C11">
@@ -1944,10 +1951,10 @@
       </c>
     </row>
     <row r="12" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A12" s="72" t="s">
+      <c r="A12" s="65" t="s">
         <v>85</v>
       </c>
-      <c r="B12" s="49" t="s">
+      <c r="B12" s="45" t="s">
         <v>16</v>
       </c>
       <c r="C12">
@@ -2003,8 +2010,8 @@
       </c>
     </row>
     <row r="13" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A13" s="73"/>
-      <c r="B13" s="49" t="s">
+      <c r="A13" s="66"/>
+      <c r="B13" s="45" t="s">
         <v>21</v>
       </c>
       <c r="C13">
@@ -2060,10 +2067,10 @@
       </c>
     </row>
     <row r="14" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A14" s="72" t="s">
+      <c r="A14" s="65" t="s">
         <v>86</v>
       </c>
-      <c r="B14" s="49" t="s">
+      <c r="B14" s="45" t="s">
         <v>19</v>
       </c>
       <c r="C14">
@@ -2119,8 +2126,8 @@
       </c>
     </row>
     <row r="15" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A15" s="73"/>
-      <c r="B15" s="49" t="s">
+      <c r="A15" s="66"/>
+      <c r="B15" s="45" t="s">
         <v>20</v>
       </c>
       <c r="C15">
@@ -2176,10 +2183,10 @@
       </c>
     </row>
     <row r="16" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A16" s="72" t="s">
+      <c r="A16" s="65" t="s">
         <v>86</v>
       </c>
-      <c r="B16" s="49" t="s">
+      <c r="B16" s="45" t="s">
         <v>16</v>
       </c>
       <c r="C16">
@@ -2235,8 +2242,8 @@
       </c>
     </row>
     <row r="17" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A17" s="73"/>
-      <c r="B17" s="49" t="s">
+      <c r="A17" s="66"/>
+      <c r="B17" s="45" t="s">
         <v>21</v>
       </c>
       <c r="C17">
@@ -2292,10 +2299,10 @@
       </c>
     </row>
     <row r="18" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A18" s="72" t="s">
+      <c r="A18" s="65" t="s">
         <v>87</v>
       </c>
-      <c r="B18" s="49" t="s">
+      <c r="B18" s="45" t="s">
         <v>19</v>
       </c>
       <c r="C18">
@@ -2351,8 +2358,8 @@
       </c>
     </row>
     <row r="19" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A19" s="73"/>
-      <c r="B19" s="49" t="s">
+      <c r="A19" s="66"/>
+      <c r="B19" s="45" t="s">
         <v>20</v>
       </c>
       <c r="C19">
@@ -2408,10 +2415,10 @@
       </c>
     </row>
     <row r="20" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A20" s="72" t="s">
+      <c r="A20" s="65" t="s">
         <v>87</v>
       </c>
-      <c r="B20" s="49" t="s">
+      <c r="B20" s="45" t="s">
         <v>16</v>
       </c>
       <c r="C20">
@@ -2467,8 +2474,8 @@
       </c>
     </row>
     <row r="21" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A21" s="73"/>
-      <c r="B21" s="49" t="s">
+      <c r="A21" s="66"/>
+      <c r="B21" s="45" t="s">
         <v>21</v>
       </c>
       <c r="C21">
@@ -2525,16 +2532,16 @@
     </row>
   </sheetData>
   <mergeCells count="10">
+    <mergeCell ref="A2:A3"/>
+    <mergeCell ref="A4:A5"/>
+    <mergeCell ref="A6:A7"/>
+    <mergeCell ref="A8:A9"/>
+    <mergeCell ref="A10:A11"/>
     <mergeCell ref="A12:A13"/>
     <mergeCell ref="A14:A15"/>
     <mergeCell ref="A16:A17"/>
     <mergeCell ref="A18:A19"/>
     <mergeCell ref="A20:A21"/>
-    <mergeCell ref="A2:A3"/>
-    <mergeCell ref="A4:A5"/>
-    <mergeCell ref="A6:A7"/>
-    <mergeCell ref="A8:A9"/>
-    <mergeCell ref="A10:A11"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -2613,10 +2620,10 @@
       </c>
     </row>
     <row r="2" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A2" s="71" t="s">
+      <c r="A2" s="67" t="s">
         <v>84</v>
       </c>
-      <c r="B2" s="49" t="s">
+      <c r="B2" s="45" t="s">
         <v>0</v>
       </c>
       <c r="C2">
@@ -2672,8 +2679,8 @@
       </c>
     </row>
     <row r="3" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A3" s="71"/>
-      <c r="B3" s="49" t="s">
+      <c r="A3" s="67"/>
+      <c r="B3" s="45" t="s">
         <v>1</v>
       </c>
       <c r="C3">
@@ -2729,8 +2736,8 @@
       </c>
     </row>
     <row r="4" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A4" s="71"/>
-      <c r="B4" s="49" t="s">
+      <c r="A4" s="67"/>
+      <c r="B4" s="45" t="s">
         <v>2</v>
       </c>
       <c r="C4">
@@ -2786,8 +2793,8 @@
       </c>
     </row>
     <row r="5" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A5" s="71"/>
-      <c r="B5" s="49" t="s">
+      <c r="A5" s="67"/>
+      <c r="B5" s="45" t="s">
         <v>3</v>
       </c>
       <c r="C5">
@@ -2843,8 +2850,8 @@
       </c>
     </row>
     <row r="6" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A6" s="71"/>
-      <c r="B6" s="49" t="s">
+      <c r="A6" s="67"/>
+      <c r="B6" s="45" t="s">
         <v>4</v>
       </c>
       <c r="C6">
@@ -2900,8 +2907,8 @@
       </c>
     </row>
     <row r="7" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A7" s="71"/>
-      <c r="B7" s="49" t="s">
+      <c r="A7" s="67"/>
+      <c r="B7" s="45" t="s">
         <v>5</v>
       </c>
       <c r="C7">
@@ -2957,8 +2964,8 @@
       </c>
     </row>
     <row r="8" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A8" s="71"/>
-      <c r="B8" s="49" t="s">
+      <c r="A8" s="67"/>
+      <c r="B8" s="45" t="s">
         <v>6</v>
       </c>
       <c r="C8">
@@ -3014,8 +3021,8 @@
       </c>
     </row>
     <row r="9" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A9" s="71"/>
-      <c r="B9" s="49" t="s">
+      <c r="A9" s="67"/>
+      <c r="B9" s="45" t="s">
         <v>7</v>
       </c>
       <c r="C9">
@@ -3071,8 +3078,8 @@
       </c>
     </row>
     <row r="10" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A10" s="71"/>
-      <c r="B10" s="49" t="s">
+      <c r="A10" s="67"/>
+      <c r="B10" s="45" t="s">
         <v>8</v>
       </c>
       <c r="C10">
@@ -3128,8 +3135,8 @@
       </c>
     </row>
     <row r="11" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A11" s="71"/>
-      <c r="B11" s="49" t="s">
+      <c r="A11" s="67"/>
+      <c r="B11" s="45" t="s">
         <v>9</v>
       </c>
       <c r="C11">
@@ -3185,8 +3192,8 @@
       </c>
     </row>
     <row r="12" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A12" s="71"/>
-      <c r="B12" s="49" t="s">
+      <c r="A12" s="67"/>
+      <c r="B12" s="45" t="s">
         <v>10</v>
       </c>
       <c r="C12">
@@ -3242,8 +3249,8 @@
       </c>
     </row>
     <row r="13" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A13" s="71"/>
-      <c r="B13" s="49" t="s">
+      <c r="A13" s="67"/>
+      <c r="B13" s="45" t="s">
         <v>11</v>
       </c>
       <c r="C13">
@@ -3299,8 +3306,8 @@
       </c>
     </row>
     <row r="14" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A14" s="71"/>
-      <c r="B14" s="49" t="s">
+      <c r="A14" s="67"/>
+      <c r="B14" s="45" t="s">
         <v>12</v>
       </c>
       <c r="C14">
@@ -3356,8 +3363,8 @@
       </c>
     </row>
     <row r="15" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A15" s="71"/>
-      <c r="B15" s="49" t="s">
+      <c r="A15" s="67"/>
+      <c r="B15" s="45" t="s">
         <v>13</v>
       </c>
       <c r="C15">
@@ -3413,8 +3420,8 @@
       </c>
     </row>
     <row r="16" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A16" s="71"/>
-      <c r="B16" s="49" t="s">
+      <c r="A16" s="67"/>
+      <c r="B16" s="45" t="s">
         <v>14</v>
       </c>
       <c r="C16">
@@ -3470,8 +3477,8 @@
       </c>
     </row>
     <row r="17" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A17" s="71"/>
-      <c r="B17" s="49" t="s">
+      <c r="A17" s="67"/>
+      <c r="B17" s="45" t="s">
         <v>15</v>
       </c>
       <c r="C17">
@@ -3527,10 +3534,10 @@
       </c>
     </row>
     <row r="18" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A18" s="71" t="s">
-        <v>92</v>
-      </c>
-      <c r="B18" s="49" t="s">
+      <c r="A18" s="67" t="s">
+        <v>88</v>
+      </c>
+      <c r="B18" s="45" t="s">
         <v>0</v>
       </c>
       <c r="C18">
@@ -3586,8 +3593,8 @@
       </c>
     </row>
     <row r="19" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A19" s="71"/>
-      <c r="B19" s="49" t="s">
+      <c r="A19" s="67"/>
+      <c r="B19" s="45" t="s">
         <v>1</v>
       </c>
       <c r="C19">
@@ -3643,8 +3650,8 @@
       </c>
     </row>
     <row r="20" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A20" s="71"/>
-      <c r="B20" s="49" t="s">
+      <c r="A20" s="67"/>
+      <c r="B20" s="45" t="s">
         <v>2</v>
       </c>
       <c r="C20">
@@ -3700,8 +3707,8 @@
       </c>
     </row>
     <row r="21" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A21" s="71"/>
-      <c r="B21" s="49" t="s">
+      <c r="A21" s="67"/>
+      <c r="B21" s="45" t="s">
         <v>3</v>
       </c>
       <c r="C21">
@@ -3757,8 +3764,8 @@
       </c>
     </row>
     <row r="22" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A22" s="71"/>
-      <c r="B22" s="49" t="s">
+      <c r="A22" s="67"/>
+      <c r="B22" s="45" t="s">
         <v>4</v>
       </c>
       <c r="C22">
@@ -3814,8 +3821,8 @@
       </c>
     </row>
     <row r="23" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A23" s="71"/>
-      <c r="B23" s="49" t="s">
+      <c r="A23" s="67"/>
+      <c r="B23" s="45" t="s">
         <v>5</v>
       </c>
       <c r="C23">
@@ -3871,8 +3878,8 @@
       </c>
     </row>
     <row r="24" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A24" s="71"/>
-      <c r="B24" s="49" t="s">
+      <c r="A24" s="67"/>
+      <c r="B24" s="45" t="s">
         <v>6</v>
       </c>
       <c r="C24">
@@ -3928,8 +3935,8 @@
       </c>
     </row>
     <row r="25" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A25" s="71"/>
-      <c r="B25" s="49" t="s">
+      <c r="A25" s="67"/>
+      <c r="B25" s="45" t="s">
         <v>7</v>
       </c>
       <c r="C25">
@@ -3985,8 +3992,8 @@
       </c>
     </row>
     <row r="26" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A26" s="71"/>
-      <c r="B26" s="49" t="s">
+      <c r="A26" s="67"/>
+      <c r="B26" s="45" t="s">
         <v>8</v>
       </c>
       <c r="C26">
@@ -4042,8 +4049,8 @@
       </c>
     </row>
     <row r="27" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A27" s="71"/>
-      <c r="B27" s="49" t="s">
+      <c r="A27" s="67"/>
+      <c r="B27" s="45" t="s">
         <v>9</v>
       </c>
       <c r="C27">
@@ -4099,8 +4106,8 @@
       </c>
     </row>
     <row r="28" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A28" s="71"/>
-      <c r="B28" s="49" t="s">
+      <c r="A28" s="67"/>
+      <c r="B28" s="45" t="s">
         <v>10</v>
       </c>
       <c r="C28">
@@ -4156,8 +4163,8 @@
       </c>
     </row>
     <row r="29" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A29" s="71"/>
-      <c r="B29" s="49" t="s">
+      <c r="A29" s="67"/>
+      <c r="B29" s="45" t="s">
         <v>11</v>
       </c>
       <c r="C29">
@@ -4213,8 +4220,8 @@
       </c>
     </row>
     <row r="30" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A30" s="71"/>
-      <c r="B30" s="49" t="s">
+      <c r="A30" s="67"/>
+      <c r="B30" s="45" t="s">
         <v>12</v>
       </c>
       <c r="C30">
@@ -4270,8 +4277,8 @@
       </c>
     </row>
     <row r="31" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A31" s="71"/>
-      <c r="B31" s="49" t="s">
+      <c r="A31" s="67"/>
+      <c r="B31" s="45" t="s">
         <v>13</v>
       </c>
       <c r="C31">
@@ -4327,8 +4334,8 @@
       </c>
     </row>
     <row r="32" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A32" s="71"/>
-      <c r="B32" s="49" t="s">
+      <c r="A32" s="67"/>
+      <c r="B32" s="45" t="s">
         <v>14</v>
       </c>
       <c r="C32">
@@ -4384,8 +4391,8 @@
       </c>
     </row>
     <row r="33" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A33" s="71"/>
-      <c r="B33" s="49" t="s">
+      <c r="A33" s="67"/>
+      <c r="B33" s="45" t="s">
         <v>15</v>
       </c>
       <c r="C33">
@@ -4441,10 +4448,10 @@
       </c>
     </row>
     <row r="34" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A34" s="71" t="s">
+      <c r="A34" s="67" t="s">
         <v>87</v>
       </c>
-      <c r="B34" s="49" t="s">
+      <c r="B34" s="45" t="s">
         <v>0</v>
       </c>
       <c r="C34">
@@ -4500,8 +4507,8 @@
       </c>
     </row>
     <row r="35" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A35" s="71"/>
-      <c r="B35" s="49" t="s">
+      <c r="A35" s="67"/>
+      <c r="B35" s="45" t="s">
         <v>1</v>
       </c>
       <c r="C35">
@@ -4557,8 +4564,8 @@
       </c>
     </row>
     <row r="36" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A36" s="71"/>
-      <c r="B36" s="49" t="s">
+      <c r="A36" s="67"/>
+      <c r="B36" s="45" t="s">
         <v>2</v>
       </c>
       <c r="C36">
@@ -4614,8 +4621,8 @@
       </c>
     </row>
     <row r="37" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A37" s="71"/>
-      <c r="B37" s="49" t="s">
+      <c r="A37" s="67"/>
+      <c r="B37" s="45" t="s">
         <v>3</v>
       </c>
       <c r="C37">
@@ -4671,8 +4678,8 @@
       </c>
     </row>
     <row r="38" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A38" s="71"/>
-      <c r="B38" s="49" t="s">
+      <c r="A38" s="67"/>
+      <c r="B38" s="45" t="s">
         <v>4</v>
       </c>
       <c r="C38">
@@ -4728,8 +4735,8 @@
       </c>
     </row>
     <row r="39" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A39" s="71"/>
-      <c r="B39" s="49" t="s">
+      <c r="A39" s="67"/>
+      <c r="B39" s="45" t="s">
         <v>5</v>
       </c>
       <c r="C39">
@@ -4785,8 +4792,8 @@
       </c>
     </row>
     <row r="40" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A40" s="71"/>
-      <c r="B40" s="49" t="s">
+      <c r="A40" s="67"/>
+      <c r="B40" s="45" t="s">
         <v>6</v>
       </c>
       <c r="C40">
@@ -4842,8 +4849,8 @@
       </c>
     </row>
     <row r="41" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A41" s="71"/>
-      <c r="B41" s="49" t="s">
+      <c r="A41" s="67"/>
+      <c r="B41" s="45" t="s">
         <v>7</v>
       </c>
       <c r="C41">
@@ -4899,8 +4906,8 @@
       </c>
     </row>
     <row r="42" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A42" s="71"/>
-      <c r="B42" s="49" t="s">
+      <c r="A42" s="67"/>
+      <c r="B42" s="45" t="s">
         <v>8</v>
       </c>
       <c r="C42">
@@ -4956,8 +4963,8 @@
       </c>
     </row>
     <row r="43" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A43" s="71"/>
-      <c r="B43" s="49" t="s">
+      <c r="A43" s="67"/>
+      <c r="B43" s="45" t="s">
         <v>9</v>
       </c>
       <c r="C43">
@@ -5013,8 +5020,8 @@
       </c>
     </row>
     <row r="44" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A44" s="71"/>
-      <c r="B44" s="49" t="s">
+      <c r="A44" s="67"/>
+      <c r="B44" s="45" t="s">
         <v>10</v>
       </c>
       <c r="C44">
@@ -5070,8 +5077,8 @@
       </c>
     </row>
     <row r="45" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A45" s="71"/>
-      <c r="B45" s="49" t="s">
+      <c r="A45" s="67"/>
+      <c r="B45" s="45" t="s">
         <v>11</v>
       </c>
       <c r="C45">
@@ -5127,8 +5134,8 @@
       </c>
     </row>
     <row r="46" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A46" s="71"/>
-      <c r="B46" s="49" t="s">
+      <c r="A46" s="67"/>
+      <c r="B46" s="45" t="s">
         <v>12</v>
       </c>
       <c r="C46">
@@ -5184,8 +5191,8 @@
       </c>
     </row>
     <row r="47" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A47" s="71"/>
-      <c r="B47" s="49" t="s">
+      <c r="A47" s="67"/>
+      <c r="B47" s="45" t="s">
         <v>13</v>
       </c>
       <c r="C47">
@@ -5241,8 +5248,8 @@
       </c>
     </row>
     <row r="48" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A48" s="71"/>
-      <c r="B48" s="49" t="s">
+      <c r="A48" s="67"/>
+      <c r="B48" s="45" t="s">
         <v>14</v>
       </c>
       <c r="C48">
@@ -5298,8 +5305,8 @@
       </c>
     </row>
     <row r="49" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A49" s="71"/>
-      <c r="B49" s="49" t="s">
+      <c r="A49" s="67"/>
+      <c r="B49" s="45" t="s">
         <v>15</v>
       </c>
       <c r="C49">
@@ -5355,10 +5362,10 @@
       </c>
     </row>
     <row r="50" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A50" s="71" t="s">
+      <c r="A50" s="67" t="s">
         <v>85</v>
       </c>
-      <c r="B50" s="49" t="s">
+      <c r="B50" s="45" t="s">
         <v>0</v>
       </c>
       <c r="C50">
@@ -5414,8 +5421,8 @@
       </c>
     </row>
     <row r="51" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A51" s="71"/>
-      <c r="B51" s="49" t="s">
+      <c r="A51" s="67"/>
+      <c r="B51" s="45" t="s">
         <v>1</v>
       </c>
       <c r="C51">
@@ -5471,8 +5478,8 @@
       </c>
     </row>
     <row r="52" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A52" s="71"/>
-      <c r="B52" s="49" t="s">
+      <c r="A52" s="67"/>
+      <c r="B52" s="45" t="s">
         <v>2</v>
       </c>
       <c r="C52">
@@ -5528,8 +5535,8 @@
       </c>
     </row>
     <row r="53" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A53" s="71"/>
-      <c r="B53" s="49" t="s">
+      <c r="A53" s="67"/>
+      <c r="B53" s="45" t="s">
         <v>3</v>
       </c>
       <c r="C53">
@@ -5585,8 +5592,8 @@
       </c>
     </row>
     <row r="54" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A54" s="71"/>
-      <c r="B54" s="49" t="s">
+      <c r="A54" s="67"/>
+      <c r="B54" s="45" t="s">
         <v>4</v>
       </c>
       <c r="C54">
@@ -5642,8 +5649,8 @@
       </c>
     </row>
     <row r="55" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A55" s="71"/>
-      <c r="B55" s="49" t="s">
+      <c r="A55" s="67"/>
+      <c r="B55" s="45" t="s">
         <v>5</v>
       </c>
       <c r="C55">
@@ -5699,8 +5706,8 @@
       </c>
     </row>
     <row r="56" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A56" s="71"/>
-      <c r="B56" s="49" t="s">
+      <c r="A56" s="67"/>
+      <c r="B56" s="45" t="s">
         <v>6</v>
       </c>
       <c r="C56">
@@ -5756,8 +5763,8 @@
       </c>
     </row>
     <row r="57" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A57" s="71"/>
-      <c r="B57" s="49" t="s">
+      <c r="A57" s="67"/>
+      <c r="B57" s="45" t="s">
         <v>7</v>
       </c>
       <c r="C57">
@@ -5813,8 +5820,8 @@
       </c>
     </row>
     <row r="58" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A58" s="71"/>
-      <c r="B58" s="49" t="s">
+      <c r="A58" s="67"/>
+      <c r="B58" s="45" t="s">
         <v>8</v>
       </c>
       <c r="C58">
@@ -5870,8 +5877,8 @@
       </c>
     </row>
     <row r="59" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A59" s="71"/>
-      <c r="B59" s="49" t="s">
+      <c r="A59" s="67"/>
+      <c r="B59" s="45" t="s">
         <v>9</v>
       </c>
       <c r="C59">
@@ -5927,8 +5934,8 @@
       </c>
     </row>
     <row r="60" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A60" s="71"/>
-      <c r="B60" s="49" t="s">
+      <c r="A60" s="67"/>
+      <c r="B60" s="45" t="s">
         <v>10</v>
       </c>
       <c r="C60">
@@ -5984,8 +5991,8 @@
       </c>
     </row>
     <row r="61" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A61" s="71"/>
-      <c r="B61" s="49" t="s">
+      <c r="A61" s="67"/>
+      <c r="B61" s="45" t="s">
         <v>11</v>
       </c>
       <c r="C61">
@@ -6041,8 +6048,8 @@
       </c>
     </row>
     <row r="62" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A62" s="71"/>
-      <c r="B62" s="49" t="s">
+      <c r="A62" s="67"/>
+      <c r="B62" s="45" t="s">
         <v>12</v>
       </c>
       <c r="C62">
@@ -6098,8 +6105,8 @@
       </c>
     </row>
     <row r="63" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A63" s="71"/>
-      <c r="B63" s="49" t="s">
+      <c r="A63" s="67"/>
+      <c r="B63" s="45" t="s">
         <v>13</v>
       </c>
       <c r="C63">
@@ -6155,8 +6162,8 @@
       </c>
     </row>
     <row r="64" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A64" s="71"/>
-      <c r="B64" s="49" t="s">
+      <c r="A64" s="67"/>
+      <c r="B64" s="45" t="s">
         <v>14</v>
       </c>
       <c r="C64">
@@ -6212,8 +6219,8 @@
       </c>
     </row>
     <row r="65" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A65" s="71"/>
-      <c r="B65" s="49" t="s">
+      <c r="A65" s="67"/>
+      <c r="B65" s="45" t="s">
         <v>15</v>
       </c>
       <c r="C65">
@@ -6269,10 +6276,10 @@
       </c>
     </row>
     <row r="66" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A66" s="71" t="s">
+      <c r="A66" s="67" t="s">
         <v>86</v>
       </c>
-      <c r="B66" s="49" t="s">
+      <c r="B66" s="45" t="s">
         <v>0</v>
       </c>
       <c r="C66">
@@ -6328,8 +6335,8 @@
       </c>
     </row>
     <row r="67" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A67" s="71"/>
-      <c r="B67" s="49" t="s">
+      <c r="A67" s="67"/>
+      <c r="B67" s="45" t="s">
         <v>1</v>
       </c>
       <c r="C67">
@@ -6385,8 +6392,8 @@
       </c>
     </row>
     <row r="68" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A68" s="71"/>
-      <c r="B68" s="49" t="s">
+      <c r="A68" s="67"/>
+      <c r="B68" s="45" t="s">
         <v>2</v>
       </c>
       <c r="C68">
@@ -6442,8 +6449,8 @@
       </c>
     </row>
     <row r="69" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A69" s="71"/>
-      <c r="B69" s="49" t="s">
+      <c r="A69" s="67"/>
+      <c r="B69" s="45" t="s">
         <v>3</v>
       </c>
       <c r="C69">
@@ -6499,8 +6506,8 @@
       </c>
     </row>
     <row r="70" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A70" s="71"/>
-      <c r="B70" s="49" t="s">
+      <c r="A70" s="67"/>
+      <c r="B70" s="45" t="s">
         <v>4</v>
       </c>
       <c r="C70">
@@ -6556,8 +6563,8 @@
       </c>
     </row>
     <row r="71" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A71" s="71"/>
-      <c r="B71" s="49" t="s">
+      <c r="A71" s="67"/>
+      <c r="B71" s="45" t="s">
         <v>5</v>
       </c>
       <c r="C71">
@@ -6613,8 +6620,8 @@
       </c>
     </row>
     <row r="72" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A72" s="71"/>
-      <c r="B72" s="49" t="s">
+      <c r="A72" s="67"/>
+      <c r="B72" s="45" t="s">
         <v>6</v>
       </c>
       <c r="C72">
@@ -6670,8 +6677,8 @@
       </c>
     </row>
     <row r="73" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A73" s="71"/>
-      <c r="B73" s="49" t="s">
+      <c r="A73" s="67"/>
+      <c r="B73" s="45" t="s">
         <v>7</v>
       </c>
       <c r="C73">
@@ -6727,8 +6734,8 @@
       </c>
     </row>
     <row r="74" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A74" s="71"/>
-      <c r="B74" s="49" t="s">
+      <c r="A74" s="67"/>
+      <c r="B74" s="45" t="s">
         <v>8</v>
       </c>
       <c r="C74">
@@ -6784,8 +6791,8 @@
       </c>
     </row>
     <row r="75" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A75" s="71"/>
-      <c r="B75" s="49" t="s">
+      <c r="A75" s="67"/>
+      <c r="B75" s="45" t="s">
         <v>9</v>
       </c>
       <c r="C75">
@@ -6841,8 +6848,8 @@
       </c>
     </row>
     <row r="76" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A76" s="71"/>
-      <c r="B76" s="49" t="s">
+      <c r="A76" s="67"/>
+      <c r="B76" s="45" t="s">
         <v>10</v>
       </c>
       <c r="C76">
@@ -6898,8 +6905,8 @@
       </c>
     </row>
     <row r="77" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A77" s="71"/>
-      <c r="B77" s="49" t="s">
+      <c r="A77" s="67"/>
+      <c r="B77" s="45" t="s">
         <v>11</v>
       </c>
       <c r="C77">
@@ -6955,8 +6962,8 @@
       </c>
     </row>
     <row r="78" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A78" s="71"/>
-      <c r="B78" s="49" t="s">
+      <c r="A78" s="67"/>
+      <c r="B78" s="45" t="s">
         <v>12</v>
       </c>
       <c r="C78">
@@ -7012,8 +7019,8 @@
       </c>
     </row>
     <row r="79" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A79" s="71"/>
-      <c r="B79" s="49" t="s">
+      <c r="A79" s="67"/>
+      <c r="B79" s="45" t="s">
         <v>13</v>
       </c>
       <c r="C79">
@@ -7069,8 +7076,8 @@
       </c>
     </row>
     <row r="80" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A80" s="71"/>
-      <c r="B80" s="49" t="s">
+      <c r="A80" s="67"/>
+      <c r="B80" s="45" t="s">
         <v>14</v>
       </c>
       <c r="C80">
@@ -7126,8 +7133,8 @@
       </c>
     </row>
     <row r="81" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A81" s="71"/>
-      <c r="B81" s="49" t="s">
+      <c r="A81" s="67"/>
+      <c r="B81" s="45" t="s">
         <v>15</v>
       </c>
       <c r="C81">
@@ -7267,10 +7274,10 @@
       </c>
     </row>
     <row r="2" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A2" s="71" t="s">
+      <c r="A2" s="67" t="s">
         <v>84</v>
       </c>
-      <c r="B2" s="49" t="s">
+      <c r="B2" s="45" t="s">
         <v>0</v>
       </c>
       <c r="C2">
@@ -7326,8 +7333,8 @@
       </c>
     </row>
     <row r="3" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A3" s="71"/>
-      <c r="B3" s="49" t="s">
+      <c r="A3" s="67"/>
+      <c r="B3" s="45" t="s">
         <v>1</v>
       </c>
       <c r="C3">
@@ -7383,8 +7390,8 @@
       </c>
     </row>
     <row r="4" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A4" s="71"/>
-      <c r="B4" s="49" t="s">
+      <c r="A4" s="67"/>
+      <c r="B4" s="45" t="s">
         <v>2</v>
       </c>
       <c r="C4">
@@ -7440,8 +7447,8 @@
       </c>
     </row>
     <row r="5" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A5" s="71"/>
-      <c r="B5" s="49" t="s">
+      <c r="A5" s="67"/>
+      <c r="B5" s="45" t="s">
         <v>3</v>
       </c>
       <c r="C5">
@@ -7497,8 +7504,8 @@
       </c>
     </row>
     <row r="6" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A6" s="71"/>
-      <c r="B6" s="49" t="s">
+      <c r="A6" s="67"/>
+      <c r="B6" s="45" t="s">
         <v>4</v>
       </c>
       <c r="C6">
@@ -7554,8 +7561,8 @@
       </c>
     </row>
     <row r="7" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A7" s="71"/>
-      <c r="B7" s="49" t="s">
+      <c r="A7" s="67"/>
+      <c r="B7" s="45" t="s">
         <v>5</v>
       </c>
       <c r="C7">
@@ -7611,8 +7618,8 @@
       </c>
     </row>
     <row r="8" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A8" s="71"/>
-      <c r="B8" s="49" t="s">
+      <c r="A8" s="67"/>
+      <c r="B8" s="45" t="s">
         <v>6</v>
       </c>
       <c r="C8">
@@ -7668,8 +7675,8 @@
       </c>
     </row>
     <row r="9" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A9" s="71"/>
-      <c r="B9" s="49" t="s">
+      <c r="A9" s="67"/>
+      <c r="B9" s="45" t="s">
         <v>7</v>
       </c>
       <c r="C9">
@@ -7725,8 +7732,8 @@
       </c>
     </row>
     <row r="10" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A10" s="71"/>
-      <c r="B10" s="49" t="s">
+      <c r="A10" s="67"/>
+      <c r="B10" s="45" t="s">
         <v>8</v>
       </c>
       <c r="C10">
@@ -7782,8 +7789,8 @@
       </c>
     </row>
     <row r="11" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A11" s="71"/>
-      <c r="B11" s="49" t="s">
+      <c r="A11" s="67"/>
+      <c r="B11" s="45" t="s">
         <v>9</v>
       </c>
       <c r="C11">
@@ -7839,8 +7846,8 @@
       </c>
     </row>
     <row r="12" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A12" s="71"/>
-      <c r="B12" s="49" t="s">
+      <c r="A12" s="67"/>
+      <c r="B12" s="45" t="s">
         <v>10</v>
       </c>
       <c r="C12">
@@ -7896,8 +7903,8 @@
       </c>
     </row>
     <row r="13" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A13" s="71"/>
-      <c r="B13" s="49" t="s">
+      <c r="A13" s="67"/>
+      <c r="B13" s="45" t="s">
         <v>11</v>
       </c>
       <c r="C13">
@@ -7953,8 +7960,8 @@
       </c>
     </row>
     <row r="14" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A14" s="71"/>
-      <c r="B14" s="49" t="s">
+      <c r="A14" s="67"/>
+      <c r="B14" s="45" t="s">
         <v>12</v>
       </c>
       <c r="C14">
@@ -8010,8 +8017,8 @@
       </c>
     </row>
     <row r="15" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A15" s="71"/>
-      <c r="B15" s="49" t="s">
+      <c r="A15" s="67"/>
+      <c r="B15" s="45" t="s">
         <v>13</v>
       </c>
       <c r="C15">
@@ -8067,8 +8074,8 @@
       </c>
     </row>
     <row r="16" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A16" s="71"/>
-      <c r="B16" s="49" t="s">
+      <c r="A16" s="67"/>
+      <c r="B16" s="45" t="s">
         <v>14</v>
       </c>
       <c r="C16">
@@ -8124,8 +8131,8 @@
       </c>
     </row>
     <row r="17" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A17" s="71"/>
-      <c r="B17" s="49" t="s">
+      <c r="A17" s="67"/>
+      <c r="B17" s="45" t="s">
         <v>15</v>
       </c>
       <c r="C17">
@@ -8181,10 +8188,10 @@
       </c>
     </row>
     <row r="18" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A18" s="71" t="s">
-        <v>92</v>
-      </c>
-      <c r="B18" s="49" t="s">
+      <c r="A18" s="67" t="s">
+        <v>88</v>
+      </c>
+      <c r="B18" s="45" t="s">
         <v>0</v>
       </c>
       <c r="C18">
@@ -8240,8 +8247,8 @@
       </c>
     </row>
     <row r="19" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A19" s="71"/>
-      <c r="B19" s="49" t="s">
+      <c r="A19" s="67"/>
+      <c r="B19" s="45" t="s">
         <v>1</v>
       </c>
       <c r="C19">
@@ -8297,8 +8304,8 @@
       </c>
     </row>
     <row r="20" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A20" s="71"/>
-      <c r="B20" s="49" t="s">
+      <c r="A20" s="67"/>
+      <c r="B20" s="45" t="s">
         <v>2</v>
       </c>
       <c r="C20">
@@ -8354,8 +8361,8 @@
       </c>
     </row>
     <row r="21" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A21" s="71"/>
-      <c r="B21" s="49" t="s">
+      <c r="A21" s="67"/>
+      <c r="B21" s="45" t="s">
         <v>3</v>
       </c>
       <c r="C21">
@@ -8411,8 +8418,8 @@
       </c>
     </row>
     <row r="22" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A22" s="71"/>
-      <c r="B22" s="49" t="s">
+      <c r="A22" s="67"/>
+      <c r="B22" s="45" t="s">
         <v>4</v>
       </c>
       <c r="C22">
@@ -8468,8 +8475,8 @@
       </c>
     </row>
     <row r="23" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A23" s="71"/>
-      <c r="B23" s="49" t="s">
+      <c r="A23" s="67"/>
+      <c r="B23" s="45" t="s">
         <v>5</v>
       </c>
       <c r="C23">
@@ -8525,8 +8532,8 @@
       </c>
     </row>
     <row r="24" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A24" s="71"/>
-      <c r="B24" s="49" t="s">
+      <c r="A24" s="67"/>
+      <c r="B24" s="45" t="s">
         <v>6</v>
       </c>
       <c r="C24">
@@ -8582,8 +8589,8 @@
       </c>
     </row>
     <row r="25" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A25" s="71"/>
-      <c r="B25" s="49" t="s">
+      <c r="A25" s="67"/>
+      <c r="B25" s="45" t="s">
         <v>7</v>
       </c>
       <c r="C25">
@@ -8639,8 +8646,8 @@
       </c>
     </row>
     <row r="26" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A26" s="71"/>
-      <c r="B26" s="49" t="s">
+      <c r="A26" s="67"/>
+      <c r="B26" s="45" t="s">
         <v>8</v>
       </c>
       <c r="C26">
@@ -8696,8 +8703,8 @@
       </c>
     </row>
     <row r="27" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A27" s="71"/>
-      <c r="B27" s="49" t="s">
+      <c r="A27" s="67"/>
+      <c r="B27" s="45" t="s">
         <v>9</v>
       </c>
       <c r="C27">
@@ -8753,8 +8760,8 @@
       </c>
     </row>
     <row r="28" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A28" s="71"/>
-      <c r="B28" s="49" t="s">
+      <c r="A28" s="67"/>
+      <c r="B28" s="45" t="s">
         <v>10</v>
       </c>
       <c r="C28">
@@ -8810,8 +8817,8 @@
       </c>
     </row>
     <row r="29" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A29" s="71"/>
-      <c r="B29" s="49" t="s">
+      <c r="A29" s="67"/>
+      <c r="B29" s="45" t="s">
         <v>11</v>
       </c>
       <c r="C29">
@@ -8867,8 +8874,8 @@
       </c>
     </row>
     <row r="30" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A30" s="71"/>
-      <c r="B30" s="49" t="s">
+      <c r="A30" s="67"/>
+      <c r="B30" s="45" t="s">
         <v>12</v>
       </c>
       <c r="C30">
@@ -8924,8 +8931,8 @@
       </c>
     </row>
     <row r="31" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A31" s="71"/>
-      <c r="B31" s="49" t="s">
+      <c r="A31" s="67"/>
+      <c r="B31" s="45" t="s">
         <v>13</v>
       </c>
       <c r="C31">
@@ -8981,8 +8988,8 @@
       </c>
     </row>
     <row r="32" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A32" s="71"/>
-      <c r="B32" s="49" t="s">
+      <c r="A32" s="67"/>
+      <c r="B32" s="45" t="s">
         <v>14</v>
       </c>
       <c r="C32">
@@ -9038,8 +9045,8 @@
       </c>
     </row>
     <row r="33" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A33" s="71"/>
-      <c r="B33" s="49" t="s">
+      <c r="A33" s="67"/>
+      <c r="B33" s="45" t="s">
         <v>15</v>
       </c>
       <c r="C33">
@@ -9095,10 +9102,10 @@
       </c>
     </row>
     <row r="34" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A34" s="71" t="s">
+      <c r="A34" s="67" t="s">
         <v>87</v>
       </c>
-      <c r="B34" s="49" t="s">
+      <c r="B34" s="45" t="s">
         <v>0</v>
       </c>
       <c r="C34">
@@ -9154,8 +9161,8 @@
       </c>
     </row>
     <row r="35" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A35" s="71"/>
-      <c r="B35" s="49" t="s">
+      <c r="A35" s="67"/>
+      <c r="B35" s="45" t="s">
         <v>1</v>
       </c>
       <c r="C35">
@@ -9211,8 +9218,8 @@
       </c>
     </row>
     <row r="36" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A36" s="71"/>
-      <c r="B36" s="49" t="s">
+      <c r="A36" s="67"/>
+      <c r="B36" s="45" t="s">
         <v>2</v>
       </c>
       <c r="C36">
@@ -9268,8 +9275,8 @@
       </c>
     </row>
     <row r="37" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A37" s="71"/>
-      <c r="B37" s="49" t="s">
+      <c r="A37" s="67"/>
+      <c r="B37" s="45" t="s">
         <v>3</v>
       </c>
       <c r="C37">
@@ -9325,8 +9332,8 @@
       </c>
     </row>
     <row r="38" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A38" s="71"/>
-      <c r="B38" s="49" t="s">
+      <c r="A38" s="67"/>
+      <c r="B38" s="45" t="s">
         <v>4</v>
       </c>
       <c r="C38">
@@ -9382,8 +9389,8 @@
       </c>
     </row>
     <row r="39" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A39" s="71"/>
-      <c r="B39" s="49" t="s">
+      <c r="A39" s="67"/>
+      <c r="B39" s="45" t="s">
         <v>5</v>
       </c>
       <c r="C39">
@@ -9439,8 +9446,8 @@
       </c>
     </row>
     <row r="40" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A40" s="71"/>
-      <c r="B40" s="49" t="s">
+      <c r="A40" s="67"/>
+      <c r="B40" s="45" t="s">
         <v>6</v>
       </c>
       <c r="C40">
@@ -9496,8 +9503,8 @@
       </c>
     </row>
     <row r="41" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A41" s="71"/>
-      <c r="B41" s="49" t="s">
+      <c r="A41" s="67"/>
+      <c r="B41" s="45" t="s">
         <v>7</v>
       </c>
       <c r="C41">
@@ -9553,8 +9560,8 @@
       </c>
     </row>
     <row r="42" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A42" s="71"/>
-      <c r="B42" s="49" t="s">
+      <c r="A42" s="67"/>
+      <c r="B42" s="45" t="s">
         <v>8</v>
       </c>
       <c r="C42">
@@ -9610,8 +9617,8 @@
       </c>
     </row>
     <row r="43" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A43" s="71"/>
-      <c r="B43" s="49" t="s">
+      <c r="A43" s="67"/>
+      <c r="B43" s="45" t="s">
         <v>9</v>
       </c>
       <c r="C43">
@@ -9667,8 +9674,8 @@
       </c>
     </row>
     <row r="44" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A44" s="71"/>
-      <c r="B44" s="49" t="s">
+      <c r="A44" s="67"/>
+      <c r="B44" s="45" t="s">
         <v>10</v>
       </c>
       <c r="C44">
@@ -9724,8 +9731,8 @@
       </c>
     </row>
     <row r="45" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A45" s="71"/>
-      <c r="B45" s="49" t="s">
+      <c r="A45" s="67"/>
+      <c r="B45" s="45" t="s">
         <v>11</v>
       </c>
       <c r="C45">
@@ -9781,8 +9788,8 @@
       </c>
     </row>
     <row r="46" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A46" s="71"/>
-      <c r="B46" s="49" t="s">
+      <c r="A46" s="67"/>
+      <c r="B46" s="45" t="s">
         <v>12</v>
       </c>
       <c r="C46">
@@ -9838,8 +9845,8 @@
       </c>
     </row>
     <row r="47" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A47" s="71"/>
-      <c r="B47" s="49" t="s">
+      <c r="A47" s="67"/>
+      <c r="B47" s="45" t="s">
         <v>13</v>
       </c>
       <c r="C47">
@@ -9895,8 +9902,8 @@
       </c>
     </row>
     <row r="48" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A48" s="71"/>
-      <c r="B48" s="49" t="s">
+      <c r="A48" s="67"/>
+      <c r="B48" s="45" t="s">
         <v>14</v>
       </c>
       <c r="C48">
@@ -9952,8 +9959,8 @@
       </c>
     </row>
     <row r="49" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A49" s="71"/>
-      <c r="B49" s="49" t="s">
+      <c r="A49" s="67"/>
+      <c r="B49" s="45" t="s">
         <v>15</v>
       </c>
       <c r="C49">
@@ -10009,10 +10016,10 @@
       </c>
     </row>
     <row r="50" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A50" s="71" t="s">
+      <c r="A50" s="67" t="s">
         <v>85</v>
       </c>
-      <c r="B50" s="49" t="s">
+      <c r="B50" s="45" t="s">
         <v>0</v>
       </c>
       <c r="C50">
@@ -10068,8 +10075,8 @@
       </c>
     </row>
     <row r="51" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A51" s="71"/>
-      <c r="B51" s="49" t="s">
+      <c r="A51" s="67"/>
+      <c r="B51" s="45" t="s">
         <v>1</v>
       </c>
       <c r="C51">
@@ -10125,8 +10132,8 @@
       </c>
     </row>
     <row r="52" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A52" s="71"/>
-      <c r="B52" s="49" t="s">
+      <c r="A52" s="67"/>
+      <c r="B52" s="45" t="s">
         <v>2</v>
       </c>
       <c r="C52">
@@ -10182,8 +10189,8 @@
       </c>
     </row>
     <row r="53" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A53" s="71"/>
-      <c r="B53" s="49" t="s">
+      <c r="A53" s="67"/>
+      <c r="B53" s="45" t="s">
         <v>3</v>
       </c>
       <c r="C53">
@@ -10239,8 +10246,8 @@
       </c>
     </row>
     <row r="54" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A54" s="71"/>
-      <c r="B54" s="49" t="s">
+      <c r="A54" s="67"/>
+      <c r="B54" s="45" t="s">
         <v>4</v>
       </c>
       <c r="C54">
@@ -10296,8 +10303,8 @@
       </c>
     </row>
     <row r="55" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A55" s="71"/>
-      <c r="B55" s="49" t="s">
+      <c r="A55" s="67"/>
+      <c r="B55" s="45" t="s">
         <v>5</v>
       </c>
       <c r="C55">
@@ -10353,8 +10360,8 @@
       </c>
     </row>
     <row r="56" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A56" s="71"/>
-      <c r="B56" s="49" t="s">
+      <c r="A56" s="67"/>
+      <c r="B56" s="45" t="s">
         <v>6</v>
       </c>
       <c r="C56">
@@ -10410,8 +10417,8 @@
       </c>
     </row>
     <row r="57" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A57" s="71"/>
-      <c r="B57" s="49" t="s">
+      <c r="A57" s="67"/>
+      <c r="B57" s="45" t="s">
         <v>7</v>
       </c>
       <c r="C57">
@@ -10467,8 +10474,8 @@
       </c>
     </row>
     <row r="58" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A58" s="71"/>
-      <c r="B58" s="49" t="s">
+      <c r="A58" s="67"/>
+      <c r="B58" s="45" t="s">
         <v>8</v>
       </c>
       <c r="C58">
@@ -10524,8 +10531,8 @@
       </c>
     </row>
     <row r="59" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A59" s="71"/>
-      <c r="B59" s="49" t="s">
+      <c r="A59" s="67"/>
+      <c r="B59" s="45" t="s">
         <v>9</v>
       </c>
       <c r="C59">
@@ -10581,8 +10588,8 @@
       </c>
     </row>
     <row r="60" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A60" s="71"/>
-      <c r="B60" s="49" t="s">
+      <c r="A60" s="67"/>
+      <c r="B60" s="45" t="s">
         <v>10</v>
       </c>
       <c r="C60">
@@ -10638,8 +10645,8 @@
       </c>
     </row>
     <row r="61" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A61" s="71"/>
-      <c r="B61" s="49" t="s">
+      <c r="A61" s="67"/>
+      <c r="B61" s="45" t="s">
         <v>11</v>
       </c>
       <c r="C61">
@@ -10695,8 +10702,8 @@
       </c>
     </row>
     <row r="62" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A62" s="71"/>
-      <c r="B62" s="49" t="s">
+      <c r="A62" s="67"/>
+      <c r="B62" s="45" t="s">
         <v>12</v>
       </c>
       <c r="C62">
@@ -10752,8 +10759,8 @@
       </c>
     </row>
     <row r="63" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A63" s="71"/>
-      <c r="B63" s="49" t="s">
+      <c r="A63" s="67"/>
+      <c r="B63" s="45" t="s">
         <v>13</v>
       </c>
       <c r="C63">
@@ -10809,8 +10816,8 @@
       </c>
     </row>
     <row r="64" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A64" s="71"/>
-      <c r="B64" s="49" t="s">
+      <c r="A64" s="67"/>
+      <c r="B64" s="45" t="s">
         <v>14</v>
       </c>
       <c r="C64">
@@ -10866,8 +10873,8 @@
       </c>
     </row>
     <row r="65" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A65" s="71"/>
-      <c r="B65" s="49" t="s">
+      <c r="A65" s="67"/>
+      <c r="B65" s="45" t="s">
         <v>15</v>
       </c>
       <c r="C65">
@@ -10923,10 +10930,10 @@
       </c>
     </row>
     <row r="66" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A66" s="71" t="s">
+      <c r="A66" s="67" t="s">
         <v>86</v>
       </c>
-      <c r="B66" s="49" t="s">
+      <c r="B66" s="45" t="s">
         <v>0</v>
       </c>
       <c r="C66">
@@ -10982,8 +10989,8 @@
       </c>
     </row>
     <row r="67" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A67" s="71"/>
-      <c r="B67" s="49" t="s">
+      <c r="A67" s="67"/>
+      <c r="B67" s="45" t="s">
         <v>1</v>
       </c>
       <c r="C67">
@@ -11039,8 +11046,8 @@
       </c>
     </row>
     <row r="68" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A68" s="71"/>
-      <c r="B68" s="49" t="s">
+      <c r="A68" s="67"/>
+      <c r="B68" s="45" t="s">
         <v>2</v>
       </c>
       <c r="C68">
@@ -11096,8 +11103,8 @@
       </c>
     </row>
     <row r="69" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A69" s="71"/>
-      <c r="B69" s="49" t="s">
+      <c r="A69" s="67"/>
+      <c r="B69" s="45" t="s">
         <v>3</v>
       </c>
       <c r="C69">
@@ -11153,8 +11160,8 @@
       </c>
     </row>
     <row r="70" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A70" s="71"/>
-      <c r="B70" s="49" t="s">
+      <c r="A70" s="67"/>
+      <c r="B70" s="45" t="s">
         <v>4</v>
       </c>
       <c r="C70">
@@ -11210,8 +11217,8 @@
       </c>
     </row>
     <row r="71" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A71" s="71"/>
-      <c r="B71" s="49" t="s">
+      <c r="A71" s="67"/>
+      <c r="B71" s="45" t="s">
         <v>5</v>
       </c>
       <c r="C71">
@@ -11267,8 +11274,8 @@
       </c>
     </row>
     <row r="72" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A72" s="71"/>
-      <c r="B72" s="49" t="s">
+      <c r="A72" s="67"/>
+      <c r="B72" s="45" t="s">
         <v>6</v>
       </c>
       <c r="C72">
@@ -11324,8 +11331,8 @@
       </c>
     </row>
     <row r="73" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A73" s="71"/>
-      <c r="B73" s="49" t="s">
+      <c r="A73" s="67"/>
+      <c r="B73" s="45" t="s">
         <v>7</v>
       </c>
       <c r="C73">
@@ -11381,8 +11388,8 @@
       </c>
     </row>
     <row r="74" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A74" s="71"/>
-      <c r="B74" s="49" t="s">
+      <c r="A74" s="67"/>
+      <c r="B74" s="45" t="s">
         <v>8</v>
       </c>
       <c r="C74">
@@ -11438,8 +11445,8 @@
       </c>
     </row>
     <row r="75" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A75" s="71"/>
-      <c r="B75" s="49" t="s">
+      <c r="A75" s="67"/>
+      <c r="B75" s="45" t="s">
         <v>9</v>
       </c>
       <c r="C75">
@@ -11495,8 +11502,8 @@
       </c>
     </row>
     <row r="76" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A76" s="71"/>
-      <c r="B76" s="49" t="s">
+      <c r="A76" s="67"/>
+      <c r="B76" s="45" t="s">
         <v>10</v>
       </c>
       <c r="C76">
@@ -11552,8 +11559,8 @@
       </c>
     </row>
     <row r="77" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A77" s="71"/>
-      <c r="B77" s="49" t="s">
+      <c r="A77" s="67"/>
+      <c r="B77" s="45" t="s">
         <v>11</v>
       </c>
       <c r="C77">
@@ -11609,8 +11616,8 @@
       </c>
     </row>
     <row r="78" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A78" s="71"/>
-      <c r="B78" s="49" t="s">
+      <c r="A78" s="67"/>
+      <c r="B78" s="45" t="s">
         <v>12</v>
       </c>
       <c r="C78">
@@ -11666,8 +11673,8 @@
       </c>
     </row>
     <row r="79" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A79" s="71"/>
-      <c r="B79" s="49" t="s">
+      <c r="A79" s="67"/>
+      <c r="B79" s="45" t="s">
         <v>13</v>
       </c>
       <c r="C79">
@@ -11723,8 +11730,8 @@
       </c>
     </row>
     <row r="80" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A80" s="71"/>
-      <c r="B80" s="49" t="s">
+      <c r="A80" s="67"/>
+      <c r="B80" s="45" t="s">
         <v>14</v>
       </c>
       <c r="C80">
@@ -11780,8 +11787,8 @@
       </c>
     </row>
     <row r="81" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A81" s="71"/>
-      <c r="B81" s="49" t="s">
+      <c r="A81" s="67"/>
+      <c r="B81" s="45" t="s">
         <v>15</v>
       </c>
       <c r="C81">
@@ -11921,10 +11928,10 @@
       </c>
     </row>
     <row r="2" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A2" s="71" t="s">
+      <c r="A2" s="67" t="s">
         <v>84</v>
       </c>
-      <c r="B2" s="49" t="s">
+      <c r="B2" s="45" t="s">
         <v>0</v>
       </c>
       <c r="C2">
@@ -11980,8 +11987,8 @@
       </c>
     </row>
     <row r="3" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A3" s="71"/>
-      <c r="B3" s="49" t="s">
+      <c r="A3" s="67"/>
+      <c r="B3" s="45" t="s">
         <v>1</v>
       </c>
       <c r="C3">
@@ -12037,8 +12044,8 @@
       </c>
     </row>
     <row r="4" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A4" s="71"/>
-      <c r="B4" s="49" t="s">
+      <c r="A4" s="67"/>
+      <c r="B4" s="45" t="s">
         <v>2</v>
       </c>
       <c r="C4">
@@ -12094,8 +12101,8 @@
       </c>
     </row>
     <row r="5" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A5" s="71"/>
-      <c r="B5" s="49" t="s">
+      <c r="A5" s="67"/>
+      <c r="B5" s="45" t="s">
         <v>3</v>
       </c>
       <c r="C5">
@@ -12151,8 +12158,8 @@
       </c>
     </row>
     <row r="6" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A6" s="71"/>
-      <c r="B6" s="49" t="s">
+      <c r="A6" s="67"/>
+      <c r="B6" s="45" t="s">
         <v>4</v>
       </c>
       <c r="C6">
@@ -12208,8 +12215,8 @@
       </c>
     </row>
     <row r="7" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A7" s="71"/>
-      <c r="B7" s="49" t="s">
+      <c r="A7" s="67"/>
+      <c r="B7" s="45" t="s">
         <v>5</v>
       </c>
       <c r="C7">
@@ -12265,8 +12272,8 @@
       </c>
     </row>
     <row r="8" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A8" s="71"/>
-      <c r="B8" s="49" t="s">
+      <c r="A8" s="67"/>
+      <c r="B8" s="45" t="s">
         <v>6</v>
       </c>
       <c r="C8">
@@ -12322,8 +12329,8 @@
       </c>
     </row>
     <row r="9" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A9" s="71"/>
-      <c r="B9" s="49" t="s">
+      <c r="A9" s="67"/>
+      <c r="B9" s="45" t="s">
         <v>7</v>
       </c>
       <c r="C9">
@@ -12379,8 +12386,8 @@
       </c>
     </row>
     <row r="10" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A10" s="71"/>
-      <c r="B10" s="49" t="s">
+      <c r="A10" s="67"/>
+      <c r="B10" s="45" t="s">
         <v>8</v>
       </c>
       <c r="C10">
@@ -12436,8 +12443,8 @@
       </c>
     </row>
     <row r="11" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A11" s="71"/>
-      <c r="B11" s="49" t="s">
+      <c r="A11" s="67"/>
+      <c r="B11" s="45" t="s">
         <v>9</v>
       </c>
       <c r="C11">
@@ -12493,8 +12500,8 @@
       </c>
     </row>
     <row r="12" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A12" s="71"/>
-      <c r="B12" s="49" t="s">
+      <c r="A12" s="67"/>
+      <c r="B12" s="45" t="s">
         <v>10</v>
       </c>
       <c r="C12">
@@ -12550,8 +12557,8 @@
       </c>
     </row>
     <row r="13" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A13" s="71"/>
-      <c r="B13" s="49" t="s">
+      <c r="A13" s="67"/>
+      <c r="B13" s="45" t="s">
         <v>11</v>
       </c>
       <c r="C13">
@@ -12607,8 +12614,8 @@
       </c>
     </row>
     <row r="14" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A14" s="71"/>
-      <c r="B14" s="49" t="s">
+      <c r="A14" s="67"/>
+      <c r="B14" s="45" t="s">
         <v>12</v>
       </c>
       <c r="C14">
@@ -12664,8 +12671,8 @@
       </c>
     </row>
     <row r="15" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A15" s="71"/>
-      <c r="B15" s="49" t="s">
+      <c r="A15" s="67"/>
+      <c r="B15" s="45" t="s">
         <v>13</v>
       </c>
       <c r="C15">
@@ -12721,8 +12728,8 @@
       </c>
     </row>
     <row r="16" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A16" s="71"/>
-      <c r="B16" s="49" t="s">
+      <c r="A16" s="67"/>
+      <c r="B16" s="45" t="s">
         <v>14</v>
       </c>
       <c r="C16">
@@ -12778,8 +12785,8 @@
       </c>
     </row>
     <row r="17" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A17" s="71"/>
-      <c r="B17" s="49" t="s">
+      <c r="A17" s="67"/>
+      <c r="B17" s="45" t="s">
         <v>15</v>
       </c>
       <c r="C17">
@@ -12835,10 +12842,10 @@
       </c>
     </row>
     <row r="18" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A18" s="71" t="s">
-        <v>92</v>
-      </c>
-      <c r="B18" s="49" t="s">
+      <c r="A18" s="67" t="s">
+        <v>88</v>
+      </c>
+      <c r="B18" s="45" t="s">
         <v>0</v>
       </c>
       <c r="C18">
@@ -12894,8 +12901,8 @@
       </c>
     </row>
     <row r="19" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A19" s="71"/>
-      <c r="B19" s="49" t="s">
+      <c r="A19" s="67"/>
+      <c r="B19" s="45" t="s">
         <v>1</v>
       </c>
       <c r="C19">
@@ -12951,8 +12958,8 @@
       </c>
     </row>
     <row r="20" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A20" s="71"/>
-      <c r="B20" s="49" t="s">
+      <c r="A20" s="67"/>
+      <c r="B20" s="45" t="s">
         <v>2</v>
       </c>
       <c r="C20">
@@ -13008,8 +13015,8 @@
       </c>
     </row>
     <row r="21" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A21" s="71"/>
-      <c r="B21" s="49" t="s">
+      <c r="A21" s="67"/>
+      <c r="B21" s="45" t="s">
         <v>3</v>
       </c>
       <c r="C21">
@@ -13065,8 +13072,8 @@
       </c>
     </row>
     <row r="22" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A22" s="71"/>
-      <c r="B22" s="49" t="s">
+      <c r="A22" s="67"/>
+      <c r="B22" s="45" t="s">
         <v>4</v>
       </c>
       <c r="C22">
@@ -13122,8 +13129,8 @@
       </c>
     </row>
     <row r="23" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A23" s="71"/>
-      <c r="B23" s="49" t="s">
+      <c r="A23" s="67"/>
+      <c r="B23" s="45" t="s">
         <v>5</v>
       </c>
       <c r="C23">
@@ -13179,8 +13186,8 @@
       </c>
     </row>
     <row r="24" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A24" s="71"/>
-      <c r="B24" s="49" t="s">
+      <c r="A24" s="67"/>
+      <c r="B24" s="45" t="s">
         <v>6</v>
       </c>
       <c r="C24">
@@ -13236,8 +13243,8 @@
       </c>
     </row>
     <row r="25" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A25" s="71"/>
-      <c r="B25" s="49" t="s">
+      <c r="A25" s="67"/>
+      <c r="B25" s="45" t="s">
         <v>7</v>
       </c>
       <c r="C25">
@@ -13293,8 +13300,8 @@
       </c>
     </row>
     <row r="26" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A26" s="71"/>
-      <c r="B26" s="49" t="s">
+      <c r="A26" s="67"/>
+      <c r="B26" s="45" t="s">
         <v>8</v>
       </c>
       <c r="C26">
@@ -13350,8 +13357,8 @@
       </c>
     </row>
     <row r="27" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A27" s="71"/>
-      <c r="B27" s="49" t="s">
+      <c r="A27" s="67"/>
+      <c r="B27" s="45" t="s">
         <v>9</v>
       </c>
       <c r="C27">
@@ -13407,8 +13414,8 @@
       </c>
     </row>
     <row r="28" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A28" s="71"/>
-      <c r="B28" s="49" t="s">
+      <c r="A28" s="67"/>
+      <c r="B28" s="45" t="s">
         <v>10</v>
       </c>
       <c r="C28">
@@ -13464,8 +13471,8 @@
       </c>
     </row>
     <row r="29" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A29" s="71"/>
-      <c r="B29" s="49" t="s">
+      <c r="A29" s="67"/>
+      <c r="B29" s="45" t="s">
         <v>11</v>
       </c>
       <c r="C29">
@@ -13521,8 +13528,8 @@
       </c>
     </row>
     <row r="30" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A30" s="71"/>
-      <c r="B30" s="49" t="s">
+      <c r="A30" s="67"/>
+      <c r="B30" s="45" t="s">
         <v>12</v>
       </c>
       <c r="C30">
@@ -13578,8 +13585,8 @@
       </c>
     </row>
     <row r="31" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A31" s="71"/>
-      <c r="B31" s="49" t="s">
+      <c r="A31" s="67"/>
+      <c r="B31" s="45" t="s">
         <v>13</v>
       </c>
       <c r="C31">
@@ -13635,8 +13642,8 @@
       </c>
     </row>
     <row r="32" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A32" s="71"/>
-      <c r="B32" s="49" t="s">
+      <c r="A32" s="67"/>
+      <c r="B32" s="45" t="s">
         <v>14</v>
       </c>
       <c r="C32">
@@ -13692,8 +13699,8 @@
       </c>
     </row>
     <row r="33" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A33" s="71"/>
-      <c r="B33" s="49" t="s">
+      <c r="A33" s="67"/>
+      <c r="B33" s="45" t="s">
         <v>15</v>
       </c>
       <c r="C33">
@@ -13749,10 +13756,10 @@
       </c>
     </row>
     <row r="34" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A34" s="71" t="s">
+      <c r="A34" s="67" t="s">
         <v>87</v>
       </c>
-      <c r="B34" s="49" t="s">
+      <c r="B34" s="45" t="s">
         <v>0</v>
       </c>
       <c r="C34">
@@ -13808,8 +13815,8 @@
       </c>
     </row>
     <row r="35" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A35" s="71"/>
-      <c r="B35" s="49" t="s">
+      <c r="A35" s="67"/>
+      <c r="B35" s="45" t="s">
         <v>1</v>
       </c>
       <c r="C35">
@@ -13865,8 +13872,8 @@
       </c>
     </row>
     <row r="36" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A36" s="71"/>
-      <c r="B36" s="49" t="s">
+      <c r="A36" s="67"/>
+      <c r="B36" s="45" t="s">
         <v>2</v>
       </c>
       <c r="C36">
@@ -13922,8 +13929,8 @@
       </c>
     </row>
     <row r="37" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A37" s="71"/>
-      <c r="B37" s="49" t="s">
+      <c r="A37" s="67"/>
+      <c r="B37" s="45" t="s">
         <v>3</v>
       </c>
       <c r="C37">
@@ -13979,8 +13986,8 @@
       </c>
     </row>
     <row r="38" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A38" s="71"/>
-      <c r="B38" s="49" t="s">
+      <c r="A38" s="67"/>
+      <c r="B38" s="45" t="s">
         <v>4</v>
       </c>
       <c r="C38">
@@ -14036,8 +14043,8 @@
       </c>
     </row>
     <row r="39" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A39" s="71"/>
-      <c r="B39" s="49" t="s">
+      <c r="A39" s="67"/>
+      <c r="B39" s="45" t="s">
         <v>5</v>
       </c>
       <c r="C39">
@@ -14093,8 +14100,8 @@
       </c>
     </row>
     <row r="40" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A40" s="71"/>
-      <c r="B40" s="49" t="s">
+      <c r="A40" s="67"/>
+      <c r="B40" s="45" t="s">
         <v>6</v>
       </c>
       <c r="C40">
@@ -14150,8 +14157,8 @@
       </c>
     </row>
     <row r="41" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A41" s="71"/>
-      <c r="B41" s="49" t="s">
+      <c r="A41" s="67"/>
+      <c r="B41" s="45" t="s">
         <v>7</v>
       </c>
       <c r="C41">
@@ -14207,8 +14214,8 @@
       </c>
     </row>
     <row r="42" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A42" s="71"/>
-      <c r="B42" s="49" t="s">
+      <c r="A42" s="67"/>
+      <c r="B42" s="45" t="s">
         <v>8</v>
       </c>
       <c r="C42">
@@ -14264,8 +14271,8 @@
       </c>
     </row>
     <row r="43" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A43" s="71"/>
-      <c r="B43" s="49" t="s">
+      <c r="A43" s="67"/>
+      <c r="B43" s="45" t="s">
         <v>9</v>
       </c>
       <c r="C43">
@@ -14321,8 +14328,8 @@
       </c>
     </row>
     <row r="44" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A44" s="71"/>
-      <c r="B44" s="49" t="s">
+      <c r="A44" s="67"/>
+      <c r="B44" s="45" t="s">
         <v>10</v>
       </c>
       <c r="C44">
@@ -14378,8 +14385,8 @@
       </c>
     </row>
     <row r="45" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A45" s="71"/>
-      <c r="B45" s="49" t="s">
+      <c r="A45" s="67"/>
+      <c r="B45" s="45" t="s">
         <v>11</v>
       </c>
       <c r="C45">
@@ -14435,8 +14442,8 @@
       </c>
     </row>
     <row r="46" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A46" s="71"/>
-      <c r="B46" s="49" t="s">
+      <c r="A46" s="67"/>
+      <c r="B46" s="45" t="s">
         <v>12</v>
       </c>
       <c r="C46">
@@ -14492,8 +14499,8 @@
       </c>
     </row>
     <row r="47" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A47" s="71"/>
-      <c r="B47" s="49" t="s">
+      <c r="A47" s="67"/>
+      <c r="B47" s="45" t="s">
         <v>13</v>
       </c>
       <c r="C47">
@@ -14549,8 +14556,8 @@
       </c>
     </row>
     <row r="48" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A48" s="71"/>
-      <c r="B48" s="49" t="s">
+      <c r="A48" s="67"/>
+      <c r="B48" s="45" t="s">
         <v>14</v>
       </c>
       <c r="C48">
@@ -14606,8 +14613,8 @@
       </c>
     </row>
     <row r="49" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A49" s="71"/>
-      <c r="B49" s="49" t="s">
+      <c r="A49" s="67"/>
+      <c r="B49" s="45" t="s">
         <v>15</v>
       </c>
       <c r="C49">
@@ -14663,10 +14670,10 @@
       </c>
     </row>
     <row r="50" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A50" s="71" t="s">
+      <c r="A50" s="67" t="s">
         <v>85</v>
       </c>
-      <c r="B50" s="49" t="s">
+      <c r="B50" s="45" t="s">
         <v>0</v>
       </c>
       <c r="C50">
@@ -14722,8 +14729,8 @@
       </c>
     </row>
     <row r="51" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A51" s="71"/>
-      <c r="B51" s="49" t="s">
+      <c r="A51" s="67"/>
+      <c r="B51" s="45" t="s">
         <v>1</v>
       </c>
       <c r="C51">
@@ -14779,8 +14786,8 @@
       </c>
     </row>
     <row r="52" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A52" s="71"/>
-      <c r="B52" s="49" t="s">
+      <c r="A52" s="67"/>
+      <c r="B52" s="45" t="s">
         <v>2</v>
       </c>
       <c r="C52">
@@ -14836,8 +14843,8 @@
       </c>
     </row>
     <row r="53" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A53" s="71"/>
-      <c r="B53" s="49" t="s">
+      <c r="A53" s="67"/>
+      <c r="B53" s="45" t="s">
         <v>3</v>
       </c>
       <c r="C53">
@@ -14893,8 +14900,8 @@
       </c>
     </row>
     <row r="54" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A54" s="71"/>
-      <c r="B54" s="49" t="s">
+      <c r="A54" s="67"/>
+      <c r="B54" s="45" t="s">
         <v>4</v>
       </c>
       <c r="C54">
@@ -14950,8 +14957,8 @@
       </c>
     </row>
     <row r="55" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A55" s="71"/>
-      <c r="B55" s="49" t="s">
+      <c r="A55" s="67"/>
+      <c r="B55" s="45" t="s">
         <v>5</v>
       </c>
       <c r="C55">
@@ -15007,8 +15014,8 @@
       </c>
     </row>
     <row r="56" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A56" s="71"/>
-      <c r="B56" s="49" t="s">
+      <c r="A56" s="67"/>
+      <c r="B56" s="45" t="s">
         <v>6</v>
       </c>
       <c r="C56">
@@ -15064,8 +15071,8 @@
       </c>
     </row>
     <row r="57" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A57" s="71"/>
-      <c r="B57" s="49" t="s">
+      <c r="A57" s="67"/>
+      <c r="B57" s="45" t="s">
         <v>7</v>
       </c>
       <c r="C57">
@@ -15121,8 +15128,8 @@
       </c>
     </row>
     <row r="58" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A58" s="71"/>
-      <c r="B58" s="49" t="s">
+      <c r="A58" s="67"/>
+      <c r="B58" s="45" t="s">
         <v>8</v>
       </c>
       <c r="C58">
@@ -15178,8 +15185,8 @@
       </c>
     </row>
     <row r="59" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A59" s="71"/>
-      <c r="B59" s="49" t="s">
+      <c r="A59" s="67"/>
+      <c r="B59" s="45" t="s">
         <v>9</v>
       </c>
       <c r="C59">
@@ -15235,8 +15242,8 @@
       </c>
     </row>
     <row r="60" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A60" s="71"/>
-      <c r="B60" s="49" t="s">
+      <c r="A60" s="67"/>
+      <c r="B60" s="45" t="s">
         <v>10</v>
       </c>
       <c r="C60">
@@ -15292,8 +15299,8 @@
       </c>
     </row>
     <row r="61" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A61" s="71"/>
-      <c r="B61" s="49" t="s">
+      <c r="A61" s="67"/>
+      <c r="B61" s="45" t="s">
         <v>11</v>
       </c>
       <c r="C61">
@@ -15349,8 +15356,8 @@
       </c>
     </row>
     <row r="62" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A62" s="71"/>
-      <c r="B62" s="49" t="s">
+      <c r="A62" s="67"/>
+      <c r="B62" s="45" t="s">
         <v>12</v>
       </c>
       <c r="C62">
@@ -15406,8 +15413,8 @@
       </c>
     </row>
     <row r="63" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A63" s="71"/>
-      <c r="B63" s="49" t="s">
+      <c r="A63" s="67"/>
+      <c r="B63" s="45" t="s">
         <v>13</v>
       </c>
       <c r="C63">
@@ -15463,8 +15470,8 @@
       </c>
     </row>
     <row r="64" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A64" s="71"/>
-      <c r="B64" s="49" t="s">
+      <c r="A64" s="67"/>
+      <c r="B64" s="45" t="s">
         <v>14</v>
       </c>
       <c r="C64">
@@ -15520,8 +15527,8 @@
       </c>
     </row>
     <row r="65" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A65" s="71"/>
-      <c r="B65" s="49" t="s">
+      <c r="A65" s="67"/>
+      <c r="B65" s="45" t="s">
         <v>15</v>
       </c>
       <c r="C65">
@@ -15577,10 +15584,10 @@
       </c>
     </row>
     <row r="66" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A66" s="71" t="s">
+      <c r="A66" s="67" t="s">
         <v>86</v>
       </c>
-      <c r="B66" s="49" t="s">
+      <c r="B66" s="45" t="s">
         <v>0</v>
       </c>
       <c r="C66">
@@ -15636,8 +15643,8 @@
       </c>
     </row>
     <row r="67" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A67" s="71"/>
-      <c r="B67" s="49" t="s">
+      <c r="A67" s="67"/>
+      <c r="B67" s="45" t="s">
         <v>1</v>
       </c>
       <c r="C67">
@@ -15693,8 +15700,8 @@
       </c>
     </row>
     <row r="68" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A68" s="71"/>
-      <c r="B68" s="49" t="s">
+      <c r="A68" s="67"/>
+      <c r="B68" s="45" t="s">
         <v>2</v>
       </c>
       <c r="C68">
@@ -15750,8 +15757,8 @@
       </c>
     </row>
     <row r="69" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A69" s="71"/>
-      <c r="B69" s="49" t="s">
+      <c r="A69" s="67"/>
+      <c r="B69" s="45" t="s">
         <v>3</v>
       </c>
       <c r="C69">
@@ -15807,8 +15814,8 @@
       </c>
     </row>
     <row r="70" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A70" s="71"/>
-      <c r="B70" s="49" t="s">
+      <c r="A70" s="67"/>
+      <c r="B70" s="45" t="s">
         <v>4</v>
       </c>
       <c r="C70">
@@ -15864,8 +15871,8 @@
       </c>
     </row>
     <row r="71" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A71" s="71"/>
-      <c r="B71" s="49" t="s">
+      <c r="A71" s="67"/>
+      <c r="B71" s="45" t="s">
         <v>5</v>
       </c>
       <c r="C71">
@@ -15921,8 +15928,8 @@
       </c>
     </row>
     <row r="72" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A72" s="71"/>
-      <c r="B72" s="49" t="s">
+      <c r="A72" s="67"/>
+      <c r="B72" s="45" t="s">
         <v>6</v>
       </c>
       <c r="C72">
@@ -15978,8 +15985,8 @@
       </c>
     </row>
     <row r="73" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A73" s="71"/>
-      <c r="B73" s="49" t="s">
+      <c r="A73" s="67"/>
+      <c r="B73" s="45" t="s">
         <v>7</v>
       </c>
       <c r="C73">
@@ -16035,8 +16042,8 @@
       </c>
     </row>
     <row r="74" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A74" s="71"/>
-      <c r="B74" s="49" t="s">
+      <c r="A74" s="67"/>
+      <c r="B74" s="45" t="s">
         <v>8</v>
       </c>
       <c r="C74">
@@ -16092,8 +16099,8 @@
       </c>
     </row>
     <row r="75" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A75" s="71"/>
-      <c r="B75" s="49" t="s">
+      <c r="A75" s="67"/>
+      <c r="B75" s="45" t="s">
         <v>9</v>
       </c>
       <c r="C75">
@@ -16149,8 +16156,8 @@
       </c>
     </row>
     <row r="76" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A76" s="71"/>
-      <c r="B76" s="49" t="s">
+      <c r="A76" s="67"/>
+      <c r="B76" s="45" t="s">
         <v>10</v>
       </c>
       <c r="C76">
@@ -16206,8 +16213,8 @@
       </c>
     </row>
     <row r="77" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A77" s="71"/>
-      <c r="B77" s="49" t="s">
+      <c r="A77" s="67"/>
+      <c r="B77" s="45" t="s">
         <v>11</v>
       </c>
       <c r="C77">
@@ -16263,8 +16270,8 @@
       </c>
     </row>
     <row r="78" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A78" s="71"/>
-      <c r="B78" s="49" t="s">
+      <c r="A78" s="67"/>
+      <c r="B78" s="45" t="s">
         <v>12</v>
       </c>
       <c r="C78">
@@ -16320,8 +16327,8 @@
       </c>
     </row>
     <row r="79" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A79" s="71"/>
-      <c r="B79" s="49" t="s">
+      <c r="A79" s="67"/>
+      <c r="B79" s="45" t="s">
         <v>13</v>
       </c>
       <c r="C79">
@@ -16377,8 +16384,8 @@
       </c>
     </row>
     <row r="80" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A80" s="71"/>
-      <c r="B80" s="49" t="s">
+      <c r="A80" s="67"/>
+      <c r="B80" s="45" t="s">
         <v>14</v>
       </c>
       <c r="C80">
@@ -16434,8 +16441,8 @@
       </c>
     </row>
     <row r="81" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A81" s="71"/>
-      <c r="B81" s="49" t="s">
+      <c r="A81" s="67"/>
+      <c r="B81" s="45" t="s">
         <v>15</v>
       </c>
       <c r="C81">
@@ -16575,10 +16582,10 @@
       </c>
     </row>
     <row r="2" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A2" s="71" t="s">
+      <c r="A2" s="67" t="s">
         <v>84</v>
       </c>
-      <c r="B2" s="49" t="s">
+      <c r="B2" s="45" t="s">
         <v>0</v>
       </c>
       <c r="C2">
@@ -16634,8 +16641,8 @@
       </c>
     </row>
     <row r="3" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A3" s="71"/>
-      <c r="B3" s="49" t="s">
+      <c r="A3" s="67"/>
+      <c r="B3" s="45" t="s">
         <v>1</v>
       </c>
       <c r="C3">
@@ -16691,8 +16698,8 @@
       </c>
     </row>
     <row r="4" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A4" s="71"/>
-      <c r="B4" s="49" t="s">
+      <c r="A4" s="67"/>
+      <c r="B4" s="45" t="s">
         <v>2</v>
       </c>
       <c r="C4">
@@ -16748,8 +16755,8 @@
       </c>
     </row>
     <row r="5" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A5" s="71"/>
-      <c r="B5" s="49" t="s">
+      <c r="A5" s="67"/>
+      <c r="B5" s="45" t="s">
         <v>3</v>
       </c>
       <c r="C5">
@@ -16805,8 +16812,8 @@
       </c>
     </row>
     <row r="6" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A6" s="71"/>
-      <c r="B6" s="49" t="s">
+      <c r="A6" s="67"/>
+      <c r="B6" s="45" t="s">
         <v>4</v>
       </c>
       <c r="C6">
@@ -16862,8 +16869,8 @@
       </c>
     </row>
     <row r="7" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A7" s="71"/>
-      <c r="B7" s="49" t="s">
+      <c r="A7" s="67"/>
+      <c r="B7" s="45" t="s">
         <v>5</v>
       </c>
       <c r="C7">
@@ -16919,8 +16926,8 @@
       </c>
     </row>
     <row r="8" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A8" s="71"/>
-      <c r="B8" s="49" t="s">
+      <c r="A8" s="67"/>
+      <c r="B8" s="45" t="s">
         <v>6</v>
       </c>
       <c r="C8">
@@ -16976,8 +16983,8 @@
       </c>
     </row>
     <row r="9" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A9" s="71"/>
-      <c r="B9" s="49" t="s">
+      <c r="A9" s="67"/>
+      <c r="B9" s="45" t="s">
         <v>7</v>
       </c>
       <c r="C9">
@@ -17033,8 +17040,8 @@
       </c>
     </row>
     <row r="10" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A10" s="71"/>
-      <c r="B10" s="49" t="s">
+      <c r="A10" s="67"/>
+      <c r="B10" s="45" t="s">
         <v>8</v>
       </c>
       <c r="C10">
@@ -17090,8 +17097,8 @@
       </c>
     </row>
     <row r="11" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A11" s="71"/>
-      <c r="B11" s="49" t="s">
+      <c r="A11" s="67"/>
+      <c r="B11" s="45" t="s">
         <v>9</v>
       </c>
       <c r="C11">
@@ -17147,8 +17154,8 @@
       </c>
     </row>
     <row r="12" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A12" s="71"/>
-      <c r="B12" s="49" t="s">
+      <c r="A12" s="67"/>
+      <c r="B12" s="45" t="s">
         <v>10</v>
       </c>
       <c r="C12">
@@ -17204,8 +17211,8 @@
       </c>
     </row>
     <row r="13" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A13" s="71"/>
-      <c r="B13" s="49" t="s">
+      <c r="A13" s="67"/>
+      <c r="B13" s="45" t="s">
         <v>11</v>
       </c>
       <c r="C13">
@@ -17261,8 +17268,8 @@
       </c>
     </row>
     <row r="14" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A14" s="71"/>
-      <c r="B14" s="49" t="s">
+      <c r="A14" s="67"/>
+      <c r="B14" s="45" t="s">
         <v>12</v>
       </c>
       <c r="C14">
@@ -17318,8 +17325,8 @@
       </c>
     </row>
     <row r="15" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A15" s="71"/>
-      <c r="B15" s="49" t="s">
+      <c r="A15" s="67"/>
+      <c r="B15" s="45" t="s">
         <v>13</v>
       </c>
       <c r="C15">
@@ -17375,8 +17382,8 @@
       </c>
     </row>
     <row r="16" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A16" s="71"/>
-      <c r="B16" s="49" t="s">
+      <c r="A16" s="67"/>
+      <c r="B16" s="45" t="s">
         <v>14</v>
       </c>
       <c r="C16">
@@ -17432,8 +17439,8 @@
       </c>
     </row>
     <row r="17" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A17" s="71"/>
-      <c r="B17" s="49" t="s">
+      <c r="A17" s="67"/>
+      <c r="B17" s="45" t="s">
         <v>15</v>
       </c>
       <c r="C17">
@@ -17489,10 +17496,10 @@
       </c>
     </row>
     <row r="18" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A18" s="71" t="s">
-        <v>92</v>
-      </c>
-      <c r="B18" s="49" t="s">
+      <c r="A18" s="67" t="s">
+        <v>88</v>
+      </c>
+      <c r="B18" s="45" t="s">
         <v>0</v>
       </c>
       <c r="C18">
@@ -17548,8 +17555,8 @@
       </c>
     </row>
     <row r="19" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A19" s="71"/>
-      <c r="B19" s="49" t="s">
+      <c r="A19" s="67"/>
+      <c r="B19" s="45" t="s">
         <v>1</v>
       </c>
       <c r="C19">
@@ -17605,8 +17612,8 @@
       </c>
     </row>
     <row r="20" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A20" s="71"/>
-      <c r="B20" s="49" t="s">
+      <c r="A20" s="67"/>
+      <c r="B20" s="45" t="s">
         <v>2</v>
       </c>
       <c r="C20">
@@ -17662,8 +17669,8 @@
       </c>
     </row>
     <row r="21" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A21" s="71"/>
-      <c r="B21" s="49" t="s">
+      <c r="A21" s="67"/>
+      <c r="B21" s="45" t="s">
         <v>3</v>
       </c>
       <c r="C21">
@@ -17719,8 +17726,8 @@
       </c>
     </row>
     <row r="22" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A22" s="71"/>
-      <c r="B22" s="49" t="s">
+      <c r="A22" s="67"/>
+      <c r="B22" s="45" t="s">
         <v>4</v>
       </c>
       <c r="C22">
@@ -17776,8 +17783,8 @@
       </c>
     </row>
     <row r="23" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A23" s="71"/>
-      <c r="B23" s="49" t="s">
+      <c r="A23" s="67"/>
+      <c r="B23" s="45" t="s">
         <v>5</v>
       </c>
       <c r="C23">
@@ -17833,8 +17840,8 @@
       </c>
     </row>
     <row r="24" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A24" s="71"/>
-      <c r="B24" s="49" t="s">
+      <c r="A24" s="67"/>
+      <c r="B24" s="45" t="s">
         <v>6</v>
       </c>
       <c r="C24">
@@ -17890,8 +17897,8 @@
       </c>
     </row>
     <row r="25" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A25" s="71"/>
-      <c r="B25" s="49" t="s">
+      <c r="A25" s="67"/>
+      <c r="B25" s="45" t="s">
         <v>7</v>
       </c>
       <c r="C25">
@@ -17947,8 +17954,8 @@
       </c>
     </row>
     <row r="26" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A26" s="71"/>
-      <c r="B26" s="49" t="s">
+      <c r="A26" s="67"/>
+      <c r="B26" s="45" t="s">
         <v>8</v>
       </c>
       <c r="C26">
@@ -18004,8 +18011,8 @@
       </c>
     </row>
     <row r="27" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A27" s="71"/>
-      <c r="B27" s="49" t="s">
+      <c r="A27" s="67"/>
+      <c r="B27" s="45" t="s">
         <v>9</v>
       </c>
       <c r="C27">
@@ -18061,8 +18068,8 @@
       </c>
     </row>
     <row r="28" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A28" s="71"/>
-      <c r="B28" s="49" t="s">
+      <c r="A28" s="67"/>
+      <c r="B28" s="45" t="s">
         <v>10</v>
       </c>
       <c r="C28">
@@ -18118,8 +18125,8 @@
       </c>
     </row>
     <row r="29" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A29" s="71"/>
-      <c r="B29" s="49" t="s">
+      <c r="A29" s="67"/>
+      <c r="B29" s="45" t="s">
         <v>11</v>
       </c>
       <c r="C29">
@@ -18175,8 +18182,8 @@
       </c>
     </row>
     <row r="30" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A30" s="71"/>
-      <c r="B30" s="49" t="s">
+      <c r="A30" s="67"/>
+      <c r="B30" s="45" t="s">
         <v>12</v>
       </c>
       <c r="C30">
@@ -18232,8 +18239,8 @@
       </c>
     </row>
     <row r="31" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A31" s="71"/>
-      <c r="B31" s="49" t="s">
+      <c r="A31" s="67"/>
+      <c r="B31" s="45" t="s">
         <v>13</v>
       </c>
       <c r="C31">
@@ -18289,8 +18296,8 @@
       </c>
     </row>
     <row r="32" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A32" s="71"/>
-      <c r="B32" s="49" t="s">
+      <c r="A32" s="67"/>
+      <c r="B32" s="45" t="s">
         <v>14</v>
       </c>
       <c r="C32">
@@ -18346,8 +18353,8 @@
       </c>
     </row>
     <row r="33" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A33" s="71"/>
-      <c r="B33" s="49" t="s">
+      <c r="A33" s="67"/>
+      <c r="B33" s="45" t="s">
         <v>15</v>
       </c>
       <c r="C33">
@@ -18403,10 +18410,10 @@
       </c>
     </row>
     <row r="34" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A34" s="71" t="s">
+      <c r="A34" s="67" t="s">
         <v>87</v>
       </c>
-      <c r="B34" s="49" t="s">
+      <c r="B34" s="45" t="s">
         <v>0</v>
       </c>
       <c r="C34">
@@ -18462,8 +18469,8 @@
       </c>
     </row>
     <row r="35" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A35" s="71"/>
-      <c r="B35" s="49" t="s">
+      <c r="A35" s="67"/>
+      <c r="B35" s="45" t="s">
         <v>1</v>
       </c>
       <c r="C35">
@@ -18519,8 +18526,8 @@
       </c>
     </row>
     <row r="36" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A36" s="71"/>
-      <c r="B36" s="49" t="s">
+      <c r="A36" s="67"/>
+      <c r="B36" s="45" t="s">
         <v>2</v>
       </c>
       <c r="C36">
@@ -18576,8 +18583,8 @@
       </c>
     </row>
     <row r="37" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A37" s="71"/>
-      <c r="B37" s="49" t="s">
+      <c r="A37" s="67"/>
+      <c r="B37" s="45" t="s">
         <v>3</v>
       </c>
       <c r="C37">
@@ -18633,8 +18640,8 @@
       </c>
     </row>
     <row r="38" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A38" s="71"/>
-      <c r="B38" s="49" t="s">
+      <c r="A38" s="67"/>
+      <c r="B38" s="45" t="s">
         <v>4</v>
       </c>
       <c r="C38">
@@ -18690,8 +18697,8 @@
       </c>
     </row>
     <row r="39" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A39" s="71"/>
-      <c r="B39" s="49" t="s">
+      <c r="A39" s="67"/>
+      <c r="B39" s="45" t="s">
         <v>5</v>
       </c>
       <c r="C39">
@@ -18747,8 +18754,8 @@
       </c>
     </row>
     <row r="40" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A40" s="71"/>
-      <c r="B40" s="49" t="s">
+      <c r="A40" s="67"/>
+      <c r="B40" s="45" t="s">
         <v>6</v>
       </c>
       <c r="C40">
@@ -18804,8 +18811,8 @@
       </c>
     </row>
     <row r="41" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A41" s="71"/>
-      <c r="B41" s="49" t="s">
+      <c r="A41" s="67"/>
+      <c r="B41" s="45" t="s">
         <v>7</v>
       </c>
       <c r="C41">
@@ -18861,8 +18868,8 @@
       </c>
     </row>
     <row r="42" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A42" s="71"/>
-      <c r="B42" s="49" t="s">
+      <c r="A42" s="67"/>
+      <c r="B42" s="45" t="s">
         <v>8</v>
       </c>
       <c r="C42">
@@ -18918,8 +18925,8 @@
       </c>
     </row>
     <row r="43" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A43" s="71"/>
-      <c r="B43" s="49" t="s">
+      <c r="A43" s="67"/>
+      <c r="B43" s="45" t="s">
         <v>9</v>
       </c>
       <c r="C43">
@@ -18975,8 +18982,8 @@
       </c>
     </row>
     <row r="44" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A44" s="71"/>
-      <c r="B44" s="49" t="s">
+      <c r="A44" s="67"/>
+      <c r="B44" s="45" t="s">
         <v>10</v>
       </c>
       <c r="C44">
@@ -19032,8 +19039,8 @@
       </c>
     </row>
     <row r="45" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A45" s="71"/>
-      <c r="B45" s="49" t="s">
+      <c r="A45" s="67"/>
+      <c r="B45" s="45" t="s">
         <v>11</v>
       </c>
       <c r="C45">
@@ -19089,8 +19096,8 @@
       </c>
     </row>
     <row r="46" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A46" s="71"/>
-      <c r="B46" s="49" t="s">
+      <c r="A46" s="67"/>
+      <c r="B46" s="45" t="s">
         <v>12</v>
       </c>
       <c r="C46">
@@ -19146,8 +19153,8 @@
       </c>
     </row>
     <row r="47" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A47" s="71"/>
-      <c r="B47" s="49" t="s">
+      <c r="A47" s="67"/>
+      <c r="B47" s="45" t="s">
         <v>13</v>
       </c>
       <c r="C47">
@@ -19203,8 +19210,8 @@
       </c>
     </row>
     <row r="48" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A48" s="71"/>
-      <c r="B48" s="49" t="s">
+      <c r="A48" s="67"/>
+      <c r="B48" s="45" t="s">
         <v>14</v>
       </c>
       <c r="C48">
@@ -19260,8 +19267,8 @@
       </c>
     </row>
     <row r="49" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A49" s="71"/>
-      <c r="B49" s="49" t="s">
+      <c r="A49" s="67"/>
+      <c r="B49" s="45" t="s">
         <v>15</v>
       </c>
       <c r="C49">
@@ -19317,10 +19324,10 @@
       </c>
     </row>
     <row r="50" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A50" s="71" t="s">
+      <c r="A50" s="67" t="s">
         <v>85</v>
       </c>
-      <c r="B50" s="49" t="s">
+      <c r="B50" s="45" t="s">
         <v>0</v>
       </c>
       <c r="C50">
@@ -19376,8 +19383,8 @@
       </c>
     </row>
     <row r="51" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A51" s="71"/>
-      <c r="B51" s="49" t="s">
+      <c r="A51" s="67"/>
+      <c r="B51" s="45" t="s">
         <v>1</v>
       </c>
       <c r="C51">
@@ -19433,8 +19440,8 @@
       </c>
     </row>
     <row r="52" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A52" s="71"/>
-      <c r="B52" s="49" t="s">
+      <c r="A52" s="67"/>
+      <c r="B52" s="45" t="s">
         <v>2</v>
       </c>
       <c r="C52">
@@ -19490,8 +19497,8 @@
       </c>
     </row>
     <row r="53" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A53" s="71"/>
-      <c r="B53" s="49" t="s">
+      <c r="A53" s="67"/>
+      <c r="B53" s="45" t="s">
         <v>3</v>
       </c>
       <c r="C53">
@@ -19547,8 +19554,8 @@
       </c>
     </row>
     <row r="54" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A54" s="71"/>
-      <c r="B54" s="49" t="s">
+      <c r="A54" s="67"/>
+      <c r="B54" s="45" t="s">
         <v>4</v>
       </c>
       <c r="C54">
@@ -19604,8 +19611,8 @@
       </c>
     </row>
     <row r="55" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A55" s="71"/>
-      <c r="B55" s="49" t="s">
+      <c r="A55" s="67"/>
+      <c r="B55" s="45" t="s">
         <v>5</v>
       </c>
       <c r="C55">
@@ -19661,8 +19668,8 @@
       </c>
     </row>
     <row r="56" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A56" s="71"/>
-      <c r="B56" s="49" t="s">
+      <c r="A56" s="67"/>
+      <c r="B56" s="45" t="s">
         <v>6</v>
       </c>
       <c r="C56">
@@ -19718,8 +19725,8 @@
       </c>
     </row>
     <row r="57" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A57" s="71"/>
-      <c r="B57" s="49" t="s">
+      <c r="A57" s="67"/>
+      <c r="B57" s="45" t="s">
         <v>7</v>
       </c>
       <c r="C57">
@@ -19775,8 +19782,8 @@
       </c>
     </row>
     <row r="58" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A58" s="71"/>
-      <c r="B58" s="49" t="s">
+      <c r="A58" s="67"/>
+      <c r="B58" s="45" t="s">
         <v>8</v>
       </c>
       <c r="C58">
@@ -19832,8 +19839,8 @@
       </c>
     </row>
     <row r="59" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A59" s="71"/>
-      <c r="B59" s="49" t="s">
+      <c r="A59" s="67"/>
+      <c r="B59" s="45" t="s">
         <v>9</v>
       </c>
       <c r="C59">
@@ -19889,8 +19896,8 @@
       </c>
     </row>
     <row r="60" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A60" s="71"/>
-      <c r="B60" s="49" t="s">
+      <c r="A60" s="67"/>
+      <c r="B60" s="45" t="s">
         <v>10</v>
       </c>
       <c r="C60">
@@ -19946,8 +19953,8 @@
       </c>
     </row>
     <row r="61" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A61" s="71"/>
-      <c r="B61" s="49" t="s">
+      <c r="A61" s="67"/>
+      <c r="B61" s="45" t="s">
         <v>11</v>
       </c>
       <c r="C61">
@@ -20003,8 +20010,8 @@
       </c>
     </row>
     <row r="62" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A62" s="71"/>
-      <c r="B62" s="49" t="s">
+      <c r="A62" s="67"/>
+      <c r="B62" s="45" t="s">
         <v>12</v>
       </c>
       <c r="C62">
@@ -20060,8 +20067,8 @@
       </c>
     </row>
     <row r="63" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A63" s="71"/>
-      <c r="B63" s="49" t="s">
+      <c r="A63" s="67"/>
+      <c r="B63" s="45" t="s">
         <v>13</v>
       </c>
       <c r="C63">
@@ -20117,8 +20124,8 @@
       </c>
     </row>
     <row r="64" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A64" s="71"/>
-      <c r="B64" s="49" t="s">
+      <c r="A64" s="67"/>
+      <c r="B64" s="45" t="s">
         <v>14</v>
       </c>
       <c r="C64">
@@ -20174,8 +20181,8 @@
       </c>
     </row>
     <row r="65" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A65" s="71"/>
-      <c r="B65" s="49" t="s">
+      <c r="A65" s="67"/>
+      <c r="B65" s="45" t="s">
         <v>15</v>
       </c>
       <c r="C65">
@@ -20231,10 +20238,10 @@
       </c>
     </row>
     <row r="66" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A66" s="71" t="s">
+      <c r="A66" s="67" t="s">
         <v>86</v>
       </c>
-      <c r="B66" s="49" t="s">
+      <c r="B66" s="45" t="s">
         <v>0</v>
       </c>
       <c r="C66">
@@ -20290,8 +20297,8 @@
       </c>
     </row>
     <row r="67" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A67" s="71"/>
-      <c r="B67" s="49" t="s">
+      <c r="A67" s="67"/>
+      <c r="B67" s="45" t="s">
         <v>1</v>
       </c>
       <c r="C67">
@@ -20347,8 +20354,8 @@
       </c>
     </row>
     <row r="68" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A68" s="71"/>
-      <c r="B68" s="49" t="s">
+      <c r="A68" s="67"/>
+      <c r="B68" s="45" t="s">
         <v>2</v>
       </c>
       <c r="C68">
@@ -20404,8 +20411,8 @@
       </c>
     </row>
     <row r="69" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A69" s="71"/>
-      <c r="B69" s="49" t="s">
+      <c r="A69" s="67"/>
+      <c r="B69" s="45" t="s">
         <v>3</v>
       </c>
       <c r="C69">
@@ -20461,8 +20468,8 @@
       </c>
     </row>
     <row r="70" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A70" s="71"/>
-      <c r="B70" s="49" t="s">
+      <c r="A70" s="67"/>
+      <c r="B70" s="45" t="s">
         <v>4</v>
       </c>
       <c r="C70">
@@ -20518,8 +20525,8 @@
       </c>
     </row>
     <row r="71" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A71" s="71"/>
-      <c r="B71" s="49" t="s">
+      <c r="A71" s="67"/>
+      <c r="B71" s="45" t="s">
         <v>5</v>
       </c>
       <c r="C71">
@@ -20575,8 +20582,8 @@
       </c>
     </row>
     <row r="72" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A72" s="71"/>
-      <c r="B72" s="49" t="s">
+      <c r="A72" s="67"/>
+      <c r="B72" s="45" t="s">
         <v>6</v>
       </c>
       <c r="C72">
@@ -20632,8 +20639,8 @@
       </c>
     </row>
     <row r="73" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A73" s="71"/>
-      <c r="B73" s="49" t="s">
+      <c r="A73" s="67"/>
+      <c r="B73" s="45" t="s">
         <v>7</v>
       </c>
       <c r="C73">
@@ -20689,8 +20696,8 @@
       </c>
     </row>
     <row r="74" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A74" s="71"/>
-      <c r="B74" s="49" t="s">
+      <c r="A74" s="67"/>
+      <c r="B74" s="45" t="s">
         <v>8</v>
       </c>
       <c r="C74">
@@ -20746,8 +20753,8 @@
       </c>
     </row>
     <row r="75" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A75" s="71"/>
-      <c r="B75" s="49" t="s">
+      <c r="A75" s="67"/>
+      <c r="B75" s="45" t="s">
         <v>9</v>
       </c>
       <c r="C75">
@@ -20803,8 +20810,8 @@
       </c>
     </row>
     <row r="76" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A76" s="71"/>
-      <c r="B76" s="49" t="s">
+      <c r="A76" s="67"/>
+      <c r="B76" s="45" t="s">
         <v>10</v>
       </c>
       <c r="C76">
@@ -20860,8 +20867,8 @@
       </c>
     </row>
     <row r="77" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A77" s="71"/>
-      <c r="B77" s="49" t="s">
+      <c r="A77" s="67"/>
+      <c r="B77" s="45" t="s">
         <v>11</v>
       </c>
       <c r="C77">
@@ -20917,8 +20924,8 @@
       </c>
     </row>
     <row r="78" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A78" s="71"/>
-      <c r="B78" s="49" t="s">
+      <c r="A78" s="67"/>
+      <c r="B78" s="45" t="s">
         <v>12</v>
       </c>
       <c r="C78">
@@ -20974,8 +20981,8 @@
       </c>
     </row>
     <row r="79" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A79" s="71"/>
-      <c r="B79" s="49" t="s">
+      <c r="A79" s="67"/>
+      <c r="B79" s="45" t="s">
         <v>13</v>
       </c>
       <c r="C79">
@@ -21031,8 +21038,8 @@
       </c>
     </row>
     <row r="80" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A80" s="71"/>
-      <c r="B80" s="49" t="s">
+      <c r="A80" s="67"/>
+      <c r="B80" s="45" t="s">
         <v>14</v>
       </c>
       <c r="C80">
@@ -21088,8 +21095,8 @@
       </c>
     </row>
     <row r="81" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A81" s="71"/>
-      <c r="B81" s="49" t="s">
+      <c r="A81" s="67"/>
+      <c r="B81" s="45" t="s">
         <v>15</v>
       </c>
       <c r="C81">
@@ -21164,7 +21171,7 @@
   <dimension ref="A1:G6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E12" sqref="E12"/>
+      <selection activeCell="A2" sqref="A2:G2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -21196,7 +21203,7 @@
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A2" s="49" t="s">
+      <c r="A2" s="45" t="s">
         <v>84</v>
       </c>
       <c r="B2">
@@ -21219,8 +21226,8 @@
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A3" s="49" t="s">
-        <v>92</v>
+      <c r="A3" s="45" t="s">
+        <v>88</v>
       </c>
       <c r="B3">
         <v>11.8</v>
@@ -21242,7 +21249,7 @@
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A4" s="49" t="s">
+      <c r="A4" s="45" t="s">
         <v>87</v>
       </c>
       <c r="B4">
@@ -21265,7 +21272,7 @@
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A5" s="49" t="s">
+      <c r="A5" s="45" t="s">
         <v>85</v>
       </c>
       <c r="B5">
@@ -21288,7 +21295,7 @@
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A6" s="49" t="s">
+      <c r="A6" s="45" t="s">
         <v>86</v>
       </c>
       <c r="B6">
@@ -21320,18 +21327,18 @@
   <sheetPr>
     <tabColor theme="7" tint="0.39997558519241921"/>
   </sheetPr>
-  <dimension ref="A1:M22"/>
+  <dimension ref="A1:M29"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B4" sqref="A4:XFD4"/>
+      <selection activeCell="D25" sqref="D25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="27.7109375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="18.28515625" style="33" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="18.28515625" style="31" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="45.42578125" customWidth="1"/>
-    <col min="4" max="4" width="12.7109375" style="18" customWidth="1"/>
+    <col min="4" max="4" width="12.7109375" style="17" customWidth="1"/>
     <col min="5" max="5" width="5.140625" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="2.140625" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="2.7109375" bestFit="1" customWidth="1"/>
@@ -21344,801 +21351,973 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A1" s="30" t="s">
+      <c r="A1" s="28" t="s">
         <v>17</v>
       </c>
-      <c r="B1" s="31" t="s">
+      <c r="B1" s="29" t="s">
         <v>41</v>
       </c>
-      <c r="C1" s="34" t="s">
+      <c r="C1" s="32" t="s">
         <v>42</v>
       </c>
-      <c r="D1" s="36" t="s">
+      <c r="D1" s="34" t="s">
         <v>43</v>
       </c>
-      <c r="E1" s="35" t="s">
+      <c r="E1" s="33" t="s">
         <v>28</v>
       </c>
-      <c r="F1" s="31" t="s">
+      <c r="F1" s="29" t="s">
         <v>29</v>
       </c>
-      <c r="G1" s="31" t="s">
+      <c r="G1" s="29" t="s">
         <v>30</v>
       </c>
-      <c r="H1" s="31" t="s">
+      <c r="H1" s="29" t="s">
         <v>31</v>
       </c>
-      <c r="I1" s="31" t="s">
+      <c r="I1" s="29" t="s">
         <v>44</v>
       </c>
-      <c r="J1" s="31" t="s">
+      <c r="J1" s="29" t="s">
         <v>45</v>
       </c>
-      <c r="K1" s="31" t="s">
+      <c r="K1" s="29" t="s">
         <v>46</v>
       </c>
-      <c r="L1" s="31" t="s">
+      <c r="L1" s="29" t="s">
         <v>66</v>
       </c>
-      <c r="M1" s="32" t="s">
+      <c r="M1" s="30" t="s">
         <v>67</v>
       </c>
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A2" s="74" t="s">
+      <c r="A2" s="68" t="s">
         <v>84</v>
       </c>
-      <c r="B2" s="50" t="s">
+      <c r="B2" s="46" t="s">
+        <v>89</v>
+      </c>
+      <c r="C2" s="56" t="s">
+        <v>47</v>
+      </c>
+      <c r="D2" s="82">
+        <v>0.5</v>
+      </c>
+      <c r="E2" s="22">
+        <v>1</v>
+      </c>
+      <c r="F2" s="22">
+        <v>1</v>
+      </c>
+      <c r="G2" s="22">
+        <v>1</v>
+      </c>
+      <c r="H2" s="22">
+        <v>1</v>
+      </c>
+      <c r="I2" s="22">
+        <v>0</v>
+      </c>
+      <c r="J2" s="22"/>
+      <c r="K2" s="22"/>
+      <c r="L2" s="87">
+        <v>43907</v>
+      </c>
+      <c r="M2" s="94">
+        <v>43911</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A3" s="80"/>
+      <c r="B3" s="47" t="s">
+        <v>90</v>
+      </c>
+      <c r="C3" s="48" t="s">
+        <v>47</v>
+      </c>
+      <c r="D3" s="83">
+        <v>0.2</v>
+      </c>
+      <c r="E3" s="53">
+        <v>1</v>
+      </c>
+      <c r="F3" s="48">
+        <v>1</v>
+      </c>
+      <c r="G3" s="48">
+        <v>1</v>
+      </c>
+      <c r="H3" s="48">
+        <v>1</v>
+      </c>
+      <c r="I3" s="48">
+        <v>0</v>
+      </c>
+      <c r="J3" s="48"/>
+      <c r="K3" s="48"/>
+      <c r="L3" s="94">
+        <v>43911</v>
+      </c>
+      <c r="M3" s="94"/>
+    </row>
+    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A4" s="80"/>
+      <c r="B4" s="47" t="s">
+        <v>91</v>
+      </c>
+      <c r="C4" s="48" t="s">
+        <v>65</v>
+      </c>
+      <c r="D4" s="83">
+        <v>0.3</v>
+      </c>
+      <c r="E4" s="48">
+        <v>1</v>
+      </c>
+      <c r="F4" s="48">
+        <v>1</v>
+      </c>
+      <c r="G4" s="48">
+        <v>1</v>
+      </c>
+      <c r="H4" s="48">
+        <v>1</v>
+      </c>
+      <c r="I4" s="48">
+        <v>0</v>
+      </c>
+      <c r="J4" s="48"/>
+      <c r="K4" s="48"/>
+      <c r="L4" s="94"/>
+      <c r="M4" s="94"/>
+    </row>
+    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A5" s="80"/>
+      <c r="B5" s="47" t="s">
+        <v>92</v>
+      </c>
+      <c r="C5" s="48" t="s">
+        <v>65</v>
+      </c>
+      <c r="D5" s="83">
+        <v>0.4</v>
+      </c>
+      <c r="E5" s="48">
+        <v>1</v>
+      </c>
+      <c r="F5" s="48">
+        <v>1</v>
+      </c>
+      <c r="G5" s="48">
+        <v>1</v>
+      </c>
+      <c r="H5" s="48">
+        <v>1</v>
+      </c>
+      <c r="I5" s="48">
+        <v>0</v>
+      </c>
+      <c r="J5" s="48"/>
+      <c r="K5" s="48"/>
+      <c r="L5" s="50"/>
+      <c r="M5" s="50"/>
+    </row>
+    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A6" s="69"/>
+      <c r="B6" s="47" t="s">
         <v>93</v>
       </c>
-      <c r="C2" s="68" t="s">
+      <c r="C6" s="48" t="s">
+        <v>65</v>
+      </c>
+      <c r="D6" s="83">
+        <v>0.5</v>
+      </c>
+      <c r="E6" s="48">
+        <v>1</v>
+      </c>
+      <c r="F6" s="48">
+        <v>1</v>
+      </c>
+      <c r="G6" s="48">
+        <v>1</v>
+      </c>
+      <c r="H6" s="48">
+        <v>1</v>
+      </c>
+      <c r="I6" s="48">
+        <v>0</v>
+      </c>
+      <c r="J6" s="48"/>
+      <c r="K6" s="48"/>
+      <c r="L6" s="50"/>
+      <c r="M6" s="97"/>
+    </row>
+    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A7" s="70" t="s">
+        <v>88</v>
+      </c>
+      <c r="B7" s="81" t="s">
+        <v>89</v>
+      </c>
+      <c r="C7" s="100" t="s">
         <v>47</v>
       </c>
-      <c r="D2" s="37">
+      <c r="D7" s="58">
+        <v>0.4</v>
+      </c>
+      <c r="E7" s="59">
+        <v>1</v>
+      </c>
+      <c r="F7" s="59">
+        <v>1</v>
+      </c>
+      <c r="G7" s="59">
+        <v>1</v>
+      </c>
+      <c r="H7" s="59">
+        <v>1</v>
+      </c>
+      <c r="I7" s="59">
+        <v>0</v>
+      </c>
+      <c r="J7" s="59"/>
+      <c r="K7" s="59"/>
+      <c r="L7" s="60">
+        <v>43908</v>
+      </c>
+      <c r="M7" s="61">
+        <v>43911</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A8" s="71"/>
+      <c r="B8" s="101" t="s">
+        <v>90</v>
+      </c>
+      <c r="C8" s="64" t="s">
+        <v>47</v>
+      </c>
+      <c r="D8" s="62">
+        <v>0.2</v>
+      </c>
+      <c r="E8" s="63">
+        <v>1</v>
+      </c>
+      <c r="F8" s="64">
+        <v>1</v>
+      </c>
+      <c r="G8" s="64">
+        <v>1</v>
+      </c>
+      <c r="H8" s="64">
+        <v>1</v>
+      </c>
+      <c r="I8" s="64">
+        <v>0</v>
+      </c>
+      <c r="J8" s="64"/>
+      <c r="K8" s="64"/>
+      <c r="L8" s="61">
+        <v>43911</v>
+      </c>
+      <c r="M8" s="61"/>
+    </row>
+    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A9" s="71"/>
+      <c r="B9" s="101" t="s">
+        <v>91</v>
+      </c>
+      <c r="C9" s="64" t="s">
+        <v>65</v>
+      </c>
+      <c r="D9" s="62">
+        <v>0.3</v>
+      </c>
+      <c r="E9" s="64">
+        <v>1</v>
+      </c>
+      <c r="F9" s="64">
+        <v>1</v>
+      </c>
+      <c r="G9" s="64">
+        <v>1</v>
+      </c>
+      <c r="H9" s="64">
+        <v>1</v>
+      </c>
+      <c r="I9" s="64">
+        <v>0</v>
+      </c>
+      <c r="J9" s="64"/>
+      <c r="K9" s="64"/>
+      <c r="L9" s="61"/>
+      <c r="M9" s="61"/>
+    </row>
+    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A10" s="71"/>
+      <c r="B10" s="101" t="s">
+        <v>92</v>
+      </c>
+      <c r="C10" s="64" t="s">
+        <v>65</v>
+      </c>
+      <c r="D10" s="62">
+        <v>0.4</v>
+      </c>
+      <c r="E10" s="64">
+        <v>1</v>
+      </c>
+      <c r="F10" s="64">
+        <v>1</v>
+      </c>
+      <c r="G10" s="64">
+        <v>1</v>
+      </c>
+      <c r="H10" s="64">
+        <v>1</v>
+      </c>
+      <c r="I10" s="64">
+        <v>0</v>
+      </c>
+      <c r="J10" s="64"/>
+      <c r="K10" s="64"/>
+      <c r="L10" s="61"/>
+      <c r="M10" s="61"/>
+    </row>
+    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A11" s="72"/>
+      <c r="B11" s="101" t="s">
+        <v>93</v>
+      </c>
+      <c r="C11" s="64" t="s">
+        <v>65</v>
+      </c>
+      <c r="D11" s="62">
         <v>0.5</v>
-      </c>
-      <c r="E2" s="24">
-        <v>1</v>
-      </c>
-      <c r="F2" s="24">
-        <v>1</v>
-      </c>
-      <c r="G2" s="24">
-        <v>1</v>
-      </c>
-      <c r="H2" s="24">
-        <v>1</v>
-      </c>
-      <c r="I2" s="24">
-        <v>1</v>
-      </c>
-      <c r="J2" s="24">
-        <v>0</v>
-      </c>
-      <c r="K2" s="24"/>
-      <c r="L2" s="25">
-        <v>43907</v>
-      </c>
-      <c r="M2" s="55">
-        <v>43911</v>
-      </c>
-    </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A3" s="75"/>
-      <c r="B3" s="52" t="s">
-        <v>94</v>
-      </c>
-      <c r="C3" s="53" t="s">
-        <v>47</v>
-      </c>
-      <c r="D3" s="54">
-        <v>0.2</v>
-      </c>
-      <c r="E3" s="65">
-        <v>1</v>
-      </c>
-      <c r="F3" s="53">
-        <v>1</v>
-      </c>
-      <c r="G3" s="53">
-        <v>1</v>
-      </c>
-      <c r="H3" s="53">
-        <v>1</v>
-      </c>
-      <c r="I3" s="53">
-        <v>1</v>
-      </c>
-      <c r="J3" s="53">
-        <v>0</v>
-      </c>
-      <c r="K3" s="53"/>
-      <c r="L3" s="55">
-        <v>43911</v>
-      </c>
-      <c r="M3" s="55">
-        <v>43997</v>
-      </c>
-    </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A4" s="75"/>
-      <c r="B4" s="52" t="s">
-        <v>95</v>
-      </c>
-      <c r="C4" s="53" t="s">
-        <v>65</v>
-      </c>
-      <c r="D4" s="54">
-        <v>0.3</v>
-      </c>
-      <c r="E4" s="53">
-        <v>1</v>
-      </c>
-      <c r="F4" s="53">
-        <v>1</v>
-      </c>
-      <c r="G4" s="53">
-        <v>1</v>
-      </c>
-      <c r="H4" s="53">
-        <v>1</v>
-      </c>
-      <c r="I4" s="53">
-        <v>1</v>
-      </c>
-      <c r="J4" s="53">
-        <v>0</v>
-      </c>
-      <c r="K4" s="53"/>
-      <c r="L4" s="55">
-        <v>43997</v>
-      </c>
-      <c r="M4" s="55"/>
-    </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A5" s="75"/>
-      <c r="B5" s="52" t="s">
-        <v>96</v>
-      </c>
-      <c r="C5" s="53" t="s">
-        <v>65</v>
-      </c>
-      <c r="D5" s="54">
-        <v>0.4</v>
-      </c>
-      <c r="E5" s="53">
-        <v>1</v>
-      </c>
-      <c r="F5" s="53">
-        <v>1</v>
-      </c>
-      <c r="G5" s="53">
-        <v>1</v>
-      </c>
-      <c r="H5" s="53">
-        <v>1</v>
-      </c>
-      <c r="I5" s="53">
-        <v>1</v>
-      </c>
-      <c r="J5" s="53">
-        <v>0</v>
-      </c>
-      <c r="K5" s="53"/>
-      <c r="L5" s="55"/>
-      <c r="M5" s="55"/>
-    </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A6" s="76"/>
-      <c r="B6" s="52" t="s">
-        <v>97</v>
-      </c>
-      <c r="C6" s="53" t="s">
-        <v>65</v>
-      </c>
-      <c r="D6" s="54">
-        <v>0.5</v>
-      </c>
-      <c r="E6" s="53">
-        <v>1</v>
-      </c>
-      <c r="F6" s="53">
-        <v>1</v>
-      </c>
-      <c r="G6" s="53">
-        <v>1</v>
-      </c>
-      <c r="H6" s="53">
-        <v>1</v>
-      </c>
-      <c r="I6" s="53">
-        <v>1</v>
-      </c>
-      <c r="J6" s="53">
-        <v>0</v>
-      </c>
-      <c r="K6" s="53"/>
-      <c r="L6" s="55"/>
-      <c r="M6" s="55"/>
-    </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A7" s="77" t="s">
-        <v>92</v>
-      </c>
-      <c r="B7" s="57" t="s">
-        <v>93</v>
-      </c>
-      <c r="C7" s="19" t="s">
-        <v>47</v>
-      </c>
-      <c r="D7" s="38">
-        <v>0.2</v>
-      </c>
-      <c r="E7" s="19">
-        <v>1</v>
-      </c>
-      <c r="F7" s="19">
-        <v>1</v>
-      </c>
-      <c r="G7" s="19">
-        <v>1</v>
-      </c>
-      <c r="H7" s="19">
-        <v>1</v>
-      </c>
-      <c r="I7" s="19">
-        <v>1</v>
-      </c>
-      <c r="J7" s="19">
-        <v>0</v>
-      </c>
-      <c r="K7" s="19"/>
-      <c r="L7" s="20">
-        <v>43931</v>
-      </c>
-      <c r="M7" s="58">
-        <v>43952</v>
-      </c>
-    </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A8" s="78"/>
-      <c r="B8" s="59" t="s">
-        <v>94</v>
-      </c>
-      <c r="C8" t="s">
-        <v>88</v>
-      </c>
-      <c r="D8" s="18">
-        <v>0.1</v>
-      </c>
-      <c r="E8">
-        <v>1</v>
-      </c>
-      <c r="F8">
-        <v>1</v>
-      </c>
-      <c r="G8">
-        <v>1</v>
-      </c>
-      <c r="H8">
-        <v>1</v>
-      </c>
-      <c r="I8">
-        <v>1</v>
-      </c>
-      <c r="J8">
-        <v>0</v>
-      </c>
-      <c r="L8" s="60">
-        <v>43952</v>
-      </c>
-      <c r="M8" s="60">
-        <v>44006</v>
-      </c>
-    </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A9" s="78"/>
-      <c r="B9" s="59" t="s">
-        <v>98</v>
-      </c>
-      <c r="C9" s="10" t="s">
-        <v>89</v>
-      </c>
-      <c r="D9" s="18">
-        <v>0.1</v>
-      </c>
-      <c r="E9">
-        <v>1</v>
-      </c>
-      <c r="F9">
-        <v>1</v>
-      </c>
-      <c r="G9">
-        <v>1</v>
-      </c>
-      <c r="H9">
-        <v>1</v>
-      </c>
-      <c r="I9">
-        <v>1</v>
-      </c>
-      <c r="J9">
-        <v>0</v>
-      </c>
-      <c r="L9" s="60">
-        <v>44006</v>
-      </c>
-      <c r="M9" s="60"/>
-    </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A10" s="79"/>
-      <c r="B10" s="61" t="s">
-        <v>95</v>
-      </c>
-      <c r="C10" s="17" t="s">
-        <v>90</v>
-      </c>
-      <c r="D10" s="39">
-        <v>0.3</v>
-      </c>
-      <c r="E10">
-        <v>1</v>
-      </c>
-      <c r="F10">
-        <v>1</v>
-      </c>
-      <c r="G10">
-        <v>1</v>
-      </c>
-      <c r="H10">
-        <v>1</v>
-      </c>
-      <c r="I10">
-        <v>1</v>
-      </c>
-      <c r="J10">
-        <v>0</v>
-      </c>
-      <c r="L10" s="60"/>
-      <c r="M10" s="63"/>
-    </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A11" s="80" t="s">
-        <v>85</v>
-      </c>
-      <c r="B11" s="50" t="s">
-        <v>93</v>
-      </c>
-      <c r="C11" s="24" t="s">
-        <v>47</v>
-      </c>
-      <c r="D11" s="37">
-        <v>0.2</v>
       </c>
       <c r="E11" s="64">
         <v>1</v>
       </c>
-      <c r="F11" s="24">
+      <c r="F11" s="64">
         <v>1</v>
       </c>
-      <c r="G11" s="24">
+      <c r="G11" s="64">
         <v>1</v>
       </c>
-      <c r="H11" s="24">
+      <c r="H11" s="64">
         <v>1</v>
       </c>
-      <c r="I11" s="24">
+      <c r="I11" s="64">
+        <v>0</v>
+      </c>
+      <c r="J11" s="64"/>
+      <c r="K11" s="64"/>
+      <c r="L11" s="61"/>
+      <c r="M11" s="61"/>
+    </row>
+    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A12" s="73" t="s">
+        <v>85</v>
+      </c>
+      <c r="B12" s="89" t="s">
+        <v>89</v>
+      </c>
+      <c r="C12" s="98" t="s">
+        <v>47</v>
+      </c>
+      <c r="D12" s="88">
+        <v>0.5</v>
+      </c>
+      <c r="E12" s="86">
         <v>1</v>
       </c>
-      <c r="J11" s="24">
+      <c r="F12" s="86">
+        <v>1</v>
+      </c>
+      <c r="G12" s="86">
+        <v>1</v>
+      </c>
+      <c r="H12" s="86">
+        <v>1</v>
+      </c>
+      <c r="I12" s="86">
         <v>0</v>
       </c>
-      <c r="K11" s="24"/>
-      <c r="L11" s="25">
-        <v>43931</v>
-      </c>
-      <c r="M11" s="51">
-        <v>43952</v>
-      </c>
-    </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A12" s="81"/>
-      <c r="B12" s="52" t="s">
+      <c r="J12" s="86"/>
+      <c r="K12" s="86"/>
+      <c r="L12" s="87">
+        <v>43907</v>
+      </c>
+      <c r="M12" s="90">
+        <v>43911</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A13" s="74"/>
+      <c r="B13" s="91" t="s">
+        <v>90</v>
+      </c>
+      <c r="C13" s="92" t="s">
+        <v>47</v>
+      </c>
+      <c r="D13" s="93">
+        <v>0.3</v>
+      </c>
+      <c r="E13" s="96">
+        <v>1</v>
+      </c>
+      <c r="F13" s="92">
+        <v>1</v>
+      </c>
+      <c r="G13" s="92">
+        <v>1</v>
+      </c>
+      <c r="H13" s="92">
+        <v>1</v>
+      </c>
+      <c r="I13" s="92">
+        <v>0</v>
+      </c>
+      <c r="J13" s="92"/>
+      <c r="K13" s="92"/>
+      <c r="L13" s="94">
+        <v>43911</v>
+      </c>
+      <c r="M13" s="94">
+        <v>43956</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13" s="84" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="74"/>
+      <c r="B14" s="91" t="s">
         <v>94</v>
       </c>
-      <c r="C12" s="53" t="s">
+      <c r="C14" s="92" t="s">
+        <v>47</v>
+      </c>
+      <c r="D14" s="93">
+        <v>0.2</v>
+      </c>
+      <c r="E14" s="96">
+        <v>1</v>
+      </c>
+      <c r="F14" s="92">
+        <v>1</v>
+      </c>
+      <c r="G14" s="92">
+        <v>1</v>
+      </c>
+      <c r="H14" s="92">
+        <v>1</v>
+      </c>
+      <c r="I14" s="92">
+        <v>0</v>
+      </c>
+      <c r="J14" s="92"/>
+      <c r="K14" s="92"/>
+      <c r="L14" s="94">
+        <v>43956</v>
+      </c>
+      <c r="M14" s="94"/>
+    </row>
+    <row r="15" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A15" s="74"/>
+      <c r="B15" s="91" t="s">
+        <v>91</v>
+      </c>
+      <c r="C15" s="92" t="s">
         <v>65</v>
       </c>
-      <c r="D12" s="54">
-        <v>0.15</v>
-      </c>
-      <c r="E12" s="53">
+      <c r="D15" s="93">
+        <v>0.3</v>
+      </c>
+      <c r="E15" s="92">
         <v>1</v>
       </c>
-      <c r="F12" s="53">
+      <c r="F15" s="92">
         <v>1</v>
       </c>
-      <c r="G12" s="53">
+      <c r="G15" s="92">
         <v>1</v>
       </c>
-      <c r="H12" s="53">
+      <c r="H15" s="92">
         <v>1</v>
       </c>
-      <c r="I12" s="53">
+      <c r="I15" s="92">
+        <v>0</v>
+      </c>
+      <c r="J15" s="92"/>
+      <c r="K15" s="92"/>
+      <c r="L15" s="94"/>
+      <c r="M15" s="94"/>
+    </row>
+    <row r="16" spans="1:13" s="84" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="74"/>
+      <c r="B16" s="91" t="s">
+        <v>92</v>
+      </c>
+      <c r="C16" s="92" t="s">
+        <v>65</v>
+      </c>
+      <c r="D16" s="93">
+        <v>0.4</v>
+      </c>
+      <c r="E16" s="92">
         <v>1</v>
       </c>
-      <c r="J12" s="53">
+      <c r="F16" s="92">
+        <v>1</v>
+      </c>
+      <c r="G16" s="92">
+        <v>1</v>
+      </c>
+      <c r="H16" s="92">
+        <v>1</v>
+      </c>
+      <c r="I16" s="92">
         <v>0</v>
       </c>
-      <c r="K12" s="53"/>
-      <c r="L12" s="55">
-        <v>43952</v>
-      </c>
-      <c r="M12" s="56">
-        <v>44006</v>
-      </c>
-    </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A13" s="81"/>
-      <c r="B13" s="52" t="s">
-        <v>98</v>
-      </c>
-      <c r="C13" s="53" t="s">
+      <c r="J16" s="92"/>
+      <c r="K16" s="92"/>
+      <c r="L16" s="94"/>
+      <c r="M16" s="94"/>
+    </row>
+    <row r="17" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A17" s="75"/>
+      <c r="B17" s="91" t="s">
+        <v>93</v>
+      </c>
+      <c r="C17" s="92" t="s">
         <v>65</v>
       </c>
-      <c r="D13" s="54">
+      <c r="D17" s="93">
+        <v>0.5</v>
+      </c>
+      <c r="E17" s="92">
+        <v>1</v>
+      </c>
+      <c r="F17" s="92">
+        <v>1</v>
+      </c>
+      <c r="G17" s="92">
+        <v>1</v>
+      </c>
+      <c r="H17" s="92">
+        <v>1</v>
+      </c>
+      <c r="I17" s="92">
+        <v>0</v>
+      </c>
+      <c r="J17" s="92"/>
+      <c r="K17" s="92"/>
+      <c r="L17" s="94"/>
+      <c r="M17" s="97"/>
+    </row>
+    <row r="18" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A18" s="70" t="s">
+        <v>86</v>
+      </c>
+      <c r="B18" s="81" t="s">
+        <v>89</v>
+      </c>
+      <c r="C18" s="100" t="s">
+        <v>47</v>
+      </c>
+      <c r="D18" s="58">
+        <v>0.5</v>
+      </c>
+      <c r="E18" s="59">
+        <v>1</v>
+      </c>
+      <c r="F18" s="59">
+        <v>1</v>
+      </c>
+      <c r="G18" s="59">
+        <v>1</v>
+      </c>
+      <c r="H18" s="59">
+        <v>1</v>
+      </c>
+      <c r="I18" s="59">
+        <v>0</v>
+      </c>
+      <c r="J18" s="59"/>
+      <c r="K18" s="59"/>
+      <c r="L18" s="60">
+        <v>43907</v>
+      </c>
+      <c r="M18" s="102">
+        <v>43911</v>
+      </c>
+    </row>
+    <row r="19" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A19" s="71"/>
+      <c r="B19" s="101" t="s">
+        <v>90</v>
+      </c>
+      <c r="C19" s="64" t="s">
+        <v>47</v>
+      </c>
+      <c r="D19" s="62">
+        <v>0.3</v>
+      </c>
+      <c r="E19" s="63">
+        <v>1</v>
+      </c>
+      <c r="F19" s="64">
+        <v>1</v>
+      </c>
+      <c r="G19" s="64">
+        <v>1</v>
+      </c>
+      <c r="H19" s="64">
+        <v>1</v>
+      </c>
+      <c r="I19" s="64">
+        <v>0</v>
+      </c>
+      <c r="J19" s="64"/>
+      <c r="K19" s="64"/>
+      <c r="L19" s="61">
+        <v>43911</v>
+      </c>
+      <c r="M19" s="61">
+        <v>43956</v>
+      </c>
+    </row>
+    <row r="20" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A20" s="71"/>
+      <c r="B20" s="101" t="s">
+        <v>94</v>
+      </c>
+      <c r="C20" s="64" t="s">
+        <v>47</v>
+      </c>
+      <c r="D20" s="62">
+        <v>0.2</v>
+      </c>
+      <c r="E20" s="63">
+        <v>1</v>
+      </c>
+      <c r="F20" s="64">
+        <v>1</v>
+      </c>
+      <c r="G20" s="64">
+        <v>1</v>
+      </c>
+      <c r="H20" s="64">
+        <v>1</v>
+      </c>
+      <c r="I20" s="64">
+        <v>0</v>
+      </c>
+      <c r="J20" s="64"/>
+      <c r="K20" s="64"/>
+      <c r="L20" s="61">
+        <v>43956</v>
+      </c>
+      <c r="M20" s="61"/>
+    </row>
+    <row r="21" spans="1:13" s="84" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="71"/>
+      <c r="B21" s="101" t="s">
+        <v>91</v>
+      </c>
+      <c r="C21" s="64" t="s">
+        <v>65</v>
+      </c>
+      <c r="D21" s="62">
+        <v>0.3</v>
+      </c>
+      <c r="E21" s="64">
+        <v>1</v>
+      </c>
+      <c r="F21" s="64">
+        <v>1</v>
+      </c>
+      <c r="G21" s="64">
+        <v>1</v>
+      </c>
+      <c r="H21" s="64">
+        <v>1</v>
+      </c>
+      <c r="I21" s="64">
+        <v>0</v>
+      </c>
+      <c r="J21" s="64"/>
+      <c r="K21" s="64"/>
+      <c r="L21" s="61"/>
+      <c r="M21" s="61"/>
+    </row>
+    <row r="22" spans="1:13" s="84" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A22" s="71"/>
+      <c r="B22" s="101" t="s">
+        <v>92</v>
+      </c>
+      <c r="C22" s="64" t="s">
+        <v>65</v>
+      </c>
+      <c r="D22" s="62">
+        <v>0.4</v>
+      </c>
+      <c r="E22" s="64">
+        <v>1</v>
+      </c>
+      <c r="F22" s="64">
+        <v>1</v>
+      </c>
+      <c r="G22" s="64">
+        <v>1</v>
+      </c>
+      <c r="H22" s="64">
+        <v>1</v>
+      </c>
+      <c r="I22" s="64">
+        <v>0</v>
+      </c>
+      <c r="J22" s="64"/>
+      <c r="K22" s="64"/>
+      <c r="L22" s="61"/>
+      <c r="M22" s="61"/>
+    </row>
+    <row r="23" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A23" s="72"/>
+      <c r="B23" s="101" t="s">
+        <v>93</v>
+      </c>
+      <c r="C23" s="64" t="s">
+        <v>65</v>
+      </c>
+      <c r="D23" s="62">
+        <v>0.5</v>
+      </c>
+      <c r="E23" s="64">
+        <v>1</v>
+      </c>
+      <c r="F23" s="64">
+        <v>1</v>
+      </c>
+      <c r="G23" s="64">
+        <v>1</v>
+      </c>
+      <c r="H23" s="64">
+        <v>1</v>
+      </c>
+      <c r="I23" s="64">
+        <v>0</v>
+      </c>
+      <c r="J23" s="64"/>
+      <c r="K23" s="64"/>
+      <c r="L23" s="61"/>
+      <c r="M23" s="103"/>
+    </row>
+    <row r="24" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A24" s="73" t="s">
+        <v>87</v>
+      </c>
+      <c r="B24" s="46" t="s">
+        <v>89</v>
+      </c>
+      <c r="C24" s="22" t="s">
+        <v>47</v>
+      </c>
+      <c r="D24" s="35">
+        <v>0.8</v>
+      </c>
+      <c r="E24" s="52">
+        <v>1</v>
+      </c>
+      <c r="F24" s="22">
+        <v>1</v>
+      </c>
+      <c r="G24" s="22">
+        <v>1</v>
+      </c>
+      <c r="H24" s="22">
+        <v>1</v>
+      </c>
+      <c r="I24" s="22">
+        <v>0</v>
+      </c>
+      <c r="J24" s="22"/>
+      <c r="K24" s="22"/>
+      <c r="L24" s="87">
+        <v>43907</v>
+      </c>
+      <c r="M24" s="90">
+        <v>43911</v>
+      </c>
+    </row>
+    <row r="25" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A25" s="74"/>
+      <c r="B25" s="47" t="s">
+        <v>90</v>
+      </c>
+      <c r="C25" s="48" t="s">
+        <v>65</v>
+      </c>
+      <c r="D25" s="49">
+        <v>0.3</v>
+      </c>
+      <c r="E25" s="48">
+        <v>1</v>
+      </c>
+      <c r="F25" s="48">
+        <v>1</v>
+      </c>
+      <c r="G25" s="48">
+        <v>1</v>
+      </c>
+      <c r="H25" s="48">
+        <v>1</v>
+      </c>
+      <c r="I25" s="48">
+        <v>0</v>
+      </c>
+      <c r="J25" s="48"/>
+      <c r="K25" s="48"/>
+      <c r="L25" s="94">
+        <v>43911</v>
+      </c>
+      <c r="M25" s="94">
+        <v>43987</v>
+      </c>
+    </row>
+    <row r="26" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A26" s="74"/>
+      <c r="B26" s="47" t="s">
+        <v>94</v>
+      </c>
+      <c r="C26" s="48" t="s">
+        <v>65</v>
+      </c>
+      <c r="D26" s="49">
         <v>0.1</v>
       </c>
-      <c r="E13" s="65">
+      <c r="E26" s="53">
         <v>1</v>
       </c>
-      <c r="F13" s="53">
+      <c r="F26" s="48">
         <v>1</v>
       </c>
-      <c r="G13" s="53">
+      <c r="G26" s="48">
         <v>1</v>
       </c>
-      <c r="H13" s="53">
+      <c r="H26" s="48">
         <v>1</v>
       </c>
-      <c r="I13" s="53">
+      <c r="I26" s="48">
+        <v>0</v>
+      </c>
+      <c r="J26" s="48"/>
+      <c r="K26" s="48"/>
+      <c r="L26" s="94"/>
+      <c r="M26" s="51"/>
+    </row>
+    <row r="27" spans="1:13" s="84" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A27" s="74"/>
+      <c r="B27" s="91" t="s">
+        <v>91</v>
+      </c>
+      <c r="C27" s="92" t="s">
+        <v>65</v>
+      </c>
+      <c r="D27" s="93">
+        <v>0.4</v>
+      </c>
+      <c r="E27" s="92">
         <v>1</v>
       </c>
-      <c r="J13" s="53">
+      <c r="F27" s="92">
+        <v>1</v>
+      </c>
+      <c r="G27" s="92">
+        <v>1</v>
+      </c>
+      <c r="H27" s="92">
+        <v>1</v>
+      </c>
+      <c r="I27" s="92">
         <v>0</v>
       </c>
-      <c r="K13" s="53"/>
-      <c r="L13" s="55">
-        <v>44006</v>
-      </c>
-      <c r="M13" s="56"/>
-    </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A14" s="82"/>
-      <c r="B14" s="52" t="s">
-        <v>95</v>
-      </c>
-      <c r="C14" s="53" t="s">
+      <c r="J27" s="92"/>
+      <c r="K27" s="92"/>
+      <c r="L27" s="94">
+        <v>43987</v>
+      </c>
+      <c r="M27" s="94"/>
+    </row>
+    <row r="28" spans="1:13" s="84" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A28" s="74"/>
+      <c r="B28" s="91" t="s">
+        <v>92</v>
+      </c>
+      <c r="C28" s="92" t="s">
         <v>65</v>
       </c>
-      <c r="D14" s="54">
+      <c r="D28" s="93">
+        <v>0.5</v>
+      </c>
+      <c r="E28" s="92">
+        <v>1</v>
+      </c>
+      <c r="F28" s="92">
+        <v>1</v>
+      </c>
+      <c r="G28" s="92">
+        <v>1</v>
+      </c>
+      <c r="H28" s="92">
+        <v>1</v>
+      </c>
+      <c r="I28" s="92">
+        <v>0</v>
+      </c>
+      <c r="J28" s="92"/>
+      <c r="K28" s="92"/>
+      <c r="L28" s="94"/>
+      <c r="M28" s="95"/>
+    </row>
+    <row r="29" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A29" s="75"/>
+      <c r="B29" s="99" t="s">
+        <v>93</v>
+      </c>
+      <c r="C29" s="25" t="s">
+        <v>65</v>
+      </c>
+      <c r="D29" s="57">
         <v>0.3</v>
       </c>
-      <c r="E14" s="27">
+      <c r="E29" s="25">
         <v>1</v>
       </c>
-      <c r="F14" s="27">
+      <c r="F29" s="25">
         <v>1</v>
       </c>
-      <c r="G14" s="27">
+      <c r="G29" s="25">
         <v>1</v>
       </c>
-      <c r="H14" s="27">
+      <c r="H29" s="25">
         <v>1</v>
       </c>
-      <c r="I14" s="27">
-        <v>1</v>
-      </c>
-      <c r="J14" s="27">
+      <c r="I29" s="25">
         <v>0</v>
       </c>
-      <c r="K14" s="27"/>
-      <c r="L14" s="55"/>
-      <c r="M14" s="56"/>
-    </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A15" s="77" t="s">
-        <v>86</v>
-      </c>
-      <c r="B15" s="57" t="s">
-        <v>93</v>
-      </c>
-      <c r="C15" s="19" t="s">
-        <v>47</v>
-      </c>
-      <c r="D15" s="38">
-        <v>0.2</v>
-      </c>
-      <c r="E15" s="19">
-        <v>1</v>
-      </c>
-      <c r="F15" s="19">
-        <v>1</v>
-      </c>
-      <c r="G15" s="19">
-        <v>1</v>
-      </c>
-      <c r="H15" s="19">
-        <v>1</v>
-      </c>
-      <c r="I15" s="19">
-        <v>1</v>
-      </c>
-      <c r="J15" s="19">
-        <v>0</v>
-      </c>
-      <c r="K15" s="19"/>
-      <c r="L15" s="20">
-        <v>43922</v>
-      </c>
-      <c r="M15" s="58">
-        <v>43952</v>
-      </c>
-    </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A16" s="78"/>
-      <c r="B16" s="59" t="s">
-        <v>94</v>
-      </c>
-      <c r="C16" t="s">
-        <v>88</v>
-      </c>
-      <c r="D16" s="18">
-        <v>0.15</v>
-      </c>
-      <c r="E16">
-        <v>1</v>
-      </c>
-      <c r="F16">
-        <v>1</v>
-      </c>
-      <c r="G16">
-        <v>1</v>
-      </c>
-      <c r="H16">
-        <v>1</v>
-      </c>
-      <c r="I16">
-        <v>1</v>
-      </c>
-      <c r="J16">
-        <v>0</v>
-      </c>
-      <c r="L16" s="60">
-        <v>43952</v>
-      </c>
-      <c r="M16" s="60">
-        <v>43971</v>
-      </c>
-    </row>
-    <row r="17" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A17" s="78"/>
-      <c r="B17" s="59" t="s">
-        <v>98</v>
-      </c>
-      <c r="C17" t="s">
-        <v>88</v>
-      </c>
-      <c r="D17" s="18">
-        <v>0.1</v>
-      </c>
-      <c r="E17" s="9">
-        <v>1</v>
-      </c>
-      <c r="F17">
-        <v>1</v>
-      </c>
-      <c r="G17">
-        <v>1</v>
-      </c>
-      <c r="H17">
-        <v>1</v>
-      </c>
-      <c r="I17">
-        <v>1</v>
-      </c>
-      <c r="J17">
-        <v>0</v>
-      </c>
-      <c r="L17" s="60">
-        <v>43971</v>
-      </c>
-      <c r="M17" s="60"/>
-    </row>
-    <row r="18" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A18" s="79"/>
-      <c r="B18" s="61" t="s">
-        <v>95</v>
-      </c>
-      <c r="C18" s="17" t="s">
-        <v>91</v>
-      </c>
-      <c r="D18" s="39">
-        <v>0.3</v>
-      </c>
-      <c r="E18" s="17">
-        <v>1</v>
-      </c>
-      <c r="F18" s="17">
-        <v>1</v>
-      </c>
-      <c r="G18" s="17">
-        <v>1</v>
-      </c>
-      <c r="H18" s="17">
-        <v>1</v>
-      </c>
-      <c r="I18" s="17">
-        <v>1</v>
-      </c>
-      <c r="J18" s="17">
-        <v>0</v>
-      </c>
-      <c r="K18" s="17"/>
-      <c r="L18" s="62"/>
-      <c r="M18" s="63"/>
-    </row>
-    <row r="19" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A19" s="80" t="s">
-        <v>87</v>
-      </c>
-      <c r="B19" s="50" t="s">
-        <v>93</v>
-      </c>
-      <c r="C19" s="24" t="s">
-        <v>47</v>
-      </c>
-      <c r="D19" s="37">
-        <v>0.2</v>
-      </c>
-      <c r="E19" s="64">
-        <v>1</v>
-      </c>
-      <c r="F19" s="24">
-        <v>1</v>
-      </c>
-      <c r="G19" s="24">
-        <v>1</v>
-      </c>
-      <c r="H19" s="24">
-        <v>1</v>
-      </c>
-      <c r="I19" s="24">
-        <v>1</v>
-      </c>
-      <c r="J19" s="24">
-        <v>0</v>
-      </c>
-      <c r="K19" s="24"/>
-      <c r="L19" s="25">
-        <v>43931</v>
-      </c>
-      <c r="M19" s="51">
-        <v>43952</v>
-      </c>
-    </row>
-    <row r="20" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A20" s="81"/>
-      <c r="B20" s="52" t="s">
-        <v>94</v>
-      </c>
-      <c r="C20" s="53" t="s">
-        <v>65</v>
-      </c>
-      <c r="D20" s="54">
-        <v>0.15</v>
-      </c>
-      <c r="E20" s="53">
-        <v>1</v>
-      </c>
-      <c r="F20" s="53">
-        <v>1</v>
-      </c>
-      <c r="G20" s="53">
-        <v>1</v>
-      </c>
-      <c r="H20" s="53">
-        <v>1</v>
-      </c>
-      <c r="I20" s="53">
-        <v>1</v>
-      </c>
-      <c r="J20" s="53">
-        <v>0</v>
-      </c>
-      <c r="K20" s="53"/>
-      <c r="L20" s="55">
-        <v>43952</v>
-      </c>
-      <c r="M20" s="56">
-        <v>44006</v>
-      </c>
-    </row>
-    <row r="21" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A21" s="81"/>
-      <c r="B21" s="52" t="s">
-        <v>98</v>
-      </c>
-      <c r="C21" s="53" t="s">
-        <v>65</v>
-      </c>
-      <c r="D21" s="54">
-        <v>0.1</v>
-      </c>
-      <c r="E21" s="65">
-        <v>1</v>
-      </c>
-      <c r="F21" s="53">
-        <v>1</v>
-      </c>
-      <c r="G21" s="53">
-        <v>1</v>
-      </c>
-      <c r="H21" s="53">
-        <v>1</v>
-      </c>
-      <c r="I21" s="53">
-        <v>1</v>
-      </c>
-      <c r="J21" s="53">
-        <v>0</v>
-      </c>
-      <c r="K21" s="53"/>
-      <c r="L21" s="55">
-        <v>44006</v>
-      </c>
-      <c r="M21" s="56"/>
-    </row>
-    <row r="22" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A22" s="82"/>
-      <c r="B22" s="69" t="s">
-        <v>95</v>
-      </c>
-      <c r="C22" s="27" t="s">
-        <v>65</v>
-      </c>
-      <c r="D22" s="70">
-        <v>0.3</v>
-      </c>
-      <c r="E22" s="27">
-        <v>1</v>
-      </c>
-      <c r="F22" s="27">
-        <v>1</v>
-      </c>
-      <c r="G22" s="27">
-        <v>1</v>
-      </c>
-      <c r="H22" s="27">
-        <v>1</v>
-      </c>
-      <c r="I22" s="27">
-        <v>1</v>
-      </c>
-      <c r="J22" s="27">
-        <v>0</v>
-      </c>
-      <c r="K22" s="27"/>
-      <c r="L22" s="66"/>
-      <c r="M22" s="67"/>
+      <c r="J29" s="25"/>
+      <c r="K29" s="25"/>
+      <c r="L29" s="54"/>
+      <c r="M29" s="55"/>
     </row>
   </sheetData>
   <mergeCells count="5">
     <mergeCell ref="A2:A6"/>
-    <mergeCell ref="A7:A10"/>
-    <mergeCell ref="A11:A14"/>
-    <mergeCell ref="A15:A18"/>
-    <mergeCell ref="A19:A22"/>
+    <mergeCell ref="A7:A11"/>
+    <mergeCell ref="A12:A17"/>
+    <mergeCell ref="A18:A23"/>
+    <mergeCell ref="A24:A29"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
@@ -22153,7 +22332,7 @@
   <dimension ref="A1:W6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+      <selection activeCell="V8" sqref="V8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -22237,7 +22416,7 @@
       </c>
     </row>
     <row r="2" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A2" s="49" t="s">
+      <c r="A2" s="45" t="s">
         <v>84</v>
       </c>
       <c r="B2" s="2">
@@ -22309,14 +22488,14 @@
       </c>
     </row>
     <row r="3" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A3" s="49" t="s">
-        <v>92</v>
-      </c>
-      <c r="B3" s="2">
-        <v>43917</v>
-      </c>
-      <c r="C3" s="2">
-        <v>44255</v>
+      <c r="A3" s="45" t="s">
+        <v>88</v>
+      </c>
+      <c r="B3" s="85">
+        <v>43888</v>
+      </c>
+      <c r="C3" s="85">
+        <v>44256</v>
       </c>
       <c r="D3">
         <v>3</v>
@@ -22358,14 +22537,14 @@
       <c r="P3">
         <v>60</v>
       </c>
-      <c r="Q3">
-        <v>1000</v>
+      <c r="Q3" s="84">
+        <v>3000</v>
       </c>
       <c r="R3">
         <v>1000</v>
       </c>
-      <c r="S3">
-        <v>10</v>
+      <c r="S3" s="84">
+        <v>25</v>
       </c>
       <c r="T3">
         <v>1</v>
@@ -22381,14 +22560,14 @@
       </c>
     </row>
     <row r="4" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A4" s="49" t="s">
+      <c r="A4" s="45" t="s">
         <v>85</v>
       </c>
-      <c r="B4" s="2">
-        <v>43917</v>
-      </c>
-      <c r="C4" s="2">
-        <v>44255</v>
+      <c r="B4" s="85">
+        <v>43888</v>
+      </c>
+      <c r="C4" s="85">
+        <v>44256</v>
       </c>
       <c r="D4">
         <v>3</v>
@@ -22430,14 +22609,14 @@
       <c r="P4">
         <v>60</v>
       </c>
-      <c r="Q4">
-        <v>1000</v>
+      <c r="Q4" s="84">
+        <v>1500</v>
       </c>
       <c r="R4">
-        <v>5000</v>
+        <v>2000</v>
       </c>
       <c r="S4">
-        <v>10</v>
+        <v>50</v>
       </c>
       <c r="T4">
         <v>1</v>
@@ -22453,14 +22632,14 @@
       </c>
     </row>
     <row r="5" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A5" s="49" t="s">
+      <c r="A5" s="45" t="s">
         <v>86</v>
       </c>
-      <c r="B5" s="2">
-        <v>43917</v>
-      </c>
-      <c r="C5" s="2">
-        <v>44255</v>
+      <c r="B5" s="85">
+        <v>43888</v>
+      </c>
+      <c r="C5" s="85">
+        <v>44256</v>
       </c>
       <c r="D5">
         <v>3</v>
@@ -22503,13 +22682,13 @@
         <v>60</v>
       </c>
       <c r="Q5">
-        <v>1000</v>
+        <v>2000</v>
       </c>
       <c r="R5">
         <v>8000</v>
       </c>
       <c r="S5">
-        <v>10</v>
+        <v>25</v>
       </c>
       <c r="T5">
         <v>1</v>
@@ -22525,14 +22704,14 @@
       </c>
     </row>
     <row r="6" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A6" s="49" t="s">
+      <c r="A6" s="45" t="s">
         <v>87</v>
       </c>
-      <c r="B6" s="2">
-        <v>43917</v>
-      </c>
-      <c r="C6" s="2">
-        <v>44255</v>
+      <c r="B6" s="85">
+        <v>43888</v>
+      </c>
+      <c r="C6" s="85">
+        <v>44256</v>
       </c>
       <c r="D6">
         <v>3</v>
@@ -22554,7 +22733,7 @@
         <v>1.2</v>
       </c>
       <c r="J6">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="K6">
         <v>1.5E-3</v>
@@ -22580,8 +22759,8 @@
       <c r="R6">
         <v>8000</v>
       </c>
-      <c r="S6">
-        <v>10</v>
+      <c r="S6" s="84">
+        <v>25</v>
       </c>
       <c r="T6">
         <v>1</v>
@@ -22611,15 +22790,15 @@
   <dimension ref="A1:I11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G18" sqref="G18"/>
+      <selection activeCell="C28" sqref="C28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="27.7109375" style="44" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="13.140625" style="44" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="41.42578125" style="44" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="15.28515625" style="42" customWidth="1"/>
+    <col min="1" max="1" width="27.7109375" style="40" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13.140625" style="40" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="41.42578125" style="40" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="15.28515625" style="38" customWidth="1"/>
     <col min="5" max="5" width="15.28515625" style="5" customWidth="1"/>
     <col min="6" max="6" width="17.7109375" style="5" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="17.7109375" style="5" customWidth="1"/>
@@ -22628,253 +22807,253 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A1" s="43" t="s">
+      <c r="A1" s="39" t="s">
         <v>17</v>
       </c>
-      <c r="B1" s="31" t="s">
+      <c r="B1" s="29" t="s">
         <v>41</v>
       </c>
-      <c r="C1" s="31" t="s">
+      <c r="C1" s="29" t="s">
         <v>42</v>
       </c>
-      <c r="D1" s="35" t="s">
+      <c r="D1" s="33" t="s">
         <v>78</v>
       </c>
-      <c r="E1" s="35" t="s">
+      <c r="E1" s="33" t="s">
         <v>39</v>
       </c>
-      <c r="F1" s="35" t="s">
+      <c r="F1" s="33" t="s">
         <v>77</v>
       </c>
-      <c r="G1" s="35" t="s">
+      <c r="G1" s="33" t="s">
         <v>74</v>
       </c>
-      <c r="H1" s="35" t="s">
+      <c r="H1" s="33" t="s">
         <v>66</v>
       </c>
-      <c r="I1" s="32" t="s">
+      <c r="I1" s="30" t="s">
         <v>67</v>
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A2" s="83" t="s">
+      <c r="A2" s="76" t="s">
         <v>84</v>
       </c>
-      <c r="B2" s="45" t="s">
+      <c r="B2" s="41" t="s">
         <v>70</v>
       </c>
-      <c r="C2" s="26" t="s">
+      <c r="C2" s="24" t="s">
         <v>72</v>
       </c>
-      <c r="D2" s="40" t="s">
+      <c r="D2" s="36" t="s">
         <v>75</v>
       </c>
-      <c r="E2" s="40">
+      <c r="E2" s="36">
         <v>0</v>
       </c>
-      <c r="F2" s="40">
+      <c r="F2" s="36">
         <v>0</v>
       </c>
-      <c r="G2" s="40">
+      <c r="G2" s="36">
         <v>0</v>
       </c>
-      <c r="H2" s="25"/>
-      <c r="I2" s="26"/>
+      <c r="H2" s="23"/>
+      <c r="I2" s="24"/>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A3" s="84"/>
-      <c r="B3" s="46" t="s">
+      <c r="A3" s="77"/>
+      <c r="B3" s="42" t="s">
         <v>71</v>
       </c>
-      <c r="C3" s="29" t="s">
+      <c r="C3" s="27" t="s">
         <v>73</v>
       </c>
-      <c r="D3" s="28" t="s">
+      <c r="D3" s="26" t="s">
         <v>76</v>
       </c>
-      <c r="E3" s="28">
+      <c r="E3" s="26">
         <v>0</v>
       </c>
-      <c r="F3" s="28"/>
-      <c r="G3" s="28"/>
-      <c r="H3" s="28"/>
-      <c r="I3" s="29"/>
+      <c r="F3" s="26"/>
+      <c r="G3" s="26"/>
+      <c r="H3" s="26"/>
+      <c r="I3" s="27"/>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A4" s="85" t="s">
-        <v>92</v>
-      </c>
-      <c r="B4" s="47" t="s">
+      <c r="A4" s="78" t="s">
+        <v>88</v>
+      </c>
+      <c r="B4" s="43" t="s">
         <v>70</v>
       </c>
-      <c r="C4" s="41" t="s">
+      <c r="C4" s="37" t="s">
         <v>72</v>
       </c>
-      <c r="D4" s="41" t="s">
+      <c r="D4" s="37" t="s">
         <v>75</v>
       </c>
-      <c r="E4" s="41">
+      <c r="E4" s="37">
         <v>0</v>
       </c>
-      <c r="F4" s="41">
+      <c r="F4" s="37">
         <v>0</v>
       </c>
-      <c r="G4" s="41">
+      <c r="G4" s="37">
         <v>0</v>
       </c>
-      <c r="H4" s="20"/>
-      <c r="I4" s="22"/>
+      <c r="H4" s="18"/>
+      <c r="I4" s="20"/>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A5" s="86"/>
-      <c r="B5" s="48" t="s">
+      <c r="A5" s="79"/>
+      <c r="B5" s="44" t="s">
         <v>71</v>
       </c>
-      <c r="C5" s="21" t="s">
+      <c r="C5" s="19" t="s">
         <v>73</v>
       </c>
-      <c r="D5" s="21" t="s">
+      <c r="D5" s="19" t="s">
         <v>76</v>
       </c>
-      <c r="E5" s="21">
+      <c r="E5" s="19">
         <v>0</v>
       </c>
-      <c r="F5" s="21"/>
-      <c r="G5" s="21"/>
-      <c r="H5" s="21"/>
-      <c r="I5" s="23"/>
+      <c r="F5" s="19"/>
+      <c r="G5" s="19"/>
+      <c r="H5" s="19"/>
+      <c r="I5" s="21"/>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A6" s="83" t="s">
+      <c r="A6" s="76" t="s">
         <v>85</v>
       </c>
-      <c r="B6" s="45" t="s">
+      <c r="B6" s="41" t="s">
         <v>70</v>
       </c>
-      <c r="C6" s="26" t="s">
+      <c r="C6" s="24" t="s">
         <v>72</v>
       </c>
-      <c r="D6" s="40" t="s">
+      <c r="D6" s="36" t="s">
         <v>75</v>
       </c>
-      <c r="E6" s="40">
+      <c r="E6" s="36">
         <v>0</v>
       </c>
-      <c r="F6" s="40">
+      <c r="F6" s="36">
         <v>0</v>
       </c>
-      <c r="G6" s="40">
+      <c r="G6" s="36">
         <v>0</v>
       </c>
-      <c r="H6" s="25"/>
-      <c r="I6" s="26"/>
+      <c r="H6" s="23"/>
+      <c r="I6" s="24"/>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A7" s="84"/>
-      <c r="B7" s="46" t="s">
+      <c r="A7" s="77"/>
+      <c r="B7" s="42" t="s">
         <v>71</v>
       </c>
-      <c r="C7" s="29" t="s">
+      <c r="C7" s="27" t="s">
         <v>73</v>
       </c>
-      <c r="D7" s="28" t="s">
+      <c r="D7" s="26" t="s">
         <v>76</v>
       </c>
-      <c r="E7" s="28">
+      <c r="E7" s="26">
         <v>0</v>
       </c>
-      <c r="F7" s="28"/>
-      <c r="G7" s="28"/>
-      <c r="H7" s="28"/>
-      <c r="I7" s="29"/>
+      <c r="F7" s="26"/>
+      <c r="G7" s="26"/>
+      <c r="H7" s="26"/>
+      <c r="I7" s="27"/>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A8" s="85" t="s">
+      <c r="A8" s="78" t="s">
         <v>86</v>
       </c>
-      <c r="B8" s="47" t="s">
+      <c r="B8" s="43" t="s">
         <v>70</v>
       </c>
-      <c r="C8" s="41" t="s">
+      <c r="C8" s="37" t="s">
         <v>72</v>
       </c>
-      <c r="D8" s="41" t="s">
+      <c r="D8" s="37" t="s">
         <v>75</v>
       </c>
-      <c r="E8" s="41">
+      <c r="E8" s="37">
         <v>0</v>
       </c>
-      <c r="F8" s="41">
+      <c r="F8" s="37">
         <v>0</v>
       </c>
-      <c r="G8" s="41">
+      <c r="G8" s="37">
         <v>0</v>
       </c>
-      <c r="H8" s="20"/>
-      <c r="I8" s="22"/>
+      <c r="H8" s="18"/>
+      <c r="I8" s="20"/>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A9" s="86"/>
-      <c r="B9" s="48" t="s">
+      <c r="A9" s="79"/>
+      <c r="B9" s="44" t="s">
         <v>71</v>
       </c>
-      <c r="C9" s="21" t="s">
+      <c r="C9" s="19" t="s">
         <v>73</v>
       </c>
-      <c r="D9" s="21" t="s">
+      <c r="D9" s="19" t="s">
         <v>76</v>
       </c>
-      <c r="E9" s="21">
+      <c r="E9" s="19">
         <v>0</v>
       </c>
-      <c r="F9" s="21"/>
-      <c r="G9" s="21"/>
-      <c r="H9" s="21"/>
-      <c r="I9" s="23"/>
+      <c r="F9" s="19"/>
+      <c r="G9" s="19"/>
+      <c r="H9" s="19"/>
+      <c r="I9" s="21"/>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A10" s="83" t="s">
+      <c r="A10" s="76" t="s">
         <v>87</v>
       </c>
-      <c r="B10" s="45" t="s">
+      <c r="B10" s="41" t="s">
         <v>70</v>
       </c>
-      <c r="C10" s="26" t="s">
+      <c r="C10" s="24" t="s">
         <v>72</v>
       </c>
-      <c r="D10" s="40" t="s">
+      <c r="D10" s="36" t="s">
         <v>75</v>
       </c>
-      <c r="E10" s="40">
+      <c r="E10" s="36">
         <v>0</v>
       </c>
-      <c r="F10" s="40">
+      <c r="F10" s="36">
         <v>0</v>
       </c>
-      <c r="G10" s="40">
+      <c r="G10" s="36">
         <v>0</v>
       </c>
-      <c r="H10" s="25"/>
-      <c r="I10" s="26"/>
+      <c r="H10" s="23"/>
+      <c r="I10" s="24"/>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A11" s="84"/>
-      <c r="B11" s="46" t="s">
+      <c r="A11" s="77"/>
+      <c r="B11" s="42" t="s">
         <v>71</v>
       </c>
-      <c r="C11" s="29" t="s">
+      <c r="C11" s="27" t="s">
         <v>73</v>
       </c>
-      <c r="D11" s="28" t="s">
+      <c r="D11" s="26" t="s">
         <v>76</v>
       </c>
-      <c r="E11" s="28">
+      <c r="E11" s="26">
         <v>0</v>
       </c>
-      <c r="F11" s="28"/>
-      <c r="G11" s="28"/>
-      <c r="H11" s="28"/>
-      <c r="I11" s="29"/>
+      <c r="F11" s="26"/>
+      <c r="G11" s="26"/>
+      <c r="H11" s="26"/>
+      <c r="I11" s="27"/>
     </row>
   </sheetData>
   <mergeCells count="5">
@@ -22948,7 +23127,7 @@
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A2" s="49" t="s">
+      <c r="A2" s="45" t="s">
         <v>84</v>
       </c>
       <c r="B2">
@@ -22980,8 +23159,8 @@
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A3" s="49" t="s">
-        <v>92</v>
+      <c r="A3" s="45" t="s">
+        <v>88</v>
       </c>
       <c r="B3">
         <v>4</v>
@@ -23012,7 +23191,7 @@
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A4" s="49" t="s">
+      <c r="A4" s="45" t="s">
         <v>87</v>
       </c>
       <c r="B4">
@@ -23044,7 +23223,7 @@
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A5" s="49" t="s">
+      <c r="A5" s="45" t="s">
         <v>85</v>
       </c>
       <c r="B5">
@@ -23076,7 +23255,7 @@
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A6" s="49" t="s">
+      <c r="A6" s="45" t="s">
         <v>86</v>
       </c>
       <c r="B6">
@@ -23170,7 +23349,7 @@
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A2" s="49" t="s">
+      <c r="A2" s="45" t="s">
         <v>84</v>
       </c>
       <c r="B2">
@@ -23202,8 +23381,8 @@
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A3" s="49" t="s">
-        <v>92</v>
+      <c r="A3" s="45" t="s">
+        <v>88</v>
       </c>
       <c r="B3">
         <v>6</v>
@@ -23234,7 +23413,7 @@
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A4" s="49" t="s">
+      <c r="A4" s="45" t="s">
         <v>87</v>
       </c>
       <c r="B4">
@@ -23266,7 +23445,7 @@
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A5" s="49" t="s">
+      <c r="A5" s="45" t="s">
         <v>85</v>
       </c>
       <c r="B5">
@@ -23298,7 +23477,7 @@
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A6" s="49" t="s">
+      <c r="A6" s="45" t="s">
         <v>86</v>
       </c>
       <c r="B6">
@@ -23391,7 +23570,7 @@
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A2" s="49" t="s">
+      <c r="A2" s="45" t="s">
         <v>84</v>
       </c>
       <c r="B2">
@@ -23423,8 +23602,8 @@
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A3" s="49" t="s">
-        <v>92</v>
+      <c r="A3" s="45" t="s">
+        <v>88</v>
       </c>
       <c r="B3">
         <v>3</v>
@@ -23455,7 +23634,7 @@
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A4" s="49" t="s">
+      <c r="A4" s="45" t="s">
         <v>87</v>
       </c>
       <c r="B4">
@@ -23487,7 +23666,7 @@
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A5" s="49" t="s">
+      <c r="A5" s="45" t="s">
         <v>85</v>
       </c>
       <c r="B5">
@@ -23519,7 +23698,7 @@
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A6" s="49" t="s">
+      <c r="A6" s="45" t="s">
         <v>86</v>
       </c>
       <c r="B6">
@@ -23613,7 +23792,7 @@
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A2" s="49" t="s">
+      <c r="A2" s="45" t="s">
         <v>84</v>
       </c>
       <c r="B2">
@@ -23645,8 +23824,8 @@
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A3" s="49" t="s">
-        <v>92</v>
+      <c r="A3" s="45" t="s">
+        <v>88</v>
       </c>
       <c r="B3">
         <v>23</v>
@@ -23677,7 +23856,7 @@
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A4" s="49" t="s">
+      <c r="A4" s="45" t="s">
         <v>87</v>
       </c>
       <c r="B4">
@@ -23709,7 +23888,7 @@
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A5" s="49" t="s">
+      <c r="A5" s="45" t="s">
         <v>85</v>
       </c>
       <c r="B5">
@@ -23741,7 +23920,7 @@
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A6" s="49" t="s">
+      <c r="A6" s="45" t="s">
         <v>86</v>
       </c>
       <c r="B6">

--- a/data/input_data_brazil.xlsx
+++ b/data/input_data_brazil.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\farah.houdroge\Documents\GitHub\covasim-australia\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ACC9D647-957F-47C5-B593-2BA6CC009B18}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{376EEDEF-4CA4-4FD8-ACD6-13CB11E4598A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="839" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="839" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="age_sex" sheetId="1" r:id="rId1"/>
@@ -740,7 +740,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="104">
+  <cellXfs count="103">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
@@ -806,7 +806,6 @@
     <xf numFmtId="0" fontId="1" fillId="3" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="20" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="18" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1"/>
@@ -836,15 +835,12 @@
       <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="13" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="0" fillId="2" borderId="22" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="0" fillId="2" borderId="23" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="24" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="0" fillId="2" borderId="9" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="0" fillId="2" borderId="19" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="25" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="21" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
@@ -852,16 +848,55 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="20" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="13" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="17" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="20" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="2" borderId="12" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="13" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="2" borderId="22" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="2" borderId="23" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="2" borderId="19" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="25" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="21" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -897,42 +932,6 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="20" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="13" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="17" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="0" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="20" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="2" borderId="12" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="13" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="0" fillId="2" borderId="22" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="0" fillId="2" borderId="23" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="0" fillId="2" borderId="19" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="25" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1371,10 +1370,10 @@
       </c>
     </row>
     <row r="2" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A2" s="67" t="s">
+      <c r="A2" s="87" t="s">
         <v>84</v>
       </c>
-      <c r="B2" s="45" t="s">
+      <c r="B2" s="44" t="s">
         <v>19</v>
       </c>
       <c r="C2">
@@ -1430,8 +1429,8 @@
       </c>
     </row>
     <row r="3" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A3" s="67"/>
-      <c r="B3" s="45" t="s">
+      <c r="A3" s="87"/>
+      <c r="B3" s="44" t="s">
         <v>20</v>
       </c>
       <c r="C3">
@@ -1487,10 +1486,10 @@
       </c>
     </row>
     <row r="4" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A4" s="67" t="s">
+      <c r="A4" s="87" t="s">
         <v>84</v>
       </c>
-      <c r="B4" s="45" t="s">
+      <c r="B4" s="44" t="s">
         <v>16</v>
       </c>
       <c r="C4">
@@ -1546,8 +1545,8 @@
       </c>
     </row>
     <row r="5" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A5" s="67"/>
-      <c r="B5" s="45" t="s">
+      <c r="A5" s="87"/>
+      <c r="B5" s="44" t="s">
         <v>21</v>
       </c>
       <c r="C5">
@@ -1603,10 +1602,10 @@
       </c>
     </row>
     <row r="6" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A6" s="65" t="s">
+      <c r="A6" s="88" t="s">
         <v>88</v>
       </c>
-      <c r="B6" s="45" t="s">
+      <c r="B6" s="44" t="s">
         <v>19</v>
       </c>
       <c r="C6">
@@ -1662,8 +1661,8 @@
       </c>
     </row>
     <row r="7" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A7" s="66"/>
-      <c r="B7" s="45" t="s">
+      <c r="A7" s="89"/>
+      <c r="B7" s="44" t="s">
         <v>20</v>
       </c>
       <c r="C7">
@@ -1719,10 +1718,10 @@
       </c>
     </row>
     <row r="8" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A8" s="65" t="s">
+      <c r="A8" s="88" t="s">
         <v>88</v>
       </c>
-      <c r="B8" s="45" t="s">
+      <c r="B8" s="44" t="s">
         <v>16</v>
       </c>
       <c r="C8">
@@ -1778,8 +1777,8 @@
       </c>
     </row>
     <row r="9" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A9" s="66"/>
-      <c r="B9" s="45" t="s">
+      <c r="A9" s="89"/>
+      <c r="B9" s="44" t="s">
         <v>21</v>
       </c>
       <c r="C9">
@@ -1835,10 +1834,10 @@
       </c>
     </row>
     <row r="10" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A10" s="65" t="s">
+      <c r="A10" s="88" t="s">
         <v>85</v>
       </c>
-      <c r="B10" s="45" t="s">
+      <c r="B10" s="44" t="s">
         <v>19</v>
       </c>
       <c r="C10">
@@ -1894,8 +1893,8 @@
       </c>
     </row>
     <row r="11" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A11" s="66"/>
-      <c r="B11" s="45" t="s">
+      <c r="A11" s="89"/>
+      <c r="B11" s="44" t="s">
         <v>20</v>
       </c>
       <c r="C11">
@@ -1951,10 +1950,10 @@
       </c>
     </row>
     <row r="12" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A12" s="65" t="s">
+      <c r="A12" s="88" t="s">
         <v>85</v>
       </c>
-      <c r="B12" s="45" t="s">
+      <c r="B12" s="44" t="s">
         <v>16</v>
       </c>
       <c r="C12">
@@ -2010,8 +2009,8 @@
       </c>
     </row>
     <row r="13" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A13" s="66"/>
-      <c r="B13" s="45" t="s">
+      <c r="A13" s="89"/>
+      <c r="B13" s="44" t="s">
         <v>21</v>
       </c>
       <c r="C13">
@@ -2067,10 +2066,10 @@
       </c>
     </row>
     <row r="14" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A14" s="65" t="s">
+      <c r="A14" s="88" t="s">
         <v>86</v>
       </c>
-      <c r="B14" s="45" t="s">
+      <c r="B14" s="44" t="s">
         <v>19</v>
       </c>
       <c r="C14">
@@ -2126,8 +2125,8 @@
       </c>
     </row>
     <row r="15" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A15" s="66"/>
-      <c r="B15" s="45" t="s">
+      <c r="A15" s="89"/>
+      <c r="B15" s="44" t="s">
         <v>20</v>
       </c>
       <c r="C15">
@@ -2183,10 +2182,10 @@
       </c>
     </row>
     <row r="16" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A16" s="65" t="s">
+      <c r="A16" s="88" t="s">
         <v>86</v>
       </c>
-      <c r="B16" s="45" t="s">
+      <c r="B16" s="44" t="s">
         <v>16</v>
       </c>
       <c r="C16">
@@ -2242,8 +2241,8 @@
       </c>
     </row>
     <row r="17" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A17" s="66"/>
-      <c r="B17" s="45" t="s">
+      <c r="A17" s="89"/>
+      <c r="B17" s="44" t="s">
         <v>21</v>
       </c>
       <c r="C17">
@@ -2299,10 +2298,10 @@
       </c>
     </row>
     <row r="18" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A18" s="65" t="s">
+      <c r="A18" s="88" t="s">
         <v>87</v>
       </c>
-      <c r="B18" s="45" t="s">
+      <c r="B18" s="44" t="s">
         <v>19</v>
       </c>
       <c r="C18">
@@ -2358,8 +2357,8 @@
       </c>
     </row>
     <row r="19" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A19" s="66"/>
-      <c r="B19" s="45" t="s">
+      <c r="A19" s="89"/>
+      <c r="B19" s="44" t="s">
         <v>20</v>
       </c>
       <c r="C19">
@@ -2415,10 +2414,10 @@
       </c>
     </row>
     <row r="20" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A20" s="65" t="s">
+      <c r="A20" s="88" t="s">
         <v>87</v>
       </c>
-      <c r="B20" s="45" t="s">
+      <c r="B20" s="44" t="s">
         <v>16</v>
       </c>
       <c r="C20">
@@ -2474,8 +2473,8 @@
       </c>
     </row>
     <row r="21" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A21" s="66"/>
-      <c r="B21" s="45" t="s">
+      <c r="A21" s="89"/>
+      <c r="B21" s="44" t="s">
         <v>21</v>
       </c>
       <c r="C21">
@@ -2532,16 +2531,16 @@
     </row>
   </sheetData>
   <mergeCells count="10">
+    <mergeCell ref="A12:A13"/>
+    <mergeCell ref="A14:A15"/>
+    <mergeCell ref="A16:A17"/>
+    <mergeCell ref="A18:A19"/>
+    <mergeCell ref="A20:A21"/>
     <mergeCell ref="A2:A3"/>
     <mergeCell ref="A4:A5"/>
     <mergeCell ref="A6:A7"/>
     <mergeCell ref="A8:A9"/>
     <mergeCell ref="A10:A11"/>
-    <mergeCell ref="A12:A13"/>
-    <mergeCell ref="A14:A15"/>
-    <mergeCell ref="A16:A17"/>
-    <mergeCell ref="A18:A19"/>
-    <mergeCell ref="A20:A21"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -2620,10 +2619,10 @@
       </c>
     </row>
     <row r="2" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A2" s="67" t="s">
+      <c r="A2" s="87" t="s">
         <v>84</v>
       </c>
-      <c r="B2" s="45" t="s">
+      <c r="B2" s="44" t="s">
         <v>0</v>
       </c>
       <c r="C2">
@@ -2679,8 +2678,8 @@
       </c>
     </row>
     <row r="3" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A3" s="67"/>
-      <c r="B3" s="45" t="s">
+      <c r="A3" s="87"/>
+      <c r="B3" s="44" t="s">
         <v>1</v>
       </c>
       <c r="C3">
@@ -2736,8 +2735,8 @@
       </c>
     </row>
     <row r="4" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A4" s="67"/>
-      <c r="B4" s="45" t="s">
+      <c r="A4" s="87"/>
+      <c r="B4" s="44" t="s">
         <v>2</v>
       </c>
       <c r="C4">
@@ -2793,8 +2792,8 @@
       </c>
     </row>
     <row r="5" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A5" s="67"/>
-      <c r="B5" s="45" t="s">
+      <c r="A5" s="87"/>
+      <c r="B5" s="44" t="s">
         <v>3</v>
       </c>
       <c r="C5">
@@ -2850,8 +2849,8 @@
       </c>
     </row>
     <row r="6" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A6" s="67"/>
-      <c r="B6" s="45" t="s">
+      <c r="A6" s="87"/>
+      <c r="B6" s="44" t="s">
         <v>4</v>
       </c>
       <c r="C6">
@@ -2907,8 +2906,8 @@
       </c>
     </row>
     <row r="7" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A7" s="67"/>
-      <c r="B7" s="45" t="s">
+      <c r="A7" s="87"/>
+      <c r="B7" s="44" t="s">
         <v>5</v>
       </c>
       <c r="C7">
@@ -2964,8 +2963,8 @@
       </c>
     </row>
     <row r="8" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A8" s="67"/>
-      <c r="B8" s="45" t="s">
+      <c r="A8" s="87"/>
+      <c r="B8" s="44" t="s">
         <v>6</v>
       </c>
       <c r="C8">
@@ -3021,8 +3020,8 @@
       </c>
     </row>
     <row r="9" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A9" s="67"/>
-      <c r="B9" s="45" t="s">
+      <c r="A9" s="87"/>
+      <c r="B9" s="44" t="s">
         <v>7</v>
       </c>
       <c r="C9">
@@ -3078,8 +3077,8 @@
       </c>
     </row>
     <row r="10" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A10" s="67"/>
-      <c r="B10" s="45" t="s">
+      <c r="A10" s="87"/>
+      <c r="B10" s="44" t="s">
         <v>8</v>
       </c>
       <c r="C10">
@@ -3135,8 +3134,8 @@
       </c>
     </row>
     <row r="11" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A11" s="67"/>
-      <c r="B11" s="45" t="s">
+      <c r="A11" s="87"/>
+      <c r="B11" s="44" t="s">
         <v>9</v>
       </c>
       <c r="C11">
@@ -3192,8 +3191,8 @@
       </c>
     </row>
     <row r="12" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A12" s="67"/>
-      <c r="B12" s="45" t="s">
+      <c r="A12" s="87"/>
+      <c r="B12" s="44" t="s">
         <v>10</v>
       </c>
       <c r="C12">
@@ -3249,8 +3248,8 @@
       </c>
     </row>
     <row r="13" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A13" s="67"/>
-      <c r="B13" s="45" t="s">
+      <c r="A13" s="87"/>
+      <c r="B13" s="44" t="s">
         <v>11</v>
       </c>
       <c r="C13">
@@ -3306,8 +3305,8 @@
       </c>
     </row>
     <row r="14" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A14" s="67"/>
-      <c r="B14" s="45" t="s">
+      <c r="A14" s="87"/>
+      <c r="B14" s="44" t="s">
         <v>12</v>
       </c>
       <c r="C14">
@@ -3363,8 +3362,8 @@
       </c>
     </row>
     <row r="15" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A15" s="67"/>
-      <c r="B15" s="45" t="s">
+      <c r="A15" s="87"/>
+      <c r="B15" s="44" t="s">
         <v>13</v>
       </c>
       <c r="C15">
@@ -3420,8 +3419,8 @@
       </c>
     </row>
     <row r="16" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A16" s="67"/>
-      <c r="B16" s="45" t="s">
+      <c r="A16" s="87"/>
+      <c r="B16" s="44" t="s">
         <v>14</v>
       </c>
       <c r="C16">
@@ -3477,8 +3476,8 @@
       </c>
     </row>
     <row r="17" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A17" s="67"/>
-      <c r="B17" s="45" t="s">
+      <c r="A17" s="87"/>
+      <c r="B17" s="44" t="s">
         <v>15</v>
       </c>
       <c r="C17">
@@ -3534,10 +3533,10 @@
       </c>
     </row>
     <row r="18" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A18" s="67" t="s">
+      <c r="A18" s="87" t="s">
         <v>88</v>
       </c>
-      <c r="B18" s="45" t="s">
+      <c r="B18" s="44" t="s">
         <v>0</v>
       </c>
       <c r="C18">
@@ -3593,8 +3592,8 @@
       </c>
     </row>
     <row r="19" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A19" s="67"/>
-      <c r="B19" s="45" t="s">
+      <c r="A19" s="87"/>
+      <c r="B19" s="44" t="s">
         <v>1</v>
       </c>
       <c r="C19">
@@ -3650,8 +3649,8 @@
       </c>
     </row>
     <row r="20" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A20" s="67"/>
-      <c r="B20" s="45" t="s">
+      <c r="A20" s="87"/>
+      <c r="B20" s="44" t="s">
         <v>2</v>
       </c>
       <c r="C20">
@@ -3707,8 +3706,8 @@
       </c>
     </row>
     <row r="21" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A21" s="67"/>
-      <c r="B21" s="45" t="s">
+      <c r="A21" s="87"/>
+      <c r="B21" s="44" t="s">
         <v>3</v>
       </c>
       <c r="C21">
@@ -3764,8 +3763,8 @@
       </c>
     </row>
     <row r="22" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A22" s="67"/>
-      <c r="B22" s="45" t="s">
+      <c r="A22" s="87"/>
+      <c r="B22" s="44" t="s">
         <v>4</v>
       </c>
       <c r="C22">
@@ -3821,8 +3820,8 @@
       </c>
     </row>
     <row r="23" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A23" s="67"/>
-      <c r="B23" s="45" t="s">
+      <c r="A23" s="87"/>
+      <c r="B23" s="44" t="s">
         <v>5</v>
       </c>
       <c r="C23">
@@ -3878,8 +3877,8 @@
       </c>
     </row>
     <row r="24" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A24" s="67"/>
-      <c r="B24" s="45" t="s">
+      <c r="A24" s="87"/>
+      <c r="B24" s="44" t="s">
         <v>6</v>
       </c>
       <c r="C24">
@@ -3935,8 +3934,8 @@
       </c>
     </row>
     <row r="25" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A25" s="67"/>
-      <c r="B25" s="45" t="s">
+      <c r="A25" s="87"/>
+      <c r="B25" s="44" t="s">
         <v>7</v>
       </c>
       <c r="C25">
@@ -3992,8 +3991,8 @@
       </c>
     </row>
     <row r="26" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A26" s="67"/>
-      <c r="B26" s="45" t="s">
+      <c r="A26" s="87"/>
+      <c r="B26" s="44" t="s">
         <v>8</v>
       </c>
       <c r="C26">
@@ -4049,8 +4048,8 @@
       </c>
     </row>
     <row r="27" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A27" s="67"/>
-      <c r="B27" s="45" t="s">
+      <c r="A27" s="87"/>
+      <c r="B27" s="44" t="s">
         <v>9</v>
       </c>
       <c r="C27">
@@ -4106,8 +4105,8 @@
       </c>
     </row>
     <row r="28" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A28" s="67"/>
-      <c r="B28" s="45" t="s">
+      <c r="A28" s="87"/>
+      <c r="B28" s="44" t="s">
         <v>10</v>
       </c>
       <c r="C28">
@@ -4163,8 +4162,8 @@
       </c>
     </row>
     <row r="29" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A29" s="67"/>
-      <c r="B29" s="45" t="s">
+      <c r="A29" s="87"/>
+      <c r="B29" s="44" t="s">
         <v>11</v>
       </c>
       <c r="C29">
@@ -4220,8 +4219,8 @@
       </c>
     </row>
     <row r="30" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A30" s="67"/>
-      <c r="B30" s="45" t="s">
+      <c r="A30" s="87"/>
+      <c r="B30" s="44" t="s">
         <v>12</v>
       </c>
       <c r="C30">
@@ -4277,8 +4276,8 @@
       </c>
     </row>
     <row r="31" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A31" s="67"/>
-      <c r="B31" s="45" t="s">
+      <c r="A31" s="87"/>
+      <c r="B31" s="44" t="s">
         <v>13</v>
       </c>
       <c r="C31">
@@ -4334,8 +4333,8 @@
       </c>
     </row>
     <row r="32" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A32" s="67"/>
-      <c r="B32" s="45" t="s">
+      <c r="A32" s="87"/>
+      <c r="B32" s="44" t="s">
         <v>14</v>
       </c>
       <c r="C32">
@@ -4391,8 +4390,8 @@
       </c>
     </row>
     <row r="33" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A33" s="67"/>
-      <c r="B33" s="45" t="s">
+      <c r="A33" s="87"/>
+      <c r="B33" s="44" t="s">
         <v>15</v>
       </c>
       <c r="C33">
@@ -4448,10 +4447,10 @@
       </c>
     </row>
     <row r="34" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A34" s="67" t="s">
+      <c r="A34" s="87" t="s">
         <v>87</v>
       </c>
-      <c r="B34" s="45" t="s">
+      <c r="B34" s="44" t="s">
         <v>0</v>
       </c>
       <c r="C34">
@@ -4507,8 +4506,8 @@
       </c>
     </row>
     <row r="35" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A35" s="67"/>
-      <c r="B35" s="45" t="s">
+      <c r="A35" s="87"/>
+      <c r="B35" s="44" t="s">
         <v>1</v>
       </c>
       <c r="C35">
@@ -4564,8 +4563,8 @@
       </c>
     </row>
     <row r="36" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A36" s="67"/>
-      <c r="B36" s="45" t="s">
+      <c r="A36" s="87"/>
+      <c r="B36" s="44" t="s">
         <v>2</v>
       </c>
       <c r="C36">
@@ -4621,8 +4620,8 @@
       </c>
     </row>
     <row r="37" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A37" s="67"/>
-      <c r="B37" s="45" t="s">
+      <c r="A37" s="87"/>
+      <c r="B37" s="44" t="s">
         <v>3</v>
       </c>
       <c r="C37">
@@ -4678,8 +4677,8 @@
       </c>
     </row>
     <row r="38" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A38" s="67"/>
-      <c r="B38" s="45" t="s">
+      <c r="A38" s="87"/>
+      <c r="B38" s="44" t="s">
         <v>4</v>
       </c>
       <c r="C38">
@@ -4735,8 +4734,8 @@
       </c>
     </row>
     <row r="39" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A39" s="67"/>
-      <c r="B39" s="45" t="s">
+      <c r="A39" s="87"/>
+      <c r="B39" s="44" t="s">
         <v>5</v>
       </c>
       <c r="C39">
@@ -4792,8 +4791,8 @@
       </c>
     </row>
     <row r="40" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A40" s="67"/>
-      <c r="B40" s="45" t="s">
+      <c r="A40" s="87"/>
+      <c r="B40" s="44" t="s">
         <v>6</v>
       </c>
       <c r="C40">
@@ -4849,8 +4848,8 @@
       </c>
     </row>
     <row r="41" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A41" s="67"/>
-      <c r="B41" s="45" t="s">
+      <c r="A41" s="87"/>
+      <c r="B41" s="44" t="s">
         <v>7</v>
       </c>
       <c r="C41">
@@ -4906,8 +4905,8 @@
       </c>
     </row>
     <row r="42" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A42" s="67"/>
-      <c r="B42" s="45" t="s">
+      <c r="A42" s="87"/>
+      <c r="B42" s="44" t="s">
         <v>8</v>
       </c>
       <c r="C42">
@@ -4963,8 +4962,8 @@
       </c>
     </row>
     <row r="43" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A43" s="67"/>
-      <c r="B43" s="45" t="s">
+      <c r="A43" s="87"/>
+      <c r="B43" s="44" t="s">
         <v>9</v>
       </c>
       <c r="C43">
@@ -5020,8 +5019,8 @@
       </c>
     </row>
     <row r="44" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A44" s="67"/>
-      <c r="B44" s="45" t="s">
+      <c r="A44" s="87"/>
+      <c r="B44" s="44" t="s">
         <v>10</v>
       </c>
       <c r="C44">
@@ -5077,8 +5076,8 @@
       </c>
     </row>
     <row r="45" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A45" s="67"/>
-      <c r="B45" s="45" t="s">
+      <c r="A45" s="87"/>
+      <c r="B45" s="44" t="s">
         <v>11</v>
       </c>
       <c r="C45">
@@ -5134,8 +5133,8 @@
       </c>
     </row>
     <row r="46" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A46" s="67"/>
-      <c r="B46" s="45" t="s">
+      <c r="A46" s="87"/>
+      <c r="B46" s="44" t="s">
         <v>12</v>
       </c>
       <c r="C46">
@@ -5191,8 +5190,8 @@
       </c>
     </row>
     <row r="47" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A47" s="67"/>
-      <c r="B47" s="45" t="s">
+      <c r="A47" s="87"/>
+      <c r="B47" s="44" t="s">
         <v>13</v>
       </c>
       <c r="C47">
@@ -5248,8 +5247,8 @@
       </c>
     </row>
     <row r="48" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A48" s="67"/>
-      <c r="B48" s="45" t="s">
+      <c r="A48" s="87"/>
+      <c r="B48" s="44" t="s">
         <v>14</v>
       </c>
       <c r="C48">
@@ -5305,8 +5304,8 @@
       </c>
     </row>
     <row r="49" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A49" s="67"/>
-      <c r="B49" s="45" t="s">
+      <c r="A49" s="87"/>
+      <c r="B49" s="44" t="s">
         <v>15</v>
       </c>
       <c r="C49">
@@ -5362,10 +5361,10 @@
       </c>
     </row>
     <row r="50" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A50" s="67" t="s">
+      <c r="A50" s="87" t="s">
         <v>85</v>
       </c>
-      <c r="B50" s="45" t="s">
+      <c r="B50" s="44" t="s">
         <v>0</v>
       </c>
       <c r="C50">
@@ -5421,8 +5420,8 @@
       </c>
     </row>
     <row r="51" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A51" s="67"/>
-      <c r="B51" s="45" t="s">
+      <c r="A51" s="87"/>
+      <c r="B51" s="44" t="s">
         <v>1</v>
       </c>
       <c r="C51">
@@ -5478,8 +5477,8 @@
       </c>
     </row>
     <row r="52" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A52" s="67"/>
-      <c r="B52" s="45" t="s">
+      <c r="A52" s="87"/>
+      <c r="B52" s="44" t="s">
         <v>2</v>
       </c>
       <c r="C52">
@@ -5535,8 +5534,8 @@
       </c>
     </row>
     <row r="53" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A53" s="67"/>
-      <c r="B53" s="45" t="s">
+      <c r="A53" s="87"/>
+      <c r="B53" s="44" t="s">
         <v>3</v>
       </c>
       <c r="C53">
@@ -5592,8 +5591,8 @@
       </c>
     </row>
     <row r="54" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A54" s="67"/>
-      <c r="B54" s="45" t="s">
+      <c r="A54" s="87"/>
+      <c r="B54" s="44" t="s">
         <v>4</v>
       </c>
       <c r="C54">
@@ -5649,8 +5648,8 @@
       </c>
     </row>
     <row r="55" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A55" s="67"/>
-      <c r="B55" s="45" t="s">
+      <c r="A55" s="87"/>
+      <c r="B55" s="44" t="s">
         <v>5</v>
       </c>
       <c r="C55">
@@ -5706,8 +5705,8 @@
       </c>
     </row>
     <row r="56" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A56" s="67"/>
-      <c r="B56" s="45" t="s">
+      <c r="A56" s="87"/>
+      <c r="B56" s="44" t="s">
         <v>6</v>
       </c>
       <c r="C56">
@@ -5763,8 +5762,8 @@
       </c>
     </row>
     <row r="57" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A57" s="67"/>
-      <c r="B57" s="45" t="s">
+      <c r="A57" s="87"/>
+      <c r="B57" s="44" t="s">
         <v>7</v>
       </c>
       <c r="C57">
@@ -5820,8 +5819,8 @@
       </c>
     </row>
     <row r="58" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A58" s="67"/>
-      <c r="B58" s="45" t="s">
+      <c r="A58" s="87"/>
+      <c r="B58" s="44" t="s">
         <v>8</v>
       </c>
       <c r="C58">
@@ -5877,8 +5876,8 @@
       </c>
     </row>
     <row r="59" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A59" s="67"/>
-      <c r="B59" s="45" t="s">
+      <c r="A59" s="87"/>
+      <c r="B59" s="44" t="s">
         <v>9</v>
       </c>
       <c r="C59">
@@ -5934,8 +5933,8 @@
       </c>
     </row>
     <row r="60" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A60" s="67"/>
-      <c r="B60" s="45" t="s">
+      <c r="A60" s="87"/>
+      <c r="B60" s="44" t="s">
         <v>10</v>
       </c>
       <c r="C60">
@@ -5991,8 +5990,8 @@
       </c>
     </row>
     <row r="61" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A61" s="67"/>
-      <c r="B61" s="45" t="s">
+      <c r="A61" s="87"/>
+      <c r="B61" s="44" t="s">
         <v>11</v>
       </c>
       <c r="C61">
@@ -6048,8 +6047,8 @@
       </c>
     </row>
     <row r="62" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A62" s="67"/>
-      <c r="B62" s="45" t="s">
+      <c r="A62" s="87"/>
+      <c r="B62" s="44" t="s">
         <v>12</v>
       </c>
       <c r="C62">
@@ -6105,8 +6104,8 @@
       </c>
     </row>
     <row r="63" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A63" s="67"/>
-      <c r="B63" s="45" t="s">
+      <c r="A63" s="87"/>
+      <c r="B63" s="44" t="s">
         <v>13</v>
       </c>
       <c r="C63">
@@ -6162,8 +6161,8 @@
       </c>
     </row>
     <row r="64" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A64" s="67"/>
-      <c r="B64" s="45" t="s">
+      <c r="A64" s="87"/>
+      <c r="B64" s="44" t="s">
         <v>14</v>
       </c>
       <c r="C64">
@@ -6219,8 +6218,8 @@
       </c>
     </row>
     <row r="65" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A65" s="67"/>
-      <c r="B65" s="45" t="s">
+      <c r="A65" s="87"/>
+      <c r="B65" s="44" t="s">
         <v>15</v>
       </c>
       <c r="C65">
@@ -6276,10 +6275,10 @@
       </c>
     </row>
     <row r="66" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A66" s="67" t="s">
+      <c r="A66" s="87" t="s">
         <v>86</v>
       </c>
-      <c r="B66" s="45" t="s">
+      <c r="B66" s="44" t="s">
         <v>0</v>
       </c>
       <c r="C66">
@@ -6335,8 +6334,8 @@
       </c>
     </row>
     <row r="67" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A67" s="67"/>
-      <c r="B67" s="45" t="s">
+      <c r="A67" s="87"/>
+      <c r="B67" s="44" t="s">
         <v>1</v>
       </c>
       <c r="C67">
@@ -6392,8 +6391,8 @@
       </c>
     </row>
     <row r="68" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A68" s="67"/>
-      <c r="B68" s="45" t="s">
+      <c r="A68" s="87"/>
+      <c r="B68" s="44" t="s">
         <v>2</v>
       </c>
       <c r="C68">
@@ -6449,8 +6448,8 @@
       </c>
     </row>
     <row r="69" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A69" s="67"/>
-      <c r="B69" s="45" t="s">
+      <c r="A69" s="87"/>
+      <c r="B69" s="44" t="s">
         <v>3</v>
       </c>
       <c r="C69">
@@ -6506,8 +6505,8 @@
       </c>
     </row>
     <row r="70" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A70" s="67"/>
-      <c r="B70" s="45" t="s">
+      <c r="A70" s="87"/>
+      <c r="B70" s="44" t="s">
         <v>4</v>
       </c>
       <c r="C70">
@@ -6563,8 +6562,8 @@
       </c>
     </row>
     <row r="71" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A71" s="67"/>
-      <c r="B71" s="45" t="s">
+      <c r="A71" s="87"/>
+      <c r="B71" s="44" t="s">
         <v>5</v>
       </c>
       <c r="C71">
@@ -6620,8 +6619,8 @@
       </c>
     </row>
     <row r="72" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A72" s="67"/>
-      <c r="B72" s="45" t="s">
+      <c r="A72" s="87"/>
+      <c r="B72" s="44" t="s">
         <v>6</v>
       </c>
       <c r="C72">
@@ -6677,8 +6676,8 @@
       </c>
     </row>
     <row r="73" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A73" s="67"/>
-      <c r="B73" s="45" t="s">
+      <c r="A73" s="87"/>
+      <c r="B73" s="44" t="s">
         <v>7</v>
       </c>
       <c r="C73">
@@ -6734,8 +6733,8 @@
       </c>
     </row>
     <row r="74" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A74" s="67"/>
-      <c r="B74" s="45" t="s">
+      <c r="A74" s="87"/>
+      <c r="B74" s="44" t="s">
         <v>8</v>
       </c>
       <c r="C74">
@@ -6791,8 +6790,8 @@
       </c>
     </row>
     <row r="75" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A75" s="67"/>
-      <c r="B75" s="45" t="s">
+      <c r="A75" s="87"/>
+      <c r="B75" s="44" t="s">
         <v>9</v>
       </c>
       <c r="C75">
@@ -6848,8 +6847,8 @@
       </c>
     </row>
     <row r="76" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A76" s="67"/>
-      <c r="B76" s="45" t="s">
+      <c r="A76" s="87"/>
+      <c r="B76" s="44" t="s">
         <v>10</v>
       </c>
       <c r="C76">
@@ -6905,8 +6904,8 @@
       </c>
     </row>
     <row r="77" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A77" s="67"/>
-      <c r="B77" s="45" t="s">
+      <c r="A77" s="87"/>
+      <c r="B77" s="44" t="s">
         <v>11</v>
       </c>
       <c r="C77">
@@ -6962,8 +6961,8 @@
       </c>
     </row>
     <row r="78" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A78" s="67"/>
-      <c r="B78" s="45" t="s">
+      <c r="A78" s="87"/>
+      <c r="B78" s="44" t="s">
         <v>12</v>
       </c>
       <c r="C78">
@@ -7019,8 +7018,8 @@
       </c>
     </row>
     <row r="79" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A79" s="67"/>
-      <c r="B79" s="45" t="s">
+      <c r="A79" s="87"/>
+      <c r="B79" s="44" t="s">
         <v>13</v>
       </c>
       <c r="C79">
@@ -7076,8 +7075,8 @@
       </c>
     </row>
     <row r="80" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A80" s="67"/>
-      <c r="B80" s="45" t="s">
+      <c r="A80" s="87"/>
+      <c r="B80" s="44" t="s">
         <v>14</v>
       </c>
       <c r="C80">
@@ -7133,8 +7132,8 @@
       </c>
     </row>
     <row r="81" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A81" s="67"/>
-      <c r="B81" s="45" t="s">
+      <c r="A81" s="87"/>
+      <c r="B81" s="44" t="s">
         <v>15</v>
       </c>
       <c r="C81">
@@ -7274,10 +7273,10 @@
       </c>
     </row>
     <row r="2" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A2" s="67" t="s">
+      <c r="A2" s="87" t="s">
         <v>84</v>
       </c>
-      <c r="B2" s="45" t="s">
+      <c r="B2" s="44" t="s">
         <v>0</v>
       </c>
       <c r="C2">
@@ -7333,8 +7332,8 @@
       </c>
     </row>
     <row r="3" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A3" s="67"/>
-      <c r="B3" s="45" t="s">
+      <c r="A3" s="87"/>
+      <c r="B3" s="44" t="s">
         <v>1</v>
       </c>
       <c r="C3">
@@ -7390,8 +7389,8 @@
       </c>
     </row>
     <row r="4" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A4" s="67"/>
-      <c r="B4" s="45" t="s">
+      <c r="A4" s="87"/>
+      <c r="B4" s="44" t="s">
         <v>2</v>
       </c>
       <c r="C4">
@@ -7447,8 +7446,8 @@
       </c>
     </row>
     <row r="5" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A5" s="67"/>
-      <c r="B5" s="45" t="s">
+      <c r="A5" s="87"/>
+      <c r="B5" s="44" t="s">
         <v>3</v>
       </c>
       <c r="C5">
@@ -7504,8 +7503,8 @@
       </c>
     </row>
     <row r="6" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A6" s="67"/>
-      <c r="B6" s="45" t="s">
+      <c r="A6" s="87"/>
+      <c r="B6" s="44" t="s">
         <v>4</v>
       </c>
       <c r="C6">
@@ -7561,8 +7560,8 @@
       </c>
     </row>
     <row r="7" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A7" s="67"/>
-      <c r="B7" s="45" t="s">
+      <c r="A7" s="87"/>
+      <c r="B7" s="44" t="s">
         <v>5</v>
       </c>
       <c r="C7">
@@ -7618,8 +7617,8 @@
       </c>
     </row>
     <row r="8" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A8" s="67"/>
-      <c r="B8" s="45" t="s">
+      <c r="A8" s="87"/>
+      <c r="B8" s="44" t="s">
         <v>6</v>
       </c>
       <c r="C8">
@@ -7675,8 +7674,8 @@
       </c>
     </row>
     <row r="9" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A9" s="67"/>
-      <c r="B9" s="45" t="s">
+      <c r="A9" s="87"/>
+      <c r="B9" s="44" t="s">
         <v>7</v>
       </c>
       <c r="C9">
@@ -7732,8 +7731,8 @@
       </c>
     </row>
     <row r="10" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A10" s="67"/>
-      <c r="B10" s="45" t="s">
+      <c r="A10" s="87"/>
+      <c r="B10" s="44" t="s">
         <v>8</v>
       </c>
       <c r="C10">
@@ -7789,8 +7788,8 @@
       </c>
     </row>
     <row r="11" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A11" s="67"/>
-      <c r="B11" s="45" t="s">
+      <c r="A11" s="87"/>
+      <c r="B11" s="44" t="s">
         <v>9</v>
       </c>
       <c r="C11">
@@ -7846,8 +7845,8 @@
       </c>
     </row>
     <row r="12" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A12" s="67"/>
-      <c r="B12" s="45" t="s">
+      <c r="A12" s="87"/>
+      <c r="B12" s="44" t="s">
         <v>10</v>
       </c>
       <c r="C12">
@@ -7903,8 +7902,8 @@
       </c>
     </row>
     <row r="13" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A13" s="67"/>
-      <c r="B13" s="45" t="s">
+      <c r="A13" s="87"/>
+      <c r="B13" s="44" t="s">
         <v>11</v>
       </c>
       <c r="C13">
@@ -7960,8 +7959,8 @@
       </c>
     </row>
     <row r="14" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A14" s="67"/>
-      <c r="B14" s="45" t="s">
+      <c r="A14" s="87"/>
+      <c r="B14" s="44" t="s">
         <v>12</v>
       </c>
       <c r="C14">
@@ -8017,8 +8016,8 @@
       </c>
     </row>
     <row r="15" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A15" s="67"/>
-      <c r="B15" s="45" t="s">
+      <c r="A15" s="87"/>
+      <c r="B15" s="44" t="s">
         <v>13</v>
       </c>
       <c r="C15">
@@ -8074,8 +8073,8 @@
       </c>
     </row>
     <row r="16" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A16" s="67"/>
-      <c r="B16" s="45" t="s">
+      <c r="A16" s="87"/>
+      <c r="B16" s="44" t="s">
         <v>14</v>
       </c>
       <c r="C16">
@@ -8131,8 +8130,8 @@
       </c>
     </row>
     <row r="17" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A17" s="67"/>
-      <c r="B17" s="45" t="s">
+      <c r="A17" s="87"/>
+      <c r="B17" s="44" t="s">
         <v>15</v>
       </c>
       <c r="C17">
@@ -8188,10 +8187,10 @@
       </c>
     </row>
     <row r="18" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A18" s="67" t="s">
+      <c r="A18" s="87" t="s">
         <v>88</v>
       </c>
-      <c r="B18" s="45" t="s">
+      <c r="B18" s="44" t="s">
         <v>0</v>
       </c>
       <c r="C18">
@@ -8247,8 +8246,8 @@
       </c>
     </row>
     <row r="19" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A19" s="67"/>
-      <c r="B19" s="45" t="s">
+      <c r="A19" s="87"/>
+      <c r="B19" s="44" t="s">
         <v>1</v>
       </c>
       <c r="C19">
@@ -8304,8 +8303,8 @@
       </c>
     </row>
     <row r="20" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A20" s="67"/>
-      <c r="B20" s="45" t="s">
+      <c r="A20" s="87"/>
+      <c r="B20" s="44" t="s">
         <v>2</v>
       </c>
       <c r="C20">
@@ -8361,8 +8360,8 @@
       </c>
     </row>
     <row r="21" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A21" s="67"/>
-      <c r="B21" s="45" t="s">
+      <c r="A21" s="87"/>
+      <c r="B21" s="44" t="s">
         <v>3</v>
       </c>
       <c r="C21">
@@ -8418,8 +8417,8 @@
       </c>
     </row>
     <row r="22" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A22" s="67"/>
-      <c r="B22" s="45" t="s">
+      <c r="A22" s="87"/>
+      <c r="B22" s="44" t="s">
         <v>4</v>
       </c>
       <c r="C22">
@@ -8475,8 +8474,8 @@
       </c>
     </row>
     <row r="23" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A23" s="67"/>
-      <c r="B23" s="45" t="s">
+      <c r="A23" s="87"/>
+      <c r="B23" s="44" t="s">
         <v>5</v>
       </c>
       <c r="C23">
@@ -8532,8 +8531,8 @@
       </c>
     </row>
     <row r="24" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A24" s="67"/>
-      <c r="B24" s="45" t="s">
+      <c r="A24" s="87"/>
+      <c r="B24" s="44" t="s">
         <v>6</v>
       </c>
       <c r="C24">
@@ -8589,8 +8588,8 @@
       </c>
     </row>
     <row r="25" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A25" s="67"/>
-      <c r="B25" s="45" t="s">
+      <c r="A25" s="87"/>
+      <c r="B25" s="44" t="s">
         <v>7</v>
       </c>
       <c r="C25">
@@ -8646,8 +8645,8 @@
       </c>
     </row>
     <row r="26" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A26" s="67"/>
-      <c r="B26" s="45" t="s">
+      <c r="A26" s="87"/>
+      <c r="B26" s="44" t="s">
         <v>8</v>
       </c>
       <c r="C26">
@@ -8703,8 +8702,8 @@
       </c>
     </row>
     <row r="27" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A27" s="67"/>
-      <c r="B27" s="45" t="s">
+      <c r="A27" s="87"/>
+      <c r="B27" s="44" t="s">
         <v>9</v>
       </c>
       <c r="C27">
@@ -8760,8 +8759,8 @@
       </c>
     </row>
     <row r="28" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A28" s="67"/>
-      <c r="B28" s="45" t="s">
+      <c r="A28" s="87"/>
+      <c r="B28" s="44" t="s">
         <v>10</v>
       </c>
       <c r="C28">
@@ -8817,8 +8816,8 @@
       </c>
     </row>
     <row r="29" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A29" s="67"/>
-      <c r="B29" s="45" t="s">
+      <c r="A29" s="87"/>
+      <c r="B29" s="44" t="s">
         <v>11</v>
       </c>
       <c r="C29">
@@ -8874,8 +8873,8 @@
       </c>
     </row>
     <row r="30" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A30" s="67"/>
-      <c r="B30" s="45" t="s">
+      <c r="A30" s="87"/>
+      <c r="B30" s="44" t="s">
         <v>12</v>
       </c>
       <c r="C30">
@@ -8931,8 +8930,8 @@
       </c>
     </row>
     <row r="31" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A31" s="67"/>
-      <c r="B31" s="45" t="s">
+      <c r="A31" s="87"/>
+      <c r="B31" s="44" t="s">
         <v>13</v>
       </c>
       <c r="C31">
@@ -8988,8 +8987,8 @@
       </c>
     </row>
     <row r="32" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A32" s="67"/>
-      <c r="B32" s="45" t="s">
+      <c r="A32" s="87"/>
+      <c r="B32" s="44" t="s">
         <v>14</v>
       </c>
       <c r="C32">
@@ -9045,8 +9044,8 @@
       </c>
     </row>
     <row r="33" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A33" s="67"/>
-      <c r="B33" s="45" t="s">
+      <c r="A33" s="87"/>
+      <c r="B33" s="44" t="s">
         <v>15</v>
       </c>
       <c r="C33">
@@ -9102,10 +9101,10 @@
       </c>
     </row>
     <row r="34" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A34" s="67" t="s">
+      <c r="A34" s="87" t="s">
         <v>87</v>
       </c>
-      <c r="B34" s="45" t="s">
+      <c r="B34" s="44" t="s">
         <v>0</v>
       </c>
       <c r="C34">
@@ -9161,8 +9160,8 @@
       </c>
     </row>
     <row r="35" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A35" s="67"/>
-      <c r="B35" s="45" t="s">
+      <c r="A35" s="87"/>
+      <c r="B35" s="44" t="s">
         <v>1</v>
       </c>
       <c r="C35">
@@ -9218,8 +9217,8 @@
       </c>
     </row>
     <row r="36" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A36" s="67"/>
-      <c r="B36" s="45" t="s">
+      <c r="A36" s="87"/>
+      <c r="B36" s="44" t="s">
         <v>2</v>
       </c>
       <c r="C36">
@@ -9275,8 +9274,8 @@
       </c>
     </row>
     <row r="37" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A37" s="67"/>
-      <c r="B37" s="45" t="s">
+      <c r="A37" s="87"/>
+      <c r="B37" s="44" t="s">
         <v>3</v>
       </c>
       <c r="C37">
@@ -9332,8 +9331,8 @@
       </c>
     </row>
     <row r="38" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A38" s="67"/>
-      <c r="B38" s="45" t="s">
+      <c r="A38" s="87"/>
+      <c r="B38" s="44" t="s">
         <v>4</v>
       </c>
       <c r="C38">
@@ -9389,8 +9388,8 @@
       </c>
     </row>
     <row r="39" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A39" s="67"/>
-      <c r="B39" s="45" t="s">
+      <c r="A39" s="87"/>
+      <c r="B39" s="44" t="s">
         <v>5</v>
       </c>
       <c r="C39">
@@ -9446,8 +9445,8 @@
       </c>
     </row>
     <row r="40" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A40" s="67"/>
-      <c r="B40" s="45" t="s">
+      <c r="A40" s="87"/>
+      <c r="B40" s="44" t="s">
         <v>6</v>
       </c>
       <c r="C40">
@@ -9503,8 +9502,8 @@
       </c>
     </row>
     <row r="41" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A41" s="67"/>
-      <c r="B41" s="45" t="s">
+      <c r="A41" s="87"/>
+      <c r="B41" s="44" t="s">
         <v>7</v>
       </c>
       <c r="C41">
@@ -9560,8 +9559,8 @@
       </c>
     </row>
     <row r="42" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A42" s="67"/>
-      <c r="B42" s="45" t="s">
+      <c r="A42" s="87"/>
+      <c r="B42" s="44" t="s">
         <v>8</v>
       </c>
       <c r="C42">
@@ -9617,8 +9616,8 @@
       </c>
     </row>
     <row r="43" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A43" s="67"/>
-      <c r="B43" s="45" t="s">
+      <c r="A43" s="87"/>
+      <c r="B43" s="44" t="s">
         <v>9</v>
       </c>
       <c r="C43">
@@ -9674,8 +9673,8 @@
       </c>
     </row>
     <row r="44" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A44" s="67"/>
-      <c r="B44" s="45" t="s">
+      <c r="A44" s="87"/>
+      <c r="B44" s="44" t="s">
         <v>10</v>
       </c>
       <c r="C44">
@@ -9731,8 +9730,8 @@
       </c>
     </row>
     <row r="45" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A45" s="67"/>
-      <c r="B45" s="45" t="s">
+      <c r="A45" s="87"/>
+      <c r="B45" s="44" t="s">
         <v>11</v>
       </c>
       <c r="C45">
@@ -9788,8 +9787,8 @@
       </c>
     </row>
     <row r="46" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A46" s="67"/>
-      <c r="B46" s="45" t="s">
+      <c r="A46" s="87"/>
+      <c r="B46" s="44" t="s">
         <v>12</v>
       </c>
       <c r="C46">
@@ -9845,8 +9844,8 @@
       </c>
     </row>
     <row r="47" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A47" s="67"/>
-      <c r="B47" s="45" t="s">
+      <c r="A47" s="87"/>
+      <c r="B47" s="44" t="s">
         <v>13</v>
       </c>
       <c r="C47">
@@ -9902,8 +9901,8 @@
       </c>
     </row>
     <row r="48" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A48" s="67"/>
-      <c r="B48" s="45" t="s">
+      <c r="A48" s="87"/>
+      <c r="B48" s="44" t="s">
         <v>14</v>
       </c>
       <c r="C48">
@@ -9959,8 +9958,8 @@
       </c>
     </row>
     <row r="49" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A49" s="67"/>
-      <c r="B49" s="45" t="s">
+      <c r="A49" s="87"/>
+      <c r="B49" s="44" t="s">
         <v>15</v>
       </c>
       <c r="C49">
@@ -10016,10 +10015,10 @@
       </c>
     </row>
     <row r="50" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A50" s="67" t="s">
+      <c r="A50" s="87" t="s">
         <v>85</v>
       </c>
-      <c r="B50" s="45" t="s">
+      <c r="B50" s="44" t="s">
         <v>0</v>
       </c>
       <c r="C50">
@@ -10075,8 +10074,8 @@
       </c>
     </row>
     <row r="51" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A51" s="67"/>
-      <c r="B51" s="45" t="s">
+      <c r="A51" s="87"/>
+      <c r="B51" s="44" t="s">
         <v>1</v>
       </c>
       <c r="C51">
@@ -10132,8 +10131,8 @@
       </c>
     </row>
     <row r="52" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A52" s="67"/>
-      <c r="B52" s="45" t="s">
+      <c r="A52" s="87"/>
+      <c r="B52" s="44" t="s">
         <v>2</v>
       </c>
       <c r="C52">
@@ -10189,8 +10188,8 @@
       </c>
     </row>
     <row r="53" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A53" s="67"/>
-      <c r="B53" s="45" t="s">
+      <c r="A53" s="87"/>
+      <c r="B53" s="44" t="s">
         <v>3</v>
       </c>
       <c r="C53">
@@ -10246,8 +10245,8 @@
       </c>
     </row>
     <row r="54" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A54" s="67"/>
-      <c r="B54" s="45" t="s">
+      <c r="A54" s="87"/>
+      <c r="B54" s="44" t="s">
         <v>4</v>
       </c>
       <c r="C54">
@@ -10303,8 +10302,8 @@
       </c>
     </row>
     <row r="55" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A55" s="67"/>
-      <c r="B55" s="45" t="s">
+      <c r="A55" s="87"/>
+      <c r="B55" s="44" t="s">
         <v>5</v>
       </c>
       <c r="C55">
@@ -10360,8 +10359,8 @@
       </c>
     </row>
     <row r="56" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A56" s="67"/>
-      <c r="B56" s="45" t="s">
+      <c r="A56" s="87"/>
+      <c r="B56" s="44" t="s">
         <v>6</v>
       </c>
       <c r="C56">
@@ -10417,8 +10416,8 @@
       </c>
     </row>
     <row r="57" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A57" s="67"/>
-      <c r="B57" s="45" t="s">
+      <c r="A57" s="87"/>
+      <c r="B57" s="44" t="s">
         <v>7</v>
       </c>
       <c r="C57">
@@ -10474,8 +10473,8 @@
       </c>
     </row>
     <row r="58" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A58" s="67"/>
-      <c r="B58" s="45" t="s">
+      <c r="A58" s="87"/>
+      <c r="B58" s="44" t="s">
         <v>8</v>
       </c>
       <c r="C58">
@@ -10531,8 +10530,8 @@
       </c>
     </row>
     <row r="59" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A59" s="67"/>
-      <c r="B59" s="45" t="s">
+      <c r="A59" s="87"/>
+      <c r="B59" s="44" t="s">
         <v>9</v>
       </c>
       <c r="C59">
@@ -10588,8 +10587,8 @@
       </c>
     </row>
     <row r="60" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A60" s="67"/>
-      <c r="B60" s="45" t="s">
+      <c r="A60" s="87"/>
+      <c r="B60" s="44" t="s">
         <v>10</v>
       </c>
       <c r="C60">
@@ -10645,8 +10644,8 @@
       </c>
     </row>
     <row r="61" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A61" s="67"/>
-      <c r="B61" s="45" t="s">
+      <c r="A61" s="87"/>
+      <c r="B61" s="44" t="s">
         <v>11</v>
       </c>
       <c r="C61">
@@ -10702,8 +10701,8 @@
       </c>
     </row>
     <row r="62" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A62" s="67"/>
-      <c r="B62" s="45" t="s">
+      <c r="A62" s="87"/>
+      <c r="B62" s="44" t="s">
         <v>12</v>
       </c>
       <c r="C62">
@@ -10759,8 +10758,8 @@
       </c>
     </row>
     <row r="63" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A63" s="67"/>
-      <c r="B63" s="45" t="s">
+      <c r="A63" s="87"/>
+      <c r="B63" s="44" t="s">
         <v>13</v>
       </c>
       <c r="C63">
@@ -10816,8 +10815,8 @@
       </c>
     </row>
     <row r="64" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A64" s="67"/>
-      <c r="B64" s="45" t="s">
+      <c r="A64" s="87"/>
+      <c r="B64" s="44" t="s">
         <v>14</v>
       </c>
       <c r="C64">
@@ -10873,8 +10872,8 @@
       </c>
     </row>
     <row r="65" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A65" s="67"/>
-      <c r="B65" s="45" t="s">
+      <c r="A65" s="87"/>
+      <c r="B65" s="44" t="s">
         <v>15</v>
       </c>
       <c r="C65">
@@ -10930,10 +10929,10 @@
       </c>
     </row>
     <row r="66" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A66" s="67" t="s">
+      <c r="A66" s="87" t="s">
         <v>86</v>
       </c>
-      <c r="B66" s="45" t="s">
+      <c r="B66" s="44" t="s">
         <v>0</v>
       </c>
       <c r="C66">
@@ -10989,8 +10988,8 @@
       </c>
     </row>
     <row r="67" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A67" s="67"/>
-      <c r="B67" s="45" t="s">
+      <c r="A67" s="87"/>
+      <c r="B67" s="44" t="s">
         <v>1</v>
       </c>
       <c r="C67">
@@ -11046,8 +11045,8 @@
       </c>
     </row>
     <row r="68" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A68" s="67"/>
-      <c r="B68" s="45" t="s">
+      <c r="A68" s="87"/>
+      <c r="B68" s="44" t="s">
         <v>2</v>
       </c>
       <c r="C68">
@@ -11103,8 +11102,8 @@
       </c>
     </row>
     <row r="69" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A69" s="67"/>
-      <c r="B69" s="45" t="s">
+      <c r="A69" s="87"/>
+      <c r="B69" s="44" t="s">
         <v>3</v>
       </c>
       <c r="C69">
@@ -11160,8 +11159,8 @@
       </c>
     </row>
     <row r="70" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A70" s="67"/>
-      <c r="B70" s="45" t="s">
+      <c r="A70" s="87"/>
+      <c r="B70" s="44" t="s">
         <v>4</v>
       </c>
       <c r="C70">
@@ -11217,8 +11216,8 @@
       </c>
     </row>
     <row r="71" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A71" s="67"/>
-      <c r="B71" s="45" t="s">
+      <c r="A71" s="87"/>
+      <c r="B71" s="44" t="s">
         <v>5</v>
       </c>
       <c r="C71">
@@ -11274,8 +11273,8 @@
       </c>
     </row>
     <row r="72" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A72" s="67"/>
-      <c r="B72" s="45" t="s">
+      <c r="A72" s="87"/>
+      <c r="B72" s="44" t="s">
         <v>6</v>
       </c>
       <c r="C72">
@@ -11331,8 +11330,8 @@
       </c>
     </row>
     <row r="73" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A73" s="67"/>
-      <c r="B73" s="45" t="s">
+      <c r="A73" s="87"/>
+      <c r="B73" s="44" t="s">
         <v>7</v>
       </c>
       <c r="C73">
@@ -11388,8 +11387,8 @@
       </c>
     </row>
     <row r="74" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A74" s="67"/>
-      <c r="B74" s="45" t="s">
+      <c r="A74" s="87"/>
+      <c r="B74" s="44" t="s">
         <v>8</v>
       </c>
       <c r="C74">
@@ -11445,8 +11444,8 @@
       </c>
     </row>
     <row r="75" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A75" s="67"/>
-      <c r="B75" s="45" t="s">
+      <c r="A75" s="87"/>
+      <c r="B75" s="44" t="s">
         <v>9</v>
       </c>
       <c r="C75">
@@ -11502,8 +11501,8 @@
       </c>
     </row>
     <row r="76" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A76" s="67"/>
-      <c r="B76" s="45" t="s">
+      <c r="A76" s="87"/>
+      <c r="B76" s="44" t="s">
         <v>10</v>
       </c>
       <c r="C76">
@@ -11559,8 +11558,8 @@
       </c>
     </row>
     <row r="77" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A77" s="67"/>
-      <c r="B77" s="45" t="s">
+      <c r="A77" s="87"/>
+      <c r="B77" s="44" t="s">
         <v>11</v>
       </c>
       <c r="C77">
@@ -11616,8 +11615,8 @@
       </c>
     </row>
     <row r="78" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A78" s="67"/>
-      <c r="B78" s="45" t="s">
+      <c r="A78" s="87"/>
+      <c r="B78" s="44" t="s">
         <v>12</v>
       </c>
       <c r="C78">
@@ -11673,8 +11672,8 @@
       </c>
     </row>
     <row r="79" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A79" s="67"/>
-      <c r="B79" s="45" t="s">
+      <c r="A79" s="87"/>
+      <c r="B79" s="44" t="s">
         <v>13</v>
       </c>
       <c r="C79">
@@ -11730,8 +11729,8 @@
       </c>
     </row>
     <row r="80" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A80" s="67"/>
-      <c r="B80" s="45" t="s">
+      <c r="A80" s="87"/>
+      <c r="B80" s="44" t="s">
         <v>14</v>
       </c>
       <c r="C80">
@@ -11787,8 +11786,8 @@
       </c>
     </row>
     <row r="81" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A81" s="67"/>
-      <c r="B81" s="45" t="s">
+      <c r="A81" s="87"/>
+      <c r="B81" s="44" t="s">
         <v>15</v>
       </c>
       <c r="C81">
@@ -11928,10 +11927,10 @@
       </c>
     </row>
     <row r="2" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A2" s="67" t="s">
+      <c r="A2" s="87" t="s">
         <v>84</v>
       </c>
-      <c r="B2" s="45" t="s">
+      <c r="B2" s="44" t="s">
         <v>0</v>
       </c>
       <c r="C2">
@@ -11987,8 +11986,8 @@
       </c>
     </row>
     <row r="3" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A3" s="67"/>
-      <c r="B3" s="45" t="s">
+      <c r="A3" s="87"/>
+      <c r="B3" s="44" t="s">
         <v>1</v>
       </c>
       <c r="C3">
@@ -12044,8 +12043,8 @@
       </c>
     </row>
     <row r="4" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A4" s="67"/>
-      <c r="B4" s="45" t="s">
+      <c r="A4" s="87"/>
+      <c r="B4" s="44" t="s">
         <v>2</v>
       </c>
       <c r="C4">
@@ -12101,8 +12100,8 @@
       </c>
     </row>
     <row r="5" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A5" s="67"/>
-      <c r="B5" s="45" t="s">
+      <c r="A5" s="87"/>
+      <c r="B5" s="44" t="s">
         <v>3</v>
       </c>
       <c r="C5">
@@ -12158,8 +12157,8 @@
       </c>
     </row>
     <row r="6" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A6" s="67"/>
-      <c r="B6" s="45" t="s">
+      <c r="A6" s="87"/>
+      <c r="B6" s="44" t="s">
         <v>4</v>
       </c>
       <c r="C6">
@@ -12215,8 +12214,8 @@
       </c>
     </row>
     <row r="7" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A7" s="67"/>
-      <c r="B7" s="45" t="s">
+      <c r="A7" s="87"/>
+      <c r="B7" s="44" t="s">
         <v>5</v>
       </c>
       <c r="C7">
@@ -12272,8 +12271,8 @@
       </c>
     </row>
     <row r="8" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A8" s="67"/>
-      <c r="B8" s="45" t="s">
+      <c r="A8" s="87"/>
+      <c r="B8" s="44" t="s">
         <v>6</v>
       </c>
       <c r="C8">
@@ -12329,8 +12328,8 @@
       </c>
     </row>
     <row r="9" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A9" s="67"/>
-      <c r="B9" s="45" t="s">
+      <c r="A9" s="87"/>
+      <c r="B9" s="44" t="s">
         <v>7</v>
       </c>
       <c r="C9">
@@ -12386,8 +12385,8 @@
       </c>
     </row>
     <row r="10" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A10" s="67"/>
-      <c r="B10" s="45" t="s">
+      <c r="A10" s="87"/>
+      <c r="B10" s="44" t="s">
         <v>8</v>
       </c>
       <c r="C10">
@@ -12443,8 +12442,8 @@
       </c>
     </row>
     <row r="11" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A11" s="67"/>
-      <c r="B11" s="45" t="s">
+      <c r="A11" s="87"/>
+      <c r="B11" s="44" t="s">
         <v>9</v>
       </c>
       <c r="C11">
@@ -12500,8 +12499,8 @@
       </c>
     </row>
     <row r="12" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A12" s="67"/>
-      <c r="B12" s="45" t="s">
+      <c r="A12" s="87"/>
+      <c r="B12" s="44" t="s">
         <v>10</v>
       </c>
       <c r="C12">
@@ -12557,8 +12556,8 @@
       </c>
     </row>
     <row r="13" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A13" s="67"/>
-      <c r="B13" s="45" t="s">
+      <c r="A13" s="87"/>
+      <c r="B13" s="44" t="s">
         <v>11</v>
       </c>
       <c r="C13">
@@ -12614,8 +12613,8 @@
       </c>
     </row>
     <row r="14" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A14" s="67"/>
-      <c r="B14" s="45" t="s">
+      <c r="A14" s="87"/>
+      <c r="B14" s="44" t="s">
         <v>12</v>
       </c>
       <c r="C14">
@@ -12671,8 +12670,8 @@
       </c>
     </row>
     <row r="15" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A15" s="67"/>
-      <c r="B15" s="45" t="s">
+      <c r="A15" s="87"/>
+      <c r="B15" s="44" t="s">
         <v>13</v>
       </c>
       <c r="C15">
@@ -12728,8 +12727,8 @@
       </c>
     </row>
     <row r="16" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A16" s="67"/>
-      <c r="B16" s="45" t="s">
+      <c r="A16" s="87"/>
+      <c r="B16" s="44" t="s">
         <v>14</v>
       </c>
       <c r="C16">
@@ -12785,8 +12784,8 @@
       </c>
     </row>
     <row r="17" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A17" s="67"/>
-      <c r="B17" s="45" t="s">
+      <c r="A17" s="87"/>
+      <c r="B17" s="44" t="s">
         <v>15</v>
       </c>
       <c r="C17">
@@ -12842,10 +12841,10 @@
       </c>
     </row>
     <row r="18" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A18" s="67" t="s">
+      <c r="A18" s="87" t="s">
         <v>88</v>
       </c>
-      <c r="B18" s="45" t="s">
+      <c r="B18" s="44" t="s">
         <v>0</v>
       </c>
       <c r="C18">
@@ -12901,8 +12900,8 @@
       </c>
     </row>
     <row r="19" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A19" s="67"/>
-      <c r="B19" s="45" t="s">
+      <c r="A19" s="87"/>
+      <c r="B19" s="44" t="s">
         <v>1</v>
       </c>
       <c r="C19">
@@ -12958,8 +12957,8 @@
       </c>
     </row>
     <row r="20" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A20" s="67"/>
-      <c r="B20" s="45" t="s">
+      <c r="A20" s="87"/>
+      <c r="B20" s="44" t="s">
         <v>2</v>
       </c>
       <c r="C20">
@@ -13015,8 +13014,8 @@
       </c>
     </row>
     <row r="21" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A21" s="67"/>
-      <c r="B21" s="45" t="s">
+      <c r="A21" s="87"/>
+      <c r="B21" s="44" t="s">
         <v>3</v>
       </c>
       <c r="C21">
@@ -13072,8 +13071,8 @@
       </c>
     </row>
     <row r="22" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A22" s="67"/>
-      <c r="B22" s="45" t="s">
+      <c r="A22" s="87"/>
+      <c r="B22" s="44" t="s">
         <v>4</v>
       </c>
       <c r="C22">
@@ -13129,8 +13128,8 @@
       </c>
     </row>
     <row r="23" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A23" s="67"/>
-      <c r="B23" s="45" t="s">
+      <c r="A23" s="87"/>
+      <c r="B23" s="44" t="s">
         <v>5</v>
       </c>
       <c r="C23">
@@ -13186,8 +13185,8 @@
       </c>
     </row>
     <row r="24" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A24" s="67"/>
-      <c r="B24" s="45" t="s">
+      <c r="A24" s="87"/>
+      <c r="B24" s="44" t="s">
         <v>6</v>
       </c>
       <c r="C24">
@@ -13243,8 +13242,8 @@
       </c>
     </row>
     <row r="25" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A25" s="67"/>
-      <c r="B25" s="45" t="s">
+      <c r="A25" s="87"/>
+      <c r="B25" s="44" t="s">
         <v>7</v>
       </c>
       <c r="C25">
@@ -13300,8 +13299,8 @@
       </c>
     </row>
     <row r="26" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A26" s="67"/>
-      <c r="B26" s="45" t="s">
+      <c r="A26" s="87"/>
+      <c r="B26" s="44" t="s">
         <v>8</v>
       </c>
       <c r="C26">
@@ -13357,8 +13356,8 @@
       </c>
     </row>
     <row r="27" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A27" s="67"/>
-      <c r="B27" s="45" t="s">
+      <c r="A27" s="87"/>
+      <c r="B27" s="44" t="s">
         <v>9</v>
       </c>
       <c r="C27">
@@ -13414,8 +13413,8 @@
       </c>
     </row>
     <row r="28" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A28" s="67"/>
-      <c r="B28" s="45" t="s">
+      <c r="A28" s="87"/>
+      <c r="B28" s="44" t="s">
         <v>10</v>
       </c>
       <c r="C28">
@@ -13471,8 +13470,8 @@
       </c>
     </row>
     <row r="29" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A29" s="67"/>
-      <c r="B29" s="45" t="s">
+      <c r="A29" s="87"/>
+      <c r="B29" s="44" t="s">
         <v>11</v>
       </c>
       <c r="C29">
@@ -13528,8 +13527,8 @@
       </c>
     </row>
     <row r="30" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A30" s="67"/>
-      <c r="B30" s="45" t="s">
+      <c r="A30" s="87"/>
+      <c r="B30" s="44" t="s">
         <v>12</v>
       </c>
       <c r="C30">
@@ -13585,8 +13584,8 @@
       </c>
     </row>
     <row r="31" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A31" s="67"/>
-      <c r="B31" s="45" t="s">
+      <c r="A31" s="87"/>
+      <c r="B31" s="44" t="s">
         <v>13</v>
       </c>
       <c r="C31">
@@ -13642,8 +13641,8 @@
       </c>
     </row>
     <row r="32" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A32" s="67"/>
-      <c r="B32" s="45" t="s">
+      <c r="A32" s="87"/>
+      <c r="B32" s="44" t="s">
         <v>14</v>
       </c>
       <c r="C32">
@@ -13699,8 +13698,8 @@
       </c>
     </row>
     <row r="33" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A33" s="67"/>
-      <c r="B33" s="45" t="s">
+      <c r="A33" s="87"/>
+      <c r="B33" s="44" t="s">
         <v>15</v>
       </c>
       <c r="C33">
@@ -13756,10 +13755,10 @@
       </c>
     </row>
     <row r="34" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A34" s="67" t="s">
+      <c r="A34" s="87" t="s">
         <v>87</v>
       </c>
-      <c r="B34" s="45" t="s">
+      <c r="B34" s="44" t="s">
         <v>0</v>
       </c>
       <c r="C34">
@@ -13815,8 +13814,8 @@
       </c>
     </row>
     <row r="35" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A35" s="67"/>
-      <c r="B35" s="45" t="s">
+      <c r="A35" s="87"/>
+      <c r="B35" s="44" t="s">
         <v>1</v>
       </c>
       <c r="C35">
@@ -13872,8 +13871,8 @@
       </c>
     </row>
     <row r="36" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A36" s="67"/>
-      <c r="B36" s="45" t="s">
+      <c r="A36" s="87"/>
+      <c r="B36" s="44" t="s">
         <v>2</v>
       </c>
       <c r="C36">
@@ -13929,8 +13928,8 @@
       </c>
     </row>
     <row r="37" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A37" s="67"/>
-      <c r="B37" s="45" t="s">
+      <c r="A37" s="87"/>
+      <c r="B37" s="44" t="s">
         <v>3</v>
       </c>
       <c r="C37">
@@ -13986,8 +13985,8 @@
       </c>
     </row>
     <row r="38" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A38" s="67"/>
-      <c r="B38" s="45" t="s">
+      <c r="A38" s="87"/>
+      <c r="B38" s="44" t="s">
         <v>4</v>
       </c>
       <c r="C38">
@@ -14043,8 +14042,8 @@
       </c>
     </row>
     <row r="39" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A39" s="67"/>
-      <c r="B39" s="45" t="s">
+      <c r="A39" s="87"/>
+      <c r="B39" s="44" t="s">
         <v>5</v>
       </c>
       <c r="C39">
@@ -14100,8 +14099,8 @@
       </c>
     </row>
     <row r="40" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A40" s="67"/>
-      <c r="B40" s="45" t="s">
+      <c r="A40" s="87"/>
+      <c r="B40" s="44" t="s">
         <v>6</v>
       </c>
       <c r="C40">
@@ -14157,8 +14156,8 @@
       </c>
     </row>
     <row r="41" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A41" s="67"/>
-      <c r="B41" s="45" t="s">
+      <c r="A41" s="87"/>
+      <c r="B41" s="44" t="s">
         <v>7</v>
       </c>
       <c r="C41">
@@ -14214,8 +14213,8 @@
       </c>
     </row>
     <row r="42" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A42" s="67"/>
-      <c r="B42" s="45" t="s">
+      <c r="A42" s="87"/>
+      <c r="B42" s="44" t="s">
         <v>8</v>
       </c>
       <c r="C42">
@@ -14271,8 +14270,8 @@
       </c>
     </row>
     <row r="43" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A43" s="67"/>
-      <c r="B43" s="45" t="s">
+      <c r="A43" s="87"/>
+      <c r="B43" s="44" t="s">
         <v>9</v>
       </c>
       <c r="C43">
@@ -14328,8 +14327,8 @@
       </c>
     </row>
     <row r="44" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A44" s="67"/>
-      <c r="B44" s="45" t="s">
+      <c r="A44" s="87"/>
+      <c r="B44" s="44" t="s">
         <v>10</v>
       </c>
       <c r="C44">
@@ -14385,8 +14384,8 @@
       </c>
     </row>
     <row r="45" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A45" s="67"/>
-      <c r="B45" s="45" t="s">
+      <c r="A45" s="87"/>
+      <c r="B45" s="44" t="s">
         <v>11</v>
       </c>
       <c r="C45">
@@ -14442,8 +14441,8 @@
       </c>
     </row>
     <row r="46" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A46" s="67"/>
-      <c r="B46" s="45" t="s">
+      <c r="A46" s="87"/>
+      <c r="B46" s="44" t="s">
         <v>12</v>
       </c>
       <c r="C46">
@@ -14499,8 +14498,8 @@
       </c>
     </row>
     <row r="47" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A47" s="67"/>
-      <c r="B47" s="45" t="s">
+      <c r="A47" s="87"/>
+      <c r="B47" s="44" t="s">
         <v>13</v>
       </c>
       <c r="C47">
@@ -14556,8 +14555,8 @@
       </c>
     </row>
     <row r="48" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A48" s="67"/>
-      <c r="B48" s="45" t="s">
+      <c r="A48" s="87"/>
+      <c r="B48" s="44" t="s">
         <v>14</v>
       </c>
       <c r="C48">
@@ -14613,8 +14612,8 @@
       </c>
     </row>
     <row r="49" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A49" s="67"/>
-      <c r="B49" s="45" t="s">
+      <c r="A49" s="87"/>
+      <c r="B49" s="44" t="s">
         <v>15</v>
       </c>
       <c r="C49">
@@ -14670,10 +14669,10 @@
       </c>
     </row>
     <row r="50" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A50" s="67" t="s">
+      <c r="A50" s="87" t="s">
         <v>85</v>
       </c>
-      <c r="B50" s="45" t="s">
+      <c r="B50" s="44" t="s">
         <v>0</v>
       </c>
       <c r="C50">
@@ -14729,8 +14728,8 @@
       </c>
     </row>
     <row r="51" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A51" s="67"/>
-      <c r="B51" s="45" t="s">
+      <c r="A51" s="87"/>
+      <c r="B51" s="44" t="s">
         <v>1</v>
       </c>
       <c r="C51">
@@ -14786,8 +14785,8 @@
       </c>
     </row>
     <row r="52" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A52" s="67"/>
-      <c r="B52" s="45" t="s">
+      <c r="A52" s="87"/>
+      <c r="B52" s="44" t="s">
         <v>2</v>
       </c>
       <c r="C52">
@@ -14843,8 +14842,8 @@
       </c>
     </row>
     <row r="53" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A53" s="67"/>
-      <c r="B53" s="45" t="s">
+      <c r="A53" s="87"/>
+      <c r="B53" s="44" t="s">
         <v>3</v>
       </c>
       <c r="C53">
@@ -14900,8 +14899,8 @@
       </c>
     </row>
     <row r="54" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A54" s="67"/>
-      <c r="B54" s="45" t="s">
+      <c r="A54" s="87"/>
+      <c r="B54" s="44" t="s">
         <v>4</v>
       </c>
       <c r="C54">
@@ -14957,8 +14956,8 @@
       </c>
     </row>
     <row r="55" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A55" s="67"/>
-      <c r="B55" s="45" t="s">
+      <c r="A55" s="87"/>
+      <c r="B55" s="44" t="s">
         <v>5</v>
       </c>
       <c r="C55">
@@ -15014,8 +15013,8 @@
       </c>
     </row>
     <row r="56" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A56" s="67"/>
-      <c r="B56" s="45" t="s">
+      <c r="A56" s="87"/>
+      <c r="B56" s="44" t="s">
         <v>6</v>
       </c>
       <c r="C56">
@@ -15071,8 +15070,8 @@
       </c>
     </row>
     <row r="57" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A57" s="67"/>
-      <c r="B57" s="45" t="s">
+      <c r="A57" s="87"/>
+      <c r="B57" s="44" t="s">
         <v>7</v>
       </c>
       <c r="C57">
@@ -15128,8 +15127,8 @@
       </c>
     </row>
     <row r="58" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A58" s="67"/>
-      <c r="B58" s="45" t="s">
+      <c r="A58" s="87"/>
+      <c r="B58" s="44" t="s">
         <v>8</v>
       </c>
       <c r="C58">
@@ -15185,8 +15184,8 @@
       </c>
     </row>
     <row r="59" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A59" s="67"/>
-      <c r="B59" s="45" t="s">
+      <c r="A59" s="87"/>
+      <c r="B59" s="44" t="s">
         <v>9</v>
       </c>
       <c r="C59">
@@ -15242,8 +15241,8 @@
       </c>
     </row>
     <row r="60" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A60" s="67"/>
-      <c r="B60" s="45" t="s">
+      <c r="A60" s="87"/>
+      <c r="B60" s="44" t="s">
         <v>10</v>
       </c>
       <c r="C60">
@@ -15299,8 +15298,8 @@
       </c>
     </row>
     <row r="61" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A61" s="67"/>
-      <c r="B61" s="45" t="s">
+      <c r="A61" s="87"/>
+      <c r="B61" s="44" t="s">
         <v>11</v>
       </c>
       <c r="C61">
@@ -15356,8 +15355,8 @@
       </c>
     </row>
     <row r="62" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A62" s="67"/>
-      <c r="B62" s="45" t="s">
+      <c r="A62" s="87"/>
+      <c r="B62" s="44" t="s">
         <v>12</v>
       </c>
       <c r="C62">
@@ -15413,8 +15412,8 @@
       </c>
     </row>
     <row r="63" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A63" s="67"/>
-      <c r="B63" s="45" t="s">
+      <c r="A63" s="87"/>
+      <c r="B63" s="44" t="s">
         <v>13</v>
       </c>
       <c r="C63">
@@ -15470,8 +15469,8 @@
       </c>
     </row>
     <row r="64" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A64" s="67"/>
-      <c r="B64" s="45" t="s">
+      <c r="A64" s="87"/>
+      <c r="B64" s="44" t="s">
         <v>14</v>
       </c>
       <c r="C64">
@@ -15527,8 +15526,8 @@
       </c>
     </row>
     <row r="65" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A65" s="67"/>
-      <c r="B65" s="45" t="s">
+      <c r="A65" s="87"/>
+      <c r="B65" s="44" t="s">
         <v>15</v>
       </c>
       <c r="C65">
@@ -15584,10 +15583,10 @@
       </c>
     </row>
     <row r="66" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A66" s="67" t="s">
+      <c r="A66" s="87" t="s">
         <v>86</v>
       </c>
-      <c r="B66" s="45" t="s">
+      <c r="B66" s="44" t="s">
         <v>0</v>
       </c>
       <c r="C66">
@@ -15643,8 +15642,8 @@
       </c>
     </row>
     <row r="67" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A67" s="67"/>
-      <c r="B67" s="45" t="s">
+      <c r="A67" s="87"/>
+      <c r="B67" s="44" t="s">
         <v>1</v>
       </c>
       <c r="C67">
@@ -15700,8 +15699,8 @@
       </c>
     </row>
     <row r="68" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A68" s="67"/>
-      <c r="B68" s="45" t="s">
+      <c r="A68" s="87"/>
+      <c r="B68" s="44" t="s">
         <v>2</v>
       </c>
       <c r="C68">
@@ -15757,8 +15756,8 @@
       </c>
     </row>
     <row r="69" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A69" s="67"/>
-      <c r="B69" s="45" t="s">
+      <c r="A69" s="87"/>
+      <c r="B69" s="44" t="s">
         <v>3</v>
       </c>
       <c r="C69">
@@ -15814,8 +15813,8 @@
       </c>
     </row>
     <row r="70" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A70" s="67"/>
-      <c r="B70" s="45" t="s">
+      <c r="A70" s="87"/>
+      <c r="B70" s="44" t="s">
         <v>4</v>
       </c>
       <c r="C70">
@@ -15871,8 +15870,8 @@
       </c>
     </row>
     <row r="71" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A71" s="67"/>
-      <c r="B71" s="45" t="s">
+      <c r="A71" s="87"/>
+      <c r="B71" s="44" t="s">
         <v>5</v>
       </c>
       <c r="C71">
@@ -15928,8 +15927,8 @@
       </c>
     </row>
     <row r="72" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A72" s="67"/>
-      <c r="B72" s="45" t="s">
+      <c r="A72" s="87"/>
+      <c r="B72" s="44" t="s">
         <v>6</v>
       </c>
       <c r="C72">
@@ -15985,8 +15984,8 @@
       </c>
     </row>
     <row r="73" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A73" s="67"/>
-      <c r="B73" s="45" t="s">
+      <c r="A73" s="87"/>
+      <c r="B73" s="44" t="s">
         <v>7</v>
       </c>
       <c r="C73">
@@ -16042,8 +16041,8 @@
       </c>
     </row>
     <row r="74" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A74" s="67"/>
-      <c r="B74" s="45" t="s">
+      <c r="A74" s="87"/>
+      <c r="B74" s="44" t="s">
         <v>8</v>
       </c>
       <c r="C74">
@@ -16099,8 +16098,8 @@
       </c>
     </row>
     <row r="75" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A75" s="67"/>
-      <c r="B75" s="45" t="s">
+      <c r="A75" s="87"/>
+      <c r="B75" s="44" t="s">
         <v>9</v>
       </c>
       <c r="C75">
@@ -16156,8 +16155,8 @@
       </c>
     </row>
     <row r="76" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A76" s="67"/>
-      <c r="B76" s="45" t="s">
+      <c r="A76" s="87"/>
+      <c r="B76" s="44" t="s">
         <v>10</v>
       </c>
       <c r="C76">
@@ -16213,8 +16212,8 @@
       </c>
     </row>
     <row r="77" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A77" s="67"/>
-      <c r="B77" s="45" t="s">
+      <c r="A77" s="87"/>
+      <c r="B77" s="44" t="s">
         <v>11</v>
       </c>
       <c r="C77">
@@ -16270,8 +16269,8 @@
       </c>
     </row>
     <row r="78" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A78" s="67"/>
-      <c r="B78" s="45" t="s">
+      <c r="A78" s="87"/>
+      <c r="B78" s="44" t="s">
         <v>12</v>
       </c>
       <c r="C78">
@@ -16327,8 +16326,8 @@
       </c>
     </row>
     <row r="79" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A79" s="67"/>
-      <c r="B79" s="45" t="s">
+      <c r="A79" s="87"/>
+      <c r="B79" s="44" t="s">
         <v>13</v>
       </c>
       <c r="C79">
@@ -16384,8 +16383,8 @@
       </c>
     </row>
     <row r="80" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A80" s="67"/>
-      <c r="B80" s="45" t="s">
+      <c r="A80" s="87"/>
+      <c r="B80" s="44" t="s">
         <v>14</v>
       </c>
       <c r="C80">
@@ -16441,8 +16440,8 @@
       </c>
     </row>
     <row r="81" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A81" s="67"/>
-      <c r="B81" s="45" t="s">
+      <c r="A81" s="87"/>
+      <c r="B81" s="44" t="s">
         <v>15</v>
       </c>
       <c r="C81">
@@ -16582,10 +16581,10 @@
       </c>
     </row>
     <row r="2" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A2" s="67" t="s">
+      <c r="A2" s="87" t="s">
         <v>84</v>
       </c>
-      <c r="B2" s="45" t="s">
+      <c r="B2" s="44" t="s">
         <v>0</v>
       </c>
       <c r="C2">
@@ -16641,8 +16640,8 @@
       </c>
     </row>
     <row r="3" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A3" s="67"/>
-      <c r="B3" s="45" t="s">
+      <c r="A3" s="87"/>
+      <c r="B3" s="44" t="s">
         <v>1</v>
       </c>
       <c r="C3">
@@ -16698,8 +16697,8 @@
       </c>
     </row>
     <row r="4" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A4" s="67"/>
-      <c r="B4" s="45" t="s">
+      <c r="A4" s="87"/>
+      <c r="B4" s="44" t="s">
         <v>2</v>
       </c>
       <c r="C4">
@@ -16755,8 +16754,8 @@
       </c>
     </row>
     <row r="5" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A5" s="67"/>
-      <c r="B5" s="45" t="s">
+      <c r="A5" s="87"/>
+      <c r="B5" s="44" t="s">
         <v>3</v>
       </c>
       <c r="C5">
@@ -16812,8 +16811,8 @@
       </c>
     </row>
     <row r="6" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A6" s="67"/>
-      <c r="B6" s="45" t="s">
+      <c r="A6" s="87"/>
+      <c r="B6" s="44" t="s">
         <v>4</v>
       </c>
       <c r="C6">
@@ -16869,8 +16868,8 @@
       </c>
     </row>
     <row r="7" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A7" s="67"/>
-      <c r="B7" s="45" t="s">
+      <c r="A7" s="87"/>
+      <c r="B7" s="44" t="s">
         <v>5</v>
       </c>
       <c r="C7">
@@ -16926,8 +16925,8 @@
       </c>
     </row>
     <row r="8" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A8" s="67"/>
-      <c r="B8" s="45" t="s">
+      <c r="A8" s="87"/>
+      <c r="B8" s="44" t="s">
         <v>6</v>
       </c>
       <c r="C8">
@@ -16983,8 +16982,8 @@
       </c>
     </row>
     <row r="9" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A9" s="67"/>
-      <c r="B9" s="45" t="s">
+      <c r="A9" s="87"/>
+      <c r="B9" s="44" t="s">
         <v>7</v>
       </c>
       <c r="C9">
@@ -17040,8 +17039,8 @@
       </c>
     </row>
     <row r="10" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A10" s="67"/>
-      <c r="B10" s="45" t="s">
+      <c r="A10" s="87"/>
+      <c r="B10" s="44" t="s">
         <v>8</v>
       </c>
       <c r="C10">
@@ -17097,8 +17096,8 @@
       </c>
     </row>
     <row r="11" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A11" s="67"/>
-      <c r="B11" s="45" t="s">
+      <c r="A11" s="87"/>
+      <c r="B11" s="44" t="s">
         <v>9</v>
       </c>
       <c r="C11">
@@ -17154,8 +17153,8 @@
       </c>
     </row>
     <row r="12" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A12" s="67"/>
-      <c r="B12" s="45" t="s">
+      <c r="A12" s="87"/>
+      <c r="B12" s="44" t="s">
         <v>10</v>
       </c>
       <c r="C12">
@@ -17211,8 +17210,8 @@
       </c>
     </row>
     <row r="13" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A13" s="67"/>
-      <c r="B13" s="45" t="s">
+      <c r="A13" s="87"/>
+      <c r="B13" s="44" t="s">
         <v>11</v>
       </c>
       <c r="C13">
@@ -17268,8 +17267,8 @@
       </c>
     </row>
     <row r="14" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A14" s="67"/>
-      <c r="B14" s="45" t="s">
+      <c r="A14" s="87"/>
+      <c r="B14" s="44" t="s">
         <v>12</v>
       </c>
       <c r="C14">
@@ -17325,8 +17324,8 @@
       </c>
     </row>
     <row r="15" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A15" s="67"/>
-      <c r="B15" s="45" t="s">
+      <c r="A15" s="87"/>
+      <c r="B15" s="44" t="s">
         <v>13</v>
       </c>
       <c r="C15">
@@ -17382,8 +17381,8 @@
       </c>
     </row>
     <row r="16" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A16" s="67"/>
-      <c r="B16" s="45" t="s">
+      <c r="A16" s="87"/>
+      <c r="B16" s="44" t="s">
         <v>14</v>
       </c>
       <c r="C16">
@@ -17439,8 +17438,8 @@
       </c>
     </row>
     <row r="17" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A17" s="67"/>
-      <c r="B17" s="45" t="s">
+      <c r="A17" s="87"/>
+      <c r="B17" s="44" t="s">
         <v>15</v>
       </c>
       <c r="C17">
@@ -17496,10 +17495,10 @@
       </c>
     </row>
     <row r="18" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A18" s="67" t="s">
+      <c r="A18" s="87" t="s">
         <v>88</v>
       </c>
-      <c r="B18" s="45" t="s">
+      <c r="B18" s="44" t="s">
         <v>0</v>
       </c>
       <c r="C18">
@@ -17555,8 +17554,8 @@
       </c>
     </row>
     <row r="19" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A19" s="67"/>
-      <c r="B19" s="45" t="s">
+      <c r="A19" s="87"/>
+      <c r="B19" s="44" t="s">
         <v>1</v>
       </c>
       <c r="C19">
@@ -17612,8 +17611,8 @@
       </c>
     </row>
     <row r="20" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A20" s="67"/>
-      <c r="B20" s="45" t="s">
+      <c r="A20" s="87"/>
+      <c r="B20" s="44" t="s">
         <v>2</v>
       </c>
       <c r="C20">
@@ -17669,8 +17668,8 @@
       </c>
     </row>
     <row r="21" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A21" s="67"/>
-      <c r="B21" s="45" t="s">
+      <c r="A21" s="87"/>
+      <c r="B21" s="44" t="s">
         <v>3</v>
       </c>
       <c r="C21">
@@ -17726,8 +17725,8 @@
       </c>
     </row>
     <row r="22" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A22" s="67"/>
-      <c r="B22" s="45" t="s">
+      <c r="A22" s="87"/>
+      <c r="B22" s="44" t="s">
         <v>4</v>
       </c>
       <c r="C22">
@@ -17783,8 +17782,8 @@
       </c>
     </row>
     <row r="23" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A23" s="67"/>
-      <c r="B23" s="45" t="s">
+      <c r="A23" s="87"/>
+      <c r="B23" s="44" t="s">
         <v>5</v>
       </c>
       <c r="C23">
@@ -17840,8 +17839,8 @@
       </c>
     </row>
     <row r="24" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A24" s="67"/>
-      <c r="B24" s="45" t="s">
+      <c r="A24" s="87"/>
+      <c r="B24" s="44" t="s">
         <v>6</v>
       </c>
       <c r="C24">
@@ -17897,8 +17896,8 @@
       </c>
     </row>
     <row r="25" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A25" s="67"/>
-      <c r="B25" s="45" t="s">
+      <c r="A25" s="87"/>
+      <c r="B25" s="44" t="s">
         <v>7</v>
       </c>
       <c r="C25">
@@ -17954,8 +17953,8 @@
       </c>
     </row>
     <row r="26" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A26" s="67"/>
-      <c r="B26" s="45" t="s">
+      <c r="A26" s="87"/>
+      <c r="B26" s="44" t="s">
         <v>8</v>
       </c>
       <c r="C26">
@@ -18011,8 +18010,8 @@
       </c>
     </row>
     <row r="27" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A27" s="67"/>
-      <c r="B27" s="45" t="s">
+      <c r="A27" s="87"/>
+      <c r="B27" s="44" t="s">
         <v>9</v>
       </c>
       <c r="C27">
@@ -18068,8 +18067,8 @@
       </c>
     </row>
     <row r="28" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A28" s="67"/>
-      <c r="B28" s="45" t="s">
+      <c r="A28" s="87"/>
+      <c r="B28" s="44" t="s">
         <v>10</v>
       </c>
       <c r="C28">
@@ -18125,8 +18124,8 @@
       </c>
     </row>
     <row r="29" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A29" s="67"/>
-      <c r="B29" s="45" t="s">
+      <c r="A29" s="87"/>
+      <c r="B29" s="44" t="s">
         <v>11</v>
       </c>
       <c r="C29">
@@ -18182,8 +18181,8 @@
       </c>
     </row>
     <row r="30" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A30" s="67"/>
-      <c r="B30" s="45" t="s">
+      <c r="A30" s="87"/>
+      <c r="B30" s="44" t="s">
         <v>12</v>
       </c>
       <c r="C30">
@@ -18239,8 +18238,8 @@
       </c>
     </row>
     <row r="31" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A31" s="67"/>
-      <c r="B31" s="45" t="s">
+      <c r="A31" s="87"/>
+      <c r="B31" s="44" t="s">
         <v>13</v>
       </c>
       <c r="C31">
@@ -18296,8 +18295,8 @@
       </c>
     </row>
     <row r="32" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A32" s="67"/>
-      <c r="B32" s="45" t="s">
+      <c r="A32" s="87"/>
+      <c r="B32" s="44" t="s">
         <v>14</v>
       </c>
       <c r="C32">
@@ -18353,8 +18352,8 @@
       </c>
     </row>
     <row r="33" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A33" s="67"/>
-      <c r="B33" s="45" t="s">
+      <c r="A33" s="87"/>
+      <c r="B33" s="44" t="s">
         <v>15</v>
       </c>
       <c r="C33">
@@ -18410,10 +18409,10 @@
       </c>
     </row>
     <row r="34" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A34" s="67" t="s">
+      <c r="A34" s="87" t="s">
         <v>87</v>
       </c>
-      <c r="B34" s="45" t="s">
+      <c r="B34" s="44" t="s">
         <v>0</v>
       </c>
       <c r="C34">
@@ -18469,8 +18468,8 @@
       </c>
     </row>
     <row r="35" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A35" s="67"/>
-      <c r="B35" s="45" t="s">
+      <c r="A35" s="87"/>
+      <c r="B35" s="44" t="s">
         <v>1</v>
       </c>
       <c r="C35">
@@ -18526,8 +18525,8 @@
       </c>
     </row>
     <row r="36" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A36" s="67"/>
-      <c r="B36" s="45" t="s">
+      <c r="A36" s="87"/>
+      <c r="B36" s="44" t="s">
         <v>2</v>
       </c>
       <c r="C36">
@@ -18583,8 +18582,8 @@
       </c>
     </row>
     <row r="37" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A37" s="67"/>
-      <c r="B37" s="45" t="s">
+      <c r="A37" s="87"/>
+      <c r="B37" s="44" t="s">
         <v>3</v>
       </c>
       <c r="C37">
@@ -18640,8 +18639,8 @@
       </c>
     </row>
     <row r="38" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A38" s="67"/>
-      <c r="B38" s="45" t="s">
+      <c r="A38" s="87"/>
+      <c r="B38" s="44" t="s">
         <v>4</v>
       </c>
       <c r="C38">
@@ -18697,8 +18696,8 @@
       </c>
     </row>
     <row r="39" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A39" s="67"/>
-      <c r="B39" s="45" t="s">
+      <c r="A39" s="87"/>
+      <c r="B39" s="44" t="s">
         <v>5</v>
       </c>
       <c r="C39">
@@ -18754,8 +18753,8 @@
       </c>
     </row>
     <row r="40" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A40" s="67"/>
-      <c r="B40" s="45" t="s">
+      <c r="A40" s="87"/>
+      <c r="B40" s="44" t="s">
         <v>6</v>
       </c>
       <c r="C40">
@@ -18811,8 +18810,8 @@
       </c>
     </row>
     <row r="41" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A41" s="67"/>
-      <c r="B41" s="45" t="s">
+      <c r="A41" s="87"/>
+      <c r="B41" s="44" t="s">
         <v>7</v>
       </c>
       <c r="C41">
@@ -18868,8 +18867,8 @@
       </c>
     </row>
     <row r="42" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A42" s="67"/>
-      <c r="B42" s="45" t="s">
+      <c r="A42" s="87"/>
+      <c r="B42" s="44" t="s">
         <v>8</v>
       </c>
       <c r="C42">
@@ -18925,8 +18924,8 @@
       </c>
     </row>
     <row r="43" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A43" s="67"/>
-      <c r="B43" s="45" t="s">
+      <c r="A43" s="87"/>
+      <c r="B43" s="44" t="s">
         <v>9</v>
       </c>
       <c r="C43">
@@ -18982,8 +18981,8 @@
       </c>
     </row>
     <row r="44" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A44" s="67"/>
-      <c r="B44" s="45" t="s">
+      <c r="A44" s="87"/>
+      <c r="B44" s="44" t="s">
         <v>10</v>
       </c>
       <c r="C44">
@@ -19039,8 +19038,8 @@
       </c>
     </row>
     <row r="45" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A45" s="67"/>
-      <c r="B45" s="45" t="s">
+      <c r="A45" s="87"/>
+      <c r="B45" s="44" t="s">
         <v>11</v>
       </c>
       <c r="C45">
@@ -19096,8 +19095,8 @@
       </c>
     </row>
     <row r="46" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A46" s="67"/>
-      <c r="B46" s="45" t="s">
+      <c r="A46" s="87"/>
+      <c r="B46" s="44" t="s">
         <v>12</v>
       </c>
       <c r="C46">
@@ -19153,8 +19152,8 @@
       </c>
     </row>
     <row r="47" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A47" s="67"/>
-      <c r="B47" s="45" t="s">
+      <c r="A47" s="87"/>
+      <c r="B47" s="44" t="s">
         <v>13</v>
       </c>
       <c r="C47">
@@ -19210,8 +19209,8 @@
       </c>
     </row>
     <row r="48" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A48" s="67"/>
-      <c r="B48" s="45" t="s">
+      <c r="A48" s="87"/>
+      <c r="B48" s="44" t="s">
         <v>14</v>
       </c>
       <c r="C48">
@@ -19267,8 +19266,8 @@
       </c>
     </row>
     <row r="49" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A49" s="67"/>
-      <c r="B49" s="45" t="s">
+      <c r="A49" s="87"/>
+      <c r="B49" s="44" t="s">
         <v>15</v>
       </c>
       <c r="C49">
@@ -19324,10 +19323,10 @@
       </c>
     </row>
     <row r="50" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A50" s="67" t="s">
+      <c r="A50" s="87" t="s">
         <v>85</v>
       </c>
-      <c r="B50" s="45" t="s">
+      <c r="B50" s="44" t="s">
         <v>0</v>
       </c>
       <c r="C50">
@@ -19383,8 +19382,8 @@
       </c>
     </row>
     <row r="51" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A51" s="67"/>
-      <c r="B51" s="45" t="s">
+      <c r="A51" s="87"/>
+      <c r="B51" s="44" t="s">
         <v>1</v>
       </c>
       <c r="C51">
@@ -19440,8 +19439,8 @@
       </c>
     </row>
     <row r="52" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A52" s="67"/>
-      <c r="B52" s="45" t="s">
+      <c r="A52" s="87"/>
+      <c r="B52" s="44" t="s">
         <v>2</v>
       </c>
       <c r="C52">
@@ -19497,8 +19496,8 @@
       </c>
     </row>
     <row r="53" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A53" s="67"/>
-      <c r="B53" s="45" t="s">
+      <c r="A53" s="87"/>
+      <c r="B53" s="44" t="s">
         <v>3</v>
       </c>
       <c r="C53">
@@ -19554,8 +19553,8 @@
       </c>
     </row>
     <row r="54" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A54" s="67"/>
-      <c r="B54" s="45" t="s">
+      <c r="A54" s="87"/>
+      <c r="B54" s="44" t="s">
         <v>4</v>
       </c>
       <c r="C54">
@@ -19611,8 +19610,8 @@
       </c>
     </row>
     <row r="55" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A55" s="67"/>
-      <c r="B55" s="45" t="s">
+      <c r="A55" s="87"/>
+      <c r="B55" s="44" t="s">
         <v>5</v>
       </c>
       <c r="C55">
@@ -19668,8 +19667,8 @@
       </c>
     </row>
     <row r="56" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A56" s="67"/>
-      <c r="B56" s="45" t="s">
+      <c r="A56" s="87"/>
+      <c r="B56" s="44" t="s">
         <v>6</v>
       </c>
       <c r="C56">
@@ -19725,8 +19724,8 @@
       </c>
     </row>
     <row r="57" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A57" s="67"/>
-      <c r="B57" s="45" t="s">
+      <c r="A57" s="87"/>
+      <c r="B57" s="44" t="s">
         <v>7</v>
       </c>
       <c r="C57">
@@ -19782,8 +19781,8 @@
       </c>
     </row>
     <row r="58" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A58" s="67"/>
-      <c r="B58" s="45" t="s">
+      <c r="A58" s="87"/>
+      <c r="B58" s="44" t="s">
         <v>8</v>
       </c>
       <c r="C58">
@@ -19839,8 +19838,8 @@
       </c>
     </row>
     <row r="59" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A59" s="67"/>
-      <c r="B59" s="45" t="s">
+      <c r="A59" s="87"/>
+      <c r="B59" s="44" t="s">
         <v>9</v>
       </c>
       <c r="C59">
@@ -19896,8 +19895,8 @@
       </c>
     </row>
     <row r="60" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A60" s="67"/>
-      <c r="B60" s="45" t="s">
+      <c r="A60" s="87"/>
+      <c r="B60" s="44" t="s">
         <v>10</v>
       </c>
       <c r="C60">
@@ -19953,8 +19952,8 @@
       </c>
     </row>
     <row r="61" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A61" s="67"/>
-      <c r="B61" s="45" t="s">
+      <c r="A61" s="87"/>
+      <c r="B61" s="44" t="s">
         <v>11</v>
       </c>
       <c r="C61">
@@ -20010,8 +20009,8 @@
       </c>
     </row>
     <row r="62" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A62" s="67"/>
-      <c r="B62" s="45" t="s">
+      <c r="A62" s="87"/>
+      <c r="B62" s="44" t="s">
         <v>12</v>
       </c>
       <c r="C62">
@@ -20067,8 +20066,8 @@
       </c>
     </row>
     <row r="63" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A63" s="67"/>
-      <c r="B63" s="45" t="s">
+      <c r="A63" s="87"/>
+      <c r="B63" s="44" t="s">
         <v>13</v>
       </c>
       <c r="C63">
@@ -20124,8 +20123,8 @@
       </c>
     </row>
     <row r="64" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A64" s="67"/>
-      <c r="B64" s="45" t="s">
+      <c r="A64" s="87"/>
+      <c r="B64" s="44" t="s">
         <v>14</v>
       </c>
       <c r="C64">
@@ -20181,8 +20180,8 @@
       </c>
     </row>
     <row r="65" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A65" s="67"/>
-      <c r="B65" s="45" t="s">
+      <c r="A65" s="87"/>
+      <c r="B65" s="44" t="s">
         <v>15</v>
       </c>
       <c r="C65">
@@ -20238,10 +20237,10 @@
       </c>
     </row>
     <row r="66" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A66" s="67" t="s">
+      <c r="A66" s="87" t="s">
         <v>86</v>
       </c>
-      <c r="B66" s="45" t="s">
+      <c r="B66" s="44" t="s">
         <v>0</v>
       </c>
       <c r="C66">
@@ -20297,8 +20296,8 @@
       </c>
     </row>
     <row r="67" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A67" s="67"/>
-      <c r="B67" s="45" t="s">
+      <c r="A67" s="87"/>
+      <c r="B67" s="44" t="s">
         <v>1</v>
       </c>
       <c r="C67">
@@ -20354,8 +20353,8 @@
       </c>
     </row>
     <row r="68" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A68" s="67"/>
-      <c r="B68" s="45" t="s">
+      <c r="A68" s="87"/>
+      <c r="B68" s="44" t="s">
         <v>2</v>
       </c>
       <c r="C68">
@@ -20411,8 +20410,8 @@
       </c>
     </row>
     <row r="69" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A69" s="67"/>
-      <c r="B69" s="45" t="s">
+      <c r="A69" s="87"/>
+      <c r="B69" s="44" t="s">
         <v>3</v>
       </c>
       <c r="C69">
@@ -20468,8 +20467,8 @@
       </c>
     </row>
     <row r="70" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A70" s="67"/>
-      <c r="B70" s="45" t="s">
+      <c r="A70" s="87"/>
+      <c r="B70" s="44" t="s">
         <v>4</v>
       </c>
       <c r="C70">
@@ -20525,8 +20524,8 @@
       </c>
     </row>
     <row r="71" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A71" s="67"/>
-      <c r="B71" s="45" t="s">
+      <c r="A71" s="87"/>
+      <c r="B71" s="44" t="s">
         <v>5</v>
       </c>
       <c r="C71">
@@ -20582,8 +20581,8 @@
       </c>
     </row>
     <row r="72" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A72" s="67"/>
-      <c r="B72" s="45" t="s">
+      <c r="A72" s="87"/>
+      <c r="B72" s="44" t="s">
         <v>6</v>
       </c>
       <c r="C72">
@@ -20639,8 +20638,8 @@
       </c>
     </row>
     <row r="73" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A73" s="67"/>
-      <c r="B73" s="45" t="s">
+      <c r="A73" s="87"/>
+      <c r="B73" s="44" t="s">
         <v>7</v>
       </c>
       <c r="C73">
@@ -20696,8 +20695,8 @@
       </c>
     </row>
     <row r="74" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A74" s="67"/>
-      <c r="B74" s="45" t="s">
+      <c r="A74" s="87"/>
+      <c r="B74" s="44" t="s">
         <v>8</v>
       </c>
       <c r="C74">
@@ -20753,8 +20752,8 @@
       </c>
     </row>
     <row r="75" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A75" s="67"/>
-      <c r="B75" s="45" t="s">
+      <c r="A75" s="87"/>
+      <c r="B75" s="44" t="s">
         <v>9</v>
       </c>
       <c r="C75">
@@ -20810,8 +20809,8 @@
       </c>
     </row>
     <row r="76" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A76" s="67"/>
-      <c r="B76" s="45" t="s">
+      <c r="A76" s="87"/>
+      <c r="B76" s="44" t="s">
         <v>10</v>
       </c>
       <c r="C76">
@@ -20867,8 +20866,8 @@
       </c>
     </row>
     <row r="77" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A77" s="67"/>
-      <c r="B77" s="45" t="s">
+      <c r="A77" s="87"/>
+      <c r="B77" s="44" t="s">
         <v>11</v>
       </c>
       <c r="C77">
@@ -20924,8 +20923,8 @@
       </c>
     </row>
     <row r="78" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A78" s="67"/>
-      <c r="B78" s="45" t="s">
+      <c r="A78" s="87"/>
+      <c r="B78" s="44" t="s">
         <v>12</v>
       </c>
       <c r="C78">
@@ -20981,8 +20980,8 @@
       </c>
     </row>
     <row r="79" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A79" s="67"/>
-      <c r="B79" s="45" t="s">
+      <c r="A79" s="87"/>
+      <c r="B79" s="44" t="s">
         <v>13</v>
       </c>
       <c r="C79">
@@ -21038,8 +21037,8 @@
       </c>
     </row>
     <row r="80" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A80" s="67"/>
-      <c r="B80" s="45" t="s">
+      <c r="A80" s="87"/>
+      <c r="B80" s="44" t="s">
         <v>14</v>
       </c>
       <c r="C80">
@@ -21095,8 +21094,8 @@
       </c>
     </row>
     <row r="81" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A81" s="67"/>
-      <c r="B81" s="45" t="s">
+      <c r="A81" s="87"/>
+      <c r="B81" s="44" t="s">
         <v>15</v>
       </c>
       <c r="C81">
@@ -21203,7 +21202,7 @@
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A2" s="45" t="s">
+      <c r="A2" s="44" t="s">
         <v>84</v>
       </c>
       <c r="B2">
@@ -21226,7 +21225,7 @@
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A3" s="45" t="s">
+      <c r="A3" s="44" t="s">
         <v>88</v>
       </c>
       <c r="B3">
@@ -21249,7 +21248,7 @@
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A4" s="45" t="s">
+      <c r="A4" s="44" t="s">
         <v>87</v>
       </c>
       <c r="B4">
@@ -21272,7 +21271,7 @@
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A5" s="45" t="s">
+      <c r="A5" s="44" t="s">
         <v>85</v>
       </c>
       <c r="B5">
@@ -21295,7 +21294,7 @@
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A6" s="45" t="s">
+      <c r="A6" s="44" t="s">
         <v>86</v>
       </c>
       <c r="B6">
@@ -21329,8 +21328,8 @@
   </sheetPr>
   <dimension ref="A1:M29"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D25" sqref="D25"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D28" sqref="D28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -21392,16 +21391,16 @@
       </c>
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A2" s="68" t="s">
+      <c r="A2" s="90" t="s">
         <v>84</v>
       </c>
-      <c r="B2" s="46" t="s">
+      <c r="B2" s="45" t="s">
         <v>89</v>
       </c>
-      <c r="C2" s="56" t="s">
+      <c r="C2" s="53" t="s">
         <v>47</v>
       </c>
-      <c r="D2" s="82">
+      <c r="D2" s="62">
         <v>0.5</v>
       </c>
       <c r="E2" s="22">
@@ -21421,712 +21420,712 @@
       </c>
       <c r="J2" s="22"/>
       <c r="K2" s="22"/>
-      <c r="L2" s="87">
+      <c r="L2" s="67">
         <v>43907</v>
       </c>
-      <c r="M2" s="94">
+      <c r="M2" s="74">
         <v>43911</v>
       </c>
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A3" s="80"/>
-      <c r="B3" s="47" t="s">
+      <c r="A3" s="91"/>
+      <c r="B3" s="46" t="s">
         <v>90</v>
       </c>
-      <c r="C3" s="48" t="s">
+      <c r="C3" s="47" t="s">
         <v>47</v>
       </c>
-      <c r="D3" s="83">
+      <c r="D3" s="63">
         <v>0.2</v>
       </c>
-      <c r="E3" s="53">
+      <c r="E3" s="50">
         <v>1</v>
       </c>
-      <c r="F3" s="48">
+      <c r="F3" s="47">
         <v>1</v>
       </c>
-      <c r="G3" s="48">
+      <c r="G3" s="47">
         <v>1</v>
       </c>
-      <c r="H3" s="48">
+      <c r="H3" s="47">
         <v>1</v>
       </c>
-      <c r="I3" s="48">
+      <c r="I3" s="47">
         <v>0</v>
       </c>
-      <c r="J3" s="48"/>
-      <c r="K3" s="48"/>
-      <c r="L3" s="94">
+      <c r="J3" s="47"/>
+      <c r="K3" s="47"/>
+      <c r="L3" s="74">
         <v>43911</v>
       </c>
-      <c r="M3" s="94"/>
+      <c r="M3" s="74"/>
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A4" s="80"/>
-      <c r="B4" s="47" t="s">
+      <c r="A4" s="91"/>
+      <c r="B4" s="46" t="s">
         <v>91</v>
       </c>
-      <c r="C4" s="48" t="s">
+      <c r="C4" s="47" t="s">
         <v>65</v>
       </c>
-      <c r="D4" s="83">
+      <c r="D4" s="63">
         <v>0.3</v>
       </c>
-      <c r="E4" s="48">
+      <c r="E4" s="47">
         <v>1</v>
       </c>
-      <c r="F4" s="48">
+      <c r="F4" s="47">
         <v>1</v>
       </c>
-      <c r="G4" s="48">
+      <c r="G4" s="47">
         <v>1</v>
       </c>
-      <c r="H4" s="48">
+      <c r="H4" s="47">
         <v>1</v>
       </c>
-      <c r="I4" s="48">
+      <c r="I4" s="47">
         <v>0</v>
       </c>
-      <c r="J4" s="48"/>
-      <c r="K4" s="48"/>
-      <c r="L4" s="94"/>
-      <c r="M4" s="94"/>
+      <c r="J4" s="47"/>
+      <c r="K4" s="47"/>
+      <c r="L4" s="74"/>
+      <c r="M4" s="74"/>
     </row>
     <row r="5" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A5" s="80"/>
-      <c r="B5" s="47" t="s">
+      <c r="A5" s="91"/>
+      <c r="B5" s="46" t="s">
         <v>92</v>
       </c>
-      <c r="C5" s="48" t="s">
+      <c r="C5" s="47" t="s">
         <v>65</v>
       </c>
-      <c r="D5" s="83">
+      <c r="D5" s="63">
         <v>0.4</v>
       </c>
-      <c r="E5" s="48">
+      <c r="E5" s="47">
         <v>1</v>
       </c>
-      <c r="F5" s="48">
+      <c r="F5" s="47">
         <v>1</v>
       </c>
-      <c r="G5" s="48">
+      <c r="G5" s="47">
         <v>1</v>
       </c>
-      <c r="H5" s="48">
+      <c r="H5" s="47">
         <v>1</v>
       </c>
-      <c r="I5" s="48">
+      <c r="I5" s="47">
         <v>0</v>
       </c>
-      <c r="J5" s="48"/>
-      <c r="K5" s="48"/>
-      <c r="L5" s="50"/>
-      <c r="M5" s="50"/>
+      <c r="J5" s="47"/>
+      <c r="K5" s="47"/>
+      <c r="L5" s="48"/>
+      <c r="M5" s="48"/>
     </row>
     <row r="6" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A6" s="69"/>
-      <c r="B6" s="47" t="s">
+      <c r="A6" s="92"/>
+      <c r="B6" s="46" t="s">
         <v>93</v>
       </c>
-      <c r="C6" s="48" t="s">
+      <c r="C6" s="47" t="s">
         <v>65</v>
       </c>
-      <c r="D6" s="83">
+      <c r="D6" s="63">
         <v>0.5</v>
       </c>
-      <c r="E6" s="48">
+      <c r="E6" s="47">
         <v>1</v>
       </c>
-      <c r="F6" s="48">
+      <c r="F6" s="47">
         <v>1</v>
       </c>
-      <c r="G6" s="48">
+      <c r="G6" s="47">
         <v>1</v>
       </c>
-      <c r="H6" s="48">
+      <c r="H6" s="47">
         <v>1</v>
       </c>
-      <c r="I6" s="48">
+      <c r="I6" s="47">
         <v>0</v>
       </c>
-      <c r="J6" s="48"/>
-      <c r="K6" s="48"/>
-      <c r="L6" s="50"/>
-      <c r="M6" s="97"/>
+      <c r="J6" s="47"/>
+      <c r="K6" s="47"/>
+      <c r="L6" s="48"/>
+      <c r="M6" s="77"/>
     </row>
     <row r="7" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A7" s="70" t="s">
+      <c r="A7" s="93" t="s">
         <v>88</v>
       </c>
-      <c r="B7" s="81" t="s">
+      <c r="B7" s="61" t="s">
         <v>89</v>
       </c>
-      <c r="C7" s="100" t="s">
+      <c r="C7" s="81" t="s">
         <v>47</v>
       </c>
-      <c r="D7" s="58">
+      <c r="D7" s="54">
         <v>0.4</v>
       </c>
-      <c r="E7" s="59">
+      <c r="E7" s="55">
         <v>1</v>
       </c>
-      <c r="F7" s="59">
+      <c r="F7" s="55">
         <v>1</v>
       </c>
-      <c r="G7" s="59">
+      <c r="G7" s="55">
         <v>1</v>
       </c>
-      <c r="H7" s="59">
+      <c r="H7" s="55">
         <v>1</v>
       </c>
-      <c r="I7" s="59">
+      <c r="I7" s="55">
         <v>0</v>
       </c>
-      <c r="J7" s="59"/>
-      <c r="K7" s="59"/>
-      <c r="L7" s="60">
+      <c r="J7" s="55"/>
+      <c r="K7" s="55"/>
+      <c r="L7" s="56">
         <v>43908</v>
       </c>
-      <c r="M7" s="61">
+      <c r="M7" s="57">
         <v>43911</v>
       </c>
     </row>
     <row r="8" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A8" s="71"/>
-      <c r="B8" s="101" t="s">
+      <c r="A8" s="94"/>
+      <c r="B8" s="82" t="s">
         <v>90</v>
       </c>
-      <c r="C8" s="64" t="s">
+      <c r="C8" s="60" t="s">
         <v>47</v>
       </c>
-      <c r="D8" s="62">
+      <c r="D8" s="58">
         <v>0.2</v>
       </c>
-      <c r="E8" s="63">
+      <c r="E8" s="59">
         <v>1</v>
       </c>
-      <c r="F8" s="64">
+      <c r="F8" s="60">
         <v>1</v>
       </c>
-      <c r="G8" s="64">
+      <c r="G8" s="60">
         <v>1</v>
       </c>
-      <c r="H8" s="64">
+      <c r="H8" s="60">
         <v>1</v>
       </c>
-      <c r="I8" s="64">
+      <c r="I8" s="60">
         <v>0</v>
       </c>
-      <c r="J8" s="64"/>
-      <c r="K8" s="64"/>
-      <c r="L8" s="61">
+      <c r="J8" s="60"/>
+      <c r="K8" s="60"/>
+      <c r="L8" s="57">
         <v>43911</v>
       </c>
-      <c r="M8" s="61"/>
+      <c r="M8" s="57"/>
     </row>
     <row r="9" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A9" s="71"/>
-      <c r="B9" s="101" t="s">
+      <c r="A9" s="94"/>
+      <c r="B9" s="82" t="s">
         <v>91</v>
       </c>
-      <c r="C9" s="64" t="s">
+      <c r="C9" s="60" t="s">
         <v>65</v>
       </c>
-      <c r="D9" s="62">
+      <c r="D9" s="58">
         <v>0.3</v>
       </c>
-      <c r="E9" s="64">
+      <c r="E9" s="60">
         <v>1</v>
       </c>
-      <c r="F9" s="64">
+      <c r="F9" s="60">
         <v>1</v>
       </c>
-      <c r="G9" s="64">
+      <c r="G9" s="60">
         <v>1</v>
       </c>
-      <c r="H9" s="64">
+      <c r="H9" s="60">
         <v>1</v>
       </c>
-      <c r="I9" s="64">
+      <c r="I9" s="60">
         <v>0</v>
       </c>
-      <c r="J9" s="64"/>
-      <c r="K9" s="64"/>
-      <c r="L9" s="61"/>
-      <c r="M9" s="61"/>
+      <c r="J9" s="60"/>
+      <c r="K9" s="60"/>
+      <c r="L9" s="57"/>
+      <c r="M9" s="57"/>
     </row>
     <row r="10" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A10" s="71"/>
-      <c r="B10" s="101" t="s">
+      <c r="A10" s="94"/>
+      <c r="B10" s="82" t="s">
         <v>92</v>
       </c>
-      <c r="C10" s="64" t="s">
+      <c r="C10" s="60" t="s">
         <v>65</v>
       </c>
-      <c r="D10" s="62">
+      <c r="D10" s="58">
         <v>0.4</v>
       </c>
-      <c r="E10" s="64">
+      <c r="E10" s="60">
         <v>1</v>
       </c>
-      <c r="F10" s="64">
+      <c r="F10" s="60">
         <v>1</v>
       </c>
-      <c r="G10" s="64">
+      <c r="G10" s="60">
         <v>1</v>
       </c>
-      <c r="H10" s="64">
+      <c r="H10" s="60">
         <v>1</v>
       </c>
-      <c r="I10" s="64">
+      <c r="I10" s="60">
         <v>0</v>
       </c>
-      <c r="J10" s="64"/>
-      <c r="K10" s="64"/>
-      <c r="L10" s="61"/>
-      <c r="M10" s="61"/>
+      <c r="J10" s="60"/>
+      <c r="K10" s="60"/>
+      <c r="L10" s="57"/>
+      <c r="M10" s="57"/>
     </row>
     <row r="11" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A11" s="72"/>
-      <c r="B11" s="101" t="s">
+      <c r="A11" s="95"/>
+      <c r="B11" s="82" t="s">
         <v>93</v>
       </c>
-      <c r="C11" s="64" t="s">
+      <c r="C11" s="60" t="s">
         <v>65</v>
       </c>
-      <c r="D11" s="62">
+      <c r="D11" s="58">
         <v>0.5</v>
       </c>
-      <c r="E11" s="64">
+      <c r="E11" s="60">
         <v>1</v>
       </c>
-      <c r="F11" s="64">
+      <c r="F11" s="60">
         <v>1</v>
       </c>
-      <c r="G11" s="64">
+      <c r="G11" s="60">
         <v>1</v>
       </c>
-      <c r="H11" s="64">
+      <c r="H11" s="60">
         <v>1</v>
       </c>
-      <c r="I11" s="64">
+      <c r="I11" s="60">
         <v>0</v>
       </c>
-      <c r="J11" s="64"/>
-      <c r="K11" s="64"/>
-      <c r="L11" s="61"/>
-      <c r="M11" s="61"/>
+      <c r="J11" s="60"/>
+      <c r="K11" s="60"/>
+      <c r="L11" s="57"/>
+      <c r="M11" s="57"/>
     </row>
     <row r="12" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A12" s="73" t="s">
+      <c r="A12" s="96" t="s">
         <v>85</v>
       </c>
-      <c r="B12" s="89" t="s">
+      <c r="B12" s="69" t="s">
         <v>89</v>
       </c>
-      <c r="C12" s="98" t="s">
+      <c r="C12" s="78" t="s">
         <v>47</v>
       </c>
-      <c r="D12" s="88">
+      <c r="D12" s="68">
         <v>0.5</v>
       </c>
-      <c r="E12" s="86">
+      <c r="E12" s="66">
         <v>1</v>
       </c>
-      <c r="F12" s="86">
+      <c r="F12" s="66">
         <v>1</v>
       </c>
-      <c r="G12" s="86">
+      <c r="G12" s="66">
         <v>1</v>
       </c>
-      <c r="H12" s="86">
+      <c r="H12" s="66">
         <v>1</v>
       </c>
-      <c r="I12" s="86">
+      <c r="I12" s="66">
         <v>0</v>
       </c>
-      <c r="J12" s="86"/>
-      <c r="K12" s="86"/>
-      <c r="L12" s="87">
+      <c r="J12" s="66"/>
+      <c r="K12" s="66"/>
+      <c r="L12" s="67">
         <v>43907</v>
       </c>
-      <c r="M12" s="90">
+      <c r="M12" s="70">
         <v>43911</v>
       </c>
     </row>
     <row r="13" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A13" s="74"/>
-      <c r="B13" s="91" t="s">
+      <c r="A13" s="97"/>
+      <c r="B13" s="71" t="s">
         <v>90</v>
       </c>
-      <c r="C13" s="92" t="s">
+      <c r="C13" s="72" t="s">
         <v>47</v>
       </c>
-      <c r="D13" s="93">
+      <c r="D13" s="73">
         <v>0.3</v>
       </c>
-      <c r="E13" s="96">
+      <c r="E13" s="76">
         <v>1</v>
       </c>
-      <c r="F13" s="92">
+      <c r="F13" s="72">
         <v>1</v>
       </c>
-      <c r="G13" s="92">
+      <c r="G13" s="72">
         <v>1</v>
       </c>
-      <c r="H13" s="92">
+      <c r="H13" s="72">
         <v>1</v>
       </c>
-      <c r="I13" s="92">
+      <c r="I13" s="72">
         <v>0</v>
       </c>
-      <c r="J13" s="92"/>
-      <c r="K13" s="92"/>
-      <c r="L13" s="94">
+      <c r="J13" s="72"/>
+      <c r="K13" s="72"/>
+      <c r="L13" s="74">
         <v>43911</v>
       </c>
-      <c r="M13" s="94">
+      <c r="M13" s="74">
         <v>43956</v>
       </c>
     </row>
-    <row r="14" spans="1:13" s="84" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="74"/>
-      <c r="B14" s="91" t="s">
+    <row r="14" spans="1:13" s="64" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="97"/>
+      <c r="B14" s="71" t="s">
         <v>94</v>
       </c>
-      <c r="C14" s="92" t="s">
+      <c r="C14" s="72" t="s">
         <v>47</v>
       </c>
-      <c r="D14" s="93">
+      <c r="D14" s="73">
         <v>0.2</v>
       </c>
-      <c r="E14" s="96">
+      <c r="E14" s="76">
         <v>1</v>
       </c>
-      <c r="F14" s="92">
+      <c r="F14" s="72">
         <v>1</v>
       </c>
-      <c r="G14" s="92">
+      <c r="G14" s="72">
         <v>1</v>
       </c>
-      <c r="H14" s="92">
+      <c r="H14" s="72">
         <v>1</v>
       </c>
-      <c r="I14" s="92">
+      <c r="I14" s="72">
         <v>0</v>
       </c>
-      <c r="J14" s="92"/>
-      <c r="K14" s="92"/>
-      <c r="L14" s="94">
+      <c r="J14" s="72"/>
+      <c r="K14" s="72"/>
+      <c r="L14" s="74">
         <v>43956</v>
       </c>
-      <c r="M14" s="94"/>
+      <c r="M14" s="74"/>
     </row>
     <row r="15" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A15" s="74"/>
-      <c r="B15" s="91" t="s">
+      <c r="A15" s="97"/>
+      <c r="B15" s="71" t="s">
         <v>91</v>
       </c>
-      <c r="C15" s="92" t="s">
+      <c r="C15" s="72" t="s">
         <v>65</v>
       </c>
-      <c r="D15" s="93">
+      <c r="D15" s="73">
         <v>0.3</v>
       </c>
-      <c r="E15" s="92">
+      <c r="E15" s="72">
         <v>1</v>
       </c>
-      <c r="F15" s="92">
+      <c r="F15" s="72">
         <v>1</v>
       </c>
-      <c r="G15" s="92">
+      <c r="G15" s="72">
         <v>1</v>
       </c>
-      <c r="H15" s="92">
+      <c r="H15" s="72">
         <v>1</v>
       </c>
-      <c r="I15" s="92">
+      <c r="I15" s="72">
         <v>0</v>
       </c>
-      <c r="J15" s="92"/>
-      <c r="K15" s="92"/>
-      <c r="L15" s="94"/>
-      <c r="M15" s="94"/>
-    </row>
-    <row r="16" spans="1:13" s="84" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="74"/>
-      <c r="B16" s="91" t="s">
+      <c r="J15" s="72"/>
+      <c r="K15" s="72"/>
+      <c r="L15" s="74"/>
+      <c r="M15" s="74"/>
+    </row>
+    <row r="16" spans="1:13" s="64" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="97"/>
+      <c r="B16" s="71" t="s">
         <v>92</v>
       </c>
-      <c r="C16" s="92" t="s">
+      <c r="C16" s="72" t="s">
         <v>65</v>
       </c>
-      <c r="D16" s="93">
+      <c r="D16" s="73">
         <v>0.4</v>
       </c>
-      <c r="E16" s="92">
+      <c r="E16" s="72">
         <v>1</v>
       </c>
-      <c r="F16" s="92">
+      <c r="F16" s="72">
         <v>1</v>
       </c>
-      <c r="G16" s="92">
+      <c r="G16" s="72">
         <v>1</v>
       </c>
-      <c r="H16" s="92">
+      <c r="H16" s="72">
         <v>1</v>
       </c>
-      <c r="I16" s="92">
+      <c r="I16" s="72">
         <v>0</v>
       </c>
-      <c r="J16" s="92"/>
-      <c r="K16" s="92"/>
-      <c r="L16" s="94"/>
-      <c r="M16" s="94"/>
+      <c r="J16" s="72"/>
+      <c r="K16" s="72"/>
+      <c r="L16" s="74"/>
+      <c r="M16" s="74"/>
     </row>
     <row r="17" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A17" s="75"/>
-      <c r="B17" s="91" t="s">
+      <c r="A17" s="98"/>
+      <c r="B17" s="71" t="s">
         <v>93</v>
       </c>
-      <c r="C17" s="92" t="s">
+      <c r="C17" s="72" t="s">
         <v>65</v>
       </c>
-      <c r="D17" s="93">
+      <c r="D17" s="73">
         <v>0.5</v>
       </c>
-      <c r="E17" s="92">
+      <c r="E17" s="72">
         <v>1</v>
       </c>
-      <c r="F17" s="92">
+      <c r="F17" s="72">
         <v>1</v>
       </c>
-      <c r="G17" s="92">
+      <c r="G17" s="72">
         <v>1</v>
       </c>
-      <c r="H17" s="92">
+      <c r="H17" s="72">
         <v>1</v>
       </c>
-      <c r="I17" s="92">
+      <c r="I17" s="72">
         <v>0</v>
       </c>
-      <c r="J17" s="92"/>
-      <c r="K17" s="92"/>
-      <c r="L17" s="94"/>
-      <c r="M17" s="97"/>
+      <c r="J17" s="72"/>
+      <c r="K17" s="72"/>
+      <c r="L17" s="74"/>
+      <c r="M17" s="77"/>
     </row>
     <row r="18" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A18" s="70" t="s">
+      <c r="A18" s="93" t="s">
         <v>86</v>
       </c>
-      <c r="B18" s="81" t="s">
+      <c r="B18" s="61" t="s">
         <v>89</v>
       </c>
-      <c r="C18" s="100" t="s">
+      <c r="C18" s="81" t="s">
         <v>47</v>
       </c>
-      <c r="D18" s="58">
+      <c r="D18" s="54">
         <v>0.5</v>
       </c>
-      <c r="E18" s="59">
+      <c r="E18" s="55">
         <v>1</v>
       </c>
-      <c r="F18" s="59">
+      <c r="F18" s="55">
         <v>1</v>
       </c>
-      <c r="G18" s="59">
+      <c r="G18" s="55">
         <v>1</v>
       </c>
-      <c r="H18" s="59">
+      <c r="H18" s="55">
         <v>1</v>
       </c>
-      <c r="I18" s="59">
+      <c r="I18" s="55">
         <v>0</v>
       </c>
-      <c r="J18" s="59"/>
-      <c r="K18" s="59"/>
-      <c r="L18" s="60">
+      <c r="J18" s="55"/>
+      <c r="K18" s="55"/>
+      <c r="L18" s="56">
         <v>43907</v>
       </c>
-      <c r="M18" s="102">
+      <c r="M18" s="84">
         <v>43911</v>
       </c>
     </row>
     <row r="19" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A19" s="71"/>
-      <c r="B19" s="101" t="s">
+      <c r="A19" s="94"/>
+      <c r="B19" s="82" t="s">
         <v>90</v>
       </c>
-      <c r="C19" s="64" t="s">
+      <c r="C19" s="60" t="s">
         <v>47</v>
       </c>
-      <c r="D19" s="62">
+      <c r="D19" s="58">
         <v>0.3</v>
       </c>
-      <c r="E19" s="63">
+      <c r="E19" s="59">
         <v>1</v>
       </c>
-      <c r="F19" s="64">
+      <c r="F19" s="60">
         <v>1</v>
       </c>
-      <c r="G19" s="64">
+      <c r="G19" s="60">
         <v>1</v>
       </c>
-      <c r="H19" s="64">
+      <c r="H19" s="60">
         <v>1</v>
       </c>
-      <c r="I19" s="64">
+      <c r="I19" s="60">
         <v>0</v>
       </c>
-      <c r="J19" s="64"/>
-      <c r="K19" s="64"/>
-      <c r="L19" s="61">
+      <c r="J19" s="60"/>
+      <c r="K19" s="60"/>
+      <c r="L19" s="57">
         <v>43911</v>
       </c>
-      <c r="M19" s="61">
+      <c r="M19" s="57">
         <v>43956</v>
       </c>
     </row>
     <row r="20" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A20" s="71"/>
-      <c r="B20" s="101" t="s">
+      <c r="A20" s="94"/>
+      <c r="B20" s="82" t="s">
         <v>94</v>
       </c>
-      <c r="C20" s="64" t="s">
+      <c r="C20" s="60" t="s">
         <v>47</v>
       </c>
-      <c r="D20" s="62">
+      <c r="D20" s="58">
         <v>0.2</v>
       </c>
-      <c r="E20" s="63">
+      <c r="E20" s="59">
         <v>1</v>
       </c>
-      <c r="F20" s="64">
+      <c r="F20" s="60">
         <v>1</v>
       </c>
-      <c r="G20" s="64">
+      <c r="G20" s="60">
         <v>1</v>
       </c>
-      <c r="H20" s="64">
+      <c r="H20" s="60">
         <v>1</v>
       </c>
-      <c r="I20" s="64">
+      <c r="I20" s="60">
         <v>0</v>
       </c>
-      <c r="J20" s="64"/>
-      <c r="K20" s="64"/>
-      <c r="L20" s="61">
+      <c r="J20" s="60"/>
+      <c r="K20" s="60"/>
+      <c r="L20" s="57">
         <v>43956</v>
       </c>
-      <c r="M20" s="61"/>
-    </row>
-    <row r="21" spans="1:13" s="84" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="71"/>
-      <c r="B21" s="101" t="s">
+      <c r="M20" s="57"/>
+    </row>
+    <row r="21" spans="1:13" s="64" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="94"/>
+      <c r="B21" s="82" t="s">
         <v>91</v>
       </c>
-      <c r="C21" s="64" t="s">
+      <c r="C21" s="60" t="s">
         <v>65</v>
       </c>
-      <c r="D21" s="62">
+      <c r="D21" s="58">
         <v>0.3</v>
       </c>
-      <c r="E21" s="64">
+      <c r="E21" s="60">
         <v>1</v>
       </c>
-      <c r="F21" s="64">
+      <c r="F21" s="60">
         <v>1</v>
       </c>
-      <c r="G21" s="64">
+      <c r="G21" s="60">
         <v>1</v>
       </c>
-      <c r="H21" s="64">
+      <c r="H21" s="60">
         <v>1</v>
       </c>
-      <c r="I21" s="64">
+      <c r="I21" s="60">
         <v>0</v>
       </c>
-      <c r="J21" s="64"/>
-      <c r="K21" s="64"/>
-      <c r="L21" s="61"/>
-      <c r="M21" s="61"/>
-    </row>
-    <row r="22" spans="1:13" s="84" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="71"/>
-      <c r="B22" s="101" t="s">
+      <c r="J21" s="60"/>
+      <c r="K21" s="60"/>
+      <c r="L21" s="57"/>
+      <c r="M21" s="57"/>
+    </row>
+    <row r="22" spans="1:13" s="64" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A22" s="94"/>
+      <c r="B22" s="82" t="s">
         <v>92</v>
       </c>
-      <c r="C22" s="64" t="s">
+      <c r="C22" s="60" t="s">
         <v>65</v>
       </c>
-      <c r="D22" s="62">
+      <c r="D22" s="58">
         <v>0.4</v>
       </c>
-      <c r="E22" s="64">
+      <c r="E22" s="60">
         <v>1</v>
       </c>
-      <c r="F22" s="64">
+      <c r="F22" s="60">
         <v>1</v>
       </c>
-      <c r="G22" s="64">
+      <c r="G22" s="60">
         <v>1</v>
       </c>
-      <c r="H22" s="64">
+      <c r="H22" s="60">
         <v>1</v>
       </c>
-      <c r="I22" s="64">
+      <c r="I22" s="60">
         <v>0</v>
       </c>
-      <c r="J22" s="64"/>
-      <c r="K22" s="64"/>
-      <c r="L22" s="61"/>
-      <c r="M22" s="61"/>
+      <c r="J22" s="60"/>
+      <c r="K22" s="60"/>
+      <c r="L22" s="57"/>
+      <c r="M22" s="57"/>
     </row>
     <row r="23" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A23" s="72"/>
-      <c r="B23" s="101" t="s">
+      <c r="A23" s="95"/>
+      <c r="B23" s="82" t="s">
         <v>93</v>
       </c>
-      <c r="C23" s="64" t="s">
+      <c r="C23" s="60" t="s">
         <v>65</v>
       </c>
-      <c r="D23" s="62">
+      <c r="D23" s="58">
         <v>0.5</v>
       </c>
-      <c r="E23" s="64">
+      <c r="E23" s="60">
         <v>1</v>
       </c>
-      <c r="F23" s="64">
+      <c r="F23" s="60">
         <v>1</v>
       </c>
-      <c r="G23" s="64">
+      <c r="G23" s="60">
         <v>1</v>
       </c>
-      <c r="H23" s="64">
+      <c r="H23" s="60">
         <v>1</v>
       </c>
-      <c r="I23" s="64">
+      <c r="I23" s="60">
         <v>0</v>
       </c>
-      <c r="J23" s="64"/>
-      <c r="K23" s="64"/>
-      <c r="L23" s="61"/>
-      <c r="M23" s="103"/>
+      <c r="J23" s="60"/>
+      <c r="K23" s="60"/>
+      <c r="L23" s="57"/>
+      <c r="M23" s="85"/>
     </row>
     <row r="24" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A24" s="73" t="s">
+      <c r="A24" s="96" t="s">
         <v>87</v>
       </c>
-      <c r="B24" s="46" t="s">
+      <c r="B24" s="45" t="s">
         <v>89</v>
       </c>
-      <c r="C24" s="22" t="s">
+      <c r="C24" s="78" t="s">
         <v>47</v>
       </c>
-      <c r="D24" s="35">
-        <v>0.8</v>
-      </c>
-      <c r="E24" s="52">
+      <c r="D24" s="68">
+        <v>0.3</v>
+      </c>
+      <c r="E24" s="49">
         <v>1</v>
       </c>
       <c r="F24" s="22">
@@ -22143,153 +22142,157 @@
       </c>
       <c r="J24" s="22"/>
       <c r="K24" s="22"/>
-      <c r="L24" s="87">
+      <c r="L24" s="67">
         <v>43907</v>
       </c>
-      <c r="M24" s="90">
+      <c r="M24" s="70">
         <v>43911</v>
       </c>
     </row>
     <row r="25" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A25" s="74"/>
-      <c r="B25" s="47" t="s">
+      <c r="A25" s="97"/>
+      <c r="B25" s="46" t="s">
         <v>90</v>
       </c>
-      <c r="C25" s="48" t="s">
+      <c r="C25" s="83" t="s">
+        <v>47</v>
+      </c>
+      <c r="D25" s="73">
+        <v>0.3</v>
+      </c>
+      <c r="E25" s="47">
+        <v>1</v>
+      </c>
+      <c r="F25" s="47">
+        <v>1</v>
+      </c>
+      <c r="G25" s="47">
+        <v>1</v>
+      </c>
+      <c r="H25" s="47">
+        <v>1</v>
+      </c>
+      <c r="I25" s="47">
+        <v>0</v>
+      </c>
+      <c r="J25" s="47"/>
+      <c r="K25" s="47"/>
+      <c r="L25" s="74">
+        <v>43911</v>
+      </c>
+      <c r="M25" s="74">
+        <v>43956</v>
+      </c>
+    </row>
+    <row r="26" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A26" s="97"/>
+      <c r="B26" s="46" t="s">
+        <v>94</v>
+      </c>
+      <c r="C26" s="86" t="s">
+        <v>47</v>
+      </c>
+      <c r="D26" s="73">
+        <v>0.3</v>
+      </c>
+      <c r="E26" s="50">
+        <v>1</v>
+      </c>
+      <c r="F26" s="47">
+        <v>1</v>
+      </c>
+      <c r="G26" s="47">
+        <v>1</v>
+      </c>
+      <c r="H26" s="47">
+        <v>1</v>
+      </c>
+      <c r="I26" s="47">
+        <v>0</v>
+      </c>
+      <c r="J26" s="47"/>
+      <c r="K26" s="47"/>
+      <c r="L26" s="74">
+        <v>43956</v>
+      </c>
+      <c r="M26" s="74">
+        <v>43987</v>
+      </c>
+    </row>
+    <row r="27" spans="1:13" s="64" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A27" s="97"/>
+      <c r="B27" s="71" t="s">
+        <v>91</v>
+      </c>
+      <c r="C27" s="72" t="s">
         <v>65</v>
       </c>
-      <c r="D25" s="49">
-        <v>0.3</v>
-      </c>
-      <c r="E25" s="48">
+      <c r="D27" s="73">
+        <v>0.4</v>
+      </c>
+      <c r="E27" s="72">
         <v>1</v>
       </c>
-      <c r="F25" s="48">
+      <c r="F27" s="72">
         <v>1</v>
       </c>
-      <c r="G25" s="48">
+      <c r="G27" s="72">
         <v>1</v>
       </c>
-      <c r="H25" s="48">
+      <c r="H27" s="72">
         <v>1</v>
       </c>
-      <c r="I25" s="48">
+      <c r="I27" s="72">
         <v>0</v>
       </c>
-      <c r="J25" s="48"/>
-      <c r="K25" s="48"/>
-      <c r="L25" s="94">
-        <v>43911</v>
-      </c>
-      <c r="M25" s="94">
+      <c r="J27" s="72"/>
+      <c r="K27" s="72"/>
+      <c r="L27" s="74">
         <v>43987</v>
       </c>
-    </row>
-    <row r="26" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A26" s="74"/>
-      <c r="B26" s="47" t="s">
-        <v>94</v>
-      </c>
-      <c r="C26" s="48" t="s">
+      <c r="M27" s="74"/>
+    </row>
+    <row r="28" spans="1:13" s="64" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A28" s="97"/>
+      <c r="B28" s="71" t="s">
+        <v>92</v>
+      </c>
+      <c r="C28" s="72" t="s">
         <v>65</v>
       </c>
-      <c r="D26" s="49">
-        <v>0.1</v>
-      </c>
-      <c r="E26" s="53">
+      <c r="D28" s="73">
+        <v>0.4</v>
+      </c>
+      <c r="E28" s="72">
         <v>1</v>
       </c>
-      <c r="F26" s="48">
+      <c r="F28" s="72">
         <v>1</v>
       </c>
-      <c r="G26" s="48">
+      <c r="G28" s="72">
         <v>1</v>
       </c>
-      <c r="H26" s="48">
+      <c r="H28" s="72">
         <v>1</v>
       </c>
-      <c r="I26" s="48">
+      <c r="I28" s="72">
         <v>0</v>
       </c>
-      <c r="J26" s="48"/>
-      <c r="K26" s="48"/>
-      <c r="L26" s="94"/>
-      <c r="M26" s="51"/>
-    </row>
-    <row r="27" spans="1:13" s="84" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="74"/>
-      <c r="B27" s="91" t="s">
-        <v>91</v>
-      </c>
-      <c r="C27" s="92" t="s">
-        <v>65</v>
-      </c>
-      <c r="D27" s="93">
-        <v>0.4</v>
-      </c>
-      <c r="E27" s="92">
-        <v>1</v>
-      </c>
-      <c r="F27" s="92">
-        <v>1</v>
-      </c>
-      <c r="G27" s="92">
-        <v>1</v>
-      </c>
-      <c r="H27" s="92">
-        <v>1</v>
-      </c>
-      <c r="I27" s="92">
-        <v>0</v>
-      </c>
-      <c r="J27" s="92"/>
-      <c r="K27" s="92"/>
-      <c r="L27" s="94">
-        <v>43987</v>
-      </c>
-      <c r="M27" s="94"/>
-    </row>
-    <row r="28" spans="1:13" s="84" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="74"/>
-      <c r="B28" s="91" t="s">
-        <v>92</v>
-      </c>
-      <c r="C28" s="92" t="s">
-        <v>65</v>
-      </c>
-      <c r="D28" s="93">
-        <v>0.5</v>
-      </c>
-      <c r="E28" s="92">
-        <v>1</v>
-      </c>
-      <c r="F28" s="92">
-        <v>1</v>
-      </c>
-      <c r="G28" s="92">
-        <v>1</v>
-      </c>
-      <c r="H28" s="92">
-        <v>1</v>
-      </c>
-      <c r="I28" s="92">
-        <v>0</v>
-      </c>
-      <c r="J28" s="92"/>
-      <c r="K28" s="92"/>
-      <c r="L28" s="94"/>
-      <c r="M28" s="95"/>
+      <c r="J28" s="72"/>
+      <c r="K28" s="72"/>
+      <c r="L28" s="74"/>
+      <c r="M28" s="75"/>
     </row>
     <row r="29" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A29" s="75"/>
-      <c r="B29" s="99" t="s">
+      <c r="A29" s="98"/>
+      <c r="B29" s="79" t="s">
         <v>93</v>
       </c>
       <c r="C29" s="25" t="s">
         <v>65</v>
       </c>
-      <c r="D29" s="57">
-        <v>0.3</v>
+      <c r="D29" s="80">
+        <v>0.5</v>
       </c>
       <c r="E29" s="25">
         <v>1</v>
@@ -22308,8 +22311,8 @@
       </c>
       <c r="J29" s="25"/>
       <c r="K29" s="25"/>
-      <c r="L29" s="54"/>
-      <c r="M29" s="55"/>
+      <c r="L29" s="51"/>
+      <c r="M29" s="52"/>
     </row>
   </sheetData>
   <mergeCells count="5">
@@ -22331,8 +22334,8 @@
   </sheetPr>
   <dimension ref="A1:W6"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="V8" sqref="V8"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="S7" sqref="S7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -22416,7 +22419,7 @@
       </c>
     </row>
     <row r="2" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A2" s="45" t="s">
+      <c r="A2" s="44" t="s">
         <v>84</v>
       </c>
       <c r="B2" s="2">
@@ -22488,13 +22491,13 @@
       </c>
     </row>
     <row r="3" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A3" s="45" t="s">
+      <c r="A3" s="44" t="s">
         <v>88</v>
       </c>
-      <c r="B3" s="85">
+      <c r="B3" s="65">
         <v>43888</v>
       </c>
-      <c r="C3" s="85">
+      <c r="C3" s="65">
         <v>44256</v>
       </c>
       <c r="D3">
@@ -22537,13 +22540,13 @@
       <c r="P3">
         <v>60</v>
       </c>
-      <c r="Q3" s="84">
+      <c r="Q3" s="64">
         <v>3000</v>
       </c>
       <c r="R3">
         <v>1000</v>
       </c>
-      <c r="S3" s="84">
+      <c r="S3" s="64">
         <v>25</v>
       </c>
       <c r="T3">
@@ -22560,13 +22563,13 @@
       </c>
     </row>
     <row r="4" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A4" s="45" t="s">
+      <c r="A4" s="44" t="s">
         <v>85</v>
       </c>
-      <c r="B4" s="85">
+      <c r="B4" s="65">
         <v>43888</v>
       </c>
-      <c r="C4" s="85">
+      <c r="C4" s="65">
         <v>44256</v>
       </c>
       <c r="D4">
@@ -22609,7 +22612,7 @@
       <c r="P4">
         <v>60</v>
       </c>
-      <c r="Q4" s="84">
+      <c r="Q4" s="64">
         <v>1500</v>
       </c>
       <c r="R4">
@@ -22632,13 +22635,13 @@
       </c>
     </row>
     <row r="5" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A5" s="45" t="s">
+      <c r="A5" s="44" t="s">
         <v>86</v>
       </c>
-      <c r="B5" s="85">
+      <c r="B5" s="65">
         <v>43888</v>
       </c>
-      <c r="C5" s="85">
+      <c r="C5" s="65">
         <v>44256</v>
       </c>
       <c r="D5">
@@ -22704,13 +22707,13 @@
       </c>
     </row>
     <row r="6" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A6" s="45" t="s">
+      <c r="A6" s="44" t="s">
         <v>87</v>
       </c>
-      <c r="B6" s="85">
+      <c r="B6" s="65">
         <v>43888</v>
       </c>
-      <c r="C6" s="85">
+      <c r="C6" s="65">
         <v>44256</v>
       </c>
       <c r="D6">
@@ -22753,14 +22756,14 @@
       <c r="P6">
         <v>60</v>
       </c>
-      <c r="Q6">
-        <v>1000</v>
+      <c r="Q6" s="64">
+        <v>1500</v>
       </c>
       <c r="R6">
         <v>8000</v>
       </c>
-      <c r="S6" s="84">
-        <v>25</v>
+      <c r="S6" s="64">
+        <v>20</v>
       </c>
       <c r="T6">
         <v>1</v>
@@ -22795,10 +22798,10 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="27.7109375" style="40" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="13.140625" style="40" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="41.42578125" style="40" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="15.28515625" style="38" customWidth="1"/>
+    <col min="1" max="1" width="27.7109375" style="39" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13.140625" style="39" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="41.42578125" style="39" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="15.28515625" style="37" customWidth="1"/>
     <col min="5" max="5" width="15.28515625" style="5" customWidth="1"/>
     <col min="6" max="6" width="17.7109375" style="5" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="17.7109375" style="5" customWidth="1"/>
@@ -22807,7 +22810,7 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A1" s="39" t="s">
+      <c r="A1" s="38" t="s">
         <v>17</v>
       </c>
       <c r="B1" s="29" t="s">
@@ -22836,33 +22839,33 @@
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A2" s="76" t="s">
+      <c r="A2" s="99" t="s">
         <v>84</v>
       </c>
-      <c r="B2" s="41" t="s">
+      <c r="B2" s="40" t="s">
         <v>70</v>
       </c>
       <c r="C2" s="24" t="s">
         <v>72</v>
       </c>
-      <c r="D2" s="36" t="s">
+      <c r="D2" s="35" t="s">
         <v>75</v>
       </c>
-      <c r="E2" s="36">
+      <c r="E2" s="35">
         <v>0</v>
       </c>
-      <c r="F2" s="36">
+      <c r="F2" s="35">
         <v>0</v>
       </c>
-      <c r="G2" s="36">
+      <c r="G2" s="35">
         <v>0</v>
       </c>
       <c r="H2" s="23"/>
       <c r="I2" s="24"/>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A3" s="77"/>
-      <c r="B3" s="42" t="s">
+      <c r="A3" s="100"/>
+      <c r="B3" s="41" t="s">
         <v>71</v>
       </c>
       <c r="C3" s="27" t="s">
@@ -22880,33 +22883,33 @@
       <c r="I3" s="27"/>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A4" s="78" t="s">
+      <c r="A4" s="101" t="s">
         <v>88</v>
       </c>
-      <c r="B4" s="43" t="s">
+      <c r="B4" s="42" t="s">
         <v>70</v>
       </c>
-      <c r="C4" s="37" t="s">
+      <c r="C4" s="36" t="s">
         <v>72</v>
       </c>
-      <c r="D4" s="37" t="s">
+      <c r="D4" s="36" t="s">
         <v>75</v>
       </c>
-      <c r="E4" s="37">
+      <c r="E4" s="36">
         <v>0</v>
       </c>
-      <c r="F4" s="37">
+      <c r="F4" s="36">
         <v>0</v>
       </c>
-      <c r="G4" s="37">
+      <c r="G4" s="36">
         <v>0</v>
       </c>
       <c r="H4" s="18"/>
       <c r="I4" s="20"/>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A5" s="79"/>
-      <c r="B5" s="44" t="s">
+      <c r="A5" s="102"/>
+      <c r="B5" s="43" t="s">
         <v>71</v>
       </c>
       <c r="C5" s="19" t="s">
@@ -22924,33 +22927,33 @@
       <c r="I5" s="21"/>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A6" s="76" t="s">
+      <c r="A6" s="99" t="s">
         <v>85</v>
       </c>
-      <c r="B6" s="41" t="s">
+      <c r="B6" s="40" t="s">
         <v>70</v>
       </c>
       <c r="C6" s="24" t="s">
         <v>72</v>
       </c>
-      <c r="D6" s="36" t="s">
+      <c r="D6" s="35" t="s">
         <v>75</v>
       </c>
-      <c r="E6" s="36">
+      <c r="E6" s="35">
         <v>0</v>
       </c>
-      <c r="F6" s="36">
+      <c r="F6" s="35">
         <v>0</v>
       </c>
-      <c r="G6" s="36">
+      <c r="G6" s="35">
         <v>0</v>
       </c>
       <c r="H6" s="23"/>
       <c r="I6" s="24"/>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A7" s="77"/>
-      <c r="B7" s="42" t="s">
+      <c r="A7" s="100"/>
+      <c r="B7" s="41" t="s">
         <v>71</v>
       </c>
       <c r="C7" s="27" t="s">
@@ -22968,33 +22971,33 @@
       <c r="I7" s="27"/>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A8" s="78" t="s">
+      <c r="A8" s="101" t="s">
         <v>86</v>
       </c>
-      <c r="B8" s="43" t="s">
+      <c r="B8" s="42" t="s">
         <v>70</v>
       </c>
-      <c r="C8" s="37" t="s">
+      <c r="C8" s="36" t="s">
         <v>72</v>
       </c>
-      <c r="D8" s="37" t="s">
+      <c r="D8" s="36" t="s">
         <v>75</v>
       </c>
-      <c r="E8" s="37">
+      <c r="E8" s="36">
         <v>0</v>
       </c>
-      <c r="F8" s="37">
+      <c r="F8" s="36">
         <v>0</v>
       </c>
-      <c r="G8" s="37">
+      <c r="G8" s="36">
         <v>0</v>
       </c>
       <c r="H8" s="18"/>
       <c r="I8" s="20"/>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A9" s="79"/>
-      <c r="B9" s="44" t="s">
+      <c r="A9" s="102"/>
+      <c r="B9" s="43" t="s">
         <v>71</v>
       </c>
       <c r="C9" s="19" t="s">
@@ -23012,33 +23015,33 @@
       <c r="I9" s="21"/>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A10" s="76" t="s">
+      <c r="A10" s="99" t="s">
         <v>87</v>
       </c>
-      <c r="B10" s="41" t="s">
+      <c r="B10" s="40" t="s">
         <v>70</v>
       </c>
       <c r="C10" s="24" t="s">
         <v>72</v>
       </c>
-      <c r="D10" s="36" t="s">
+      <c r="D10" s="35" t="s">
         <v>75</v>
       </c>
-      <c r="E10" s="36">
+      <c r="E10" s="35">
         <v>0</v>
       </c>
-      <c r="F10" s="36">
+      <c r="F10" s="35">
         <v>0</v>
       </c>
-      <c r="G10" s="36">
+      <c r="G10" s="35">
         <v>0</v>
       </c>
       <c r="H10" s="23"/>
       <c r="I10" s="24"/>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A11" s="77"/>
-      <c r="B11" s="42" t="s">
+      <c r="A11" s="100"/>
+      <c r="B11" s="41" t="s">
         <v>71</v>
       </c>
       <c r="C11" s="27" t="s">
@@ -23127,7 +23130,7 @@
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A2" s="45" t="s">
+      <c r="A2" s="44" t="s">
         <v>84</v>
       </c>
       <c r="B2">
@@ -23159,7 +23162,7 @@
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A3" s="45" t="s">
+      <c r="A3" s="44" t="s">
         <v>88</v>
       </c>
       <c r="B3">
@@ -23191,7 +23194,7 @@
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A4" s="45" t="s">
+      <c r="A4" s="44" t="s">
         <v>87</v>
       </c>
       <c r="B4">
@@ -23223,7 +23226,7 @@
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A5" s="45" t="s">
+      <c r="A5" s="44" t="s">
         <v>85</v>
       </c>
       <c r="B5">
@@ -23255,7 +23258,7 @@
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A6" s="45" t="s">
+      <c r="A6" s="44" t="s">
         <v>86</v>
       </c>
       <c r="B6">
@@ -23349,7 +23352,7 @@
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A2" s="45" t="s">
+      <c r="A2" s="44" t="s">
         <v>84</v>
       </c>
       <c r="B2">
@@ -23381,7 +23384,7 @@
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A3" s="45" t="s">
+      <c r="A3" s="44" t="s">
         <v>88</v>
       </c>
       <c r="B3">
@@ -23413,7 +23416,7 @@
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A4" s="45" t="s">
+      <c r="A4" s="44" t="s">
         <v>87</v>
       </c>
       <c r="B4">
@@ -23445,7 +23448,7 @@
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A5" s="45" t="s">
+      <c r="A5" s="44" t="s">
         <v>85</v>
       </c>
       <c r="B5">
@@ -23477,7 +23480,7 @@
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A6" s="45" t="s">
+      <c r="A6" s="44" t="s">
         <v>86</v>
       </c>
       <c r="B6">
@@ -23570,7 +23573,7 @@
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A2" s="45" t="s">
+      <c r="A2" s="44" t="s">
         <v>84</v>
       </c>
       <c r="B2">
@@ -23602,7 +23605,7 @@
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A3" s="45" t="s">
+      <c r="A3" s="44" t="s">
         <v>88</v>
       </c>
       <c r="B3">
@@ -23634,7 +23637,7 @@
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A4" s="45" t="s">
+      <c r="A4" s="44" t="s">
         <v>87</v>
       </c>
       <c r="B4">
@@ -23666,7 +23669,7 @@
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A5" s="45" t="s">
+      <c r="A5" s="44" t="s">
         <v>85</v>
       </c>
       <c r="B5">
@@ -23698,7 +23701,7 @@
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A6" s="45" t="s">
+      <c r="A6" s="44" t="s">
         <v>86</v>
       </c>
       <c r="B6">
@@ -23792,7 +23795,7 @@
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A2" s="45" t="s">
+      <c r="A2" s="44" t="s">
         <v>84</v>
       </c>
       <c r="B2">
@@ -23824,7 +23827,7 @@
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A3" s="45" t="s">
+      <c r="A3" s="44" t="s">
         <v>88</v>
       </c>
       <c r="B3">
@@ -23856,7 +23859,7 @@
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A4" s="45" t="s">
+      <c r="A4" s="44" t="s">
         <v>87</v>
       </c>
       <c r="B4">
@@ -23888,7 +23891,7 @@
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A5" s="45" t="s">
+      <c r="A5" s="44" t="s">
         <v>85</v>
       </c>
       <c r="B5">
@@ -23920,7 +23923,7 @@
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A6" s="45" t="s">
+      <c r="A6" s="44" t="s">
         <v>86</v>
       </c>
       <c r="B6">

--- a/data/input_data_brazil.xlsx
+++ b/data/input_data_brazil.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\dominic.delport\Documents\GitHub\covasim-australia\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{11E690B2-8FF3-4102-A1E9-3C9C95E8A6ED}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F4AD2133-8D61-406F-8677-AF29A0CCBBA8}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="839" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" tabRatio="839" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="age_sex" sheetId="1" r:id="rId1"/>
@@ -900,6 +900,12 @@
       <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
@@ -909,25 +915,28 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -946,15 +955,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1395,7 +1395,7 @@
       </c>
     </row>
     <row r="2" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A2" s="92" t="s">
+      <c r="A2" s="96" t="s">
         <v>84</v>
       </c>
       <c r="B2" s="44" t="s">
@@ -1454,7 +1454,7 @@
       </c>
     </row>
     <row r="3" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A3" s="92"/>
+      <c r="A3" s="96"/>
       <c r="B3" s="44" t="s">
         <v>20</v>
       </c>
@@ -1511,7 +1511,7 @@
       </c>
     </row>
     <row r="4" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A4" s="92" t="s">
+      <c r="A4" s="96" t="s">
         <v>84</v>
       </c>
       <c r="B4" s="44" t="s">
@@ -1570,7 +1570,7 @@
       </c>
     </row>
     <row r="5" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A5" s="92"/>
+      <c r="A5" s="96"/>
       <c r="B5" s="44" t="s">
         <v>21</v>
       </c>
@@ -1627,7 +1627,7 @@
       </c>
     </row>
     <row r="6" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A6" s="90" t="s">
+      <c r="A6" s="94" t="s">
         <v>88</v>
       </c>
       <c r="B6" s="44" t="s">
@@ -1686,7 +1686,7 @@
       </c>
     </row>
     <row r="7" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A7" s="91"/>
+      <c r="A7" s="95"/>
       <c r="B7" s="44" t="s">
         <v>20</v>
       </c>
@@ -1743,7 +1743,7 @@
       </c>
     </row>
     <row r="8" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A8" s="90" t="s">
+      <c r="A8" s="94" t="s">
         <v>88</v>
       </c>
       <c r="B8" s="44" t="s">
@@ -1802,7 +1802,7 @@
       </c>
     </row>
     <row r="9" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A9" s="91"/>
+      <c r="A9" s="95"/>
       <c r="B9" s="44" t="s">
         <v>21</v>
       </c>
@@ -1859,7 +1859,7 @@
       </c>
     </row>
     <row r="10" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A10" s="90" t="s">
+      <c r="A10" s="94" t="s">
         <v>85</v>
       </c>
       <c r="B10" s="44" t="s">
@@ -1918,7 +1918,7 @@
       </c>
     </row>
     <row r="11" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A11" s="91"/>
+      <c r="A11" s="95"/>
       <c r="B11" s="44" t="s">
         <v>20</v>
       </c>
@@ -1975,7 +1975,7 @@
       </c>
     </row>
     <row r="12" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A12" s="90" t="s">
+      <c r="A12" s="94" t="s">
         <v>85</v>
       </c>
       <c r="B12" s="44" t="s">
@@ -2034,7 +2034,7 @@
       </c>
     </row>
     <row r="13" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A13" s="91"/>
+      <c r="A13" s="95"/>
       <c r="B13" s="44" t="s">
         <v>21</v>
       </c>
@@ -2091,7 +2091,7 @@
       </c>
     </row>
     <row r="14" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A14" s="90" t="s">
+      <c r="A14" s="94" t="s">
         <v>86</v>
       </c>
       <c r="B14" s="44" t="s">
@@ -2150,7 +2150,7 @@
       </c>
     </row>
     <row r="15" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A15" s="91"/>
+      <c r="A15" s="95"/>
       <c r="B15" s="44" t="s">
         <v>20</v>
       </c>
@@ -2207,7 +2207,7 @@
       </c>
     </row>
     <row r="16" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A16" s="90" t="s">
+      <c r="A16" s="94" t="s">
         <v>86</v>
       </c>
       <c r="B16" s="44" t="s">
@@ -2266,7 +2266,7 @@
       </c>
     </row>
     <row r="17" spans="1:20" x14ac:dyDescent="0.35">
-      <c r="A17" s="91"/>
+      <c r="A17" s="95"/>
       <c r="B17" s="44" t="s">
         <v>21</v>
       </c>
@@ -2323,7 +2323,7 @@
       </c>
     </row>
     <row r="18" spans="1:20" x14ac:dyDescent="0.35">
-      <c r="A18" s="90" t="s">
+      <c r="A18" s="94" t="s">
         <v>87</v>
       </c>
       <c r="B18" s="44" t="s">
@@ -2382,7 +2382,7 @@
       </c>
     </row>
     <row r="19" spans="1:20" x14ac:dyDescent="0.35">
-      <c r="A19" s="91"/>
+      <c r="A19" s="95"/>
       <c r="B19" s="44" t="s">
         <v>20</v>
       </c>
@@ -2439,7 +2439,7 @@
       </c>
     </row>
     <row r="20" spans="1:20" x14ac:dyDescent="0.35">
-      <c r="A20" s="90" t="s">
+      <c r="A20" s="94" t="s">
         <v>87</v>
       </c>
       <c r="B20" s="44" t="s">
@@ -2498,7 +2498,7 @@
       </c>
     </row>
     <row r="21" spans="1:20" x14ac:dyDescent="0.35">
-      <c r="A21" s="91"/>
+      <c r="A21" s="95"/>
       <c r="B21" s="44" t="s">
         <v>21</v>
       </c>
@@ -2555,7 +2555,7 @@
       </c>
     </row>
     <row r="22" spans="1:20" x14ac:dyDescent="0.35">
-      <c r="A22" s="90" t="s">
+      <c r="A22" s="94" t="s">
         <v>96</v>
       </c>
       <c r="B22" s="87" t="s">
@@ -2615,7 +2615,7 @@
       </c>
     </row>
     <row r="23" spans="1:20" x14ac:dyDescent="0.35">
-      <c r="A23" s="91"/>
+      <c r="A23" s="95"/>
       <c r="B23" s="87" t="s">
         <v>20</v>
       </c>
@@ -2673,7 +2673,7 @@
       </c>
     </row>
     <row r="24" spans="1:20" x14ac:dyDescent="0.35">
-      <c r="A24" s="90" t="s">
+      <c r="A24" s="94" t="s">
         <v>96</v>
       </c>
       <c r="B24" s="87" t="s">
@@ -2749,81 +2749,81 @@
       </c>
     </row>
     <row r="25" spans="1:20" x14ac:dyDescent="0.35">
-      <c r="A25" s="91"/>
+      <c r="A25" s="95"/>
       <c r="B25" s="87" t="s">
         <v>21</v>
       </c>
       <c r="C25" s="64">
-        <f>C24/$S$24</f>
+        <f t="shared" ref="C25:S25" si="15">C24/$S$24</f>
         <v>5.7184325233461918E-2</v>
       </c>
       <c r="D25" s="64">
-        <f>D24/$S$24</f>
+        <f t="shared" si="15"/>
         <v>6.2188399065551347E-2</v>
       </c>
       <c r="E25" s="64">
-        <f>E24/$S$24</f>
+        <f t="shared" si="15"/>
         <v>7.3617022007278807E-2</v>
       </c>
       <c r="F25" s="64">
-        <f>F24/$S$24</f>
+        <f t="shared" si="15"/>
         <v>7.8433072819855912E-2</v>
       </c>
       <c r="G25" s="64">
-        <f>G24/$S$24</f>
+        <f t="shared" si="15"/>
         <v>9.3916210417505544E-2</v>
       </c>
       <c r="H25" s="64">
-        <f>H24/$S$24</f>
+        <f t="shared" si="15"/>
         <v>9.9060657599778834E-2</v>
       </c>
       <c r="I25" s="64">
-        <f>I24/$S$24</f>
+        <f t="shared" si="15"/>
         <v>9.178528286303253E-2</v>
       </c>
       <c r="J25" s="64">
-        <f>J24/$S$24</f>
+        <f t="shared" si="15"/>
         <v>7.676705149856064E-2</v>
       </c>
       <c r="K25" s="64">
-        <f>K24/$S$24</f>
+        <f t="shared" si="15"/>
         <v>7.268549243572231E-2</v>
       </c>
       <c r="L25" s="64">
-        <f>L24/$S$24</f>
+        <f t="shared" si="15"/>
         <v>7.0799681648695725E-2</v>
       </c>
       <c r="M25" s="64">
-        <f>M24/$S$24</f>
+        <f t="shared" si="15"/>
         <v>6.3510570070341221E-2</v>
       </c>
       <c r="N25" s="64">
-        <f>N24/$S$24</f>
+        <f t="shared" si="15"/>
         <v>5.1049108350196735E-2</v>
       </c>
       <c r="O25" s="64">
-        <f>O24/$S$24</f>
+        <f t="shared" si="15"/>
         <v>4.0003399868298033E-2</v>
       </c>
       <c r="P25" s="64">
-        <f>P24/$S$24</f>
+        <f t="shared" si="15"/>
         <v>2.962564530959836E-2</v>
       </c>
       <c r="Q25" s="64">
-        <f>Q24/$S$24</f>
+        <f t="shared" si="15"/>
         <v>2.2925071538895437E-2</v>
       </c>
       <c r="R25" s="64">
-        <f>R24/$S$24</f>
+        <f t="shared" si="15"/>
         <v>1.644900927322664E-2</v>
       </c>
       <c r="S25" s="64">
-        <f>S24/$S$24</f>
+        <f t="shared" si="15"/>
         <v>1</v>
       </c>
     </row>
     <row r="26" spans="1:20" x14ac:dyDescent="0.35">
-      <c r="A26" s="90" t="s">
+      <c r="A26" s="94" t="s">
         <v>95</v>
       </c>
       <c r="B26" s="87" t="s">
@@ -2883,7 +2883,7 @@
       </c>
     </row>
     <row r="27" spans="1:20" x14ac:dyDescent="0.35">
-      <c r="A27" s="91"/>
+      <c r="A27" s="95"/>
       <c r="B27" s="87" t="s">
         <v>20</v>
       </c>
@@ -2941,7 +2941,7 @@
       </c>
     </row>
     <row r="28" spans="1:20" x14ac:dyDescent="0.35">
-      <c r="A28" s="90" t="s">
+      <c r="A28" s="94" t="s">
         <v>95</v>
       </c>
       <c r="B28" s="87" t="s">
@@ -2952,63 +2952,63 @@
         <v>52954</v>
       </c>
       <c r="D28" s="64">
-        <f t="shared" ref="D28:R28" si="15">SUM(D26:D27)</f>
+        <f t="shared" ref="D28:R28" si="16">SUM(D26:D27)</f>
         <v>55758</v>
       </c>
       <c r="E28" s="64">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>66167</v>
       </c>
       <c r="F28" s="64">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>71068</v>
       </c>
       <c r="G28" s="64">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>81918</v>
       </c>
       <c r="H28" s="64">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>78620</v>
       </c>
       <c r="I28" s="64">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>67699</v>
       </c>
       <c r="J28" s="64">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>58534</v>
       </c>
       <c r="K28" s="64">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>57924</v>
       </c>
       <c r="L28" s="64">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>53327</v>
       </c>
       <c r="M28" s="64">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>42917</v>
       </c>
       <c r="N28" s="64">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>32914</v>
       </c>
       <c r="O28" s="64">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>27334</v>
       </c>
       <c r="P28" s="64">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>18621</v>
       </c>
       <c r="Q28" s="64">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>14511</v>
       </c>
       <c r="R28" s="64">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>9648</v>
       </c>
       <c r="S28" s="64">
@@ -3017,7 +3017,7 @@
       </c>
     </row>
     <row r="29" spans="1:20" x14ac:dyDescent="0.35">
-      <c r="A29" s="91"/>
+      <c r="A29" s="95"/>
       <c r="B29" s="87" t="s">
         <v>21</v>
       </c>
@@ -3026,72 +3026,72 @@
         <v>6.7037677519324892E-2</v>
       </c>
       <c r="D29" s="64">
-        <f t="shared" ref="D29:S29" si="16">D28/$S$28</f>
+        <f t="shared" ref="D29:S29" si="17">D28/$S$28</f>
         <v>7.0587431036796405E-2</v>
       </c>
       <c r="E29" s="64">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>8.3764814903900933E-2</v>
       </c>
       <c r="F29" s="64">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>8.9969287795886643E-2</v>
       </c>
       <c r="G29" s="64">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>0.10370496028681603</v>
       </c>
       <c r="H29" s="64">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>9.9529822233812792E-2</v>
       </c>
       <c r="I29" s="64">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>8.5704266540408192E-2</v>
       </c>
       <c r="J29" s="64">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>7.4101737657517153E-2</v>
       </c>
       <c r="K29" s="64">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>7.3329501692589324E-2</v>
       </c>
       <c r="L29" s="64">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>6.7509880822469281E-2</v>
       </c>
       <c r="M29" s="64">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>5.433123099476652E-2</v>
       </c>
       <c r="N29" s="64">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>4.1667827130548389E-2</v>
       </c>
       <c r="O29" s="64">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>3.4603766992356129E-2</v>
       </c>
       <c r="P29" s="64">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>2.357345229987062E-2</v>
       </c>
       <c r="Q29" s="64">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>1.8370354241094601E-2</v>
       </c>
       <c r="R29" s="64">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>1.2213987851842099E-2</v>
       </c>
       <c r="S29" s="64">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>1</v>
       </c>
     </row>
     <row r="30" spans="1:20" x14ac:dyDescent="0.35">
-      <c r="A30" s="90" t="s">
+      <c r="A30" s="94" t="s">
         <v>97</v>
       </c>
       <c r="B30" s="88" t="s">
@@ -3150,7 +3150,7 @@
       </c>
     </row>
     <row r="31" spans="1:20" x14ac:dyDescent="0.35">
-      <c r="A31" s="91"/>
+      <c r="A31" s="95"/>
       <c r="B31" s="88" t="s">
         <v>20</v>
       </c>
@@ -3208,7 +3208,7 @@
       <c r="T31" s="64"/>
     </row>
     <row r="32" spans="1:20" x14ac:dyDescent="0.35">
-      <c r="A32" s="90" t="s">
+      <c r="A32" s="94" t="s">
         <v>97</v>
       </c>
       <c r="B32" s="88" t="s">
@@ -3267,7 +3267,7 @@
       </c>
     </row>
     <row r="33" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A33" s="91"/>
+      <c r="A33" s="95"/>
       <c r="B33" s="88" t="s">
         <v>21</v>
       </c>
@@ -3343,22 +3343,22 @@
     </row>
   </sheetData>
   <mergeCells count="16">
+    <mergeCell ref="A12:A13"/>
+    <mergeCell ref="A14:A15"/>
+    <mergeCell ref="A16:A17"/>
+    <mergeCell ref="A18:A19"/>
+    <mergeCell ref="A20:A21"/>
+    <mergeCell ref="A2:A3"/>
+    <mergeCell ref="A4:A5"/>
+    <mergeCell ref="A6:A7"/>
+    <mergeCell ref="A8:A9"/>
+    <mergeCell ref="A10:A11"/>
     <mergeCell ref="A30:A31"/>
     <mergeCell ref="A32:A33"/>
     <mergeCell ref="A26:A27"/>
     <mergeCell ref="A28:A29"/>
     <mergeCell ref="A22:A23"/>
     <mergeCell ref="A24:A25"/>
-    <mergeCell ref="A2:A3"/>
-    <mergeCell ref="A4:A5"/>
-    <mergeCell ref="A6:A7"/>
-    <mergeCell ref="A8:A9"/>
-    <mergeCell ref="A10:A11"/>
-    <mergeCell ref="A12:A13"/>
-    <mergeCell ref="A14:A15"/>
-    <mergeCell ref="A16:A17"/>
-    <mergeCell ref="A18:A19"/>
-    <mergeCell ref="A20:A21"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -3437,7 +3437,7 @@
       </c>
     </row>
     <row r="2" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A2" s="92" t="s">
+      <c r="A2" s="96" t="s">
         <v>84</v>
       </c>
       <c r="B2" s="44" t="s">
@@ -3496,7 +3496,7 @@
       </c>
     </row>
     <row r="3" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A3" s="92"/>
+      <c r="A3" s="96"/>
       <c r="B3" s="44" t="s">
         <v>1</v>
       </c>
@@ -3553,7 +3553,7 @@
       </c>
     </row>
     <row r="4" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A4" s="92"/>
+      <c r="A4" s="96"/>
       <c r="B4" s="44" t="s">
         <v>2</v>
       </c>
@@ -3610,7 +3610,7 @@
       </c>
     </row>
     <row r="5" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A5" s="92"/>
+      <c r="A5" s="96"/>
       <c r="B5" s="44" t="s">
         <v>3</v>
       </c>
@@ -3667,7 +3667,7 @@
       </c>
     </row>
     <row r="6" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A6" s="92"/>
+      <c r="A6" s="96"/>
       <c r="B6" s="44" t="s">
         <v>4</v>
       </c>
@@ -3724,7 +3724,7 @@
       </c>
     </row>
     <row r="7" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A7" s="92"/>
+      <c r="A7" s="96"/>
       <c r="B7" s="44" t="s">
         <v>5</v>
       </c>
@@ -3781,7 +3781,7 @@
       </c>
     </row>
     <row r="8" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A8" s="92"/>
+      <c r="A8" s="96"/>
       <c r="B8" s="44" t="s">
         <v>6</v>
       </c>
@@ -3838,7 +3838,7 @@
       </c>
     </row>
     <row r="9" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A9" s="92"/>
+      <c r="A9" s="96"/>
       <c r="B9" s="44" t="s">
         <v>7</v>
       </c>
@@ -3895,7 +3895,7 @@
       </c>
     </row>
     <row r="10" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A10" s="92"/>
+      <c r="A10" s="96"/>
       <c r="B10" s="44" t="s">
         <v>8</v>
       </c>
@@ -3952,7 +3952,7 @@
       </c>
     </row>
     <row r="11" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A11" s="92"/>
+      <c r="A11" s="96"/>
       <c r="B11" s="44" t="s">
         <v>9</v>
       </c>
@@ -4009,7 +4009,7 @@
       </c>
     </row>
     <row r="12" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A12" s="92"/>
+      <c r="A12" s="96"/>
       <c r="B12" s="44" t="s">
         <v>10</v>
       </c>
@@ -4066,7 +4066,7 @@
       </c>
     </row>
     <row r="13" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A13" s="92"/>
+      <c r="A13" s="96"/>
       <c r="B13" s="44" t="s">
         <v>11</v>
       </c>
@@ -4123,7 +4123,7 @@
       </c>
     </row>
     <row r="14" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A14" s="92"/>
+      <c r="A14" s="96"/>
       <c r="B14" s="44" t="s">
         <v>12</v>
       </c>
@@ -4180,7 +4180,7 @@
       </c>
     </row>
     <row r="15" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A15" s="92"/>
+      <c r="A15" s="96"/>
       <c r="B15" s="44" t="s">
         <v>13</v>
       </c>
@@ -4237,7 +4237,7 @@
       </c>
     </row>
     <row r="16" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A16" s="92"/>
+      <c r="A16" s="96"/>
       <c r="B16" s="44" t="s">
         <v>14</v>
       </c>
@@ -4294,7 +4294,7 @@
       </c>
     </row>
     <row r="17" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A17" s="92"/>
+      <c r="A17" s="96"/>
       <c r="B17" s="44" t="s">
         <v>15</v>
       </c>
@@ -4351,7 +4351,7 @@
       </c>
     </row>
     <row r="18" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A18" s="92" t="s">
+      <c r="A18" s="96" t="s">
         <v>88</v>
       </c>
       <c r="B18" s="44" t="s">
@@ -4410,7 +4410,7 @@
       </c>
     </row>
     <row r="19" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A19" s="92"/>
+      <c r="A19" s="96"/>
       <c r="B19" s="44" t="s">
         <v>1</v>
       </c>
@@ -4467,7 +4467,7 @@
       </c>
     </row>
     <row r="20" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A20" s="92"/>
+      <c r="A20" s="96"/>
       <c r="B20" s="44" t="s">
         <v>2</v>
       </c>
@@ -4524,7 +4524,7 @@
       </c>
     </row>
     <row r="21" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A21" s="92"/>
+      <c r="A21" s="96"/>
       <c r="B21" s="44" t="s">
         <v>3</v>
       </c>
@@ -4581,7 +4581,7 @@
       </c>
     </row>
     <row r="22" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A22" s="92"/>
+      <c r="A22" s="96"/>
       <c r="B22" s="44" t="s">
         <v>4</v>
       </c>
@@ -4638,7 +4638,7 @@
       </c>
     </row>
     <row r="23" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A23" s="92"/>
+      <c r="A23" s="96"/>
       <c r="B23" s="44" t="s">
         <v>5</v>
       </c>
@@ -4695,7 +4695,7 @@
       </c>
     </row>
     <row r="24" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A24" s="92"/>
+      <c r="A24" s="96"/>
       <c r="B24" s="44" t="s">
         <v>6</v>
       </c>
@@ -4752,7 +4752,7 @@
       </c>
     </row>
     <row r="25" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A25" s="92"/>
+      <c r="A25" s="96"/>
       <c r="B25" s="44" t="s">
         <v>7</v>
       </c>
@@ -4809,7 +4809,7 @@
       </c>
     </row>
     <row r="26" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A26" s="92"/>
+      <c r="A26" s="96"/>
       <c r="B26" s="44" t="s">
         <v>8</v>
       </c>
@@ -4866,7 +4866,7 @@
       </c>
     </row>
     <row r="27" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A27" s="92"/>
+      <c r="A27" s="96"/>
       <c r="B27" s="44" t="s">
         <v>9</v>
       </c>
@@ -4923,7 +4923,7 @@
       </c>
     </row>
     <row r="28" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A28" s="92"/>
+      <c r="A28" s="96"/>
       <c r="B28" s="44" t="s">
         <v>10</v>
       </c>
@@ -4980,7 +4980,7 @@
       </c>
     </row>
     <row r="29" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A29" s="92"/>
+      <c r="A29" s="96"/>
       <c r="B29" s="44" t="s">
         <v>11</v>
       </c>
@@ -5037,7 +5037,7 @@
       </c>
     </row>
     <row r="30" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A30" s="92"/>
+      <c r="A30" s="96"/>
       <c r="B30" s="44" t="s">
         <v>12</v>
       </c>
@@ -5094,7 +5094,7 @@
       </c>
     </row>
     <row r="31" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A31" s="92"/>
+      <c r="A31" s="96"/>
       <c r="B31" s="44" t="s">
         <v>13</v>
       </c>
@@ -5151,7 +5151,7 @@
       </c>
     </row>
     <row r="32" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A32" s="92"/>
+      <c r="A32" s="96"/>
       <c r="B32" s="44" t="s">
         <v>14</v>
       </c>
@@ -5208,7 +5208,7 @@
       </c>
     </row>
     <row r="33" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A33" s="92"/>
+      <c r="A33" s="96"/>
       <c r="B33" s="44" t="s">
         <v>15</v>
       </c>
@@ -5265,7 +5265,7 @@
       </c>
     </row>
     <row r="34" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A34" s="92" t="s">
+      <c r="A34" s="96" t="s">
         <v>87</v>
       </c>
       <c r="B34" s="44" t="s">
@@ -5324,7 +5324,7 @@
       </c>
     </row>
     <row r="35" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A35" s="92"/>
+      <c r="A35" s="96"/>
       <c r="B35" s="44" t="s">
         <v>1</v>
       </c>
@@ -5381,7 +5381,7 @@
       </c>
     </row>
     <row r="36" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A36" s="92"/>
+      <c r="A36" s="96"/>
       <c r="B36" s="44" t="s">
         <v>2</v>
       </c>
@@ -5438,7 +5438,7 @@
       </c>
     </row>
     <row r="37" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A37" s="92"/>
+      <c r="A37" s="96"/>
       <c r="B37" s="44" t="s">
         <v>3</v>
       </c>
@@ -5495,7 +5495,7 @@
       </c>
     </row>
     <row r="38" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A38" s="92"/>
+      <c r="A38" s="96"/>
       <c r="B38" s="44" t="s">
         <v>4</v>
       </c>
@@ -5552,7 +5552,7 @@
       </c>
     </row>
     <row r="39" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A39" s="92"/>
+      <c r="A39" s="96"/>
       <c r="B39" s="44" t="s">
         <v>5</v>
       </c>
@@ -5609,7 +5609,7 @@
       </c>
     </row>
     <row r="40" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A40" s="92"/>
+      <c r="A40" s="96"/>
       <c r="B40" s="44" t="s">
         <v>6</v>
       </c>
@@ -5666,7 +5666,7 @@
       </c>
     </row>
     <row r="41" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A41" s="92"/>
+      <c r="A41" s="96"/>
       <c r="B41" s="44" t="s">
         <v>7</v>
       </c>
@@ -5723,7 +5723,7 @@
       </c>
     </row>
     <row r="42" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A42" s="92"/>
+      <c r="A42" s="96"/>
       <c r="B42" s="44" t="s">
         <v>8</v>
       </c>
@@ -5780,7 +5780,7 @@
       </c>
     </row>
     <row r="43" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A43" s="92"/>
+      <c r="A43" s="96"/>
       <c r="B43" s="44" t="s">
         <v>9</v>
       </c>
@@ -5837,7 +5837,7 @@
       </c>
     </row>
     <row r="44" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A44" s="92"/>
+      <c r="A44" s="96"/>
       <c r="B44" s="44" t="s">
         <v>10</v>
       </c>
@@ -5894,7 +5894,7 @@
       </c>
     </row>
     <row r="45" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A45" s="92"/>
+      <c r="A45" s="96"/>
       <c r="B45" s="44" t="s">
         <v>11</v>
       </c>
@@ -5951,7 +5951,7 @@
       </c>
     </row>
     <row r="46" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A46" s="92"/>
+      <c r="A46" s="96"/>
       <c r="B46" s="44" t="s">
         <v>12</v>
       </c>
@@ -6008,7 +6008,7 @@
       </c>
     </row>
     <row r="47" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A47" s="92"/>
+      <c r="A47" s="96"/>
       <c r="B47" s="44" t="s">
         <v>13</v>
       </c>
@@ -6065,7 +6065,7 @@
       </c>
     </row>
     <row r="48" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A48" s="92"/>
+      <c r="A48" s="96"/>
       <c r="B48" s="44" t="s">
         <v>14</v>
       </c>
@@ -6122,7 +6122,7 @@
       </c>
     </row>
     <row r="49" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A49" s="92"/>
+      <c r="A49" s="96"/>
       <c r="B49" s="44" t="s">
         <v>15</v>
       </c>
@@ -6179,7 +6179,7 @@
       </c>
     </row>
     <row r="50" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A50" s="92" t="s">
+      <c r="A50" s="96" t="s">
         <v>85</v>
       </c>
       <c r="B50" s="44" t="s">
@@ -6238,7 +6238,7 @@
       </c>
     </row>
     <row r="51" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A51" s="92"/>
+      <c r="A51" s="96"/>
       <c r="B51" s="44" t="s">
         <v>1</v>
       </c>
@@ -6295,7 +6295,7 @@
       </c>
     </row>
     <row r="52" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A52" s="92"/>
+      <c r="A52" s="96"/>
       <c r="B52" s="44" t="s">
         <v>2</v>
       </c>
@@ -6352,7 +6352,7 @@
       </c>
     </row>
     <row r="53" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A53" s="92"/>
+      <c r="A53" s="96"/>
       <c r="B53" s="44" t="s">
         <v>3</v>
       </c>
@@ -6409,7 +6409,7 @@
       </c>
     </row>
     <row r="54" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A54" s="92"/>
+      <c r="A54" s="96"/>
       <c r="B54" s="44" t="s">
         <v>4</v>
       </c>
@@ -6466,7 +6466,7 @@
       </c>
     </row>
     <row r="55" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A55" s="92"/>
+      <c r="A55" s="96"/>
       <c r="B55" s="44" t="s">
         <v>5</v>
       </c>
@@ -6523,7 +6523,7 @@
       </c>
     </row>
     <row r="56" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A56" s="92"/>
+      <c r="A56" s="96"/>
       <c r="B56" s="44" t="s">
         <v>6</v>
       </c>
@@ -6580,7 +6580,7 @@
       </c>
     </row>
     <row r="57" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A57" s="92"/>
+      <c r="A57" s="96"/>
       <c r="B57" s="44" t="s">
         <v>7</v>
       </c>
@@ -6637,7 +6637,7 @@
       </c>
     </row>
     <row r="58" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A58" s="92"/>
+      <c r="A58" s="96"/>
       <c r="B58" s="44" t="s">
         <v>8</v>
       </c>
@@ -6694,7 +6694,7 @@
       </c>
     </row>
     <row r="59" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A59" s="92"/>
+      <c r="A59" s="96"/>
       <c r="B59" s="44" t="s">
         <v>9</v>
       </c>
@@ -6751,7 +6751,7 @@
       </c>
     </row>
     <row r="60" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A60" s="92"/>
+      <c r="A60" s="96"/>
       <c r="B60" s="44" t="s">
         <v>10</v>
       </c>
@@ -6808,7 +6808,7 @@
       </c>
     </row>
     <row r="61" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A61" s="92"/>
+      <c r="A61" s="96"/>
       <c r="B61" s="44" t="s">
         <v>11</v>
       </c>
@@ -6865,7 +6865,7 @@
       </c>
     </row>
     <row r="62" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A62" s="92"/>
+      <c r="A62" s="96"/>
       <c r="B62" s="44" t="s">
         <v>12</v>
       </c>
@@ -6922,7 +6922,7 @@
       </c>
     </row>
     <row r="63" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A63" s="92"/>
+      <c r="A63" s="96"/>
       <c r="B63" s="44" t="s">
         <v>13</v>
       </c>
@@ -6979,7 +6979,7 @@
       </c>
     </row>
     <row r="64" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A64" s="92"/>
+      <c r="A64" s="96"/>
       <c r="B64" s="44" t="s">
         <v>14</v>
       </c>
@@ -7036,7 +7036,7 @@
       </c>
     </row>
     <row r="65" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A65" s="92"/>
+      <c r="A65" s="96"/>
       <c r="B65" s="44" t="s">
         <v>15</v>
       </c>
@@ -7093,7 +7093,7 @@
       </c>
     </row>
     <row r="66" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A66" s="92" t="s">
+      <c r="A66" s="96" t="s">
         <v>86</v>
       </c>
       <c r="B66" s="44" t="s">
@@ -7152,7 +7152,7 @@
       </c>
     </row>
     <row r="67" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A67" s="92"/>
+      <c r="A67" s="96"/>
       <c r="B67" s="44" t="s">
         <v>1</v>
       </c>
@@ -7209,7 +7209,7 @@
       </c>
     </row>
     <row r="68" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A68" s="92"/>
+      <c r="A68" s="96"/>
       <c r="B68" s="44" t="s">
         <v>2</v>
       </c>
@@ -7266,7 +7266,7 @@
       </c>
     </row>
     <row r="69" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A69" s="92"/>
+      <c r="A69" s="96"/>
       <c r="B69" s="44" t="s">
         <v>3</v>
       </c>
@@ -7323,7 +7323,7 @@
       </c>
     </row>
     <row r="70" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A70" s="92"/>
+      <c r="A70" s="96"/>
       <c r="B70" s="44" t="s">
         <v>4</v>
       </c>
@@ -7380,7 +7380,7 @@
       </c>
     </row>
     <row r="71" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A71" s="92"/>
+      <c r="A71" s="96"/>
       <c r="B71" s="44" t="s">
         <v>5</v>
       </c>
@@ -7437,7 +7437,7 @@
       </c>
     </row>
     <row r="72" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A72" s="92"/>
+      <c r="A72" s="96"/>
       <c r="B72" s="44" t="s">
         <v>6</v>
       </c>
@@ -7494,7 +7494,7 @@
       </c>
     </row>
     <row r="73" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A73" s="92"/>
+      <c r="A73" s="96"/>
       <c r="B73" s="44" t="s">
         <v>7</v>
       </c>
@@ -7551,7 +7551,7 @@
       </c>
     </row>
     <row r="74" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A74" s="92"/>
+      <c r="A74" s="96"/>
       <c r="B74" s="44" t="s">
         <v>8</v>
       </c>
@@ -7608,7 +7608,7 @@
       </c>
     </row>
     <row r="75" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A75" s="92"/>
+      <c r="A75" s="96"/>
       <c r="B75" s="44" t="s">
         <v>9</v>
       </c>
@@ -7665,7 +7665,7 @@
       </c>
     </row>
     <row r="76" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A76" s="92"/>
+      <c r="A76" s="96"/>
       <c r="B76" s="44" t="s">
         <v>10</v>
       </c>
@@ -7722,7 +7722,7 @@
       </c>
     </row>
     <row r="77" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A77" s="92"/>
+      <c r="A77" s="96"/>
       <c r="B77" s="44" t="s">
         <v>11</v>
       </c>
@@ -7779,7 +7779,7 @@
       </c>
     </row>
     <row r="78" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A78" s="92"/>
+      <c r="A78" s="96"/>
       <c r="B78" s="44" t="s">
         <v>12</v>
       </c>
@@ -7836,7 +7836,7 @@
       </c>
     </row>
     <row r="79" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A79" s="92"/>
+      <c r="A79" s="96"/>
       <c r="B79" s="44" t="s">
         <v>13</v>
       </c>
@@ -7893,7 +7893,7 @@
       </c>
     </row>
     <row r="80" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A80" s="92"/>
+      <c r="A80" s="96"/>
       <c r="B80" s="44" t="s">
         <v>14</v>
       </c>
@@ -7950,7 +7950,7 @@
       </c>
     </row>
     <row r="81" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A81" s="92"/>
+      <c r="A81" s="96"/>
       <c r="B81" s="44" t="s">
         <v>15</v>
       </c>
@@ -8007,7 +8007,7 @@
       </c>
     </row>
     <row r="82" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A82" s="92" t="s">
+      <c r="A82" s="96" t="s">
         <v>96</v>
       </c>
       <c r="B82" s="87" t="s">
@@ -8066,7 +8066,7 @@
       </c>
     </row>
     <row r="83" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A83" s="92"/>
+      <c r="A83" s="96"/>
       <c r="B83" s="87" t="s">
         <v>1</v>
       </c>
@@ -8123,7 +8123,7 @@
       </c>
     </row>
     <row r="84" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A84" s="92"/>
+      <c r="A84" s="96"/>
       <c r="B84" s="87" t="s">
         <v>2</v>
       </c>
@@ -8180,7 +8180,7 @@
       </c>
     </row>
     <row r="85" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A85" s="92"/>
+      <c r="A85" s="96"/>
       <c r="B85" s="87" t="s">
         <v>3</v>
       </c>
@@ -8237,7 +8237,7 @@
       </c>
     </row>
     <row r="86" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A86" s="92"/>
+      <c r="A86" s="96"/>
       <c r="B86" s="87" t="s">
         <v>4</v>
       </c>
@@ -8294,7 +8294,7 @@
       </c>
     </row>
     <row r="87" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A87" s="92"/>
+      <c r="A87" s="96"/>
       <c r="B87" s="87" t="s">
         <v>5</v>
       </c>
@@ -8351,7 +8351,7 @@
       </c>
     </row>
     <row r="88" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A88" s="92"/>
+      <c r="A88" s="96"/>
       <c r="B88" s="87" t="s">
         <v>6</v>
       </c>
@@ -8408,7 +8408,7 @@
       </c>
     </row>
     <row r="89" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A89" s="92"/>
+      <c r="A89" s="96"/>
       <c r="B89" s="87" t="s">
         <v>7</v>
       </c>
@@ -8465,7 +8465,7 @@
       </c>
     </row>
     <row r="90" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A90" s="92"/>
+      <c r="A90" s="96"/>
       <c r="B90" s="87" t="s">
         <v>8</v>
       </c>
@@ -8522,7 +8522,7 @@
       </c>
     </row>
     <row r="91" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A91" s="92"/>
+      <c r="A91" s="96"/>
       <c r="B91" s="87" t="s">
         <v>9</v>
       </c>
@@ -8579,7 +8579,7 @@
       </c>
     </row>
     <row r="92" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A92" s="92"/>
+      <c r="A92" s="96"/>
       <c r="B92" s="87" t="s">
         <v>10</v>
       </c>
@@ -8636,7 +8636,7 @@
       </c>
     </row>
     <row r="93" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A93" s="92"/>
+      <c r="A93" s="96"/>
       <c r="B93" s="87" t="s">
         <v>11</v>
       </c>
@@ -8693,7 +8693,7 @@
       </c>
     </row>
     <row r="94" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A94" s="92"/>
+      <c r="A94" s="96"/>
       <c r="B94" s="87" t="s">
         <v>12</v>
       </c>
@@ -8750,7 +8750,7 @@
       </c>
     </row>
     <row r="95" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A95" s="92"/>
+      <c r="A95" s="96"/>
       <c r="B95" s="87" t="s">
         <v>13</v>
       </c>
@@ -8807,7 +8807,7 @@
       </c>
     </row>
     <row r="96" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A96" s="92"/>
+      <c r="A96" s="96"/>
       <c r="B96" s="87" t="s">
         <v>14</v>
       </c>
@@ -8864,7 +8864,7 @@
       </c>
     </row>
     <row r="97" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A97" s="92"/>
+      <c r="A97" s="96"/>
       <c r="B97" s="87" t="s">
         <v>15</v>
       </c>
@@ -8921,7 +8921,7 @@
       </c>
     </row>
     <row r="98" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A98" s="92" t="s">
+      <c r="A98" s="96" t="s">
         <v>95</v>
       </c>
       <c r="B98" s="87" t="s">
@@ -8980,7 +8980,7 @@
       </c>
     </row>
     <row r="99" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A99" s="92"/>
+      <c r="A99" s="96"/>
       <c r="B99" s="87" t="s">
         <v>1</v>
       </c>
@@ -9037,7 +9037,7 @@
       </c>
     </row>
     <row r="100" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A100" s="92"/>
+      <c r="A100" s="96"/>
       <c r="B100" s="87" t="s">
         <v>2</v>
       </c>
@@ -9094,7 +9094,7 @@
       </c>
     </row>
     <row r="101" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A101" s="92"/>
+      <c r="A101" s="96"/>
       <c r="B101" s="87" t="s">
         <v>3</v>
       </c>
@@ -9151,7 +9151,7 @@
       </c>
     </row>
     <row r="102" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A102" s="92"/>
+      <c r="A102" s="96"/>
       <c r="B102" s="87" t="s">
         <v>4</v>
       </c>
@@ -9208,7 +9208,7 @@
       </c>
     </row>
     <row r="103" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A103" s="92"/>
+      <c r="A103" s="96"/>
       <c r="B103" s="87" t="s">
         <v>5</v>
       </c>
@@ -9265,7 +9265,7 @@
       </c>
     </row>
     <row r="104" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A104" s="92"/>
+      <c r="A104" s="96"/>
       <c r="B104" s="87" t="s">
         <v>6</v>
       </c>
@@ -9322,7 +9322,7 @@
       </c>
     </row>
     <row r="105" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A105" s="92"/>
+      <c r="A105" s="96"/>
       <c r="B105" s="87" t="s">
         <v>7</v>
       </c>
@@ -9379,7 +9379,7 @@
       </c>
     </row>
     <row r="106" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A106" s="92"/>
+      <c r="A106" s="96"/>
       <c r="B106" s="87" t="s">
         <v>8</v>
       </c>
@@ -9436,7 +9436,7 @@
       </c>
     </row>
     <row r="107" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A107" s="92"/>
+      <c r="A107" s="96"/>
       <c r="B107" s="87" t="s">
         <v>9</v>
       </c>
@@ -9493,7 +9493,7 @@
       </c>
     </row>
     <row r="108" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A108" s="92"/>
+      <c r="A108" s="96"/>
       <c r="B108" s="87" t="s">
         <v>10</v>
       </c>
@@ -9550,7 +9550,7 @@
       </c>
     </row>
     <row r="109" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A109" s="92"/>
+      <c r="A109" s="96"/>
       <c r="B109" s="87" t="s">
         <v>11</v>
       </c>
@@ -9607,7 +9607,7 @@
       </c>
     </row>
     <row r="110" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A110" s="92"/>
+      <c r="A110" s="96"/>
       <c r="B110" s="87" t="s">
         <v>12</v>
       </c>
@@ -9664,7 +9664,7 @@
       </c>
     </row>
     <row r="111" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A111" s="92"/>
+      <c r="A111" s="96"/>
       <c r="B111" s="87" t="s">
         <v>13</v>
       </c>
@@ -9721,7 +9721,7 @@
       </c>
     </row>
     <row r="112" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A112" s="92"/>
+      <c r="A112" s="96"/>
       <c r="B112" s="87" t="s">
         <v>14</v>
       </c>
@@ -9778,7 +9778,7 @@
       </c>
     </row>
     <row r="113" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A113" s="92"/>
+      <c r="A113" s="96"/>
       <c r="B113" s="87" t="s">
         <v>15</v>
       </c>
@@ -9835,7 +9835,7 @@
       </c>
     </row>
     <row r="114" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A114" s="92" t="s">
+      <c r="A114" s="96" t="s">
         <v>97</v>
       </c>
       <c r="B114" s="88" t="s">
@@ -9894,7 +9894,7 @@
       </c>
     </row>
     <row r="115" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A115" s="92"/>
+      <c r="A115" s="96"/>
       <c r="B115" s="88" t="s">
         <v>1</v>
       </c>
@@ -9951,7 +9951,7 @@
       </c>
     </row>
     <row r="116" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A116" s="92"/>
+      <c r="A116" s="96"/>
       <c r="B116" s="88" t="s">
         <v>2</v>
       </c>
@@ -10008,7 +10008,7 @@
       </c>
     </row>
     <row r="117" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A117" s="92"/>
+      <c r="A117" s="96"/>
       <c r="B117" s="88" t="s">
         <v>3</v>
       </c>
@@ -10065,7 +10065,7 @@
       </c>
     </row>
     <row r="118" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A118" s="92"/>
+      <c r="A118" s="96"/>
       <c r="B118" s="88" t="s">
         <v>4</v>
       </c>
@@ -10122,7 +10122,7 @@
       </c>
     </row>
     <row r="119" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A119" s="92"/>
+      <c r="A119" s="96"/>
       <c r="B119" s="88" t="s">
         <v>5</v>
       </c>
@@ -10179,7 +10179,7 @@
       </c>
     </row>
     <row r="120" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A120" s="92"/>
+      <c r="A120" s="96"/>
       <c r="B120" s="88" t="s">
         <v>6</v>
       </c>
@@ -10236,7 +10236,7 @@
       </c>
     </row>
     <row r="121" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A121" s="92"/>
+      <c r="A121" s="96"/>
       <c r="B121" s="88" t="s">
         <v>7</v>
       </c>
@@ -10293,7 +10293,7 @@
       </c>
     </row>
     <row r="122" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A122" s="92"/>
+      <c r="A122" s="96"/>
       <c r="B122" s="88" t="s">
         <v>8</v>
       </c>
@@ -10350,7 +10350,7 @@
       </c>
     </row>
     <row r="123" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A123" s="92"/>
+      <c r="A123" s="96"/>
       <c r="B123" s="88" t="s">
         <v>9</v>
       </c>
@@ -10407,7 +10407,7 @@
       </c>
     </row>
     <row r="124" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A124" s="92"/>
+      <c r="A124" s="96"/>
       <c r="B124" s="88" t="s">
         <v>10</v>
       </c>
@@ -10464,7 +10464,7 @@
       </c>
     </row>
     <row r="125" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A125" s="92"/>
+      <c r="A125" s="96"/>
       <c r="B125" s="88" t="s">
         <v>11</v>
       </c>
@@ -10521,7 +10521,7 @@
       </c>
     </row>
     <row r="126" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A126" s="92"/>
+      <c r="A126" s="96"/>
       <c r="B126" s="88" t="s">
         <v>12</v>
       </c>
@@ -10578,7 +10578,7 @@
       </c>
     </row>
     <row r="127" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A127" s="92"/>
+      <c r="A127" s="96"/>
       <c r="B127" s="88" t="s">
         <v>13</v>
       </c>
@@ -10635,7 +10635,7 @@
       </c>
     </row>
     <row r="128" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A128" s="92"/>
+      <c r="A128" s="96"/>
       <c r="B128" s="88" t="s">
         <v>14</v>
       </c>
@@ -10692,7 +10692,7 @@
       </c>
     </row>
     <row r="129" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A129" s="92"/>
+      <c r="A129" s="96"/>
       <c r="B129" s="88" t="s">
         <v>15</v>
       </c>
@@ -10836,7 +10836,7 @@
       </c>
     </row>
     <row r="2" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A2" s="92" t="s">
+      <c r="A2" s="96" t="s">
         <v>84</v>
       </c>
       <c r="B2" s="44" t="s">
@@ -10895,7 +10895,7 @@
       </c>
     </row>
     <row r="3" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A3" s="92"/>
+      <c r="A3" s="96"/>
       <c r="B3" s="44" t="s">
         <v>1</v>
       </c>
@@ -10952,7 +10952,7 @@
       </c>
     </row>
     <row r="4" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A4" s="92"/>
+      <c r="A4" s="96"/>
       <c r="B4" s="44" t="s">
         <v>2</v>
       </c>
@@ -11009,7 +11009,7 @@
       </c>
     </row>
     <row r="5" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A5" s="92"/>
+      <c r="A5" s="96"/>
       <c r="B5" s="44" t="s">
         <v>3</v>
       </c>
@@ -11066,7 +11066,7 @@
       </c>
     </row>
     <row r="6" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A6" s="92"/>
+      <c r="A6" s="96"/>
       <c r="B6" s="44" t="s">
         <v>4</v>
       </c>
@@ -11123,7 +11123,7 @@
       </c>
     </row>
     <row r="7" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A7" s="92"/>
+      <c r="A7" s="96"/>
       <c r="B7" s="44" t="s">
         <v>5</v>
       </c>
@@ -11180,7 +11180,7 @@
       </c>
     </row>
     <row r="8" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A8" s="92"/>
+      <c r="A8" s="96"/>
       <c r="B8" s="44" t="s">
         <v>6</v>
       </c>
@@ -11237,7 +11237,7 @@
       </c>
     </row>
     <row r="9" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A9" s="92"/>
+      <c r="A9" s="96"/>
       <c r="B9" s="44" t="s">
         <v>7</v>
       </c>
@@ -11294,7 +11294,7 @@
       </c>
     </row>
     <row r="10" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A10" s="92"/>
+      <c r="A10" s="96"/>
       <c r="B10" s="44" t="s">
         <v>8</v>
       </c>
@@ -11351,7 +11351,7 @@
       </c>
     </row>
     <row r="11" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A11" s="92"/>
+      <c r="A11" s="96"/>
       <c r="B11" s="44" t="s">
         <v>9</v>
       </c>
@@ -11408,7 +11408,7 @@
       </c>
     </row>
     <row r="12" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A12" s="92"/>
+      <c r="A12" s="96"/>
       <c r="B12" s="44" t="s">
         <v>10</v>
       </c>
@@ -11465,7 +11465,7 @@
       </c>
     </row>
     <row r="13" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A13" s="92"/>
+      <c r="A13" s="96"/>
       <c r="B13" s="44" t="s">
         <v>11</v>
       </c>
@@ -11522,7 +11522,7 @@
       </c>
     </row>
     <row r="14" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A14" s="92"/>
+      <c r="A14" s="96"/>
       <c r="B14" s="44" t="s">
         <v>12</v>
       </c>
@@ -11579,7 +11579,7 @@
       </c>
     </row>
     <row r="15" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A15" s="92"/>
+      <c r="A15" s="96"/>
       <c r="B15" s="44" t="s">
         <v>13</v>
       </c>
@@ -11636,7 +11636,7 @@
       </c>
     </row>
     <row r="16" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A16" s="92"/>
+      <c r="A16" s="96"/>
       <c r="B16" s="44" t="s">
         <v>14</v>
       </c>
@@ -11693,7 +11693,7 @@
       </c>
     </row>
     <row r="17" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A17" s="92"/>
+      <c r="A17" s="96"/>
       <c r="B17" s="44" t="s">
         <v>15</v>
       </c>
@@ -11750,7 +11750,7 @@
       </c>
     </row>
     <row r="18" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A18" s="92" t="s">
+      <c r="A18" s="96" t="s">
         <v>88</v>
       </c>
       <c r="B18" s="44" t="s">
@@ -11809,7 +11809,7 @@
       </c>
     </row>
     <row r="19" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A19" s="92"/>
+      <c r="A19" s="96"/>
       <c r="B19" s="44" t="s">
         <v>1</v>
       </c>
@@ -11866,7 +11866,7 @@
       </c>
     </row>
     <row r="20" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A20" s="92"/>
+      <c r="A20" s="96"/>
       <c r="B20" s="44" t="s">
         <v>2</v>
       </c>
@@ -11923,7 +11923,7 @@
       </c>
     </row>
     <row r="21" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A21" s="92"/>
+      <c r="A21" s="96"/>
       <c r="B21" s="44" t="s">
         <v>3</v>
       </c>
@@ -11980,7 +11980,7 @@
       </c>
     </row>
     <row r="22" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A22" s="92"/>
+      <c r="A22" s="96"/>
       <c r="B22" s="44" t="s">
         <v>4</v>
       </c>
@@ -12037,7 +12037,7 @@
       </c>
     </row>
     <row r="23" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A23" s="92"/>
+      <c r="A23" s="96"/>
       <c r="B23" s="44" t="s">
         <v>5</v>
       </c>
@@ -12094,7 +12094,7 @@
       </c>
     </row>
     <row r="24" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A24" s="92"/>
+      <c r="A24" s="96"/>
       <c r="B24" s="44" t="s">
         <v>6</v>
       </c>
@@ -12151,7 +12151,7 @@
       </c>
     </row>
     <row r="25" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A25" s="92"/>
+      <c r="A25" s="96"/>
       <c r="B25" s="44" t="s">
         <v>7</v>
       </c>
@@ -12208,7 +12208,7 @@
       </c>
     </row>
     <row r="26" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A26" s="92"/>
+      <c r="A26" s="96"/>
       <c r="B26" s="44" t="s">
         <v>8</v>
       </c>
@@ -12265,7 +12265,7 @@
       </c>
     </row>
     <row r="27" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A27" s="92"/>
+      <c r="A27" s="96"/>
       <c r="B27" s="44" t="s">
         <v>9</v>
       </c>
@@ -12322,7 +12322,7 @@
       </c>
     </row>
     <row r="28" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A28" s="92"/>
+      <c r="A28" s="96"/>
       <c r="B28" s="44" t="s">
         <v>10</v>
       </c>
@@ -12379,7 +12379,7 @@
       </c>
     </row>
     <row r="29" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A29" s="92"/>
+      <c r="A29" s="96"/>
       <c r="B29" s="44" t="s">
         <v>11</v>
       </c>
@@ -12436,7 +12436,7 @@
       </c>
     </row>
     <row r="30" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A30" s="92"/>
+      <c r="A30" s="96"/>
       <c r="B30" s="44" t="s">
         <v>12</v>
       </c>
@@ -12493,7 +12493,7 @@
       </c>
     </row>
     <row r="31" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A31" s="92"/>
+      <c r="A31" s="96"/>
       <c r="B31" s="44" t="s">
         <v>13</v>
       </c>
@@ -12550,7 +12550,7 @@
       </c>
     </row>
     <row r="32" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A32" s="92"/>
+      <c r="A32" s="96"/>
       <c r="B32" s="44" t="s">
         <v>14</v>
       </c>
@@ -12607,7 +12607,7 @@
       </c>
     </row>
     <row r="33" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A33" s="92"/>
+      <c r="A33" s="96"/>
       <c r="B33" s="44" t="s">
         <v>15</v>
       </c>
@@ -12664,7 +12664,7 @@
       </c>
     </row>
     <row r="34" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A34" s="92" t="s">
+      <c r="A34" s="96" t="s">
         <v>87</v>
       </c>
       <c r="B34" s="44" t="s">
@@ -12723,7 +12723,7 @@
       </c>
     </row>
     <row r="35" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A35" s="92"/>
+      <c r="A35" s="96"/>
       <c r="B35" s="44" t="s">
         <v>1</v>
       </c>
@@ -12780,7 +12780,7 @@
       </c>
     </row>
     <row r="36" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A36" s="92"/>
+      <c r="A36" s="96"/>
       <c r="B36" s="44" t="s">
         <v>2</v>
       </c>
@@ -12837,7 +12837,7 @@
       </c>
     </row>
     <row r="37" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A37" s="92"/>
+      <c r="A37" s="96"/>
       <c r="B37" s="44" t="s">
         <v>3</v>
       </c>
@@ -12894,7 +12894,7 @@
       </c>
     </row>
     <row r="38" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A38" s="92"/>
+      <c r="A38" s="96"/>
       <c r="B38" s="44" t="s">
         <v>4</v>
       </c>
@@ -12951,7 +12951,7 @@
       </c>
     </row>
     <row r="39" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A39" s="92"/>
+      <c r="A39" s="96"/>
       <c r="B39" s="44" t="s">
         <v>5</v>
       </c>
@@ -13008,7 +13008,7 @@
       </c>
     </row>
     <row r="40" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A40" s="92"/>
+      <c r="A40" s="96"/>
       <c r="B40" s="44" t="s">
         <v>6</v>
       </c>
@@ -13065,7 +13065,7 @@
       </c>
     </row>
     <row r="41" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A41" s="92"/>
+      <c r="A41" s="96"/>
       <c r="B41" s="44" t="s">
         <v>7</v>
       </c>
@@ -13122,7 +13122,7 @@
       </c>
     </row>
     <row r="42" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A42" s="92"/>
+      <c r="A42" s="96"/>
       <c r="B42" s="44" t="s">
         <v>8</v>
       </c>
@@ -13179,7 +13179,7 @@
       </c>
     </row>
     <row r="43" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A43" s="92"/>
+      <c r="A43" s="96"/>
       <c r="B43" s="44" t="s">
         <v>9</v>
       </c>
@@ -13236,7 +13236,7 @@
       </c>
     </row>
     <row r="44" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A44" s="92"/>
+      <c r="A44" s="96"/>
       <c r="B44" s="44" t="s">
         <v>10</v>
       </c>
@@ -13293,7 +13293,7 @@
       </c>
     </row>
     <row r="45" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A45" s="92"/>
+      <c r="A45" s="96"/>
       <c r="B45" s="44" t="s">
         <v>11</v>
       </c>
@@ -13350,7 +13350,7 @@
       </c>
     </row>
     <row r="46" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A46" s="92"/>
+      <c r="A46" s="96"/>
       <c r="B46" s="44" t="s">
         <v>12</v>
       </c>
@@ -13407,7 +13407,7 @@
       </c>
     </row>
     <row r="47" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A47" s="92"/>
+      <c r="A47" s="96"/>
       <c r="B47" s="44" t="s">
         <v>13</v>
       </c>
@@ -13464,7 +13464,7 @@
       </c>
     </row>
     <row r="48" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A48" s="92"/>
+      <c r="A48" s="96"/>
       <c r="B48" s="44" t="s">
         <v>14</v>
       </c>
@@ -13521,7 +13521,7 @@
       </c>
     </row>
     <row r="49" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A49" s="92"/>
+      <c r="A49" s="96"/>
       <c r="B49" s="44" t="s">
         <v>15</v>
       </c>
@@ -13578,7 +13578,7 @@
       </c>
     </row>
     <row r="50" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A50" s="92" t="s">
+      <c r="A50" s="96" t="s">
         <v>85</v>
       </c>
       <c r="B50" s="44" t="s">
@@ -13637,7 +13637,7 @@
       </c>
     </row>
     <row r="51" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A51" s="92"/>
+      <c r="A51" s="96"/>
       <c r="B51" s="44" t="s">
         <v>1</v>
       </c>
@@ -13694,7 +13694,7 @@
       </c>
     </row>
     <row r="52" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A52" s="92"/>
+      <c r="A52" s="96"/>
       <c r="B52" s="44" t="s">
         <v>2</v>
       </c>
@@ -13751,7 +13751,7 @@
       </c>
     </row>
     <row r="53" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A53" s="92"/>
+      <c r="A53" s="96"/>
       <c r="B53" s="44" t="s">
         <v>3</v>
       </c>
@@ -13808,7 +13808,7 @@
       </c>
     </row>
     <row r="54" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A54" s="92"/>
+      <c r="A54" s="96"/>
       <c r="B54" s="44" t="s">
         <v>4</v>
       </c>
@@ -13865,7 +13865,7 @@
       </c>
     </row>
     <row r="55" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A55" s="92"/>
+      <c r="A55" s="96"/>
       <c r="B55" s="44" t="s">
         <v>5</v>
       </c>
@@ -13922,7 +13922,7 @@
       </c>
     </row>
     <row r="56" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A56" s="92"/>
+      <c r="A56" s="96"/>
       <c r="B56" s="44" t="s">
         <v>6</v>
       </c>
@@ -13979,7 +13979,7 @@
       </c>
     </row>
     <row r="57" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A57" s="92"/>
+      <c r="A57" s="96"/>
       <c r="B57" s="44" t="s">
         <v>7</v>
       </c>
@@ -14036,7 +14036,7 @@
       </c>
     </row>
     <row r="58" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A58" s="92"/>
+      <c r="A58" s="96"/>
       <c r="B58" s="44" t="s">
         <v>8</v>
       </c>
@@ -14093,7 +14093,7 @@
       </c>
     </row>
     <row r="59" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A59" s="92"/>
+      <c r="A59" s="96"/>
       <c r="B59" s="44" t="s">
         <v>9</v>
       </c>
@@ -14150,7 +14150,7 @@
       </c>
     </row>
     <row r="60" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A60" s="92"/>
+      <c r="A60" s="96"/>
       <c r="B60" s="44" t="s">
         <v>10</v>
       </c>
@@ -14207,7 +14207,7 @@
       </c>
     </row>
     <row r="61" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A61" s="92"/>
+      <c r="A61" s="96"/>
       <c r="B61" s="44" t="s">
         <v>11</v>
       </c>
@@ -14264,7 +14264,7 @@
       </c>
     </row>
     <row r="62" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A62" s="92"/>
+      <c r="A62" s="96"/>
       <c r="B62" s="44" t="s">
         <v>12</v>
       </c>
@@ -14321,7 +14321,7 @@
       </c>
     </row>
     <row r="63" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A63" s="92"/>
+      <c r="A63" s="96"/>
       <c r="B63" s="44" t="s">
         <v>13</v>
       </c>
@@ -14378,7 +14378,7 @@
       </c>
     </row>
     <row r="64" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A64" s="92"/>
+      <c r="A64" s="96"/>
       <c r="B64" s="44" t="s">
         <v>14</v>
       </c>
@@ -14435,7 +14435,7 @@
       </c>
     </row>
     <row r="65" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A65" s="92"/>
+      <c r="A65" s="96"/>
       <c r="B65" s="44" t="s">
         <v>15</v>
       </c>
@@ -14492,7 +14492,7 @@
       </c>
     </row>
     <row r="66" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A66" s="92" t="s">
+      <c r="A66" s="96" t="s">
         <v>86</v>
       </c>
       <c r="B66" s="44" t="s">
@@ -14551,7 +14551,7 @@
       </c>
     </row>
     <row r="67" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A67" s="92"/>
+      <c r="A67" s="96"/>
       <c r="B67" s="44" t="s">
         <v>1</v>
       </c>
@@ -14608,7 +14608,7 @@
       </c>
     </row>
     <row r="68" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A68" s="92"/>
+      <c r="A68" s="96"/>
       <c r="B68" s="44" t="s">
         <v>2</v>
       </c>
@@ -14665,7 +14665,7 @@
       </c>
     </row>
     <row r="69" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A69" s="92"/>
+      <c r="A69" s="96"/>
       <c r="B69" s="44" t="s">
         <v>3</v>
       </c>
@@ -14722,7 +14722,7 @@
       </c>
     </row>
     <row r="70" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A70" s="92"/>
+      <c r="A70" s="96"/>
       <c r="B70" s="44" t="s">
         <v>4</v>
       </c>
@@ -14779,7 +14779,7 @@
       </c>
     </row>
     <row r="71" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A71" s="92"/>
+      <c r="A71" s="96"/>
       <c r="B71" s="44" t="s">
         <v>5</v>
       </c>
@@ -14836,7 +14836,7 @@
       </c>
     </row>
     <row r="72" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A72" s="92"/>
+      <c r="A72" s="96"/>
       <c r="B72" s="44" t="s">
         <v>6</v>
       </c>
@@ -14893,7 +14893,7 @@
       </c>
     </row>
     <row r="73" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A73" s="92"/>
+      <c r="A73" s="96"/>
       <c r="B73" s="44" t="s">
         <v>7</v>
       </c>
@@ -14950,7 +14950,7 @@
       </c>
     </row>
     <row r="74" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A74" s="92"/>
+      <c r="A74" s="96"/>
       <c r="B74" s="44" t="s">
         <v>8</v>
       </c>
@@ -15007,7 +15007,7 @@
       </c>
     </row>
     <row r="75" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A75" s="92"/>
+      <c r="A75" s="96"/>
       <c r="B75" s="44" t="s">
         <v>9</v>
       </c>
@@ -15064,7 +15064,7 @@
       </c>
     </row>
     <row r="76" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A76" s="92"/>
+      <c r="A76" s="96"/>
       <c r="B76" s="44" t="s">
         <v>10</v>
       </c>
@@ -15121,7 +15121,7 @@
       </c>
     </row>
     <row r="77" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A77" s="92"/>
+      <c r="A77" s="96"/>
       <c r="B77" s="44" t="s">
         <v>11</v>
       </c>
@@ -15178,7 +15178,7 @@
       </c>
     </row>
     <row r="78" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A78" s="92"/>
+      <c r="A78" s="96"/>
       <c r="B78" s="44" t="s">
         <v>12</v>
       </c>
@@ -15235,7 +15235,7 @@
       </c>
     </row>
     <row r="79" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A79" s="92"/>
+      <c r="A79" s="96"/>
       <c r="B79" s="44" t="s">
         <v>13</v>
       </c>
@@ -15292,7 +15292,7 @@
       </c>
     </row>
     <row r="80" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A80" s="92"/>
+      <c r="A80" s="96"/>
       <c r="B80" s="44" t="s">
         <v>14</v>
       </c>
@@ -15349,7 +15349,7 @@
       </c>
     </row>
     <row r="81" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A81" s="92"/>
+      <c r="A81" s="96"/>
       <c r="B81" s="44" t="s">
         <v>15</v>
       </c>
@@ -15406,7 +15406,7 @@
       </c>
     </row>
     <row r="82" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A82" s="92" t="s">
+      <c r="A82" s="96" t="s">
         <v>96</v>
       </c>
       <c r="B82" s="87" t="s">
@@ -15465,7 +15465,7 @@
       </c>
     </row>
     <row r="83" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A83" s="92"/>
+      <c r="A83" s="96"/>
       <c r="B83" s="87" t="s">
         <v>1</v>
       </c>
@@ -15522,7 +15522,7 @@
       </c>
     </row>
     <row r="84" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A84" s="92"/>
+      <c r="A84" s="96"/>
       <c r="B84" s="87" t="s">
         <v>2</v>
       </c>
@@ -15579,7 +15579,7 @@
       </c>
     </row>
     <row r="85" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A85" s="92"/>
+      <c r="A85" s="96"/>
       <c r="B85" s="87" t="s">
         <v>3</v>
       </c>
@@ -15636,7 +15636,7 @@
       </c>
     </row>
     <row r="86" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A86" s="92"/>
+      <c r="A86" s="96"/>
       <c r="B86" s="87" t="s">
         <v>4</v>
       </c>
@@ -15693,7 +15693,7 @@
       </c>
     </row>
     <row r="87" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A87" s="92"/>
+      <c r="A87" s="96"/>
       <c r="B87" s="87" t="s">
         <v>5</v>
       </c>
@@ -15750,7 +15750,7 @@
       </c>
     </row>
     <row r="88" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A88" s="92"/>
+      <c r="A88" s="96"/>
       <c r="B88" s="87" t="s">
         <v>6</v>
       </c>
@@ -15807,7 +15807,7 @@
       </c>
     </row>
     <row r="89" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A89" s="92"/>
+      <c r="A89" s="96"/>
       <c r="B89" s="87" t="s">
         <v>7</v>
       </c>
@@ -15864,7 +15864,7 @@
       </c>
     </row>
     <row r="90" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A90" s="92"/>
+      <c r="A90" s="96"/>
       <c r="B90" s="87" t="s">
         <v>8</v>
       </c>
@@ -15921,7 +15921,7 @@
       </c>
     </row>
     <row r="91" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A91" s="92"/>
+      <c r="A91" s="96"/>
       <c r="B91" s="87" t="s">
         <v>9</v>
       </c>
@@ -15978,7 +15978,7 @@
       </c>
     </row>
     <row r="92" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A92" s="92"/>
+      <c r="A92" s="96"/>
       <c r="B92" s="87" t="s">
         <v>10</v>
       </c>
@@ -16035,7 +16035,7 @@
       </c>
     </row>
     <row r="93" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A93" s="92"/>
+      <c r="A93" s="96"/>
       <c r="B93" s="87" t="s">
         <v>11</v>
       </c>
@@ -16092,7 +16092,7 @@
       </c>
     </row>
     <row r="94" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A94" s="92"/>
+      <c r="A94" s="96"/>
       <c r="B94" s="87" t="s">
         <v>12</v>
       </c>
@@ -16149,7 +16149,7 @@
       </c>
     </row>
     <row r="95" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A95" s="92"/>
+      <c r="A95" s="96"/>
       <c r="B95" s="87" t="s">
         <v>13</v>
       </c>
@@ -16206,7 +16206,7 @@
       </c>
     </row>
     <row r="96" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A96" s="92"/>
+      <c r="A96" s="96"/>
       <c r="B96" s="87" t="s">
         <v>14</v>
       </c>
@@ -16263,7 +16263,7 @@
       </c>
     </row>
     <row r="97" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A97" s="92"/>
+      <c r="A97" s="96"/>
       <c r="B97" s="87" t="s">
         <v>15</v>
       </c>
@@ -16320,7 +16320,7 @@
       </c>
     </row>
     <row r="98" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A98" s="92" t="s">
+      <c r="A98" s="96" t="s">
         <v>95</v>
       </c>
       <c r="B98" s="87" t="s">
@@ -16379,7 +16379,7 @@
       </c>
     </row>
     <row r="99" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A99" s="92"/>
+      <c r="A99" s="96"/>
       <c r="B99" s="87" t="s">
         <v>1</v>
       </c>
@@ -16436,7 +16436,7 @@
       </c>
     </row>
     <row r="100" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A100" s="92"/>
+      <c r="A100" s="96"/>
       <c r="B100" s="87" t="s">
         <v>2</v>
       </c>
@@ -16493,7 +16493,7 @@
       </c>
     </row>
     <row r="101" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A101" s="92"/>
+      <c r="A101" s="96"/>
       <c r="B101" s="87" t="s">
         <v>3</v>
       </c>
@@ -16550,7 +16550,7 @@
       </c>
     </row>
     <row r="102" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A102" s="92"/>
+      <c r="A102" s="96"/>
       <c r="B102" s="87" t="s">
         <v>4</v>
       </c>
@@ -16607,7 +16607,7 @@
       </c>
     </row>
     <row r="103" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A103" s="92"/>
+      <c r="A103" s="96"/>
       <c r="B103" s="87" t="s">
         <v>5</v>
       </c>
@@ -16664,7 +16664,7 @@
       </c>
     </row>
     <row r="104" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A104" s="92"/>
+      <c r="A104" s="96"/>
       <c r="B104" s="87" t="s">
         <v>6</v>
       </c>
@@ -16721,7 +16721,7 @@
       </c>
     </row>
     <row r="105" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A105" s="92"/>
+      <c r="A105" s="96"/>
       <c r="B105" s="87" t="s">
         <v>7</v>
       </c>
@@ -16778,7 +16778,7 @@
       </c>
     </row>
     <row r="106" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A106" s="92"/>
+      <c r="A106" s="96"/>
       <c r="B106" s="87" t="s">
         <v>8</v>
       </c>
@@ -16835,7 +16835,7 @@
       </c>
     </row>
     <row r="107" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A107" s="92"/>
+      <c r="A107" s="96"/>
       <c r="B107" s="87" t="s">
         <v>9</v>
       </c>
@@ -16892,7 +16892,7 @@
       </c>
     </row>
     <row r="108" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A108" s="92"/>
+      <c r="A108" s="96"/>
       <c r="B108" s="87" t="s">
         <v>10</v>
       </c>
@@ -16949,7 +16949,7 @@
       </c>
     </row>
     <row r="109" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A109" s="92"/>
+      <c r="A109" s="96"/>
       <c r="B109" s="87" t="s">
         <v>11</v>
       </c>
@@ -17006,7 +17006,7 @@
       </c>
     </row>
     <row r="110" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A110" s="92"/>
+      <c r="A110" s="96"/>
       <c r="B110" s="87" t="s">
         <v>12</v>
       </c>
@@ -17063,7 +17063,7 @@
       </c>
     </row>
     <row r="111" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A111" s="92"/>
+      <c r="A111" s="96"/>
       <c r="B111" s="87" t="s">
         <v>13</v>
       </c>
@@ -17120,7 +17120,7 @@
       </c>
     </row>
     <row r="112" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A112" s="92"/>
+      <c r="A112" s="96"/>
       <c r="B112" s="87" t="s">
         <v>14</v>
       </c>
@@ -17177,7 +17177,7 @@
       </c>
     </row>
     <row r="113" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A113" s="92"/>
+      <c r="A113" s="96"/>
       <c r="B113" s="87" t="s">
         <v>15</v>
       </c>
@@ -17234,7 +17234,7 @@
       </c>
     </row>
     <row r="114" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A114" s="92" t="s">
+      <c r="A114" s="96" t="s">
         <v>97</v>
       </c>
       <c r="B114" s="88" t="s">
@@ -17293,7 +17293,7 @@
       </c>
     </row>
     <row r="115" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A115" s="92"/>
+      <c r="A115" s="96"/>
       <c r="B115" s="88" t="s">
         <v>1</v>
       </c>
@@ -17350,7 +17350,7 @@
       </c>
     </row>
     <row r="116" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A116" s="92"/>
+      <c r="A116" s="96"/>
       <c r="B116" s="88" t="s">
         <v>2</v>
       </c>
@@ -17407,7 +17407,7 @@
       </c>
     </row>
     <row r="117" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A117" s="92"/>
+      <c r="A117" s="96"/>
       <c r="B117" s="88" t="s">
         <v>3</v>
       </c>
@@ -17464,7 +17464,7 @@
       </c>
     </row>
     <row r="118" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A118" s="92"/>
+      <c r="A118" s="96"/>
       <c r="B118" s="88" t="s">
         <v>4</v>
       </c>
@@ -17521,7 +17521,7 @@
       </c>
     </row>
     <row r="119" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A119" s="92"/>
+      <c r="A119" s="96"/>
       <c r="B119" s="88" t="s">
         <v>5</v>
       </c>
@@ -17578,7 +17578,7 @@
       </c>
     </row>
     <row r="120" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A120" s="92"/>
+      <c r="A120" s="96"/>
       <c r="B120" s="88" t="s">
         <v>6</v>
       </c>
@@ -17635,7 +17635,7 @@
       </c>
     </row>
     <row r="121" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A121" s="92"/>
+      <c r="A121" s="96"/>
       <c r="B121" s="88" t="s">
         <v>7</v>
       </c>
@@ -17692,7 +17692,7 @@
       </c>
     </row>
     <row r="122" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A122" s="92"/>
+      <c r="A122" s="96"/>
       <c r="B122" s="88" t="s">
         <v>8</v>
       </c>
@@ -17749,7 +17749,7 @@
       </c>
     </row>
     <row r="123" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A123" s="92"/>
+      <c r="A123" s="96"/>
       <c r="B123" s="88" t="s">
         <v>9</v>
       </c>
@@ -17806,7 +17806,7 @@
       </c>
     </row>
     <row r="124" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A124" s="92"/>
+      <c r="A124" s="96"/>
       <c r="B124" s="88" t="s">
         <v>10</v>
       </c>
@@ -17863,7 +17863,7 @@
       </c>
     </row>
     <row r="125" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A125" s="92"/>
+      <c r="A125" s="96"/>
       <c r="B125" s="88" t="s">
         <v>11</v>
       </c>
@@ -17920,7 +17920,7 @@
       </c>
     </row>
     <row r="126" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A126" s="92"/>
+      <c r="A126" s="96"/>
       <c r="B126" s="88" t="s">
         <v>12</v>
       </c>
@@ -17977,7 +17977,7 @@
       </c>
     </row>
     <row r="127" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A127" s="92"/>
+      <c r="A127" s="96"/>
       <c r="B127" s="88" t="s">
         <v>13</v>
       </c>
@@ -18034,7 +18034,7 @@
       </c>
     </row>
     <row r="128" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A128" s="92"/>
+      <c r="A128" s="96"/>
       <c r="B128" s="88" t="s">
         <v>14</v>
       </c>
@@ -18091,7 +18091,7 @@
       </c>
     </row>
     <row r="129" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A129" s="92"/>
+      <c r="A129" s="96"/>
       <c r="B129" s="88" t="s">
         <v>15</v>
       </c>
@@ -18235,7 +18235,7 @@
       </c>
     </row>
     <row r="2" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A2" s="92" t="s">
+      <c r="A2" s="96" t="s">
         <v>84</v>
       </c>
       <c r="B2" s="44" t="s">
@@ -18294,7 +18294,7 @@
       </c>
     </row>
     <row r="3" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A3" s="92"/>
+      <c r="A3" s="96"/>
       <c r="B3" s="44" t="s">
         <v>1</v>
       </c>
@@ -18351,7 +18351,7 @@
       </c>
     </row>
     <row r="4" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A4" s="92"/>
+      <c r="A4" s="96"/>
       <c r="B4" s="44" t="s">
         <v>2</v>
       </c>
@@ -18408,7 +18408,7 @@
       </c>
     </row>
     <row r="5" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A5" s="92"/>
+      <c r="A5" s="96"/>
       <c r="B5" s="44" t="s">
         <v>3</v>
       </c>
@@ -18465,7 +18465,7 @@
       </c>
     </row>
     <row r="6" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A6" s="92"/>
+      <c r="A6" s="96"/>
       <c r="B6" s="44" t="s">
         <v>4</v>
       </c>
@@ -18522,7 +18522,7 @@
       </c>
     </row>
     <row r="7" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A7" s="92"/>
+      <c r="A7" s="96"/>
       <c r="B7" s="44" t="s">
         <v>5</v>
       </c>
@@ -18579,7 +18579,7 @@
       </c>
     </row>
     <row r="8" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A8" s="92"/>
+      <c r="A8" s="96"/>
       <c r="B8" s="44" t="s">
         <v>6</v>
       </c>
@@ -18636,7 +18636,7 @@
       </c>
     </row>
     <row r="9" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A9" s="92"/>
+      <c r="A9" s="96"/>
       <c r="B9" s="44" t="s">
         <v>7</v>
       </c>
@@ -18693,7 +18693,7 @@
       </c>
     </row>
     <row r="10" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A10" s="92"/>
+      <c r="A10" s="96"/>
       <c r="B10" s="44" t="s">
         <v>8</v>
       </c>
@@ -18750,7 +18750,7 @@
       </c>
     </row>
     <row r="11" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A11" s="92"/>
+      <c r="A11" s="96"/>
       <c r="B11" s="44" t="s">
         <v>9</v>
       </c>
@@ -18807,7 +18807,7 @@
       </c>
     </row>
     <row r="12" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A12" s="92"/>
+      <c r="A12" s="96"/>
       <c r="B12" s="44" t="s">
         <v>10</v>
       </c>
@@ -18864,7 +18864,7 @@
       </c>
     </row>
     <row r="13" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A13" s="92"/>
+      <c r="A13" s="96"/>
       <c r="B13" s="44" t="s">
         <v>11</v>
       </c>
@@ -18921,7 +18921,7 @@
       </c>
     </row>
     <row r="14" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A14" s="92"/>
+      <c r="A14" s="96"/>
       <c r="B14" s="44" t="s">
         <v>12</v>
       </c>
@@ -18978,7 +18978,7 @@
       </c>
     </row>
     <row r="15" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A15" s="92"/>
+      <c r="A15" s="96"/>
       <c r="B15" s="44" t="s">
         <v>13</v>
       </c>
@@ -19035,7 +19035,7 @@
       </c>
     </row>
     <row r="16" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A16" s="92"/>
+      <c r="A16" s="96"/>
       <c r="B16" s="44" t="s">
         <v>14</v>
       </c>
@@ -19092,7 +19092,7 @@
       </c>
     </row>
     <row r="17" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A17" s="92"/>
+      <c r="A17" s="96"/>
       <c r="B17" s="44" t="s">
         <v>15</v>
       </c>
@@ -19149,7 +19149,7 @@
       </c>
     </row>
     <row r="18" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A18" s="92" t="s">
+      <c r="A18" s="96" t="s">
         <v>88</v>
       </c>
       <c r="B18" s="44" t="s">
@@ -19208,7 +19208,7 @@
       </c>
     </row>
     <row r="19" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A19" s="92"/>
+      <c r="A19" s="96"/>
       <c r="B19" s="44" t="s">
         <v>1</v>
       </c>
@@ -19265,7 +19265,7 @@
       </c>
     </row>
     <row r="20" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A20" s="92"/>
+      <c r="A20" s="96"/>
       <c r="B20" s="44" t="s">
         <v>2</v>
       </c>
@@ -19322,7 +19322,7 @@
       </c>
     </row>
     <row r="21" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A21" s="92"/>
+      <c r="A21" s="96"/>
       <c r="B21" s="44" t="s">
         <v>3</v>
       </c>
@@ -19379,7 +19379,7 @@
       </c>
     </row>
     <row r="22" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A22" s="92"/>
+      <c r="A22" s="96"/>
       <c r="B22" s="44" t="s">
         <v>4</v>
       </c>
@@ -19436,7 +19436,7 @@
       </c>
     </row>
     <row r="23" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A23" s="92"/>
+      <c r="A23" s="96"/>
       <c r="B23" s="44" t="s">
         <v>5</v>
       </c>
@@ -19493,7 +19493,7 @@
       </c>
     </row>
     <row r="24" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A24" s="92"/>
+      <c r="A24" s="96"/>
       <c r="B24" s="44" t="s">
         <v>6</v>
       </c>
@@ -19550,7 +19550,7 @@
       </c>
     </row>
     <row r="25" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A25" s="92"/>
+      <c r="A25" s="96"/>
       <c r="B25" s="44" t="s">
         <v>7</v>
       </c>
@@ -19607,7 +19607,7 @@
       </c>
     </row>
     <row r="26" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A26" s="92"/>
+      <c r="A26" s="96"/>
       <c r="B26" s="44" t="s">
         <v>8</v>
       </c>
@@ -19664,7 +19664,7 @@
       </c>
     </row>
     <row r="27" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A27" s="92"/>
+      <c r="A27" s="96"/>
       <c r="B27" s="44" t="s">
         <v>9</v>
       </c>
@@ -19721,7 +19721,7 @@
       </c>
     </row>
     <row r="28" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A28" s="92"/>
+      <c r="A28" s="96"/>
       <c r="B28" s="44" t="s">
         <v>10</v>
       </c>
@@ -19778,7 +19778,7 @@
       </c>
     </row>
     <row r="29" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A29" s="92"/>
+      <c r="A29" s="96"/>
       <c r="B29" s="44" t="s">
         <v>11</v>
       </c>
@@ -19835,7 +19835,7 @@
       </c>
     </row>
     <row r="30" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A30" s="92"/>
+      <c r="A30" s="96"/>
       <c r="B30" s="44" t="s">
         <v>12</v>
       </c>
@@ -19892,7 +19892,7 @@
       </c>
     </row>
     <row r="31" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A31" s="92"/>
+      <c r="A31" s="96"/>
       <c r="B31" s="44" t="s">
         <v>13</v>
       </c>
@@ -19949,7 +19949,7 @@
       </c>
     </row>
     <row r="32" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A32" s="92"/>
+      <c r="A32" s="96"/>
       <c r="B32" s="44" t="s">
         <v>14</v>
       </c>
@@ -20006,7 +20006,7 @@
       </c>
     </row>
     <row r="33" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A33" s="92"/>
+      <c r="A33" s="96"/>
       <c r="B33" s="44" t="s">
         <v>15</v>
       </c>
@@ -20063,7 +20063,7 @@
       </c>
     </row>
     <row r="34" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A34" s="92" t="s">
+      <c r="A34" s="96" t="s">
         <v>87</v>
       </c>
       <c r="B34" s="44" t="s">
@@ -20122,7 +20122,7 @@
       </c>
     </row>
     <row r="35" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A35" s="92"/>
+      <c r="A35" s="96"/>
       <c r="B35" s="44" t="s">
         <v>1</v>
       </c>
@@ -20179,7 +20179,7 @@
       </c>
     </row>
     <row r="36" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A36" s="92"/>
+      <c r="A36" s="96"/>
       <c r="B36" s="44" t="s">
         <v>2</v>
       </c>
@@ -20236,7 +20236,7 @@
       </c>
     </row>
     <row r="37" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A37" s="92"/>
+      <c r="A37" s="96"/>
       <c r="B37" s="44" t="s">
         <v>3</v>
       </c>
@@ -20293,7 +20293,7 @@
       </c>
     </row>
     <row r="38" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A38" s="92"/>
+      <c r="A38" s="96"/>
       <c r="B38" s="44" t="s">
         <v>4</v>
       </c>
@@ -20350,7 +20350,7 @@
       </c>
     </row>
     <row r="39" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A39" s="92"/>
+      <c r="A39" s="96"/>
       <c r="B39" s="44" t="s">
         <v>5</v>
       </c>
@@ -20407,7 +20407,7 @@
       </c>
     </row>
     <row r="40" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A40" s="92"/>
+      <c r="A40" s="96"/>
       <c r="B40" s="44" t="s">
         <v>6</v>
       </c>
@@ -20464,7 +20464,7 @@
       </c>
     </row>
     <row r="41" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A41" s="92"/>
+      <c r="A41" s="96"/>
       <c r="B41" s="44" t="s">
         <v>7</v>
       </c>
@@ -20521,7 +20521,7 @@
       </c>
     </row>
     <row r="42" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A42" s="92"/>
+      <c r="A42" s="96"/>
       <c r="B42" s="44" t="s">
         <v>8</v>
       </c>
@@ -20578,7 +20578,7 @@
       </c>
     </row>
     <row r="43" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A43" s="92"/>
+      <c r="A43" s="96"/>
       <c r="B43" s="44" t="s">
         <v>9</v>
       </c>
@@ -20635,7 +20635,7 @@
       </c>
     </row>
     <row r="44" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A44" s="92"/>
+      <c r="A44" s="96"/>
       <c r="B44" s="44" t="s">
         <v>10</v>
       </c>
@@ -20692,7 +20692,7 @@
       </c>
     </row>
     <row r="45" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A45" s="92"/>
+      <c r="A45" s="96"/>
       <c r="B45" s="44" t="s">
         <v>11</v>
       </c>
@@ -20749,7 +20749,7 @@
       </c>
     </row>
     <row r="46" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A46" s="92"/>
+      <c r="A46" s="96"/>
       <c r="B46" s="44" t="s">
         <v>12</v>
       </c>
@@ -20806,7 +20806,7 @@
       </c>
     </row>
     <row r="47" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A47" s="92"/>
+      <c r="A47" s="96"/>
       <c r="B47" s="44" t="s">
         <v>13</v>
       </c>
@@ -20863,7 +20863,7 @@
       </c>
     </row>
     <row r="48" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A48" s="92"/>
+      <c r="A48" s="96"/>
       <c r="B48" s="44" t="s">
         <v>14</v>
       </c>
@@ -20920,7 +20920,7 @@
       </c>
     </row>
     <row r="49" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A49" s="92"/>
+      <c r="A49" s="96"/>
       <c r="B49" s="44" t="s">
         <v>15</v>
       </c>
@@ -20977,7 +20977,7 @@
       </c>
     </row>
     <row r="50" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A50" s="92" t="s">
+      <c r="A50" s="96" t="s">
         <v>85</v>
       </c>
       <c r="B50" s="44" t="s">
@@ -21036,7 +21036,7 @@
       </c>
     </row>
     <row r="51" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A51" s="92"/>
+      <c r="A51" s="96"/>
       <c r="B51" s="44" t="s">
         <v>1</v>
       </c>
@@ -21093,7 +21093,7 @@
       </c>
     </row>
     <row r="52" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A52" s="92"/>
+      <c r="A52" s="96"/>
       <c r="B52" s="44" t="s">
         <v>2</v>
       </c>
@@ -21150,7 +21150,7 @@
       </c>
     </row>
     <row r="53" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A53" s="92"/>
+      <c r="A53" s="96"/>
       <c r="B53" s="44" t="s">
         <v>3</v>
       </c>
@@ -21207,7 +21207,7 @@
       </c>
     </row>
     <row r="54" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A54" s="92"/>
+      <c r="A54" s="96"/>
       <c r="B54" s="44" t="s">
         <v>4</v>
       </c>
@@ -21264,7 +21264,7 @@
       </c>
     </row>
     <row r="55" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A55" s="92"/>
+      <c r="A55" s="96"/>
       <c r="B55" s="44" t="s">
         <v>5</v>
       </c>
@@ -21321,7 +21321,7 @@
       </c>
     </row>
     <row r="56" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A56" s="92"/>
+      <c r="A56" s="96"/>
       <c r="B56" s="44" t="s">
         <v>6</v>
       </c>
@@ -21378,7 +21378,7 @@
       </c>
     </row>
     <row r="57" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A57" s="92"/>
+      <c r="A57" s="96"/>
       <c r="B57" s="44" t="s">
         <v>7</v>
       </c>
@@ -21435,7 +21435,7 @@
       </c>
     </row>
     <row r="58" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A58" s="92"/>
+      <c r="A58" s="96"/>
       <c r="B58" s="44" t="s">
         <v>8</v>
       </c>
@@ -21492,7 +21492,7 @@
       </c>
     </row>
     <row r="59" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A59" s="92"/>
+      <c r="A59" s="96"/>
       <c r="B59" s="44" t="s">
         <v>9</v>
       </c>
@@ -21549,7 +21549,7 @@
       </c>
     </row>
     <row r="60" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A60" s="92"/>
+      <c r="A60" s="96"/>
       <c r="B60" s="44" t="s">
         <v>10</v>
       </c>
@@ -21606,7 +21606,7 @@
       </c>
     </row>
     <row r="61" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A61" s="92"/>
+      <c r="A61" s="96"/>
       <c r="B61" s="44" t="s">
         <v>11</v>
       </c>
@@ -21663,7 +21663,7 @@
       </c>
     </row>
     <row r="62" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A62" s="92"/>
+      <c r="A62" s="96"/>
       <c r="B62" s="44" t="s">
         <v>12</v>
       </c>
@@ -21720,7 +21720,7 @@
       </c>
     </row>
     <row r="63" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A63" s="92"/>
+      <c r="A63" s="96"/>
       <c r="B63" s="44" t="s">
         <v>13</v>
       </c>
@@ -21777,7 +21777,7 @@
       </c>
     </row>
     <row r="64" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A64" s="92"/>
+      <c r="A64" s="96"/>
       <c r="B64" s="44" t="s">
         <v>14</v>
       </c>
@@ -21834,7 +21834,7 @@
       </c>
     </row>
     <row r="65" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A65" s="92"/>
+      <c r="A65" s="96"/>
       <c r="B65" s="44" t="s">
         <v>15</v>
       </c>
@@ -21891,7 +21891,7 @@
       </c>
     </row>
     <row r="66" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A66" s="92" t="s">
+      <c r="A66" s="96" t="s">
         <v>86</v>
       </c>
       <c r="B66" s="44" t="s">
@@ -21950,7 +21950,7 @@
       </c>
     </row>
     <row r="67" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A67" s="92"/>
+      <c r="A67" s="96"/>
       <c r="B67" s="44" t="s">
         <v>1</v>
       </c>
@@ -22007,7 +22007,7 @@
       </c>
     </row>
     <row r="68" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A68" s="92"/>
+      <c r="A68" s="96"/>
       <c r="B68" s="44" t="s">
         <v>2</v>
       </c>
@@ -22064,7 +22064,7 @@
       </c>
     </row>
     <row r="69" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A69" s="92"/>
+      <c r="A69" s="96"/>
       <c r="B69" s="44" t="s">
         <v>3</v>
       </c>
@@ -22121,7 +22121,7 @@
       </c>
     </row>
     <row r="70" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A70" s="92"/>
+      <c r="A70" s="96"/>
       <c r="B70" s="44" t="s">
         <v>4</v>
       </c>
@@ -22178,7 +22178,7 @@
       </c>
     </row>
     <row r="71" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A71" s="92"/>
+      <c r="A71" s="96"/>
       <c r="B71" s="44" t="s">
         <v>5</v>
       </c>
@@ -22235,7 +22235,7 @@
       </c>
     </row>
     <row r="72" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A72" s="92"/>
+      <c r="A72" s="96"/>
       <c r="B72" s="44" t="s">
         <v>6</v>
       </c>
@@ -22292,7 +22292,7 @@
       </c>
     </row>
     <row r="73" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A73" s="92"/>
+      <c r="A73" s="96"/>
       <c r="B73" s="44" t="s">
         <v>7</v>
       </c>
@@ -22349,7 +22349,7 @@
       </c>
     </row>
     <row r="74" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A74" s="92"/>
+      <c r="A74" s="96"/>
       <c r="B74" s="44" t="s">
         <v>8</v>
       </c>
@@ -22406,7 +22406,7 @@
       </c>
     </row>
     <row r="75" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A75" s="92"/>
+      <c r="A75" s="96"/>
       <c r="B75" s="44" t="s">
         <v>9</v>
       </c>
@@ -22463,7 +22463,7 @@
       </c>
     </row>
     <row r="76" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A76" s="92"/>
+      <c r="A76" s="96"/>
       <c r="B76" s="44" t="s">
         <v>10</v>
       </c>
@@ -22520,7 +22520,7 @@
       </c>
     </row>
     <row r="77" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A77" s="92"/>
+      <c r="A77" s="96"/>
       <c r="B77" s="44" t="s">
         <v>11</v>
       </c>
@@ -22577,7 +22577,7 @@
       </c>
     </row>
     <row r="78" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A78" s="92"/>
+      <c r="A78" s="96"/>
       <c r="B78" s="44" t="s">
         <v>12</v>
       </c>
@@ -22634,7 +22634,7 @@
       </c>
     </row>
     <row r="79" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A79" s="92"/>
+      <c r="A79" s="96"/>
       <c r="B79" s="44" t="s">
         <v>13</v>
       </c>
@@ -22691,7 +22691,7 @@
       </c>
     </row>
     <row r="80" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A80" s="92"/>
+      <c r="A80" s="96"/>
       <c r="B80" s="44" t="s">
         <v>14</v>
       </c>
@@ -22748,7 +22748,7 @@
       </c>
     </row>
     <row r="81" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A81" s="92"/>
+      <c r="A81" s="96"/>
       <c r="B81" s="44" t="s">
         <v>15</v>
       </c>
@@ -22805,7 +22805,7 @@
       </c>
     </row>
     <row r="82" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A82" s="92" t="s">
+      <c r="A82" s="96" t="s">
         <v>96</v>
       </c>
       <c r="B82" s="87" t="s">
@@ -22864,7 +22864,7 @@
       </c>
     </row>
     <row r="83" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A83" s="92"/>
+      <c r="A83" s="96"/>
       <c r="B83" s="87" t="s">
         <v>1</v>
       </c>
@@ -22921,7 +22921,7 @@
       </c>
     </row>
     <row r="84" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A84" s="92"/>
+      <c r="A84" s="96"/>
       <c r="B84" s="87" t="s">
         <v>2</v>
       </c>
@@ -22978,7 +22978,7 @@
       </c>
     </row>
     <row r="85" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A85" s="92"/>
+      <c r="A85" s="96"/>
       <c r="B85" s="87" t="s">
         <v>3</v>
       </c>
@@ -23035,7 +23035,7 @@
       </c>
     </row>
     <row r="86" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A86" s="92"/>
+      <c r="A86" s="96"/>
       <c r="B86" s="87" t="s">
         <v>4</v>
       </c>
@@ -23092,7 +23092,7 @@
       </c>
     </row>
     <row r="87" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A87" s="92"/>
+      <c r="A87" s="96"/>
       <c r="B87" s="87" t="s">
         <v>5</v>
       </c>
@@ -23149,7 +23149,7 @@
       </c>
     </row>
     <row r="88" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A88" s="92"/>
+      <c r="A88" s="96"/>
       <c r="B88" s="87" t="s">
         <v>6</v>
       </c>
@@ -23206,7 +23206,7 @@
       </c>
     </row>
     <row r="89" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A89" s="92"/>
+      <c r="A89" s="96"/>
       <c r="B89" s="87" t="s">
         <v>7</v>
       </c>
@@ -23263,7 +23263,7 @@
       </c>
     </row>
     <row r="90" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A90" s="92"/>
+      <c r="A90" s="96"/>
       <c r="B90" s="87" t="s">
         <v>8</v>
       </c>
@@ -23320,7 +23320,7 @@
       </c>
     </row>
     <row r="91" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A91" s="92"/>
+      <c r="A91" s="96"/>
       <c r="B91" s="87" t="s">
         <v>9</v>
       </c>
@@ -23377,7 +23377,7 @@
       </c>
     </row>
     <row r="92" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A92" s="92"/>
+      <c r="A92" s="96"/>
       <c r="B92" s="87" t="s">
         <v>10</v>
       </c>
@@ -23434,7 +23434,7 @@
       </c>
     </row>
     <row r="93" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A93" s="92"/>
+      <c r="A93" s="96"/>
       <c r="B93" s="87" t="s">
         <v>11</v>
       </c>
@@ -23491,7 +23491,7 @@
       </c>
     </row>
     <row r="94" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A94" s="92"/>
+      <c r="A94" s="96"/>
       <c r="B94" s="87" t="s">
         <v>12</v>
       </c>
@@ -23548,7 +23548,7 @@
       </c>
     </row>
     <row r="95" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A95" s="92"/>
+      <c r="A95" s="96"/>
       <c r="B95" s="87" t="s">
         <v>13</v>
       </c>
@@ -23605,7 +23605,7 @@
       </c>
     </row>
     <row r="96" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A96" s="92"/>
+      <c r="A96" s="96"/>
       <c r="B96" s="87" t="s">
         <v>14</v>
       </c>
@@ -23662,7 +23662,7 @@
       </c>
     </row>
     <row r="97" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A97" s="92"/>
+      <c r="A97" s="96"/>
       <c r="B97" s="87" t="s">
         <v>15</v>
       </c>
@@ -23719,7 +23719,7 @@
       </c>
     </row>
     <row r="98" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A98" s="92" t="s">
+      <c r="A98" s="96" t="s">
         <v>95</v>
       </c>
       <c r="B98" s="87" t="s">
@@ -23778,7 +23778,7 @@
       </c>
     </row>
     <row r="99" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A99" s="92"/>
+      <c r="A99" s="96"/>
       <c r="B99" s="87" t="s">
         <v>1</v>
       </c>
@@ -23835,7 +23835,7 @@
       </c>
     </row>
     <row r="100" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A100" s="92"/>
+      <c r="A100" s="96"/>
       <c r="B100" s="87" t="s">
         <v>2</v>
       </c>
@@ -23892,7 +23892,7 @@
       </c>
     </row>
     <row r="101" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A101" s="92"/>
+      <c r="A101" s="96"/>
       <c r="B101" s="87" t="s">
         <v>3</v>
       </c>
@@ -23949,7 +23949,7 @@
       </c>
     </row>
     <row r="102" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A102" s="92"/>
+      <c r="A102" s="96"/>
       <c r="B102" s="87" t="s">
         <v>4</v>
       </c>
@@ -24006,7 +24006,7 @@
       </c>
     </row>
     <row r="103" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A103" s="92"/>
+      <c r="A103" s="96"/>
       <c r="B103" s="87" t="s">
         <v>5</v>
       </c>
@@ -24063,7 +24063,7 @@
       </c>
     </row>
     <row r="104" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A104" s="92"/>
+      <c r="A104" s="96"/>
       <c r="B104" s="87" t="s">
         <v>6</v>
       </c>
@@ -24120,7 +24120,7 @@
       </c>
     </row>
     <row r="105" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A105" s="92"/>
+      <c r="A105" s="96"/>
       <c r="B105" s="87" t="s">
         <v>7</v>
       </c>
@@ -24177,7 +24177,7 @@
       </c>
     </row>
     <row r="106" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A106" s="92"/>
+      <c r="A106" s="96"/>
       <c r="B106" s="87" t="s">
         <v>8</v>
       </c>
@@ -24234,7 +24234,7 @@
       </c>
     </row>
     <row r="107" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A107" s="92"/>
+      <c r="A107" s="96"/>
       <c r="B107" s="87" t="s">
         <v>9</v>
       </c>
@@ -24291,7 +24291,7 @@
       </c>
     </row>
     <row r="108" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A108" s="92"/>
+      <c r="A108" s="96"/>
       <c r="B108" s="87" t="s">
         <v>10</v>
       </c>
@@ -24348,7 +24348,7 @@
       </c>
     </row>
     <row r="109" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A109" s="92"/>
+      <c r="A109" s="96"/>
       <c r="B109" s="87" t="s">
         <v>11</v>
       </c>
@@ -24405,7 +24405,7 @@
       </c>
     </row>
     <row r="110" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A110" s="92"/>
+      <c r="A110" s="96"/>
       <c r="B110" s="87" t="s">
         <v>12</v>
       </c>
@@ -24462,7 +24462,7 @@
       </c>
     </row>
     <row r="111" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A111" s="92"/>
+      <c r="A111" s="96"/>
       <c r="B111" s="87" t="s">
         <v>13</v>
       </c>
@@ -24519,7 +24519,7 @@
       </c>
     </row>
     <row r="112" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A112" s="92"/>
+      <c r="A112" s="96"/>
       <c r="B112" s="87" t="s">
         <v>14</v>
       </c>
@@ -24576,7 +24576,7 @@
       </c>
     </row>
     <row r="113" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A113" s="92"/>
+      <c r="A113" s="96"/>
       <c r="B113" s="87" t="s">
         <v>15</v>
       </c>
@@ -24633,7 +24633,7 @@
       </c>
     </row>
     <row r="114" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A114" s="92" t="s">
+      <c r="A114" s="96" t="s">
         <v>97</v>
       </c>
       <c r="B114" s="88" t="s">
@@ -24692,7 +24692,7 @@
       </c>
     </row>
     <row r="115" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A115" s="92"/>
+      <c r="A115" s="96"/>
       <c r="B115" s="88" t="s">
         <v>1</v>
       </c>
@@ -24749,7 +24749,7 @@
       </c>
     </row>
     <row r="116" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A116" s="92"/>
+      <c r="A116" s="96"/>
       <c r="B116" s="88" t="s">
         <v>2</v>
       </c>
@@ -24806,7 +24806,7 @@
       </c>
     </row>
     <row r="117" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A117" s="92"/>
+      <c r="A117" s="96"/>
       <c r="B117" s="88" t="s">
         <v>3</v>
       </c>
@@ -24863,7 +24863,7 @@
       </c>
     </row>
     <row r="118" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A118" s="92"/>
+      <c r="A118" s="96"/>
       <c r="B118" s="88" t="s">
         <v>4</v>
       </c>
@@ -24920,7 +24920,7 @@
       </c>
     </row>
     <row r="119" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A119" s="92"/>
+      <c r="A119" s="96"/>
       <c r="B119" s="88" t="s">
         <v>5</v>
       </c>
@@ -24977,7 +24977,7 @@
       </c>
     </row>
     <row r="120" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A120" s="92"/>
+      <c r="A120" s="96"/>
       <c r="B120" s="88" t="s">
         <v>6</v>
       </c>
@@ -25034,7 +25034,7 @@
       </c>
     </row>
     <row r="121" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A121" s="92"/>
+      <c r="A121" s="96"/>
       <c r="B121" s="88" t="s">
         <v>7</v>
       </c>
@@ -25091,7 +25091,7 @@
       </c>
     </row>
     <row r="122" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A122" s="92"/>
+      <c r="A122" s="96"/>
       <c r="B122" s="88" t="s">
         <v>8</v>
       </c>
@@ -25148,7 +25148,7 @@
       </c>
     </row>
     <row r="123" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A123" s="92"/>
+      <c r="A123" s="96"/>
       <c r="B123" s="88" t="s">
         <v>9</v>
       </c>
@@ -25205,7 +25205,7 @@
       </c>
     </row>
     <row r="124" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A124" s="92"/>
+      <c r="A124" s="96"/>
       <c r="B124" s="88" t="s">
         <v>10</v>
       </c>
@@ -25262,7 +25262,7 @@
       </c>
     </row>
     <row r="125" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A125" s="92"/>
+      <c r="A125" s="96"/>
       <c r="B125" s="88" t="s">
         <v>11</v>
       </c>
@@ -25319,7 +25319,7 @@
       </c>
     </row>
     <row r="126" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A126" s="92"/>
+      <c r="A126" s="96"/>
       <c r="B126" s="88" t="s">
         <v>12</v>
       </c>
@@ -25376,7 +25376,7 @@
       </c>
     </row>
     <row r="127" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A127" s="92"/>
+      <c r="A127" s="96"/>
       <c r="B127" s="88" t="s">
         <v>13</v>
       </c>
@@ -25433,7 +25433,7 @@
       </c>
     </row>
     <row r="128" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A128" s="92"/>
+      <c r="A128" s="96"/>
       <c r="B128" s="88" t="s">
         <v>14</v>
       </c>
@@ -25490,7 +25490,7 @@
       </c>
     </row>
     <row r="129" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A129" s="92"/>
+      <c r="A129" s="96"/>
       <c r="B129" s="88" t="s">
         <v>15</v>
       </c>
@@ -25634,7 +25634,7 @@
       </c>
     </row>
     <row r="2" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A2" s="92" t="s">
+      <c r="A2" s="96" t="s">
         <v>84</v>
       </c>
       <c r="B2" s="44" t="s">
@@ -25693,7 +25693,7 @@
       </c>
     </row>
     <row r="3" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A3" s="92"/>
+      <c r="A3" s="96"/>
       <c r="B3" s="44" t="s">
         <v>1</v>
       </c>
@@ -25750,7 +25750,7 @@
       </c>
     </row>
     <row r="4" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A4" s="92"/>
+      <c r="A4" s="96"/>
       <c r="B4" s="44" t="s">
         <v>2</v>
       </c>
@@ -25807,7 +25807,7 @@
       </c>
     </row>
     <row r="5" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A5" s="92"/>
+      <c r="A5" s="96"/>
       <c r="B5" s="44" t="s">
         <v>3</v>
       </c>
@@ -25864,7 +25864,7 @@
       </c>
     </row>
     <row r="6" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A6" s="92"/>
+      <c r="A6" s="96"/>
       <c r="B6" s="44" t="s">
         <v>4</v>
       </c>
@@ -25921,7 +25921,7 @@
       </c>
     </row>
     <row r="7" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A7" s="92"/>
+      <c r="A7" s="96"/>
       <c r="B7" s="44" t="s">
         <v>5</v>
       </c>
@@ -25978,7 +25978,7 @@
       </c>
     </row>
     <row r="8" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A8" s="92"/>
+      <c r="A8" s="96"/>
       <c r="B8" s="44" t="s">
         <v>6</v>
       </c>
@@ -26035,7 +26035,7 @@
       </c>
     </row>
     <row r="9" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A9" s="92"/>
+      <c r="A9" s="96"/>
       <c r="B9" s="44" t="s">
         <v>7</v>
       </c>
@@ -26092,7 +26092,7 @@
       </c>
     </row>
     <row r="10" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A10" s="92"/>
+      <c r="A10" s="96"/>
       <c r="B10" s="44" t="s">
         <v>8</v>
       </c>
@@ -26149,7 +26149,7 @@
       </c>
     </row>
     <row r="11" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A11" s="92"/>
+      <c r="A11" s="96"/>
       <c r="B11" s="44" t="s">
         <v>9</v>
       </c>
@@ -26206,7 +26206,7 @@
       </c>
     </row>
     <row r="12" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A12" s="92"/>
+      <c r="A12" s="96"/>
       <c r="B12" s="44" t="s">
         <v>10</v>
       </c>
@@ -26263,7 +26263,7 @@
       </c>
     </row>
     <row r="13" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A13" s="92"/>
+      <c r="A13" s="96"/>
       <c r="B13" s="44" t="s">
         <v>11</v>
       </c>
@@ -26320,7 +26320,7 @@
       </c>
     </row>
     <row r="14" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A14" s="92"/>
+      <c r="A14" s="96"/>
       <c r="B14" s="44" t="s">
         <v>12</v>
       </c>
@@ -26377,7 +26377,7 @@
       </c>
     </row>
     <row r="15" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A15" s="92"/>
+      <c r="A15" s="96"/>
       <c r="B15" s="44" t="s">
         <v>13</v>
       </c>
@@ -26434,7 +26434,7 @@
       </c>
     </row>
     <row r="16" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A16" s="92"/>
+      <c r="A16" s="96"/>
       <c r="B16" s="44" t="s">
         <v>14</v>
       </c>
@@ -26491,7 +26491,7 @@
       </c>
     </row>
     <row r="17" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A17" s="92"/>
+      <c r="A17" s="96"/>
       <c r="B17" s="44" t="s">
         <v>15</v>
       </c>
@@ -26548,7 +26548,7 @@
       </c>
     </row>
     <row r="18" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A18" s="92" t="s">
+      <c r="A18" s="96" t="s">
         <v>88</v>
       </c>
       <c r="B18" s="44" t="s">
@@ -26607,7 +26607,7 @@
       </c>
     </row>
     <row r="19" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A19" s="92"/>
+      <c r="A19" s="96"/>
       <c r="B19" s="44" t="s">
         <v>1</v>
       </c>
@@ -26664,7 +26664,7 @@
       </c>
     </row>
     <row r="20" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A20" s="92"/>
+      <c r="A20" s="96"/>
       <c r="B20" s="44" t="s">
         <v>2</v>
       </c>
@@ -26721,7 +26721,7 @@
       </c>
     </row>
     <row r="21" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A21" s="92"/>
+      <c r="A21" s="96"/>
       <c r="B21" s="44" t="s">
         <v>3</v>
       </c>
@@ -26778,7 +26778,7 @@
       </c>
     </row>
     <row r="22" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A22" s="92"/>
+      <c r="A22" s="96"/>
       <c r="B22" s="44" t="s">
         <v>4</v>
       </c>
@@ -26835,7 +26835,7 @@
       </c>
     </row>
     <row r="23" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A23" s="92"/>
+      <c r="A23" s="96"/>
       <c r="B23" s="44" t="s">
         <v>5</v>
       </c>
@@ -26892,7 +26892,7 @@
       </c>
     </row>
     <row r="24" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A24" s="92"/>
+      <c r="A24" s="96"/>
       <c r="B24" s="44" t="s">
         <v>6</v>
       </c>
@@ -26949,7 +26949,7 @@
       </c>
     </row>
     <row r="25" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A25" s="92"/>
+      <c r="A25" s="96"/>
       <c r="B25" s="44" t="s">
         <v>7</v>
       </c>
@@ -27006,7 +27006,7 @@
       </c>
     </row>
     <row r="26" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A26" s="92"/>
+      <c r="A26" s="96"/>
       <c r="B26" s="44" t="s">
         <v>8</v>
       </c>
@@ -27063,7 +27063,7 @@
       </c>
     </row>
     <row r="27" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A27" s="92"/>
+      <c r="A27" s="96"/>
       <c r="B27" s="44" t="s">
         <v>9</v>
       </c>
@@ -27120,7 +27120,7 @@
       </c>
     </row>
     <row r="28" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A28" s="92"/>
+      <c r="A28" s="96"/>
       <c r="B28" s="44" t="s">
         <v>10</v>
       </c>
@@ -27177,7 +27177,7 @@
       </c>
     </row>
     <row r="29" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A29" s="92"/>
+      <c r="A29" s="96"/>
       <c r="B29" s="44" t="s">
         <v>11</v>
       </c>
@@ -27234,7 +27234,7 @@
       </c>
     </row>
     <row r="30" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A30" s="92"/>
+      <c r="A30" s="96"/>
       <c r="B30" s="44" t="s">
         <v>12</v>
       </c>
@@ -27291,7 +27291,7 @@
       </c>
     </row>
     <row r="31" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A31" s="92"/>
+      <c r="A31" s="96"/>
       <c r="B31" s="44" t="s">
         <v>13</v>
       </c>
@@ -27348,7 +27348,7 @@
       </c>
     </row>
     <row r="32" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A32" s="92"/>
+      <c r="A32" s="96"/>
       <c r="B32" s="44" t="s">
         <v>14</v>
       </c>
@@ -27405,7 +27405,7 @@
       </c>
     </row>
     <row r="33" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A33" s="92"/>
+      <c r="A33" s="96"/>
       <c r="B33" s="44" t="s">
         <v>15</v>
       </c>
@@ -27462,7 +27462,7 @@
       </c>
     </row>
     <row r="34" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A34" s="92" t="s">
+      <c r="A34" s="96" t="s">
         <v>87</v>
       </c>
       <c r="B34" s="44" t="s">
@@ -27521,7 +27521,7 @@
       </c>
     </row>
     <row r="35" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A35" s="92"/>
+      <c r="A35" s="96"/>
       <c r="B35" s="44" t="s">
         <v>1</v>
       </c>
@@ -27578,7 +27578,7 @@
       </c>
     </row>
     <row r="36" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A36" s="92"/>
+      <c r="A36" s="96"/>
       <c r="B36" s="44" t="s">
         <v>2</v>
       </c>
@@ -27635,7 +27635,7 @@
       </c>
     </row>
     <row r="37" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A37" s="92"/>
+      <c r="A37" s="96"/>
       <c r="B37" s="44" t="s">
         <v>3</v>
       </c>
@@ -27692,7 +27692,7 @@
       </c>
     </row>
     <row r="38" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A38" s="92"/>
+      <c r="A38" s="96"/>
       <c r="B38" s="44" t="s">
         <v>4</v>
       </c>
@@ -27749,7 +27749,7 @@
       </c>
     </row>
     <row r="39" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A39" s="92"/>
+      <c r="A39" s="96"/>
       <c r="B39" s="44" t="s">
         <v>5</v>
       </c>
@@ -27806,7 +27806,7 @@
       </c>
     </row>
     <row r="40" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A40" s="92"/>
+      <c r="A40" s="96"/>
       <c r="B40" s="44" t="s">
         <v>6</v>
       </c>
@@ -27863,7 +27863,7 @@
       </c>
     </row>
     <row r="41" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A41" s="92"/>
+      <c r="A41" s="96"/>
       <c r="B41" s="44" t="s">
         <v>7</v>
       </c>
@@ -27920,7 +27920,7 @@
       </c>
     </row>
     <row r="42" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A42" s="92"/>
+      <c r="A42" s="96"/>
       <c r="B42" s="44" t="s">
         <v>8</v>
       </c>
@@ -27977,7 +27977,7 @@
       </c>
     </row>
     <row r="43" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A43" s="92"/>
+      <c r="A43" s="96"/>
       <c r="B43" s="44" t="s">
         <v>9</v>
       </c>
@@ -28034,7 +28034,7 @@
       </c>
     </row>
     <row r="44" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A44" s="92"/>
+      <c r="A44" s="96"/>
       <c r="B44" s="44" t="s">
         <v>10</v>
       </c>
@@ -28091,7 +28091,7 @@
       </c>
     </row>
     <row r="45" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A45" s="92"/>
+      <c r="A45" s="96"/>
       <c r="B45" s="44" t="s">
         <v>11</v>
       </c>
@@ -28148,7 +28148,7 @@
       </c>
     </row>
     <row r="46" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A46" s="92"/>
+      <c r="A46" s="96"/>
       <c r="B46" s="44" t="s">
         <v>12</v>
       </c>
@@ -28205,7 +28205,7 @@
       </c>
     </row>
     <row r="47" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A47" s="92"/>
+      <c r="A47" s="96"/>
       <c r="B47" s="44" t="s">
         <v>13</v>
       </c>
@@ -28262,7 +28262,7 @@
       </c>
     </row>
     <row r="48" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A48" s="92"/>
+      <c r="A48" s="96"/>
       <c r="B48" s="44" t="s">
         <v>14</v>
       </c>
@@ -28319,7 +28319,7 @@
       </c>
     </row>
     <row r="49" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A49" s="92"/>
+      <c r="A49" s="96"/>
       <c r="B49" s="44" t="s">
         <v>15</v>
       </c>
@@ -28376,7 +28376,7 @@
       </c>
     </row>
     <row r="50" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A50" s="92" t="s">
+      <c r="A50" s="96" t="s">
         <v>85</v>
       </c>
       <c r="B50" s="44" t="s">
@@ -28435,7 +28435,7 @@
       </c>
     </row>
     <row r="51" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A51" s="92"/>
+      <c r="A51" s="96"/>
       <c r="B51" s="44" t="s">
         <v>1</v>
       </c>
@@ -28492,7 +28492,7 @@
       </c>
     </row>
     <row r="52" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A52" s="92"/>
+      <c r="A52" s="96"/>
       <c r="B52" s="44" t="s">
         <v>2</v>
       </c>
@@ -28549,7 +28549,7 @@
       </c>
     </row>
     <row r="53" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A53" s="92"/>
+      <c r="A53" s="96"/>
       <c r="B53" s="44" t="s">
         <v>3</v>
       </c>
@@ -28606,7 +28606,7 @@
       </c>
     </row>
     <row r="54" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A54" s="92"/>
+      <c r="A54" s="96"/>
       <c r="B54" s="44" t="s">
         <v>4</v>
       </c>
@@ -28663,7 +28663,7 @@
       </c>
     </row>
     <row r="55" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A55" s="92"/>
+      <c r="A55" s="96"/>
       <c r="B55" s="44" t="s">
         <v>5</v>
       </c>
@@ -28720,7 +28720,7 @@
       </c>
     </row>
     <row r="56" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A56" s="92"/>
+      <c r="A56" s="96"/>
       <c r="B56" s="44" t="s">
         <v>6</v>
       </c>
@@ -28777,7 +28777,7 @@
       </c>
     </row>
     <row r="57" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A57" s="92"/>
+      <c r="A57" s="96"/>
       <c r="B57" s="44" t="s">
         <v>7</v>
       </c>
@@ -28834,7 +28834,7 @@
       </c>
     </row>
     <row r="58" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A58" s="92"/>
+      <c r="A58" s="96"/>
       <c r="B58" s="44" t="s">
         <v>8</v>
       </c>
@@ -28891,7 +28891,7 @@
       </c>
     </row>
     <row r="59" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A59" s="92"/>
+      <c r="A59" s="96"/>
       <c r="B59" s="44" t="s">
         <v>9</v>
       </c>
@@ -28948,7 +28948,7 @@
       </c>
     </row>
     <row r="60" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A60" s="92"/>
+      <c r="A60" s="96"/>
       <c r="B60" s="44" t="s">
         <v>10</v>
       </c>
@@ -29005,7 +29005,7 @@
       </c>
     </row>
     <row r="61" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A61" s="92"/>
+      <c r="A61" s="96"/>
       <c r="B61" s="44" t="s">
         <v>11</v>
       </c>
@@ -29062,7 +29062,7 @@
       </c>
     </row>
     <row r="62" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A62" s="92"/>
+      <c r="A62" s="96"/>
       <c r="B62" s="44" t="s">
         <v>12</v>
       </c>
@@ -29119,7 +29119,7 @@
       </c>
     </row>
     <row r="63" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A63" s="92"/>
+      <c r="A63" s="96"/>
       <c r="B63" s="44" t="s">
         <v>13</v>
       </c>
@@ -29176,7 +29176,7 @@
       </c>
     </row>
     <row r="64" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A64" s="92"/>
+      <c r="A64" s="96"/>
       <c r="B64" s="44" t="s">
         <v>14</v>
       </c>
@@ -29233,7 +29233,7 @@
       </c>
     </row>
     <row r="65" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A65" s="92"/>
+      <c r="A65" s="96"/>
       <c r="B65" s="44" t="s">
         <v>15</v>
       </c>
@@ -29290,7 +29290,7 @@
       </c>
     </row>
     <row r="66" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A66" s="92" t="s">
+      <c r="A66" s="96" t="s">
         <v>86</v>
       </c>
       <c r="B66" s="44" t="s">
@@ -29349,7 +29349,7 @@
       </c>
     </row>
     <row r="67" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A67" s="92"/>
+      <c r="A67" s="96"/>
       <c r="B67" s="44" t="s">
         <v>1</v>
       </c>
@@ -29406,7 +29406,7 @@
       </c>
     </row>
     <row r="68" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A68" s="92"/>
+      <c r="A68" s="96"/>
       <c r="B68" s="44" t="s">
         <v>2</v>
       </c>
@@ -29463,7 +29463,7 @@
       </c>
     </row>
     <row r="69" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A69" s="92"/>
+      <c r="A69" s="96"/>
       <c r="B69" s="44" t="s">
         <v>3</v>
       </c>
@@ -29520,7 +29520,7 @@
       </c>
     </row>
     <row r="70" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A70" s="92"/>
+      <c r="A70" s="96"/>
       <c r="B70" s="44" t="s">
         <v>4</v>
       </c>
@@ -29577,7 +29577,7 @@
       </c>
     </row>
     <row r="71" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A71" s="92"/>
+      <c r="A71" s="96"/>
       <c r="B71" s="44" t="s">
         <v>5</v>
       </c>
@@ -29634,7 +29634,7 @@
       </c>
     </row>
     <row r="72" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A72" s="92"/>
+      <c r="A72" s="96"/>
       <c r="B72" s="44" t="s">
         <v>6</v>
       </c>
@@ -29691,7 +29691,7 @@
       </c>
     </row>
     <row r="73" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A73" s="92"/>
+      <c r="A73" s="96"/>
       <c r="B73" s="44" t="s">
         <v>7</v>
       </c>
@@ -29748,7 +29748,7 @@
       </c>
     </row>
     <row r="74" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A74" s="92"/>
+      <c r="A74" s="96"/>
       <c r="B74" s="44" t="s">
         <v>8</v>
       </c>
@@ -29805,7 +29805,7 @@
       </c>
     </row>
     <row r="75" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A75" s="92"/>
+      <c r="A75" s="96"/>
       <c r="B75" s="44" t="s">
         <v>9</v>
       </c>
@@ -29862,7 +29862,7 @@
       </c>
     </row>
     <row r="76" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A76" s="92"/>
+      <c r="A76" s="96"/>
       <c r="B76" s="44" t="s">
         <v>10</v>
       </c>
@@ -29919,7 +29919,7 @@
       </c>
     </row>
     <row r="77" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A77" s="92"/>
+      <c r="A77" s="96"/>
       <c r="B77" s="44" t="s">
         <v>11</v>
       </c>
@@ -29976,7 +29976,7 @@
       </c>
     </row>
     <row r="78" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A78" s="92"/>
+      <c r="A78" s="96"/>
       <c r="B78" s="44" t="s">
         <v>12</v>
       </c>
@@ -30033,7 +30033,7 @@
       </c>
     </row>
     <row r="79" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A79" s="92"/>
+      <c r="A79" s="96"/>
       <c r="B79" s="44" t="s">
         <v>13</v>
       </c>
@@ -30090,7 +30090,7 @@
       </c>
     </row>
     <row r="80" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A80" s="92"/>
+      <c r="A80" s="96"/>
       <c r="B80" s="44" t="s">
         <v>14</v>
       </c>
@@ -30147,7 +30147,7 @@
       </c>
     </row>
     <row r="81" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A81" s="92"/>
+      <c r="A81" s="96"/>
       <c r="B81" s="44" t="s">
         <v>15</v>
       </c>
@@ -30204,7 +30204,7 @@
       </c>
     </row>
     <row r="82" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A82" s="92" t="s">
+      <c r="A82" s="96" t="s">
         <v>96</v>
       </c>
       <c r="B82" s="87" t="s">
@@ -30263,7 +30263,7 @@
       </c>
     </row>
     <row r="83" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A83" s="92"/>
+      <c r="A83" s="96"/>
       <c r="B83" s="87" t="s">
         <v>1</v>
       </c>
@@ -30320,7 +30320,7 @@
       </c>
     </row>
     <row r="84" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A84" s="92"/>
+      <c r="A84" s="96"/>
       <c r="B84" s="87" t="s">
         <v>2</v>
       </c>
@@ -30377,7 +30377,7 @@
       </c>
     </row>
     <row r="85" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A85" s="92"/>
+      <c r="A85" s="96"/>
       <c r="B85" s="87" t="s">
         <v>3</v>
       </c>
@@ -30434,7 +30434,7 @@
       </c>
     </row>
     <row r="86" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A86" s="92"/>
+      <c r="A86" s="96"/>
       <c r="B86" s="87" t="s">
         <v>4</v>
       </c>
@@ -30491,7 +30491,7 @@
       </c>
     </row>
     <row r="87" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A87" s="92"/>
+      <c r="A87" s="96"/>
       <c r="B87" s="87" t="s">
         <v>5</v>
       </c>
@@ -30548,7 +30548,7 @@
       </c>
     </row>
     <row r="88" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A88" s="92"/>
+      <c r="A88" s="96"/>
       <c r="B88" s="87" t="s">
         <v>6</v>
       </c>
@@ -30605,7 +30605,7 @@
       </c>
     </row>
     <row r="89" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A89" s="92"/>
+      <c r="A89" s="96"/>
       <c r="B89" s="87" t="s">
         <v>7</v>
       </c>
@@ -30662,7 +30662,7 @@
       </c>
     </row>
     <row r="90" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A90" s="92"/>
+      <c r="A90" s="96"/>
       <c r="B90" s="87" t="s">
         <v>8</v>
       </c>
@@ -30719,7 +30719,7 @@
       </c>
     </row>
     <row r="91" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A91" s="92"/>
+      <c r="A91" s="96"/>
       <c r="B91" s="87" t="s">
         <v>9</v>
       </c>
@@ -30776,7 +30776,7 @@
       </c>
     </row>
     <row r="92" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A92" s="92"/>
+      <c r="A92" s="96"/>
       <c r="B92" s="87" t="s">
         <v>10</v>
       </c>
@@ -30833,7 +30833,7 @@
       </c>
     </row>
     <row r="93" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A93" s="92"/>
+      <c r="A93" s="96"/>
       <c r="B93" s="87" t="s">
         <v>11</v>
       </c>
@@ -30890,7 +30890,7 @@
       </c>
     </row>
     <row r="94" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A94" s="92"/>
+      <c r="A94" s="96"/>
       <c r="B94" s="87" t="s">
         <v>12</v>
       </c>
@@ -30947,7 +30947,7 @@
       </c>
     </row>
     <row r="95" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A95" s="92"/>
+      <c r="A95" s="96"/>
       <c r="B95" s="87" t="s">
         <v>13</v>
       </c>
@@ -31004,7 +31004,7 @@
       </c>
     </row>
     <row r="96" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A96" s="92"/>
+      <c r="A96" s="96"/>
       <c r="B96" s="87" t="s">
         <v>14</v>
       </c>
@@ -31061,7 +31061,7 @@
       </c>
     </row>
     <row r="97" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A97" s="92"/>
+      <c r="A97" s="96"/>
       <c r="B97" s="87" t="s">
         <v>15</v>
       </c>
@@ -31118,7 +31118,7 @@
       </c>
     </row>
     <row r="98" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A98" s="92" t="s">
+      <c r="A98" s="96" t="s">
         <v>95</v>
       </c>
       <c r="B98" s="88" t="s">
@@ -31177,7 +31177,7 @@
       </c>
     </row>
     <row r="99" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A99" s="92"/>
+      <c r="A99" s="96"/>
       <c r="B99" s="88" t="s">
         <v>1</v>
       </c>
@@ -31234,7 +31234,7 @@
       </c>
     </row>
     <row r="100" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A100" s="92"/>
+      <c r="A100" s="96"/>
       <c r="B100" s="88" t="s">
         <v>2</v>
       </c>
@@ -31291,7 +31291,7 @@
       </c>
     </row>
     <row r="101" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A101" s="92"/>
+      <c r="A101" s="96"/>
       <c r="B101" s="88" t="s">
         <v>3</v>
       </c>
@@ -31348,7 +31348,7 @@
       </c>
     </row>
     <row r="102" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A102" s="92"/>
+      <c r="A102" s="96"/>
       <c r="B102" s="88" t="s">
         <v>4</v>
       </c>
@@ -31405,7 +31405,7 @@
       </c>
     </row>
     <row r="103" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A103" s="92"/>
+      <c r="A103" s="96"/>
       <c r="B103" s="88" t="s">
         <v>5</v>
       </c>
@@ -31462,7 +31462,7 @@
       </c>
     </row>
     <row r="104" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A104" s="92"/>
+      <c r="A104" s="96"/>
       <c r="B104" s="88" t="s">
         <v>6</v>
       </c>
@@ -31519,7 +31519,7 @@
       </c>
     </row>
     <row r="105" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A105" s="92"/>
+      <c r="A105" s="96"/>
       <c r="B105" s="88" t="s">
         <v>7</v>
       </c>
@@ -31576,7 +31576,7 @@
       </c>
     </row>
     <row r="106" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A106" s="92"/>
+      <c r="A106" s="96"/>
       <c r="B106" s="88" t="s">
         <v>8</v>
       </c>
@@ -31633,7 +31633,7 @@
       </c>
     </row>
     <row r="107" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A107" s="92"/>
+      <c r="A107" s="96"/>
       <c r="B107" s="88" t="s">
         <v>9</v>
       </c>
@@ -31690,7 +31690,7 @@
       </c>
     </row>
     <row r="108" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A108" s="92"/>
+      <c r="A108" s="96"/>
       <c r="B108" s="88" t="s">
         <v>10</v>
       </c>
@@ -31747,7 +31747,7 @@
       </c>
     </row>
     <row r="109" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A109" s="92"/>
+      <c r="A109" s="96"/>
       <c r="B109" s="88" t="s">
         <v>11</v>
       </c>
@@ -31804,7 +31804,7 @@
       </c>
     </row>
     <row r="110" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A110" s="92"/>
+      <c r="A110" s="96"/>
       <c r="B110" s="88" t="s">
         <v>12</v>
       </c>
@@ -31861,7 +31861,7 @@
       </c>
     </row>
     <row r="111" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A111" s="92"/>
+      <c r="A111" s="96"/>
       <c r="B111" s="88" t="s">
         <v>13</v>
       </c>
@@ -31918,7 +31918,7 @@
       </c>
     </row>
     <row r="112" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A112" s="92"/>
+      <c r="A112" s="96"/>
       <c r="B112" s="88" t="s">
         <v>14</v>
       </c>
@@ -31975,7 +31975,7 @@
       </c>
     </row>
     <row r="113" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A113" s="92"/>
+      <c r="A113" s="96"/>
       <c r="B113" s="88" t="s">
         <v>15</v>
       </c>
@@ -32032,7 +32032,7 @@
       </c>
     </row>
     <row r="114" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A114" s="92" t="s">
+      <c r="A114" s="96" t="s">
         <v>97</v>
       </c>
       <c r="B114" s="88" t="s">
@@ -32091,7 +32091,7 @@
       </c>
     </row>
     <row r="115" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A115" s="92"/>
+      <c r="A115" s="96"/>
       <c r="B115" s="88" t="s">
         <v>1</v>
       </c>
@@ -32148,7 +32148,7 @@
       </c>
     </row>
     <row r="116" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A116" s="92"/>
+      <c r="A116" s="96"/>
       <c r="B116" s="88" t="s">
         <v>2</v>
       </c>
@@ -32205,7 +32205,7 @@
       </c>
     </row>
     <row r="117" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A117" s="92"/>
+      <c r="A117" s="96"/>
       <c r="B117" s="88" t="s">
         <v>3</v>
       </c>
@@ -32262,7 +32262,7 @@
       </c>
     </row>
     <row r="118" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A118" s="92"/>
+      <c r="A118" s="96"/>
       <c r="B118" s="88" t="s">
         <v>4</v>
       </c>
@@ -32319,7 +32319,7 @@
       </c>
     </row>
     <row r="119" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A119" s="92"/>
+      <c r="A119" s="96"/>
       <c r="B119" s="88" t="s">
         <v>5</v>
       </c>
@@ -32376,7 +32376,7 @@
       </c>
     </row>
     <row r="120" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A120" s="92"/>
+      <c r="A120" s="96"/>
       <c r="B120" s="88" t="s">
         <v>6</v>
       </c>
@@ -32433,7 +32433,7 @@
       </c>
     </row>
     <row r="121" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A121" s="92"/>
+      <c r="A121" s="96"/>
       <c r="B121" s="88" t="s">
         <v>7</v>
       </c>
@@ -32490,7 +32490,7 @@
       </c>
     </row>
     <row r="122" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A122" s="92"/>
+      <c r="A122" s="96"/>
       <c r="B122" s="88" t="s">
         <v>8</v>
       </c>
@@ -32547,7 +32547,7 @@
       </c>
     </row>
     <row r="123" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A123" s="92"/>
+      <c r="A123" s="96"/>
       <c r="B123" s="88" t="s">
         <v>9</v>
       </c>
@@ -32604,7 +32604,7 @@
       </c>
     </row>
     <row r="124" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A124" s="92"/>
+      <c r="A124" s="96"/>
       <c r="B124" s="88" t="s">
         <v>10</v>
       </c>
@@ -32661,7 +32661,7 @@
       </c>
     </row>
     <row r="125" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A125" s="92"/>
+      <c r="A125" s="96"/>
       <c r="B125" s="88" t="s">
         <v>11</v>
       </c>
@@ -32718,7 +32718,7 @@
       </c>
     </row>
     <row r="126" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A126" s="92"/>
+      <c r="A126" s="96"/>
       <c r="B126" s="88" t="s">
         <v>12</v>
       </c>
@@ -32775,7 +32775,7 @@
       </c>
     </row>
     <row r="127" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A127" s="92"/>
+      <c r="A127" s="96"/>
       <c r="B127" s="88" t="s">
         <v>13</v>
       </c>
@@ -32832,7 +32832,7 @@
       </c>
     </row>
     <row r="128" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A128" s="92"/>
+      <c r="A128" s="96"/>
       <c r="B128" s="88" t="s">
         <v>14</v>
       </c>
@@ -32889,7 +32889,7 @@
       </c>
     </row>
     <row r="129" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A129" s="92"/>
+      <c r="A129" s="96"/>
       <c r="B129" s="88" t="s">
         <v>15</v>
       </c>
@@ -33242,7 +33242,7 @@
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A2" s="95" t="s">
+      <c r="A2" s="97" t="s">
         <v>84</v>
       </c>
       <c r="B2" s="40" t="s">
@@ -33267,7 +33267,7 @@
       <c r="I2" s="24"/>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A3" s="96"/>
+      <c r="A3" s="98"/>
       <c r="B3" s="41" t="s">
         <v>71</v>
       </c>
@@ -33286,7 +33286,7 @@
       <c r="I3" s="27"/>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A4" s="93" t="s">
+      <c r="A4" s="99" t="s">
         <v>88</v>
       </c>
       <c r="B4" s="42" t="s">
@@ -33311,7 +33311,7 @@
       <c r="I4" s="20"/>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A5" s="94"/>
+      <c r="A5" s="100"/>
       <c r="B5" s="43" t="s">
         <v>71</v>
       </c>
@@ -33330,7 +33330,7 @@
       <c r="I5" s="21"/>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A6" s="95" t="s">
+      <c r="A6" s="97" t="s">
         <v>85</v>
       </c>
       <c r="B6" s="40" t="s">
@@ -33355,7 +33355,7 @@
       <c r="I6" s="24"/>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A7" s="96"/>
+      <c r="A7" s="98"/>
       <c r="B7" s="41" t="s">
         <v>71</v>
       </c>
@@ -33374,7 +33374,7 @@
       <c r="I7" s="27"/>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A8" s="93" t="s">
+      <c r="A8" s="99" t="s">
         <v>86</v>
       </c>
       <c r="B8" s="42" t="s">
@@ -33399,7 +33399,7 @@
       <c r="I8" s="20"/>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A9" s="94"/>
+      <c r="A9" s="100"/>
       <c r="B9" s="43" t="s">
         <v>71</v>
       </c>
@@ -33418,7 +33418,7 @@
       <c r="I9" s="21"/>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A10" s="95" t="s">
+      <c r="A10" s="97" t="s">
         <v>87</v>
       </c>
       <c r="B10" s="40" t="s">
@@ -33443,7 +33443,7 @@
       <c r="I10" s="24"/>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A11" s="96"/>
+      <c r="A11" s="98"/>
       <c r="B11" s="41" t="s">
         <v>71</v>
       </c>
@@ -33462,7 +33462,7 @@
       <c r="I11" s="27"/>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A12" s="93" t="s">
+      <c r="A12" s="99" t="s">
         <v>96</v>
       </c>
       <c r="B12" s="42" t="s">
@@ -33487,7 +33487,7 @@
       <c r="I12" s="20"/>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A13" s="94"/>
+      <c r="A13" s="100"/>
       <c r="B13" s="43" t="s">
         <v>71</v>
       </c>
@@ -33506,7 +33506,7 @@
       <c r="I13" s="21"/>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A14" s="95" t="s">
+      <c r="A14" s="97" t="s">
         <v>95</v>
       </c>
       <c r="B14" s="40" t="s">
@@ -33531,7 +33531,7 @@
       <c r="I14" s="24"/>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A15" s="96"/>
+      <c r="A15" s="98"/>
       <c r="B15" s="41" t="s">
         <v>71</v>
       </c>
@@ -33550,7 +33550,7 @@
       <c r="I15" s="27"/>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A16" s="95" t="s">
+      <c r="A16" s="97" t="s">
         <v>97</v>
       </c>
       <c r="B16" s="40" t="s">
@@ -33575,7 +33575,7 @@
       <c r="I16" s="24"/>
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A17" s="96"/>
+      <c r="A17" s="98"/>
       <c r="B17" s="41" t="s">
         <v>71</v>
       </c>
@@ -33617,8 +33617,8 @@
   </sheetPr>
   <dimension ref="A1:M47"/>
   <sheetViews>
-    <sheetView topLeftCell="A19" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B47" sqref="B47:L47"/>
+    <sheetView topLeftCell="D40" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="J46" sqref="J46"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.7265625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -33680,7 +33680,7 @@
       </c>
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A2" s="103" t="s">
+      <c r="A2" s="108" t="s">
         <v>84</v>
       </c>
       <c r="B2" s="45" t="s">
@@ -33717,7 +33717,7 @@
       </c>
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A3" s="104"/>
+      <c r="A3" s="109"/>
       <c r="B3" s="46" t="s">
         <v>90</v>
       </c>
@@ -33750,7 +33750,7 @@
       <c r="M3" s="74"/>
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A4" s="104"/>
+      <c r="A4" s="109"/>
       <c r="B4" s="46" t="s">
         <v>91</v>
       </c>
@@ -33781,7 +33781,7 @@
       <c r="M4" s="74"/>
     </row>
     <row r="5" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A5" s="104"/>
+      <c r="A5" s="109"/>
       <c r="B5" s="46" t="s">
         <v>92</v>
       </c>
@@ -33812,7 +33812,7 @@
       <c r="M5" s="48"/>
     </row>
     <row r="6" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A6" s="105"/>
+      <c r="A6" s="110"/>
       <c r="B6" s="46" t="s">
         <v>93</v>
       </c>
@@ -33843,7 +33843,7 @@
       <c r="M6" s="77"/>
     </row>
     <row r="7" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A7" s="97" t="s">
+      <c r="A7" s="101" t="s">
         <v>88</v>
       </c>
       <c r="B7" s="61" t="s">
@@ -33880,7 +33880,7 @@
       </c>
     </row>
     <row r="8" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A8" s="98"/>
+      <c r="A8" s="104"/>
       <c r="B8" s="82" t="s">
         <v>90</v>
       </c>
@@ -33913,7 +33913,7 @@
       <c r="M8" s="57"/>
     </row>
     <row r="9" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A9" s="98"/>
+      <c r="A9" s="104"/>
       <c r="B9" s="82" t="s">
         <v>91</v>
       </c>
@@ -33944,7 +33944,7 @@
       <c r="M9" s="57"/>
     </row>
     <row r="10" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A10" s="98"/>
+      <c r="A10" s="104"/>
       <c r="B10" s="82" t="s">
         <v>92</v>
       </c>
@@ -33975,7 +33975,7 @@
       <c r="M10" s="57"/>
     </row>
     <row r="11" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A11" s="99"/>
+      <c r="A11" s="103"/>
       <c r="B11" s="82" t="s">
         <v>93</v>
       </c>
@@ -34006,7 +34006,7 @@
       <c r="M11" s="57"/>
     </row>
     <row r="12" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A12" s="100" t="s">
+      <c r="A12" s="105" t="s">
         <v>85</v>
       </c>
       <c r="B12" s="69" t="s">
@@ -34043,7 +34043,7 @@
       </c>
     </row>
     <row r="13" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A13" s="101"/>
+      <c r="A13" s="106"/>
       <c r="B13" s="71" t="s">
         <v>90</v>
       </c>
@@ -34078,7 +34078,7 @@
       </c>
     </row>
     <row r="14" spans="1:13" s="64" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A14" s="101"/>
+      <c r="A14" s="106"/>
       <c r="B14" s="71" t="s">
         <v>94</v>
       </c>
@@ -34111,7 +34111,7 @@
       <c r="M14" s="74"/>
     </row>
     <row r="15" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A15" s="101"/>
+      <c r="A15" s="106"/>
       <c r="B15" s="71" t="s">
         <v>91</v>
       </c>
@@ -34142,7 +34142,7 @@
       <c r="M15" s="74"/>
     </row>
     <row r="16" spans="1:13" s="64" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A16" s="101"/>
+      <c r="A16" s="106"/>
       <c r="B16" s="71" t="s">
         <v>92</v>
       </c>
@@ -34173,7 +34173,7 @@
       <c r="M16" s="74"/>
     </row>
     <row r="17" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A17" s="102"/>
+      <c r="A17" s="107"/>
       <c r="B17" s="71" t="s">
         <v>93</v>
       </c>
@@ -34204,7 +34204,7 @@
       <c r="M17" s="77"/>
     </row>
     <row r="18" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A18" s="97" t="s">
+      <c r="A18" s="101" t="s">
         <v>86</v>
       </c>
       <c r="B18" s="61" t="s">
@@ -34241,7 +34241,7 @@
       </c>
     </row>
     <row r="19" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A19" s="98"/>
+      <c r="A19" s="104"/>
       <c r="B19" s="82" t="s">
         <v>90</v>
       </c>
@@ -34276,7 +34276,7 @@
       </c>
     </row>
     <row r="20" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A20" s="98"/>
+      <c r="A20" s="104"/>
       <c r="B20" s="82" t="s">
         <v>94</v>
       </c>
@@ -34309,7 +34309,7 @@
       <c r="M20" s="57"/>
     </row>
     <row r="21" spans="1:13" s="64" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A21" s="98"/>
+      <c r="A21" s="104"/>
       <c r="B21" s="82" t="s">
         <v>91</v>
       </c>
@@ -34340,7 +34340,7 @@
       <c r="M21" s="57"/>
     </row>
     <row r="22" spans="1:13" s="64" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A22" s="98"/>
+      <c r="A22" s="104"/>
       <c r="B22" s="82" t="s">
         <v>92</v>
       </c>
@@ -34371,7 +34371,7 @@
       <c r="M22" s="57"/>
     </row>
     <row r="23" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A23" s="99"/>
+      <c r="A23" s="103"/>
       <c r="B23" s="82" t="s">
         <v>93</v>
       </c>
@@ -34402,7 +34402,7 @@
       <c r="M23" s="85"/>
     </row>
     <row r="24" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A24" s="100" t="s">
+      <c r="A24" s="105" t="s">
         <v>87</v>
       </c>
       <c r="B24" s="45" t="s">
@@ -34439,7 +34439,7 @@
       </c>
     </row>
     <row r="25" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A25" s="101"/>
+      <c r="A25" s="106"/>
       <c r="B25" s="46" t="s">
         <v>90</v>
       </c>
@@ -34474,7 +34474,7 @@
       </c>
     </row>
     <row r="26" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A26" s="101"/>
+      <c r="A26" s="106"/>
       <c r="B26" s="46" t="s">
         <v>94</v>
       </c>
@@ -34507,7 +34507,7 @@
       <c r="M26" s="74"/>
     </row>
     <row r="27" spans="1:13" s="64" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A27" s="101"/>
+      <c r="A27" s="106"/>
       <c r="B27" s="71" t="s">
         <v>91</v>
       </c>
@@ -34538,7 +34538,7 @@
       <c r="M27" s="74"/>
     </row>
     <row r="28" spans="1:13" s="64" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A28" s="101"/>
+      <c r="A28" s="106"/>
       <c r="B28" s="71" t="s">
         <v>92</v>
       </c>
@@ -34569,7 +34569,7 @@
       <c r="M28" s="75"/>
     </row>
     <row r="29" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A29" s="102"/>
+      <c r="A29" s="107"/>
       <c r="B29" s="79" t="s">
         <v>93</v>
       </c>
@@ -34600,7 +34600,7 @@
       <c r="M29" s="52"/>
     </row>
     <row r="30" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A30" s="97" t="s">
+      <c r="A30" s="101" t="s">
         <v>96</v>
       </c>
       <c r="B30" s="61" t="s">
@@ -34637,7 +34637,7 @@
       </c>
     </row>
     <row r="31" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A31" s="98"/>
+      <c r="A31" s="104"/>
       <c r="B31" s="82" t="s">
         <v>90</v>
       </c>
@@ -34672,7 +34672,7 @@
       </c>
     </row>
     <row r="32" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A32" s="98"/>
+      <c r="A32" s="104"/>
       <c r="B32" s="82" t="s">
         <v>94</v>
       </c>
@@ -34705,7 +34705,7 @@
       <c r="M32" s="57"/>
     </row>
     <row r="33" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A33" s="98"/>
+      <c r="A33" s="104"/>
       <c r="B33" s="82" t="s">
         <v>91</v>
       </c>
@@ -34736,7 +34736,7 @@
       <c r="M33" s="57"/>
     </row>
     <row r="34" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A34" s="98"/>
+      <c r="A34" s="104"/>
       <c r="B34" s="82" t="s">
         <v>92</v>
       </c>
@@ -34767,7 +34767,7 @@
       <c r="M34" s="57"/>
     </row>
     <row r="35" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A35" s="99"/>
+      <c r="A35" s="103"/>
       <c r="B35" s="82" t="s">
         <v>93</v>
       </c>
@@ -34798,7 +34798,7 @@
       <c r="M35" s="85"/>
     </row>
     <row r="36" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A36" s="100" t="s">
+      <c r="A36" s="105" t="s">
         <v>95</v>
       </c>
       <c r="B36" s="69" t="s">
@@ -34835,7 +34835,7 @@
       </c>
     </row>
     <row r="37" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A37" s="101"/>
+      <c r="A37" s="106"/>
       <c r="B37" s="71" t="s">
         <v>90</v>
       </c>
@@ -34870,7 +34870,7 @@
       </c>
     </row>
     <row r="38" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A38" s="101"/>
+      <c r="A38" s="106"/>
       <c r="B38" s="71" t="s">
         <v>94</v>
       </c>
@@ -34903,7 +34903,7 @@
       <c r="M38" s="74"/>
     </row>
     <row r="39" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A39" s="101"/>
+      <c r="A39" s="106"/>
       <c r="B39" s="71" t="s">
         <v>91</v>
       </c>
@@ -34934,7 +34934,7 @@
       <c r="M39" s="74"/>
     </row>
     <row r="40" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A40" s="101"/>
+      <c r="A40" s="106"/>
       <c r="B40" s="71" t="s">
         <v>92</v>
       </c>
@@ -34965,7 +34965,7 @@
       <c r="M40" s="75"/>
     </row>
     <row r="41" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A41" s="102"/>
+      <c r="A41" s="107"/>
       <c r="B41" s="79" t="s">
         <v>93</v>
       </c>
@@ -34996,7 +34996,7 @@
       <c r="M41" s="77"/>
     </row>
     <row r="42" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A42" s="97" t="s">
+      <c r="A42" s="101" t="s">
         <v>97</v>
       </c>
       <c r="B42" s="61" t="s">
@@ -35006,7 +35006,7 @@
         <v>47</v>
       </c>
       <c r="D42" s="54">
-        <v>0.4</v>
+        <v>0.5</v>
       </c>
       <c r="E42" s="55">
         <v>1</v>
@@ -35026,14 +35026,14 @@
       <c r="J42" s="55"/>
       <c r="K42" s="55"/>
       <c r="L42" s="56">
-        <v>43917</v>
-      </c>
-      <c r="M42" s="84">
-        <v>43920</v>
+        <v>43911</v>
+      </c>
+      <c r="M42" s="57">
+        <v>43914</v>
       </c>
     </row>
     <row r="43" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A43" s="110"/>
+      <c r="A43" s="102"/>
       <c r="B43" s="82" t="s">
         <v>90</v>
       </c>
@@ -35041,7 +35041,7 @@
         <v>47</v>
       </c>
       <c r="D43" s="58">
-        <v>0.3</v>
+        <v>0.45</v>
       </c>
       <c r="E43" s="59">
         <v>1</v>
@@ -35061,14 +35061,14 @@
       <c r="J43" s="60"/>
       <c r="K43" s="60"/>
       <c r="L43" s="57">
-        <v>43920</v>
+        <v>43914</v>
       </c>
       <c r="M43" s="57">
         <v>43956</v>
       </c>
     </row>
     <row r="44" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A44" s="110"/>
+      <c r="A44" s="102"/>
       <c r="B44" s="82" t="s">
         <v>94</v>
       </c>
@@ -35076,7 +35076,7 @@
         <v>47</v>
       </c>
       <c r="D44" s="58">
-        <v>0.2</v>
+        <v>0.38</v>
       </c>
       <c r="E44" s="59">
         <v>1</v>
@@ -35098,10 +35098,12 @@
       <c r="L44" s="57">
         <v>43956</v>
       </c>
-      <c r="M44" s="57"/>
+      <c r="M44" s="57">
+        <v>43985</v>
+      </c>
     </row>
     <row r="45" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A45" s="110"/>
+      <c r="A45" s="102"/>
       <c r="B45" s="82" t="s">
         <v>91</v>
       </c>
@@ -35109,7 +35111,7 @@
         <v>65</v>
       </c>
       <c r="D45" s="58">
-        <v>0.3</v>
+        <v>0.45</v>
       </c>
       <c r="E45" s="60">
         <v>1</v>
@@ -35128,11 +35130,13 @@
       </c>
       <c r="J45" s="60"/>
       <c r="K45" s="60"/>
-      <c r="L45" s="57"/>
+      <c r="L45" s="57">
+        <v>43985</v>
+      </c>
       <c r="M45" s="57"/>
     </row>
     <row r="46" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A46" s="110"/>
+      <c r="A46" s="102"/>
       <c r="B46" s="82" t="s">
         <v>92</v>
       </c>
@@ -35140,7 +35144,7 @@
         <v>65</v>
       </c>
       <c r="D46" s="58">
-        <v>0.4</v>
+        <v>0.6</v>
       </c>
       <c r="E46" s="60">
         <v>1</v>
@@ -35163,34 +35167,34 @@
       <c r="M46" s="57"/>
     </row>
     <row r="47" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A47" s="99"/>
-      <c r="B47" s="106" t="s">
+      <c r="A47" s="103"/>
+      <c r="B47" s="90" t="s">
         <v>93</v>
       </c>
-      <c r="C47" s="107" t="s">
+      <c r="C47" s="91" t="s">
         <v>65</v>
       </c>
-      <c r="D47" s="108">
-        <v>0.5</v>
-      </c>
-      <c r="E47" s="107">
+      <c r="D47" s="92">
+        <v>0.7</v>
+      </c>
+      <c r="E47" s="91">
         <v>1</v>
       </c>
-      <c r="F47" s="107">
+      <c r="F47" s="91">
         <v>1</v>
       </c>
-      <c r="G47" s="107">
+      <c r="G47" s="91">
         <v>1</v>
       </c>
-      <c r="H47" s="107">
+      <c r="H47" s="91">
         <v>1</v>
       </c>
-      <c r="I47" s="107">
-        <v>0</v>
-      </c>
-      <c r="J47" s="107"/>
-      <c r="K47" s="107"/>
-      <c r="L47" s="109"/>
+      <c r="I47" s="91">
+        <v>0</v>
+      </c>
+      <c r="J47" s="91"/>
+      <c r="K47" s="91"/>
+      <c r="L47" s="93"/>
       <c r="M47" s="85"/>
     </row>
   </sheetData>
@@ -35216,8 +35220,8 @@
   </sheetPr>
   <dimension ref="A1:W9"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B9" sqref="B9"/>
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="L10" sqref="L10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.7265625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -35801,7 +35805,7 @@
         <v>97</v>
       </c>
       <c r="B9" s="65">
-        <v>43917</v>
+        <v>43893</v>
       </c>
       <c r="C9" s="65">
         <v>44256</v>
@@ -35831,7 +35835,7 @@
         <v>1.5E-3</v>
       </c>
       <c r="L9" s="64">
-        <v>0.3</v>
+        <v>0.5</v>
       </c>
       <c r="M9" s="64">
         <v>0.1</v>
@@ -35845,7 +35849,9 @@
       <c r="P9" s="64">
         <v>60</v>
       </c>
-      <c r="Q9" s="64"/>
+      <c r="Q9" s="64">
+        <v>1000</v>
+      </c>
       <c r="R9" s="64">
         <v>8000</v>
       </c>

--- a/data/input_data_brazil.xlsx
+++ b/data/input_data_brazil.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\dominic.delport\Documents\GitHub\covasim-australia\data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\farah.houdroge\Documents\GitHub\covasim-australia\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F4AD2133-8D61-406F-8677-AF29A0CCBBA8}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{56193654-451F-455A-B538-64414E087155}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" tabRatio="839" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="839" activeTab="12" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="age_sex" sheetId="1" r:id="rId1"/>
@@ -87,7 +87,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1015" uniqueCount="98">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1015" uniqueCount="102">
   <si>
     <t>0-4</t>
   </si>
@@ -377,7 +377,19 @@
     <t>Natal</t>
   </si>
   <si>
-    <t>Belo Horizonte</t>
+    <t>BH</t>
+  </si>
+  <si>
+    <t>Reopening phase 1</t>
+  </si>
+  <si>
+    <t>Lockdown</t>
+  </si>
+  <si>
+    <t>Reopening phase 0</t>
+  </si>
+  <si>
+    <t>Reopening phase 2</t>
   </si>
   <si>
     <t>Campinas</t>
@@ -749,7 +761,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="111">
+  <cellXfs count="125">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
@@ -896,16 +908,10 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
@@ -915,28 +921,25 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -957,6 +960,39 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="22" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1323,19 +1359,19 @@
   <sheetPr>
     <tabColor theme="9" tint="0.39997558519241921"/>
   </sheetPr>
-  <dimension ref="A1:T34"/>
+  <dimension ref="A1:S33"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="E35" sqref="E35"/>
+    <sheetView topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="D36" sqref="D36"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.7265625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="13.54296875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="10.54296875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="13.5703125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>17</v>
       </c>
@@ -1394,8 +1430,8 @@
         <v>16</v>
       </c>
     </row>
-    <row r="2" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A2" s="96" t="s">
+    <row r="2" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A2" s="92" t="s">
         <v>84</v>
       </c>
       <c r="B2" s="44" t="s">
@@ -1453,8 +1489,8 @@
         <v>5786832</v>
       </c>
     </row>
-    <row r="3" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A3" s="96"/>
+    <row r="3" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A3" s="92"/>
       <c r="B3" s="44" t="s">
         <v>20</v>
       </c>
@@ -1510,8 +1546,8 @@
         <v>5262196</v>
       </c>
     </row>
-    <row r="4" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A4" s="96" t="s">
+    <row r="4" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A4" s="92" t="s">
         <v>84</v>
       </c>
       <c r="B4" s="44" t="s">
@@ -1569,8 +1605,8 @@
         <v>11049028</v>
       </c>
     </row>
-    <row r="5" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A5" s="96"/>
+    <row r="5" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A5" s="92"/>
       <c r="B5" s="44" t="s">
         <v>21</v>
       </c>
@@ -1626,8 +1662,8 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A6" s="94" t="s">
+    <row r="6" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A6" s="90" t="s">
         <v>88</v>
       </c>
       <c r="B6" s="44" t="s">
@@ -1685,8 +1721,8 @@
         <v>3253023</v>
       </c>
     </row>
-    <row r="7" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A7" s="95"/>
+    <row r="7" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A7" s="91"/>
       <c r="B7" s="44" t="s">
         <v>20</v>
       </c>
@@ -1742,8 +1778,8 @@
         <v>2912180</v>
       </c>
     </row>
-    <row r="8" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A8" s="94" t="s">
+    <row r="8" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A8" s="90" t="s">
         <v>88</v>
       </c>
       <c r="B8" s="44" t="s">
@@ -1801,8 +1837,8 @@
         <v>6165203</v>
       </c>
     </row>
-    <row r="9" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A9" s="95"/>
+    <row r="9" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A9" s="91"/>
       <c r="B9" s="44" t="s">
         <v>21</v>
       </c>
@@ -1858,8 +1894,8 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A10" s="94" t="s">
+    <row r="10" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A10" s="90" t="s">
         <v>85</v>
       </c>
       <c r="B10" s="44" t="s">
@@ -1917,8 +1953,8 @@
         <v>1279324</v>
       </c>
     </row>
-    <row r="11" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A11" s="95"/>
+    <row r="11" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A11" s="91"/>
       <c r="B11" s="44" t="s">
         <v>20</v>
       </c>
@@ -1974,8 +2010,8 @@
         <v>1135881</v>
       </c>
     </row>
-    <row r="12" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A12" s="94" t="s">
+    <row r="12" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A12" s="90" t="s">
         <v>85</v>
       </c>
       <c r="B12" s="44" t="s">
@@ -2033,8 +2069,8 @@
         <v>2415205</v>
       </c>
     </row>
-    <row r="13" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A13" s="95"/>
+    <row r="13" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A13" s="91"/>
       <c r="B13" s="44" t="s">
         <v>21</v>
       </c>
@@ -2090,8 +2126,8 @@
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A14" s="94" t="s">
+    <row r="14" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A14" s="90" t="s">
         <v>86</v>
       </c>
       <c r="B14" s="44" t="s">
@@ -2149,8 +2185,8 @@
         <v>913487</v>
       </c>
     </row>
-    <row r="15" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A15" s="95"/>
+    <row r="15" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A15" s="91"/>
       <c r="B15" s="44" t="s">
         <v>20</v>
       </c>
@@ -2206,8 +2242,8 @@
         <v>874736</v>
       </c>
     </row>
-    <row r="16" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A16" s="94" t="s">
+    <row r="16" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A16" s="90" t="s">
         <v>86</v>
       </c>
       <c r="B16" s="44" t="s">
@@ -2265,8 +2301,8 @@
         <v>1788223</v>
       </c>
     </row>
-    <row r="17" spans="1:20" x14ac:dyDescent="0.35">
-      <c r="A17" s="95"/>
+    <row r="17" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A17" s="91"/>
       <c r="B17" s="44" t="s">
         <v>21</v>
       </c>
@@ -2322,8 +2358,8 @@
         <v>1</v>
       </c>
     </row>
-    <row r="18" spans="1:20" x14ac:dyDescent="0.35">
-      <c r="A18" s="94" t="s">
+    <row r="18" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A18" s="90" t="s">
         <v>87</v>
       </c>
       <c r="B18" s="44" t="s">
@@ -2381,8 +2417,8 @@
         <v>1401610</v>
       </c>
     </row>
-    <row r="19" spans="1:20" x14ac:dyDescent="0.35">
-      <c r="A19" s="95"/>
+    <row r="19" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A19" s="91"/>
       <c r="B19" s="44" t="s">
         <v>20</v>
       </c>
@@ -2438,8 +2474,8 @@
         <v>1238623</v>
       </c>
     </row>
-    <row r="20" spans="1:20" x14ac:dyDescent="0.35">
-      <c r="A20" s="94" t="s">
+    <row r="20" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A20" s="90" t="s">
         <v>87</v>
       </c>
       <c r="B20" s="44" t="s">
@@ -2497,8 +2533,8 @@
         <v>2640233</v>
       </c>
     </row>
-    <row r="21" spans="1:20" x14ac:dyDescent="0.35">
-      <c r="A21" s="95"/>
+    <row r="21" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A21" s="91"/>
       <c r="B21" s="44" t="s">
         <v>21</v>
       </c>
@@ -2554,547 +2590,547 @@
         <v>1</v>
       </c>
     </row>
-    <row r="22" spans="1:20" x14ac:dyDescent="0.35">
-      <c r="A22" s="94" t="s">
-        <v>96</v>
+    <row r="22" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A22" s="90" t="s">
+        <v>95</v>
       </c>
       <c r="B22" s="87" t="s">
         <v>19</v>
       </c>
       <c r="C22" s="64">
-        <v>65522</v>
+        <v>25825</v>
       </c>
       <c r="D22" s="64">
-        <v>71221</v>
+        <v>27410</v>
       </c>
       <c r="E22" s="64">
-        <v>85153</v>
-      </c>
-      <c r="F22" s="89">
-        <v>91815</v>
-      </c>
-      <c r="G22" s="89">
-        <v>112538</v>
-      </c>
-      <c r="H22" s="89">
-        <v>120055</v>
-      </c>
-      <c r="I22" s="89">
-        <v>111603</v>
-      </c>
-      <c r="J22" s="89">
-        <v>94405</v>
-      </c>
-      <c r="K22" s="89">
-        <v>90757</v>
-      </c>
-      <c r="L22" s="89">
-        <v>89662</v>
-      </c>
-      <c r="M22" s="89">
-        <v>81578</v>
-      </c>
-      <c r="N22" s="89">
-        <v>66901</v>
-      </c>
-      <c r="O22" s="89">
-        <v>53230</v>
-      </c>
-      <c r="P22" s="89">
-        <v>40022</v>
-      </c>
-      <c r="Q22" s="89">
-        <v>31962</v>
-      </c>
-      <c r="R22" s="89">
-        <v>23814</v>
+        <v>32650</v>
+      </c>
+      <c r="F22" s="88">
+        <v>35823</v>
+      </c>
+      <c r="G22" s="88">
+        <v>42264</v>
+      </c>
+      <c r="H22" s="88">
+        <v>40836</v>
+      </c>
+      <c r="I22" s="88">
+        <v>35638</v>
+      </c>
+      <c r="J22" s="88">
+        <v>31417</v>
+      </c>
+      <c r="K22" s="88">
+        <v>31400</v>
+      </c>
+      <c r="L22" s="88">
+        <v>29361</v>
+      </c>
+      <c r="M22" s="88">
+        <v>23762</v>
+      </c>
+      <c r="N22" s="88">
+        <v>18578</v>
+      </c>
+      <c r="O22" s="88">
+        <v>15687</v>
+      </c>
+      <c r="P22" s="88">
+        <v>10982</v>
+      </c>
+      <c r="Q22" s="88">
+        <v>8876</v>
+      </c>
+      <c r="R22" s="88">
+        <v>6070</v>
       </c>
       <c r="S22" s="64">
         <f>SUM(C22:R22)</f>
-        <v>1230238</v>
-      </c>
-    </row>
-    <row r="23" spans="1:20" x14ac:dyDescent="0.35">
-      <c r="A23" s="95"/>
+        <v>416579</v>
+      </c>
+    </row>
+    <row r="23" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A23" s="91"/>
       <c r="B23" s="87" t="s">
         <v>20</v>
       </c>
       <c r="C23" s="64">
-        <v>67689</v>
+        <v>27129</v>
       </c>
       <c r="D23" s="64">
-        <v>73647</v>
+        <v>28348</v>
       </c>
       <c r="E23" s="64">
-        <v>86338</v>
-      </c>
-      <c r="F23" s="89">
-        <v>90895</v>
-      </c>
-      <c r="G23" s="89">
-        <v>106240</v>
-      </c>
-      <c r="H23" s="89">
-        <v>110707</v>
-      </c>
-      <c r="I23" s="89">
-        <v>102211</v>
-      </c>
-      <c r="J23" s="89">
-        <v>84424</v>
-      </c>
-      <c r="K23" s="89">
-        <v>78564</v>
-      </c>
-      <c r="L23" s="89">
-        <v>75266</v>
-      </c>
-      <c r="M23" s="89">
-        <v>66370</v>
-      </c>
-      <c r="N23" s="89">
-        <v>52018</v>
-      </c>
-      <c r="O23" s="89">
-        <v>39958</v>
-      </c>
-      <c r="P23" s="89">
-        <v>28991</v>
-      </c>
-      <c r="Q23" s="89">
-        <v>21442</v>
-      </c>
-      <c r="R23" s="89">
-        <v>14504</v>
+        <v>33517</v>
+      </c>
+      <c r="F23" s="88">
+        <v>35245</v>
+      </c>
+      <c r="G23" s="88">
+        <v>39654</v>
+      </c>
+      <c r="H23" s="88">
+        <v>37784</v>
+      </c>
+      <c r="I23" s="88">
+        <v>32061</v>
+      </c>
+      <c r="J23" s="88">
+        <v>27117</v>
+      </c>
+      <c r="K23" s="88">
+        <v>26524</v>
+      </c>
+      <c r="L23" s="88">
+        <v>23966</v>
+      </c>
+      <c r="M23" s="88">
+        <v>19155</v>
+      </c>
+      <c r="N23" s="88">
+        <v>14336</v>
+      </c>
+      <c r="O23" s="88">
+        <v>11647</v>
+      </c>
+      <c r="P23" s="88">
+        <v>7639</v>
+      </c>
+      <c r="Q23" s="88">
+        <v>5635</v>
+      </c>
+      <c r="R23" s="88">
+        <v>3578</v>
       </c>
       <c r="S23" s="64">
         <f>SUM(C23:R23)</f>
-        <v>1099264</v>
-      </c>
-    </row>
-    <row r="24" spans="1:20" x14ac:dyDescent="0.35">
-      <c r="A24" s="94" t="s">
-        <v>96</v>
+        <v>373335</v>
+      </c>
+    </row>
+    <row r="24" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A24" s="90" t="s">
+        <v>95</v>
       </c>
       <c r="B24" s="87" t="s">
         <v>16</v>
       </c>
       <c r="C24" s="64">
         <f>SUM(C22:C23)</f>
-        <v>133211</v>
+        <v>52954</v>
       </c>
       <c r="D24" s="64">
-        <f t="shared" ref="D24" si="0">SUM(D22:D23)</f>
-        <v>144868</v>
+        <f t="shared" ref="D24:R24" si="0">SUM(D22:D23)</f>
+        <v>55758</v>
       </c>
       <c r="E24" s="64">
-        <f t="shared" ref="E24" si="1">SUM(E22:E23)</f>
-        <v>171491</v>
+        <f t="shared" si="0"/>
+        <v>66167</v>
       </c>
       <c r="F24" s="64">
-        <f t="shared" ref="F24" si="2">SUM(F22:F23)</f>
-        <v>182710</v>
+        <f t="shared" si="0"/>
+        <v>71068</v>
       </c>
       <c r="G24" s="64">
-        <f t="shared" ref="G24" si="3">SUM(G22:G23)</f>
-        <v>218778</v>
+        <f t="shared" si="0"/>
+        <v>81918</v>
       </c>
       <c r="H24" s="64">
-        <f t="shared" ref="H24" si="4">SUM(H22:H23)</f>
-        <v>230762</v>
+        <f t="shared" si="0"/>
+        <v>78620</v>
       </c>
       <c r="I24" s="64">
-        <f t="shared" ref="I24" si="5">SUM(I22:I23)</f>
-        <v>213814</v>
+        <f t="shared" si="0"/>
+        <v>67699</v>
       </c>
       <c r="J24" s="64">
-        <f t="shared" ref="J24" si="6">SUM(J22:J23)</f>
-        <v>178829</v>
+        <f t="shared" si="0"/>
+        <v>58534</v>
       </c>
       <c r="K24" s="64">
-        <f t="shared" ref="K24" si="7">SUM(K22:K23)</f>
-        <v>169321</v>
+        <f t="shared" si="0"/>
+        <v>57924</v>
       </c>
       <c r="L24" s="64">
-        <f t="shared" ref="L24" si="8">SUM(L22:L23)</f>
-        <v>164928</v>
+        <f t="shared" si="0"/>
+        <v>53327</v>
       </c>
       <c r="M24" s="64">
-        <f t="shared" ref="M24" si="9">SUM(M22:M23)</f>
-        <v>147948</v>
+        <f t="shared" si="0"/>
+        <v>42917</v>
       </c>
       <c r="N24" s="64">
-        <f t="shared" ref="N24" si="10">SUM(N22:N23)</f>
-        <v>118919</v>
+        <f t="shared" si="0"/>
+        <v>32914</v>
       </c>
       <c r="O24" s="64">
-        <f t="shared" ref="O24" si="11">SUM(O22:O23)</f>
-        <v>93188</v>
+        <f t="shared" si="0"/>
+        <v>27334</v>
       </c>
       <c r="P24" s="64">
-        <f t="shared" ref="P24" si="12">SUM(P22:P23)</f>
-        <v>69013</v>
+        <f t="shared" si="0"/>
+        <v>18621</v>
       </c>
       <c r="Q24" s="64">
-        <f t="shared" ref="Q24" si="13">SUM(Q22:Q23)</f>
-        <v>53404</v>
+        <f t="shared" si="0"/>
+        <v>14511</v>
       </c>
       <c r="R24" s="64">
-        <f t="shared" ref="R24" si="14">SUM(R22:R23)</f>
-        <v>38318</v>
+        <f t="shared" si="0"/>
+        <v>9648</v>
       </c>
       <c r="S24" s="64">
         <f>SUM(S22:S23)</f>
-        <v>2329502</v>
-      </c>
-    </row>
-    <row r="25" spans="1:20" x14ac:dyDescent="0.35">
-      <c r="A25" s="95"/>
+        <v>789914</v>
+      </c>
+    </row>
+    <row r="25" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A25" s="91"/>
       <c r="B25" s="87" t="s">
         <v>21</v>
       </c>
       <c r="C25" s="64">
-        <f t="shared" ref="C25:S25" si="15">C24/$S$24</f>
-        <v>5.7184325233461918E-2</v>
+        <f>C24/$S$24</f>
+        <v>6.7037677519324892E-2</v>
       </c>
       <c r="D25" s="64">
-        <f t="shared" si="15"/>
-        <v>6.2188399065551347E-2</v>
+        <f t="shared" ref="D25:S25" si="1">D24/$S$24</f>
+        <v>7.0587431036796405E-2</v>
       </c>
       <c r="E25" s="64">
-        <f t="shared" si="15"/>
-        <v>7.3617022007278807E-2</v>
+        <f t="shared" si="1"/>
+        <v>8.3764814903900933E-2</v>
       </c>
       <c r="F25" s="64">
-        <f t="shared" si="15"/>
-        <v>7.8433072819855912E-2</v>
+        <f t="shared" si="1"/>
+        <v>8.9969287795886643E-2</v>
       </c>
       <c r="G25" s="64">
-        <f t="shared" si="15"/>
-        <v>9.3916210417505544E-2</v>
+        <f t="shared" si="1"/>
+        <v>0.10370496028681603</v>
       </c>
       <c r="H25" s="64">
-        <f t="shared" si="15"/>
-        <v>9.9060657599778834E-2</v>
+        <f t="shared" si="1"/>
+        <v>9.9529822233812792E-2</v>
       </c>
       <c r="I25" s="64">
-        <f t="shared" si="15"/>
-        <v>9.178528286303253E-2</v>
+        <f t="shared" si="1"/>
+        <v>8.5704266540408192E-2</v>
       </c>
       <c r="J25" s="64">
-        <f t="shared" si="15"/>
-        <v>7.676705149856064E-2</v>
+        <f t="shared" si="1"/>
+        <v>7.4101737657517153E-2</v>
       </c>
       <c r="K25" s="64">
-        <f t="shared" si="15"/>
-        <v>7.268549243572231E-2</v>
+        <f t="shared" si="1"/>
+        <v>7.3329501692589324E-2</v>
       </c>
       <c r="L25" s="64">
-        <f t="shared" si="15"/>
-        <v>7.0799681648695725E-2</v>
+        <f t="shared" si="1"/>
+        <v>6.7509880822469281E-2</v>
       </c>
       <c r="M25" s="64">
-        <f t="shared" si="15"/>
-        <v>6.3510570070341221E-2</v>
+        <f t="shared" si="1"/>
+        <v>5.433123099476652E-2</v>
       </c>
       <c r="N25" s="64">
-        <f t="shared" si="15"/>
-        <v>5.1049108350196735E-2</v>
+        <f t="shared" si="1"/>
+        <v>4.1667827130548389E-2</v>
       </c>
       <c r="O25" s="64">
-        <f t="shared" si="15"/>
-        <v>4.0003399868298033E-2</v>
+        <f t="shared" si="1"/>
+        <v>3.4603766992356129E-2</v>
       </c>
       <c r="P25" s="64">
-        <f t="shared" si="15"/>
-        <v>2.962564530959836E-2</v>
+        <f t="shared" si="1"/>
+        <v>2.357345229987062E-2</v>
       </c>
       <c r="Q25" s="64">
-        <f t="shared" si="15"/>
-        <v>2.2925071538895437E-2</v>
+        <f t="shared" si="1"/>
+        <v>1.8370354241094601E-2</v>
       </c>
       <c r="R25" s="64">
-        <f t="shared" si="15"/>
-        <v>1.644900927322664E-2</v>
+        <f t="shared" si="1"/>
+        <v>1.2213987851842099E-2</v>
       </c>
       <c r="S25" s="64">
-        <f t="shared" si="15"/>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
-    <row r="26" spans="1:20" x14ac:dyDescent="0.35">
-      <c r="A26" s="94" t="s">
-        <v>95</v>
+    <row r="26" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A26" s="90" t="s">
+        <v>96</v>
       </c>
       <c r="B26" s="87" t="s">
         <v>19</v>
       </c>
       <c r="C26" s="64">
-        <v>25825</v>
+        <v>65522</v>
       </c>
       <c r="D26" s="64">
-        <v>27410</v>
+        <v>71221</v>
       </c>
       <c r="E26" s="64">
-        <v>32650</v>
-      </c>
-      <c r="F26" s="89">
-        <v>35823</v>
-      </c>
-      <c r="G26" s="89">
-        <v>42264</v>
-      </c>
-      <c r="H26" s="89">
-        <v>40836</v>
-      </c>
-      <c r="I26" s="89">
-        <v>35638</v>
-      </c>
-      <c r="J26" s="89">
-        <v>31417</v>
-      </c>
-      <c r="K26" s="89">
-        <v>31400</v>
-      </c>
-      <c r="L26" s="89">
-        <v>29361</v>
-      </c>
-      <c r="M26" s="89">
-        <v>23762</v>
-      </c>
-      <c r="N26" s="89">
-        <v>18578</v>
-      </c>
-      <c r="O26" s="89">
-        <v>15687</v>
-      </c>
-      <c r="P26" s="89">
-        <v>10982</v>
-      </c>
-      <c r="Q26" s="89">
-        <v>8876</v>
-      </c>
-      <c r="R26" s="89">
-        <v>6070</v>
+        <v>85153</v>
+      </c>
+      <c r="F26" s="88">
+        <v>91815</v>
+      </c>
+      <c r="G26" s="88">
+        <v>112538</v>
+      </c>
+      <c r="H26" s="88">
+        <v>120055</v>
+      </c>
+      <c r="I26" s="88">
+        <v>111603</v>
+      </c>
+      <c r="J26" s="88">
+        <v>94405</v>
+      </c>
+      <c r="K26" s="88">
+        <v>90757</v>
+      </c>
+      <c r="L26" s="88">
+        <v>89662</v>
+      </c>
+      <c r="M26" s="88">
+        <v>81578</v>
+      </c>
+      <c r="N26" s="88">
+        <v>66901</v>
+      </c>
+      <c r="O26" s="88">
+        <v>53230</v>
+      </c>
+      <c r="P26" s="88">
+        <v>40022</v>
+      </c>
+      <c r="Q26" s="88">
+        <v>31962</v>
+      </c>
+      <c r="R26" s="88">
+        <v>23814</v>
       </c>
       <c r="S26" s="64">
         <f>SUM(C26:R26)</f>
-        <v>416579</v>
-      </c>
-    </row>
-    <row r="27" spans="1:20" x14ac:dyDescent="0.35">
-      <c r="A27" s="95"/>
+        <v>1230238</v>
+      </c>
+    </row>
+    <row r="27" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A27" s="91"/>
       <c r="B27" s="87" t="s">
         <v>20</v>
       </c>
       <c r="C27" s="64">
-        <v>27129</v>
+        <v>67689</v>
       </c>
       <c r="D27" s="64">
-        <v>28348</v>
+        <v>73647</v>
       </c>
       <c r="E27" s="64">
-        <v>33517</v>
-      </c>
-      <c r="F27" s="89">
-        <v>35245</v>
-      </c>
-      <c r="G27" s="89">
-        <v>39654</v>
-      </c>
-      <c r="H27" s="89">
-        <v>37784</v>
-      </c>
-      <c r="I27" s="89">
-        <v>32061</v>
-      </c>
-      <c r="J27" s="89">
-        <v>27117</v>
-      </c>
-      <c r="K27" s="89">
-        <v>26524</v>
-      </c>
-      <c r="L27" s="89">
-        <v>23966</v>
-      </c>
-      <c r="M27" s="89">
-        <v>19155</v>
-      </c>
-      <c r="N27" s="89">
-        <v>14336</v>
-      </c>
-      <c r="O27" s="89">
-        <v>11647</v>
-      </c>
-      <c r="P27" s="89">
-        <v>7639</v>
-      </c>
-      <c r="Q27" s="89">
-        <v>5635</v>
-      </c>
-      <c r="R27" s="89">
-        <v>3578</v>
+        <v>86338</v>
+      </c>
+      <c r="F27" s="88">
+        <v>90895</v>
+      </c>
+      <c r="G27" s="88">
+        <v>106240</v>
+      </c>
+      <c r="H27" s="88">
+        <v>110707</v>
+      </c>
+      <c r="I27" s="88">
+        <v>102211</v>
+      </c>
+      <c r="J27" s="88">
+        <v>84424</v>
+      </c>
+      <c r="K27" s="88">
+        <v>78564</v>
+      </c>
+      <c r="L27" s="88">
+        <v>75266</v>
+      </c>
+      <c r="M27" s="88">
+        <v>66370</v>
+      </c>
+      <c r="N27" s="88">
+        <v>52018</v>
+      </c>
+      <c r="O27" s="88">
+        <v>39958</v>
+      </c>
+      <c r="P27" s="88">
+        <v>28991</v>
+      </c>
+      <c r="Q27" s="88">
+        <v>21442</v>
+      </c>
+      <c r="R27" s="88">
+        <v>14504</v>
       </c>
       <c r="S27" s="64">
         <f>SUM(C27:R27)</f>
-        <v>373335</v>
-      </c>
-    </row>
-    <row r="28" spans="1:20" x14ac:dyDescent="0.35">
-      <c r="A28" s="94" t="s">
-        <v>95</v>
+        <v>1099264</v>
+      </c>
+    </row>
+    <row r="28" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A28" s="90" t="s">
+        <v>96</v>
       </c>
       <c r="B28" s="87" t="s">
         <v>16</v>
       </c>
       <c r="C28" s="64">
         <f>SUM(C26:C27)</f>
-        <v>52954</v>
+        <v>133211</v>
       </c>
       <c r="D28" s="64">
-        <f t="shared" ref="D28:R28" si="16">SUM(D26:D27)</f>
-        <v>55758</v>
+        <f t="shared" ref="D28" si="2">SUM(D26:D27)</f>
+        <v>144868</v>
       </c>
       <c r="E28" s="64">
-        <f t="shared" si="16"/>
-        <v>66167</v>
+        <f t="shared" ref="E28" si="3">SUM(E26:E27)</f>
+        <v>171491</v>
       </c>
       <c r="F28" s="64">
-        <f t="shared" si="16"/>
-        <v>71068</v>
+        <f t="shared" ref="F28" si="4">SUM(F26:F27)</f>
+        <v>182710</v>
       </c>
       <c r="G28" s="64">
-        <f t="shared" si="16"/>
-        <v>81918</v>
+        <f t="shared" ref="G28" si="5">SUM(G26:G27)</f>
+        <v>218778</v>
       </c>
       <c r="H28" s="64">
-        <f t="shared" si="16"/>
-        <v>78620</v>
+        <f t="shared" ref="H28" si="6">SUM(H26:H27)</f>
+        <v>230762</v>
       </c>
       <c r="I28" s="64">
-        <f t="shared" si="16"/>
-        <v>67699</v>
+        <f t="shared" ref="I28" si="7">SUM(I26:I27)</f>
+        <v>213814</v>
       </c>
       <c r="J28" s="64">
-        <f t="shared" si="16"/>
-        <v>58534</v>
+        <f t="shared" ref="J28" si="8">SUM(J26:J27)</f>
+        <v>178829</v>
       </c>
       <c r="K28" s="64">
-        <f t="shared" si="16"/>
-        <v>57924</v>
+        <f t="shared" ref="K28" si="9">SUM(K26:K27)</f>
+        <v>169321</v>
       </c>
       <c r="L28" s="64">
-        <f t="shared" si="16"/>
-        <v>53327</v>
+        <f t="shared" ref="L28" si="10">SUM(L26:L27)</f>
+        <v>164928</v>
       </c>
       <c r="M28" s="64">
-        <f t="shared" si="16"/>
-        <v>42917</v>
+        <f t="shared" ref="M28" si="11">SUM(M26:M27)</f>
+        <v>147948</v>
       </c>
       <c r="N28" s="64">
-        <f t="shared" si="16"/>
-        <v>32914</v>
+        <f t="shared" ref="N28" si="12">SUM(N26:N27)</f>
+        <v>118919</v>
       </c>
       <c r="O28" s="64">
-        <f t="shared" si="16"/>
-        <v>27334</v>
+        <f t="shared" ref="O28" si="13">SUM(O26:O27)</f>
+        <v>93188</v>
       </c>
       <c r="P28" s="64">
-        <f t="shared" si="16"/>
-        <v>18621</v>
+        <f t="shared" ref="P28" si="14">SUM(P26:P27)</f>
+        <v>69013</v>
       </c>
       <c r="Q28" s="64">
-        <f t="shared" si="16"/>
-        <v>14511</v>
+        <f t="shared" ref="Q28" si="15">SUM(Q26:Q27)</f>
+        <v>53404</v>
       </c>
       <c r="R28" s="64">
-        <f t="shared" si="16"/>
-        <v>9648</v>
+        <f t="shared" ref="R28" si="16">SUM(R26:R27)</f>
+        <v>38318</v>
       </c>
       <c r="S28" s="64">
         <f>SUM(S26:S27)</f>
-        <v>789914</v>
-      </c>
-    </row>
-    <row r="29" spans="1:20" x14ac:dyDescent="0.35">
-      <c r="A29" s="95"/>
+        <v>2329502</v>
+      </c>
+    </row>
+    <row r="29" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A29" s="91"/>
       <c r="B29" s="87" t="s">
         <v>21</v>
       </c>
       <c r="C29" s="64">
         <f>C28/$S$28</f>
-        <v>6.7037677519324892E-2</v>
+        <v>5.7184325233461918E-2</v>
       </c>
       <c r="D29" s="64">
         <f t="shared" ref="D29:S29" si="17">D28/$S$28</f>
-        <v>7.0587431036796405E-2</v>
+        <v>6.2188399065551347E-2</v>
       </c>
       <c r="E29" s="64">
         <f t="shared" si="17"/>
-        <v>8.3764814903900933E-2</v>
+        <v>7.3617022007278807E-2</v>
       </c>
       <c r="F29" s="64">
         <f t="shared" si="17"/>
-        <v>8.9969287795886643E-2</v>
+        <v>7.8433072819855912E-2</v>
       </c>
       <c r="G29" s="64">
         <f t="shared" si="17"/>
-        <v>0.10370496028681603</v>
+        <v>9.3916210417505544E-2</v>
       </c>
       <c r="H29" s="64">
         <f t="shared" si="17"/>
-        <v>9.9529822233812792E-2</v>
+        <v>9.9060657599778834E-2</v>
       </c>
       <c r="I29" s="64">
         <f t="shared" si="17"/>
-        <v>8.5704266540408192E-2</v>
+        <v>9.178528286303253E-2</v>
       </c>
       <c r="J29" s="64">
         <f t="shared" si="17"/>
-        <v>7.4101737657517153E-2</v>
+        <v>7.676705149856064E-2</v>
       </c>
       <c r="K29" s="64">
         <f t="shared" si="17"/>
-        <v>7.3329501692589324E-2</v>
+        <v>7.268549243572231E-2</v>
       </c>
       <c r="L29" s="64">
         <f t="shared" si="17"/>
-        <v>6.7509880822469281E-2</v>
+        <v>7.0799681648695725E-2</v>
       </c>
       <c r="M29" s="64">
         <f t="shared" si="17"/>
-        <v>5.433123099476652E-2</v>
+        <v>6.3510570070341221E-2</v>
       </c>
       <c r="N29" s="64">
         <f t="shared" si="17"/>
-        <v>4.1667827130548389E-2</v>
+        <v>5.1049108350196735E-2</v>
       </c>
       <c r="O29" s="64">
         <f t="shared" si="17"/>
-        <v>3.4603766992356129E-2</v>
+        <v>4.0003399868298033E-2</v>
       </c>
       <c r="P29" s="64">
         <f t="shared" si="17"/>
-        <v>2.357345229987062E-2</v>
+        <v>2.962564530959836E-2</v>
       </c>
       <c r="Q29" s="64">
         <f t="shared" si="17"/>
-        <v>1.8370354241094601E-2</v>
+        <v>2.2925071538895437E-2</v>
       </c>
       <c r="R29" s="64">
         <f t="shared" si="17"/>
-        <v>1.2213987851842099E-2</v>
+        <v>1.644900927322664E-2</v>
       </c>
       <c r="S29" s="64">
         <f t="shared" si="17"/>
         <v>1</v>
       </c>
     </row>
-    <row r="30" spans="1:20" x14ac:dyDescent="0.35">
-      <c r="A30" s="94" t="s">
-        <v>97</v>
-      </c>
-      <c r="B30" s="88" t="s">
+    <row r="30" spans="1:19" s="64" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A30" s="90" t="s">
+        <v>101</v>
+      </c>
+      <c r="B30" s="89" t="s">
         <v>19</v>
       </c>
       <c r="C30" s="64">
@@ -3106,52 +3142,52 @@
       <c r="E30" s="64">
         <v>38690</v>
       </c>
-      <c r="F30" s="89">
+      <c r="F30" s="64">
         <v>40346</v>
       </c>
-      <c r="G30" s="89">
+      <c r="G30" s="64">
         <v>48593</v>
       </c>
-      <c r="H30" s="89">
+      <c r="H30" s="64">
         <v>52883</v>
       </c>
-      <c r="I30" s="89">
+      <c r="I30" s="64">
         <v>49301</v>
       </c>
-      <c r="J30" s="89">
+      <c r="J30" s="64">
         <v>43304</v>
       </c>
-      <c r="K30" s="89">
+      <c r="K30" s="64">
         <v>41355</v>
       </c>
-      <c r="L30" s="89">
+      <c r="L30" s="64">
         <v>38876</v>
       </c>
-      <c r="M30" s="89">
+      <c r="M30" s="64">
         <v>35795</v>
       </c>
-      <c r="N30" s="89">
+      <c r="N30" s="64">
         <v>29515</v>
       </c>
-      <c r="O30" s="89">
+      <c r="O30" s="64">
         <v>23211</v>
       </c>
-      <c r="P30" s="89">
+      <c r="P30" s="64">
         <v>16986</v>
       </c>
-      <c r="Q30" s="89">
+      <c r="Q30" s="64">
         <v>13743</v>
       </c>
-      <c r="R30" s="89">
+      <c r="R30" s="64">
         <v>10260</v>
       </c>
       <c r="S30" s="64">
         <v>546402</v>
       </c>
     </row>
-    <row r="31" spans="1:20" x14ac:dyDescent="0.35">
-      <c r="A31" s="95"/>
-      <c r="B31" s="88" t="s">
+    <row r="31" spans="1:19" s="64" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A31" s="91"/>
+      <c r="B31" s="89" t="s">
         <v>20</v>
       </c>
       <c r="C31" s="64">
@@ -3163,55 +3199,54 @@
       <c r="E31" s="64">
         <v>39891</v>
       </c>
-      <c r="F31" s="89">
+      <c r="F31" s="64">
         <v>41344</v>
       </c>
-      <c r="G31" s="89">
+      <c r="G31" s="64">
         <v>48225</v>
       </c>
-      <c r="H31" s="89">
+      <c r="H31" s="64">
         <v>51178</v>
       </c>
-      <c r="I31" s="89">
+      <c r="I31" s="64">
         <v>47315</v>
       </c>
-      <c r="J31" s="89">
+      <c r="J31" s="64">
         <v>40812</v>
       </c>
-      <c r="K31" s="89">
+      <c r="K31" s="64">
         <v>37955</v>
       </c>
-      <c r="L31" s="89">
+      <c r="L31" s="64">
         <v>34630</v>
       </c>
-      <c r="M31" s="89">
+      <c r="M31" s="64">
         <v>31354</v>
       </c>
-      <c r="N31" s="89">
+      <c r="N31" s="64">
         <v>25295</v>
       </c>
-      <c r="O31" s="89">
+      <c r="O31" s="64">
         <v>19059</v>
       </c>
-      <c r="P31" s="89">
+      <c r="P31" s="64">
         <v>13766</v>
       </c>
-      <c r="Q31" s="89">
+      <c r="Q31" s="64">
         <v>10457</v>
       </c>
-      <c r="R31" s="89">
+      <c r="R31" s="64">
         <v>6832</v>
       </c>
       <c r="S31" s="64">
         <v>514224</v>
       </c>
-      <c r="T31" s="64"/>
-    </row>
-    <row r="32" spans="1:20" x14ac:dyDescent="0.35">
-      <c r="A32" s="94" t="s">
-        <v>97</v>
-      </c>
-      <c r="B32" s="88" t="s">
+    </row>
+    <row r="32" spans="1:19" s="64" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A32" s="90" t="s">
+        <v>101</v>
+      </c>
+      <c r="B32" s="89" t="s">
         <v>16</v>
       </c>
       <c r="C32" s="64">
@@ -3266,9 +3301,9 @@
         <v>1060626</v>
       </c>
     </row>
-    <row r="33" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A33" s="95"/>
-      <c r="B33" s="88" t="s">
+    <row r="33" spans="1:19" s="64" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A33" s="91"/>
+      <c r="B33" s="89" t="s">
         <v>21</v>
       </c>
       <c r="C33" s="64">
@@ -3323,42 +3358,24 @@
         <v>1</v>
       </c>
     </row>
-    <row r="34" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="D34" s="64"/>
-      <c r="E34" s="64"/>
-      <c r="F34" s="64"/>
-      <c r="G34" s="64"/>
-      <c r="H34" s="64"/>
-      <c r="I34" s="64"/>
-      <c r="J34" s="64"/>
-      <c r="K34" s="64"/>
-      <c r="L34" s="64"/>
-      <c r="M34" s="64"/>
-      <c r="N34" s="64"/>
-      <c r="O34" s="64"/>
-      <c r="P34" s="64"/>
-      <c r="Q34" s="64"/>
-      <c r="R34" s="64"/>
-      <c r="S34" s="64"/>
-    </row>
   </sheetData>
   <mergeCells count="16">
+    <mergeCell ref="A30:A31"/>
+    <mergeCell ref="A32:A33"/>
+    <mergeCell ref="A22:A23"/>
+    <mergeCell ref="A24:A25"/>
+    <mergeCell ref="A26:A27"/>
+    <mergeCell ref="A28:A29"/>
+    <mergeCell ref="A2:A3"/>
+    <mergeCell ref="A4:A5"/>
+    <mergeCell ref="A6:A7"/>
+    <mergeCell ref="A8:A9"/>
+    <mergeCell ref="A10:A11"/>
     <mergeCell ref="A12:A13"/>
     <mergeCell ref="A14:A15"/>
     <mergeCell ref="A16:A17"/>
     <mergeCell ref="A18:A19"/>
     <mergeCell ref="A20:A21"/>
-    <mergeCell ref="A2:A3"/>
-    <mergeCell ref="A4:A5"/>
-    <mergeCell ref="A6:A7"/>
-    <mergeCell ref="A8:A9"/>
-    <mergeCell ref="A10:A11"/>
-    <mergeCell ref="A30:A31"/>
-    <mergeCell ref="A32:A33"/>
-    <mergeCell ref="A26:A27"/>
-    <mergeCell ref="A28:A29"/>
-    <mergeCell ref="A22:A23"/>
-    <mergeCell ref="A24:A25"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -3371,13 +3388,13 @@
   </sheetPr>
   <dimension ref="A1:S129"/>
   <sheetViews>
-    <sheetView topLeftCell="A95" workbookViewId="0">
-      <selection activeCell="A130" sqref="A130"/>
+    <sheetView topLeftCell="A91" workbookViewId="0">
+      <selection activeCell="A114" sqref="A114:S129"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.7265625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>17</v>
       </c>
@@ -3436,8 +3453,8 @@
         <v>16</v>
       </c>
     </row>
-    <row r="2" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A2" s="96" t="s">
+    <row r="2" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A2" s="92" t="s">
         <v>84</v>
       </c>
       <c r="B2" s="44" t="s">
@@ -3495,8 +3512,8 @@
         <v>3.5556276101964039</v>
       </c>
     </row>
-    <row r="3" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A3" s="96"/>
+    <row r="3" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A3" s="92"/>
       <c r="B3" s="44" t="s">
         <v>1</v>
       </c>
@@ -3552,8 +3569,8 @@
         <v>4.075192171590162</v>
       </c>
     </row>
-    <row r="4" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A4" s="96"/>
+    <row r="4" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A4" s="92"/>
       <c r="B4" s="44" t="s">
         <v>2</v>
       </c>
@@ -3609,8 +3626,8 @@
         <v>4.7396457776904901</v>
       </c>
     </row>
-    <row r="5" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A5" s="96"/>
+    <row r="5" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A5" s="92"/>
       <c r="B5" s="44" t="s">
         <v>3</v>
       </c>
@@ -3666,8 +3683,8 @@
         <v>3.868161748467386</v>
       </c>
     </row>
-    <row r="6" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A6" s="96"/>
+    <row r="6" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A6" s="92"/>
       <c r="B6" s="44" t="s">
         <v>4</v>
       </c>
@@ -3723,8 +3740,8 @@
         <v>3.5248755940613341</v>
       </c>
     </row>
-    <row r="7" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A7" s="96"/>
+    <row r="7" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A7" s="92"/>
       <c r="B7" s="44" t="s">
         <v>5</v>
       </c>
@@ -3780,8 +3797,8 @@
         <v>3.3490144595124991</v>
       </c>
     </row>
-    <row r="8" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A8" s="96"/>
+    <row r="8" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A8" s="92"/>
       <c r="B8" s="44" t="s">
         <v>6</v>
       </c>
@@ -3837,8 +3854,8 @@
         <v>3.7467977104190711</v>
       </c>
     </row>
-    <row r="9" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A9" s="96"/>
+    <row r="9" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A9" s="92"/>
       <c r="B9" s="44" t="s">
         <v>7</v>
       </c>
@@ -3894,8 +3911,8 @@
         <v>3.938224225354289</v>
       </c>
     </row>
-    <row r="10" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A10" s="96"/>
+    <row r="10" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A10" s="92"/>
       <c r="B10" s="44" t="s">
         <v>8</v>
       </c>
@@ -3951,8 +3968,8 @@
         <v>3.731347867271007</v>
       </c>
     </row>
-    <row r="11" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A11" s="96"/>
+    <row r="11" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A11" s="92"/>
       <c r="B11" s="44" t="s">
         <v>9</v>
       </c>
@@ -4008,8 +4025,8 @@
         <v>3.4260599489511852</v>
       </c>
     </row>
-    <row r="12" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A12" s="96"/>
+    <row r="12" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A12" s="92"/>
       <c r="B12" s="44" t="s">
         <v>10</v>
       </c>
@@ -4065,8 +4082,8 @@
         <v>3.211800236479764</v>
       </c>
     </row>
-    <row r="13" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A13" s="96"/>
+    <row r="13" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A13" s="92"/>
       <c r="B13" s="44" t="s">
         <v>11</v>
       </c>
@@ -4122,8 +4139,8 @@
         <v>4.0714578517876419</v>
       </c>
     </row>
-    <row r="14" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A14" s="96"/>
+    <row r="14" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A14" s="92"/>
       <c r="B14" s="44" t="s">
         <v>12</v>
       </c>
@@ -4179,8 +4196,8 @@
         <v>3.618724879562039</v>
       </c>
     </row>
-    <row r="15" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A15" s="96"/>
+    <row r="15" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A15" s="92"/>
       <c r="B15" s="44" t="s">
         <v>13</v>
       </c>
@@ -4236,8 +4253,8 @@
         <v>3.8499793687014581</v>
       </c>
     </row>
-    <row r="16" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A16" s="96"/>
+    <row r="16" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A16" s="92"/>
       <c r="B16" s="44" t="s">
         <v>14</v>
       </c>
@@ -4293,8 +4310,8 @@
         <v>3.0678593218973398</v>
       </c>
     </row>
-    <row r="17" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A17" s="96"/>
+    <row r="17" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A17" s="92"/>
       <c r="B17" s="44" t="s">
         <v>15</v>
       </c>
@@ -4350,8 +4367,8 @@
         <v>3.956950215983615</v>
       </c>
     </row>
-    <row r="18" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A18" s="96" t="s">
+    <row r="18" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A18" s="92" t="s">
         <v>88</v>
       </c>
       <c r="B18" s="44" t="s">
@@ -4409,8 +4426,8 @@
         <v>3.5556276101964039</v>
       </c>
     </row>
-    <row r="19" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A19" s="96"/>
+    <row r="19" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A19" s="92"/>
       <c r="B19" s="44" t="s">
         <v>1</v>
       </c>
@@ -4466,8 +4483,8 @@
         <v>4.075192171590162</v>
       </c>
     </row>
-    <row r="20" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A20" s="96"/>
+    <row r="20" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A20" s="92"/>
       <c r="B20" s="44" t="s">
         <v>2</v>
       </c>
@@ -4523,8 +4540,8 @@
         <v>4.7396457776904901</v>
       </c>
     </row>
-    <row r="21" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A21" s="96"/>
+    <row r="21" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A21" s="92"/>
       <c r="B21" s="44" t="s">
         <v>3</v>
       </c>
@@ -4580,8 +4597,8 @@
         <v>3.868161748467386</v>
       </c>
     </row>
-    <row r="22" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A22" s="96"/>
+    <row r="22" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A22" s="92"/>
       <c r="B22" s="44" t="s">
         <v>4</v>
       </c>
@@ -4637,8 +4654,8 @@
         <v>3.5248755940613341</v>
       </c>
     </row>
-    <row r="23" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A23" s="96"/>
+    <row r="23" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A23" s="92"/>
       <c r="B23" s="44" t="s">
         <v>5</v>
       </c>
@@ -4694,8 +4711,8 @@
         <v>3.3490144595124991</v>
       </c>
     </row>
-    <row r="24" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A24" s="96"/>
+    <row r="24" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A24" s="92"/>
       <c r="B24" s="44" t="s">
         <v>6</v>
       </c>
@@ -4751,8 +4768,8 @@
         <v>3.7467977104190711</v>
       </c>
     </row>
-    <row r="25" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A25" s="96"/>
+    <row r="25" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A25" s="92"/>
       <c r="B25" s="44" t="s">
         <v>7</v>
       </c>
@@ -4808,8 +4825,8 @@
         <v>3.938224225354289</v>
       </c>
     </row>
-    <row r="26" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A26" s="96"/>
+    <row r="26" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A26" s="92"/>
       <c r="B26" s="44" t="s">
         <v>8</v>
       </c>
@@ -4865,8 +4882,8 @@
         <v>3.731347867271007</v>
       </c>
     </row>
-    <row r="27" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A27" s="96"/>
+    <row r="27" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A27" s="92"/>
       <c r="B27" s="44" t="s">
         <v>9</v>
       </c>
@@ -4922,8 +4939,8 @@
         <v>3.4260599489511852</v>
       </c>
     </row>
-    <row r="28" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A28" s="96"/>
+    <row r="28" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A28" s="92"/>
       <c r="B28" s="44" t="s">
         <v>10</v>
       </c>
@@ -4979,8 +4996,8 @@
         <v>3.211800236479764</v>
       </c>
     </row>
-    <row r="29" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A29" s="96"/>
+    <row r="29" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A29" s="92"/>
       <c r="B29" s="44" t="s">
         <v>11</v>
       </c>
@@ -5036,8 +5053,8 @@
         <v>4.0714578517876419</v>
       </c>
     </row>
-    <row r="30" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A30" s="96"/>
+    <row r="30" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A30" s="92"/>
       <c r="B30" s="44" t="s">
         <v>12</v>
       </c>
@@ -5093,8 +5110,8 @@
         <v>3.618724879562039</v>
       </c>
     </row>
-    <row r="31" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A31" s="96"/>
+    <row r="31" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A31" s="92"/>
       <c r="B31" s="44" t="s">
         <v>13</v>
       </c>
@@ -5150,8 +5167,8 @@
         <v>3.8499793687014581</v>
       </c>
     </row>
-    <row r="32" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A32" s="96"/>
+    <row r="32" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A32" s="92"/>
       <c r="B32" s="44" t="s">
         <v>14</v>
       </c>
@@ -5207,8 +5224,8 @@
         <v>3.0678593218973398</v>
       </c>
     </row>
-    <row r="33" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A33" s="96"/>
+    <row r="33" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A33" s="92"/>
       <c r="B33" s="44" t="s">
         <v>15</v>
       </c>
@@ -5264,8 +5281,8 @@
         <v>3.956950215983615</v>
       </c>
     </row>
-    <row r="34" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A34" s="96" t="s">
+    <row r="34" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A34" s="92" t="s">
         <v>87</v>
       </c>
       <c r="B34" s="44" t="s">
@@ -5323,8 +5340,8 @@
         <v>3.5556276101964039</v>
       </c>
     </row>
-    <row r="35" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A35" s="96"/>
+    <row r="35" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A35" s="92"/>
       <c r="B35" s="44" t="s">
         <v>1</v>
       </c>
@@ -5380,8 +5397,8 @@
         <v>4.075192171590162</v>
       </c>
     </row>
-    <row r="36" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A36" s="96"/>
+    <row r="36" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A36" s="92"/>
       <c r="B36" s="44" t="s">
         <v>2</v>
       </c>
@@ -5437,8 +5454,8 @@
         <v>4.7396457776904901</v>
       </c>
     </row>
-    <row r="37" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A37" s="96"/>
+    <row r="37" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A37" s="92"/>
       <c r="B37" s="44" t="s">
         <v>3</v>
       </c>
@@ -5494,8 +5511,8 @@
         <v>3.868161748467386</v>
       </c>
     </row>
-    <row r="38" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A38" s="96"/>
+    <row r="38" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A38" s="92"/>
       <c r="B38" s="44" t="s">
         <v>4</v>
       </c>
@@ -5551,8 +5568,8 @@
         <v>3.5248755940613341</v>
       </c>
     </row>
-    <row r="39" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A39" s="96"/>
+    <row r="39" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A39" s="92"/>
       <c r="B39" s="44" t="s">
         <v>5</v>
       </c>
@@ -5608,8 +5625,8 @@
         <v>3.3490144595124991</v>
       </c>
     </row>
-    <row r="40" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A40" s="96"/>
+    <row r="40" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A40" s="92"/>
       <c r="B40" s="44" t="s">
         <v>6</v>
       </c>
@@ -5665,8 +5682,8 @@
         <v>3.7467977104190711</v>
       </c>
     </row>
-    <row r="41" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A41" s="96"/>
+    <row r="41" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A41" s="92"/>
       <c r="B41" s="44" t="s">
         <v>7</v>
       </c>
@@ -5722,8 +5739,8 @@
         <v>3.938224225354289</v>
       </c>
     </row>
-    <row r="42" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A42" s="96"/>
+    <row r="42" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A42" s="92"/>
       <c r="B42" s="44" t="s">
         <v>8</v>
       </c>
@@ -5779,8 +5796,8 @@
         <v>3.731347867271007</v>
       </c>
     </row>
-    <row r="43" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A43" s="96"/>
+    <row r="43" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A43" s="92"/>
       <c r="B43" s="44" t="s">
         <v>9</v>
       </c>
@@ -5836,8 +5853,8 @@
         <v>3.4260599489511852</v>
       </c>
     </row>
-    <row r="44" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A44" s="96"/>
+    <row r="44" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A44" s="92"/>
       <c r="B44" s="44" t="s">
         <v>10</v>
       </c>
@@ -5893,8 +5910,8 @@
         <v>3.211800236479764</v>
       </c>
     </row>
-    <row r="45" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A45" s="96"/>
+    <row r="45" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A45" s="92"/>
       <c r="B45" s="44" t="s">
         <v>11</v>
       </c>
@@ -5950,8 +5967,8 @@
         <v>4.0714578517876419</v>
       </c>
     </row>
-    <row r="46" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A46" s="96"/>
+    <row r="46" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A46" s="92"/>
       <c r="B46" s="44" t="s">
         <v>12</v>
       </c>
@@ -6007,8 +6024,8 @@
         <v>3.618724879562039</v>
       </c>
     </row>
-    <row r="47" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A47" s="96"/>
+    <row r="47" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A47" s="92"/>
       <c r="B47" s="44" t="s">
         <v>13</v>
       </c>
@@ -6064,8 +6081,8 @@
         <v>3.8499793687014581</v>
       </c>
     </row>
-    <row r="48" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A48" s="96"/>
+    <row r="48" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A48" s="92"/>
       <c r="B48" s="44" t="s">
         <v>14</v>
       </c>
@@ -6121,8 +6138,8 @@
         <v>3.0678593218973398</v>
       </c>
     </row>
-    <row r="49" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A49" s="96"/>
+    <row r="49" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A49" s="92"/>
       <c r="B49" s="44" t="s">
         <v>15</v>
       </c>
@@ -6178,8 +6195,8 @@
         <v>3.956950215983615</v>
       </c>
     </row>
-    <row r="50" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A50" s="96" t="s">
+    <row r="50" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A50" s="92" t="s">
         <v>85</v>
       </c>
       <c r="B50" s="44" t="s">
@@ -6237,8 +6254,8 @@
         <v>3.5556276101964039</v>
       </c>
     </row>
-    <row r="51" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A51" s="96"/>
+    <row r="51" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A51" s="92"/>
       <c r="B51" s="44" t="s">
         <v>1</v>
       </c>
@@ -6294,8 +6311,8 @@
         <v>4.075192171590162</v>
       </c>
     </row>
-    <row r="52" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A52" s="96"/>
+    <row r="52" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A52" s="92"/>
       <c r="B52" s="44" t="s">
         <v>2</v>
       </c>
@@ -6351,8 +6368,8 @@
         <v>4.7396457776904901</v>
       </c>
     </row>
-    <row r="53" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A53" s="96"/>
+    <row r="53" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A53" s="92"/>
       <c r="B53" s="44" t="s">
         <v>3</v>
       </c>
@@ -6408,8 +6425,8 @@
         <v>3.868161748467386</v>
       </c>
     </row>
-    <row r="54" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A54" s="96"/>
+    <row r="54" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A54" s="92"/>
       <c r="B54" s="44" t="s">
         <v>4</v>
       </c>
@@ -6465,8 +6482,8 @@
         <v>3.5248755940613341</v>
       </c>
     </row>
-    <row r="55" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A55" s="96"/>
+    <row r="55" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A55" s="92"/>
       <c r="B55" s="44" t="s">
         <v>5</v>
       </c>
@@ -6522,8 +6539,8 @@
         <v>3.3490144595124991</v>
       </c>
     </row>
-    <row r="56" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A56" s="96"/>
+    <row r="56" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A56" s="92"/>
       <c r="B56" s="44" t="s">
         <v>6</v>
       </c>
@@ -6579,8 +6596,8 @@
         <v>3.7467977104190711</v>
       </c>
     </row>
-    <row r="57" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A57" s="96"/>
+    <row r="57" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A57" s="92"/>
       <c r="B57" s="44" t="s">
         <v>7</v>
       </c>
@@ -6636,8 +6653,8 @@
         <v>3.938224225354289</v>
       </c>
     </row>
-    <row r="58" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A58" s="96"/>
+    <row r="58" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A58" s="92"/>
       <c r="B58" s="44" t="s">
         <v>8</v>
       </c>
@@ -6693,8 +6710,8 @@
         <v>3.731347867271007</v>
       </c>
     </row>
-    <row r="59" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A59" s="96"/>
+    <row r="59" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A59" s="92"/>
       <c r="B59" s="44" t="s">
         <v>9</v>
       </c>
@@ -6750,8 +6767,8 @@
         <v>3.4260599489511852</v>
       </c>
     </row>
-    <row r="60" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A60" s="96"/>
+    <row r="60" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A60" s="92"/>
       <c r="B60" s="44" t="s">
         <v>10</v>
       </c>
@@ -6807,8 +6824,8 @@
         <v>3.211800236479764</v>
       </c>
     </row>
-    <row r="61" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A61" s="96"/>
+    <row r="61" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A61" s="92"/>
       <c r="B61" s="44" t="s">
         <v>11</v>
       </c>
@@ -6864,8 +6881,8 @@
         <v>4.0714578517876419</v>
       </c>
     </row>
-    <row r="62" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A62" s="96"/>
+    <row r="62" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A62" s="92"/>
       <c r="B62" s="44" t="s">
         <v>12</v>
       </c>
@@ -6921,8 +6938,8 @@
         <v>3.618724879562039</v>
       </c>
     </row>
-    <row r="63" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A63" s="96"/>
+    <row r="63" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A63" s="92"/>
       <c r="B63" s="44" t="s">
         <v>13</v>
       </c>
@@ -6978,8 +6995,8 @@
         <v>3.8499793687014581</v>
       </c>
     </row>
-    <row r="64" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A64" s="96"/>
+    <row r="64" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A64" s="92"/>
       <c r="B64" s="44" t="s">
         <v>14</v>
       </c>
@@ -7035,8 +7052,8 @@
         <v>3.0678593218973398</v>
       </c>
     </row>
-    <row r="65" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A65" s="96"/>
+    <row r="65" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A65" s="92"/>
       <c r="B65" s="44" t="s">
         <v>15</v>
       </c>
@@ -7092,8 +7109,8 @@
         <v>3.956950215983615</v>
       </c>
     </row>
-    <row r="66" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A66" s="96" t="s">
+    <row r="66" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A66" s="92" t="s">
         <v>86</v>
       </c>
       <c r="B66" s="44" t="s">
@@ -7151,8 +7168,8 @@
         <v>3.5556276101964039</v>
       </c>
     </row>
-    <row r="67" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A67" s="96"/>
+    <row r="67" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A67" s="92"/>
       <c r="B67" s="44" t="s">
         <v>1</v>
       </c>
@@ -7208,8 +7225,8 @@
         <v>4.075192171590162</v>
       </c>
     </row>
-    <row r="68" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A68" s="96"/>
+    <row r="68" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A68" s="92"/>
       <c r="B68" s="44" t="s">
         <v>2</v>
       </c>
@@ -7265,8 +7282,8 @@
         <v>4.7396457776904901</v>
       </c>
     </row>
-    <row r="69" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A69" s="96"/>
+    <row r="69" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A69" s="92"/>
       <c r="B69" s="44" t="s">
         <v>3</v>
       </c>
@@ -7322,8 +7339,8 @@
         <v>3.868161748467386</v>
       </c>
     </row>
-    <row r="70" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A70" s="96"/>
+    <row r="70" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A70" s="92"/>
       <c r="B70" s="44" t="s">
         <v>4</v>
       </c>
@@ -7379,8 +7396,8 @@
         <v>3.5248755940613341</v>
       </c>
     </row>
-    <row r="71" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A71" s="96"/>
+    <row r="71" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A71" s="92"/>
       <c r="B71" s="44" t="s">
         <v>5</v>
       </c>
@@ -7436,8 +7453,8 @@
         <v>3.3490144595124991</v>
       </c>
     </row>
-    <row r="72" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A72" s="96"/>
+    <row r="72" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A72" s="92"/>
       <c r="B72" s="44" t="s">
         <v>6</v>
       </c>
@@ -7493,8 +7510,8 @@
         <v>3.7467977104190711</v>
       </c>
     </row>
-    <row r="73" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A73" s="96"/>
+    <row r="73" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A73" s="92"/>
       <c r="B73" s="44" t="s">
         <v>7</v>
       </c>
@@ -7550,8 +7567,8 @@
         <v>3.938224225354289</v>
       </c>
     </row>
-    <row r="74" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A74" s="96"/>
+    <row r="74" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A74" s="92"/>
       <c r="B74" s="44" t="s">
         <v>8</v>
       </c>
@@ -7607,8 +7624,8 @@
         <v>3.731347867271007</v>
       </c>
     </row>
-    <row r="75" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A75" s="96"/>
+    <row r="75" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A75" s="92"/>
       <c r="B75" s="44" t="s">
         <v>9</v>
       </c>
@@ -7664,8 +7681,8 @@
         <v>3.4260599489511852</v>
       </c>
     </row>
-    <row r="76" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A76" s="96"/>
+    <row r="76" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A76" s="92"/>
       <c r="B76" s="44" t="s">
         <v>10</v>
       </c>
@@ -7721,8 +7738,8 @@
         <v>3.211800236479764</v>
       </c>
     </row>
-    <row r="77" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A77" s="96"/>
+    <row r="77" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A77" s="92"/>
       <c r="B77" s="44" t="s">
         <v>11</v>
       </c>
@@ -7778,8 +7795,8 @@
         <v>4.0714578517876419</v>
       </c>
     </row>
-    <row r="78" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A78" s="96"/>
+    <row r="78" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A78" s="92"/>
       <c r="B78" s="44" t="s">
         <v>12</v>
       </c>
@@ -7835,8 +7852,8 @@
         <v>3.618724879562039</v>
       </c>
     </row>
-    <row r="79" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A79" s="96"/>
+    <row r="79" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A79" s="92"/>
       <c r="B79" s="44" t="s">
         <v>13</v>
       </c>
@@ -7892,8 +7909,8 @@
         <v>3.8499793687014581</v>
       </c>
     </row>
-    <row r="80" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A80" s="96"/>
+    <row r="80" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A80" s="92"/>
       <c r="B80" s="44" t="s">
         <v>14</v>
       </c>
@@ -7949,8 +7966,8 @@
         <v>3.0678593218973398</v>
       </c>
     </row>
-    <row r="81" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A81" s="96"/>
+    <row r="81" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A81" s="92"/>
       <c r="B81" s="44" t="s">
         <v>15</v>
       </c>
@@ -8006,8 +8023,8 @@
         <v>3.956950215983615</v>
       </c>
     </row>
-    <row r="82" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A82" s="96" t="s">
+    <row r="82" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A82" s="92" t="s">
         <v>96</v>
       </c>
       <c r="B82" s="87" t="s">
@@ -8065,8 +8082,8 @@
         <v>3.5556276101964039</v>
       </c>
     </row>
-    <row r="83" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A83" s="96"/>
+    <row r="83" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A83" s="92"/>
       <c r="B83" s="87" t="s">
         <v>1</v>
       </c>
@@ -8122,8 +8139,8 @@
         <v>4.075192171590162</v>
       </c>
     </row>
-    <row r="84" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A84" s="96"/>
+    <row r="84" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A84" s="92"/>
       <c r="B84" s="87" t="s">
         <v>2</v>
       </c>
@@ -8179,8 +8196,8 @@
         <v>4.7396457776904901</v>
       </c>
     </row>
-    <row r="85" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A85" s="96"/>
+    <row r="85" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A85" s="92"/>
       <c r="B85" s="87" t="s">
         <v>3</v>
       </c>
@@ -8236,8 +8253,8 @@
         <v>3.868161748467386</v>
       </c>
     </row>
-    <row r="86" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A86" s="96"/>
+    <row r="86" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A86" s="92"/>
       <c r="B86" s="87" t="s">
         <v>4</v>
       </c>
@@ -8293,8 +8310,8 @@
         <v>3.5248755940613341</v>
       </c>
     </row>
-    <row r="87" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A87" s="96"/>
+    <row r="87" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A87" s="92"/>
       <c r="B87" s="87" t="s">
         <v>5</v>
       </c>
@@ -8350,8 +8367,8 @@
         <v>3.3490144595124991</v>
       </c>
     </row>
-    <row r="88" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A88" s="96"/>
+    <row r="88" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A88" s="92"/>
       <c r="B88" s="87" t="s">
         <v>6</v>
       </c>
@@ -8407,8 +8424,8 @@
         <v>3.7467977104190711</v>
       </c>
     </row>
-    <row r="89" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A89" s="96"/>
+    <row r="89" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A89" s="92"/>
       <c r="B89" s="87" t="s">
         <v>7</v>
       </c>
@@ -8464,8 +8481,8 @@
         <v>3.938224225354289</v>
       </c>
     </row>
-    <row r="90" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A90" s="96"/>
+    <row r="90" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A90" s="92"/>
       <c r="B90" s="87" t="s">
         <v>8</v>
       </c>
@@ -8521,8 +8538,8 @@
         <v>3.731347867271007</v>
       </c>
     </row>
-    <row r="91" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A91" s="96"/>
+    <row r="91" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A91" s="92"/>
       <c r="B91" s="87" t="s">
         <v>9</v>
       </c>
@@ -8578,8 +8595,8 @@
         <v>3.4260599489511852</v>
       </c>
     </row>
-    <row r="92" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A92" s="96"/>
+    <row r="92" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A92" s="92"/>
       <c r="B92" s="87" t="s">
         <v>10</v>
       </c>
@@ -8635,8 +8652,8 @@
         <v>3.211800236479764</v>
       </c>
     </row>
-    <row r="93" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A93" s="96"/>
+    <row r="93" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A93" s="92"/>
       <c r="B93" s="87" t="s">
         <v>11</v>
       </c>
@@ -8692,8 +8709,8 @@
         <v>4.0714578517876419</v>
       </c>
     </row>
-    <row r="94" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A94" s="96"/>
+    <row r="94" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A94" s="92"/>
       <c r="B94" s="87" t="s">
         <v>12</v>
       </c>
@@ -8749,8 +8766,8 @@
         <v>3.618724879562039</v>
       </c>
     </row>
-    <row r="95" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A95" s="96"/>
+    <row r="95" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A95" s="92"/>
       <c r="B95" s="87" t="s">
         <v>13</v>
       </c>
@@ -8806,8 +8823,8 @@
         <v>3.8499793687014581</v>
       </c>
     </row>
-    <row r="96" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A96" s="96"/>
+    <row r="96" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A96" s="92"/>
       <c r="B96" s="87" t="s">
         <v>14</v>
       </c>
@@ -8863,8 +8880,8 @@
         <v>3.0678593218973398</v>
       </c>
     </row>
-    <row r="97" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A97" s="96"/>
+    <row r="97" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A97" s="92"/>
       <c r="B97" s="87" t="s">
         <v>15</v>
       </c>
@@ -8920,8 +8937,8 @@
         <v>3.956950215983615</v>
       </c>
     </row>
-    <row r="98" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A98" s="96" t="s">
+    <row r="98" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A98" s="92" t="s">
         <v>95</v>
       </c>
       <c r="B98" s="87" t="s">
@@ -8979,8 +8996,8 @@
         <v>3.5556276101964039</v>
       </c>
     </row>
-    <row r="99" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A99" s="96"/>
+    <row r="99" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A99" s="92"/>
       <c r="B99" s="87" t="s">
         <v>1</v>
       </c>
@@ -9036,8 +9053,8 @@
         <v>4.075192171590162</v>
       </c>
     </row>
-    <row r="100" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A100" s="96"/>
+    <row r="100" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A100" s="92"/>
       <c r="B100" s="87" t="s">
         <v>2</v>
       </c>
@@ -9093,8 +9110,8 @@
         <v>4.7396457776904901</v>
       </c>
     </row>
-    <row r="101" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A101" s="96"/>
+    <row r="101" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A101" s="92"/>
       <c r="B101" s="87" t="s">
         <v>3</v>
       </c>
@@ -9150,8 +9167,8 @@
         <v>3.868161748467386</v>
       </c>
     </row>
-    <row r="102" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A102" s="96"/>
+    <row r="102" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A102" s="92"/>
       <c r="B102" s="87" t="s">
         <v>4</v>
       </c>
@@ -9207,8 +9224,8 @@
         <v>3.5248755940613341</v>
       </c>
     </row>
-    <row r="103" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A103" s="96"/>
+    <row r="103" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A103" s="92"/>
       <c r="B103" s="87" t="s">
         <v>5</v>
       </c>
@@ -9264,8 +9281,8 @@
         <v>3.3490144595124991</v>
       </c>
     </row>
-    <row r="104" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A104" s="96"/>
+    <row r="104" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A104" s="92"/>
       <c r="B104" s="87" t="s">
         <v>6</v>
       </c>
@@ -9321,8 +9338,8 @@
         <v>3.7467977104190711</v>
       </c>
     </row>
-    <row r="105" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A105" s="96"/>
+    <row r="105" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A105" s="92"/>
       <c r="B105" s="87" t="s">
         <v>7</v>
       </c>
@@ -9378,8 +9395,8 @@
         <v>3.938224225354289</v>
       </c>
     </row>
-    <row r="106" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A106" s="96"/>
+    <row r="106" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A106" s="92"/>
       <c r="B106" s="87" t="s">
         <v>8</v>
       </c>
@@ -9435,8 +9452,8 @@
         <v>3.731347867271007</v>
       </c>
     </row>
-    <row r="107" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A107" s="96"/>
+    <row r="107" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A107" s="92"/>
       <c r="B107" s="87" t="s">
         <v>9</v>
       </c>
@@ -9492,8 +9509,8 @@
         <v>3.4260599489511852</v>
       </c>
     </row>
-    <row r="108" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A108" s="96"/>
+    <row r="108" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A108" s="92"/>
       <c r="B108" s="87" t="s">
         <v>10</v>
       </c>
@@ -9549,8 +9566,8 @@
         <v>3.211800236479764</v>
       </c>
     </row>
-    <row r="109" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A109" s="96"/>
+    <row r="109" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A109" s="92"/>
       <c r="B109" s="87" t="s">
         <v>11</v>
       </c>
@@ -9606,8 +9623,8 @@
         <v>4.0714578517876419</v>
       </c>
     </row>
-    <row r="110" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A110" s="96"/>
+    <row r="110" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A110" s="92"/>
       <c r="B110" s="87" t="s">
         <v>12</v>
       </c>
@@ -9663,8 +9680,8 @@
         <v>3.618724879562039</v>
       </c>
     </row>
-    <row r="111" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A111" s="96"/>
+    <row r="111" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A111" s="92"/>
       <c r="B111" s="87" t="s">
         <v>13</v>
       </c>
@@ -9720,8 +9737,8 @@
         <v>3.8499793687014581</v>
       </c>
     </row>
-    <row r="112" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A112" s="96"/>
+    <row r="112" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A112" s="92"/>
       <c r="B112" s="87" t="s">
         <v>14</v>
       </c>
@@ -9777,8 +9794,8 @@
         <v>3.0678593218973398</v>
       </c>
     </row>
-    <row r="113" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A113" s="96"/>
+    <row r="113" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A113" s="92"/>
       <c r="B113" s="87" t="s">
         <v>15</v>
       </c>
@@ -9834,11 +9851,11 @@
         <v>3.956950215983615</v>
       </c>
     </row>
-    <row r="114" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A114" s="96" t="s">
-        <v>97</v>
-      </c>
-      <c r="B114" s="88" t="s">
+    <row r="114" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A114" s="92" t="s">
+        <v>101</v>
+      </c>
+      <c r="B114" s="89" t="s">
         <v>0</v>
       </c>
       <c r="C114" s="64">
@@ -9893,9 +9910,9 @@
         <v>3.5556276101964039</v>
       </c>
     </row>
-    <row r="115" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A115" s="96"/>
-      <c r="B115" s="88" t="s">
+    <row r="115" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A115" s="92"/>
+      <c r="B115" s="89" t="s">
         <v>1</v>
       </c>
       <c r="C115" s="64">
@@ -9950,9 +9967,9 @@
         <v>4.075192171590162</v>
       </c>
     </row>
-    <row r="116" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A116" s="96"/>
-      <c r="B116" s="88" t="s">
+    <row r="116" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A116" s="92"/>
+      <c r="B116" s="89" t="s">
         <v>2</v>
       </c>
       <c r="C116" s="64">
@@ -10007,9 +10024,9 @@
         <v>4.7396457776904901</v>
       </c>
     </row>
-    <row r="117" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A117" s="96"/>
-      <c r="B117" s="88" t="s">
+    <row r="117" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A117" s="92"/>
+      <c r="B117" s="89" t="s">
         <v>3</v>
       </c>
       <c r="C117" s="64">
@@ -10064,9 +10081,9 @@
         <v>3.868161748467386</v>
       </c>
     </row>
-    <row r="118" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A118" s="96"/>
-      <c r="B118" s="88" t="s">
+    <row r="118" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A118" s="92"/>
+      <c r="B118" s="89" t="s">
         <v>4</v>
       </c>
       <c r="C118" s="64">
@@ -10121,9 +10138,9 @@
         <v>3.5248755940613341</v>
       </c>
     </row>
-    <row r="119" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A119" s="96"/>
-      <c r="B119" s="88" t="s">
+    <row r="119" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A119" s="92"/>
+      <c r="B119" s="89" t="s">
         <v>5</v>
       </c>
       <c r="C119" s="64">
@@ -10178,9 +10195,9 @@
         <v>3.3490144595124991</v>
       </c>
     </row>
-    <row r="120" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A120" s="96"/>
-      <c r="B120" s="88" t="s">
+    <row r="120" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A120" s="92"/>
+      <c r="B120" s="89" t="s">
         <v>6</v>
       </c>
       <c r="C120" s="64">
@@ -10235,9 +10252,9 @@
         <v>3.7467977104190711</v>
       </c>
     </row>
-    <row r="121" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A121" s="96"/>
-      <c r="B121" s="88" t="s">
+    <row r="121" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A121" s="92"/>
+      <c r="B121" s="89" t="s">
         <v>7</v>
       </c>
       <c r="C121" s="64">
@@ -10292,9 +10309,9 @@
         <v>3.938224225354289</v>
       </c>
     </row>
-    <row r="122" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A122" s="96"/>
-      <c r="B122" s="88" t="s">
+    <row r="122" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A122" s="92"/>
+      <c r="B122" s="89" t="s">
         <v>8</v>
       </c>
       <c r="C122" s="64">
@@ -10349,9 +10366,9 @@
         <v>3.731347867271007</v>
       </c>
     </row>
-    <row r="123" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A123" s="96"/>
-      <c r="B123" s="88" t="s">
+    <row r="123" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A123" s="92"/>
+      <c r="B123" s="89" t="s">
         <v>9</v>
       </c>
       <c r="C123" s="64">
@@ -10406,9 +10423,9 @@
         <v>3.4260599489511852</v>
       </c>
     </row>
-    <row r="124" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A124" s="96"/>
-      <c r="B124" s="88" t="s">
+    <row r="124" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A124" s="92"/>
+      <c r="B124" s="89" t="s">
         <v>10</v>
       </c>
       <c r="C124" s="64">
@@ -10463,9 +10480,9 @@
         <v>3.211800236479764</v>
       </c>
     </row>
-    <row r="125" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A125" s="96"/>
-      <c r="B125" s="88" t="s">
+    <row r="125" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A125" s="92"/>
+      <c r="B125" s="89" t="s">
         <v>11</v>
       </c>
       <c r="C125" s="64">
@@ -10520,9 +10537,9 @@
         <v>4.0714578517876419</v>
       </c>
     </row>
-    <row r="126" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A126" s="96"/>
-      <c r="B126" s="88" t="s">
+    <row r="126" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A126" s="92"/>
+      <c r="B126" s="89" t="s">
         <v>12</v>
       </c>
       <c r="C126" s="64">
@@ -10577,9 +10594,9 @@
         <v>3.618724879562039</v>
       </c>
     </row>
-    <row r="127" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A127" s="96"/>
-      <c r="B127" s="88" t="s">
+    <row r="127" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A127" s="92"/>
+      <c r="B127" s="89" t="s">
         <v>13</v>
       </c>
       <c r="C127" s="64">
@@ -10634,9 +10651,9 @@
         <v>3.8499793687014581</v>
       </c>
     </row>
-    <row r="128" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A128" s="96"/>
-      <c r="B128" s="88" t="s">
+    <row r="128" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A128" s="92"/>
+      <c r="B128" s="89" t="s">
         <v>14</v>
       </c>
       <c r="C128" s="64">
@@ -10691,9 +10708,9 @@
         <v>3.0678593218973398</v>
       </c>
     </row>
-    <row r="129" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A129" s="96"/>
-      <c r="B129" s="88" t="s">
+    <row r="129" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A129" s="92"/>
+      <c r="B129" s="89" t="s">
         <v>15</v>
       </c>
       <c r="C129" s="64">
@@ -10770,13 +10787,13 @@
   </sheetPr>
   <dimension ref="A1:S129"/>
   <sheetViews>
-    <sheetView topLeftCell="A92" workbookViewId="0">
-      <selection activeCell="A130" sqref="A130"/>
+    <sheetView topLeftCell="A90" workbookViewId="0">
+      <selection activeCell="A114" sqref="A114:S129"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.7265625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>17</v>
       </c>
@@ -10835,8 +10852,8 @@
         <v>16</v>
       </c>
     </row>
-    <row r="2" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A2" s="96" t="s">
+    <row r="2" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A2" s="92" t="s">
         <v>84</v>
       </c>
       <c r="B2" s="44" t="s">
@@ -10894,8 +10911,8 @@
         <v>0.52797766266477753</v>
       </c>
     </row>
-    <row r="3" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A3" s="96"/>
+    <row r="3" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A3" s="92"/>
       <c r="B3" s="44" t="s">
         <v>1</v>
       </c>
@@ -10951,8 +10968,8 @@
         <v>5.7259290593108991</v>
       </c>
     </row>
-    <row r="4" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A4" s="96"/>
+    <row r="4" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A4" s="92"/>
       <c r="B4" s="44" t="s">
         <v>2</v>
       </c>
@@ -11008,8 +11025,8 @@
         <v>7.8199355129401082</v>
       </c>
     </row>
-    <row r="5" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A5" s="96"/>
+    <row r="5" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A5" s="92"/>
       <c r="B5" s="44" t="s">
         <v>3</v>
       </c>
@@ -11065,8 +11082,8 @@
         <v>9.8624500768836381</v>
       </c>
     </row>
-    <row r="6" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A6" s="96"/>
+    <row r="6" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A6" s="92"/>
       <c r="B6" s="44" t="s">
         <v>4</v>
       </c>
@@ -11122,8 +11139,8 @@
         <v>1.5490882337642491</v>
       </c>
     </row>
-    <row r="7" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A7" s="96"/>
+    <row r="7" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A7" s="92"/>
       <c r="B7" s="44" t="s">
         <v>5</v>
       </c>
@@ -11179,8 +11196,8 @@
         <v>0.98230501847483154</v>
       </c>
     </row>
-    <row r="8" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A8" s="96"/>
+    <row r="8" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A8" s="92"/>
       <c r="B8" s="44" t="s">
         <v>6</v>
       </c>
@@ -11236,8 +11253,8 @@
         <v>1.2079505472483409</v>
       </c>
     </row>
-    <row r="9" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A9" s="96"/>
+    <row r="9" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A9" s="92"/>
       <c r="B9" s="44" t="s">
         <v>7</v>
       </c>
@@ -11293,8 +11310,8 @@
         <v>0.76615061679036445</v>
       </c>
     </row>
-    <row r="10" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A10" s="96"/>
+    <row r="10" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A10" s="92"/>
       <c r="B10" s="44" t="s">
         <v>8</v>
       </c>
@@ -11350,8 +11367,8 @@
         <v>0.8117989654686979</v>
       </c>
     </row>
-    <row r="11" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A11" s="96"/>
+    <row r="11" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A11" s="92"/>
       <c r="B11" s="44" t="s">
         <v>9</v>
       </c>
@@ -11407,8 +11424,8 @@
         <v>1.2542390005957991</v>
       </c>
     </row>
-    <row r="12" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A12" s="96"/>
+    <row r="12" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A12" s="92"/>
       <c r="B12" s="44" t="s">
         <v>10</v>
       </c>
@@ -11464,8 +11481,8 @@
         <v>1.517017436814347</v>
       </c>
     </row>
-    <row r="13" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A13" s="96"/>
+    <row r="13" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A13" s="92"/>
       <c r="B13" s="44" t="s">
         <v>11</v>
       </c>
@@ -11521,8 +11538,8 @@
         <v>1.1625832763909489</v>
       </c>
     </row>
-    <row r="14" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A14" s="96"/>
+    <row r="14" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A14" s="92"/>
       <c r="B14" s="44" t="s">
         <v>12</v>
       </c>
@@ -11578,8 +11595,8 @@
         <v>0.41597114013359082</v>
       </c>
     </row>
-    <row r="15" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A15" s="96"/>
+    <row r="15" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A15" s="92"/>
       <c r="B15" s="44" t="s">
         <v>13</v>
       </c>
@@ -11635,8 +11652,8 @@
         <v>0.1288801191616884</v>
       </c>
     </row>
-    <row r="16" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A16" s="96"/>
+    <row r="16" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A16" s="92"/>
       <c r="B16" s="44" t="s">
         <v>14</v>
       </c>
@@ -11692,8 +11709,8 @@
         <v>0.14592281874424709</v>
       </c>
     </row>
-    <row r="17" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A17" s="96"/>
+    <row r="17" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A17" s="92"/>
       <c r="B17" s="44" t="s">
         <v>15</v>
       </c>
@@ -11749,8 +11766,8 @@
         <v>4.9982126694369827E-2</v>
       </c>
     </row>
-    <row r="18" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A18" s="96" t="s">
+    <row r="18" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A18" s="92" t="s">
         <v>88</v>
       </c>
       <c r="B18" s="44" t="s">
@@ -11808,8 +11825,8 @@
         <v>0.52797766266477753</v>
       </c>
     </row>
-    <row r="19" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A19" s="96"/>
+    <row r="19" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A19" s="92"/>
       <c r="B19" s="44" t="s">
         <v>1</v>
       </c>
@@ -11865,8 +11882,8 @@
         <v>5.7259290593108991</v>
       </c>
     </row>
-    <row r="20" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A20" s="96"/>
+    <row r="20" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A20" s="92"/>
       <c r="B20" s="44" t="s">
         <v>2</v>
       </c>
@@ -11922,8 +11939,8 @@
         <v>7.8199355129401082</v>
       </c>
     </row>
-    <row r="21" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A21" s="96"/>
+    <row r="21" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A21" s="92"/>
       <c r="B21" s="44" t="s">
         <v>3</v>
       </c>
@@ -11979,8 +11996,8 @@
         <v>9.8624500768836381</v>
       </c>
     </row>
-    <row r="22" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A22" s="96"/>
+    <row r="22" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A22" s="92"/>
       <c r="B22" s="44" t="s">
         <v>4</v>
       </c>
@@ -12036,8 +12053,8 @@
         <v>1.5490882337642491</v>
       </c>
     </row>
-    <row r="23" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A23" s="96"/>
+    <row r="23" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A23" s="92"/>
       <c r="B23" s="44" t="s">
         <v>5</v>
       </c>
@@ -12093,8 +12110,8 @@
         <v>0.98230501847483154</v>
       </c>
     </row>
-    <row r="24" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A24" s="96"/>
+    <row r="24" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A24" s="92"/>
       <c r="B24" s="44" t="s">
         <v>6</v>
       </c>
@@ -12150,8 +12167,8 @@
         <v>1.2079505472483409</v>
       </c>
     </row>
-    <row r="25" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A25" s="96"/>
+    <row r="25" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A25" s="92"/>
       <c r="B25" s="44" t="s">
         <v>7</v>
       </c>
@@ -12207,8 +12224,8 @@
         <v>0.76615061679036445</v>
       </c>
     </row>
-    <row r="26" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A26" s="96"/>
+    <row r="26" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A26" s="92"/>
       <c r="B26" s="44" t="s">
         <v>8</v>
       </c>
@@ -12264,8 +12281,8 @@
         <v>0.8117989654686979</v>
       </c>
     </row>
-    <row r="27" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A27" s="96"/>
+    <row r="27" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A27" s="92"/>
       <c r="B27" s="44" t="s">
         <v>9</v>
       </c>
@@ -12321,8 +12338,8 @@
         <v>1.2542390005957991</v>
       </c>
     </row>
-    <row r="28" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A28" s="96"/>
+    <row r="28" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A28" s="92"/>
       <c r="B28" s="44" t="s">
         <v>10</v>
       </c>
@@ -12378,8 +12395,8 @@
         <v>1.517017436814347</v>
       </c>
     </row>
-    <row r="29" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A29" s="96"/>
+    <row r="29" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A29" s="92"/>
       <c r="B29" s="44" t="s">
         <v>11</v>
       </c>
@@ -12435,8 +12452,8 @@
         <v>1.1625832763909489</v>
       </c>
     </row>
-    <row r="30" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A30" s="96"/>
+    <row r="30" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A30" s="92"/>
       <c r="B30" s="44" t="s">
         <v>12</v>
       </c>
@@ -12492,8 +12509,8 @@
         <v>0.41597114013359082</v>
       </c>
     </row>
-    <row r="31" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A31" s="96"/>
+    <row r="31" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A31" s="92"/>
       <c r="B31" s="44" t="s">
         <v>13</v>
       </c>
@@ -12549,8 +12566,8 @@
         <v>0.1288801191616884</v>
       </c>
     </row>
-    <row r="32" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A32" s="96"/>
+    <row r="32" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A32" s="92"/>
       <c r="B32" s="44" t="s">
         <v>14</v>
       </c>
@@ -12606,8 +12623,8 @@
         <v>0.14592281874424709</v>
       </c>
     </row>
-    <row r="33" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A33" s="96"/>
+    <row r="33" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A33" s="92"/>
       <c r="B33" s="44" t="s">
         <v>15</v>
       </c>
@@ -12663,8 +12680,8 @@
         <v>4.9982126694369827E-2</v>
       </c>
     </row>
-    <row r="34" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A34" s="96" t="s">
+    <row r="34" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A34" s="92" t="s">
         <v>87</v>
       </c>
       <c r="B34" s="44" t="s">
@@ -12722,8 +12739,8 @@
         <v>0.52797766266477753</v>
       </c>
     </row>
-    <row r="35" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A35" s="96"/>
+    <row r="35" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A35" s="92"/>
       <c r="B35" s="44" t="s">
         <v>1</v>
       </c>
@@ -12779,8 +12796,8 @@
         <v>5.7259290593108991</v>
       </c>
     </row>
-    <row r="36" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A36" s="96"/>
+    <row r="36" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A36" s="92"/>
       <c r="B36" s="44" t="s">
         <v>2</v>
       </c>
@@ -12836,8 +12853,8 @@
         <v>7.8199355129401082</v>
       </c>
     </row>
-    <row r="37" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A37" s="96"/>
+    <row r="37" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A37" s="92"/>
       <c r="B37" s="44" t="s">
         <v>3</v>
       </c>
@@ -12893,8 +12910,8 @@
         <v>9.8624500768836381</v>
       </c>
     </row>
-    <row r="38" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A38" s="96"/>
+    <row r="38" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A38" s="92"/>
       <c r="B38" s="44" t="s">
         <v>4</v>
       </c>
@@ -12950,8 +12967,8 @@
         <v>1.5490882337642491</v>
       </c>
     </row>
-    <row r="39" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A39" s="96"/>
+    <row r="39" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A39" s="92"/>
       <c r="B39" s="44" t="s">
         <v>5</v>
       </c>
@@ -13007,8 +13024,8 @@
         <v>0.98230501847483154</v>
       </c>
     </row>
-    <row r="40" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A40" s="96"/>
+    <row r="40" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A40" s="92"/>
       <c r="B40" s="44" t="s">
         <v>6</v>
       </c>
@@ -13064,8 +13081,8 @@
         <v>1.2079505472483409</v>
       </c>
     </row>
-    <row r="41" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A41" s="96"/>
+    <row r="41" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A41" s="92"/>
       <c r="B41" s="44" t="s">
         <v>7</v>
       </c>
@@ -13121,8 +13138,8 @@
         <v>0.76615061679036445</v>
       </c>
     </row>
-    <row r="42" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A42" s="96"/>
+    <row r="42" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A42" s="92"/>
       <c r="B42" s="44" t="s">
         <v>8</v>
       </c>
@@ -13178,8 +13195,8 @@
         <v>0.8117989654686979</v>
       </c>
     </row>
-    <row r="43" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A43" s="96"/>
+    <row r="43" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A43" s="92"/>
       <c r="B43" s="44" t="s">
         <v>9</v>
       </c>
@@ -13235,8 +13252,8 @@
         <v>1.2542390005957991</v>
       </c>
     </row>
-    <row r="44" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A44" s="96"/>
+    <row r="44" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A44" s="92"/>
       <c r="B44" s="44" t="s">
         <v>10</v>
       </c>
@@ -13292,8 +13309,8 @@
         <v>1.517017436814347</v>
       </c>
     </row>
-    <row r="45" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A45" s="96"/>
+    <row r="45" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A45" s="92"/>
       <c r="B45" s="44" t="s">
         <v>11</v>
       </c>
@@ -13349,8 +13366,8 @@
         <v>1.1625832763909489</v>
       </c>
     </row>
-    <row r="46" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A46" s="96"/>
+    <row r="46" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A46" s="92"/>
       <c r="B46" s="44" t="s">
         <v>12</v>
       </c>
@@ -13406,8 +13423,8 @@
         <v>0.41597114013359082</v>
       </c>
     </row>
-    <row r="47" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A47" s="96"/>
+    <row r="47" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A47" s="92"/>
       <c r="B47" s="44" t="s">
         <v>13</v>
       </c>
@@ -13463,8 +13480,8 @@
         <v>0.1288801191616884</v>
       </c>
     </row>
-    <row r="48" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A48" s="96"/>
+    <row r="48" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A48" s="92"/>
       <c r="B48" s="44" t="s">
         <v>14</v>
       </c>
@@ -13520,8 +13537,8 @@
         <v>0.14592281874424709</v>
       </c>
     </row>
-    <row r="49" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A49" s="96"/>
+    <row r="49" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A49" s="92"/>
       <c r="B49" s="44" t="s">
         <v>15</v>
       </c>
@@ -13577,8 +13594,8 @@
         <v>4.9982126694369827E-2</v>
       </c>
     </row>
-    <row r="50" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A50" s="96" t="s">
+    <row r="50" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A50" s="92" t="s">
         <v>85</v>
       </c>
       <c r="B50" s="44" t="s">
@@ -13636,8 +13653,8 @@
         <v>0.52797766266477753</v>
       </c>
     </row>
-    <row r="51" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A51" s="96"/>
+    <row r="51" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A51" s="92"/>
       <c r="B51" s="44" t="s">
         <v>1</v>
       </c>
@@ -13693,8 +13710,8 @@
         <v>5.7259290593108991</v>
       </c>
     </row>
-    <row r="52" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A52" s="96"/>
+    <row r="52" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A52" s="92"/>
       <c r="B52" s="44" t="s">
         <v>2</v>
       </c>
@@ -13750,8 +13767,8 @@
         <v>7.8199355129401082</v>
       </c>
     </row>
-    <row r="53" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A53" s="96"/>
+    <row r="53" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A53" s="92"/>
       <c r="B53" s="44" t="s">
         <v>3</v>
       </c>
@@ -13807,8 +13824,8 @@
         <v>9.8624500768836381</v>
       </c>
     </row>
-    <row r="54" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A54" s="96"/>
+    <row r="54" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A54" s="92"/>
       <c r="B54" s="44" t="s">
         <v>4</v>
       </c>
@@ -13864,8 +13881,8 @@
         <v>1.5490882337642491</v>
       </c>
     </row>
-    <row r="55" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A55" s="96"/>
+    <row r="55" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A55" s="92"/>
       <c r="B55" s="44" t="s">
         <v>5</v>
       </c>
@@ -13921,8 +13938,8 @@
         <v>0.98230501847483154</v>
       </c>
     </row>
-    <row r="56" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A56" s="96"/>
+    <row r="56" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A56" s="92"/>
       <c r="B56" s="44" t="s">
         <v>6</v>
       </c>
@@ -13978,8 +13995,8 @@
         <v>1.2079505472483409</v>
       </c>
     </row>
-    <row r="57" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A57" s="96"/>
+    <row r="57" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A57" s="92"/>
       <c r="B57" s="44" t="s">
         <v>7</v>
       </c>
@@ -14035,8 +14052,8 @@
         <v>0.76615061679036445</v>
       </c>
     </row>
-    <row r="58" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A58" s="96"/>
+    <row r="58" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A58" s="92"/>
       <c r="B58" s="44" t="s">
         <v>8</v>
       </c>
@@ -14092,8 +14109,8 @@
         <v>0.8117989654686979</v>
       </c>
     </row>
-    <row r="59" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A59" s="96"/>
+    <row r="59" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A59" s="92"/>
       <c r="B59" s="44" t="s">
         <v>9</v>
       </c>
@@ -14149,8 +14166,8 @@
         <v>1.2542390005957991</v>
       </c>
     </row>
-    <row r="60" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A60" s="96"/>
+    <row r="60" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A60" s="92"/>
       <c r="B60" s="44" t="s">
         <v>10</v>
       </c>
@@ -14206,8 +14223,8 @@
         <v>1.517017436814347</v>
       </c>
     </row>
-    <row r="61" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A61" s="96"/>
+    <row r="61" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A61" s="92"/>
       <c r="B61" s="44" t="s">
         <v>11</v>
       </c>
@@ -14263,8 +14280,8 @@
         <v>1.1625832763909489</v>
       </c>
     </row>
-    <row r="62" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A62" s="96"/>
+    <row r="62" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A62" s="92"/>
       <c r="B62" s="44" t="s">
         <v>12</v>
       </c>
@@ -14320,8 +14337,8 @@
         <v>0.41597114013359082</v>
       </c>
     </row>
-    <row r="63" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A63" s="96"/>
+    <row r="63" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A63" s="92"/>
       <c r="B63" s="44" t="s">
         <v>13</v>
       </c>
@@ -14377,8 +14394,8 @@
         <v>0.1288801191616884</v>
       </c>
     </row>
-    <row r="64" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A64" s="96"/>
+    <row r="64" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A64" s="92"/>
       <c r="B64" s="44" t="s">
         <v>14</v>
       </c>
@@ -14434,8 +14451,8 @@
         <v>0.14592281874424709</v>
       </c>
     </row>
-    <row r="65" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A65" s="96"/>
+    <row r="65" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A65" s="92"/>
       <c r="B65" s="44" t="s">
         <v>15</v>
       </c>
@@ -14491,8 +14508,8 @@
         <v>4.9982126694369827E-2</v>
       </c>
     </row>
-    <row r="66" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A66" s="96" t="s">
+    <row r="66" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A66" s="92" t="s">
         <v>86</v>
       </c>
       <c r="B66" s="44" t="s">
@@ -14550,8 +14567,8 @@
         <v>0.52797766266477753</v>
       </c>
     </row>
-    <row r="67" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A67" s="96"/>
+    <row r="67" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A67" s="92"/>
       <c r="B67" s="44" t="s">
         <v>1</v>
       </c>
@@ -14607,8 +14624,8 @@
         <v>5.7259290593108991</v>
       </c>
     </row>
-    <row r="68" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A68" s="96"/>
+    <row r="68" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A68" s="92"/>
       <c r="B68" s="44" t="s">
         <v>2</v>
       </c>
@@ -14664,8 +14681,8 @@
         <v>7.8199355129401082</v>
       </c>
     </row>
-    <row r="69" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A69" s="96"/>
+    <row r="69" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A69" s="92"/>
       <c r="B69" s="44" t="s">
         <v>3</v>
       </c>
@@ -14721,8 +14738,8 @@
         <v>9.8624500768836381</v>
       </c>
     </row>
-    <row r="70" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A70" s="96"/>
+    <row r="70" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A70" s="92"/>
       <c r="B70" s="44" t="s">
         <v>4</v>
       </c>
@@ -14778,8 +14795,8 @@
         <v>1.5490882337642491</v>
       </c>
     </row>
-    <row r="71" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A71" s="96"/>
+    <row r="71" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A71" s="92"/>
       <c r="B71" s="44" t="s">
         <v>5</v>
       </c>
@@ -14835,8 +14852,8 @@
         <v>0.98230501847483154</v>
       </c>
     </row>
-    <row r="72" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A72" s="96"/>
+    <row r="72" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A72" s="92"/>
       <c r="B72" s="44" t="s">
         <v>6</v>
       </c>
@@ -14892,8 +14909,8 @@
         <v>1.2079505472483409</v>
       </c>
     </row>
-    <row r="73" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A73" s="96"/>
+    <row r="73" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A73" s="92"/>
       <c r="B73" s="44" t="s">
         <v>7</v>
       </c>
@@ -14949,8 +14966,8 @@
         <v>0.76615061679036445</v>
       </c>
     </row>
-    <row r="74" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A74" s="96"/>
+    <row r="74" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A74" s="92"/>
       <c r="B74" s="44" t="s">
         <v>8</v>
       </c>
@@ -15006,8 +15023,8 @@
         <v>0.8117989654686979</v>
       </c>
     </row>
-    <row r="75" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A75" s="96"/>
+    <row r="75" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A75" s="92"/>
       <c r="B75" s="44" t="s">
         <v>9</v>
       </c>
@@ -15063,8 +15080,8 @@
         <v>1.2542390005957991</v>
       </c>
     </row>
-    <row r="76" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A76" s="96"/>
+    <row r="76" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A76" s="92"/>
       <c r="B76" s="44" t="s">
         <v>10</v>
       </c>
@@ -15120,8 +15137,8 @@
         <v>1.517017436814347</v>
       </c>
     </row>
-    <row r="77" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A77" s="96"/>
+    <row r="77" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A77" s="92"/>
       <c r="B77" s="44" t="s">
         <v>11</v>
       </c>
@@ -15177,8 +15194,8 @@
         <v>1.1625832763909489</v>
       </c>
     </row>
-    <row r="78" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A78" s="96"/>
+    <row r="78" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A78" s="92"/>
       <c r="B78" s="44" t="s">
         <v>12</v>
       </c>
@@ -15234,8 +15251,8 @@
         <v>0.41597114013359082</v>
       </c>
     </row>
-    <row r="79" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A79" s="96"/>
+    <row r="79" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A79" s="92"/>
       <c r="B79" s="44" t="s">
         <v>13</v>
       </c>
@@ -15291,8 +15308,8 @@
         <v>0.1288801191616884</v>
       </c>
     </row>
-    <row r="80" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A80" s="96"/>
+    <row r="80" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A80" s="92"/>
       <c r="B80" s="44" t="s">
         <v>14</v>
       </c>
@@ -15348,8 +15365,8 @@
         <v>0.14592281874424709</v>
       </c>
     </row>
-    <row r="81" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A81" s="96"/>
+    <row r="81" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A81" s="92"/>
       <c r="B81" s="44" t="s">
         <v>15</v>
       </c>
@@ -15405,8 +15422,8 @@
         <v>4.9982126694369827E-2</v>
       </c>
     </row>
-    <row r="82" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A82" s="96" t="s">
+    <row r="82" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A82" s="92" t="s">
         <v>96</v>
       </c>
       <c r="B82" s="87" t="s">
@@ -15464,8 +15481,8 @@
         <v>0.52797766266477753</v>
       </c>
     </row>
-    <row r="83" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A83" s="96"/>
+    <row r="83" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A83" s="92"/>
       <c r="B83" s="87" t="s">
         <v>1</v>
       </c>
@@ -15521,8 +15538,8 @@
         <v>5.7259290593108991</v>
       </c>
     </row>
-    <row r="84" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A84" s="96"/>
+    <row r="84" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A84" s="92"/>
       <c r="B84" s="87" t="s">
         <v>2</v>
       </c>
@@ -15578,8 +15595,8 @@
         <v>7.8199355129401082</v>
       </c>
     </row>
-    <row r="85" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A85" s="96"/>
+    <row r="85" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A85" s="92"/>
       <c r="B85" s="87" t="s">
         <v>3</v>
       </c>
@@ -15635,8 +15652,8 @@
         <v>9.8624500768836381</v>
       </c>
     </row>
-    <row r="86" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A86" s="96"/>
+    <row r="86" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A86" s="92"/>
       <c r="B86" s="87" t="s">
         <v>4</v>
       </c>
@@ -15692,8 +15709,8 @@
         <v>1.5490882337642491</v>
       </c>
     </row>
-    <row r="87" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A87" s="96"/>
+    <row r="87" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A87" s="92"/>
       <c r="B87" s="87" t="s">
         <v>5</v>
       </c>
@@ -15749,8 +15766,8 @@
         <v>0.98230501847483154</v>
       </c>
     </row>
-    <row r="88" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A88" s="96"/>
+    <row r="88" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A88" s="92"/>
       <c r="B88" s="87" t="s">
         <v>6</v>
       </c>
@@ -15806,8 +15823,8 @@
         <v>1.2079505472483409</v>
       </c>
     </row>
-    <row r="89" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A89" s="96"/>
+    <row r="89" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A89" s="92"/>
       <c r="B89" s="87" t="s">
         <v>7</v>
       </c>
@@ -15863,8 +15880,8 @@
         <v>0.76615061679036445</v>
       </c>
     </row>
-    <row r="90" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A90" s="96"/>
+    <row r="90" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A90" s="92"/>
       <c r="B90" s="87" t="s">
         <v>8</v>
       </c>
@@ -15920,8 +15937,8 @@
         <v>0.8117989654686979</v>
       </c>
     </row>
-    <row r="91" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A91" s="96"/>
+    <row r="91" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A91" s="92"/>
       <c r="B91" s="87" t="s">
         <v>9</v>
       </c>
@@ -15977,8 +15994,8 @@
         <v>1.2542390005957991</v>
       </c>
     </row>
-    <row r="92" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A92" s="96"/>
+    <row r="92" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A92" s="92"/>
       <c r="B92" s="87" t="s">
         <v>10</v>
       </c>
@@ -16034,8 +16051,8 @@
         <v>1.517017436814347</v>
       </c>
     </row>
-    <row r="93" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A93" s="96"/>
+    <row r="93" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A93" s="92"/>
       <c r="B93" s="87" t="s">
         <v>11</v>
       </c>
@@ -16091,8 +16108,8 @@
         <v>1.1625832763909489</v>
       </c>
     </row>
-    <row r="94" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A94" s="96"/>
+    <row r="94" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A94" s="92"/>
       <c r="B94" s="87" t="s">
         <v>12</v>
       </c>
@@ -16148,8 +16165,8 @@
         <v>0.41597114013359082</v>
       </c>
     </row>
-    <row r="95" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A95" s="96"/>
+    <row r="95" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A95" s="92"/>
       <c r="B95" s="87" t="s">
         <v>13</v>
       </c>
@@ -16205,8 +16222,8 @@
         <v>0.1288801191616884</v>
       </c>
     </row>
-    <row r="96" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A96" s="96"/>
+    <row r="96" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A96" s="92"/>
       <c r="B96" s="87" t="s">
         <v>14</v>
       </c>
@@ -16262,8 +16279,8 @@
         <v>0.14592281874424709</v>
       </c>
     </row>
-    <row r="97" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A97" s="96"/>
+    <row r="97" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A97" s="92"/>
       <c r="B97" s="87" t="s">
         <v>15</v>
       </c>
@@ -16319,8 +16336,8 @@
         <v>4.9982126694369827E-2</v>
       </c>
     </row>
-    <row r="98" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A98" s="96" t="s">
+    <row r="98" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A98" s="92" t="s">
         <v>95</v>
       </c>
       <c r="B98" s="87" t="s">
@@ -16378,8 +16395,8 @@
         <v>0.52797766266477753</v>
       </c>
     </row>
-    <row r="99" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A99" s="96"/>
+    <row r="99" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A99" s="92"/>
       <c r="B99" s="87" t="s">
         <v>1</v>
       </c>
@@ -16435,8 +16452,8 @@
         <v>5.7259290593108991</v>
       </c>
     </row>
-    <row r="100" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A100" s="96"/>
+    <row r="100" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A100" s="92"/>
       <c r="B100" s="87" t="s">
         <v>2</v>
       </c>
@@ -16492,8 +16509,8 @@
         <v>7.8199355129401082</v>
       </c>
     </row>
-    <row r="101" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A101" s="96"/>
+    <row r="101" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A101" s="92"/>
       <c r="B101" s="87" t="s">
         <v>3</v>
       </c>
@@ -16549,8 +16566,8 @@
         <v>9.8624500768836381</v>
       </c>
     </row>
-    <row r="102" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A102" s="96"/>
+    <row r="102" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A102" s="92"/>
       <c r="B102" s="87" t="s">
         <v>4</v>
       </c>
@@ -16606,8 +16623,8 @@
         <v>1.5490882337642491</v>
       </c>
     </row>
-    <row r="103" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A103" s="96"/>
+    <row r="103" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A103" s="92"/>
       <c r="B103" s="87" t="s">
         <v>5</v>
       </c>
@@ -16663,8 +16680,8 @@
         <v>0.98230501847483154</v>
       </c>
     </row>
-    <row r="104" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A104" s="96"/>
+    <row r="104" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A104" s="92"/>
       <c r="B104" s="87" t="s">
         <v>6</v>
       </c>
@@ -16720,8 +16737,8 @@
         <v>1.2079505472483409</v>
       </c>
     </row>
-    <row r="105" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A105" s="96"/>
+    <row r="105" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A105" s="92"/>
       <c r="B105" s="87" t="s">
         <v>7</v>
       </c>
@@ -16777,8 +16794,8 @@
         <v>0.76615061679036445</v>
       </c>
     </row>
-    <row r="106" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A106" s="96"/>
+    <row r="106" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A106" s="92"/>
       <c r="B106" s="87" t="s">
         <v>8</v>
       </c>
@@ -16834,8 +16851,8 @@
         <v>0.8117989654686979</v>
       </c>
     </row>
-    <row r="107" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A107" s="96"/>
+    <row r="107" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A107" s="92"/>
       <c r="B107" s="87" t="s">
         <v>9</v>
       </c>
@@ -16891,8 +16908,8 @@
         <v>1.2542390005957991</v>
       </c>
     </row>
-    <row r="108" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A108" s="96"/>
+    <row r="108" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A108" s="92"/>
       <c r="B108" s="87" t="s">
         <v>10</v>
       </c>
@@ -16948,8 +16965,8 @@
         <v>1.517017436814347</v>
       </c>
     </row>
-    <row r="109" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A109" s="96"/>
+    <row r="109" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A109" s="92"/>
       <c r="B109" s="87" t="s">
         <v>11</v>
       </c>
@@ -17005,8 +17022,8 @@
         <v>1.1625832763909489</v>
       </c>
     </row>
-    <row r="110" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A110" s="96"/>
+    <row r="110" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A110" s="92"/>
       <c r="B110" s="87" t="s">
         <v>12</v>
       </c>
@@ -17062,8 +17079,8 @@
         <v>0.41597114013359082</v>
       </c>
     </row>
-    <row r="111" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A111" s="96"/>
+    <row r="111" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A111" s="92"/>
       <c r="B111" s="87" t="s">
         <v>13</v>
       </c>
@@ -17119,8 +17136,8 @@
         <v>0.1288801191616884</v>
       </c>
     </row>
-    <row r="112" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A112" s="96"/>
+    <row r="112" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A112" s="92"/>
       <c r="B112" s="87" t="s">
         <v>14</v>
       </c>
@@ -17176,8 +17193,8 @@
         <v>0.14592281874424709</v>
       </c>
     </row>
-    <row r="113" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A113" s="96"/>
+    <row r="113" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A113" s="92"/>
       <c r="B113" s="87" t="s">
         <v>15</v>
       </c>
@@ -17233,11 +17250,11 @@
         <v>4.9982126694369827E-2</v>
       </c>
     </row>
-    <row r="114" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A114" s="96" t="s">
-        <v>97</v>
-      </c>
-      <c r="B114" s="88" t="s">
+    <row r="114" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A114" s="92" t="s">
+        <v>101</v>
+      </c>
+      <c r="B114" s="89" t="s">
         <v>0</v>
       </c>
       <c r="C114" s="64">
@@ -17292,9 +17309,9 @@
         <v>0.52797766266477753</v>
       </c>
     </row>
-    <row r="115" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A115" s="96"/>
-      <c r="B115" s="88" t="s">
+    <row r="115" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A115" s="92"/>
+      <c r="B115" s="89" t="s">
         <v>1</v>
       </c>
       <c r="C115" s="64">
@@ -17349,9 +17366,9 @@
         <v>5.7259290593108991</v>
       </c>
     </row>
-    <row r="116" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A116" s="96"/>
-      <c r="B116" s="88" t="s">
+    <row r="116" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A116" s="92"/>
+      <c r="B116" s="89" t="s">
         <v>2</v>
       </c>
       <c r="C116" s="64">
@@ -17406,9 +17423,9 @@
         <v>7.8199355129401082</v>
       </c>
     </row>
-    <row r="117" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A117" s="96"/>
-      <c r="B117" s="88" t="s">
+    <row r="117" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A117" s="92"/>
+      <c r="B117" s="89" t="s">
         <v>3</v>
       </c>
       <c r="C117" s="64">
@@ -17463,9 +17480,9 @@
         <v>9.8624500768836381</v>
       </c>
     </row>
-    <row r="118" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A118" s="96"/>
-      <c r="B118" s="88" t="s">
+    <row r="118" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A118" s="92"/>
+      <c r="B118" s="89" t="s">
         <v>4</v>
       </c>
       <c r="C118" s="64">
@@ -17520,9 +17537,9 @@
         <v>1.5490882337642491</v>
       </c>
     </row>
-    <row r="119" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A119" s="96"/>
-      <c r="B119" s="88" t="s">
+    <row r="119" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A119" s="92"/>
+      <c r="B119" s="89" t="s">
         <v>5</v>
       </c>
       <c r="C119" s="64">
@@ -17577,9 +17594,9 @@
         <v>0.98230501847483154</v>
       </c>
     </row>
-    <row r="120" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A120" s="96"/>
-      <c r="B120" s="88" t="s">
+    <row r="120" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A120" s="92"/>
+      <c r="B120" s="89" t="s">
         <v>6</v>
       </c>
       <c r="C120" s="64">
@@ -17634,9 +17651,9 @@
         <v>1.2079505472483409</v>
       </c>
     </row>
-    <row r="121" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A121" s="96"/>
-      <c r="B121" s="88" t="s">
+    <row r="121" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A121" s="92"/>
+      <c r="B121" s="89" t="s">
         <v>7</v>
       </c>
       <c r="C121" s="64">
@@ -17691,9 +17708,9 @@
         <v>0.76615061679036445</v>
       </c>
     </row>
-    <row r="122" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A122" s="96"/>
-      <c r="B122" s="88" t="s">
+    <row r="122" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A122" s="92"/>
+      <c r="B122" s="89" t="s">
         <v>8</v>
       </c>
       <c r="C122" s="64">
@@ -17748,9 +17765,9 @@
         <v>0.8117989654686979</v>
       </c>
     </row>
-    <row r="123" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A123" s="96"/>
-      <c r="B123" s="88" t="s">
+    <row r="123" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A123" s="92"/>
+      <c r="B123" s="89" t="s">
         <v>9</v>
       </c>
       <c r="C123" s="64">
@@ -17805,9 +17822,9 @@
         <v>1.2542390005957991</v>
       </c>
     </row>
-    <row r="124" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A124" s="96"/>
-      <c r="B124" s="88" t="s">
+    <row r="124" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A124" s="92"/>
+      <c r="B124" s="89" t="s">
         <v>10</v>
       </c>
       <c r="C124" s="64">
@@ -17862,9 +17879,9 @@
         <v>1.517017436814347</v>
       </c>
     </row>
-    <row r="125" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A125" s="96"/>
-      <c r="B125" s="88" t="s">
+    <row r="125" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A125" s="92"/>
+      <c r="B125" s="89" t="s">
         <v>11</v>
       </c>
       <c r="C125" s="64">
@@ -17919,9 +17936,9 @@
         <v>1.1625832763909489</v>
       </c>
     </row>
-    <row r="126" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A126" s="96"/>
-      <c r="B126" s="88" t="s">
+    <row r="126" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A126" s="92"/>
+      <c r="B126" s="89" t="s">
         <v>12</v>
       </c>
       <c r="C126" s="64">
@@ -17976,9 +17993,9 @@
         <v>0.41597114013359082</v>
       </c>
     </row>
-    <row r="127" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A127" s="96"/>
-      <c r="B127" s="88" t="s">
+    <row r="127" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A127" s="92"/>
+      <c r="B127" s="89" t="s">
         <v>13</v>
       </c>
       <c r="C127" s="64">
@@ -18033,9 +18050,9 @@
         <v>0.1288801191616884</v>
       </c>
     </row>
-    <row r="128" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A128" s="96"/>
-      <c r="B128" s="88" t="s">
+    <row r="128" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A128" s="92"/>
+      <c r="B128" s="89" t="s">
         <v>14</v>
       </c>
       <c r="C128" s="64">
@@ -18090,9 +18107,9 @@
         <v>0.14592281874424709</v>
       </c>
     </row>
-    <row r="129" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A129" s="96"/>
-      <c r="B129" s="88" t="s">
+    <row r="129" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A129" s="92"/>
+      <c r="B129" s="89" t="s">
         <v>15</v>
       </c>
       <c r="C129" s="64">
@@ -18169,13 +18186,13 @@
   </sheetPr>
   <dimension ref="A1:S129"/>
   <sheetViews>
-    <sheetView topLeftCell="A101" workbookViewId="0">
-      <selection activeCell="A130" sqref="A130"/>
+    <sheetView topLeftCell="A91" workbookViewId="0">
+      <selection activeCell="A114" sqref="A114:S129"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.7265625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>17</v>
       </c>
@@ -18234,8 +18251,8 @@
         <v>16</v>
       </c>
     </row>
-    <row r="2" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A2" s="96" t="s">
+    <row r="2" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A2" s="92" t="s">
         <v>84</v>
       </c>
       <c r="B2" s="44" t="s">
@@ -18293,8 +18310,8 @@
         <v>1.2058515015357481E-5</v>
       </c>
     </row>
-    <row r="3" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A3" s="96"/>
+    <row r="3" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A3" s="92"/>
       <c r="B3" s="44" t="s">
         <v>1</v>
       </c>
@@ -18350,8 +18367,8 @@
         <v>7.2424132225365395E-2</v>
       </c>
     </row>
-    <row r="4" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A4" s="96"/>
+    <row r="4" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A4" s="92"/>
       <c r="B4" s="44" t="s">
         <v>2</v>
       </c>
@@ -18407,8 +18424,8 @@
         <v>0.35639723188910682</v>
       </c>
     </row>
-    <row r="5" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A5" s="96"/>
+    <row r="5" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A5" s="92"/>
       <c r="B5" s="44" t="s">
         <v>3</v>
       </c>
@@ -18464,8 +18481,8 @@
         <v>3.0692562089610038</v>
       </c>
     </row>
-    <row r="6" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A6" s="96"/>
+    <row r="6" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A6" s="92"/>
       <c r="B6" s="44" t="s">
         <v>4</v>
       </c>
@@ -18521,8 +18538,8 @@
         <v>4.658950445912172</v>
       </c>
     </row>
-    <row r="7" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A7" s="96"/>
+    <row r="7" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A7" s="92"/>
       <c r="B7" s="44" t="s">
         <v>5</v>
       </c>
@@ -18578,8 +18595,8 @@
         <v>6.1389412009355686</v>
       </c>
     </row>
-    <row r="8" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A8" s="96"/>
+    <row r="8" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A8" s="92"/>
       <c r="B8" s="44" t="s">
         <v>6</v>
       </c>
@@ -18635,8 +18652,8 @@
         <v>5.8794036051725866</v>
       </c>
     </row>
-    <row r="9" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A9" s="96"/>
+    <row r="9" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A9" s="92"/>
       <c r="B9" s="44" t="s">
         <v>7</v>
       </c>
@@ -18692,8 +18709,8 @@
         <v>6.1518951833502804</v>
       </c>
     </row>
-    <row r="10" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A10" s="96"/>
+    <row r="10" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A10" s="92"/>
       <c r="B10" s="44" t="s">
         <v>8</v>
       </c>
@@ -18749,8 +18766,8 @@
         <v>6.1320311526286613</v>
       </c>
     </row>
-    <row r="11" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A11" s="96"/>
+    <row r="11" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A11" s="92"/>
       <c r="B11" s="44" t="s">
         <v>9</v>
       </c>
@@ -18806,8 +18823,8 @@
         <v>4.7800797961607522</v>
       </c>
     </row>
-    <row r="12" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A12" s="96"/>
+    <row r="12" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A12" s="92"/>
       <c r="B12" s="44" t="s">
         <v>10</v>
       </c>
@@ -18863,8 +18880,8 @@
         <v>4.6347175792810988</v>
       </c>
     </row>
-    <row r="13" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A13" s="96"/>
+    <row r="13" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A13" s="92"/>
       <c r="B13" s="44" t="s">
         <v>11</v>
       </c>
@@ -18920,8 +18937,8 @@
         <v>2.9021826070533181</v>
       </c>
     </row>
-    <row r="14" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A14" s="96"/>
+    <row r="14" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A14" s="92"/>
       <c r="B14" s="44" t="s">
         <v>12</v>
       </c>
@@ -18977,8 +18994,8 @@
         <v>1.0893327022545689</v>
       </c>
     </row>
-    <row r="15" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A15" s="96"/>
+    <row r="15" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A15" s="92"/>
       <c r="B15" s="44" t="s">
         <v>13</v>
       </c>
@@ -19034,8 +19051,8 @@
         <v>6.0687793070067367E-4</v>
       </c>
     </row>
-    <row r="16" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A16" s="96"/>
+    <row r="16" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A16" s="92"/>
       <c r="B16" s="44" t="s">
         <v>14</v>
       </c>
@@ -19091,8 +19108,8 @@
         <v>3.612164506622016E-4</v>
       </c>
     </row>
-    <row r="17" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A17" s="96"/>
+    <row r="17" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A17" s="92"/>
       <c r="B17" s="44" t="s">
         <v>15</v>
       </c>
@@ -19148,8 +19165,8 @@
         <v>2.837882423265888E-4</v>
       </c>
     </row>
-    <row r="18" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A18" s="96" t="s">
+    <row r="18" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A18" s="92" t="s">
         <v>88</v>
       </c>
       <c r="B18" s="44" t="s">
@@ -19207,8 +19224,8 @@
         <v>1.2058515015357481E-5</v>
       </c>
     </row>
-    <row r="19" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A19" s="96"/>
+    <row r="19" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A19" s="92"/>
       <c r="B19" s="44" t="s">
         <v>1</v>
       </c>
@@ -19264,8 +19281,8 @@
         <v>7.2424132225365395E-2</v>
       </c>
     </row>
-    <row r="20" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A20" s="96"/>
+    <row r="20" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A20" s="92"/>
       <c r="B20" s="44" t="s">
         <v>2</v>
       </c>
@@ -19321,8 +19338,8 @@
         <v>0.35639723188910682</v>
       </c>
     </row>
-    <row r="21" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A21" s="96"/>
+    <row r="21" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A21" s="92"/>
       <c r="B21" s="44" t="s">
         <v>3</v>
       </c>
@@ -19378,8 +19395,8 @@
         <v>3.0692562089610038</v>
       </c>
     </row>
-    <row r="22" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A22" s="96"/>
+    <row r="22" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A22" s="92"/>
       <c r="B22" s="44" t="s">
         <v>4</v>
       </c>
@@ -19435,8 +19452,8 @@
         <v>4.658950445912172</v>
       </c>
     </row>
-    <row r="23" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A23" s="96"/>
+    <row r="23" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A23" s="92"/>
       <c r="B23" s="44" t="s">
         <v>5</v>
       </c>
@@ -19492,8 +19509,8 @@
         <v>6.1389412009355686</v>
       </c>
     </row>
-    <row r="24" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A24" s="96"/>
+    <row r="24" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A24" s="92"/>
       <c r="B24" s="44" t="s">
         <v>6</v>
       </c>
@@ -19549,8 +19566,8 @@
         <v>5.8794036051725866</v>
       </c>
     </row>
-    <row r="25" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A25" s="96"/>
+    <row r="25" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A25" s="92"/>
       <c r="B25" s="44" t="s">
         <v>7</v>
       </c>
@@ -19606,8 +19623,8 @@
         <v>6.1518951833502804</v>
       </c>
     </row>
-    <row r="26" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A26" s="96"/>
+    <row r="26" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A26" s="92"/>
       <c r="B26" s="44" t="s">
         <v>8</v>
       </c>
@@ -19663,8 +19680,8 @@
         <v>6.1320311526286613</v>
       </c>
     </row>
-    <row r="27" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A27" s="96"/>
+    <row r="27" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A27" s="92"/>
       <c r="B27" s="44" t="s">
         <v>9</v>
       </c>
@@ -19720,8 +19737,8 @@
         <v>4.7800797961607522</v>
       </c>
     </row>
-    <row r="28" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A28" s="96"/>
+    <row r="28" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A28" s="92"/>
       <c r="B28" s="44" t="s">
         <v>10</v>
       </c>
@@ -19777,8 +19794,8 @@
         <v>4.6347175792810988</v>
       </c>
     </row>
-    <row r="29" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A29" s="96"/>
+    <row r="29" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A29" s="92"/>
       <c r="B29" s="44" t="s">
         <v>11</v>
       </c>
@@ -19834,8 +19851,8 @@
         <v>2.9021826070533181</v>
       </c>
     </row>
-    <row r="30" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A30" s="96"/>
+    <row r="30" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A30" s="92"/>
       <c r="B30" s="44" t="s">
         <v>12</v>
       </c>
@@ -19891,8 +19908,8 @@
         <v>1.0893327022545689</v>
       </c>
     </row>
-    <row r="31" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A31" s="96"/>
+    <row r="31" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A31" s="92"/>
       <c r="B31" s="44" t="s">
         <v>13</v>
       </c>
@@ -19948,8 +19965,8 @@
         <v>6.0687793070067367E-4</v>
       </c>
     </row>
-    <row r="32" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A32" s="96"/>
+    <row r="32" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A32" s="92"/>
       <c r="B32" s="44" t="s">
         <v>14</v>
       </c>
@@ -20005,8 +20022,8 @@
         <v>3.612164506622016E-4</v>
       </c>
     </row>
-    <row r="33" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A33" s="96"/>
+    <row r="33" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A33" s="92"/>
       <c r="B33" s="44" t="s">
         <v>15</v>
       </c>
@@ -20062,8 +20079,8 @@
         <v>2.837882423265888E-4</v>
       </c>
     </row>
-    <row r="34" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A34" s="96" t="s">
+    <row r="34" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A34" s="92" t="s">
         <v>87</v>
       </c>
       <c r="B34" s="44" t="s">
@@ -20121,8 +20138,8 @@
         <v>1.2058515015357481E-5</v>
       </c>
     </row>
-    <row r="35" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A35" s="96"/>
+    <row r="35" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A35" s="92"/>
       <c r="B35" s="44" t="s">
         <v>1</v>
       </c>
@@ -20178,8 +20195,8 @@
         <v>7.2424132225365395E-2</v>
       </c>
     </row>
-    <row r="36" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A36" s="96"/>
+    <row r="36" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A36" s="92"/>
       <c r="B36" s="44" t="s">
         <v>2</v>
       </c>
@@ -20235,8 +20252,8 @@
         <v>0.35639723188910682</v>
       </c>
     </row>
-    <row r="37" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A37" s="96"/>
+    <row r="37" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A37" s="92"/>
       <c r="B37" s="44" t="s">
         <v>3</v>
       </c>
@@ -20292,8 +20309,8 @@
         <v>3.0692562089610038</v>
       </c>
     </row>
-    <row r="38" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A38" s="96"/>
+    <row r="38" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A38" s="92"/>
       <c r="B38" s="44" t="s">
         <v>4</v>
       </c>
@@ -20349,8 +20366,8 @@
         <v>4.658950445912172</v>
       </c>
     </row>
-    <row r="39" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A39" s="96"/>
+    <row r="39" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A39" s="92"/>
       <c r="B39" s="44" t="s">
         <v>5</v>
       </c>
@@ -20406,8 +20423,8 @@
         <v>6.1389412009355686</v>
       </c>
     </row>
-    <row r="40" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A40" s="96"/>
+    <row r="40" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A40" s="92"/>
       <c r="B40" s="44" t="s">
         <v>6</v>
       </c>
@@ -20463,8 +20480,8 @@
         <v>5.8794036051725866</v>
       </c>
     </row>
-    <row r="41" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A41" s="96"/>
+    <row r="41" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A41" s="92"/>
       <c r="B41" s="44" t="s">
         <v>7</v>
       </c>
@@ -20520,8 +20537,8 @@
         <v>6.1518951833502804</v>
       </c>
     </row>
-    <row r="42" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A42" s="96"/>
+    <row r="42" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A42" s="92"/>
       <c r="B42" s="44" t="s">
         <v>8</v>
       </c>
@@ -20577,8 +20594,8 @@
         <v>6.1320311526286613</v>
       </c>
     </row>
-    <row r="43" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A43" s="96"/>
+    <row r="43" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A43" s="92"/>
       <c r="B43" s="44" t="s">
         <v>9</v>
       </c>
@@ -20634,8 +20651,8 @@
         <v>4.7800797961607522</v>
       </c>
     </row>
-    <row r="44" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A44" s="96"/>
+    <row r="44" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A44" s="92"/>
       <c r="B44" s="44" t="s">
         <v>10</v>
       </c>
@@ -20691,8 +20708,8 @@
         <v>4.6347175792810988</v>
       </c>
     </row>
-    <row r="45" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A45" s="96"/>
+    <row r="45" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A45" s="92"/>
       <c r="B45" s="44" t="s">
         <v>11</v>
       </c>
@@ -20748,8 +20765,8 @@
         <v>2.9021826070533181</v>
       </c>
     </row>
-    <row r="46" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A46" s="96"/>
+    <row r="46" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A46" s="92"/>
       <c r="B46" s="44" t="s">
         <v>12</v>
       </c>
@@ -20805,8 +20822,8 @@
         <v>1.0893327022545689</v>
       </c>
     </row>
-    <row r="47" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A47" s="96"/>
+    <row r="47" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A47" s="92"/>
       <c r="B47" s="44" t="s">
         <v>13</v>
       </c>
@@ -20862,8 +20879,8 @@
         <v>6.0687793070067367E-4</v>
       </c>
     </row>
-    <row r="48" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A48" s="96"/>
+    <row r="48" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A48" s="92"/>
       <c r="B48" s="44" t="s">
         <v>14</v>
       </c>
@@ -20919,8 +20936,8 @@
         <v>3.612164506622016E-4</v>
       </c>
     </row>
-    <row r="49" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A49" s="96"/>
+    <row r="49" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A49" s="92"/>
       <c r="B49" s="44" t="s">
         <v>15</v>
       </c>
@@ -20976,8 +20993,8 @@
         <v>2.837882423265888E-4</v>
       </c>
     </row>
-    <row r="50" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A50" s="96" t="s">
+    <row r="50" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A50" s="92" t="s">
         <v>85</v>
       </c>
       <c r="B50" s="44" t="s">
@@ -21035,8 +21052,8 @@
         <v>1.2058515015357481E-5</v>
       </c>
     </row>
-    <row r="51" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A51" s="96"/>
+    <row r="51" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A51" s="92"/>
       <c r="B51" s="44" t="s">
         <v>1</v>
       </c>
@@ -21092,8 +21109,8 @@
         <v>7.2424132225365395E-2</v>
       </c>
     </row>
-    <row r="52" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A52" s="96"/>
+    <row r="52" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A52" s="92"/>
       <c r="B52" s="44" t="s">
         <v>2</v>
       </c>
@@ -21149,8 +21166,8 @@
         <v>0.35639723188910682</v>
       </c>
     </row>
-    <row r="53" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A53" s="96"/>
+    <row r="53" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A53" s="92"/>
       <c r="B53" s="44" t="s">
         <v>3</v>
       </c>
@@ -21206,8 +21223,8 @@
         <v>3.0692562089610038</v>
       </c>
     </row>
-    <row r="54" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A54" s="96"/>
+    <row r="54" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A54" s="92"/>
       <c r="B54" s="44" t="s">
         <v>4</v>
       </c>
@@ -21263,8 +21280,8 @@
         <v>4.658950445912172</v>
       </c>
     </row>
-    <row r="55" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A55" s="96"/>
+    <row r="55" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A55" s="92"/>
       <c r="B55" s="44" t="s">
         <v>5</v>
       </c>
@@ -21320,8 +21337,8 @@
         <v>6.1389412009355686</v>
       </c>
     </row>
-    <row r="56" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A56" s="96"/>
+    <row r="56" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A56" s="92"/>
       <c r="B56" s="44" t="s">
         <v>6</v>
       </c>
@@ -21377,8 +21394,8 @@
         <v>5.8794036051725866</v>
       </c>
     </row>
-    <row r="57" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A57" s="96"/>
+    <row r="57" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A57" s="92"/>
       <c r="B57" s="44" t="s">
         <v>7</v>
       </c>
@@ -21434,8 +21451,8 @@
         <v>6.1518951833502804</v>
       </c>
     </row>
-    <row r="58" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A58" s="96"/>
+    <row r="58" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A58" s="92"/>
       <c r="B58" s="44" t="s">
         <v>8</v>
       </c>
@@ -21491,8 +21508,8 @@
         <v>6.1320311526286613</v>
       </c>
     </row>
-    <row r="59" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A59" s="96"/>
+    <row r="59" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A59" s="92"/>
       <c r="B59" s="44" t="s">
         <v>9</v>
       </c>
@@ -21548,8 +21565,8 @@
         <v>4.7800797961607522</v>
       </c>
     </row>
-    <row r="60" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A60" s="96"/>
+    <row r="60" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A60" s="92"/>
       <c r="B60" s="44" t="s">
         <v>10</v>
       </c>
@@ -21605,8 +21622,8 @@
         <v>4.6347175792810988</v>
       </c>
     </row>
-    <row r="61" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A61" s="96"/>
+    <row r="61" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A61" s="92"/>
       <c r="B61" s="44" t="s">
         <v>11</v>
       </c>
@@ -21662,8 +21679,8 @@
         <v>2.9021826070533181</v>
       </c>
     </row>
-    <row r="62" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A62" s="96"/>
+    <row r="62" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A62" s="92"/>
       <c r="B62" s="44" t="s">
         <v>12</v>
       </c>
@@ -21719,8 +21736,8 @@
         <v>1.0893327022545689</v>
       </c>
     </row>
-    <row r="63" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A63" s="96"/>
+    <row r="63" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A63" s="92"/>
       <c r="B63" s="44" t="s">
         <v>13</v>
       </c>
@@ -21776,8 +21793,8 @@
         <v>6.0687793070067367E-4</v>
       </c>
     </row>
-    <row r="64" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A64" s="96"/>
+    <row r="64" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A64" s="92"/>
       <c r="B64" s="44" t="s">
         <v>14</v>
       </c>
@@ -21833,8 +21850,8 @@
         <v>3.612164506622016E-4</v>
       </c>
     </row>
-    <row r="65" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A65" s="96"/>
+    <row r="65" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A65" s="92"/>
       <c r="B65" s="44" t="s">
         <v>15</v>
       </c>
@@ -21890,8 +21907,8 @@
         <v>2.837882423265888E-4</v>
       </c>
     </row>
-    <row r="66" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A66" s="96" t="s">
+    <row r="66" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A66" s="92" t="s">
         <v>86</v>
       </c>
       <c r="B66" s="44" t="s">
@@ -21949,8 +21966,8 @@
         <v>1.2058515015357481E-5</v>
       </c>
     </row>
-    <row r="67" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A67" s="96"/>
+    <row r="67" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A67" s="92"/>
       <c r="B67" s="44" t="s">
         <v>1</v>
       </c>
@@ -22006,8 +22023,8 @@
         <v>7.2424132225365395E-2</v>
       </c>
     </row>
-    <row r="68" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A68" s="96"/>
+    <row r="68" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A68" s="92"/>
       <c r="B68" s="44" t="s">
         <v>2</v>
       </c>
@@ -22063,8 +22080,8 @@
         <v>0.35639723188910682</v>
       </c>
     </row>
-    <row r="69" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A69" s="96"/>
+    <row r="69" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A69" s="92"/>
       <c r="B69" s="44" t="s">
         <v>3</v>
       </c>
@@ -22120,8 +22137,8 @@
         <v>3.0692562089610038</v>
       </c>
     </row>
-    <row r="70" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A70" s="96"/>
+    <row r="70" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A70" s="92"/>
       <c r="B70" s="44" t="s">
         <v>4</v>
       </c>
@@ -22177,8 +22194,8 @@
         <v>4.658950445912172</v>
       </c>
     </row>
-    <row r="71" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A71" s="96"/>
+    <row r="71" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A71" s="92"/>
       <c r="B71" s="44" t="s">
         <v>5</v>
       </c>
@@ -22234,8 +22251,8 @@
         <v>6.1389412009355686</v>
       </c>
     </row>
-    <row r="72" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A72" s="96"/>
+    <row r="72" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A72" s="92"/>
       <c r="B72" s="44" t="s">
         <v>6</v>
       </c>
@@ -22291,8 +22308,8 @@
         <v>5.8794036051725866</v>
       </c>
     </row>
-    <row r="73" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A73" s="96"/>
+    <row r="73" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A73" s="92"/>
       <c r="B73" s="44" t="s">
         <v>7</v>
       </c>
@@ -22348,8 +22365,8 @@
         <v>6.1518951833502804</v>
       </c>
     </row>
-    <row r="74" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A74" s="96"/>
+    <row r="74" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A74" s="92"/>
       <c r="B74" s="44" t="s">
         <v>8</v>
       </c>
@@ -22405,8 +22422,8 @@
         <v>6.1320311526286613</v>
       </c>
     </row>
-    <row r="75" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A75" s="96"/>
+    <row r="75" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A75" s="92"/>
       <c r="B75" s="44" t="s">
         <v>9</v>
       </c>
@@ -22462,8 +22479,8 @@
         <v>4.7800797961607522</v>
       </c>
     </row>
-    <row r="76" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A76" s="96"/>
+    <row r="76" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A76" s="92"/>
       <c r="B76" s="44" t="s">
         <v>10</v>
       </c>
@@ -22519,8 +22536,8 @@
         <v>4.6347175792810988</v>
       </c>
     </row>
-    <row r="77" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A77" s="96"/>
+    <row r="77" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A77" s="92"/>
       <c r="B77" s="44" t="s">
         <v>11</v>
       </c>
@@ -22576,8 +22593,8 @@
         <v>2.9021826070533181</v>
       </c>
     </row>
-    <row r="78" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A78" s="96"/>
+    <row r="78" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A78" s="92"/>
       <c r="B78" s="44" t="s">
         <v>12</v>
       </c>
@@ -22633,8 +22650,8 @@
         <v>1.0893327022545689</v>
       </c>
     </row>
-    <row r="79" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A79" s="96"/>
+    <row r="79" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A79" s="92"/>
       <c r="B79" s="44" t="s">
         <v>13</v>
       </c>
@@ -22690,8 +22707,8 @@
         <v>6.0687793070067367E-4</v>
       </c>
     </row>
-    <row r="80" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A80" s="96"/>
+    <row r="80" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A80" s="92"/>
       <c r="B80" s="44" t="s">
         <v>14</v>
       </c>
@@ -22747,8 +22764,8 @@
         <v>3.612164506622016E-4</v>
       </c>
     </row>
-    <row r="81" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A81" s="96"/>
+    <row r="81" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A81" s="92"/>
       <c r="B81" s="44" t="s">
         <v>15</v>
       </c>
@@ -22804,8 +22821,8 @@
         <v>2.837882423265888E-4</v>
       </c>
     </row>
-    <row r="82" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A82" s="96" t="s">
+    <row r="82" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A82" s="92" t="s">
         <v>96</v>
       </c>
       <c r="B82" s="87" t="s">
@@ -22863,8 +22880,8 @@
         <v>1.2058515015357481E-5</v>
       </c>
     </row>
-    <row r="83" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A83" s="96"/>
+    <row r="83" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A83" s="92"/>
       <c r="B83" s="87" t="s">
         <v>1</v>
       </c>
@@ -22920,8 +22937,8 @@
         <v>7.2424132225365395E-2</v>
       </c>
     </row>
-    <row r="84" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A84" s="96"/>
+    <row r="84" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A84" s="92"/>
       <c r="B84" s="87" t="s">
         <v>2</v>
       </c>
@@ -22977,8 +22994,8 @@
         <v>0.35639723188910682</v>
       </c>
     </row>
-    <row r="85" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A85" s="96"/>
+    <row r="85" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A85" s="92"/>
       <c r="B85" s="87" t="s">
         <v>3</v>
       </c>
@@ -23034,8 +23051,8 @@
         <v>3.0692562089610038</v>
       </c>
     </row>
-    <row r="86" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A86" s="96"/>
+    <row r="86" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A86" s="92"/>
       <c r="B86" s="87" t="s">
         <v>4</v>
       </c>
@@ -23091,8 +23108,8 @@
         <v>4.658950445912172</v>
       </c>
     </row>
-    <row r="87" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A87" s="96"/>
+    <row r="87" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A87" s="92"/>
       <c r="B87" s="87" t="s">
         <v>5</v>
       </c>
@@ -23148,8 +23165,8 @@
         <v>6.1389412009355686</v>
       </c>
     </row>
-    <row r="88" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A88" s="96"/>
+    <row r="88" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A88" s="92"/>
       <c r="B88" s="87" t="s">
         <v>6</v>
       </c>
@@ -23205,8 +23222,8 @@
         <v>5.8794036051725866</v>
       </c>
     </row>
-    <row r="89" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A89" s="96"/>
+    <row r="89" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A89" s="92"/>
       <c r="B89" s="87" t="s">
         <v>7</v>
       </c>
@@ -23262,8 +23279,8 @@
         <v>6.1518951833502804</v>
       </c>
     </row>
-    <row r="90" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A90" s="96"/>
+    <row r="90" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A90" s="92"/>
       <c r="B90" s="87" t="s">
         <v>8</v>
       </c>
@@ -23319,8 +23336,8 @@
         <v>6.1320311526286613</v>
       </c>
     </row>
-    <row r="91" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A91" s="96"/>
+    <row r="91" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A91" s="92"/>
       <c r="B91" s="87" t="s">
         <v>9</v>
       </c>
@@ -23376,8 +23393,8 @@
         <v>4.7800797961607522</v>
       </c>
     </row>
-    <row r="92" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A92" s="96"/>
+    <row r="92" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A92" s="92"/>
       <c r="B92" s="87" t="s">
         <v>10</v>
       </c>
@@ -23433,8 +23450,8 @@
         <v>4.6347175792810988</v>
       </c>
     </row>
-    <row r="93" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A93" s="96"/>
+    <row r="93" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A93" s="92"/>
       <c r="B93" s="87" t="s">
         <v>11</v>
       </c>
@@ -23490,8 +23507,8 @@
         <v>2.9021826070533181</v>
       </c>
     </row>
-    <row r="94" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A94" s="96"/>
+    <row r="94" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A94" s="92"/>
       <c r="B94" s="87" t="s">
         <v>12</v>
       </c>
@@ -23547,8 +23564,8 @@
         <v>1.0893327022545689</v>
       </c>
     </row>
-    <row r="95" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A95" s="96"/>
+    <row r="95" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A95" s="92"/>
       <c r="B95" s="87" t="s">
         <v>13</v>
       </c>
@@ -23604,8 +23621,8 @@
         <v>6.0687793070067367E-4</v>
       </c>
     </row>
-    <row r="96" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A96" s="96"/>
+    <row r="96" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A96" s="92"/>
       <c r="B96" s="87" t="s">
         <v>14</v>
       </c>
@@ -23661,8 +23678,8 @@
         <v>3.612164506622016E-4</v>
       </c>
     </row>
-    <row r="97" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A97" s="96"/>
+    <row r="97" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A97" s="92"/>
       <c r="B97" s="87" t="s">
         <v>15</v>
       </c>
@@ -23718,8 +23735,8 @@
         <v>2.837882423265888E-4</v>
       </c>
     </row>
-    <row r="98" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A98" s="96" t="s">
+    <row r="98" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A98" s="92" t="s">
         <v>95</v>
       </c>
       <c r="B98" s="87" t="s">
@@ -23777,8 +23794,8 @@
         <v>1.2058515015357481E-5</v>
       </c>
     </row>
-    <row r="99" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A99" s="96"/>
+    <row r="99" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A99" s="92"/>
       <c r="B99" s="87" t="s">
         <v>1</v>
       </c>
@@ -23834,8 +23851,8 @@
         <v>7.2424132225365395E-2</v>
       </c>
     </row>
-    <row r="100" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A100" s="96"/>
+    <row r="100" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A100" s="92"/>
       <c r="B100" s="87" t="s">
         <v>2</v>
       </c>
@@ -23891,8 +23908,8 @@
         <v>0.35639723188910682</v>
       </c>
     </row>
-    <row r="101" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A101" s="96"/>
+    <row r="101" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A101" s="92"/>
       <c r="B101" s="87" t="s">
         <v>3</v>
       </c>
@@ -23948,8 +23965,8 @@
         <v>3.0692562089610038</v>
       </c>
     </row>
-    <row r="102" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A102" s="96"/>
+    <row r="102" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A102" s="92"/>
       <c r="B102" s="87" t="s">
         <v>4</v>
       </c>
@@ -24005,8 +24022,8 @@
         <v>4.658950445912172</v>
       </c>
     </row>
-    <row r="103" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A103" s="96"/>
+    <row r="103" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A103" s="92"/>
       <c r="B103" s="87" t="s">
         <v>5</v>
       </c>
@@ -24062,8 +24079,8 @@
         <v>6.1389412009355686</v>
       </c>
     </row>
-    <row r="104" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A104" s="96"/>
+    <row r="104" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A104" s="92"/>
       <c r="B104" s="87" t="s">
         <v>6</v>
       </c>
@@ -24119,8 +24136,8 @@
         <v>5.8794036051725866</v>
       </c>
     </row>
-    <row r="105" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A105" s="96"/>
+    <row r="105" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A105" s="92"/>
       <c r="B105" s="87" t="s">
         <v>7</v>
       </c>
@@ -24176,8 +24193,8 @@
         <v>6.1518951833502804</v>
       </c>
     </row>
-    <row r="106" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A106" s="96"/>
+    <row r="106" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A106" s="92"/>
       <c r="B106" s="87" t="s">
         <v>8</v>
       </c>
@@ -24233,8 +24250,8 @@
         <v>6.1320311526286613</v>
       </c>
     </row>
-    <row r="107" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A107" s="96"/>
+    <row r="107" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A107" s="92"/>
       <c r="B107" s="87" t="s">
         <v>9</v>
       </c>
@@ -24290,8 +24307,8 @@
         <v>4.7800797961607522</v>
       </c>
     </row>
-    <row r="108" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A108" s="96"/>
+    <row r="108" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A108" s="92"/>
       <c r="B108" s="87" t="s">
         <v>10</v>
       </c>
@@ -24347,8 +24364,8 @@
         <v>4.6347175792810988</v>
       </c>
     </row>
-    <row r="109" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A109" s="96"/>
+    <row r="109" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A109" s="92"/>
       <c r="B109" s="87" t="s">
         <v>11</v>
       </c>
@@ -24404,8 +24421,8 @@
         <v>2.9021826070533181</v>
       </c>
     </row>
-    <row r="110" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A110" s="96"/>
+    <row r="110" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A110" s="92"/>
       <c r="B110" s="87" t="s">
         <v>12</v>
       </c>
@@ -24461,8 +24478,8 @@
         <v>1.0893327022545689</v>
       </c>
     </row>
-    <row r="111" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A111" s="96"/>
+    <row r="111" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A111" s="92"/>
       <c r="B111" s="87" t="s">
         <v>13</v>
       </c>
@@ -24518,8 +24535,8 @@
         <v>6.0687793070067367E-4</v>
       </c>
     </row>
-    <row r="112" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A112" s="96"/>
+    <row r="112" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A112" s="92"/>
       <c r="B112" s="87" t="s">
         <v>14</v>
       </c>
@@ -24575,8 +24592,8 @@
         <v>3.612164506622016E-4</v>
       </c>
     </row>
-    <row r="113" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A113" s="96"/>
+    <row r="113" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A113" s="92"/>
       <c r="B113" s="87" t="s">
         <v>15</v>
       </c>
@@ -24632,11 +24649,11 @@
         <v>2.837882423265888E-4</v>
       </c>
     </row>
-    <row r="114" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A114" s="96" t="s">
-        <v>97</v>
-      </c>
-      <c r="B114" s="88" t="s">
+    <row r="114" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A114" s="92" t="s">
+        <v>101</v>
+      </c>
+      <c r="B114" s="89" t="s">
         <v>0</v>
       </c>
       <c r="C114" s="64">
@@ -24691,9 +24708,9 @@
         <v>1.2058515015357481E-5</v>
       </c>
     </row>
-    <row r="115" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A115" s="96"/>
-      <c r="B115" s="88" t="s">
+    <row r="115" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A115" s="92"/>
+      <c r="B115" s="89" t="s">
         <v>1</v>
       </c>
       <c r="C115" s="64">
@@ -24748,9 +24765,9 @@
         <v>7.2424132225365395E-2</v>
       </c>
     </row>
-    <row r="116" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A116" s="96"/>
-      <c r="B116" s="88" t="s">
+    <row r="116" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A116" s="92"/>
+      <c r="B116" s="89" t="s">
         <v>2</v>
       </c>
       <c r="C116" s="64">
@@ -24805,9 +24822,9 @@
         <v>0.35639723188910682</v>
       </c>
     </row>
-    <row r="117" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A117" s="96"/>
-      <c r="B117" s="88" t="s">
+    <row r="117" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A117" s="92"/>
+      <c r="B117" s="89" t="s">
         <v>3</v>
       </c>
       <c r="C117" s="64">
@@ -24862,9 +24879,9 @@
         <v>3.0692562089610038</v>
       </c>
     </row>
-    <row r="118" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A118" s="96"/>
-      <c r="B118" s="88" t="s">
+    <row r="118" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A118" s="92"/>
+      <c r="B118" s="89" t="s">
         <v>4</v>
       </c>
       <c r="C118" s="64">
@@ -24919,9 +24936,9 @@
         <v>4.658950445912172</v>
       </c>
     </row>
-    <row r="119" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A119" s="96"/>
-      <c r="B119" s="88" t="s">
+    <row r="119" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A119" s="92"/>
+      <c r="B119" s="89" t="s">
         <v>5</v>
       </c>
       <c r="C119" s="64">
@@ -24976,9 +24993,9 @@
         <v>6.1389412009355686</v>
       </c>
     </row>
-    <row r="120" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A120" s="96"/>
-      <c r="B120" s="88" t="s">
+    <row r="120" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A120" s="92"/>
+      <c r="B120" s="89" t="s">
         <v>6</v>
       </c>
       <c r="C120" s="64">
@@ -25033,9 +25050,9 @@
         <v>5.8794036051725866</v>
       </c>
     </row>
-    <row r="121" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A121" s="96"/>
-      <c r="B121" s="88" t="s">
+    <row r="121" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A121" s="92"/>
+      <c r="B121" s="89" t="s">
         <v>7</v>
       </c>
       <c r="C121" s="64">
@@ -25090,9 +25107,9 @@
         <v>6.1518951833502804</v>
       </c>
     </row>
-    <row r="122" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A122" s="96"/>
-      <c r="B122" s="88" t="s">
+    <row r="122" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A122" s="92"/>
+      <c r="B122" s="89" t="s">
         <v>8</v>
       </c>
       <c r="C122" s="64">
@@ -25147,9 +25164,9 @@
         <v>6.1320311526286613</v>
       </c>
     </row>
-    <row r="123" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A123" s="96"/>
-      <c r="B123" s="88" t="s">
+    <row r="123" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A123" s="92"/>
+      <c r="B123" s="89" t="s">
         <v>9</v>
       </c>
       <c r="C123" s="64">
@@ -25204,9 +25221,9 @@
         <v>4.7800797961607522</v>
       </c>
     </row>
-    <row r="124" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A124" s="96"/>
-      <c r="B124" s="88" t="s">
+    <row r="124" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A124" s="92"/>
+      <c r="B124" s="89" t="s">
         <v>10</v>
       </c>
       <c r="C124" s="64">
@@ -25261,9 +25278,9 @@
         <v>4.6347175792810988</v>
       </c>
     </row>
-    <row r="125" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A125" s="96"/>
-      <c r="B125" s="88" t="s">
+    <row r="125" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A125" s="92"/>
+      <c r="B125" s="89" t="s">
         <v>11</v>
       </c>
       <c r="C125" s="64">
@@ -25318,9 +25335,9 @@
         <v>2.9021826070533181</v>
       </c>
     </row>
-    <row r="126" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A126" s="96"/>
-      <c r="B126" s="88" t="s">
+    <row r="126" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A126" s="92"/>
+      <c r="B126" s="89" t="s">
         <v>12</v>
       </c>
       <c r="C126" s="64">
@@ -25375,9 +25392,9 @@
         <v>1.0893327022545689</v>
       </c>
     </row>
-    <row r="127" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A127" s="96"/>
-      <c r="B127" s="88" t="s">
+    <row r="127" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A127" s="92"/>
+      <c r="B127" s="89" t="s">
         <v>13</v>
       </c>
       <c r="C127" s="64">
@@ -25432,9 +25449,9 @@
         <v>6.0687793070067367E-4</v>
       </c>
     </row>
-    <row r="128" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A128" s="96"/>
-      <c r="B128" s="88" t="s">
+    <row r="128" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A128" s="92"/>
+      <c r="B128" s="89" t="s">
         <v>14</v>
       </c>
       <c r="C128" s="64">
@@ -25489,9 +25506,9 @@
         <v>3.612164506622016E-4</v>
       </c>
     </row>
-    <row r="129" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A129" s="96"/>
-      <c r="B129" s="88" t="s">
+    <row r="129" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A129" s="92"/>
+      <c r="B129" s="89" t="s">
         <v>15</v>
       </c>
       <c r="C129" s="64">
@@ -25568,13 +25585,13 @@
   </sheetPr>
   <dimension ref="A1:S129"/>
   <sheetViews>
-    <sheetView topLeftCell="A100" workbookViewId="0">
-      <selection activeCell="B114" sqref="B114:S129"/>
+    <sheetView tabSelected="1" topLeftCell="A91" workbookViewId="0">
+      <selection activeCell="B98" sqref="B98:S113"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.7265625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>17</v>
       </c>
@@ -25633,8 +25650,8 @@
         <v>16</v>
       </c>
     </row>
-    <row r="2" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A2" s="96" t="s">
+    <row r="2" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A2" s="92" t="s">
         <v>84</v>
       </c>
       <c r="B2" s="44" t="s">
@@ -25692,8 +25709,8 @@
         <v>4.7498894637864026</v>
       </c>
     </row>
-    <row r="3" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A3" s="96"/>
+    <row r="3" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A3" s="92"/>
       <c r="B3" s="44" t="s">
         <v>1</v>
       </c>
@@ -25749,8 +25766,8 @@
         <v>6.4272771393586838</v>
       </c>
     </row>
-    <row r="4" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A4" s="96"/>
+    <row r="4" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A4" s="92"/>
       <c r="B4" s="44" t="s">
         <v>2</v>
       </c>
@@ -25806,8 +25823,8 @@
         <v>9.4200243618296984</v>
       </c>
     </row>
-    <row r="5" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A5" s="96"/>
+    <row r="5" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A5" s="92"/>
       <c r="B5" s="44" t="s">
         <v>3</v>
       </c>
@@ -25863,8 +25880,8 @@
         <v>11.32197471246622</v>
       </c>
     </row>
-    <row r="6" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A6" s="96"/>
+    <row r="6" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A6" s="92"/>
       <c r="B6" s="44" t="s">
         <v>4</v>
       </c>
@@ -25920,8 +25937,8 @@
         <v>9.6836760051789863</v>
       </c>
     </row>
-    <row r="7" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A7" s="96"/>
+    <row r="7" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A7" s="92"/>
       <c r="B7" s="44" t="s">
         <v>5</v>
       </c>
@@ -25977,8 +25994,8 @@
         <v>7.2372303426020004</v>
       </c>
     </row>
-    <row r="8" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A8" s="96"/>
+    <row r="8" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A8" s="92"/>
       <c r="B8" s="44" t="s">
         <v>6</v>
       </c>
@@ -26034,8 +26051,8 @@
         <v>5.9000313503874056</v>
       </c>
     </row>
-    <row r="9" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A9" s="96"/>
+    <row r="9" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A9" s="92"/>
       <c r="B9" s="44" t="s">
         <v>7</v>
       </c>
@@ -26091,8 +26108,8 @@
         <v>4.9155866144828684</v>
       </c>
     </row>
-    <row r="10" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A10" s="96"/>
+    <row r="10" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A10" s="92"/>
       <c r="B10" s="44" t="s">
         <v>8</v>
       </c>
@@ -26148,8 +26165,8 @@
         <v>4.0484397943428352</v>
       </c>
     </row>
-    <row r="11" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A11" s="96"/>
+    <row r="11" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A11" s="92"/>
       <c r="B11" s="44" t="s">
         <v>9</v>
       </c>
@@ -26205,8 +26222,8 @@
         <v>2.677253078667813</v>
       </c>
     </row>
-    <row r="12" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A12" s="96"/>
+    <row r="12" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A12" s="92"/>
       <c r="B12" s="44" t="s">
         <v>10</v>
       </c>
@@ -26262,8 +26279,8 @@
         <v>3.1445841750302348</v>
       </c>
     </row>
-    <row r="13" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A13" s="96"/>
+    <row r="13" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A13" s="92"/>
       <c r="B13" s="44" t="s">
         <v>11</v>
       </c>
@@ -26319,8 +26336,8 @@
         <v>2.8116132063136541</v>
       </c>
     </row>
-    <row r="14" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A14" s="96"/>
+    <row r="14" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A14" s="92"/>
       <c r="B14" s="44" t="s">
         <v>12</v>
       </c>
@@ -26376,8 +26393,8 @@
         <v>2.229720858571353</v>
       </c>
     </row>
-    <row r="15" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A15" s="96"/>
+    <row r="15" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A15" s="92"/>
       <c r="B15" s="44" t="s">
         <v>13</v>
       </c>
@@ -26433,8 +26450,8 @@
         <v>1.874402929097799</v>
       </c>
     </row>
-    <row r="16" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A16" s="96"/>
+    <row r="16" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A16" s="92"/>
       <c r="B16" s="44" t="s">
         <v>14</v>
       </c>
@@ -26490,8 +26507,8 @@
         <v>1.685990241846554</v>
       </c>
     </row>
-    <row r="17" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A17" s="96"/>
+    <row r="17" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A17" s="92"/>
       <c r="B17" s="44" t="s">
         <v>15</v>
       </c>
@@ -26547,8 +26564,8 @@
         <v>0.83028095193060347</v>
       </c>
     </row>
-    <row r="18" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A18" s="96" t="s">
+    <row r="18" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A18" s="92" t="s">
         <v>88</v>
       </c>
       <c r="B18" s="44" t="s">
@@ -26606,8 +26623,8 @@
         <v>4.7498894637864026</v>
       </c>
     </row>
-    <row r="19" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A19" s="96"/>
+    <row r="19" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A19" s="92"/>
       <c r="B19" s="44" t="s">
         <v>1</v>
       </c>
@@ -26663,8 +26680,8 @@
         <v>6.4272771393586838</v>
       </c>
     </row>
-    <row r="20" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A20" s="96"/>
+    <row r="20" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A20" s="92"/>
       <c r="B20" s="44" t="s">
         <v>2</v>
       </c>
@@ -26720,8 +26737,8 @@
         <v>9.4200243618296984</v>
       </c>
     </row>
-    <row r="21" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A21" s="96"/>
+    <row r="21" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A21" s="92"/>
       <c r="B21" s="44" t="s">
         <v>3</v>
       </c>
@@ -26777,8 +26794,8 @@
         <v>11.32197471246622</v>
       </c>
     </row>
-    <row r="22" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A22" s="96"/>
+    <row r="22" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A22" s="92"/>
       <c r="B22" s="44" t="s">
         <v>4</v>
       </c>
@@ -26834,8 +26851,8 @@
         <v>9.6836760051789863</v>
       </c>
     </row>
-    <row r="23" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A23" s="96"/>
+    <row r="23" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A23" s="92"/>
       <c r="B23" s="44" t="s">
         <v>5</v>
       </c>
@@ -26891,8 +26908,8 @@
         <v>7.2372303426020004</v>
       </c>
     </row>
-    <row r="24" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A24" s="96"/>
+    <row r="24" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A24" s="92"/>
       <c r="B24" s="44" t="s">
         <v>6</v>
       </c>
@@ -26948,8 +26965,8 @@
         <v>5.9000313503874056</v>
       </c>
     </row>
-    <row r="25" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A25" s="96"/>
+    <row r="25" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A25" s="92"/>
       <c r="B25" s="44" t="s">
         <v>7</v>
       </c>
@@ -27005,8 +27022,8 @@
         <v>4.9155866144828684</v>
       </c>
     </row>
-    <row r="26" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A26" s="96"/>
+    <row r="26" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A26" s="92"/>
       <c r="B26" s="44" t="s">
         <v>8</v>
       </c>
@@ -27062,8 +27079,8 @@
         <v>4.0484397943428352</v>
       </c>
     </row>
-    <row r="27" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A27" s="96"/>
+    <row r="27" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A27" s="92"/>
       <c r="B27" s="44" t="s">
         <v>9</v>
       </c>
@@ -27119,8 +27136,8 @@
         <v>2.677253078667813</v>
       </c>
     </row>
-    <row r="28" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A28" s="96"/>
+    <row r="28" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A28" s="92"/>
       <c r="B28" s="44" t="s">
         <v>10</v>
       </c>
@@ -27176,8 +27193,8 @@
         <v>3.1445841750302348</v>
       </c>
     </row>
-    <row r="29" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A29" s="96"/>
+    <row r="29" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A29" s="92"/>
       <c r="B29" s="44" t="s">
         <v>11</v>
       </c>
@@ -27233,8 +27250,8 @@
         <v>2.8116132063136541</v>
       </c>
     </row>
-    <row r="30" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A30" s="96"/>
+    <row r="30" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A30" s="92"/>
       <c r="B30" s="44" t="s">
         <v>12</v>
       </c>
@@ -27290,8 +27307,8 @@
         <v>2.229720858571353</v>
       </c>
     </row>
-    <row r="31" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A31" s="96"/>
+    <row r="31" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A31" s="92"/>
       <c r="B31" s="44" t="s">
         <v>13</v>
       </c>
@@ -27347,8 +27364,8 @@
         <v>1.874402929097799</v>
       </c>
     </row>
-    <row r="32" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A32" s="96"/>
+    <row r="32" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A32" s="92"/>
       <c r="B32" s="44" t="s">
         <v>14</v>
       </c>
@@ -27404,8 +27421,8 @@
         <v>1.685990241846554</v>
       </c>
     </row>
-    <row r="33" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A33" s="96"/>
+    <row r="33" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A33" s="92"/>
       <c r="B33" s="44" t="s">
         <v>15</v>
       </c>
@@ -27461,8 +27478,8 @@
         <v>0.83028095193060347</v>
       </c>
     </row>
-    <row r="34" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A34" s="96" t="s">
+    <row r="34" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A34" s="92" t="s">
         <v>87</v>
       </c>
       <c r="B34" s="44" t="s">
@@ -27520,8 +27537,8 @@
         <v>4.7498894637864026</v>
       </c>
     </row>
-    <row r="35" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A35" s="96"/>
+    <row r="35" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A35" s="92"/>
       <c r="B35" s="44" t="s">
         <v>1</v>
       </c>
@@ -27577,8 +27594,8 @@
         <v>6.4272771393586838</v>
       </c>
     </row>
-    <row r="36" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A36" s="96"/>
+    <row r="36" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A36" s="92"/>
       <c r="B36" s="44" t="s">
         <v>2</v>
       </c>
@@ -27634,8 +27651,8 @@
         <v>9.4200243618296984</v>
       </c>
     </row>
-    <row r="37" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A37" s="96"/>
+    <row r="37" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A37" s="92"/>
       <c r="B37" s="44" t="s">
         <v>3</v>
       </c>
@@ -27691,8 +27708,8 @@
         <v>11.32197471246622</v>
       </c>
     </row>
-    <row r="38" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A38" s="96"/>
+    <row r="38" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A38" s="92"/>
       <c r="B38" s="44" t="s">
         <v>4</v>
       </c>
@@ -27748,8 +27765,8 @@
         <v>9.6836760051789863</v>
       </c>
     </row>
-    <row r="39" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A39" s="96"/>
+    <row r="39" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A39" s="92"/>
       <c r="B39" s="44" t="s">
         <v>5</v>
       </c>
@@ -27805,8 +27822,8 @@
         <v>7.2372303426020004</v>
       </c>
     </row>
-    <row r="40" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A40" s="96"/>
+    <row r="40" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A40" s="92"/>
       <c r="B40" s="44" t="s">
         <v>6</v>
       </c>
@@ -27862,8 +27879,8 @@
         <v>5.9000313503874056</v>
       </c>
     </row>
-    <row r="41" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A41" s="96"/>
+    <row r="41" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A41" s="92"/>
       <c r="B41" s="44" t="s">
         <v>7</v>
       </c>
@@ -27919,8 +27936,8 @@
         <v>4.9155866144828684</v>
       </c>
     </row>
-    <row r="42" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A42" s="96"/>
+    <row r="42" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A42" s="92"/>
       <c r="B42" s="44" t="s">
         <v>8</v>
       </c>
@@ -27976,8 +27993,8 @@
         <v>4.0484397943428352</v>
       </c>
     </row>
-    <row r="43" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A43" s="96"/>
+    <row r="43" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A43" s="92"/>
       <c r="B43" s="44" t="s">
         <v>9</v>
       </c>
@@ -28033,8 +28050,8 @@
         <v>2.677253078667813</v>
       </c>
     </row>
-    <row r="44" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A44" s="96"/>
+    <row r="44" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A44" s="92"/>
       <c r="B44" s="44" t="s">
         <v>10</v>
       </c>
@@ -28090,8 +28107,8 @@
         <v>3.1445841750302348</v>
       </c>
     </row>
-    <row r="45" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A45" s="96"/>
+    <row r="45" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A45" s="92"/>
       <c r="B45" s="44" t="s">
         <v>11</v>
       </c>
@@ -28147,8 +28164,8 @@
         <v>2.8116132063136541</v>
       </c>
     </row>
-    <row r="46" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A46" s="96"/>
+    <row r="46" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A46" s="92"/>
       <c r="B46" s="44" t="s">
         <v>12</v>
       </c>
@@ -28204,8 +28221,8 @@
         <v>2.229720858571353</v>
       </c>
     </row>
-    <row r="47" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A47" s="96"/>
+    <row r="47" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A47" s="92"/>
       <c r="B47" s="44" t="s">
         <v>13</v>
       </c>
@@ -28261,8 +28278,8 @@
         <v>1.874402929097799</v>
       </c>
     </row>
-    <row r="48" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A48" s="96"/>
+    <row r="48" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A48" s="92"/>
       <c r="B48" s="44" t="s">
         <v>14</v>
       </c>
@@ -28318,8 +28335,8 @@
         <v>1.685990241846554</v>
       </c>
     </row>
-    <row r="49" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A49" s="96"/>
+    <row r="49" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A49" s="92"/>
       <c r="B49" s="44" t="s">
         <v>15</v>
       </c>
@@ -28375,8 +28392,8 @@
         <v>0.83028095193060347</v>
       </c>
     </row>
-    <row r="50" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A50" s="96" t="s">
+    <row r="50" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A50" s="92" t="s">
         <v>85</v>
       </c>
       <c r="B50" s="44" t="s">
@@ -28434,8 +28451,8 @@
         <v>4.7498894637864026</v>
       </c>
     </row>
-    <row r="51" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A51" s="96"/>
+    <row r="51" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A51" s="92"/>
       <c r="B51" s="44" t="s">
         <v>1</v>
       </c>
@@ -28491,8 +28508,8 @@
         <v>6.4272771393586838</v>
       </c>
     </row>
-    <row r="52" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A52" s="96"/>
+    <row r="52" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A52" s="92"/>
       <c r="B52" s="44" t="s">
         <v>2</v>
       </c>
@@ -28548,8 +28565,8 @@
         <v>9.4200243618296984</v>
       </c>
     </row>
-    <row r="53" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A53" s="96"/>
+    <row r="53" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A53" s="92"/>
       <c r="B53" s="44" t="s">
         <v>3</v>
       </c>
@@ -28605,8 +28622,8 @@
         <v>11.32197471246622</v>
       </c>
     </row>
-    <row r="54" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A54" s="96"/>
+    <row r="54" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A54" s="92"/>
       <c r="B54" s="44" t="s">
         <v>4</v>
       </c>
@@ -28662,8 +28679,8 @@
         <v>9.6836760051789863</v>
       </c>
     </row>
-    <row r="55" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A55" s="96"/>
+    <row r="55" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A55" s="92"/>
       <c r="B55" s="44" t="s">
         <v>5</v>
       </c>
@@ -28719,8 +28736,8 @@
         <v>7.2372303426020004</v>
       </c>
     </row>
-    <row r="56" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A56" s="96"/>
+    <row r="56" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A56" s="92"/>
       <c r="B56" s="44" t="s">
         <v>6</v>
       </c>
@@ -28776,8 +28793,8 @@
         <v>5.9000313503874056</v>
       </c>
     </row>
-    <row r="57" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A57" s="96"/>
+    <row r="57" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A57" s="92"/>
       <c r="B57" s="44" t="s">
         <v>7</v>
       </c>
@@ -28833,8 +28850,8 @@
         <v>4.9155866144828684</v>
       </c>
     </row>
-    <row r="58" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A58" s="96"/>
+    <row r="58" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A58" s="92"/>
       <c r="B58" s="44" t="s">
         <v>8</v>
       </c>
@@ -28890,8 +28907,8 @@
         <v>4.0484397943428352</v>
       </c>
     </row>
-    <row r="59" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A59" s="96"/>
+    <row r="59" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A59" s="92"/>
       <c r="B59" s="44" t="s">
         <v>9</v>
       </c>
@@ -28947,8 +28964,8 @@
         <v>2.677253078667813</v>
       </c>
     </row>
-    <row r="60" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A60" s="96"/>
+    <row r="60" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A60" s="92"/>
       <c r="B60" s="44" t="s">
         <v>10</v>
       </c>
@@ -29004,8 +29021,8 @@
         <v>3.1445841750302348</v>
       </c>
     </row>
-    <row r="61" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A61" s="96"/>
+    <row r="61" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A61" s="92"/>
       <c r="B61" s="44" t="s">
         <v>11</v>
       </c>
@@ -29061,8 +29078,8 @@
         <v>2.8116132063136541</v>
       </c>
     </row>
-    <row r="62" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A62" s="96"/>
+    <row r="62" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A62" s="92"/>
       <c r="B62" s="44" t="s">
         <v>12</v>
       </c>
@@ -29118,8 +29135,8 @@
         <v>2.229720858571353</v>
       </c>
     </row>
-    <row r="63" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A63" s="96"/>
+    <row r="63" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A63" s="92"/>
       <c r="B63" s="44" t="s">
         <v>13</v>
       </c>
@@ -29175,8 +29192,8 @@
         <v>1.874402929097799</v>
       </c>
     </row>
-    <row r="64" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A64" s="96"/>
+    <row r="64" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A64" s="92"/>
       <c r="B64" s="44" t="s">
         <v>14</v>
       </c>
@@ -29232,8 +29249,8 @@
         <v>1.685990241846554</v>
       </c>
     </row>
-    <row r="65" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A65" s="96"/>
+    <row r="65" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A65" s="92"/>
       <c r="B65" s="44" t="s">
         <v>15</v>
       </c>
@@ -29289,8 +29306,8 @@
         <v>0.83028095193060347</v>
       </c>
     </row>
-    <row r="66" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A66" s="96" t="s">
+    <row r="66" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A66" s="92" t="s">
         <v>86</v>
       </c>
       <c r="B66" s="44" t="s">
@@ -29348,8 +29365,8 @@
         <v>4.7498894637864026</v>
       </c>
     </row>
-    <row r="67" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A67" s="96"/>
+    <row r="67" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A67" s="92"/>
       <c r="B67" s="44" t="s">
         <v>1</v>
       </c>
@@ -29405,8 +29422,8 @@
         <v>6.4272771393586838</v>
       </c>
     </row>
-    <row r="68" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A68" s="96"/>
+    <row r="68" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A68" s="92"/>
       <c r="B68" s="44" t="s">
         <v>2</v>
       </c>
@@ -29462,8 +29479,8 @@
         <v>9.4200243618296984</v>
       </c>
     </row>
-    <row r="69" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A69" s="96"/>
+    <row r="69" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A69" s="92"/>
       <c r="B69" s="44" t="s">
         <v>3</v>
       </c>
@@ -29519,8 +29536,8 @@
         <v>11.32197471246622</v>
       </c>
     </row>
-    <row r="70" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A70" s="96"/>
+    <row r="70" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A70" s="92"/>
       <c r="B70" s="44" t="s">
         <v>4</v>
       </c>
@@ -29576,8 +29593,8 @@
         <v>9.6836760051789863</v>
       </c>
     </row>
-    <row r="71" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A71" s="96"/>
+    <row r="71" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A71" s="92"/>
       <c r="B71" s="44" t="s">
         <v>5</v>
       </c>
@@ -29633,8 +29650,8 @@
         <v>7.2372303426020004</v>
       </c>
     </row>
-    <row r="72" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A72" s="96"/>
+    <row r="72" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A72" s="92"/>
       <c r="B72" s="44" t="s">
         <v>6</v>
       </c>
@@ -29690,8 +29707,8 @@
         <v>5.9000313503874056</v>
       </c>
     </row>
-    <row r="73" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A73" s="96"/>
+    <row r="73" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A73" s="92"/>
       <c r="B73" s="44" t="s">
         <v>7</v>
       </c>
@@ -29747,8 +29764,8 @@
         <v>4.9155866144828684</v>
       </c>
     </row>
-    <row r="74" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A74" s="96"/>
+    <row r="74" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A74" s="92"/>
       <c r="B74" s="44" t="s">
         <v>8</v>
       </c>
@@ -29804,8 +29821,8 @@
         <v>4.0484397943428352</v>
       </c>
     </row>
-    <row r="75" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A75" s="96"/>
+    <row r="75" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A75" s="92"/>
       <c r="B75" s="44" t="s">
         <v>9</v>
       </c>
@@ -29861,8 +29878,8 @@
         <v>2.677253078667813</v>
       </c>
     </row>
-    <row r="76" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A76" s="96"/>
+    <row r="76" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A76" s="92"/>
       <c r="B76" s="44" t="s">
         <v>10</v>
       </c>
@@ -29918,8 +29935,8 @@
         <v>3.1445841750302348</v>
       </c>
     </row>
-    <row r="77" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A77" s="96"/>
+    <row r="77" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A77" s="92"/>
       <c r="B77" s="44" t="s">
         <v>11</v>
       </c>
@@ -29975,8 +29992,8 @@
         <v>2.8116132063136541</v>
       </c>
     </row>
-    <row r="78" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A78" s="96"/>
+    <row r="78" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A78" s="92"/>
       <c r="B78" s="44" t="s">
         <v>12</v>
       </c>
@@ -30032,8 +30049,8 @@
         <v>2.229720858571353</v>
       </c>
     </row>
-    <row r="79" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A79" s="96"/>
+    <row r="79" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A79" s="92"/>
       <c r="B79" s="44" t="s">
         <v>13</v>
       </c>
@@ -30089,8 +30106,8 @@
         <v>1.874402929097799</v>
       </c>
     </row>
-    <row r="80" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A80" s="96"/>
+    <row r="80" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A80" s="92"/>
       <c r="B80" s="44" t="s">
         <v>14</v>
       </c>
@@ -30146,8 +30163,8 @@
         <v>1.685990241846554</v>
       </c>
     </row>
-    <row r="81" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A81" s="96"/>
+    <row r="81" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A81" s="92"/>
       <c r="B81" s="44" t="s">
         <v>15</v>
       </c>
@@ -30203,8 +30220,8 @@
         <v>0.83028095193060347</v>
       </c>
     </row>
-    <row r="82" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A82" s="96" t="s">
+    <row r="82" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A82" s="92" t="s">
         <v>96</v>
       </c>
       <c r="B82" s="87" t="s">
@@ -30262,8 +30279,8 @@
         <v>4.7498894637864026</v>
       </c>
     </row>
-    <row r="83" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A83" s="96"/>
+    <row r="83" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A83" s="92"/>
       <c r="B83" s="87" t="s">
         <v>1</v>
       </c>
@@ -30319,8 +30336,8 @@
         <v>6.4272771393586838</v>
       </c>
     </row>
-    <row r="84" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A84" s="96"/>
+    <row r="84" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A84" s="92"/>
       <c r="B84" s="87" t="s">
         <v>2</v>
       </c>
@@ -30376,8 +30393,8 @@
         <v>9.4200243618296984</v>
       </c>
     </row>
-    <row r="85" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A85" s="96"/>
+    <row r="85" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A85" s="92"/>
       <c r="B85" s="87" t="s">
         <v>3</v>
       </c>
@@ -30433,8 +30450,8 @@
         <v>11.32197471246622</v>
       </c>
     </row>
-    <row r="86" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A86" s="96"/>
+    <row r="86" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A86" s="92"/>
       <c r="B86" s="87" t="s">
         <v>4</v>
       </c>
@@ -30490,8 +30507,8 @@
         <v>9.6836760051789863</v>
       </c>
     </row>
-    <row r="87" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A87" s="96"/>
+    <row r="87" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A87" s="92"/>
       <c r="B87" s="87" t="s">
         <v>5</v>
       </c>
@@ -30547,8 +30564,8 @@
         <v>7.2372303426020004</v>
       </c>
     </row>
-    <row r="88" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A88" s="96"/>
+    <row r="88" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A88" s="92"/>
       <c r="B88" s="87" t="s">
         <v>6</v>
       </c>
@@ -30604,8 +30621,8 @@
         <v>5.9000313503874056</v>
       </c>
     </row>
-    <row r="89" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A89" s="96"/>
+    <row r="89" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A89" s="92"/>
       <c r="B89" s="87" t="s">
         <v>7</v>
       </c>
@@ -30661,8 +30678,8 @@
         <v>4.9155866144828684</v>
       </c>
     </row>
-    <row r="90" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A90" s="96"/>
+    <row r="90" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A90" s="92"/>
       <c r="B90" s="87" t="s">
         <v>8</v>
       </c>
@@ -30718,8 +30735,8 @@
         <v>4.0484397943428352</v>
       </c>
     </row>
-    <row r="91" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A91" s="96"/>
+    <row r="91" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A91" s="92"/>
       <c r="B91" s="87" t="s">
         <v>9</v>
       </c>
@@ -30775,8 +30792,8 @@
         <v>2.677253078667813</v>
       </c>
     </row>
-    <row r="92" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A92" s="96"/>
+    <row r="92" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A92" s="92"/>
       <c r="B92" s="87" t="s">
         <v>10</v>
       </c>
@@ -30832,8 +30849,8 @@
         <v>3.1445841750302348</v>
       </c>
     </row>
-    <row r="93" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A93" s="96"/>
+    <row r="93" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A93" s="92"/>
       <c r="B93" s="87" t="s">
         <v>11</v>
       </c>
@@ -30889,8 +30906,8 @@
         <v>2.8116132063136541</v>
       </c>
     </row>
-    <row r="94" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A94" s="96"/>
+    <row r="94" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A94" s="92"/>
       <c r="B94" s="87" t="s">
         <v>12</v>
       </c>
@@ -30946,8 +30963,8 @@
         <v>2.229720858571353</v>
       </c>
     </row>
-    <row r="95" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A95" s="96"/>
+    <row r="95" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A95" s="92"/>
       <c r="B95" s="87" t="s">
         <v>13</v>
       </c>
@@ -31003,8 +31020,8 @@
         <v>1.874402929097799</v>
       </c>
     </row>
-    <row r="96" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A96" s="96"/>
+    <row r="96" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A96" s="92"/>
       <c r="B96" s="87" t="s">
         <v>14</v>
       </c>
@@ -31060,8 +31077,8 @@
         <v>1.685990241846554</v>
       </c>
     </row>
-    <row r="97" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A97" s="96"/>
+    <row r="97" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A97" s="92"/>
       <c r="B97" s="87" t="s">
         <v>15</v>
       </c>
@@ -31117,11 +31134,11 @@
         <v>0.83028095193060347</v>
       </c>
     </row>
-    <row r="98" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A98" s="96" t="s">
+    <row r="98" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A98" s="92" t="s">
         <v>95</v>
       </c>
-      <c r="B98" s="88" t="s">
+      <c r="B98" s="89" t="s">
         <v>0</v>
       </c>
       <c r="C98" s="64">
@@ -31176,9 +31193,9 @@
         <v>4.7498894637864026</v>
       </c>
     </row>
-    <row r="99" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A99" s="96"/>
-      <c r="B99" s="88" t="s">
+    <row r="99" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A99" s="92"/>
+      <c r="B99" s="89" t="s">
         <v>1</v>
       </c>
       <c r="C99" s="64">
@@ -31233,9 +31250,9 @@
         <v>6.4272771393586838</v>
       </c>
     </row>
-    <row r="100" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A100" s="96"/>
-      <c r="B100" s="88" t="s">
+    <row r="100" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A100" s="92"/>
+      <c r="B100" s="89" t="s">
         <v>2</v>
       </c>
       <c r="C100" s="64">
@@ -31290,9 +31307,9 @@
         <v>9.4200243618296984</v>
       </c>
     </row>
-    <row r="101" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A101" s="96"/>
-      <c r="B101" s="88" t="s">
+    <row r="101" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A101" s="92"/>
+      <c r="B101" s="89" t="s">
         <v>3</v>
       </c>
       <c r="C101" s="64">
@@ -31347,9 +31364,9 @@
         <v>11.32197471246622</v>
       </c>
     </row>
-    <row r="102" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A102" s="96"/>
-      <c r="B102" s="88" t="s">
+    <row r="102" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A102" s="92"/>
+      <c r="B102" s="89" t="s">
         <v>4</v>
       </c>
       <c r="C102" s="64">
@@ -31404,9 +31421,9 @@
         <v>9.6836760051789863</v>
       </c>
     </row>
-    <row r="103" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A103" s="96"/>
-      <c r="B103" s="88" t="s">
+    <row r="103" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A103" s="92"/>
+      <c r="B103" s="89" t="s">
         <v>5</v>
       </c>
       <c r="C103" s="64">
@@ -31461,9 +31478,9 @@
         <v>7.2372303426020004</v>
       </c>
     </row>
-    <row r="104" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A104" s="96"/>
-      <c r="B104" s="88" t="s">
+    <row r="104" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A104" s="92"/>
+      <c r="B104" s="89" t="s">
         <v>6</v>
       </c>
       <c r="C104" s="64">
@@ -31518,9 +31535,9 @@
         <v>5.9000313503874056</v>
       </c>
     </row>
-    <row r="105" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A105" s="96"/>
-      <c r="B105" s="88" t="s">
+    <row r="105" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A105" s="92"/>
+      <c r="B105" s="89" t="s">
         <v>7</v>
       </c>
       <c r="C105" s="64">
@@ -31575,9 +31592,9 @@
         <v>4.9155866144828684</v>
       </c>
     </row>
-    <row r="106" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A106" s="96"/>
-      <c r="B106" s="88" t="s">
+    <row r="106" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A106" s="92"/>
+      <c r="B106" s="89" t="s">
         <v>8</v>
       </c>
       <c r="C106" s="64">
@@ -31632,9 +31649,9 @@
         <v>4.0484397943428352</v>
       </c>
     </row>
-    <row r="107" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A107" s="96"/>
-      <c r="B107" s="88" t="s">
+    <row r="107" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A107" s="92"/>
+      <c r="B107" s="89" t="s">
         <v>9</v>
       </c>
       <c r="C107" s="64">
@@ -31689,9 +31706,9 @@
         <v>2.677253078667813</v>
       </c>
     </row>
-    <row r="108" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A108" s="96"/>
-      <c r="B108" s="88" t="s">
+    <row r="108" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A108" s="92"/>
+      <c r="B108" s="89" t="s">
         <v>10</v>
       </c>
       <c r="C108" s="64">
@@ -31746,9 +31763,9 @@
         <v>3.1445841750302348</v>
       </c>
     </row>
-    <row r="109" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A109" s="96"/>
-      <c r="B109" s="88" t="s">
+    <row r="109" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A109" s="92"/>
+      <c r="B109" s="89" t="s">
         <v>11</v>
       </c>
       <c r="C109" s="64">
@@ -31803,9 +31820,9 @@
         <v>2.8116132063136541</v>
       </c>
     </row>
-    <row r="110" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A110" s="96"/>
-      <c r="B110" s="88" t="s">
+    <row r="110" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A110" s="92"/>
+      <c r="B110" s="89" t="s">
         <v>12</v>
       </c>
       <c r="C110" s="64">
@@ -31860,9 +31877,9 @@
         <v>2.229720858571353</v>
       </c>
     </row>
-    <row r="111" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A111" s="96"/>
-      <c r="B111" s="88" t="s">
+    <row r="111" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A111" s="92"/>
+      <c r="B111" s="89" t="s">
         <v>13</v>
       </c>
       <c r="C111" s="64">
@@ -31917,9 +31934,9 @@
         <v>1.874402929097799</v>
       </c>
     </row>
-    <row r="112" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A112" s="96"/>
-      <c r="B112" s="88" t="s">
+    <row r="112" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A112" s="92"/>
+      <c r="B112" s="89" t="s">
         <v>14</v>
       </c>
       <c r="C112" s="64">
@@ -31974,9 +31991,9 @@
         <v>1.685990241846554</v>
       </c>
     </row>
-    <row r="113" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A113" s="96"/>
-      <c r="B113" s="88" t="s">
+    <row r="113" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A113" s="92"/>
+      <c r="B113" s="89" t="s">
         <v>15</v>
       </c>
       <c r="C113" s="64">
@@ -32031,11 +32048,11 @@
         <v>0.83028095193060347</v>
       </c>
     </row>
-    <row r="114" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A114" s="96" t="s">
-        <v>97</v>
-      </c>
-      <c r="B114" s="88" t="s">
+    <row r="114" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A114" s="92" t="s">
+        <v>101</v>
+      </c>
+      <c r="B114" s="89" t="s">
         <v>0</v>
       </c>
       <c r="C114" s="64">
@@ -32090,9 +32107,9 @@
         <v>4.7498894637864026</v>
       </c>
     </row>
-    <row r="115" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A115" s="96"/>
-      <c r="B115" s="88" t="s">
+    <row r="115" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A115" s="92"/>
+      <c r="B115" s="89" t="s">
         <v>1</v>
       </c>
       <c r="C115" s="64">
@@ -32147,9 +32164,9 @@
         <v>6.4272771393586838</v>
       </c>
     </row>
-    <row r="116" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A116" s="96"/>
-      <c r="B116" s="88" t="s">
+    <row r="116" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A116" s="92"/>
+      <c r="B116" s="89" t="s">
         <v>2</v>
       </c>
       <c r="C116" s="64">
@@ -32204,9 +32221,9 @@
         <v>9.4200243618296984</v>
       </c>
     </row>
-    <row r="117" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A117" s="96"/>
-      <c r="B117" s="88" t="s">
+    <row r="117" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A117" s="92"/>
+      <c r="B117" s="89" t="s">
         <v>3</v>
       </c>
       <c r="C117" s="64">
@@ -32261,9 +32278,9 @@
         <v>11.32197471246622</v>
       </c>
     </row>
-    <row r="118" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A118" s="96"/>
-      <c r="B118" s="88" t="s">
+    <row r="118" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A118" s="92"/>
+      <c r="B118" s="89" t="s">
         <v>4</v>
       </c>
       <c r="C118" s="64">
@@ -32318,9 +32335,9 @@
         <v>9.6836760051789863</v>
       </c>
     </row>
-    <row r="119" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A119" s="96"/>
-      <c r="B119" s="88" t="s">
+    <row r="119" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A119" s="92"/>
+      <c r="B119" s="89" t="s">
         <v>5</v>
       </c>
       <c r="C119" s="64">
@@ -32375,9 +32392,9 @@
         <v>7.2372303426020004</v>
       </c>
     </row>
-    <row r="120" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A120" s="96"/>
-      <c r="B120" s="88" t="s">
+    <row r="120" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A120" s="92"/>
+      <c r="B120" s="89" t="s">
         <v>6</v>
       </c>
       <c r="C120" s="64">
@@ -32432,9 +32449,9 @@
         <v>5.9000313503874056</v>
       </c>
     </row>
-    <row r="121" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A121" s="96"/>
-      <c r="B121" s="88" t="s">
+    <row r="121" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A121" s="92"/>
+      <c r="B121" s="89" t="s">
         <v>7</v>
       </c>
       <c r="C121" s="64">
@@ -32489,9 +32506,9 @@
         <v>4.9155866144828684</v>
       </c>
     </row>
-    <row r="122" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A122" s="96"/>
-      <c r="B122" s="88" t="s">
+    <row r="122" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A122" s="92"/>
+      <c r="B122" s="89" t="s">
         <v>8</v>
       </c>
       <c r="C122" s="64">
@@ -32546,9 +32563,9 @@
         <v>4.0484397943428352</v>
       </c>
     </row>
-    <row r="123" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A123" s="96"/>
-      <c r="B123" s="88" t="s">
+    <row r="123" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A123" s="92"/>
+      <c r="B123" s="89" t="s">
         <v>9</v>
       </c>
       <c r="C123" s="64">
@@ -32603,9 +32620,9 @@
         <v>2.677253078667813</v>
       </c>
     </row>
-    <row r="124" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A124" s="96"/>
-      <c r="B124" s="88" t="s">
+    <row r="124" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A124" s="92"/>
+      <c r="B124" s="89" t="s">
         <v>10</v>
       </c>
       <c r="C124" s="64">
@@ -32660,9 +32677,9 @@
         <v>3.1445841750302348</v>
       </c>
     </row>
-    <row r="125" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A125" s="96"/>
-      <c r="B125" s="88" t="s">
+    <row r="125" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A125" s="92"/>
+      <c r="B125" s="89" t="s">
         <v>11</v>
       </c>
       <c r="C125" s="64">
@@ -32717,9 +32734,9 @@
         <v>2.8116132063136541</v>
       </c>
     </row>
-    <row r="126" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A126" s="96"/>
-      <c r="B126" s="88" t="s">
+    <row r="126" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A126" s="92"/>
+      <c r="B126" s="89" t="s">
         <v>12</v>
       </c>
       <c r="C126" s="64">
@@ -32774,9 +32791,9 @@
         <v>2.229720858571353</v>
       </c>
     </row>
-    <row r="127" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A127" s="96"/>
-      <c r="B127" s="88" t="s">
+    <row r="127" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A127" s="92"/>
+      <c r="B127" s="89" t="s">
         <v>13</v>
       </c>
       <c r="C127" s="64">
@@ -32831,9 +32848,9 @@
         <v>1.874402929097799</v>
       </c>
     </row>
-    <row r="128" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A128" s="96"/>
-      <c r="B128" s="88" t="s">
+    <row r="128" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A128" s="92"/>
+      <c r="B128" s="89" t="s">
         <v>14</v>
       </c>
       <c r="C128" s="64">
@@ -32888,9 +32905,9 @@
         <v>1.685990241846554</v>
       </c>
     </row>
-    <row r="129" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A129" s="96"/>
-      <c r="B129" s="88" t="s">
+    <row r="129" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A129" s="92"/>
+      <c r="B129" s="89" t="s">
         <v>15</v>
       </c>
       <c r="C129" s="64">
@@ -32968,15 +32985,15 @@
   <dimension ref="A1:G9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C14" sqref="C14"/>
+      <selection activeCell="C18" sqref="C18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.7265625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="18" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>17</v>
       </c>
@@ -32999,7 +33016,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" s="44" t="s">
         <v>84</v>
       </c>
@@ -33022,7 +33039,7 @@
         <v>6.4000000000000057</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" s="44" t="s">
         <v>88</v>
       </c>
@@ -33045,7 +33062,7 @@
         <v>6.4000000000000057</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" s="44" t="s">
         <v>87</v>
       </c>
@@ -33068,7 +33085,7 @@
         <v>10.099999999999991</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" s="44" t="s">
         <v>85</v>
       </c>
@@ -33091,7 +33108,7 @@
         <v>10.099999999999991</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" s="44" t="s">
         <v>86</v>
       </c>
@@ -33114,7 +33131,7 @@
         <v>10.900000000000009</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" s="87" t="s">
         <v>96</v>
       </c>
@@ -33137,7 +33154,7 @@
         <v>6.4000000000000057</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8" s="87" t="s">
         <v>95</v>
       </c>
@@ -33160,9 +33177,9 @@
         <v>10.099999999999991</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A9" s="88" t="s">
-        <v>97</v>
+    <row r="9" spans="1:7" s="64" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="89" t="s">
+        <v>101</v>
       </c>
       <c r="B9" s="64">
         <v>11.8</v>
@@ -33196,23 +33213,23 @@
   <dimension ref="A1:I17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A18" sqref="A18"/>
+      <selection activeCell="C29" sqref="C29"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.54296875" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="27.7265625" style="39" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="13.1796875" style="39" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="41.453125" style="39" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="15.26953125" style="37" customWidth="1"/>
-    <col min="5" max="5" width="15.26953125" style="5" customWidth="1"/>
-    <col min="6" max="6" width="17.7265625" style="5" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="17.7265625" style="5" customWidth="1"/>
-    <col min="8" max="8" width="17.7265625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="10.453125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="27.7109375" style="39" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13.140625" style="39" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="41.42578125" style="39" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="15.28515625" style="37" customWidth="1"/>
+    <col min="5" max="5" width="15.28515625" style="5" customWidth="1"/>
+    <col min="6" max="6" width="17.7109375" style="5" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="17.7109375" style="5" customWidth="1"/>
+    <col min="8" max="8" width="17.7109375" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="10.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1" s="38" t="s">
         <v>17</v>
       </c>
@@ -33241,8 +33258,8 @@
         <v>67</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A2" s="97" t="s">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A2" s="95" t="s">
         <v>84</v>
       </c>
       <c r="B2" s="40" t="s">
@@ -33266,8 +33283,8 @@
       <c r="H2" s="23"/>
       <c r="I2" s="24"/>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A3" s="98"/>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A3" s="96"/>
       <c r="B3" s="41" t="s">
         <v>71</v>
       </c>
@@ -33285,8 +33302,8 @@
       <c r="H3" s="26"/>
       <c r="I3" s="27"/>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A4" s="99" t="s">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A4" s="93" t="s">
         <v>88</v>
       </c>
       <c r="B4" s="42" t="s">
@@ -33310,8 +33327,8 @@
       <c r="H4" s="18"/>
       <c r="I4" s="20"/>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A5" s="100"/>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A5" s="94"/>
       <c r="B5" s="43" t="s">
         <v>71</v>
       </c>
@@ -33329,8 +33346,8 @@
       <c r="H5" s="19"/>
       <c r="I5" s="21"/>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A6" s="97" t="s">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A6" s="95" t="s">
         <v>85</v>
       </c>
       <c r="B6" s="40" t="s">
@@ -33354,8 +33371,8 @@
       <c r="H6" s="23"/>
       <c r="I6" s="24"/>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A7" s="98"/>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A7" s="96"/>
       <c r="B7" s="41" t="s">
         <v>71</v>
       </c>
@@ -33373,8 +33390,8 @@
       <c r="H7" s="26"/>
       <c r="I7" s="27"/>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A8" s="99" t="s">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A8" s="93" t="s">
         <v>86</v>
       </c>
       <c r="B8" s="42" t="s">
@@ -33398,8 +33415,8 @@
       <c r="H8" s="18"/>
       <c r="I8" s="20"/>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A9" s="100"/>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A9" s="94"/>
       <c r="B9" s="43" t="s">
         <v>71</v>
       </c>
@@ -33417,8 +33434,8 @@
       <c r="H9" s="19"/>
       <c r="I9" s="21"/>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A10" s="97" t="s">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A10" s="95" t="s">
         <v>87</v>
       </c>
       <c r="B10" s="40" t="s">
@@ -33442,8 +33459,8 @@
       <c r="H10" s="23"/>
       <c r="I10" s="24"/>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A11" s="98"/>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A11" s="96"/>
       <c r="B11" s="41" t="s">
         <v>71</v>
       </c>
@@ -33461,8 +33478,8 @@
       <c r="H11" s="26"/>
       <c r="I11" s="27"/>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A12" s="99" t="s">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A12" s="93" t="s">
         <v>96</v>
       </c>
       <c r="B12" s="42" t="s">
@@ -33486,8 +33503,8 @@
       <c r="H12" s="18"/>
       <c r="I12" s="20"/>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A13" s="100"/>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A13" s="94"/>
       <c r="B13" s="43" t="s">
         <v>71</v>
       </c>
@@ -33505,8 +33522,8 @@
       <c r="H13" s="19"/>
       <c r="I13" s="21"/>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A14" s="97" t="s">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A14" s="95" t="s">
         <v>95</v>
       </c>
       <c r="B14" s="40" t="s">
@@ -33530,8 +33547,8 @@
       <c r="H14" s="67"/>
       <c r="I14" s="24"/>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A15" s="98"/>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A15" s="96"/>
       <c r="B15" s="41" t="s">
         <v>71</v>
       </c>
@@ -33549,49 +33566,49 @@
       <c r="H15" s="26"/>
       <c r="I15" s="27"/>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A16" s="97" t="s">
-        <v>97</v>
-      </c>
-      <c r="B16" s="40" t="s">
+    <row r="16" spans="1:9" s="60" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="106" t="s">
+        <v>101</v>
+      </c>
+      <c r="B16" s="107" t="s">
         <v>70</v>
       </c>
-      <c r="C16" s="24" t="s">
+      <c r="C16" s="108" t="s">
         <v>72</v>
       </c>
-      <c r="D16" s="35" t="s">
+      <c r="D16" s="109" t="s">
         <v>75</v>
       </c>
-      <c r="E16" s="35">
-        <v>0</v>
-      </c>
-      <c r="F16" s="35">
-        <v>0</v>
-      </c>
-      <c r="G16" s="35">
-        <v>0</v>
-      </c>
-      <c r="H16" s="67"/>
-      <c r="I16" s="24"/>
-    </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A17" s="98"/>
-      <c r="B17" s="41" t="s">
+      <c r="E16" s="109">
+        <v>0</v>
+      </c>
+      <c r="F16" s="109">
+        <v>0</v>
+      </c>
+      <c r="G16" s="109">
+        <v>0</v>
+      </c>
+      <c r="H16" s="56"/>
+      <c r="I16" s="108"/>
+    </row>
+    <row r="17" spans="1:9" s="60" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="110"/>
+      <c r="B17" s="111" t="s">
         <v>71</v>
       </c>
-      <c r="C17" s="27" t="s">
+      <c r="C17" s="112" t="s">
         <v>73</v>
       </c>
-      <c r="D17" s="26" t="s">
+      <c r="D17" s="113" t="s">
         <v>76</v>
       </c>
-      <c r="E17" s="26">
-        <v>0</v>
-      </c>
-      <c r="F17" s="26"/>
-      <c r="G17" s="26"/>
-      <c r="H17" s="26"/>
-      <c r="I17" s="27"/>
+      <c r="E17" s="113">
+        <v>0</v>
+      </c>
+      <c r="F17" s="113"/>
+      <c r="G17" s="113"/>
+      <c r="H17" s="113"/>
+      <c r="I17" s="112"/>
     </row>
   </sheetData>
   <mergeCells count="8">
@@ -33617,28 +33634,28 @@
   </sheetPr>
   <dimension ref="A1:M47"/>
   <sheetViews>
-    <sheetView topLeftCell="D40" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="J46" sqref="J46"/>
+    <sheetView topLeftCell="A22" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A42" sqref="A42:M47"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.7265625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="27.7265625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="18.26953125" style="31" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="45.453125" customWidth="1"/>
-    <col min="4" max="4" width="12.7265625" style="17" customWidth="1"/>
-    <col min="5" max="5" width="5.1796875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="2.1796875" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="2.7265625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="5.1796875" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="19.453125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="27.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="18.28515625" style="31" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="45.42578125" customWidth="1"/>
+    <col min="4" max="4" width="12.7109375" style="17" customWidth="1"/>
+    <col min="5" max="5" width="5.140625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="2.140625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="2.7109375" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="5.140625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="19.42578125" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="16" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="10.453125" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="34.7265625" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="18.26953125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="10.42578125" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="34.7109375" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="18.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A1" s="28" t="s">
         <v>17</v>
       </c>
@@ -33679,8 +33696,8 @@
         <v>67</v>
       </c>
     </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A2" s="108" t="s">
+    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A2" s="103" t="s">
         <v>84</v>
       </c>
       <c r="B2" s="45" t="s">
@@ -33716,8 +33733,8 @@
         <v>43911</v>
       </c>
     </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A3" s="109"/>
+    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A3" s="104"/>
       <c r="B3" s="46" t="s">
         <v>90</v>
       </c>
@@ -33749,8 +33766,8 @@
       </c>
       <c r="M3" s="74"/>
     </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A4" s="109"/>
+    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A4" s="104"/>
       <c r="B4" s="46" t="s">
         <v>91</v>
       </c>
@@ -33780,8 +33797,8 @@
       <c r="L4" s="74"/>
       <c r="M4" s="74"/>
     </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A5" s="109"/>
+    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A5" s="104"/>
       <c r="B5" s="46" t="s">
         <v>92</v>
       </c>
@@ -33811,8 +33828,8 @@
       <c r="L5" s="48"/>
       <c r="M5" s="48"/>
     </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A6" s="110"/>
+    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A6" s="105"/>
       <c r="B6" s="46" t="s">
         <v>93</v>
       </c>
@@ -33842,8 +33859,8 @@
       <c r="L6" s="48"/>
       <c r="M6" s="77"/>
     </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A7" s="101" t="s">
+    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A7" s="97" t="s">
         <v>88</v>
       </c>
       <c r="B7" s="61" t="s">
@@ -33879,8 +33896,8 @@
         <v>43911</v>
       </c>
     </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A8" s="104"/>
+    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A8" s="98"/>
       <c r="B8" s="82" t="s">
         <v>90</v>
       </c>
@@ -33912,8 +33929,8 @@
       </c>
       <c r="M8" s="57"/>
     </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A9" s="104"/>
+    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A9" s="98"/>
       <c r="B9" s="82" t="s">
         <v>91</v>
       </c>
@@ -33943,8 +33960,8 @@
       <c r="L9" s="57"/>
       <c r="M9" s="57"/>
     </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A10" s="104"/>
+    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A10" s="98"/>
       <c r="B10" s="82" t="s">
         <v>92</v>
       </c>
@@ -33974,8 +33991,8 @@
       <c r="L10" s="57"/>
       <c r="M10" s="57"/>
     </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A11" s="103"/>
+    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A11" s="99"/>
       <c r="B11" s="82" t="s">
         <v>93</v>
       </c>
@@ -34005,8 +34022,8 @@
       <c r="L11" s="57"/>
       <c r="M11" s="57"/>
     </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A12" s="105" t="s">
+    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A12" s="100" t="s">
         <v>85</v>
       </c>
       <c r="B12" s="69" t="s">
@@ -34042,8 +34059,8 @@
         <v>43911</v>
       </c>
     </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A13" s="106"/>
+    <row r="13" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A13" s="101"/>
       <c r="B13" s="71" t="s">
         <v>90</v>
       </c>
@@ -34077,8 +34094,8 @@
         <v>43956</v>
       </c>
     </row>
-    <row r="14" spans="1:13" s="64" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A14" s="106"/>
+    <row r="14" spans="1:13" s="64" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="101"/>
       <c r="B14" s="71" t="s">
         <v>94</v>
       </c>
@@ -34110,8 +34127,8 @@
       </c>
       <c r="M14" s="74"/>
     </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A15" s="106"/>
+    <row r="15" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A15" s="101"/>
       <c r="B15" s="71" t="s">
         <v>91</v>
       </c>
@@ -34141,8 +34158,8 @@
       <c r="L15" s="74"/>
       <c r="M15" s="74"/>
     </row>
-    <row r="16" spans="1:13" s="64" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A16" s="106"/>
+    <row r="16" spans="1:13" s="64" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="101"/>
       <c r="B16" s="71" t="s">
         <v>92</v>
       </c>
@@ -34172,8 +34189,8 @@
       <c r="L16" s="74"/>
       <c r="M16" s="74"/>
     </row>
-    <row r="17" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A17" s="107"/>
+    <row r="17" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A17" s="102"/>
       <c r="B17" s="71" t="s">
         <v>93</v>
       </c>
@@ -34203,8 +34220,8 @@
       <c r="L17" s="74"/>
       <c r="M17" s="77"/>
     </row>
-    <row r="18" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A18" s="101" t="s">
+    <row r="18" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A18" s="97" t="s">
         <v>86</v>
       </c>
       <c r="B18" s="61" t="s">
@@ -34240,8 +34257,8 @@
         <v>43911</v>
       </c>
     </row>
-    <row r="19" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A19" s="104"/>
+    <row r="19" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A19" s="98"/>
       <c r="B19" s="82" t="s">
         <v>90</v>
       </c>
@@ -34275,8 +34292,8 @@
         <v>43956</v>
       </c>
     </row>
-    <row r="20" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A20" s="104"/>
+    <row r="20" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A20" s="98"/>
       <c r="B20" s="82" t="s">
         <v>94</v>
       </c>
@@ -34308,8 +34325,8 @@
       </c>
       <c r="M20" s="57"/>
     </row>
-    <row r="21" spans="1:13" s="64" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A21" s="104"/>
+    <row r="21" spans="1:13" s="64" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="98"/>
       <c r="B21" s="82" t="s">
         <v>91</v>
       </c>
@@ -34339,8 +34356,8 @@
       <c r="L21" s="57"/>
       <c r="M21" s="57"/>
     </row>
-    <row r="22" spans="1:13" s="64" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A22" s="104"/>
+    <row r="22" spans="1:13" s="64" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A22" s="98"/>
       <c r="B22" s="82" t="s">
         <v>92</v>
       </c>
@@ -34370,8 +34387,8 @@
       <c r="L22" s="57"/>
       <c r="M22" s="57"/>
     </row>
-    <row r="23" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A23" s="103"/>
+    <row r="23" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A23" s="99"/>
       <c r="B23" s="82" t="s">
         <v>93</v>
       </c>
@@ -34401,8 +34418,8 @@
       <c r="L23" s="57"/>
       <c r="M23" s="85"/>
     </row>
-    <row r="24" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A24" s="105" t="s">
+    <row r="24" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A24" s="100" t="s">
         <v>87</v>
       </c>
       <c r="B24" s="45" t="s">
@@ -34438,8 +34455,8 @@
         <v>43911</v>
       </c>
     </row>
-    <row r="25" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A25" s="106"/>
+    <row r="25" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A25" s="101"/>
       <c r="B25" s="46" t="s">
         <v>90</v>
       </c>
@@ -34473,8 +34490,8 @@
         <v>43956</v>
       </c>
     </row>
-    <row r="26" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A26" s="106"/>
+    <row r="26" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A26" s="101"/>
       <c r="B26" s="46" t="s">
         <v>94</v>
       </c>
@@ -34506,8 +34523,8 @@
       </c>
       <c r="M26" s="74"/>
     </row>
-    <row r="27" spans="1:13" s="64" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A27" s="106"/>
+    <row r="27" spans="1:13" s="64" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A27" s="101"/>
       <c r="B27" s="71" t="s">
         <v>91</v>
       </c>
@@ -34537,8 +34554,8 @@
       <c r="L27" s="74"/>
       <c r="M27" s="74"/>
     </row>
-    <row r="28" spans="1:13" s="64" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A28" s="106"/>
+    <row r="28" spans="1:13" s="64" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A28" s="101"/>
       <c r="B28" s="71" t="s">
         <v>92</v>
       </c>
@@ -34568,8 +34585,8 @@
       <c r="L28" s="74"/>
       <c r="M28" s="75"/>
     </row>
-    <row r="29" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A29" s="107"/>
+    <row r="29" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A29" s="102"/>
       <c r="B29" s="79" t="s">
         <v>93</v>
       </c>
@@ -34599,18 +34616,18 @@
       <c r="L29" s="51"/>
       <c r="M29" s="52"/>
     </row>
-    <row r="30" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A30" s="101" t="s">
+    <row r="30" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A30" s="97" t="s">
         <v>96</v>
       </c>
       <c r="B30" s="61" t="s">
         <v>89</v>
       </c>
       <c r="C30" s="81" t="s">
-        <v>47</v>
+        <v>98</v>
       </c>
       <c r="D30" s="54">
-        <v>0.5</v>
+        <v>0.4</v>
       </c>
       <c r="E30" s="55">
         <v>1</v>
@@ -34630,22 +34647,22 @@
       <c r="J30" s="55"/>
       <c r="K30" s="55"/>
       <c r="L30" s="56">
-        <v>43907</v>
-      </c>
-      <c r="M30" s="84">
-        <v>43911</v>
-      </c>
-    </row>
-    <row r="31" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A31" s="104"/>
+        <v>43891</v>
+      </c>
+      <c r="M30" s="57">
+        <v>43908</v>
+      </c>
+    </row>
+    <row r="31" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A31" s="98"/>
       <c r="B31" s="82" t="s">
         <v>90</v>
       </c>
       <c r="C31" s="60" t="s">
-        <v>47</v>
+        <v>99</v>
       </c>
       <c r="D31" s="58">
-        <v>0.3</v>
+        <v>0.5</v>
       </c>
       <c r="E31" s="59">
         <v>1</v>
@@ -34665,22 +34682,22 @@
       <c r="J31" s="60"/>
       <c r="K31" s="60"/>
       <c r="L31" s="57">
-        <v>43911</v>
+        <v>43908</v>
       </c>
       <c r="M31" s="57">
-        <v>43956</v>
-      </c>
-    </row>
-    <row r="32" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A32" s="104"/>
+        <v>43976</v>
+      </c>
+    </row>
+    <row r="32" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A32" s="98"/>
       <c r="B32" s="82" t="s">
         <v>94</v>
       </c>
       <c r="C32" s="60" t="s">
-        <v>47</v>
+        <v>97</v>
       </c>
       <c r="D32" s="58">
-        <v>0.2</v>
+        <v>0.7</v>
       </c>
       <c r="E32" s="59">
         <v>1</v>
@@ -34700,20 +34717,22 @@
       <c r="J32" s="60"/>
       <c r="K32" s="60"/>
       <c r="L32" s="57">
-        <v>43956</v>
-      </c>
-      <c r="M32" s="57"/>
-    </row>
-    <row r="33" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A33" s="104"/>
+        <v>43976</v>
+      </c>
+      <c r="M32" s="57">
+        <v>43990</v>
+      </c>
+    </row>
+    <row r="33" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A33" s="98"/>
       <c r="B33" s="82" t="s">
         <v>91</v>
       </c>
       <c r="C33" s="60" t="s">
-        <v>65</v>
+        <v>100</v>
       </c>
       <c r="D33" s="58">
-        <v>0.3</v>
+        <v>0.8</v>
       </c>
       <c r="E33" s="60">
         <v>1</v>
@@ -34732,11 +34751,13 @@
       </c>
       <c r="J33" s="60"/>
       <c r="K33" s="60"/>
-      <c r="L33" s="57"/>
+      <c r="L33" s="57">
+        <v>43990</v>
+      </c>
       <c r="M33" s="57"/>
     </row>
-    <row r="34" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A34" s="104"/>
+    <row r="34" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A34" s="98"/>
       <c r="B34" s="82" t="s">
         <v>92</v>
       </c>
@@ -34766,8 +34787,8 @@
       <c r="L34" s="57"/>
       <c r="M34" s="57"/>
     </row>
-    <row r="35" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A35" s="103"/>
+    <row r="35" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A35" s="99"/>
       <c r="B35" s="82" t="s">
         <v>93</v>
       </c>
@@ -34797,8 +34818,8 @@
       <c r="L35" s="57"/>
       <c r="M35" s="85"/>
     </row>
-    <row r="36" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A36" s="105" t="s">
+    <row r="36" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A36" s="100" t="s">
         <v>95</v>
       </c>
       <c r="B36" s="69" t="s">
@@ -34834,8 +34855,8 @@
         <v>43911</v>
       </c>
     </row>
-    <row r="37" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A37" s="106"/>
+    <row r="37" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A37" s="101"/>
       <c r="B37" s="71" t="s">
         <v>90</v>
       </c>
@@ -34869,8 +34890,8 @@
         <v>43956</v>
       </c>
     </row>
-    <row r="38" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A38" s="106"/>
+    <row r="38" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A38" s="101"/>
       <c r="B38" s="71" t="s">
         <v>94</v>
       </c>
@@ -34902,8 +34923,8 @@
       </c>
       <c r="M38" s="74"/>
     </row>
-    <row r="39" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A39" s="106"/>
+    <row r="39" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A39" s="101"/>
       <c r="B39" s="71" t="s">
         <v>91</v>
       </c>
@@ -34933,8 +34954,8 @@
       <c r="L39" s="74"/>
       <c r="M39" s="74"/>
     </row>
-    <row r="40" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A40" s="106"/>
+    <row r="40" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A40" s="101"/>
       <c r="B40" s="71" t="s">
         <v>92</v>
       </c>
@@ -34964,8 +34985,8 @@
       <c r="L40" s="74"/>
       <c r="M40" s="75"/>
     </row>
-    <row r="41" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A41" s="107"/>
+    <row r="41" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A41" s="102"/>
       <c r="B41" s="79" t="s">
         <v>93</v>
       </c>
@@ -34995,207 +35016,207 @@
       <c r="L41" s="51"/>
       <c r="M41" s="77"/>
     </row>
-    <row r="42" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A42" s="101" t="s">
-        <v>97</v>
-      </c>
-      <c r="B42" s="61" t="s">
+    <row r="42" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A42" s="97" t="s">
+        <v>101</v>
+      </c>
+      <c r="B42" s="114" t="s">
         <v>89</v>
       </c>
-      <c r="C42" s="81" t="s">
+      <c r="C42" s="115" t="s">
         <v>47</v>
       </c>
-      <c r="D42" s="54">
+      <c r="D42" s="116">
         <v>0.5</v>
       </c>
-      <c r="E42" s="55">
+      <c r="E42" s="117">
         <v>1</v>
       </c>
-      <c r="F42" s="55">
+      <c r="F42" s="117">
         <v>1</v>
       </c>
-      <c r="G42" s="55">
+      <c r="G42" s="117">
         <v>1</v>
       </c>
-      <c r="H42" s="55">
+      <c r="H42" s="117">
         <v>1</v>
       </c>
-      <c r="I42" s="55">
-        <v>0</v>
-      </c>
-      <c r="J42" s="55"/>
-      <c r="K42" s="55"/>
-      <c r="L42" s="56">
+      <c r="I42" s="117">
+        <v>0</v>
+      </c>
+      <c r="J42" s="117"/>
+      <c r="K42" s="117"/>
+      <c r="L42" s="18">
         <v>43911</v>
       </c>
-      <c r="M42" s="57">
+      <c r="M42" s="118">
         <v>43914</v>
       </c>
     </row>
-    <row r="43" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A43" s="102"/>
-      <c r="B43" s="82" t="s">
+    <row r="43" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A43" s="98"/>
+      <c r="B43" s="119" t="s">
         <v>90</v>
       </c>
-      <c r="C43" s="60" t="s">
+      <c r="C43" s="64" t="s">
         <v>47</v>
       </c>
-      <c r="D43" s="58">
+      <c r="D43" s="17">
         <v>0.45</v>
       </c>
-      <c r="E43" s="59">
+      <c r="E43" s="9">
         <v>1</v>
       </c>
-      <c r="F43" s="60">
+      <c r="F43" s="64">
         <v>1</v>
       </c>
-      <c r="G43" s="60">
+      <c r="G43" s="64">
         <v>1</v>
       </c>
-      <c r="H43" s="60">
+      <c r="H43" s="64">
         <v>1</v>
       </c>
-      <c r="I43" s="60">
-        <v>0</v>
-      </c>
-      <c r="J43" s="60"/>
-      <c r="K43" s="60"/>
-      <c r="L43" s="57">
+      <c r="I43" s="64">
+        <v>0</v>
+      </c>
+      <c r="J43" s="64"/>
+      <c r="K43" s="64"/>
+      <c r="L43" s="118">
         <v>43914</v>
       </c>
-      <c r="M43" s="57">
+      <c r="M43" s="118">
         <v>43956</v>
       </c>
     </row>
-    <row r="44" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A44" s="102"/>
-      <c r="B44" s="82" t="s">
+    <row r="44" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A44" s="98"/>
+      <c r="B44" s="119" t="s">
         <v>94</v>
       </c>
-      <c r="C44" s="60" t="s">
+      <c r="C44" s="64" t="s">
         <v>47</v>
       </c>
-      <c r="D44" s="58">
+      <c r="D44" s="17">
         <v>0.38</v>
       </c>
-      <c r="E44" s="59">
+      <c r="E44" s="9">
         <v>1</v>
       </c>
-      <c r="F44" s="60">
+      <c r="F44" s="64">
         <v>1</v>
       </c>
-      <c r="G44" s="60">
+      <c r="G44" s="64">
         <v>1</v>
       </c>
-      <c r="H44" s="60">
+      <c r="H44" s="64">
         <v>1</v>
       </c>
-      <c r="I44" s="60">
-        <v>0</v>
-      </c>
-      <c r="J44" s="60"/>
-      <c r="K44" s="60"/>
-      <c r="L44" s="57">
+      <c r="I44" s="64">
+        <v>0</v>
+      </c>
+      <c r="J44" s="64"/>
+      <c r="K44" s="64"/>
+      <c r="L44" s="118">
         <v>43956</v>
       </c>
-      <c r="M44" s="57">
+      <c r="M44" s="118">
         <v>43985</v>
       </c>
     </row>
-    <row r="45" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A45" s="102"/>
-      <c r="B45" s="82" t="s">
+    <row r="45" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A45" s="98"/>
+      <c r="B45" s="119" t="s">
         <v>91</v>
       </c>
-      <c r="C45" s="60" t="s">
+      <c r="C45" s="64" t="s">
         <v>65</v>
       </c>
-      <c r="D45" s="58">
+      <c r="D45" s="17">
         <v>0.45</v>
       </c>
-      <c r="E45" s="60">
+      <c r="E45" s="64">
         <v>1</v>
       </c>
-      <c r="F45" s="60">
+      <c r="F45" s="64">
         <v>1</v>
       </c>
-      <c r="G45" s="60">
+      <c r="G45" s="64">
         <v>1</v>
       </c>
-      <c r="H45" s="60">
+      <c r="H45" s="64">
         <v>1</v>
       </c>
-      <c r="I45" s="60">
-        <v>0</v>
-      </c>
-      <c r="J45" s="60"/>
-      <c r="K45" s="60"/>
-      <c r="L45" s="57">
+      <c r="I45" s="64">
+        <v>0</v>
+      </c>
+      <c r="J45" s="64"/>
+      <c r="K45" s="64"/>
+      <c r="L45" s="118">
         <v>43985</v>
       </c>
-      <c r="M45" s="57"/>
-    </row>
-    <row r="46" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A46" s="102"/>
-      <c r="B46" s="82" t="s">
+      <c r="M45" s="118"/>
+    </row>
+    <row r="46" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A46" s="98"/>
+      <c r="B46" s="119" t="s">
         <v>92</v>
       </c>
-      <c r="C46" s="60" t="s">
+      <c r="C46" s="64" t="s">
         <v>65</v>
       </c>
-      <c r="D46" s="58">
+      <c r="D46" s="17">
         <v>0.6</v>
       </c>
-      <c r="E46" s="60">
+      <c r="E46" s="64">
         <v>1</v>
       </c>
-      <c r="F46" s="60">
+      <c r="F46" s="64">
         <v>1</v>
       </c>
-      <c r="G46" s="60">
+      <c r="G46" s="64">
         <v>1</v>
       </c>
-      <c r="H46" s="60">
+      <c r="H46" s="64">
         <v>1</v>
       </c>
-      <c r="I46" s="60">
-        <v>0</v>
-      </c>
-      <c r="J46" s="60"/>
-      <c r="K46" s="60"/>
-      <c r="L46" s="57"/>
-      <c r="M46" s="57"/>
-    </row>
-    <row r="47" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A47" s="103"/>
-      <c r="B47" s="90" t="s">
+      <c r="I46" s="64">
+        <v>0</v>
+      </c>
+      <c r="J46" s="64"/>
+      <c r="K46" s="64"/>
+      <c r="L46" s="118"/>
+      <c r="M46" s="118"/>
+    </row>
+    <row r="47" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A47" s="99"/>
+      <c r="B47" s="120" t="s">
         <v>93</v>
       </c>
-      <c r="C47" s="91" t="s">
+      <c r="C47" s="121" t="s">
         <v>65</v>
       </c>
-      <c r="D47" s="92">
+      <c r="D47" s="122">
         <v>0.7</v>
       </c>
-      <c r="E47" s="91">
+      <c r="E47" s="121">
         <v>1</v>
       </c>
-      <c r="F47" s="91">
+      <c r="F47" s="121">
         <v>1</v>
       </c>
-      <c r="G47" s="91">
+      <c r="G47" s="121">
         <v>1</v>
       </c>
-      <c r="H47" s="91">
+      <c r="H47" s="121">
         <v>1</v>
       </c>
-      <c r="I47" s="91">
-        <v>0</v>
-      </c>
-      <c r="J47" s="91"/>
-      <c r="K47" s="91"/>
-      <c r="L47" s="93"/>
-      <c r="M47" s="85"/>
+      <c r="I47" s="121">
+        <v>0</v>
+      </c>
+      <c r="J47" s="121"/>
+      <c r="K47" s="121"/>
+      <c r="L47" s="123"/>
+      <c r="M47" s="124"/>
     </row>
   </sheetData>
   <mergeCells count="8">
@@ -35220,23 +35241,23 @@
   </sheetPr>
   <dimension ref="A1:W9"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="L10" sqref="L10"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B16" sqref="B16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.7265625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="17.7265625" customWidth="1"/>
-    <col min="2" max="2" width="24.453125" customWidth="1"/>
-    <col min="3" max="3" width="18.26953125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="17.7109375" customWidth="1"/>
+    <col min="2" max="2" width="24.42578125" customWidth="1"/>
+    <col min="3" max="3" width="18.28515625" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="10" customWidth="1"/>
-    <col min="9" max="9" width="13.453125" customWidth="1"/>
-    <col min="13" max="13" width="9.7265625" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="9.81640625" customWidth="1"/>
-    <col min="15" max="15" width="11.26953125" customWidth="1"/>
+    <col min="9" max="9" width="13.42578125" customWidth="1"/>
+    <col min="13" max="13" width="9.7109375" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="9.85546875" customWidth="1"/>
+    <col min="15" max="15" width="11.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:23" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>17</v>
       </c>
@@ -35307,7 +35328,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="2" spans="1:23" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A2" s="44" t="s">
         <v>84</v>
       </c>
@@ -35379,7 +35400,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:23" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A3" s="44" t="s">
         <v>88</v>
       </c>
@@ -35451,7 +35472,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:23" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A4" s="44" t="s">
         <v>85</v>
       </c>
@@ -35501,7 +35522,9 @@
       <c r="P4">
         <v>60</v>
       </c>
-      <c r="Q4" s="64"/>
+      <c r="Q4" s="64">
+        <v>1500</v>
+      </c>
       <c r="R4">
         <v>2000</v>
       </c>
@@ -35521,7 +35544,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:23" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A5" s="44" t="s">
         <v>86</v>
       </c>
@@ -35571,11 +35594,14 @@
       <c r="P5">
         <v>60</v>
       </c>
+      <c r="Q5" s="88">
+        <v>4000</v>
+      </c>
       <c r="R5">
         <v>8000</v>
       </c>
       <c r="S5">
-        <v>25</v>
+        <v>15</v>
       </c>
       <c r="T5">
         <v>1</v>
@@ -35590,7 +35616,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:23" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A6" s="44" t="s">
         <v>87</v>
       </c>
@@ -35662,12 +35688,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:23" s="64" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:23" s="64" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A7" s="87" t="s">
         <v>96</v>
       </c>
       <c r="B7" s="65">
-        <v>43888</v>
+        <v>43913</v>
       </c>
       <c r="C7" s="65">
         <v>44256</v>
@@ -35692,7 +35718,7 @@
         <v>1.2</v>
       </c>
       <c r="J7" s="64">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="K7" s="64">
         <v>1.5E-3</v>
@@ -35712,11 +35738,14 @@
       <c r="P7" s="64">
         <v>60</v>
       </c>
+      <c r="Q7" s="64">
+        <v>2000</v>
+      </c>
       <c r="R7" s="64">
         <v>8000</v>
       </c>
       <c r="S7" s="64">
-        <v>25</v>
+        <v>50</v>
       </c>
       <c r="T7" s="64">
         <v>1</v>
@@ -35731,7 +35760,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:23" s="64" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:23" s="64" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A8" s="87" t="s">
         <v>95</v>
       </c>
@@ -35800,9 +35829,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:23" x14ac:dyDescent="0.35">
-      <c r="A9" s="88" t="s">
-        <v>97</v>
+    <row r="9" spans="1:23" s="64" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="89" t="s">
+        <v>101</v>
       </c>
       <c r="B9" s="65">
         <v>43893</v>
@@ -35889,21 +35918,21 @@
       <selection activeCell="A10" sqref="A10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.7265625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="27.7265625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="7.7265625" style="9" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="9.26953125" style="5" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="27.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="7.7109375" style="9" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.28515625" style="5" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="10" style="5" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="9.7265625" style="5" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="6.1796875" style="5" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="6.7265625" style="5" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="10.7265625" style="5" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="10.26953125" style="5" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="9.7265625" style="10" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9.7109375" style="5" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="6.140625" style="5" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="6.7109375" style="5" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="10.7109375" style="5" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="10.28515625" style="5" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="9.7109375" style="10" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1" s="6" t="s">
         <v>17</v>
       </c>
@@ -35935,7 +35964,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A2" s="44" t="s">
         <v>84</v>
       </c>
@@ -35967,7 +35996,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A3" s="44" t="s">
         <v>88</v>
       </c>
@@ -35999,7 +36028,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A4" s="44" t="s">
         <v>87</v>
       </c>
@@ -36031,7 +36060,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A5" s="44" t="s">
         <v>85</v>
       </c>
@@ -36063,7 +36092,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A6" s="44" t="s">
         <v>86</v>
       </c>
@@ -36095,7 +36124,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:10" s="64" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:10" s="64" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A7" s="87" t="s">
         <v>96</v>
       </c>
@@ -36127,7 +36156,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:10" s="64" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:10" s="64" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A8" s="87" t="s">
         <v>95</v>
       </c>
@@ -36159,9 +36188,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A9" s="88" t="s">
-        <v>97</v>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A9" s="89" t="s">
+        <v>101</v>
       </c>
       <c r="B9" s="64">
         <v>4</v>
@@ -36205,23 +36234,23 @@
   <dimension ref="A1:J9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A10" sqref="A10"/>
+      <selection activeCell="A9" sqref="A9:J9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.453125" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="27.7265625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="7.7265625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="9.26953125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="27.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="7.7109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.28515625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="10" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="9.7265625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="6.1796875" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="6.7265625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="10.26953125" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="9.7265625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9.7109375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="6.140625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="6.7109375" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="10.28515625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="9.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1" s="6" t="s">
         <v>17</v>
       </c>
@@ -36253,7 +36282,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A2" s="44" t="s">
         <v>84</v>
       </c>
@@ -36285,7 +36314,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A3" s="44" t="s">
         <v>88</v>
       </c>
@@ -36317,7 +36346,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A4" s="44" t="s">
         <v>87</v>
       </c>
@@ -36349,7 +36378,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A5" s="44" t="s">
         <v>85</v>
       </c>
@@ -36381,7 +36410,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A6" s="44" t="s">
         <v>86</v>
       </c>
@@ -36413,7 +36442,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="7" spans="1:10" s="64" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:10" s="64" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A7" s="87" t="s">
         <v>96</v>
       </c>
@@ -36445,7 +36474,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="8" spans="1:10" s="64" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:10" s="64" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A8" s="87" t="s">
         <v>95</v>
       </c>
@@ -36477,9 +36506,9 @@
         <v>20</v>
       </c>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A9" s="88" t="s">
-        <v>97</v>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A9" s="89" t="s">
+        <v>101</v>
       </c>
       <c r="B9" s="64">
         <v>6</v>
@@ -36522,23 +36551,23 @@
   <dimension ref="A1:J9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A10" sqref="A10"/>
+      <selection activeCell="A9" sqref="A9:J9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.453125" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="27.7265625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="7.7265625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="9.26953125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="27.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="7.7109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.28515625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="10" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="9.7265625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="6.1796875" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="6.7265625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="10.26953125" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="9.7265625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9.7109375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="6.140625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="6.7109375" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="10.28515625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="9.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1" s="6" t="s">
         <v>17</v>
       </c>
@@ -36570,7 +36599,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A2" s="44" t="s">
         <v>84</v>
       </c>
@@ -36602,7 +36631,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A3" s="44" t="s">
         <v>88</v>
       </c>
@@ -36634,7 +36663,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A4" s="44" t="s">
         <v>87</v>
       </c>
@@ -36666,7 +36695,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A5" s="44" t="s">
         <v>85</v>
       </c>
@@ -36698,7 +36727,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A6" s="44" t="s">
         <v>86</v>
       </c>
@@ -36730,7 +36759,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="7" spans="1:10" s="64" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:10" s="64" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A7" s="87" t="s">
         <v>96</v>
       </c>
@@ -36762,7 +36791,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="8" spans="1:10" s="64" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:10" s="64" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A8" s="87" t="s">
         <v>95</v>
       </c>
@@ -36794,9 +36823,9 @@
         <v>2</v>
       </c>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A9" s="88" t="s">
-        <v>97</v>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A9" s="89" t="s">
+        <v>101</v>
       </c>
       <c r="B9" s="64">
         <v>3</v>
@@ -36839,24 +36868,24 @@
   <dimension ref="A1:J9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A10" sqref="A10"/>
+      <selection activeCell="A9" sqref="A9:J9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.453125" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="27.7265625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="7.7265625" style="9" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="9.26953125" style="5" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="27.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="7.7109375" style="9" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.28515625" style="5" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="10" style="5" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="9.7265625" style="5" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="6.1796875" style="5" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="6.7265625" style="5" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="10.7265625" style="5"/>
-    <col min="9" max="9" width="10.26953125" style="5" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="9.7265625" style="10" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9.7109375" style="5" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="6.140625" style="5" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="6.7109375" style="5" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="10.7109375" style="5"/>
+    <col min="9" max="9" width="10.28515625" style="5" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="9.7109375" style="10" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1" s="11" t="s">
         <v>17</v>
       </c>
@@ -36888,7 +36917,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A2" s="44" t="s">
         <v>84</v>
       </c>
@@ -36920,7 +36949,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A3" s="44" t="s">
         <v>88</v>
       </c>
@@ -36952,7 +36981,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A4" s="44" t="s">
         <v>87</v>
       </c>
@@ -36984,7 +37013,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A5" s="44" t="s">
         <v>85</v>
       </c>
@@ -37016,7 +37045,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A6" s="44" t="s">
         <v>86</v>
       </c>
@@ -37048,7 +37077,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="7" spans="1:10" s="64" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:10" s="64" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A7" s="87" t="s">
         <v>96</v>
       </c>
@@ -37080,7 +37109,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="8" spans="1:10" s="64" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:10" s="64" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A8" s="87" t="s">
         <v>95</v>
       </c>
@@ -37112,9 +37141,9 @@
         <v>2</v>
       </c>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A9" s="88" t="s">
-        <v>97</v>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A9" s="89" t="s">
+        <v>101</v>
       </c>
       <c r="B9" s="64">
         <v>23</v>

--- a/data/input_data_brazil.xlsx
+++ b/data/input_data_brazil.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\dominic.delport\Documents\GitHub\covasim-australia\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{47CD40C2-B1FE-42C5-886D-C50BDF34C34D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4E767EED-25B6-48D6-9778-CAEB9E536C5F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="839" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="839" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="age_sex" sheetId="1" r:id="rId1"/>
@@ -957,6 +957,12 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -969,10 +975,13 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -982,15 +991,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1371,7 +1371,7 @@
   <dimension ref="A1:T38"/>
   <sheetViews>
     <sheetView topLeftCell="A15" workbookViewId="0">
-      <selection activeCell="C38" sqref="C38:S38"/>
+      <selection activeCell="S36" sqref="S36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.7265625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -3620,6 +3620,11 @@
     </row>
   </sheetData>
   <mergeCells count="18">
+    <mergeCell ref="A2:A3"/>
+    <mergeCell ref="A4:A5"/>
+    <mergeCell ref="A6:A7"/>
+    <mergeCell ref="A8:A9"/>
+    <mergeCell ref="A10:A11"/>
     <mergeCell ref="A34:A35"/>
     <mergeCell ref="A36:A37"/>
     <mergeCell ref="A12:A13"/>
@@ -3627,11 +3632,6 @@
     <mergeCell ref="A16:A17"/>
     <mergeCell ref="A18:A19"/>
     <mergeCell ref="A20:A21"/>
-    <mergeCell ref="A2:A3"/>
-    <mergeCell ref="A4:A5"/>
-    <mergeCell ref="A6:A7"/>
-    <mergeCell ref="A8:A9"/>
-    <mergeCell ref="A10:A11"/>
     <mergeCell ref="A30:A31"/>
     <mergeCell ref="A32:A33"/>
     <mergeCell ref="A22:A23"/>
@@ -37204,7 +37204,7 @@
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A2" s="115" t="s">
+      <c r="A2" s="111" t="s">
         <v>84</v>
       </c>
       <c r="B2" s="40" t="s">
@@ -37229,7 +37229,7 @@
       <c r="I2" s="24"/>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A3" s="116"/>
+      <c r="A3" s="112"/>
       <c r="B3" s="41" t="s">
         <v>71</v>
       </c>
@@ -37248,7 +37248,7 @@
       <c r="I3" s="27"/>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A4" s="113" t="s">
+      <c r="A4" s="115" t="s">
         <v>88</v>
       </c>
       <c r="B4" s="42" t="s">
@@ -37273,7 +37273,7 @@
       <c r="I4" s="20"/>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A5" s="114"/>
+      <c r="A5" s="116"/>
       <c r="B5" s="43" t="s">
         <v>71</v>
       </c>
@@ -37292,7 +37292,7 @@
       <c r="I5" s="21"/>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A6" s="115" t="s">
+      <c r="A6" s="111" t="s">
         <v>85</v>
       </c>
       <c r="B6" s="40" t="s">
@@ -37317,7 +37317,7 @@
       <c r="I6" s="24"/>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A7" s="116"/>
+      <c r="A7" s="112"/>
       <c r="B7" s="41" t="s">
         <v>71</v>
       </c>
@@ -37336,7 +37336,7 @@
       <c r="I7" s="27"/>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A8" s="113" t="s">
+      <c r="A8" s="115" t="s">
         <v>86</v>
       </c>
       <c r="B8" s="42" t="s">
@@ -37361,7 +37361,7 @@
       <c r="I8" s="20"/>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A9" s="114"/>
+      <c r="A9" s="116"/>
       <c r="B9" s="43" t="s">
         <v>71</v>
       </c>
@@ -37380,7 +37380,7 @@
       <c r="I9" s="21"/>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A10" s="115" t="s">
+      <c r="A10" s="111" t="s">
         <v>87</v>
       </c>
       <c r="B10" s="40" t="s">
@@ -37405,7 +37405,7 @@
       <c r="I10" s="24"/>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A11" s="116"/>
+      <c r="A11" s="112"/>
       <c r="B11" s="41" t="s">
         <v>71</v>
       </c>
@@ -37424,7 +37424,7 @@
       <c r="I11" s="27"/>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A12" s="113" t="s">
+      <c r="A12" s="115" t="s">
         <v>96</v>
       </c>
       <c r="B12" s="42" t="s">
@@ -37449,7 +37449,7 @@
       <c r="I12" s="20"/>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A13" s="114"/>
+      <c r="A13" s="116"/>
       <c r="B13" s="43" t="s">
         <v>71</v>
       </c>
@@ -37468,7 +37468,7 @@
       <c r="I13" s="21"/>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A14" s="115" t="s">
+      <c r="A14" s="111" t="s">
         <v>95</v>
       </c>
       <c r="B14" s="40" t="s">
@@ -37493,7 +37493,7 @@
       <c r="I14" s="24"/>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A15" s="116"/>
+      <c r="A15" s="112"/>
       <c r="B15" s="41" t="s">
         <v>71</v>
       </c>
@@ -37512,7 +37512,7 @@
       <c r="I15" s="27"/>
     </row>
     <row r="16" spans="1:9" s="60" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A16" s="111" t="s">
+      <c r="A16" s="113" t="s">
         <v>101</v>
       </c>
       <c r="B16" s="91" t="s">
@@ -37537,7 +37537,7 @@
       <c r="I16" s="92"/>
     </row>
     <row r="17" spans="1:9" s="60" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A17" s="112"/>
+      <c r="A17" s="114"/>
       <c r="B17" s="94" t="s">
         <v>71</v>
       </c>
@@ -37556,7 +37556,7 @@
       <c r="I17" s="95"/>
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A18" s="115" t="s">
+      <c r="A18" s="111" t="s">
         <v>102</v>
       </c>
       <c r="B18" s="40" t="s">
@@ -37581,7 +37581,7 @@
       <c r="I18" s="24"/>
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A19" s="116"/>
+      <c r="A19" s="112"/>
       <c r="B19" s="41" t="s">
         <v>71</v>
       </c>
@@ -37624,7 +37624,7 @@
   </sheetPr>
   <dimension ref="A1:M54"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A28" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView topLeftCell="A28" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="D52" sqref="D52"/>
     </sheetView>
   </sheetViews>
@@ -37850,7 +37850,7 @@
       <c r="M6" s="77"/>
     </row>
     <row r="7" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A7" s="117" t="s">
+      <c r="A7" s="120" t="s">
         <v>88</v>
       </c>
       <c r="B7" s="61" t="s">
@@ -37887,7 +37887,7 @@
       </c>
     </row>
     <row r="8" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A8" s="118"/>
+      <c r="A8" s="121"/>
       <c r="B8" s="82" t="s">
         <v>90</v>
       </c>
@@ -37920,7 +37920,7 @@
       <c r="M8" s="57"/>
     </row>
     <row r="9" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A9" s="118"/>
+      <c r="A9" s="121"/>
       <c r="B9" s="82" t="s">
         <v>91</v>
       </c>
@@ -37951,7 +37951,7 @@
       <c r="M9" s="57"/>
     </row>
     <row r="10" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A10" s="118"/>
+      <c r="A10" s="121"/>
       <c r="B10" s="82" t="s">
         <v>92</v>
       </c>
@@ -37982,7 +37982,7 @@
       <c r="M10" s="57"/>
     </row>
     <row r="11" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A11" s="119"/>
+      <c r="A11" s="122"/>
       <c r="B11" s="82" t="s">
         <v>93</v>
       </c>
@@ -38013,7 +38013,7 @@
       <c r="M11" s="57"/>
     </row>
     <row r="12" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A12" s="120" t="s">
+      <c r="A12" s="117" t="s">
         <v>85</v>
       </c>
       <c r="B12" s="69" t="s">
@@ -38050,7 +38050,7 @@
       </c>
     </row>
     <row r="13" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A13" s="121"/>
+      <c r="A13" s="118"/>
       <c r="B13" s="71" t="s">
         <v>90</v>
       </c>
@@ -38085,7 +38085,7 @@
       </c>
     </row>
     <row r="14" spans="1:13" s="64" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A14" s="121"/>
+      <c r="A14" s="118"/>
       <c r="B14" s="71" t="s">
         <v>94</v>
       </c>
@@ -38118,7 +38118,7 @@
       <c r="M14" s="74"/>
     </row>
     <row r="15" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A15" s="121"/>
+      <c r="A15" s="118"/>
       <c r="B15" s="71" t="s">
         <v>91</v>
       </c>
@@ -38149,7 +38149,7 @@
       <c r="M15" s="74"/>
     </row>
     <row r="16" spans="1:13" s="64" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A16" s="121"/>
+      <c r="A16" s="118"/>
       <c r="B16" s="71" t="s">
         <v>92</v>
       </c>
@@ -38180,7 +38180,7 @@
       <c r="M16" s="74"/>
     </row>
     <row r="17" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A17" s="122"/>
+      <c r="A17" s="119"/>
       <c r="B17" s="71" t="s">
         <v>93</v>
       </c>
@@ -38211,7 +38211,7 @@
       <c r="M17" s="77"/>
     </row>
     <row r="18" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A18" s="117" t="s">
+      <c r="A18" s="120" t="s">
         <v>86</v>
       </c>
       <c r="B18" s="61" t="s">
@@ -38248,7 +38248,7 @@
       </c>
     </row>
     <row r="19" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A19" s="118"/>
+      <c r="A19" s="121"/>
       <c r="B19" s="82" t="s">
         <v>90</v>
       </c>
@@ -38283,7 +38283,7 @@
       </c>
     </row>
     <row r="20" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A20" s="118"/>
+      <c r="A20" s="121"/>
       <c r="B20" s="82" t="s">
         <v>94</v>
       </c>
@@ -38316,7 +38316,7 @@
       <c r="M20" s="57"/>
     </row>
     <row r="21" spans="1:13" s="64" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A21" s="118"/>
+      <c r="A21" s="121"/>
       <c r="B21" s="82" t="s">
         <v>91</v>
       </c>
@@ -38347,7 +38347,7 @@
       <c r="M21" s="57"/>
     </row>
     <row r="22" spans="1:13" s="64" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A22" s="118"/>
+      <c r="A22" s="121"/>
       <c r="B22" s="82" t="s">
         <v>92</v>
       </c>
@@ -38378,7 +38378,7 @@
       <c r="M22" s="57"/>
     </row>
     <row r="23" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A23" s="119"/>
+      <c r="A23" s="122"/>
       <c r="B23" s="82" t="s">
         <v>93</v>
       </c>
@@ -38409,7 +38409,7 @@
       <c r="M23" s="85"/>
     </row>
     <row r="24" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A24" s="120" t="s">
+      <c r="A24" s="117" t="s">
         <v>87</v>
       </c>
       <c r="B24" s="45" t="s">
@@ -38446,7 +38446,7 @@
       </c>
     </row>
     <row r="25" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A25" s="121"/>
+      <c r="A25" s="118"/>
       <c r="B25" s="46" t="s">
         <v>90</v>
       </c>
@@ -38481,7 +38481,7 @@
       </c>
     </row>
     <row r="26" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A26" s="121"/>
+      <c r="A26" s="118"/>
       <c r="B26" s="46" t="s">
         <v>94</v>
       </c>
@@ -38514,7 +38514,7 @@
       <c r="M26" s="74"/>
     </row>
     <row r="27" spans="1:13" s="64" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A27" s="121"/>
+      <c r="A27" s="118"/>
       <c r="B27" s="71" t="s">
         <v>91</v>
       </c>
@@ -38545,7 +38545,7 @@
       <c r="M27" s="74"/>
     </row>
     <row r="28" spans="1:13" s="64" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A28" s="121"/>
+      <c r="A28" s="118"/>
       <c r="B28" s="71" t="s">
         <v>92</v>
       </c>
@@ -38576,7 +38576,7 @@
       <c r="M28" s="75"/>
     </row>
     <row r="29" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A29" s="122"/>
+      <c r="A29" s="119"/>
       <c r="B29" s="79" t="s">
         <v>93</v>
       </c>
@@ -38607,7 +38607,7 @@
       <c r="M29" s="52"/>
     </row>
     <row r="30" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A30" s="117" t="s">
+      <c r="A30" s="120" t="s">
         <v>96</v>
       </c>
       <c r="B30" s="61" t="s">
@@ -38644,7 +38644,7 @@
       </c>
     </row>
     <row r="31" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A31" s="118"/>
+      <c r="A31" s="121"/>
       <c r="B31" s="82" t="s">
         <v>90</v>
       </c>
@@ -38679,7 +38679,7 @@
       </c>
     </row>
     <row r="32" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A32" s="118"/>
+      <c r="A32" s="121"/>
       <c r="B32" s="82" t="s">
         <v>94</v>
       </c>
@@ -38714,7 +38714,7 @@
       </c>
     </row>
     <row r="33" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A33" s="118"/>
+      <c r="A33" s="121"/>
       <c r="B33" s="82" t="s">
         <v>91</v>
       </c>
@@ -38747,7 +38747,7 @@
       <c r="M33" s="57"/>
     </row>
     <row r="34" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A34" s="118"/>
+      <c r="A34" s="121"/>
       <c r="B34" s="82" t="s">
         <v>92</v>
       </c>
@@ -38778,7 +38778,7 @@
       <c r="M34" s="57"/>
     </row>
     <row r="35" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A35" s="119"/>
+      <c r="A35" s="122"/>
       <c r="B35" s="82" t="s">
         <v>93</v>
       </c>
@@ -38809,7 +38809,7 @@
       <c r="M35" s="85"/>
     </row>
     <row r="36" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A36" s="120" t="s">
+      <c r="A36" s="117" t="s">
         <v>95</v>
       </c>
       <c r="B36" s="69" t="s">
@@ -38846,7 +38846,7 @@
       </c>
     </row>
     <row r="37" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A37" s="121"/>
+      <c r="A37" s="118"/>
       <c r="B37" s="71" t="s">
         <v>90</v>
       </c>
@@ -38881,7 +38881,7 @@
       </c>
     </row>
     <row r="38" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A38" s="121"/>
+      <c r="A38" s="118"/>
       <c r="B38" s="71" t="s">
         <v>94</v>
       </c>
@@ -38914,7 +38914,7 @@
       <c r="M38" s="74"/>
     </row>
     <row r="39" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A39" s="121"/>
+      <c r="A39" s="118"/>
       <c r="B39" s="71" t="s">
         <v>91</v>
       </c>
@@ -38945,7 +38945,7 @@
       <c r="M39" s="74"/>
     </row>
     <row r="40" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A40" s="121"/>
+      <c r="A40" s="118"/>
       <c r="B40" s="71" t="s">
         <v>92</v>
       </c>
@@ -38976,7 +38976,7 @@
       <c r="M40" s="75"/>
     </row>
     <row r="41" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A41" s="122"/>
+      <c r="A41" s="119"/>
       <c r="B41" s="79" t="s">
         <v>93</v>
       </c>
@@ -39007,7 +39007,7 @@
       <c r="M41" s="77"/>
     </row>
     <row r="42" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A42" s="117" t="s">
+      <c r="A42" s="120" t="s">
         <v>101</v>
       </c>
       <c r="B42" s="97" t="s">
@@ -39044,7 +39044,7 @@
       </c>
     </row>
     <row r="43" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A43" s="118"/>
+      <c r="A43" s="121"/>
       <c r="B43" s="102" t="s">
         <v>90</v>
       </c>
@@ -39079,7 +39079,7 @@
       </c>
     </row>
     <row r="44" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A44" s="118"/>
+      <c r="A44" s="121"/>
       <c r="B44" s="102" t="s">
         <v>94</v>
       </c>
@@ -39114,7 +39114,7 @@
       </c>
     </row>
     <row r="45" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A45" s="118"/>
+      <c r="A45" s="121"/>
       <c r="B45" s="102" t="s">
         <v>91</v>
       </c>
@@ -39147,7 +39147,7 @@
       <c r="M45" s="101"/>
     </row>
     <row r="46" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A46" s="118"/>
+      <c r="A46" s="121"/>
       <c r="B46" s="102" t="s">
         <v>92</v>
       </c>
@@ -39178,7 +39178,7 @@
       <c r="M46" s="101"/>
     </row>
     <row r="47" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A47" s="119"/>
+      <c r="A47" s="122"/>
       <c r="B47" s="103" t="s">
         <v>93</v>
       </c>
@@ -39209,7 +39209,7 @@
       <c r="M47" s="107"/>
     </row>
     <row r="48" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A48" s="120" t="s">
+      <c r="A48" s="117" t="s">
         <v>102</v>
       </c>
       <c r="B48" s="69" t="s">
@@ -39246,7 +39246,7 @@
       </c>
     </row>
     <row r="49" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A49" s="121"/>
+      <c r="A49" s="118"/>
       <c r="B49" s="71" t="s">
         <v>90</v>
       </c>
@@ -39281,7 +39281,7 @@
       </c>
     </row>
     <row r="50" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A50" s="121"/>
+      <c r="A50" s="118"/>
       <c r="B50" s="71" t="s">
         <v>94</v>
       </c>
@@ -39316,7 +39316,7 @@
       </c>
     </row>
     <row r="51" spans="1:13" s="64" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A51" s="121"/>
+      <c r="A51" s="118"/>
       <c r="B51" s="71" t="s">
         <v>103</v>
       </c>
@@ -39324,7 +39324,7 @@
         <v>47</v>
       </c>
       <c r="D51" s="73">
-        <v>0.09</v>
+        <v>0.1</v>
       </c>
       <c r="E51" s="76">
         <v>1</v>
@@ -39349,7 +39349,7 @@
       <c r="M51" s="74"/>
     </row>
     <row r="52" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A52" s="121"/>
+      <c r="A52" s="118"/>
       <c r="B52" s="71" t="s">
         <v>91</v>
       </c>
@@ -39380,7 +39380,7 @@
       <c r="M52" s="74"/>
     </row>
     <row r="53" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A53" s="121"/>
+      <c r="A53" s="118"/>
       <c r="B53" s="71" t="s">
         <v>92</v>
       </c>
@@ -39411,7 +39411,7 @@
       <c r="M53" s="75"/>
     </row>
     <row r="54" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A54" s="122"/>
+      <c r="A54" s="119"/>
       <c r="B54" s="79" t="s">
         <v>93</v>
       </c>
@@ -39465,8 +39465,8 @@
   </sheetPr>
   <dimension ref="A1:W10"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="S10" sqref="S10"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="Q10" sqref="Q10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.7265625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -40165,7 +40165,7 @@
         <v>0.1</v>
       </c>
       <c r="N10" s="64">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="O10" s="64">
         <v>50</v>
@@ -40174,7 +40174,7 @@
         <v>60</v>
       </c>
       <c r="Q10" s="64">
-        <v>200</v>
+        <v>500</v>
       </c>
       <c r="R10" s="64">
         <v>8000</v>

--- a/data/input_data_brazil.xlsx
+++ b/data/input_data_brazil.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\dominic.delport\Documents\GitHub\covasim-australia\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4E767EED-25B6-48D6-9778-CAEB9E536C5F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D3021BBE-CA31-4A9A-BA01-C21F6D69CDBD}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="839" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -39466,7 +39466,7 @@
   <dimension ref="A1:W10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="Q10" sqref="Q10"/>
+      <selection activeCell="Q9" sqref="Q9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.7265625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -40103,7 +40103,7 @@
         <v>60</v>
       </c>
       <c r="Q9" s="64">
-        <v>1000</v>
+        <v>300</v>
       </c>
       <c r="R9" s="64">
         <v>8000</v>
